--- a/SLIStatistik.xlsx
+++ b/SLIStatistik.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://teknosolcomtr-my.sharepoint.com/personal/ozgur_teknosol_com_tr/Documents/Masaüstü/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\ReadExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1129" documentId="13_ncr:1_{E2466E06-4CE5-46B8-87A4-EA19CDB480AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E455F0F9-D80F-40A8-AA14-95A06013990C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9697B900-BFC1-4E6C-B60A-4ED2315852FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
+    <workbookView xWindow="4230" yWindow="1365" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
   </bookViews>
   <sheets>
     <sheet name="CSL_Sonuclari" sheetId="2" r:id="rId1"/>
@@ -30,14 +30,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -620,13 +612,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21120D27-1448-4179-993C-6B3BE739480A}">
-  <dimension ref="A1:L362"/>
+  <dimension ref="A1:L379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B336" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B357" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A363" sqref="A363"/>
+      <selection pane="bottomRight" activeCell="C380" sqref="C380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11631,6 +11623,550 @@
         <v>26</v>
       </c>
     </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A363" s="2">
+        <v>362</v>
+      </c>
+      <c r="B363" s="1">
+        <v>44893</v>
+      </c>
+      <c r="C363" s="2">
+        <v>13</v>
+      </c>
+      <c r="D363" s="2">
+        <v>28</v>
+      </c>
+      <c r="E363" s="2">
+        <v>34</v>
+      </c>
+      <c r="F363" s="2">
+        <v>67</v>
+      </c>
+      <c r="G363" s="2">
+        <v>77</v>
+      </c>
+      <c r="H363" s="2">
+        <v>81</v>
+      </c>
+      <c r="I363" s="2">
+        <v>36</v>
+      </c>
+      <c r="J363" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A364" s="2">
+        <v>362</v>
+      </c>
+      <c r="B364" s="1">
+        <v>44895</v>
+      </c>
+      <c r="C364" s="2">
+        <v>8</v>
+      </c>
+      <c r="D364" s="2">
+        <v>14</v>
+      </c>
+      <c r="E364" s="2">
+        <v>26</v>
+      </c>
+      <c r="F364" s="2">
+        <v>30</v>
+      </c>
+      <c r="G364" s="2">
+        <v>83</v>
+      </c>
+      <c r="H364" s="2">
+        <v>84</v>
+      </c>
+      <c r="I364" s="2">
+        <v>17</v>
+      </c>
+      <c r="J364" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A365" s="2">
+        <v>363</v>
+      </c>
+      <c r="B365" s="1">
+        <v>44898</v>
+      </c>
+      <c r="C365" s="2">
+        <v>4</v>
+      </c>
+      <c r="D365" s="2">
+        <v>12</v>
+      </c>
+      <c r="E365" s="2">
+        <v>14</v>
+      </c>
+      <c r="F365" s="2">
+        <v>52</v>
+      </c>
+      <c r="G365" s="2">
+        <v>68</v>
+      </c>
+      <c r="H365" s="2">
+        <v>76</v>
+      </c>
+      <c r="I365" s="2">
+        <v>57</v>
+      </c>
+      <c r="J365" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A366" s="2">
+        <v>364</v>
+      </c>
+      <c r="B366" s="1">
+        <v>44900</v>
+      </c>
+      <c r="C366" s="2">
+        <v>38</v>
+      </c>
+      <c r="D366" s="2">
+        <v>44</v>
+      </c>
+      <c r="E366" s="2">
+        <v>51</v>
+      </c>
+      <c r="F366" s="2">
+        <v>60</v>
+      </c>
+      <c r="G366" s="2">
+        <v>66</v>
+      </c>
+      <c r="H366" s="2">
+        <v>80</v>
+      </c>
+      <c r="I366" s="2">
+        <v>11</v>
+      </c>
+      <c r="J366" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A367" s="2">
+        <v>365</v>
+      </c>
+      <c r="B367" s="1">
+        <v>44902</v>
+      </c>
+      <c r="C367" s="2">
+        <v>4</v>
+      </c>
+      <c r="D367" s="2">
+        <v>14</v>
+      </c>
+      <c r="E367" s="2">
+        <v>26</v>
+      </c>
+      <c r="F367" s="2">
+        <v>39</v>
+      </c>
+      <c r="G367" s="2">
+        <v>47</v>
+      </c>
+      <c r="H367" s="2">
+        <v>64</v>
+      </c>
+      <c r="I367" s="2">
+        <v>11</v>
+      </c>
+      <c r="J367" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A368" s="2">
+        <v>366</v>
+      </c>
+      <c r="B368" s="1">
+        <v>44905</v>
+      </c>
+      <c r="C368" s="2">
+        <v>1</v>
+      </c>
+      <c r="D368" s="2">
+        <v>41</v>
+      </c>
+      <c r="E368" s="2">
+        <v>59</v>
+      </c>
+      <c r="F368" s="2">
+        <v>53</v>
+      </c>
+      <c r="G368" s="2">
+        <v>65</v>
+      </c>
+      <c r="H368" s="2">
+        <v>86</v>
+      </c>
+      <c r="I368" s="2">
+        <v>27</v>
+      </c>
+      <c r="J368" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A369" s="2">
+        <v>367</v>
+      </c>
+      <c r="B369" s="1">
+        <v>44907</v>
+      </c>
+      <c r="C369" s="2">
+        <v>6</v>
+      </c>
+      <c r="D369" s="2">
+        <v>16</v>
+      </c>
+      <c r="E369" s="2">
+        <v>27</v>
+      </c>
+      <c r="F369" s="2">
+        <v>32</v>
+      </c>
+      <c r="G369" s="2">
+        <v>62</v>
+      </c>
+      <c r="H369" s="2">
+        <v>68</v>
+      </c>
+      <c r="I369" s="2">
+        <v>57</v>
+      </c>
+      <c r="J369" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A370" s="2">
+        <v>368</v>
+      </c>
+      <c r="B370" s="1">
+        <v>44909</v>
+      </c>
+      <c r="C370" s="2">
+        <v>13</v>
+      </c>
+      <c r="D370" s="2">
+        <v>27</v>
+      </c>
+      <c r="E370" s="2">
+        <v>29</v>
+      </c>
+      <c r="F370" s="2">
+        <v>34</v>
+      </c>
+      <c r="G370" s="2">
+        <v>58</v>
+      </c>
+      <c r="H370" s="2">
+        <v>82</v>
+      </c>
+      <c r="I370" s="2">
+        <v>38</v>
+      </c>
+      <c r="J370" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A371" s="2">
+        <v>369</v>
+      </c>
+      <c r="B371" s="1">
+        <v>44912</v>
+      </c>
+      <c r="C371" s="2">
+        <v>7</v>
+      </c>
+      <c r="D371" s="2">
+        <v>13</v>
+      </c>
+      <c r="E371" s="2">
+        <v>39</v>
+      </c>
+      <c r="F371" s="2">
+        <v>41</v>
+      </c>
+      <c r="G371" s="2">
+        <v>65</v>
+      </c>
+      <c r="H371" s="2">
+        <v>69</v>
+      </c>
+      <c r="I371" s="2">
+        <v>45</v>
+      </c>
+      <c r="J371" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A372" s="2">
+        <v>370</v>
+      </c>
+      <c r="B372" s="1">
+        <v>44914</v>
+      </c>
+      <c r="C372" s="2">
+        <v>32</v>
+      </c>
+      <c r="D372" s="2">
+        <v>35</v>
+      </c>
+      <c r="E372" s="2">
+        <v>42</v>
+      </c>
+      <c r="F372" s="2">
+        <v>74</v>
+      </c>
+      <c r="G372" s="2">
+        <v>80</v>
+      </c>
+      <c r="H372" s="2">
+        <v>84</v>
+      </c>
+      <c r="I372" s="2">
+        <v>58</v>
+      </c>
+      <c r="J372" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A373" s="2">
+        <v>371</v>
+      </c>
+      <c r="B373" s="1">
+        <v>44916</v>
+      </c>
+      <c r="C373" s="2">
+        <v>51</v>
+      </c>
+      <c r="D373" s="2">
+        <v>54</v>
+      </c>
+      <c r="E373" s="2">
+        <v>63</v>
+      </c>
+      <c r="F373" s="2">
+        <v>67</v>
+      </c>
+      <c r="G373" s="2">
+        <v>77</v>
+      </c>
+      <c r="H373" s="2">
+        <v>88</v>
+      </c>
+      <c r="I373" s="2">
+        <v>9</v>
+      </c>
+      <c r="J373" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A374" s="2">
+        <v>372</v>
+      </c>
+      <c r="B374" s="1">
+        <v>44919</v>
+      </c>
+      <c r="C374" s="2">
+        <v>9</v>
+      </c>
+      <c r="D374" s="2">
+        <v>31</v>
+      </c>
+      <c r="E374" s="2">
+        <v>34</v>
+      </c>
+      <c r="F374" s="2">
+        <v>75</v>
+      </c>
+      <c r="G374" s="2">
+        <v>80</v>
+      </c>
+      <c r="H374" s="2">
+        <v>86</v>
+      </c>
+      <c r="I374" s="2">
+        <v>50</v>
+      </c>
+      <c r="J374" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A375" s="2">
+        <v>373</v>
+      </c>
+      <c r="B375" s="1">
+        <v>44921</v>
+      </c>
+      <c r="C375" s="2">
+        <v>4</v>
+      </c>
+      <c r="D375" s="2">
+        <v>18</v>
+      </c>
+      <c r="E375" s="2">
+        <v>23</v>
+      </c>
+      <c r="F375" s="2">
+        <v>33</v>
+      </c>
+      <c r="G375" s="2">
+        <v>71</v>
+      </c>
+      <c r="H375" s="2">
+        <v>89</v>
+      </c>
+      <c r="I375" s="2">
+        <v>54</v>
+      </c>
+      <c r="J375" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A376" s="2">
+        <v>374</v>
+      </c>
+      <c r="B376" s="1">
+        <v>44923</v>
+      </c>
+      <c r="C376" s="2">
+        <v>11</v>
+      </c>
+      <c r="D376" s="2">
+        <v>28</v>
+      </c>
+      <c r="E376" s="2">
+        <v>52</v>
+      </c>
+      <c r="F376" s="2">
+        <v>71</v>
+      </c>
+      <c r="G376" s="2">
+        <v>77</v>
+      </c>
+      <c r="H376" s="2">
+        <v>87</v>
+      </c>
+      <c r="I376" s="2">
+        <v>12</v>
+      </c>
+      <c r="J376" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A377" s="2">
+        <v>375</v>
+      </c>
+      <c r="B377" s="1">
+        <v>44925</v>
+      </c>
+      <c r="C377" s="2">
+        <v>16</v>
+      </c>
+      <c r="D377" s="2">
+        <v>22</v>
+      </c>
+      <c r="E377" s="2">
+        <v>42</v>
+      </c>
+      <c r="F377" s="2">
+        <v>64</v>
+      </c>
+      <c r="G377" s="2">
+        <v>68</v>
+      </c>
+      <c r="H377" s="2">
+        <v>84</v>
+      </c>
+      <c r="I377" s="2">
+        <v>51</v>
+      </c>
+      <c r="J377" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A378" s="2">
+        <v>376</v>
+      </c>
+      <c r="B378" s="1">
+        <v>44928</v>
+      </c>
+      <c r="C378" s="2">
+        <v>2</v>
+      </c>
+      <c r="D378" s="2">
+        <v>6</v>
+      </c>
+      <c r="E378" s="2">
+        <v>9</v>
+      </c>
+      <c r="F378" s="2">
+        <v>25</v>
+      </c>
+      <c r="G378" s="2">
+        <v>50</v>
+      </c>
+      <c r="H378" s="2">
+        <v>65</v>
+      </c>
+      <c r="I378" s="2">
+        <v>79</v>
+      </c>
+      <c r="J378" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A379" s="2">
+        <v>377</v>
+      </c>
+      <c r="B379" s="1">
+        <v>44930</v>
+      </c>
+      <c r="C379" s="2">
+        <v>5</v>
+      </c>
+      <c r="D379" s="2">
+        <v>28</v>
+      </c>
+      <c r="E379" s="2">
+        <v>48</v>
+      </c>
+      <c r="F379" s="2">
+        <v>60</v>
+      </c>
+      <c r="G379" s="2">
+        <v>63</v>
+      </c>
+      <c r="H379" s="2">
+        <v>80</v>
+      </c>
+      <c r="I379" s="2">
+        <v>46</v>
+      </c>
+      <c r="J379" s="2">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J311">
     <sortCondition ref="B2:B311"/>
@@ -11642,10 +12178,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8BCBFC-83B0-4863-9D9A-FF955DDDA58C}">
-  <dimension ref="A1:H362"/>
+  <dimension ref="A1:H379"/>
   <sheetViews>
-    <sheetView topLeftCell="A339" workbookViewId="0">
-      <selection activeCell="A363" sqref="A363"/>
+    <sheetView topLeftCell="A348" workbookViewId="0">
+      <selection activeCell="A380" sqref="A380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21065,6 +21601,448 @@
         <v>60</v>
       </c>
     </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>362</v>
+      </c>
+      <c r="B363" s="1">
+        <v>44894</v>
+      </c>
+      <c r="C363">
+        <v>9</v>
+      </c>
+      <c r="D363">
+        <v>24</v>
+      </c>
+      <c r="E363">
+        <v>26</v>
+      </c>
+      <c r="F363">
+        <v>31</v>
+      </c>
+      <c r="G363">
+        <v>50</v>
+      </c>
+      <c r="H363">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>363</v>
+      </c>
+      <c r="B364" s="1">
+        <v>44896</v>
+      </c>
+      <c r="C364">
+        <v>3</v>
+      </c>
+      <c r="D364">
+        <v>5</v>
+      </c>
+      <c r="E364">
+        <v>35</v>
+      </c>
+      <c r="F364">
+        <v>57</v>
+      </c>
+      <c r="G364">
+        <v>58</v>
+      </c>
+      <c r="H364">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>364</v>
+      </c>
+      <c r="B365" s="1">
+        <v>44899</v>
+      </c>
+      <c r="C365">
+        <v>9</v>
+      </c>
+      <c r="D365">
+        <v>21</v>
+      </c>
+      <c r="E365">
+        <v>32</v>
+      </c>
+      <c r="F365">
+        <v>37</v>
+      </c>
+      <c r="G365">
+        <v>46</v>
+      </c>
+      <c r="H365">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>365</v>
+      </c>
+      <c r="B366" s="1">
+        <v>44901</v>
+      </c>
+      <c r="C366">
+        <v>8</v>
+      </c>
+      <c r="D366">
+        <v>24</v>
+      </c>
+      <c r="E366">
+        <v>27</v>
+      </c>
+      <c r="F366">
+        <v>31</v>
+      </c>
+      <c r="G366">
+        <v>42</v>
+      </c>
+      <c r="H366">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>366</v>
+      </c>
+      <c r="B367" s="1">
+        <v>44903</v>
+      </c>
+      <c r="C367">
+        <v>3</v>
+      </c>
+      <c r="D367">
+        <v>26</v>
+      </c>
+      <c r="E367">
+        <v>44</v>
+      </c>
+      <c r="F367">
+        <v>49</v>
+      </c>
+      <c r="G367">
+        <v>54</v>
+      </c>
+      <c r="H367">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>367</v>
+      </c>
+      <c r="B368" s="1">
+        <v>44906</v>
+      </c>
+      <c r="C368">
+        <v>2</v>
+      </c>
+      <c r="D368">
+        <v>6</v>
+      </c>
+      <c r="E368">
+        <v>14</v>
+      </c>
+      <c r="F368">
+        <v>16</v>
+      </c>
+      <c r="G368">
+        <v>42</v>
+      </c>
+      <c r="H368">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>368</v>
+      </c>
+      <c r="B369" s="1">
+        <v>44908</v>
+      </c>
+      <c r="C369">
+        <v>4</v>
+      </c>
+      <c r="D369">
+        <v>21</v>
+      </c>
+      <c r="E369">
+        <v>30</v>
+      </c>
+      <c r="F369">
+        <v>38</v>
+      </c>
+      <c r="G369">
+        <v>49</v>
+      </c>
+      <c r="H369">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>369</v>
+      </c>
+      <c r="B370" s="1">
+        <v>44910</v>
+      </c>
+      <c r="C370">
+        <v>1</v>
+      </c>
+      <c r="D370">
+        <v>3</v>
+      </c>
+      <c r="E370">
+        <v>10</v>
+      </c>
+      <c r="F370">
+        <v>18</v>
+      </c>
+      <c r="G370">
+        <v>45</v>
+      </c>
+      <c r="H370">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>370</v>
+      </c>
+      <c r="B371" s="1">
+        <v>44913</v>
+      </c>
+      <c r="C371">
+        <v>12</v>
+      </c>
+      <c r="D371">
+        <v>18</v>
+      </c>
+      <c r="E371">
+        <v>23</v>
+      </c>
+      <c r="F371">
+        <v>25</v>
+      </c>
+      <c r="G371">
+        <v>32</v>
+      </c>
+      <c r="H371">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>371</v>
+      </c>
+      <c r="B372" s="1">
+        <v>44915</v>
+      </c>
+      <c r="C372">
+        <v>12</v>
+      </c>
+      <c r="D372">
+        <v>18</v>
+      </c>
+      <c r="E372">
+        <v>21</v>
+      </c>
+      <c r="F372">
+        <v>29</v>
+      </c>
+      <c r="G372">
+        <v>51</v>
+      </c>
+      <c r="H372">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>372</v>
+      </c>
+      <c r="B373" s="1">
+        <v>44917</v>
+      </c>
+      <c r="C373">
+        <v>21</v>
+      </c>
+      <c r="D373">
+        <v>37</v>
+      </c>
+      <c r="E373">
+        <v>39</v>
+      </c>
+      <c r="F373">
+        <v>50</v>
+      </c>
+      <c r="G373">
+        <v>58</v>
+      </c>
+      <c r="H373">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>373</v>
+      </c>
+      <c r="B374" s="1">
+        <v>44920</v>
+      </c>
+      <c r="C374">
+        <v>1</v>
+      </c>
+      <c r="D374">
+        <v>8</v>
+      </c>
+      <c r="E374">
+        <v>21</v>
+      </c>
+      <c r="F374">
+        <v>23</v>
+      </c>
+      <c r="G374">
+        <v>31</v>
+      </c>
+      <c r="H374">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>374</v>
+      </c>
+      <c r="B375" s="1">
+        <v>44922</v>
+      </c>
+      <c r="C375">
+        <v>3</v>
+      </c>
+      <c r="D375">
+        <v>6</v>
+      </c>
+      <c r="E375">
+        <v>11</v>
+      </c>
+      <c r="F375">
+        <v>30</v>
+      </c>
+      <c r="G375">
+        <v>45</v>
+      </c>
+      <c r="H375">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>375</v>
+      </c>
+      <c r="B376" s="1">
+        <v>44924</v>
+      </c>
+      <c r="C376">
+        <v>3</v>
+      </c>
+      <c r="D376">
+        <v>5</v>
+      </c>
+      <c r="E376">
+        <v>12</v>
+      </c>
+      <c r="F376">
+        <v>45</v>
+      </c>
+      <c r="G376">
+        <v>48</v>
+      </c>
+      <c r="H376">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>376</v>
+      </c>
+      <c r="B377" s="1">
+        <v>44927</v>
+      </c>
+      <c r="C377">
+        <v>3</v>
+      </c>
+      <c r="D377">
+        <v>18</v>
+      </c>
+      <c r="E377">
+        <v>26</v>
+      </c>
+      <c r="F377">
+        <v>31</v>
+      </c>
+      <c r="G377">
+        <v>41</v>
+      </c>
+      <c r="H377">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>376</v>
+      </c>
+      <c r="B378" s="1">
+        <v>44929</v>
+      </c>
+      <c r="C378">
+        <v>3</v>
+      </c>
+      <c r="D378">
+        <v>4</v>
+      </c>
+      <c r="E378">
+        <v>29</v>
+      </c>
+      <c r="F378">
+        <v>30</v>
+      </c>
+      <c r="G378">
+        <v>45</v>
+      </c>
+      <c r="H378">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>377</v>
+      </c>
+      <c r="B379" s="1">
+        <v>44931</v>
+      </c>
+      <c r="C379">
+        <v>5</v>
+      </c>
+      <c r="D379">
+        <v>15</v>
+      </c>
+      <c r="E379">
+        <v>17</v>
+      </c>
+      <c r="F379">
+        <v>43</v>
+      </c>
+      <c r="G379">
+        <v>48</v>
+      </c>
+      <c r="H379">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H311">
     <sortCondition ref="B2:B311"/>
@@ -21075,10 +22053,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4513EEF-0F11-4AC5-A4C7-CB00A18EA83B}">
-  <dimension ref="A1:H1231"/>
+  <dimension ref="A1:H1242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1197" workbookViewId="0">
-      <selection activeCell="B1232" sqref="B1232"/>
+    <sheetView tabSelected="1" topLeftCell="A1218" workbookViewId="0">
+      <selection activeCell="C1243" sqref="C1243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53090,6 +54068,292 @@
       </c>
       <c r="H1231">
         <v>6</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1232">
+        <v>1231</v>
+      </c>
+      <c r="B1232" s="1">
+        <v>44895</v>
+      </c>
+      <c r="C1232">
+        <v>3</v>
+      </c>
+      <c r="D1232">
+        <v>5</v>
+      </c>
+      <c r="E1232">
+        <v>18</v>
+      </c>
+      <c r="F1232">
+        <v>23</v>
+      </c>
+      <c r="G1232">
+        <v>32</v>
+      </c>
+      <c r="H1232">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1233">
+        <v>1232</v>
+      </c>
+      <c r="B1233" s="1">
+        <v>44899</v>
+      </c>
+      <c r="C1233">
+        <v>7</v>
+      </c>
+      <c r="D1233">
+        <v>20</v>
+      </c>
+      <c r="E1233">
+        <v>24</v>
+      </c>
+      <c r="F1233">
+        <v>33</v>
+      </c>
+      <c r="G1233">
+        <v>34</v>
+      </c>
+      <c r="H1233">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1234">
+        <v>1233</v>
+      </c>
+      <c r="B1234" s="1">
+        <v>44902</v>
+      </c>
+      <c r="C1234">
+        <v>3</v>
+      </c>
+      <c r="D1234">
+        <v>14</v>
+      </c>
+      <c r="E1234">
+        <v>16</v>
+      </c>
+      <c r="F1234">
+        <v>20</v>
+      </c>
+      <c r="G1234">
+        <v>25</v>
+      </c>
+      <c r="H1234">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1235">
+        <v>1234</v>
+      </c>
+      <c r="B1235" s="1">
+        <v>44906</v>
+      </c>
+      <c r="C1235">
+        <v>5</v>
+      </c>
+      <c r="D1235">
+        <v>18</v>
+      </c>
+      <c r="E1235">
+        <v>19</v>
+      </c>
+      <c r="F1235">
+        <v>27</v>
+      </c>
+      <c r="G1235">
+        <v>33</v>
+      </c>
+      <c r="H1235">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1236">
+        <v>1235</v>
+      </c>
+      <c r="B1236" s="1">
+        <v>44909</v>
+      </c>
+      <c r="C1236">
+        <v>4</v>
+      </c>
+      <c r="D1236">
+        <v>6</v>
+      </c>
+      <c r="E1236">
+        <v>24</v>
+      </c>
+      <c r="F1236">
+        <v>26</v>
+      </c>
+      <c r="G1236">
+        <v>29</v>
+      </c>
+      <c r="H1236">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1237">
+        <v>1236</v>
+      </c>
+      <c r="B1237" s="1">
+        <v>44913</v>
+      </c>
+      <c r="C1237">
+        <v>13</v>
+      </c>
+      <c r="D1237">
+        <v>15</v>
+      </c>
+      <c r="E1237">
+        <v>20</v>
+      </c>
+      <c r="F1237">
+        <v>22</v>
+      </c>
+      <c r="G1237">
+        <v>33</v>
+      </c>
+      <c r="H1237">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1238">
+        <v>1237</v>
+      </c>
+      <c r="B1238" s="1">
+        <v>44916</v>
+      </c>
+      <c r="C1238">
+        <v>3</v>
+      </c>
+      <c r="D1238">
+        <v>4</v>
+      </c>
+      <c r="E1238">
+        <v>23</v>
+      </c>
+      <c r="F1238">
+        <v>25</v>
+      </c>
+      <c r="G1238">
+        <v>31</v>
+      </c>
+      <c r="H1238">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1239">
+        <v>1238</v>
+      </c>
+      <c r="B1239" s="1">
+        <v>44920</v>
+      </c>
+      <c r="C1239">
+        <v>4</v>
+      </c>
+      <c r="D1239">
+        <v>6</v>
+      </c>
+      <c r="E1239">
+        <v>16</v>
+      </c>
+      <c r="F1239">
+        <v>17</v>
+      </c>
+      <c r="G1239">
+        <v>28</v>
+      </c>
+      <c r="H1239">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1240">
+        <v>1239</v>
+      </c>
+      <c r="B1240" s="1">
+        <v>44923</v>
+      </c>
+      <c r="C1240">
+        <v>5</v>
+      </c>
+      <c r="D1240">
+        <v>12</v>
+      </c>
+      <c r="E1240">
+        <v>18</v>
+      </c>
+      <c r="F1240">
+        <v>26</v>
+      </c>
+      <c r="G1240">
+        <v>30</v>
+      </c>
+      <c r="H1240">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1241">
+        <v>1240</v>
+      </c>
+      <c r="B1241" s="1">
+        <v>44927</v>
+      </c>
+      <c r="C1241">
+        <v>17</v>
+      </c>
+      <c r="D1241">
+        <v>19</v>
+      </c>
+      <c r="E1241">
+        <v>20</v>
+      </c>
+      <c r="F1241">
+        <v>23</v>
+      </c>
+      <c r="G1241">
+        <v>32</v>
+      </c>
+      <c r="H1241">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1242">
+        <v>1241</v>
+      </c>
+      <c r="B1242" s="1">
+        <v>44930</v>
+      </c>
+      <c r="C1242">
+        <v>9</v>
+      </c>
+      <c r="D1242">
+        <v>13</v>
+      </c>
+      <c r="E1242">
+        <v>20</v>
+      </c>
+      <c r="F1242">
+        <v>26</v>
+      </c>
+      <c r="G1242">
+        <v>29</v>
+      </c>
+      <c r="H1242">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -53180,11 +54444,11 @@
       </c>
       <c r="B2">
         <f>COUNTIF(CSL_Sonuclari!C:J,A2)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5">
         <f t="shared" ref="C2:C33" si="0">AVERAGE(J2:Q2)</f>
-        <v>1477</v>
+        <v>1695.9761904761904</v>
       </c>
       <c r="D2">
         <f>COUNTIF(CSL_Sonuclari!J:J,A2)</f>
@@ -53204,31 +54468,31 @@
       </c>
       <c r="H2">
         <f>COUNTIF(CSL_Sonuclari!C:H,A2)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="5">
         <f t="shared" ref="I2:I33" si="3">AVERAGE(J2:O2)</f>
-        <v>1985.6</v>
+        <v>2292.1666666666665</v>
       </c>
       <c r="J2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H2,"")</f>
-        <v>2218.6666666666665</v>
+        <v>2357.333333333333</v>
       </c>
       <c r="K2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H2,"")</f>
-        <v>2008</v>
+        <v>2133.5</v>
       </c>
       <c r="L2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H2,"")</f>
-        <v>2624</v>
+        <v>2788</v>
       </c>
       <c r="M2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H2,"")</f>
-        <v>2357.3333333333335</v>
+        <v>3417</v>
       </c>
       <c r="N2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H2,"")</f>
-        <v>720</v>
+        <v>765</v>
       </c>
       <c r="O2" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H2,"")</f>
@@ -53249,11 +54513,11 @@
       </c>
       <c r="B3">
         <f>COUNTIF(CSL_Sonuclari!C:J,A3)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C3" s="5">
         <f t="shared" si="0"/>
-        <v>1992.8571428571429</v>
+        <v>2898.125</v>
       </c>
       <c r="D3">
         <f>COUNTIF(CSL_Sonuclari!J:J,A3)</f>
@@ -53265,47 +54529,47 @@
       </c>
       <c r="F3" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" s="8">
         <f t="shared" si="2"/>
-        <v>333</v>
+        <v>708</v>
       </c>
       <c r="H3">
         <f>COUNTIF(CSL_Sonuclari!C:H,A3)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I3" s="5">
         <f t="shared" si="3"/>
-        <v>2660</v>
-      </c>
-      <c r="J3" t="str">
+        <v>3693.3333333333335</v>
+      </c>
+      <c r="J3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H3,"")</f>
-        <v/>
+        <v>5936</v>
       </c>
       <c r="K3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H3,"")</f>
-        <v>1764</v>
+        <v>2016</v>
       </c>
       <c r="L3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H3,"")</f>
-        <v>3304</v>
+        <v>4800</v>
       </c>
       <c r="M3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H3,"")</f>
-        <v>2268</v>
+        <v>2592</v>
       </c>
       <c r="N3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H3,"")</f>
-        <v>2142</v>
+        <v>2448</v>
       </c>
       <c r="O3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H3,"")</f>
-        <v>3822</v>
+        <v>4368</v>
       </c>
       <c r="P3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F3,"")</f>
-        <v>333</v>
+        <v>708</v>
       </c>
       <c r="Q3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D3,"")</f>
@@ -53318,11 +54582,11 @@
       </c>
       <c r="B4">
         <f>COUNTIF(CSL_Sonuclari!C:J,A4)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="5">
         <f t="shared" si="0"/>
-        <v>1912.3333333333333</v>
+        <v>2037.6666666666667</v>
       </c>
       <c r="D4">
         <f>COUNTIF(CSL_Sonuclari!J:J,A4)</f>
@@ -53342,15 +54606,15 @@
       </c>
       <c r="H4">
         <f>COUNTIF(CSL_Sonuclari!C:H,A4)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I4" s="5">
         <f t="shared" si="3"/>
-        <v>4024</v>
+        <v>4400</v>
       </c>
       <c r="J4">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H4,"")</f>
-        <v>4024</v>
+        <v>4400</v>
       </c>
       <c r="K4" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H4,"")</f>
@@ -53387,19 +54651,19 @@
       </c>
       <c r="B5">
         <f>COUNTIF(CSL_Sonuclari!C:J,A5)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="5">
         <f t="shared" si="0"/>
-        <v>2135.25</v>
+        <v>2197.9166666666665</v>
       </c>
       <c r="D5">
         <f>COUNTIF(CSL_Sonuclari!J:J,A5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" si="1"/>
-        <v>255</v>
+        <v>631</v>
       </c>
       <c r="F5" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A5)</f>
@@ -53447,7 +54711,7 @@
       </c>
       <c r="Q5">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D5,"")</f>
-        <v>255</v>
+        <v>631</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -53525,11 +54789,11 @@
       </c>
       <c r="B7">
         <f>COUNTIF(CSL_Sonuclari!C:J,A7)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C7" s="5">
         <f t="shared" si="0"/>
-        <v>2191.0974025974024</v>
+        <v>2620.6428571428569</v>
       </c>
       <c r="D7">
         <f>COUNTIF(CSL_Sonuclari!J:J,A7)</f>
@@ -53549,27 +54813,27 @@
       </c>
       <c r="H7">
         <f>COUNTIF(CSL_Sonuclari!C:H,A7)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I7" s="5">
         <f t="shared" si="3"/>
-        <v>2928.8961038961038</v>
+        <v>3573.2142857142853</v>
       </c>
       <c r="J7">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H7,"")</f>
-        <v>4012.7272727272725</v>
+        <v>5434.5714285714284</v>
       </c>
       <c r="K7">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H7,"")</f>
-        <v>3982.8571428571427</v>
+        <v>4580.2857142857138</v>
       </c>
       <c r="L7">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H7,"")</f>
-        <v>3700</v>
+        <v>4255</v>
       </c>
       <c r="M7">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H7,"")</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N7" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H7,"")</f>
@@ -53594,19 +54858,19 @@
       </c>
       <c r="B8">
         <f>COUNTIF(CSL_Sonuclari!C:J,A8)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" si="0"/>
-        <v>2220</v>
+        <v>2497.6214285714286</v>
       </c>
       <c r="D8">
         <f>COUNTIF(CSL_Sonuclari!J:J,A8)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="1"/>
-        <v>235</v>
+        <v>610</v>
       </c>
       <c r="F8" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A8)</f>
@@ -53618,11 +54882,11 @@
       </c>
       <c r="H8">
         <f>COUNTIF(CSL_Sonuclari!C:H,A8)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I8" s="5">
         <f t="shared" si="3"/>
-        <v>3477</v>
+        <v>3814.7023809523812</v>
       </c>
       <c r="J8" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H8,"")</f>
@@ -53638,15 +54902,15 @@
       </c>
       <c r="M8">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H8,"")</f>
-        <v>2763</v>
+        <v>2916.5</v>
       </c>
       <c r="N8">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H8,"")</f>
-        <v>4420.2857142857147</v>
+        <v>4665.8571428571431</v>
       </c>
       <c r="O8">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H8,"")</f>
-        <v>3247.7142857142853</v>
+        <v>3861.75</v>
       </c>
       <c r="P8">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F8,"")</f>
@@ -53654,7 +54918,7 @@
       </c>
       <c r="Q8">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D8,"")</f>
-        <v>235</v>
+        <v>610</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -53663,11 +54927,11 @@
       </c>
       <c r="B9">
         <f>COUNTIF(CSL_Sonuclari!C:J,A9)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>2455.4375</v>
+        <v>2748.5416666666665</v>
       </c>
       <c r="D9">
         <f>COUNTIF(CSL_Sonuclari!J:J,A9)</f>
@@ -53679,19 +54943,19 @@
       </c>
       <c r="F9" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A9)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" s="8">
         <f t="shared" si="2"/>
-        <v>498</v>
+        <v>870</v>
       </c>
       <c r="H9">
         <f>COUNTIF(CSL_Sonuclari!C:H,A9)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" si="3"/>
-        <v>3330.40625</v>
+        <v>3677.0625</v>
       </c>
       <c r="J9" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H9,"")</f>
@@ -53699,19 +54963,19 @@
       </c>
       <c r="K9">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H9,"")</f>
-        <v>4411.5</v>
+        <v>4671</v>
       </c>
       <c r="L9">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H9,"")</f>
-        <v>2773.125</v>
+        <v>2936.25</v>
       </c>
       <c r="M9">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H9,"")</f>
-        <v>2023</v>
+        <v>2142</v>
       </c>
       <c r="N9">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H9,"")</f>
-        <v>4114</v>
+        <v>4959</v>
       </c>
       <c r="O9" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H9,"")</f>
@@ -53719,7 +54983,7 @@
       </c>
       <c r="P9">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F9,"")</f>
-        <v>498</v>
+        <v>870</v>
       </c>
       <c r="Q9">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D9,"")</f>
@@ -53732,11 +54996,11 @@
       </c>
       <c r="B10">
         <f>COUNTIF(CSL_Sonuclari!C:J,A10)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" si="0"/>
-        <v>3008.4857142857145</v>
+        <v>3727.0333333333333</v>
       </c>
       <c r="D10">
         <f>COUNTIF(CSL_Sonuclari!J:J,A10)</f>
@@ -53756,31 +55020,31 @@
       </c>
       <c r="H10">
         <f>COUNTIF(CSL_Sonuclari!C:H,A10)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I10" s="5">
         <f t="shared" si="3"/>
-        <v>4094.88</v>
+        <v>5100.8466666666664</v>
       </c>
       <c r="J10">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H10,"")</f>
-        <v>2831</v>
+        <v>3278</v>
       </c>
       <c r="K10">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H10,"")</f>
-        <v>3518.7999999999997</v>
+        <v>4074.3999999999996</v>
       </c>
       <c r="L10">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H10,"")</f>
-        <v>4873.5</v>
+        <v>6858.5</v>
       </c>
       <c r="M10">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H10,"")</f>
-        <v>3978.6</v>
+        <v>5188.3333333333339</v>
       </c>
       <c r="N10">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H10,"")</f>
-        <v>5272.5</v>
+        <v>6105</v>
       </c>
       <c r="O10" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H10,"")</f>
@@ -53801,11 +55065,11 @@
       </c>
       <c r="B11">
         <f>COUNTIF(CSL_Sonuclari!C:J,A11)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="0"/>
-        <v>2694.4319727891157</v>
+        <v>2869.4336734693875</v>
       </c>
       <c r="D11">
         <f>COUNTIF(CSL_Sonuclari!J:J,A11)</f>
@@ -53825,31 +55089,31 @@
       </c>
       <c r="H11">
         <f>COUNTIF(CSL_Sonuclari!C:H,A11)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" si="3"/>
-        <v>3657.6047619047617</v>
+        <v>3902.6071428571427</v>
       </c>
       <c r="J11">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H11,"")</f>
-        <v>5038</v>
+        <v>5267</v>
       </c>
       <c r="K11">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H11,"")</f>
-        <v>5547.6666666666661</v>
+        <v>6193.5714285714284</v>
       </c>
       <c r="L11">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H11,"")</f>
-        <v>3041.5</v>
+        <v>3179.75</v>
       </c>
       <c r="M11">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H11,"")</f>
-        <v>4374.8571428571431</v>
+        <v>4573.7142857142862</v>
       </c>
       <c r="N11">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H11,"")</f>
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="O11" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H11,"")</f>
@@ -53870,11 +55134,11 @@
       </c>
       <c r="B12">
         <f>COUNTIF(CSL_Sonuclari!C:J,A12)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="0"/>
-        <v>1237.7755102040817</v>
+        <v>1769.5510204081634</v>
       </c>
       <c r="D12">
         <f>COUNTIF(CSL_Sonuclari!J:J,A12)</f>
@@ -53886,19 +55150,19 @@
       </c>
       <c r="F12" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A12)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G12" s="8">
         <f t="shared" si="2"/>
-        <v>904</v>
+        <v>1277</v>
       </c>
       <c r="H12">
         <f>COUNTIF(CSL_Sonuclari!C:H,A12)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I12" s="5">
         <f t="shared" si="3"/>
-        <v>1504.2857142857142</v>
+        <v>2174.1714285714288</v>
       </c>
       <c r="J12" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H12,"")</f>
@@ -53906,27 +55170,27 @@
       </c>
       <c r="K12">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H12,"")</f>
-        <v>225</v>
+        <v>3088</v>
       </c>
       <c r="L12">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H12,"")</f>
-        <v>4275</v>
+        <v>4560</v>
       </c>
       <c r="M12">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H12,"")</f>
-        <v>1701.4285714285716</v>
+        <v>1814.8571428571429</v>
       </c>
       <c r="N12">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H12,"")</f>
-        <v>1050</v>
+        <v>1120</v>
       </c>
       <c r="O12">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H12,"")</f>
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="P12">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F12,"")</f>
-        <v>904</v>
+        <v>1277</v>
       </c>
       <c r="Q12">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D12,"")</f>
@@ -53939,11 +55203,11 @@
       </c>
       <c r="B13">
         <f>COUNTIF(CSL_Sonuclari!C:J,A13)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="0"/>
-        <v>2504.6666666666665</v>
+        <v>2565</v>
       </c>
       <c r="D13">
         <f>COUNTIF(CSL_Sonuclari!J:J,A13)</f>
@@ -53955,11 +55219,11 @@
       </c>
       <c r="F13" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A13)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G13" s="8">
         <f t="shared" si="2"/>
-        <v>932</v>
+        <v>1294</v>
       </c>
       <c r="H13">
         <f>COUNTIF(CSL_Sonuclari!C:H,A13)</f>
@@ -53995,7 +55259,7 @@
       </c>
       <c r="P13">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F13,"")</f>
-        <v>932</v>
+        <v>1294</v>
       </c>
       <c r="Q13">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D13,"")</f>
@@ -54008,11 +55272,11 @@
       </c>
       <c r="B14">
         <f>COUNTIF(CSL_Sonuclari!C:J,A14)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="0"/>
-        <v>2398.411111111111</v>
+        <v>3253.7619047619046</v>
       </c>
       <c r="D14">
         <f>COUNTIF(CSL_Sonuclari!J:J,A14)</f>
@@ -54024,39 +55288,39 @@
       </c>
       <c r="F14" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A14)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14" s="8">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>452</v>
       </c>
       <c r="H14">
         <f>COUNTIF(CSL_Sonuclari!C:H,A14)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" si="3"/>
-        <v>3504.8666666666663</v>
-      </c>
-      <c r="J14" t="str">
+        <v>4407.4666666666662</v>
+      </c>
+      <c r="J14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H14,"")</f>
-        <v/>
+        <v>7280</v>
       </c>
       <c r="K14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H14,"")</f>
-        <v>4534.6666666666661</v>
+        <v>4773.333333333333</v>
       </c>
       <c r="L14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H14,"")</f>
-        <v>3043.7999999999997</v>
+        <v>3204</v>
       </c>
       <c r="M14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H14,"")</f>
-        <v>1064</v>
+        <v>1120</v>
       </c>
       <c r="N14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H14,"")</f>
-        <v>5377</v>
+        <v>5660</v>
       </c>
       <c r="O14" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H14,"")</f>
@@ -54064,7 +55328,7 @@
       </c>
       <c r="P14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F14,"")</f>
-        <v>84</v>
+        <v>452</v>
       </c>
       <c r="Q14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D14,"")</f>
@@ -54077,11 +55341,11 @@
       </c>
       <c r="B15">
         <f>COUNTIF(CSL_Sonuclari!C:J,A15)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="0"/>
-        <v>3327.8571428571427</v>
+        <v>3379.5714285714284</v>
       </c>
       <c r="D15">
         <f>COUNTIF(CSL_Sonuclari!J:J,A15)</f>
@@ -54093,11 +55357,11 @@
       </c>
       <c r="F15" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" s="8">
         <f t="shared" si="2"/>
-        <v>220</v>
+        <v>582</v>
       </c>
       <c r="H15">
         <f>COUNTIF(CSL_Sonuclari!C:H,A15)</f>
@@ -54133,7 +55397,7 @@
       </c>
       <c r="P15">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F15,"")</f>
-        <v>220</v>
+        <v>582</v>
       </c>
       <c r="Q15">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D15,"")</f>
@@ -54146,11 +55410,11 @@
       </c>
       <c r="B16">
         <f>COUNTIF(CSL_Sonuclari!C:J,A16)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
-        <v>1987.5307692307695</v>
+        <v>2130.8428571428572</v>
       </c>
       <c r="D16">
         <f>COUNTIF(CSL_Sonuclari!J:J,A16)</f>
@@ -54170,11 +55434,11 @@
       </c>
       <c r="H16">
         <f>COUNTIF(CSL_Sonuclari!C:H,A16)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I16" s="5">
         <f t="shared" si="3"/>
-        <v>2797.0461538461541</v>
+        <v>3012.014285714286</v>
       </c>
       <c r="J16" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H16,"")</f>
@@ -54186,19 +55450,19 @@
       </c>
       <c r="L16">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H16,"")</f>
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M16">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H16,"")</f>
-        <v>4708</v>
+        <v>4922</v>
       </c>
       <c r="N16">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H16,"")</f>
-        <v>2978.8</v>
+        <v>3114.2000000000003</v>
       </c>
       <c r="O16">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H16,"")</f>
-        <v>3391.3846153846157</v>
+        <v>3896.8571428571427</v>
       </c>
       <c r="P16">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F16,"")</f>
@@ -54215,11 +55479,11 @@
       </c>
       <c r="B17">
         <f>COUNTIF(CSL_Sonuclari!C:J,A17)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="0"/>
-        <v>2594.2575757575755</v>
+        <v>3013.7999999999997</v>
       </c>
       <c r="D17">
         <f>COUNTIF(CSL_Sonuclari!J:J,A17)</f>
@@ -54239,27 +55503,27 @@
       </c>
       <c r="H17">
         <f>COUNTIF(CSL_Sonuclari!C:H,A17)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I17" s="5">
         <f t="shared" si="3"/>
-        <v>3585.3863636363635</v>
+        <v>4214.7</v>
       </c>
       <c r="J17">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H17,"")</f>
-        <v>3435.5454545454545</v>
+        <v>4137</v>
       </c>
       <c r="K17">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H17,"")</f>
-        <v>3952</v>
+        <v>5035.8</v>
       </c>
       <c r="L17">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H17,"")</f>
-        <v>3781</v>
+        <v>4179</v>
       </c>
       <c r="M17">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H17,"")</f>
-        <v>3173</v>
+        <v>3507</v>
       </c>
       <c r="N17" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H17,"")</f>
@@ -54284,11 +55548,11 @@
       </c>
       <c r="B18">
         <f>COUNTIF(CSL_Sonuclari!C:J,A18)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="0"/>
-        <v>3059.8142857142857</v>
+        <v>3372.4369047619048</v>
       </c>
       <c r="D18">
         <f>COUNTIF(CSL_Sonuclari!J:J,A18)</f>
@@ -54308,11 +55572,11 @@
       </c>
       <c r="H18">
         <f>COUNTIF(CSL_Sonuclari!C:H,A18)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I18" s="5">
         <f t="shared" si="3"/>
-        <v>3879.7523809523809</v>
+        <v>4296.5825396825394</v>
       </c>
       <c r="J18" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H18,"")</f>
@@ -54328,15 +55592,15 @@
       </c>
       <c r="M18">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H18,"")</f>
-        <v>4043.6000000000004</v>
+        <v>4948.833333333333</v>
       </c>
       <c r="N18">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H18,"")</f>
-        <v>3428.8571428571431</v>
+        <v>3584.7142857142858</v>
       </c>
       <c r="O18">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H18,"")</f>
-        <v>4166.8</v>
+        <v>4356.2</v>
       </c>
       <c r="P18" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F18,"")</f>
@@ -54422,11 +55686,11 @@
       </c>
       <c r="B20">
         <f>COUNTIF(CSL_Sonuclari!C:J,A20)</f>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
-        <v>2503.8055555555557</v>
+        <v>3092.0416666666665</v>
       </c>
       <c r="D20">
         <f>COUNTIF(CSL_Sonuclari!J:J,A20)</f>
@@ -54446,11 +55710,11 @@
       </c>
       <c r="H20">
         <f>COUNTIF(CSL_Sonuclari!C:H,A20)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I20" s="5">
         <f t="shared" si="3"/>
-        <v>3410.4583333333335</v>
+        <v>4292.8125</v>
       </c>
       <c r="J20" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H20,"")</f>
@@ -54458,7 +55722,7 @@
       </c>
       <c r="K20">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H20,"")</f>
-        <v>418</v>
+        <v>475</v>
       </c>
       <c r="L20" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H20,"")</f>
@@ -54466,15 +55730,15 @@
       </c>
       <c r="M20">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H20,"")</f>
-        <v>3388</v>
+        <v>3850</v>
       </c>
       <c r="N20">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H20,"")</f>
-        <v>4856.5</v>
+        <v>6252.5</v>
       </c>
       <c r="O20">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H20,"")</f>
-        <v>4979.3333333333339</v>
+        <v>6593.75</v>
       </c>
       <c r="P20">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F20,"")</f>
@@ -54491,11 +55755,11 @@
       </c>
       <c r="B21">
         <f>COUNTIF(CSL_Sonuclari!C:J,A21)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="0"/>
-        <v>2699.6226190476191</v>
+        <v>2907.6507936507937</v>
       </c>
       <c r="D21">
         <f>COUNTIF(CSL_Sonuclari!J:J,A21)</f>
@@ -54515,31 +55779,31 @@
       </c>
       <c r="H21">
         <f>COUNTIF(CSL_Sonuclari!C:H,A21)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I21" s="5">
         <f t="shared" si="3"/>
-        <v>3552.2716666666665</v>
+        <v>3843.5111111111109</v>
       </c>
       <c r="J21">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H21,"")</f>
-        <v>4009</v>
+        <v>4220</v>
       </c>
       <c r="K21">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H21,"")</f>
-        <v>2572.125</v>
+        <v>3228.8888888888891</v>
       </c>
       <c r="L21">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H21,"")</f>
-        <v>4248.3999999999996</v>
+        <v>4472</v>
       </c>
       <c r="M21">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H21,"")</f>
-        <v>3692.3333333333335</v>
+        <v>3886.666666666667</v>
       </c>
       <c r="N21">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H21,"")</f>
-        <v>3239.5</v>
+        <v>3410</v>
       </c>
       <c r="O21" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H21,"")</f>
@@ -54560,19 +55824,19 @@
       </c>
       <c r="B22">
         <f>COUNTIF(CSL_Sonuclari!C:J,A22)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
-        <v>3555.1430976430979</v>
+        <v>3810.1666666666665</v>
       </c>
       <c r="D22">
         <f>COUNTIF(CSL_Sonuclari!J:J,A22)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" si="1"/>
-        <v>243</v>
+        <v>612</v>
       </c>
       <c r="F22" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A22)</f>
@@ -54584,11 +55848,11 @@
       </c>
       <c r="H22">
         <f>COUNTIF(CSL_Sonuclari!C:H,A22)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I22" s="5">
         <f t="shared" si="3"/>
-        <v>5249.9646464646466</v>
+        <v>5540.25</v>
       </c>
       <c r="J22" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H22,"")</f>
@@ -54600,19 +55864,19 @@
       </c>
       <c r="L22">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H22,"")</f>
-        <v>5884.666666666667</v>
+        <v>6111</v>
       </c>
       <c r="M22">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H22,"")</f>
-        <v>5800.8888888888887</v>
+        <v>6024</v>
       </c>
       <c r="N22">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H22,"")</f>
-        <v>5379.636363636364</v>
+        <v>5940</v>
       </c>
       <c r="O22">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H22,"")</f>
-        <v>3934.666666666667</v>
+        <v>4086.0000000000005</v>
       </c>
       <c r="P22">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F22,"")</f>
@@ -54620,7 +55884,7 @@
       </c>
       <c r="Q22">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D22,"")</f>
-        <v>243</v>
+        <v>612</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -54629,11 +55893,11 @@
       </c>
       <c r="B23">
         <f>COUNTIF(CSL_Sonuclari!C:J,A23)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
-        <v>3392.9142857142856</v>
+        <v>3784.195238095238</v>
       </c>
       <c r="D23">
         <f>COUNTIF(CSL_Sonuclari!J:J,A23)</f>
@@ -54645,19 +55909,19 @@
       </c>
       <c r="F23" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A23)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G23" s="8">
         <f t="shared" si="2"/>
-        <v>870</v>
+        <v>1240</v>
       </c>
       <c r="H23">
         <f>COUNTIF(CSL_Sonuclari!C:H,A23)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I23" s="5">
         <f t="shared" si="3"/>
-        <v>4023.6428571428569</v>
+        <v>4420.2440476190477</v>
       </c>
       <c r="J23" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H23,"")</f>
@@ -54669,23 +55933,23 @@
       </c>
       <c r="L23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H23,"")</f>
-        <v>4676.5714285714284</v>
+        <v>4889.1428571428578</v>
       </c>
       <c r="M23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H23,"")</f>
-        <v>3113</v>
+        <v>3254.5</v>
       </c>
       <c r="N23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H23,"")</f>
-        <v>3190</v>
+        <v>4189.833333333333</v>
       </c>
       <c r="O23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H23,"")</f>
-        <v>5115</v>
+        <v>5347.5</v>
       </c>
       <c r="P23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F23,"")</f>
-        <v>870</v>
+        <v>1240</v>
       </c>
       <c r="Q23" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D23,"")</f>
@@ -54698,11 +55962,11 @@
       </c>
       <c r="B24">
         <f>COUNTIF(CSL_Sonuclari!C:J,A24)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" s="5">
         <f t="shared" si="0"/>
-        <v>3526.2857142857142</v>
+        <v>3739.3571428571427</v>
       </c>
       <c r="D24">
         <f>COUNTIF(CSL_Sonuclari!J:J,A24)</f>
@@ -54722,11 +55986,11 @@
       </c>
       <c r="H24">
         <f>COUNTIF(CSL_Sonuclari!C:H,A24)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I24" s="5">
         <f t="shared" si="3"/>
-        <v>4678</v>
+        <v>4976.3</v>
       </c>
       <c r="J24" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H24,"")</f>
@@ -54734,23 +55998,23 @@
       </c>
       <c r="K24">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H24,"")</f>
-        <v>6020</v>
+        <v>6321</v>
       </c>
       <c r="L24">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H24,"")</f>
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="M24">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H24,"")</f>
-        <v>3330</v>
+        <v>3496.5</v>
       </c>
       <c r="N24">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H24,"")</f>
-        <v>4480</v>
+        <v>4704</v>
       </c>
       <c r="O24">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H24,"")</f>
-        <v>3560</v>
+        <v>4060</v>
       </c>
       <c r="P24">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F24,"")</f>
@@ -54767,11 +56031,11 @@
       </c>
       <c r="B25">
         <f>COUNTIF(CSL_Sonuclari!C:J,A25)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" s="5">
         <f t="shared" si="0"/>
-        <v>3725.080882352941</v>
+        <v>3956.1319444444443</v>
       </c>
       <c r="D25">
         <f>COUNTIF(CSL_Sonuclari!J:J,A25)</f>
@@ -54791,23 +56055,23 @@
       </c>
       <c r="H25">
         <f>COUNTIF(CSL_Sonuclari!C:H,A25)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I25" s="5">
         <f t="shared" si="3"/>
-        <v>4873.1078431372543</v>
+        <v>5181.1759259259261</v>
       </c>
       <c r="J25">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H25,"")</f>
-        <v>3646.8235294117644</v>
+        <v>4072.2777777777774</v>
       </c>
       <c r="K25">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H25,"")</f>
-        <v>3294.5</v>
+        <v>3444.25</v>
       </c>
       <c r="L25">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H25,"")</f>
-        <v>7678</v>
+        <v>8027</v>
       </c>
       <c r="M25" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H25,"")</f>
@@ -54836,11 +56100,11 @@
       </c>
       <c r="B26">
         <f>COUNTIF(CSL_Sonuclari!C:J,A26)</f>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C26" s="5">
         <f t="shared" si="0"/>
-        <v>3167.2126984126985</v>
+        <v>3778.8174603174607</v>
       </c>
       <c r="D26">
         <f>COUNTIF(CSL_Sonuclari!J:J,A26)</f>
@@ -54860,11 +56124,11 @@
       </c>
       <c r="H26">
         <f>COUNTIF(CSL_Sonuclari!C:H,A26)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I26" s="5">
         <f t="shared" si="3"/>
-        <v>4385.5690476190475</v>
+        <v>5302.9761904761908</v>
       </c>
       <c r="J26" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H26,"")</f>
@@ -54876,19 +56140,19 @@
       </c>
       <c r="L26">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H26,"")</f>
-        <v>2772</v>
+        <v>3150</v>
       </c>
       <c r="M26">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H26,"")</f>
-        <v>4117.1428571428569</v>
+        <v>4678.5714285714284</v>
       </c>
       <c r="N26">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H26,"")</f>
-        <v>4991.8</v>
+        <v>6264.5833333333339</v>
       </c>
       <c r="O26">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H26,"")</f>
-        <v>5661.333333333333</v>
+        <v>7118.75</v>
       </c>
       <c r="P26">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F26,"")</f>
@@ -54905,19 +56169,19 @@
       </c>
       <c r="B27">
         <f>COUNTIF(CSL_Sonuclari!C:J,A27)</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C27" s="5">
         <f t="shared" si="0"/>
-        <v>3743.4848484848485</v>
+        <v>4579.4787878787874</v>
       </c>
       <c r="D27">
         <f>COUNTIF(CSL_Sonuclari!J:J,A27)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" si="1"/>
-        <v>285</v>
+        <v>649</v>
       </c>
       <c r="F27" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A27)</f>
@@ -54929,27 +56193,27 @@
       </c>
       <c r="H27">
         <f>COUNTIF(CSL_Sonuclari!C:H,A27)</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I27" s="5">
         <f t="shared" si="3"/>
-        <v>5298.477272727273</v>
+        <v>6461.4681818181816</v>
       </c>
       <c r="J27">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H27,"")</f>
-        <v>5170.909090909091</v>
+        <v>5817.2727272727279</v>
       </c>
       <c r="K27">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H27,"")</f>
-        <v>3741</v>
+        <v>5329.8</v>
       </c>
       <c r="L27">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H27,"")</f>
-        <v>4794</v>
+        <v>6274.8</v>
       </c>
       <c r="M27">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H27,"")</f>
-        <v>7488</v>
+        <v>8424</v>
       </c>
       <c r="N27" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H27,"")</f>
@@ -54965,7 +56229,7 @@
       </c>
       <c r="Q27">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D27,"")</f>
-        <v>285</v>
+        <v>649</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -54974,11 +56238,11 @@
       </c>
       <c r="B28">
         <f>COUNTIF(CSL_Sonuclari!C:J,A28)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C28" s="5">
         <f t="shared" si="0"/>
-        <v>2934.1047619047617</v>
+        <v>3191.2285714285713</v>
       </c>
       <c r="D28">
         <f>COUNTIF(CSL_Sonuclari!J:J,A28)</f>
@@ -54998,35 +56262,35 @@
       </c>
       <c r="H28">
         <f>COUNTIF(CSL_Sonuclari!C:H,A28)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I28" s="5">
         <f t="shared" si="3"/>
-        <v>3254.2888888888888</v>
+        <v>3554.2666666666664</v>
       </c>
       <c r="J28">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H28,"")</f>
-        <v>7150</v>
+        <v>7475</v>
       </c>
       <c r="K28">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H28,"")</f>
-        <v>3964.3999999999996</v>
+        <v>4144.5999999999995</v>
       </c>
       <c r="L28">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H28,"")</f>
-        <v>3454</v>
+        <v>3611</v>
       </c>
       <c r="M28">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H28,"")</f>
-        <v>4715.3333333333339</v>
+        <v>5842</v>
       </c>
       <c r="N28">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H28,"")</f>
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="O28">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H28,"")</f>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P28">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F28,"")</f>
@@ -55043,11 +56307,11 @@
       </c>
       <c r="B29">
         <f>COUNTIF(CSL_Sonuclari!C:J,A29)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C29" s="5">
         <f t="shared" si="0"/>
-        <v>2763.3333333333335</v>
+        <v>3362.1734693877552</v>
       </c>
       <c r="D29">
         <f>COUNTIF(CSL_Sonuclari!J:J,A29)</f>
@@ -55067,31 +56331,31 @@
       </c>
       <c r="H29">
         <f>COUNTIF(CSL_Sonuclari!C:H,A29)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I29" s="5">
         <f t="shared" si="3"/>
-        <v>3586.666666666667</v>
+        <v>4425.0428571428574</v>
       </c>
       <c r="J29">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H29,"")</f>
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="K29">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H29,"")</f>
-        <v>3050</v>
+        <v>5490</v>
       </c>
       <c r="L29">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H29,"")</f>
-        <v>4945.8333333333339</v>
+        <v>5341.5</v>
       </c>
       <c r="M29">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H29,"")</f>
-        <v>5587.5</v>
+        <v>6595.7142857142853</v>
       </c>
       <c r="N29">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H29,"")</f>
-        <v>3925</v>
+        <v>4239</v>
       </c>
       <c r="O29" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H29,"")</f>
@@ -55112,11 +56376,11 @@
       </c>
       <c r="B30">
         <f>COUNTIF(CSL_Sonuclari!C:J,A30)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C30" s="5">
         <f t="shared" si="0"/>
-        <v>3289.5625</v>
+        <v>3606.8333333333335</v>
       </c>
       <c r="D30">
         <f>COUNTIF(CSL_Sonuclari!J:J,A30)</f>
@@ -55136,27 +56400,27 @@
       </c>
       <c r="H30">
         <f>COUNTIF(CSL_Sonuclari!C:H,A30)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I30" s="5">
         <f t="shared" si="3"/>
-        <v>4563.34375</v>
+        <v>5039.25</v>
       </c>
       <c r="J30">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H30,"")</f>
-        <v>3565</v>
+        <v>3720</v>
       </c>
       <c r="K30">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H30,"")</f>
-        <v>4625.875</v>
+        <v>4827</v>
       </c>
       <c r="L30">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H30,"")</f>
-        <v>4209</v>
+        <v>5502</v>
       </c>
       <c r="M30">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H30,"")</f>
-        <v>5853.5</v>
+        <v>6108</v>
       </c>
       <c r="N30" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H30,"")</f>
@@ -55250,11 +56514,11 @@
       </c>
       <c r="B32">
         <f>COUNTIF(CSL_Sonuclari!C:J,A32)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C32" s="5">
         <f t="shared" si="0"/>
-        <v>2845.850340136054</v>
+        <v>3084</v>
       </c>
       <c r="D32">
         <f>COUNTIF(CSL_Sonuclari!J:J,A32)</f>
@@ -55274,11 +56538,11 @@
       </c>
       <c r="H32">
         <f>COUNTIF(CSL_Sonuclari!C:H,A32)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I32" s="5">
         <f t="shared" si="3"/>
-        <v>3856.9904761904754</v>
+        <v>4190.3999999999996</v>
       </c>
       <c r="J32" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H32,"")</f>
@@ -55286,23 +56550,23 @@
       </c>
       <c r="K32">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H32,"")</f>
-        <v>5612</v>
+        <v>5856</v>
       </c>
       <c r="L32">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H32,"")</f>
-        <v>2859.6666666666665</v>
+        <v>3812.5714285714284</v>
       </c>
       <c r="M32">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H32,"")</f>
-        <v>5155.2857142857138</v>
+        <v>5379.4285714285716</v>
       </c>
       <c r="N32">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H32,"")</f>
-        <v>2376.6666666666665</v>
+        <v>2480</v>
       </c>
       <c r="O32">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H32,"")</f>
-        <v>3281.333333333333</v>
+        <v>3424</v>
       </c>
       <c r="P32">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F32,"")</f>
@@ -55388,11 +56652,11 @@
       </c>
       <c r="B34">
         <f>COUNTIF(CSL_Sonuclari!C:J,A34)</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C34" s="5">
         <f t="shared" ref="C34:C65" si="4">AVERAGE(J34:Q34)</f>
-        <v>2796.457142857143</v>
+        <v>3244.0071428571428</v>
       </c>
       <c r="D34">
         <f>COUNTIF(CSL_Sonuclari!J:J,A34)</f>
@@ -55404,39 +56668,39 @@
       </c>
       <c r="F34" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A34)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G34" s="8">
         <f t="shared" ref="G34:G65" si="6">IF(P34&lt;&gt;"",P34,0)</f>
-        <v>704</v>
+        <v>1070</v>
       </c>
       <c r="H34">
         <f>COUNTIF(CSL_Sonuclari!C:H,A34)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I34" s="5">
         <f t="shared" ref="I34:I65" si="7">AVERAGE(J34:O34)</f>
-        <v>3731.04</v>
+        <v>4284.41</v>
       </c>
       <c r="J34">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H34,"")</f>
-        <v>3828</v>
+        <v>4147</v>
       </c>
       <c r="K34">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H34,"")</f>
-        <v>2681.1428571428569</v>
+        <v>3737.5</v>
       </c>
       <c r="L34">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H34,"")</f>
-        <v>6006.8571428571431</v>
+        <v>6886.75</v>
       </c>
       <c r="M34">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H34,"")</f>
-        <v>3691.2000000000003</v>
+        <v>3998.8</v>
       </c>
       <c r="N34">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H34,"")</f>
-        <v>2448</v>
+        <v>2652</v>
       </c>
       <c r="O34" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H34,"")</f>
@@ -55444,7 +56708,7 @@
       </c>
       <c r="P34">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F34,"")</f>
-        <v>704</v>
+        <v>1070</v>
       </c>
       <c r="Q34">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D34,"")</f>
@@ -55457,19 +56721,19 @@
       </c>
       <c r="B35">
         <f>COUNTIF(CSL_Sonuclari!C:J,A35)</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C35" s="5">
         <f t="shared" si="4"/>
-        <v>2766.2333333333336</v>
+        <v>3217.1333333333332</v>
       </c>
       <c r="D35">
         <f>COUNTIF(CSL_Sonuclari!J:J,A35)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" s="5">
         <f t="shared" si="5"/>
-        <v>276</v>
+        <v>649</v>
       </c>
       <c r="F35" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A35)</f>
@@ -55481,11 +56745,11 @@
       </c>
       <c r="H35">
         <f>COUNTIF(CSL_Sonuclari!C:H,A35)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I35" s="5">
         <f t="shared" si="7"/>
-        <v>3959.1</v>
+        <v>4542.2</v>
       </c>
       <c r="J35" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H35,"")</f>
@@ -55497,19 +56761,19 @@
       </c>
       <c r="L35">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H35,"")</f>
-        <v>5670</v>
+        <v>6843.2</v>
       </c>
       <c r="M35">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H35,"")</f>
-        <v>2606.3999999999996</v>
+        <v>2823.6</v>
       </c>
       <c r="N35">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H35,"")</f>
-        <v>5016</v>
+        <v>5746</v>
       </c>
       <c r="O35">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H35,"")</f>
-        <v>2544</v>
+        <v>2756</v>
       </c>
       <c r="P35">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F35,"")</f>
@@ -55517,7 +56781,7 @@
       </c>
       <c r="Q35">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D35,"")</f>
-        <v>276</v>
+        <v>649</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
@@ -55526,11 +56790,11 @@
       </c>
       <c r="B36">
         <f>COUNTIF(CSL_Sonuclari!C:J,A36)</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C36" s="5">
         <f t="shared" si="4"/>
-        <v>2718.6947368421052</v>
+        <v>3845.54</v>
       </c>
       <c r="D36">
         <f>COUNTIF(CSL_Sonuclari!J:J,A36)</f>
@@ -55542,31 +56806,31 @@
       </c>
       <c r="F36" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A36)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G36" s="8">
         <f t="shared" si="6"/>
-        <v>787</v>
+        <v>1158</v>
       </c>
       <c r="H36">
         <f>COUNTIF(CSL_Sonuclari!C:H,A36)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I36" s="5">
         <f t="shared" si="7"/>
-        <v>4199.1578947368425</v>
+        <v>5953.5666666666666</v>
       </c>
       <c r="J36">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H36,"")</f>
-        <v>5541.4736842105267</v>
+        <v>6186.7</v>
       </c>
       <c r="K36">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H36,"")</f>
-        <v>5472</v>
+        <v>5928</v>
       </c>
       <c r="L36">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H36,"")</f>
-        <v>1584</v>
+        <v>5746</v>
       </c>
       <c r="M36" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H36,"")</f>
@@ -55582,7 +56846,7 @@
       </c>
       <c r="P36">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F36,"")</f>
-        <v>787</v>
+        <v>1158</v>
       </c>
       <c r="Q36">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D36,"")</f>
@@ -55595,11 +56859,11 @@
       </c>
       <c r="B37">
         <f>COUNTIF(CSL_Sonuclari!C:J,A37)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C37" s="5">
         <f t="shared" si="4"/>
-        <v>2226.9861111111113</v>
+        <v>2406.2222222222222</v>
       </c>
       <c r="D37">
         <f>COUNTIF(CSL_Sonuclari!J:J,A37)</f>
@@ -55619,11 +56883,11 @@
       </c>
       <c r="H37">
         <f>COUNTIF(CSL_Sonuclari!C:H,A37)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I37" s="5">
         <f t="shared" si="7"/>
-        <v>3041.979166666667</v>
+        <v>3310.8333333333335</v>
       </c>
       <c r="J37" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H37,"")</f>
@@ -55631,19 +56895,19 @@
       </c>
       <c r="K37">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H37,"")</f>
-        <v>2387.666666666667</v>
+        <v>2513.3333333333335</v>
       </c>
       <c r="L37">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H37,"")</f>
-        <v>3443.75</v>
+        <v>4060</v>
       </c>
       <c r="M37">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H37,"")</f>
-        <v>2356</v>
+        <v>2480</v>
       </c>
       <c r="N37">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H37,"")</f>
-        <v>3980.5</v>
+        <v>4190</v>
       </c>
       <c r="O37" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H37,"")</f>
@@ -55664,11 +56928,11 @@
       </c>
       <c r="B38">
         <f>COUNTIF(CSL_Sonuclari!C:J,A38)</f>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C38" s="5">
         <f t="shared" si="4"/>
-        <v>3968.9090909090905</v>
+        <v>4645.4018939393936</v>
       </c>
       <c r="D38">
         <f>COUNTIF(CSL_Sonuclari!J:J,A38)</f>
@@ -55688,27 +56952,27 @@
       </c>
       <c r="H38">
         <f>COUNTIF(CSL_Sonuclari!C:H,A38)</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I38" s="5">
         <f t="shared" si="7"/>
-        <v>5562.363636363636</v>
+        <v>6577.1028409090904</v>
       </c>
       <c r="J38">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H38,"")</f>
-        <v>5524.7999999999993</v>
+        <v>6215.4</v>
       </c>
       <c r="K38">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H38,"")</f>
-        <v>5875.2000000000007</v>
+        <v>7887.375</v>
       </c>
       <c r="L38">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H38,"")</f>
-        <v>5009.454545454545</v>
+        <v>5635.6363636363631</v>
       </c>
       <c r="M38">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H38,"")</f>
-        <v>5840</v>
+        <v>6570</v>
       </c>
       <c r="N38" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H38,"")</f>
@@ -55733,19 +56997,19 @@
       </c>
       <c r="B39">
         <f>COUNTIF(CSL_Sonuclari!C:J,A39)</f>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C39" s="5">
         <f t="shared" si="4"/>
-        <v>3216.2979591836734</v>
+        <v>3700.5650793650793</v>
       </c>
       <c r="D39">
         <f>COUNTIF(CSL_Sonuclari!J:J,A39)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" s="5">
         <f t="shared" si="5"/>
-        <v>328</v>
+        <v>694</v>
       </c>
       <c r="F39" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A39)</f>
@@ -55757,11 +57021,11 @@
       </c>
       <c r="H39">
         <f>COUNTIF(CSL_Sonuclari!C:H,A39)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I39" s="5">
         <f t="shared" si="7"/>
-        <v>4244.017142857143</v>
+        <v>4848.7911111111116</v>
       </c>
       <c r="J39" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H39,"")</f>
@@ -55769,23 +57033,23 @@
       </c>
       <c r="K39">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H39,"")</f>
-        <v>3770</v>
+        <v>4060</v>
       </c>
       <c r="L39">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H39,"")</f>
-        <v>4544.8</v>
+        <v>4894.4000000000005</v>
       </c>
       <c r="M39">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H39,"")</f>
-        <v>3818.2857142857142</v>
+        <v>5503.5555555555547</v>
       </c>
       <c r="N39">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H39,"")</f>
-        <v>7007</v>
+        <v>7546</v>
       </c>
       <c r="O39">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H39,"")</f>
-        <v>2080</v>
+        <v>2240</v>
       </c>
       <c r="P39">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F39,"")</f>
@@ -55793,7 +57057,7 @@
       </c>
       <c r="Q39">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D39,"")</f>
-        <v>328</v>
+        <v>694</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
@@ -55802,11 +57066,11 @@
       </c>
       <c r="B40">
         <f>COUNTIF(CSL_Sonuclari!C:J,A40)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C40" s="5">
         <f t="shared" si="4"/>
-        <v>3277.4285714285711</v>
+        <v>3685.6952380952384</v>
       </c>
       <c r="D40">
         <f>COUNTIF(CSL_Sonuclari!J:J,A40)</f>
@@ -55826,27 +57090,27 @@
       </c>
       <c r="H40">
         <f>COUNTIF(CSL_Sonuclari!C:H,A40)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I40" s="5">
         <f t="shared" si="7"/>
-        <v>4466.1428571428569</v>
+        <v>5078.5428571428574</v>
       </c>
       <c r="J40">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H40,"")</f>
-        <v>5176</v>
+        <v>5693.6</v>
       </c>
       <c r="K40">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H40,"")</f>
-        <v>2511.4285714285716</v>
+        <v>2762.5714285714284</v>
       </c>
       <c r="L40">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H40,"")</f>
-        <v>4557.1428571428569</v>
+        <v>5676</v>
       </c>
       <c r="M40">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H40,"")</f>
-        <v>5620</v>
+        <v>6182</v>
       </c>
       <c r="N40" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H40,"")</f>
@@ -55871,11 +57135,11 @@
       </c>
       <c r="B41">
         <f>COUNTIF(CSL_Sonuclari!C:J,A41)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C41" s="5">
         <f t="shared" si="4"/>
-        <v>4898.0755555555552</v>
+        <v>5428.5333333333338</v>
       </c>
       <c r="D41">
         <f>COUNTIF(CSL_Sonuclari!J:J,A41)</f>
@@ -55895,11 +57159,11 @@
       </c>
       <c r="H41">
         <f>COUNTIF(CSL_Sonuclari!C:H,A41)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I41" s="5">
         <f t="shared" si="7"/>
-        <v>5865.844444444444</v>
+        <v>6528.916666666667</v>
       </c>
       <c r="J41" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H41,"")</f>
@@ -55911,19 +57175,19 @@
       </c>
       <c r="L41">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H41,"")</f>
-        <v>4592</v>
+        <v>4920</v>
       </c>
       <c r="M41">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H41,"")</f>
-        <v>6511.5555555555547</v>
+        <v>7404</v>
       </c>
       <c r="N41">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H41,"")</f>
-        <v>5214.2222222222226</v>
+        <v>5586.666666666667</v>
       </c>
       <c r="O41">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H41,"")</f>
-        <v>7145.5999999999995</v>
+        <v>8205</v>
       </c>
       <c r="P41">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F41,"")</f>
@@ -56078,11 +57342,11 @@
       </c>
       <c r="B44">
         <f>COUNTIF(CSL_Sonuclari!C:J,A44)</f>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C44" s="5">
         <f t="shared" si="4"/>
-        <v>3514.3897435897438</v>
+        <v>4143.7</v>
       </c>
       <c r="D44">
         <f>COUNTIF(CSL_Sonuclari!J:J,A44)</f>
@@ -56102,11 +57366,11 @@
       </c>
       <c r="H44">
         <f>COUNTIF(CSL_Sonuclari!C:H,A44)</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I44" s="5">
         <f t="shared" si="7"/>
-        <v>5244.9829059829053</v>
+        <v>6293.833333333333</v>
       </c>
       <c r="J44" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H44,"")</f>
@@ -56122,15 +57386,15 @@
       </c>
       <c r="M44">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H44,"")</f>
-        <v>7383</v>
+        <v>8346</v>
       </c>
       <c r="N44">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H44,"")</f>
-        <v>4615.333333333333</v>
+        <v>6311.5</v>
       </c>
       <c r="O44">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H44,"")</f>
-        <v>3736.6153846153843</v>
+        <v>4224</v>
       </c>
       <c r="P44">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F44,"")</f>
@@ -56147,11 +57411,11 @@
       </c>
       <c r="B45">
         <f>COUNTIF(CSL_Sonuclari!C:J,A45)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C45" s="5">
         <f t="shared" si="4"/>
-        <v>2395.8416666666667</v>
+        <v>2517.5083333333332</v>
       </c>
       <c r="D45">
         <f>COUNTIF(CSL_Sonuclari!J:J,A45)</f>
@@ -56163,11 +57427,11 @@
       </c>
       <c r="F45" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A45)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G45" s="8">
         <f t="shared" si="6"/>
-        <v>1269</v>
+        <v>1999</v>
       </c>
       <c r="H45">
         <f>COUNTIF(CSL_Sonuclari!C:H,A45)</f>
@@ -56203,7 +57467,7 @@
       </c>
       <c r="P45">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F45,"")</f>
-        <v>1269</v>
+        <v>1999</v>
       </c>
       <c r="Q45">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D45,"")</f>
@@ -56216,19 +57480,19 @@
       </c>
       <c r="B46">
         <f>COUNTIF(CSL_Sonuclari!C:J,A46)</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C46" s="5">
         <f t="shared" si="4"/>
-        <v>2609.9166666666665</v>
+        <v>3038.3762626262628</v>
       </c>
       <c r="D46">
         <f>COUNTIF(CSL_Sonuclari!J:J,A46)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" s="5">
         <f t="shared" si="5"/>
-        <v>251</v>
+        <v>618</v>
       </c>
       <c r="F46" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A46)</f>
@@ -56240,11 +57504,11 @@
       </c>
       <c r="H46">
         <f>COUNTIF(CSL_Sonuclari!C:H,A46)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I46" s="5">
         <f t="shared" si="7"/>
-        <v>3746.125</v>
+        <v>4297.064393939394</v>
       </c>
       <c r="J46" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H46,"")</f>
@@ -56252,19 +57516,19 @@
       </c>
       <c r="K46">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H46,"")</f>
-        <v>3480.666666666667</v>
+        <v>3783.3333333333335</v>
       </c>
       <c r="L46">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H46,"")</f>
-        <v>4009.666666666667</v>
+        <v>5259.090909090909</v>
       </c>
       <c r="M46">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H46,"")</f>
-        <v>3779.666666666667</v>
+        <v>4108.3333333333339</v>
       </c>
       <c r="N46">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H46,"")</f>
-        <v>3714.5</v>
+        <v>4037.5</v>
       </c>
       <c r="O46" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H46,"")</f>
@@ -56276,7 +57540,7 @@
       </c>
       <c r="Q46">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D46,"")</f>
-        <v>251</v>
+        <v>618</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
@@ -56285,11 +57549,11 @@
       </c>
       <c r="B47">
         <f>COUNTIF(CSL_Sonuclari!C:J,A47)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C47" s="5">
         <f t="shared" si="4"/>
-        <v>2640.8673076923078</v>
+        <v>3399.5800000000004</v>
       </c>
       <c r="D47">
         <f>COUNTIF(CSL_Sonuclari!J:J,A47)</f>
@@ -56309,11 +57573,11 @@
       </c>
       <c r="H47">
         <f>COUNTIF(CSL_Sonuclari!C:H,A47)</f>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I47" s="5">
         <f t="shared" si="7"/>
-        <v>4024.7788461538462</v>
+        <v>5289.3</v>
       </c>
       <c r="J47" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H47,"")</f>
@@ -56329,15 +57593,15 @@
       </c>
       <c r="M47">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H47,"")</f>
-        <v>3634</v>
+        <v>4266</v>
       </c>
       <c r="N47">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H47,"")</f>
-        <v>4119.875</v>
+        <v>5872.5</v>
       </c>
       <c r="O47">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H47,"")</f>
-        <v>4320.4615384615381</v>
+        <v>5729.4</v>
       </c>
       <c r="P47">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F47,"")</f>
@@ -56423,19 +57687,19 @@
       </c>
       <c r="B49">
         <f>COUNTIF(CSL_Sonuclari!C:J,A49)</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C49" s="5">
         <f t="shared" si="4"/>
-        <v>3571.0649350649351</v>
+        <v>4017.6512059369206</v>
       </c>
       <c r="D49">
         <f>COUNTIF(CSL_Sonuclari!J:J,A49)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" s="5">
         <f t="shared" si="5"/>
-        <v>357</v>
+        <v>720</v>
       </c>
       <c r="F49" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A49)</f>
@@ -56447,15 +57711,15 @@
       </c>
       <c r="H49">
         <f>COUNTIF(CSL_Sonuclari!C:H,A49)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I49" s="5">
         <f t="shared" si="7"/>
-        <v>4801.4909090909086</v>
+        <v>5354.1116883116892</v>
       </c>
       <c r="J49">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H49,"")</f>
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K49" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H49,"")</f>
@@ -56463,19 +57727,19 @@
       </c>
       <c r="L49">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H49,"")</f>
-        <v>5628</v>
+        <v>6030</v>
       </c>
       <c r="M49">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H49,"")</f>
-        <v>6837.5999999999995</v>
+        <v>8374.2857142857156</v>
       </c>
       <c r="N49">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H49,"")</f>
-        <v>5328.4000000000005</v>
+        <v>5709</v>
       </c>
       <c r="O49">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H49,"")</f>
-        <v>6073.454545454545</v>
+        <v>6507.272727272727</v>
       </c>
       <c r="P49">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F49,"")</f>
@@ -56483,7 +57747,7 @@
       </c>
       <c r="Q49">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D49,"")</f>
-        <v>357</v>
+        <v>720</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
@@ -56492,11 +57756,11 @@
       </c>
       <c r="B50">
         <f>COUNTIF(CSL_Sonuclari!C:J,A50)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C50" s="5">
         <f t="shared" si="4"/>
-        <v>2409.444597069597</v>
+        <v>2617.5833333333335</v>
       </c>
       <c r="D50">
         <f>COUNTIF(CSL_Sonuclari!J:J,A50)</f>
@@ -56516,11 +57780,11 @@
       </c>
       <c r="H50">
         <f>COUNTIF(CSL_Sonuclari!C:H,A50)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I50" s="5">
         <f t="shared" si="7"/>
-        <v>2953.4168956043954</v>
+        <v>3265.625</v>
       </c>
       <c r="J50" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H50,"")</f>
@@ -56532,19 +57796,19 @@
       </c>
       <c r="L50">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H50,"")</f>
-        <v>925</v>
+        <v>962</v>
       </c>
       <c r="M50">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H50,"")</f>
-        <v>3278.5714285714284</v>
+        <v>4186</v>
       </c>
       <c r="N50">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H50,"")</f>
-        <v>3078.8461538461538</v>
+        <v>3202</v>
       </c>
       <c r="O50">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H50,"")</f>
-        <v>4531.25</v>
+        <v>4712.5</v>
       </c>
       <c r="P50">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F50,"")</f>
@@ -56561,11 +57825,11 @@
       </c>
       <c r="B51">
         <f>COUNTIF(CSL_Sonuclari!C:J,A51)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C51" s="5">
         <f t="shared" si="4"/>
-        <v>2082.4722222222222</v>
+        <v>2549.6064814814813</v>
       </c>
       <c r="D51">
         <f>COUNTIF(CSL_Sonuclari!J:J,A51)</f>
@@ -56585,27 +57849,27 @@
       </c>
       <c r="H51">
         <f>COUNTIF(CSL_Sonuclari!C:H,A51)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I51" s="5">
         <f t="shared" si="7"/>
-        <v>2801.2083333333335</v>
+        <v>3501.9097222222222</v>
       </c>
       <c r="J51">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H51,"")</f>
-        <v>4485</v>
+        <v>5113.8888888888887</v>
       </c>
       <c r="K51">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H51,"")</f>
-        <v>2798.3333333333335</v>
+        <v>4631.25</v>
       </c>
       <c r="L51">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H51,"")</f>
-        <v>3450</v>
+        <v>3750</v>
       </c>
       <c r="M51">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H51,"")</f>
-        <v>471.5</v>
+        <v>512.5</v>
       </c>
       <c r="N51" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H51,"")</f>
@@ -56630,11 +57894,11 @@
       </c>
       <c r="B52">
         <f>COUNTIF(CSL_Sonuclari!C:J,A52)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C52" s="5">
         <f t="shared" si="4"/>
-        <v>2229.5571428571429</v>
+        <v>2545.4058608058613</v>
       </c>
       <c r="D52">
         <f>COUNTIF(CSL_Sonuclari!J:J,A52)</f>
@@ -56654,31 +57918,31 @@
       </c>
       <c r="H52">
         <f>COUNTIF(CSL_Sonuclari!C:H,A52)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I52" s="5">
         <f t="shared" si="7"/>
-        <v>2756.18</v>
+        <v>3198.3682051282053</v>
       </c>
       <c r="J52">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H52,"")</f>
-        <v>1050</v>
+        <v>1150</v>
       </c>
       <c r="K52">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H52,"")</f>
-        <v>3431.4</v>
+        <v>3758.2000000000003</v>
       </c>
       <c r="L52">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H52,"")</f>
-        <v>2863</v>
+        <v>3547.3076923076924</v>
       </c>
       <c r="M52">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H52,"")</f>
-        <v>6331.5</v>
+        <v>7421.3333333333339</v>
       </c>
       <c r="N52">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H52,"")</f>
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="O52" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H52,"")</f>
@@ -56768,19 +58032,19 @@
       </c>
       <c r="B54">
         <f>COUNTIF(CSL_Sonuclari!C:J,A54)</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C54" s="5">
         <f t="shared" si="4"/>
-        <v>2527.7151515151513</v>
+        <v>2820.7272727272725</v>
       </c>
       <c r="D54">
         <f>COUNTIF(CSL_Sonuclari!J:J,A54)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E54" s="5">
         <f t="shared" si="5"/>
-        <v>298</v>
+        <v>1047</v>
       </c>
       <c r="F54" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A54)</f>
@@ -56792,11 +58056,11 @@
       </c>
       <c r="H54">
         <f>COUNTIF(CSL_Sonuclari!C:H,A54)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I54" s="5">
         <f t="shared" si="7"/>
-        <v>3610.5727272727272</v>
+        <v>3862.840909090909</v>
       </c>
       <c r="J54" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H54,"")</f>
@@ -56804,19 +58068,19 @@
       </c>
       <c r="K54">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H54,"")</f>
-        <v>2002</v>
+        <v>2079</v>
       </c>
       <c r="L54">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H54,"")</f>
-        <v>4420</v>
+        <v>4590</v>
       </c>
       <c r="M54">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H54,"")</f>
-        <v>3283.090909090909</v>
+        <v>3409.363636363636</v>
       </c>
       <c r="N54">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H54,"")</f>
-        <v>4737.2</v>
+        <v>5373</v>
       </c>
       <c r="O54" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H54,"")</f>
@@ -56828,7 +58092,7 @@
       </c>
       <c r="Q54">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D54,"")</f>
-        <v>298</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
@@ -56975,11 +58239,11 @@
       </c>
       <c r="B57">
         <f>COUNTIF(CSL_Sonuclari!C:J,A57)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C57" s="5">
         <f t="shared" si="4"/>
-        <v>3746.8333333333335</v>
+        <v>3820.6333333333337</v>
       </c>
       <c r="D57">
         <f>COUNTIF(CSL_Sonuclari!J:J,A57)</f>
@@ -56991,11 +58255,11 @@
       </c>
       <c r="F57" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A57)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G57" s="8">
         <f t="shared" si="6"/>
-        <v>441</v>
+        <v>810</v>
       </c>
       <c r="H57">
         <f>COUNTIF(CSL_Sonuclari!C:H,A57)</f>
@@ -57031,7 +58295,7 @@
       </c>
       <c r="P57">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F57,"")</f>
-        <v>441</v>
+        <v>810</v>
       </c>
       <c r="Q57" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D57,"")</f>
@@ -57044,11 +58308,11 @@
       </c>
       <c r="B58">
         <f>COUNTIF(CSL_Sonuclari!C:J,A58)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C58" s="5">
         <f t="shared" si="4"/>
-        <v>3060.064713064713</v>
+        <v>3113.7789987789988</v>
       </c>
       <c r="D58">
         <f>COUNTIF(CSL_Sonuclari!J:J,A58)</f>
@@ -57060,11 +58324,11 @@
       </c>
       <c r="F58" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A58)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G58" s="8">
         <f t="shared" si="6"/>
-        <v>676</v>
+        <v>1052</v>
       </c>
       <c r="H58">
         <f>COUNTIF(CSL_Sonuclari!C:H,A58)</f>
@@ -57100,7 +58364,7 @@
       </c>
       <c r="P58">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F58,"")</f>
-        <v>676</v>
+        <v>1052</v>
       </c>
       <c r="Q58">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D58,"")</f>
@@ -57113,11 +58377,11 @@
       </c>
       <c r="B59">
         <f>COUNTIF(CSL_Sonuclari!C:J,A59)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C59" s="5">
         <f t="shared" si="4"/>
-        <v>1497.0862068965516</v>
+        <v>1594.5249999999999</v>
       </c>
       <c r="D59">
         <f>COUNTIF(CSL_Sonuclari!J:J,A59)</f>
@@ -57137,15 +58401,15 @@
       </c>
       <c r="H59">
         <f>COUNTIF(CSL_Sonuclari!C:H,A59)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I59" s="5">
         <f t="shared" si="7"/>
-        <v>2705.1724137931033</v>
+        <v>2900.0499999999997</v>
       </c>
       <c r="J59">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H59,"")</f>
-        <v>4900.3448275862065</v>
+        <v>5273.0999999999995</v>
       </c>
       <c r="K59" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H59,"")</f>
@@ -57153,7 +58417,7 @@
       </c>
       <c r="L59">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H59,"")</f>
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="M59" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H59,"")</f>
@@ -57182,19 +58446,19 @@
       </c>
       <c r="B60">
         <f>COUNTIF(CSL_Sonuclari!C:J,A60)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C60" s="5">
         <f t="shared" si="4"/>
-        <v>2998.9166666666665</v>
+        <v>3073.1166666666663</v>
       </c>
       <c r="D60">
         <f>COUNTIF(CSL_Sonuclari!J:J,A60)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E60" s="5">
         <f t="shared" si="5"/>
-        <v>967</v>
+        <v>1338</v>
       </c>
       <c r="F60" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A60)</f>
@@ -57242,7 +58506,7 @@
       </c>
       <c r="Q60">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D60,"")</f>
-        <v>967</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
@@ -57251,11 +58515,11 @@
       </c>
       <c r="B61">
         <f>COUNTIF(CSL_Sonuclari!C:J,A61)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C61" s="5">
         <f t="shared" si="4"/>
-        <v>3210.885416666667</v>
+        <v>3539.0208333333335</v>
       </c>
       <c r="D61">
         <f>COUNTIF(CSL_Sonuclari!J:J,A61)</f>
@@ -57275,35 +58539,35 @@
       </c>
       <c r="H61">
         <f>COUNTIF(CSL_Sonuclari!C:H,A61)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I61" s="5">
         <f t="shared" si="7"/>
-        <v>3950.3472222222226</v>
+        <v>4387.8611111111113</v>
       </c>
       <c r="J61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H61,"")</f>
-        <v>5800</v>
+        <v>6032</v>
       </c>
       <c r="K61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H61,"")</f>
-        <v>4268.75</v>
+        <v>4439.5</v>
       </c>
       <c r="L61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H61,"")</f>
-        <v>5220.8333333333339</v>
+        <v>5429.666666666667</v>
       </c>
       <c r="M61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H61,"")</f>
-        <v>4100</v>
+        <v>4264</v>
       </c>
       <c r="N61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H61,"")</f>
-        <v>4287.5</v>
+        <v>6136</v>
       </c>
       <c r="O61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H61,"")</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F61,"")</f>
@@ -57320,19 +58584,19 @@
       </c>
       <c r="B62">
         <f>COUNTIF(CSL_Sonuclari!C:J,A62)</f>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C62" s="5">
         <f t="shared" si="4"/>
-        <v>3099.8113553113553</v>
+        <v>3531.1054421768704</v>
       </c>
       <c r="D62">
         <f>COUNTIF(CSL_Sonuclari!J:J,A62)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E62" s="5">
         <f t="shared" si="5"/>
-        <v>664</v>
+        <v>1026</v>
       </c>
       <c r="F62" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A62)</f>
@@ -57344,11 +58608,11 @@
       </c>
       <c r="H62">
         <f>COUNTIF(CSL_Sonuclari!C:H,A62)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I62" s="5">
         <f t="shared" si="7"/>
-        <v>4087.7358974358976</v>
+        <v>4619.1476190476187</v>
       </c>
       <c r="J62" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H62,"")</f>
@@ -57356,23 +58620,23 @@
       </c>
       <c r="K62">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H62,"")</f>
-        <v>4074.5</v>
+        <v>4355.5</v>
       </c>
       <c r="L62">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H62,"")</f>
-        <v>5974</v>
+        <v>7130</v>
       </c>
       <c r="M62">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H62,"")</f>
-        <v>3932.8461538461538</v>
+        <v>4707.5714285714284</v>
       </c>
       <c r="N62">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H62,"")</f>
-        <v>4079.333333333333</v>
+        <v>4360.6666666666661</v>
       </c>
       <c r="O62">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H62,"")</f>
-        <v>2378</v>
+        <v>2542</v>
       </c>
       <c r="P62">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F62,"")</f>
@@ -57380,7 +58644,7 @@
       </c>
       <c r="Q62">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D62,"")</f>
-        <v>664</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -57458,11 +58722,11 @@
       </c>
       <c r="B64">
         <f>COUNTIF(CSL_Sonuclari!C:J,A64)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C64" s="5">
         <f t="shared" si="4"/>
-        <v>3513.8444444444444</v>
+        <v>3690.1875</v>
       </c>
       <c r="D64">
         <f>COUNTIF(CSL_Sonuclari!J:J,A64)</f>
@@ -57482,27 +58746,27 @@
       </c>
       <c r="H64">
         <f>COUNTIF(CSL_Sonuclari!C:H,A64)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I64" s="5">
         <f t="shared" si="7"/>
-        <v>5096.2666666666664</v>
+        <v>5360.78125</v>
       </c>
       <c r="J64">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H64,"")</f>
-        <v>5495.5</v>
+        <v>5685</v>
       </c>
       <c r="K64">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H64,"")</f>
-        <v>5382.4</v>
+        <v>5923.125</v>
       </c>
       <c r="L64">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H64,"")</f>
-        <v>4258.166666666667</v>
+        <v>4405</v>
       </c>
       <c r="M64">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H64,"")</f>
-        <v>5249</v>
+        <v>5430</v>
       </c>
       <c r="N64" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H64,"")</f>
@@ -57527,11 +58791,11 @@
       </c>
       <c r="B65">
         <f>COUNTIF(CSL_Sonuclari!C:J,A65)</f>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C65" s="5">
         <f t="shared" si="4"/>
-        <v>3333.16</v>
+        <v>3874.5111111111109</v>
       </c>
       <c r="D65">
         <f>COUNTIF(CSL_Sonuclari!J:J,A65)</f>
@@ -57551,11 +58815,11 @@
       </c>
       <c r="H65">
         <f>COUNTIF(CSL_Sonuclari!C:H,A65)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I65" s="5">
         <f t="shared" si="7"/>
-        <v>4824.5999999999995</v>
+        <v>5726.8518518518513</v>
       </c>
       <c r="J65" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H65,"")</f>
@@ -57571,15 +58835,15 @@
       </c>
       <c r="M65">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H65,"")</f>
-        <v>6798</v>
+        <v>7725</v>
       </c>
       <c r="N65">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H65,"")</f>
-        <v>3428.3333333333335</v>
+        <v>3895.8333333333335</v>
       </c>
       <c r="O65">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H65,"")</f>
-        <v>4247.4666666666662</v>
+        <v>5559.7222222222217</v>
       </c>
       <c r="P65">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F65,"")</f>
@@ -57596,11 +58860,11 @@
       </c>
       <c r="B66">
         <f>COUNTIF(CSL_Sonuclari!C:J,A66)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C66" s="5">
         <f t="shared" ref="C66:C91" si="8">AVERAGE(J66:Q66)</f>
-        <v>3301.3703703703704</v>
+        <v>3505.7574074074073</v>
       </c>
       <c r="D66">
         <f>COUNTIF(CSL_Sonuclari!J:J,A66)</f>
@@ -57620,19 +58884,19 @@
       </c>
       <c r="H66">
         <f>COUNTIF(CSL_Sonuclari!C:H,A66)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I66" s="5">
         <f t="shared" ref="I66:I91" si="11">AVERAGE(J66:O66)</f>
-        <v>4747.5555555555557</v>
+        <v>5054.1361111111109</v>
       </c>
       <c r="J66">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H66,"")</f>
-        <v>4844</v>
+        <v>5291.0499999999993</v>
       </c>
       <c r="K66">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H66,"")</f>
-        <v>4651.1111111111113</v>
+        <v>4817.2222222222226</v>
       </c>
       <c r="L66" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H66,"")</f>
@@ -57665,19 +58929,19 @@
       </c>
       <c r="B67">
         <f>COUNTIF(CSL_Sonuclari!C:J,A67)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C67" s="5">
         <f t="shared" si="8"/>
-        <v>4367.7461038961037</v>
+        <v>4646.886363636364</v>
       </c>
       <c r="D67">
         <f>COUNTIF(CSL_Sonuclari!J:J,A67)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E67" s="5">
         <f t="shared" si="9"/>
-        <v>856</v>
+        <v>1230</v>
       </c>
       <c r="F67" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A67)</f>
@@ -57689,11 +58953,11 @@
       </c>
       <c r="H67">
         <f>COUNTIF(CSL_Sonuclari!C:H,A67)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I67" s="5">
         <f t="shared" si="11"/>
-        <v>6285.119155844156</v>
+        <v>6610.329545454546</v>
       </c>
       <c r="J67" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H67,"")</f>
@@ -57701,7 +58965,7 @@
       </c>
       <c r="K67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H67,"")</f>
-        <v>7134</v>
+        <v>7380</v>
       </c>
       <c r="L67" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H67,"")</f>
@@ -57709,15 +58973,15 @@
       </c>
       <c r="M67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H67,"")</f>
-        <v>5275.1</v>
+        <v>5457</v>
       </c>
       <c r="N67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H67,"")</f>
-        <v>5386.090909090909</v>
+        <v>5571.818181818182</v>
       </c>
       <c r="O67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H67,"")</f>
-        <v>7345.2857142857138</v>
+        <v>8032.5</v>
       </c>
       <c r="P67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F67,"")</f>
@@ -57725,7 +58989,7 @@
       </c>
       <c r="Q67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D67,"")</f>
-        <v>856</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
@@ -57734,11 +58998,11 @@
       </c>
       <c r="B68">
         <f>COUNTIF(CSL_Sonuclari!C:J,A68)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68" s="5">
         <f t="shared" si="8"/>
-        <v>4505.1948051948048</v>
+        <v>5074.6762523191092</v>
       </c>
       <c r="D68">
         <f>COUNTIF(CSL_Sonuclari!J:J,A68)</f>
@@ -57758,31 +59022,31 @@
       </c>
       <c r="H68">
         <f>COUNTIF(CSL_Sonuclari!C:H,A68)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I68" s="5">
         <f t="shared" si="11"/>
-        <v>6002.4727272727268</v>
+        <v>6799.7467532467535</v>
       </c>
       <c r="J68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H68,"")</f>
-        <v>5688</v>
+        <v>5891.1428571428569</v>
       </c>
       <c r="K68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H68,"")</f>
-        <v>5480.363636363636</v>
+        <v>5676.090909090909</v>
       </c>
       <c r="L68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H68,"")</f>
-        <v>6860</v>
+        <v>7105</v>
       </c>
       <c r="M68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H68,"")</f>
-        <v>4900</v>
+        <v>7989.5</v>
       </c>
       <c r="N68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H68,"")</f>
-        <v>7084</v>
+        <v>7337</v>
       </c>
       <c r="O68" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H68,"")</f>
@@ -57803,11 +59067,11 @@
       </c>
       <c r="B69">
         <f>COUNTIF(CSL_Sonuclari!C:J,A69)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C69" s="5">
         <f t="shared" si="8"/>
-        <v>2881.0119047619046</v>
+        <v>3056.8359126984133</v>
       </c>
       <c r="D69">
         <f>COUNTIF(CSL_Sonuclari!J:J,A69)</f>
@@ -57827,35 +59091,35 @@
       </c>
       <c r="H69">
         <f>COUNTIF(CSL_Sonuclari!C:H,A69)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I69" s="5">
         <f t="shared" si="11"/>
-        <v>3728.0158730158728</v>
+        <v>3962.4478835978844</v>
       </c>
       <c r="J69">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H69,"")</f>
-        <v>1110</v>
+        <v>1147</v>
       </c>
       <c r="K69">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H69,"")</f>
-        <v>4523.333333333333</v>
+        <v>5335.0999999999995</v>
       </c>
       <c r="L69">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H69,"")</f>
-        <v>6921.4285714285716</v>
+        <v>7152.1428571428578</v>
       </c>
       <c r="M69">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H69,"")</f>
-        <v>4823.333333333333</v>
+        <v>4984.1111111111113</v>
       </c>
       <c r="N69">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H69,"")</f>
-        <v>4480</v>
+        <v>4629.3333333333339</v>
       </c>
       <c r="O69">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H69,"")</f>
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="P69">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F69,"")</f>
@@ -58010,19 +59274,19 @@
       </c>
       <c r="B72">
         <f>COUNTIF(CSL_Sonuclari!C:J,A72)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C72" s="5">
         <f t="shared" si="8"/>
-        <v>2832.3904761904764</v>
+        <v>3061.798701298701</v>
       </c>
       <c r="D72">
         <f>COUNTIF(CSL_Sonuclari!J:J,A72)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E72" s="5">
         <f t="shared" si="9"/>
-        <v>205</v>
+        <v>575</v>
       </c>
       <c r="F72" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A72)</f>
@@ -58034,15 +59298,15 @@
       </c>
       <c r="H72">
         <f>COUNTIF(CSL_Sonuclari!C:H,A72)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I72" s="5">
         <f t="shared" si="11"/>
-        <v>3840.5466666666666</v>
+        <v>4087.7181818181816</v>
       </c>
       <c r="J72">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H72,"")</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K72" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H72,"")</f>
@@ -58050,19 +59314,19 @@
       </c>
       <c r="L72">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H72,"")</f>
-        <v>7826</v>
+        <v>8127</v>
       </c>
       <c r="M72">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H72,"")</f>
-        <v>3419</v>
+        <v>3550.5</v>
       </c>
       <c r="N72">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H72,"")</f>
-        <v>4144.4000000000005</v>
+        <v>4801.090909090909</v>
       </c>
       <c r="O72">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H72,"")</f>
-        <v>3761.333333333333</v>
+        <v>3905.9999999999995</v>
       </c>
       <c r="P72">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F72,"")</f>
@@ -58070,7 +59334,7 @@
       </c>
       <c r="Q72">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D72,"")</f>
-        <v>205</v>
+        <v>575</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
@@ -58148,11 +59412,11 @@
       </c>
       <c r="B74">
         <f>COUNTIF(CSL_Sonuclari!C:J,A74)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C74" s="5">
         <f t="shared" si="8"/>
-        <v>4525.29050925926</v>
+        <v>4785.0751633986929</v>
       </c>
       <c r="D74">
         <f>COUNTIF(CSL_Sonuclari!J:J,A74)</f>
@@ -58164,35 +59428,35 @@
       </c>
       <c r="F74" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A74)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G74" s="8">
         <f t="shared" si="10"/>
-        <v>782</v>
+        <v>1156</v>
       </c>
       <c r="H74">
         <f>COUNTIF(CSL_Sonuclari!C:H,A74)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I74" s="5">
         <f t="shared" si="11"/>
-        <v>6515.6857638888896</v>
+        <v>6811.8627450980393</v>
       </c>
       <c r="J74">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H74,"")</f>
-        <v>4797.8888888888896</v>
+        <v>4963.3333333333339</v>
       </c>
       <c r="K74">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H74,"")</f>
-        <v>5827.1875</v>
+        <v>6314.1176470588234</v>
       </c>
       <c r="L74">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H74,"")</f>
-        <v>5113.666666666667</v>
+        <v>5290</v>
       </c>
       <c r="M74">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H74,"")</f>
-        <v>10324</v>
+        <v>10680</v>
       </c>
       <c r="N74" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H74,"")</f>
@@ -58204,7 +59468,7 @@
       </c>
       <c r="P74">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F74,"")</f>
-        <v>782</v>
+        <v>1156</v>
       </c>
       <c r="Q74">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D74,"")</f>
@@ -58217,19 +59481,19 @@
       </c>
       <c r="B75">
         <f>COUNTIF(CSL_Sonuclari!C:J,A75)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C75" s="5">
         <f t="shared" si="8"/>
-        <v>3593.9965277777774</v>
+        <v>3838.1791666666663</v>
       </c>
       <c r="D75">
         <f>COUNTIF(CSL_Sonuclari!J:J,A75)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E75" s="5">
         <f t="shared" si="9"/>
-        <v>775</v>
+        <v>1140</v>
       </c>
       <c r="F75" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A75)</f>
@@ -58241,35 +59505,35 @@
       </c>
       <c r="H75">
         <f>COUNTIF(CSL_Sonuclari!C:H,A75)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I75" s="5">
         <f t="shared" si="11"/>
-        <v>4627.6620370370365</v>
+        <v>4892.4055555555551</v>
       </c>
       <c r="J75">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H75,"")</f>
-        <v>5075</v>
+        <v>5278</v>
       </c>
       <c r="K75">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H75,"")</f>
-        <v>5081.25</v>
+        <v>5284.5</v>
       </c>
       <c r="L75">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H75,"")</f>
-        <v>3450</v>
+        <v>3588</v>
       </c>
       <c r="M75">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H75,"")</f>
-        <v>4555.5555555555557</v>
+        <v>5215.5999999999995</v>
       </c>
       <c r="N75">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H75,"")</f>
-        <v>6379.1666666666661</v>
+        <v>6634.333333333333</v>
       </c>
       <c r="O75">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H75,"")</f>
-        <v>3225</v>
+        <v>3354</v>
       </c>
       <c r="P75">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F75,"")</f>
@@ -58277,7 +59541,7 @@
       </c>
       <c r="Q75">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D75,"")</f>
-        <v>775</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
@@ -58286,11 +59550,11 @@
       </c>
       <c r="B76">
         <f>COUNTIF(CSL_Sonuclari!C:J,A76)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C76" s="5">
         <f t="shared" si="8"/>
-        <v>5676.2023809523807</v>
+        <v>5723.3273809523807</v>
       </c>
       <c r="D76">
         <f>COUNTIF(CSL_Sonuclari!J:J,A76)</f>
@@ -58302,11 +59566,11 @@
       </c>
       <c r="F76" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A76)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G76" s="8">
         <f t="shared" si="10"/>
-        <v>1186</v>
+        <v>1563</v>
       </c>
       <c r="H76">
         <f>COUNTIF(CSL_Sonuclari!C:H,A76)</f>
@@ -58342,7 +59606,7 @@
       </c>
       <c r="P76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F76,"")</f>
-        <v>1186</v>
+        <v>1563</v>
       </c>
       <c r="Q76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D76,"")</f>
@@ -58424,11 +59688,11 @@
       </c>
       <c r="B78">
         <f>COUNTIF(CSL_Sonuclari!C:J,A78)</f>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C78" s="5">
         <f t="shared" si="8"/>
-        <v>2584.0740740740744</v>
+        <v>2884.001282051282</v>
       </c>
       <c r="D78">
         <f>COUNTIF(CSL_Sonuclari!J:J,A78)</f>
@@ -58440,31 +59704,31 @@
       </c>
       <c r="F78" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A78)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G78" s="8">
         <f t="shared" si="10"/>
-        <v>944</v>
+        <v>1673</v>
       </c>
       <c r="H78">
         <f>COUNTIF(CSL_Sonuclari!C:H,A78)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I78" s="5">
         <f t="shared" si="11"/>
-        <v>3528.6111111111113</v>
+        <v>3796.251923076923</v>
       </c>
       <c r="J78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H78,"")</f>
-        <v>4642.4444444444443</v>
+        <v>5348.7</v>
       </c>
       <c r="K78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H78,"")</f>
-        <v>3726.0000000000005</v>
+        <v>3869.3076923076928</v>
       </c>
       <c r="L78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H78,"")</f>
-        <v>5382</v>
+        <v>5589</v>
       </c>
       <c r="M78" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H78,"")</f>
@@ -58476,11 +59740,11 @@
       </c>
       <c r="O78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H78,"")</f>
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="P78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F78,"")</f>
-        <v>944</v>
+        <v>1673</v>
       </c>
       <c r="Q78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D78,"")</f>
@@ -58700,11 +59964,11 @@
       </c>
       <c r="B82">
         <f>COUNTIF(CSL_Sonuclari!C:J,A82)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C82" s="5">
         <f t="shared" si="8"/>
-        <v>3649.2477272727274</v>
+        <v>3977.1687499999998</v>
       </c>
       <c r="D82">
         <f>COUNTIF(CSL_Sonuclari!J:J,A82)</f>
@@ -58724,11 +59988,11 @@
       </c>
       <c r="H82">
         <f>COUNTIF(CSL_Sonuclari!C:H,A82)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I82" s="5">
         <f t="shared" si="11"/>
-        <v>6297.9954545454548</v>
+        <v>6953.8374999999996</v>
       </c>
       <c r="J82" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H82,"")</f>
@@ -58748,11 +60012,11 @@
       </c>
       <c r="N82">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H82,"")</f>
-        <v>6863.4</v>
+        <v>7371.7999999999993</v>
       </c>
       <c r="O82">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H82,"")</f>
-        <v>5732.590909090909</v>
+        <v>6535.875</v>
       </c>
       <c r="P82">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F82,"")</f>
@@ -58769,11 +60033,11 @@
       </c>
       <c r="B83">
         <f>COUNTIF(CSL_Sonuclari!C:J,A83)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C83" s="5">
         <f t="shared" si="8"/>
-        <v>2174.7435897435898</v>
+        <v>2275.4197530864199</v>
       </c>
       <c r="D83">
         <f>COUNTIF(CSL_Sonuclari!J:J,A83)</f>
@@ -58793,11 +60057,11 @@
       </c>
       <c r="H83">
         <f>COUNTIF(CSL_Sonuclari!C:H,A83)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I83" s="5">
         <f t="shared" si="11"/>
-        <v>2899.6153846153848</v>
+        <v>3050.6296296296296</v>
       </c>
       <c r="J83" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H83,"")</f>
@@ -58809,19 +60073,19 @@
       </c>
       <c r="L83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H83,"")</f>
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="M83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H83,"")</f>
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="N83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H83,"")</f>
-        <v>5490</v>
+        <v>5673</v>
       </c>
       <c r="O83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H83,"")</f>
-        <v>5508.4615384615381</v>
+        <v>5909.5185185185182</v>
       </c>
       <c r="P83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F83,"")</f>
@@ -58838,11 +60102,11 @@
       </c>
       <c r="B84">
         <f>COUNTIF(CSL_Sonuclari!C:J,A84)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C84" s="5">
         <f t="shared" si="8"/>
-        <v>3212.5817307692305</v>
+        <v>3354.962962962963</v>
       </c>
       <c r="D84">
         <f>COUNTIF(CSL_Sonuclari!J:J,A84)</f>
@@ -58862,15 +60126,15 @@
       </c>
       <c r="H84">
         <f>COUNTIF(CSL_Sonuclari!C:H,A84)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I84" s="5">
         <f t="shared" si="11"/>
-        <v>3816.7756410256407</v>
+        <v>4006.6172839506175</v>
       </c>
       <c r="J84">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H84,"")</f>
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="K84" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H84,"")</f>
@@ -58886,11 +60150,11 @@
       </c>
       <c r="N84">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H84,"")</f>
-        <v>4750.75</v>
+        <v>4904</v>
       </c>
       <c r="O84">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H84,"")</f>
-        <v>6265.5769230769229</v>
+        <v>6667.8518518518522</v>
       </c>
       <c r="P84">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F84,"")</f>
@@ -58907,11 +60171,11 @@
       </c>
       <c r="B85">
         <f>COUNTIF(CSL_Sonuclari!C:J,A85)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C85" s="5">
         <f t="shared" si="8"/>
-        <v>3403.1041666666665</v>
+        <v>3556.3333333333335</v>
       </c>
       <c r="D85">
         <f>COUNTIF(CSL_Sonuclari!J:J,A85)</f>
@@ -58931,11 +60195,11 @@
       </c>
       <c r="H85">
         <f>COUNTIF(CSL_Sonuclari!C:H,A85)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I85" s="5">
         <f t="shared" si="11"/>
-        <v>4800.15625</v>
+        <v>5030</v>
       </c>
       <c r="J85" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H85,"")</f>
@@ -58943,7 +60207,7 @@
       </c>
       <c r="K85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H85,"")</f>
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="L85" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H85,"")</f>
@@ -58951,15 +60215,15 @@
       </c>
       <c r="M85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H85,"")</f>
-        <v>8416.5</v>
+        <v>8688</v>
       </c>
       <c r="N85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H85,"")</f>
-        <v>6300.75</v>
+        <v>6504</v>
       </c>
       <c r="O85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H85,"")</f>
-        <v>4328.375</v>
+        <v>4768</v>
       </c>
       <c r="P85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F85,"")</f>
@@ -58976,19 +60240,19 @@
       </c>
       <c r="B86">
         <f>COUNTIF(CSL_Sonuclari!C:J,A86)</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C86" s="5">
         <f t="shared" si="8"/>
-        <v>3648.727272727273</v>
+        <v>4297.3558823529411</v>
       </c>
       <c r="D86">
         <f>COUNTIF(CSL_Sonuclari!J:J,A86)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E86" s="5">
         <f t="shared" si="9"/>
-        <v>684</v>
+        <v>1052</v>
       </c>
       <c r="F86" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A86)</f>
@@ -59000,23 +60264,23 @@
       </c>
       <c r="H86">
         <f>COUNTIF(CSL_Sonuclari!C:H,A86)</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I86" s="5">
         <f t="shared" si="11"/>
-        <v>5664.212121212121</v>
+        <v>6622.5931372549021</v>
       </c>
       <c r="J86">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H86,"")</f>
-        <v>5594</v>
+        <v>6846.5294117647054</v>
       </c>
       <c r="K86">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H86,"")</f>
-        <v>5803.636363636364</v>
+        <v>6866.75</v>
       </c>
       <c r="L86">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H86,"")</f>
-        <v>5595</v>
+        <v>6154.5</v>
       </c>
       <c r="M86" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H86,"")</f>
@@ -59036,7 +60300,7 @@
       </c>
       <c r="Q86">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D86,"")</f>
-        <v>684</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
@@ -59045,11 +60309,11 @@
       </c>
       <c r="B87">
         <f>COUNTIF(CSL_Sonuclari!C:J,A87)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C87" s="5">
         <f t="shared" si="8"/>
-        <v>3808.35</v>
+        <v>4499.2250000000004</v>
       </c>
       <c r="D87">
         <f>COUNTIF(CSL_Sonuclari!J:J,A87)</f>
@@ -59069,35 +60333,35 @@
       </c>
       <c r="H87">
         <f>COUNTIF(CSL_Sonuclari!C:H,A87)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I87" s="5">
         <f t="shared" si="11"/>
-        <v>4752.8</v>
+        <v>5673.9666666666672</v>
       </c>
       <c r="J87">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H87,"")</f>
-        <v>5356</v>
+        <v>8064</v>
       </c>
       <c r="K87">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H87,"")</f>
-        <v>3971.5</v>
+        <v>4277</v>
       </c>
       <c r="L87">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H87,"")</f>
-        <v>3725.8</v>
+        <v>4012.4000000000005</v>
       </c>
       <c r="M87">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H87,"")</f>
-        <v>4725.5</v>
+        <v>6126.4000000000005</v>
       </c>
       <c r="N87">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H87,"")</f>
-        <v>6214</v>
+        <v>6692</v>
       </c>
       <c r="O87">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H87,"")</f>
-        <v>4524</v>
+        <v>4872</v>
       </c>
       <c r="P87">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F87,"")</f>
@@ -59114,11 +60378,11 @@
       </c>
       <c r="B88">
         <f>COUNTIF(CSL_Sonuclari!C:J,A88)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C88" s="5">
         <f t="shared" si="8"/>
-        <v>2110.6225563909775</v>
+        <v>2233.4800000000005</v>
       </c>
       <c r="D88">
         <f>COUNTIF(CSL_Sonuclari!J:J,A88)</f>
@@ -59138,19 +60402,19 @@
       </c>
       <c r="H88">
         <f>COUNTIF(CSL_Sonuclari!C:H,A88)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I88" s="5">
         <f t="shared" si="11"/>
-        <v>2797.0375939849623</v>
+        <v>3001.8000000000006</v>
       </c>
       <c r="J88">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H88,"")</f>
-        <v>4325.6842105263158</v>
+        <v>4789.4000000000005</v>
       </c>
       <c r="K88">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H88,"")</f>
-        <v>3444.4285714285716</v>
+        <v>3572</v>
       </c>
       <c r="L88" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H88,"")</f>
@@ -59166,7 +60430,7 @@
       </c>
       <c r="O88">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H88,"")</f>
-        <v>621</v>
+        <v>644</v>
       </c>
       <c r="P88">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F88,"")</f>
@@ -59183,19 +60447,19 @@
       </c>
       <c r="B89">
         <f>COUNTIF(CSL_Sonuclari!C:J,A89)</f>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C89" s="5">
         <f t="shared" si="8"/>
-        <v>4391.5769230769229</v>
+        <v>4838.0793650793648</v>
       </c>
       <c r="D89">
         <f>COUNTIF(CSL_Sonuclari!J:J,A89)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E89" s="5">
         <f t="shared" si="9"/>
-        <v>631</v>
+        <v>993</v>
       </c>
       <c r="F89" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A89)</f>
@@ -59207,11 +60471,11 @@
       </c>
       <c r="H89">
         <f>COUNTIF(CSL_Sonuclari!C:H,A89)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I89" s="5">
         <f t="shared" si="11"/>
-        <v>5990.4076923076918</v>
+        <v>6543.1111111111113</v>
       </c>
       <c r="J89" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H89,"")</f>
@@ -59219,23 +60483,23 @@
       </c>
       <c r="K89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H89,"")</f>
-        <v>2071</v>
+        <v>2180</v>
       </c>
       <c r="L89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H89,"")</f>
-        <v>4256</v>
+        <v>4480</v>
       </c>
       <c r="M89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H89,"")</f>
-        <v>9205.5</v>
+        <v>10275.555555555557</v>
       </c>
       <c r="N89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H89,"")</f>
-        <v>6173.538461538461</v>
+        <v>7100</v>
       </c>
       <c r="O89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H89,"")</f>
-        <v>8246</v>
+        <v>8680</v>
       </c>
       <c r="P89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F89,"")</f>
@@ -59243,7 +60507,7 @@
       </c>
       <c r="Q89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D89,"")</f>
-        <v>631</v>
+        <v>993</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
@@ -59252,11 +60516,11 @@
       </c>
       <c r="B90">
         <f>COUNTIF(CSL_Sonuclari!C:J,A90)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C90" s="5">
         <f t="shared" si="8"/>
-        <v>3448.4322344322345</v>
+        <v>3620.4164835164838</v>
       </c>
       <c r="D90">
         <f>COUNTIF(CSL_Sonuclari!J:J,A90)</f>
@@ -59276,35 +60540,35 @@
       </c>
       <c r="H90">
         <f>COUNTIF(CSL_Sonuclari!C:H,A90)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I90" s="5">
         <f t="shared" si="11"/>
-        <v>3742.67094017094</v>
+        <v>3943.3192307692311</v>
       </c>
       <c r="J90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H90,"")</f>
-        <v>4077.6923076923081</v>
+        <v>4213.6153846153848</v>
       </c>
       <c r="K90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H90,"")</f>
-        <v>6783.333333333333</v>
+        <v>7464.8</v>
       </c>
       <c r="L90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H90,"")</f>
-        <v>4800</v>
+        <v>4960</v>
       </c>
       <c r="M90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H90,"")</f>
-        <v>6225</v>
+        <v>6432.5</v>
       </c>
       <c r="N90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H90,"")</f>
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="O90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H90,"")</f>
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="P90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F90,"")</f>
@@ -59321,11 +60585,11 @@
       </c>
       <c r="B91">
         <f>COUNTIF(CSL_Sonuclari!C:J,A91)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C91" s="5">
         <f t="shared" si="8"/>
-        <v>4657.060606060606</v>
+        <v>4883.1944444444443</v>
       </c>
       <c r="D91">
         <f>COUNTIF(CSL_Sonuclari!J:J,A91)</f>
@@ -59345,27 +60609,27 @@
       </c>
       <c r="H91">
         <f>COUNTIF(CSL_Sonuclari!C:H,A91)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I91" s="5">
         <f t="shared" si="11"/>
-        <v>6491.090909090909</v>
+        <v>6830.2916666666661</v>
       </c>
       <c r="J91">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H91,"")</f>
-        <v>6065.454545454545</v>
+        <v>6255</v>
       </c>
       <c r="K91">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H91,"")</f>
-        <v>5058.909090909091</v>
+        <v>5217</v>
       </c>
       <c r="L91">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H91,"")</f>
-        <v>7176</v>
+        <v>7945.6666666666661</v>
       </c>
       <c r="M91">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H91,"")</f>
-        <v>7664</v>
+        <v>7903.5</v>
       </c>
       <c r="N91" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H91,"")</f>
@@ -59441,11 +60705,11 @@
       </c>
       <c r="B2">
         <f>COUNTIF(SL_Sonuclari!C:H,A2)</f>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C2" s="5">
         <f t="shared" ref="C2:C33" si="0">AVERAGE(D2:H2)</f>
-        <v>69.3</v>
+        <v>102.57142857142857</v>
       </c>
       <c r="D2" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A2,SL_Sonuclari!A:A),"")</f>
@@ -59465,7 +60729,7 @@
       </c>
       <c r="H2">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A2,SL_Sonuclari!A:A),"")</f>
-        <v>134.6</v>
+        <v>201.14285714285714</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -59474,15 +60738,15 @@
       </c>
       <c r="B3">
         <f>COUNTIF(SL_Sonuclari!C:H,A3)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3" s="5">
         <f t="shared" si="0"/>
-        <v>80.017857142857139</v>
+        <v>87.283333333333331</v>
       </c>
       <c r="D3">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A3,SL_Sonuclari!A:A),"")</f>
-        <v>153.03571428571428</v>
+        <v>167.56666666666666</v>
       </c>
       <c r="E3" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A3,SL_Sonuclari!A:A),"")</f>
@@ -59507,11 +60771,11 @@
       </c>
       <c r="B4">
         <f>COUNTIF(SL_Sonuclari!C:H,A4)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" s="5">
         <f t="shared" si="0"/>
-        <v>92.01315789473685</v>
+        <v>104.66249999999999</v>
       </c>
       <c r="D4">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A4,SL_Sonuclari!A:A),"")</f>
@@ -59527,11 +60791,11 @@
       </c>
       <c r="G4">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A4,SL_Sonuclari!A:A),"")</f>
-        <v>161</v>
+        <v>203.2</v>
       </c>
       <c r="H4">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A4,SL_Sonuclari!A:A),"")</f>
-        <v>194.05263157894737</v>
+        <v>202.45</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -59540,15 +60804,15 @@
       </c>
       <c r="B5">
         <f>COUNTIF(SL_Sonuclari!C:H,A5)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="5">
         <f t="shared" si="0"/>
-        <v>99.54</v>
+        <v>102.90384615384616</v>
       </c>
       <c r="D5">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A5,SL_Sonuclari!A:A),"")</f>
-        <v>192.08</v>
+        <v>198.80769230769232</v>
       </c>
       <c r="E5" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A5,SL_Sonuclari!A:A),"")</f>
@@ -59573,19 +60837,19 @@
       </c>
       <c r="B6">
         <f>COUNTIF(SL_Sonuclari!C:H,A6)</f>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C6" s="5">
         <f t="shared" si="0"/>
-        <v>112.5852534562212</v>
+        <v>127.10416666666666</v>
       </c>
       <c r="D6">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A6,SL_Sonuclari!A:A),"")</f>
-        <v>176.48387096774192</v>
+        <v>182.75</v>
       </c>
       <c r="E6">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A6,SL_Sonuclari!A:A),"")</f>
-        <v>135.85714285714286</v>
+        <v>187.66666666666666</v>
       </c>
       <c r="F6">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A6,SL_Sonuclari!A:A),"")</f>
@@ -59639,11 +60903,11 @@
       </c>
       <c r="B8">
         <f>COUNTIF(SL_Sonuclari!C:H,A8)</f>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" si="0"/>
-        <v>144.08522727272728</v>
+        <v>148.55208333333334</v>
       </c>
       <c r="D8">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A8,SL_Sonuclari!A:A),"")</f>
@@ -59663,7 +60927,7 @@
       </c>
       <c r="H8">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A8,SL_Sonuclari!A:A),"")</f>
-        <v>161.59090909090909</v>
+        <v>179.45833333333334</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -59672,19 +60936,19 @@
       </c>
       <c r="B9">
         <f>COUNTIF(SL_Sonuclari!C:H,A9)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>128.55256410256411</v>
+        <v>134.78869047619048</v>
       </c>
       <c r="D9">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A9,SL_Sonuclari!A:A),"")</f>
-        <v>165.8</v>
+        <v>178.25</v>
       </c>
       <c r="E9">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A9,SL_Sonuclari!A:A),"")</f>
-        <v>198.07692307692307</v>
+        <v>210.57142857142858</v>
       </c>
       <c r="F9">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A9,SL_Sonuclari!A:A),"")</f>
@@ -59705,11 +60969,11 @@
       </c>
       <c r="B10">
         <f>COUNTIF(SL_Sonuclari!C:H,A10)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" si="0"/>
-        <v>180.54433760683762</v>
+        <v>183.64209401709402</v>
       </c>
       <c r="D10" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A10,SL_Sonuclari!A:A),"")</f>
@@ -59721,7 +60985,7 @@
       </c>
       <c r="F10">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A10,SL_Sonuclari!A:A),"")</f>
-        <v>203.91666666666666</v>
+        <v>216.30769230769232</v>
       </c>
       <c r="G10">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A10,SL_Sonuclari!A:A),"")</f>
@@ -59738,11 +61002,11 @@
       </c>
       <c r="B11">
         <f>COUNTIF(SL_Sonuclari!C:H,A11)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="0"/>
-        <v>136.88095238095238</v>
+        <v>140.4032738095238</v>
       </c>
       <c r="D11">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A11,SL_Sonuclari!A:A),"")</f>
@@ -59754,7 +61018,7 @@
       </c>
       <c r="F11">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A11,SL_Sonuclari!A:A),"")</f>
-        <v>256.28571428571428</v>
+        <v>270.375</v>
       </c>
       <c r="G11">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A11,SL_Sonuclari!A:A),"")</f>
@@ -59771,11 +61035,11 @@
       </c>
       <c r="B12">
         <f>COUNTIF(SL_Sonuclari!C:H,A12)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="0"/>
-        <v>128.35</v>
+        <v>141.00624999999999</v>
       </c>
       <c r="D12">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A12,SL_Sonuclari!A:A),"")</f>
@@ -59783,7 +61047,7 @@
       </c>
       <c r="E12">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A12,SL_Sonuclari!A:A),"")</f>
-        <v>168</v>
+        <v>218.625</v>
       </c>
       <c r="F12">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A12,SL_Sonuclari!A:A),"")</f>
@@ -59804,19 +61068,19 @@
       </c>
       <c r="B13">
         <f>COUNTIF(SL_Sonuclari!C:H,A13)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="0"/>
-        <v>136.89912280701753</v>
+        <v>147.00714285714287</v>
       </c>
       <c r="D13">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A13,SL_Sonuclari!A:A),"")</f>
-        <v>211.26315789473685</v>
+        <v>219.1</v>
       </c>
       <c r="E13">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A13,SL_Sonuclari!A:A),"")</f>
-        <v>147.83333333333334</v>
+        <v>180.42857142857142</v>
       </c>
       <c r="F13">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A13,SL_Sonuclari!A:A),"")</f>
@@ -59837,11 +61101,11 @@
       </c>
       <c r="B14">
         <f>COUNTIF(SL_Sonuclari!C:H,A14)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="0"/>
-        <v>155.0310924369748</v>
+        <v>159.39775910364148</v>
       </c>
       <c r="D14">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A14,SL_Sonuclari!A:A),"")</f>
@@ -59853,7 +61117,7 @@
       </c>
       <c r="F14">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A14,SL_Sonuclari!A:A),"")</f>
-        <v>170.5</v>
+        <v>192.33333333333334</v>
       </c>
       <c r="G14">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A14,SL_Sonuclari!A:A),"")</f>
@@ -59870,11 +61134,11 @@
       </c>
       <c r="B15">
         <f>COUNTIF(SL_Sonuclari!C:H,A15)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="0"/>
-        <v>150.01388888888889</v>
+        <v>156.51888888888888</v>
       </c>
       <c r="D15">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A15,SL_Sonuclari!A:A),"")</f>
@@ -59882,7 +61146,7 @@
       </c>
       <c r="E15">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A15,SL_Sonuclari!A:A),"")</f>
-        <v>200.875</v>
+        <v>233.4</v>
       </c>
       <c r="F15">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A15,SL_Sonuclari!A:A),"")</f>
@@ -59936,11 +61200,11 @@
       </c>
       <c r="B17">
         <f>COUNTIF(SL_Sonuclari!C:H,A17)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="0"/>
-        <v>196.95757575757577</v>
+        <v>200.2960372960373</v>
       </c>
       <c r="D17">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A17,SL_Sonuclari!A:A),"")</f>
@@ -59948,7 +61212,7 @@
       </c>
       <c r="E17">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A17,SL_Sonuclari!A:A),"")</f>
-        <v>160</v>
+        <v>176.69230769230768</v>
       </c>
       <c r="F17">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A17,SL_Sonuclari!A:A),"")</f>
@@ -60002,7 +61266,7 @@
       </c>
       <c r="B19">
         <f>COUNTIF(SL_Sonuclari!C:H,A19)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
@@ -60035,23 +61299,23 @@
       </c>
       <c r="B20">
         <f>COUNTIF(SL_Sonuclari!C:H,A20)</f>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
-        <v>160.8125</v>
+        <v>183.17361111111111</v>
       </c>
       <c r="D20">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A20,SL_Sonuclari!A:A),"")</f>
-        <v>154.25</v>
+        <v>178.44444444444446</v>
       </c>
       <c r="E20">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A20,SL_Sonuclari!A:A),"")</f>
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="F20">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A20,SL_Sonuclari!A:A),"")</f>
-        <v>166.5</v>
+        <v>200.75</v>
       </c>
       <c r="G20">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A20,SL_Sonuclari!A:A),"")</f>
@@ -60068,15 +61332,15 @@
       </c>
       <c r="B21">
         <f>COUNTIF(SL_Sonuclari!C:H,A21)</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="0"/>
-        <v>176.3125</v>
+        <v>197.61250000000001</v>
       </c>
       <c r="D21">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A21,SL_Sonuclari!A:A),"")</f>
-        <v>155</v>
+        <v>198.1</v>
       </c>
       <c r="E21">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A21,SL_Sonuclari!A:A),"")</f>
@@ -60084,7 +61348,7 @@
       </c>
       <c r="F21">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A21,SL_Sonuclari!A:A),"")</f>
-        <v>122.4</v>
+        <v>164.5</v>
       </c>
       <c r="G21">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A21,SL_Sonuclari!A:A),"")</f>
@@ -60101,11 +61365,11 @@
       </c>
       <c r="B22">
         <f>COUNTIF(SL_Sonuclari!C:H,A22)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
-        <v>145.4375</v>
+        <v>206.9375</v>
       </c>
       <c r="D22" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A22,SL_Sonuclari!A:A),"")</f>
@@ -60121,7 +61385,7 @@
       </c>
       <c r="G22">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A22,SL_Sonuclari!A:A),"")</f>
-        <v>117</v>
+        <v>240</v>
       </c>
       <c r="H22">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A22,SL_Sonuclari!A:A),"")</f>
@@ -60134,11 +61398,11 @@
       </c>
       <c r="B23">
         <f>COUNTIF(SL_Sonuclari!C:H,A23)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
-        <v>168.28571428571428</v>
+        <v>181.36160714285714</v>
       </c>
       <c r="D23" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A23,SL_Sonuclari!A:A),"")</f>
@@ -60150,7 +61414,7 @@
       </c>
       <c r="F23">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A23,SL_Sonuclari!A:A),"")</f>
-        <v>154.14285714285714</v>
+        <v>180.375</v>
       </c>
       <c r="G23">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A23,SL_Sonuclari!A:A),"")</f>
@@ -60158,7 +61422,7 @@
       </c>
       <c r="H23">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A23,SL_Sonuclari!A:A),"")</f>
-        <v>161.42857142857142</v>
+        <v>187.5</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -60167,11 +61431,11 @@
       </c>
       <c r="B24">
         <f>COUNTIF(SL_Sonuclari!C:H,A24)</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C24" s="5">
         <f t="shared" si="0"/>
-        <v>168.51923076923077</v>
+        <v>172.91666666666666</v>
       </c>
       <c r="D24" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A24,SL_Sonuclari!A:A),"")</f>
@@ -60187,7 +61451,7 @@
       </c>
       <c r="G24">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A24,SL_Sonuclari!A:A),"")</f>
-        <v>192.30769230769232</v>
+        <v>205.5</v>
       </c>
       <c r="H24">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A24,SL_Sonuclari!A:A),"")</f>
@@ -60200,11 +61464,11 @@
       </c>
       <c r="B25">
         <f>COUNTIF(SL_Sonuclari!C:H,A25)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C25" s="5">
         <f t="shared" si="0"/>
-        <v>155.85416666666666</v>
+        <v>164.47916666666666</v>
       </c>
       <c r="D25" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A25,SL_Sonuclari!A:A),"")</f>
@@ -60224,7 +61488,7 @@
       </c>
       <c r="H25">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A25,SL_Sonuclari!A:A),"")</f>
-        <v>134.5</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -60299,11 +61563,11 @@
       </c>
       <c r="B28">
         <f>COUNTIF(SL_Sonuclari!C:H,A28)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28" s="5">
         <f t="shared" si="0"/>
-        <v>182.0736842105263</v>
+        <v>192.79590643274855</v>
       </c>
       <c r="D28">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A28,SL_Sonuclari!A:A),"")</f>
@@ -60315,7 +61579,7 @@
       </c>
       <c r="F28">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A28,SL_Sonuclari!A:A),"")</f>
-        <v>181</v>
+        <v>213.16666666666666</v>
       </c>
       <c r="G28" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A28,SL_Sonuclari!A:A),"")</f>
@@ -60332,11 +61596,11 @@
       </c>
       <c r="B29">
         <f>COUNTIF(SL_Sonuclari!C:H,A29)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C29" s="5">
         <f t="shared" si="0"/>
-        <v>174.28571428571428</v>
+        <v>182.41964285714286</v>
       </c>
       <c r="D29" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A29,SL_Sonuclari!A:A),"")</f>
@@ -60348,7 +61612,7 @@
       </c>
       <c r="F29">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A29,SL_Sonuclari!A:A),"")</f>
-        <v>111.71428571428571</v>
+        <v>144.25</v>
       </c>
       <c r="G29">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A29,SL_Sonuclari!A:A),"")</f>
@@ -60365,11 +61629,11 @@
       </c>
       <c r="B30">
         <f>COUNTIF(SL_Sonuclari!C:H,A30)</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C30" s="5">
         <f t="shared" si="0"/>
-        <v>158.95833333333331</v>
+        <v>168.30666666666667</v>
       </c>
       <c r="D30">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A30,SL_Sonuclari!A:A),"")</f>
@@ -60381,11 +61645,11 @@
       </c>
       <c r="F30">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A30,SL_Sonuclari!A:A),"")</f>
-        <v>160.33333333333334</v>
+        <v>181.1</v>
       </c>
       <c r="G30">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A30,SL_Sonuclari!A:A),"")</f>
-        <v>245.125</v>
+        <v>271.10000000000002</v>
       </c>
       <c r="H30">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A30,SL_Sonuclari!A:A),"")</f>
@@ -60398,11 +61662,11 @@
       </c>
       <c r="B31">
         <f>COUNTIF(SL_Sonuclari!C:H,A31)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C31" s="5">
         <f t="shared" si="0"/>
-        <v>163.83722222222224</v>
+        <v>171.31777777777779</v>
       </c>
       <c r="D31">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A31,SL_Sonuclari!A:A),"")</f>
@@ -60414,11 +61678,11 @@
       </c>
       <c r="F31">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A31,SL_Sonuclari!A:A),"")</f>
-        <v>196.66666666666666</v>
+        <v>214</v>
       </c>
       <c r="G31">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A31,SL_Sonuclari!A:A),"")</f>
-        <v>192.375</v>
+        <v>212.44444444444446</v>
       </c>
       <c r="H31">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A31,SL_Sonuclari!A:A),"")</f>
@@ -60431,11 +61695,11 @@
       </c>
       <c r="B32">
         <f>COUNTIF(SL_Sonuclari!C:H,A32)</f>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C32" s="5">
         <f t="shared" si="0"/>
-        <v>182.14973262032086</v>
+        <v>204.1</v>
       </c>
       <c r="D32" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A32,SL_Sonuclari!A:A),"")</f>
@@ -60451,11 +61715,11 @@
       </c>
       <c r="G32">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A32,SL_Sonuclari!A:A),"")</f>
-        <v>170.18181818181819</v>
+        <v>187.25</v>
       </c>
       <c r="H32">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A32,SL_Sonuclari!A:A),"")</f>
-        <v>194.11764705882354</v>
+        <v>220.95</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -60497,11 +61761,11 @@
       </c>
       <c r="B34">
         <f>COUNTIF(SL_Sonuclari!C:H,A34)</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C34" s="5">
         <f t="shared" ref="C34:C61" si="1">AVERAGE(D34:H34)</f>
-        <v>195.49624060150376</v>
+        <v>210.35</v>
       </c>
       <c r="D34" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A34,SL_Sonuclari!A:A),"")</f>
@@ -60517,11 +61781,11 @@
       </c>
       <c r="G34">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A34,SL_Sonuclari!A:A),"")</f>
-        <v>198.57142857142858</v>
+        <v>219.5</v>
       </c>
       <c r="H34">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A34,SL_Sonuclari!A:A),"")</f>
-        <v>192.42105263157896</v>
+        <v>201.2</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -60563,11 +61827,11 @@
       </c>
       <c r="B36">
         <f>COUNTIF(SL_Sonuclari!C:H,A36)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C36" s="5">
         <f t="shared" si="1"/>
-        <v>167.21212121212122</v>
+        <v>172.19444444444446</v>
       </c>
       <c r="D36" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A36,SL_Sonuclari!A:A),"")</f>
@@ -60587,7 +61851,7 @@
       </c>
       <c r="H36">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A36,SL_Sonuclari!A:A),"")</f>
-        <v>184.63636363636363</v>
+        <v>199.58333333333334</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -60695,11 +61959,11 @@
       </c>
       <c r="B40">
         <f>COUNTIF(SL_Sonuclari!C:H,A40)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C40" s="5">
         <f t="shared" si="1"/>
-        <v>193.80208333333331</v>
+        <v>196.57291666666666</v>
       </c>
       <c r="D40" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A40,SL_Sonuclari!A:A),"")</f>
@@ -60711,7 +61975,7 @@
       </c>
       <c r="F40">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A40,SL_Sonuclari!A:A),"")</f>
-        <v>185.66666666666666</v>
+        <v>196.75</v>
       </c>
       <c r="G40">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A40,SL_Sonuclari!A:A),"")</f>
@@ -60728,11 +61992,11 @@
       </c>
       <c r="B41">
         <f>COUNTIF(SL_Sonuclari!C:H,A41)</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C41" s="5">
         <f t="shared" si="1"/>
-        <v>170.83225108225108</v>
+        <v>184.82676862611075</v>
       </c>
       <c r="D41" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A41,SL_Sonuclari!A:A),"")</f>
@@ -60740,7 +62004,7 @@
       </c>
       <c r="E41">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A41,SL_Sonuclari!A:A),"")</f>
-        <v>183.66666666666666</v>
+        <v>230.75</v>
       </c>
       <c r="F41">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A41,SL_Sonuclari!A:A),"")</f>
@@ -60748,7 +62012,7 @@
       </c>
       <c r="G41">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A41,SL_Sonuclari!A:A),"")</f>
-        <v>195</v>
+        <v>203.89473684210526</v>
       </c>
       <c r="H41">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A41,SL_Sonuclari!A:A),"")</f>
@@ -60761,7 +62025,7 @@
       </c>
       <c r="B42">
         <f>COUNTIF(SL_Sonuclari!C:H,A42)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C42" s="5">
         <f t="shared" si="1"/>
@@ -60794,11 +62058,11 @@
       </c>
       <c r="B43">
         <f>COUNTIF(SL_Sonuclari!C:H,A43)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C43" s="5">
         <f t="shared" si="1"/>
-        <v>187.20138888888889</v>
+        <v>194.74074074074073</v>
       </c>
       <c r="D43" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A43,SL_Sonuclari!A:A),"")</f>
@@ -60818,7 +62082,7 @@
       </c>
       <c r="H43">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A43,SL_Sonuclari!A:A),"")</f>
-        <v>162.4375</v>
+        <v>185.05555555555554</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -60827,19 +62091,19 @@
       </c>
       <c r="B44">
         <f>COUNTIF(SL_Sonuclari!C:H,A44)</f>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C44" s="5">
         <f t="shared" si="1"/>
-        <v>183.1764705882353</v>
+        <v>216.14999999999998</v>
       </c>
       <c r="D44">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A44,SL_Sonuclari!A:A),"")</f>
-        <v>193.35294117647058</v>
+        <v>220.1</v>
       </c>
       <c r="E44">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A44,SL_Sonuclari!A:A),"")</f>
-        <v>173</v>
+        <v>212.2</v>
       </c>
       <c r="F44" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A44,SL_Sonuclari!A:A),"")</f>
@@ -60860,11 +62124,11 @@
       </c>
       <c r="B45">
         <f>COUNTIF(SL_Sonuclari!C:H,A45)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C45" s="5">
         <f t="shared" si="1"/>
-        <v>190.4251633986928</v>
+        <v>193.52828839869281</v>
       </c>
       <c r="D45" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A45,SL_Sonuclari!A:A),"")</f>
@@ -60880,7 +62144,7 @@
       </c>
       <c r="G45">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A45,SL_Sonuclari!A:A),"")</f>
-        <v>169.4</v>
+        <v>181.8125</v>
       </c>
       <c r="H45">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A45,SL_Sonuclari!A:A),"")</f>
@@ -60893,11 +62157,11 @@
       </c>
       <c r="B46">
         <f>COUNTIF(SL_Sonuclari!C:H,A46)</f>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C46" s="5">
         <f t="shared" si="1"/>
-        <v>195.14761904761906</v>
+        <v>201.59567099567101</v>
       </c>
       <c r="D46">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A46,SL_Sonuclari!A:A),"")</f>
@@ -60905,11 +62169,11 @@
       </c>
       <c r="E46">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A46,SL_Sonuclari!A:A),"")</f>
-        <v>168.5</v>
+        <v>186.45454545454547</v>
       </c>
       <c r="F46">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A46,SL_Sonuclari!A:A),"")</f>
-        <v>204.71428571428572</v>
+        <v>219</v>
       </c>
       <c r="G46">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A46,SL_Sonuclari!A:A),"")</f>
@@ -60926,11 +62190,11 @@
       </c>
       <c r="B47">
         <f>COUNTIF(SL_Sonuclari!C:H,A47)</f>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C47" s="5">
         <f t="shared" si="1"/>
-        <v>185.70734126984127</v>
+        <v>205.70874183006532</v>
       </c>
       <c r="D47">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A47,SL_Sonuclari!A:A),"")</f>
@@ -60938,7 +62202,7 @@
       </c>
       <c r="E47">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A47,SL_Sonuclari!A:A),"")</f>
-        <v>184.35714285714286</v>
+        <v>217.52941176470588</v>
       </c>
       <c r="F47">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A47,SL_Sonuclari!A:A),"")</f>
@@ -60946,7 +62210,7 @@
       </c>
       <c r="G47">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A47,SL_Sonuclari!A:A),"")</f>
-        <v>228.5</v>
+        <v>275.33333333333331</v>
       </c>
       <c r="H47" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A47,SL_Sonuclari!A:A),"")</f>
@@ -60959,15 +62223,15 @@
       </c>
       <c r="B48">
         <f>COUNTIF(SL_Sonuclari!C:H,A48)</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C48" s="5">
         <f t="shared" si="1"/>
-        <v>196.76040404040404</v>
+        <v>200.63299663299662</v>
       </c>
       <c r="D48">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A48,SL_Sonuclari!A:A),"")</f>
-        <v>206.16</v>
+        <v>217.77777777777777</v>
       </c>
       <c r="E48">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A48,SL_Sonuclari!A:A),"")</f>
@@ -60992,11 +62256,11 @@
       </c>
       <c r="B49">
         <f>COUNTIF(SL_Sonuclari!C:H,A49)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C49" s="5">
         <f t="shared" si="1"/>
-        <v>184.13831168831172</v>
+        <v>189.43809523809526</v>
       </c>
       <c r="D49">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A49,SL_Sonuclari!A:A),"")</f>
@@ -61008,11 +62272,11 @@
       </c>
       <c r="F49">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A49,SL_Sonuclari!A:A),"")</f>
-        <v>197.72727272727272</v>
+        <v>212.58333333333334</v>
       </c>
       <c r="G49">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A49,SL_Sonuclari!A:A),"")</f>
-        <v>196.35714285714286</v>
+        <v>208</v>
       </c>
       <c r="H49">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A49,SL_Sonuclari!A:A),"")</f>
@@ -61025,11 +62289,11 @@
       </c>
       <c r="B50">
         <f>COUNTIF(SL_Sonuclari!C:H,A50)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C50" s="5">
         <f t="shared" si="1"/>
-        <v>199.45800865800862</v>
+        <v>205.58181818181819</v>
       </c>
       <c r="D50">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A50,SL_Sonuclari!A:A),"")</f>
@@ -61045,7 +62309,7 @@
       </c>
       <c r="G50">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A50,SL_Sonuclari!A:A),"")</f>
-        <v>155.66666666666666</v>
+        <v>186.28571428571428</v>
       </c>
       <c r="H50">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A50,SL_Sonuclari!A:A),"")</f>
@@ -61091,11 +62355,11 @@
       </c>
       <c r="B52">
         <f>COUNTIF(SL_Sonuclari!C:H,A52)</f>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C52" s="5">
         <f t="shared" si="1"/>
-        <v>193.07499999999999</v>
+        <v>202.95</v>
       </c>
       <c r="D52" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A52,SL_Sonuclari!A:A),"")</f>
@@ -61107,7 +62371,7 @@
       </c>
       <c r="F52">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A52,SL_Sonuclari!A:A),"")</f>
-        <v>168.5</v>
+        <v>208</v>
       </c>
       <c r="G52">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A52,SL_Sonuclari!A:A),"")</f>
@@ -61124,11 +62388,11 @@
       </c>
       <c r="B53">
         <f>COUNTIF(SL_Sonuclari!C:H,A53)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C53" s="5">
         <f t="shared" si="1"/>
-        <v>223.81860119047619</v>
+        <v>229.6436011904762</v>
       </c>
       <c r="D53">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A53,SL_Sonuclari!A:A),"")</f>
@@ -61140,7 +62404,7 @@
       </c>
       <c r="F53">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A53,SL_Sonuclari!A:A),"")</f>
-        <v>237.2</v>
+        <v>260.5</v>
       </c>
       <c r="G53">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A53,SL_Sonuclari!A:A),"")</f>
@@ -61190,11 +62454,11 @@
       </c>
       <c r="B55">
         <f>COUNTIF(SL_Sonuclari!C:H,A55)</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C55" s="5">
         <f t="shared" si="1"/>
-        <v>193.46666666666667</v>
+        <v>206.9482456140351</v>
       </c>
       <c r="D55">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A55,SL_Sonuclari!A:A),"")</f>
@@ -61210,11 +62474,11 @@
       </c>
       <c r="G55">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A55,SL_Sonuclari!A:A),"")</f>
-        <v>173.5</v>
+        <v>204.15789473684211</v>
       </c>
       <c r="H55">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A55,SL_Sonuclari!A:A),"")</f>
-        <v>226</v>
+        <v>262.75</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -61223,11 +62487,11 @@
       </c>
       <c r="B56">
         <f>COUNTIF(SL_Sonuclari!C:H,A56)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C56" s="5">
         <f t="shared" si="1"/>
-        <v>219.97676767676768</v>
+        <v>224.97676767676768</v>
       </c>
       <c r="D56">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A56,SL_Sonuclari!A:A),"")</f>
@@ -61243,7 +62507,7 @@
       </c>
       <c r="G56">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A56,SL_Sonuclari!A:A),"")</f>
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="H56" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A56,SL_Sonuclari!A:A),"")</f>
@@ -61293,11 +62557,11 @@
       </c>
       <c r="B58">
         <f>COUNTIF(SL_Sonuclari!C:H,A58)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C58" s="5">
         <f t="shared" si="1"/>
-        <v>225.375</v>
+        <v>230.73611111111111</v>
       </c>
       <c r="D58" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A58,SL_Sonuclari!A:A),"")</f>
@@ -61317,7 +62581,7 @@
       </c>
       <c r="H58">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A58,SL_Sonuclari!A:A),"")</f>
-        <v>173</v>
+        <v>183.72222222222223</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -61359,11 +62623,11 @@
       </c>
       <c r="B60">
         <f>COUNTIF(SL_Sonuclari!C:H,A60)</f>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C60" s="5">
         <f t="shared" si="1"/>
-        <v>208.10185185185185</v>
+        <v>215.54999999999998</v>
       </c>
       <c r="D60" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A60,SL_Sonuclari!A:A),"")</f>
@@ -61383,7 +62647,7 @@
       </c>
       <c r="H60">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A60,SL_Sonuclari!A:A),"")</f>
-        <v>147.55555555555554</v>
+        <v>169.9</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -61392,7 +62656,7 @@
       </c>
       <c r="B61">
         <f>COUNTIF(SL_Sonuclari!C:H,A61)</f>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C61" s="5" t="e">
         <f t="shared" si="1"/>

--- a/SLIStatistik.xlsx
+++ b/SLIStatistik.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\ReadExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9697B900-BFC1-4E6C-B60A-4ED2315852FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FE5A76-8B51-43BA-8923-2BD2D997780E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="1365" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
+    <workbookView xWindow="6120" yWindow="2970" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
   </bookViews>
   <sheets>
     <sheet name="CSL_Sonuclari" sheetId="2" r:id="rId1"/>
@@ -604,7 +604,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -612,13 +612,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21120D27-1448-4179-993C-6B3BE739480A}">
-  <dimension ref="A1:L379"/>
+  <dimension ref="A1:L387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B357" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B372" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C380" sqref="C380"/>
+      <selection pane="bottomRight" activeCell="A388" sqref="A388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12167,6 +12167,262 @@
         <v>62</v>
       </c>
     </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A380" s="2">
+        <v>378</v>
+      </c>
+      <c r="B380" s="1">
+        <v>44933</v>
+      </c>
+      <c r="C380" s="2">
+        <v>21</v>
+      </c>
+      <c r="D380" s="2">
+        <v>45</v>
+      </c>
+      <c r="E380" s="2">
+        <v>51</v>
+      </c>
+      <c r="F380" s="2">
+        <v>58</v>
+      </c>
+      <c r="G380" s="2">
+        <v>63</v>
+      </c>
+      <c r="H380" s="2">
+        <v>87</v>
+      </c>
+      <c r="I380" s="2">
+        <v>15</v>
+      </c>
+      <c r="J380" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A381" s="2">
+        <v>379</v>
+      </c>
+      <c r="B381" s="1">
+        <v>44935</v>
+      </c>
+      <c r="C381" s="2">
+        <v>4</v>
+      </c>
+      <c r="D381" s="2">
+        <v>21</v>
+      </c>
+      <c r="E381" s="2">
+        <v>23</v>
+      </c>
+      <c r="F381" s="2">
+        <v>33</v>
+      </c>
+      <c r="G381" s="2">
+        <v>35</v>
+      </c>
+      <c r="H381" s="2">
+        <v>48</v>
+      </c>
+      <c r="I381" s="2">
+        <v>12</v>
+      </c>
+      <c r="J381" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A382" s="2">
+        <v>380</v>
+      </c>
+      <c r="B382" s="1">
+        <v>44937</v>
+      </c>
+      <c r="C382" s="2">
+        <v>1</v>
+      </c>
+      <c r="D382" s="2">
+        <v>22</v>
+      </c>
+      <c r="E382" s="2">
+        <v>32</v>
+      </c>
+      <c r="F382" s="2">
+        <v>50</v>
+      </c>
+      <c r="G382" s="2">
+        <v>74</v>
+      </c>
+      <c r="H382" s="2">
+        <v>81</v>
+      </c>
+      <c r="I382" s="2">
+        <v>33</v>
+      </c>
+      <c r="J382" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A383" s="2">
+        <v>381</v>
+      </c>
+      <c r="B383" s="1">
+        <v>44940</v>
+      </c>
+      <c r="C383" s="2">
+        <v>8</v>
+      </c>
+      <c r="D383" s="2">
+        <v>34</v>
+      </c>
+      <c r="E383" s="2">
+        <v>56</v>
+      </c>
+      <c r="F383" s="2">
+        <v>77</v>
+      </c>
+      <c r="G383" s="2">
+        <v>85</v>
+      </c>
+      <c r="H383" s="2">
+        <v>89</v>
+      </c>
+      <c r="I383" s="2">
+        <v>6</v>
+      </c>
+      <c r="J383" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A384" s="2">
+        <v>382</v>
+      </c>
+      <c r="B384" s="1">
+        <v>44942</v>
+      </c>
+      <c r="C384" s="2">
+        <v>2</v>
+      </c>
+      <c r="D384" s="2">
+        <v>23</v>
+      </c>
+      <c r="E384" s="2">
+        <v>34</v>
+      </c>
+      <c r="F384" s="2">
+        <v>41</v>
+      </c>
+      <c r="G384" s="2">
+        <v>57</v>
+      </c>
+      <c r="H384" s="2">
+        <v>70</v>
+      </c>
+      <c r="I384" s="2">
+        <v>49</v>
+      </c>
+      <c r="J384" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A385" s="2">
+        <v>383</v>
+      </c>
+      <c r="B385" s="1">
+        <v>44944</v>
+      </c>
+      <c r="C385" s="2">
+        <v>10</v>
+      </c>
+      <c r="D385" s="2">
+        <v>22</v>
+      </c>
+      <c r="E385" s="2">
+        <v>35</v>
+      </c>
+      <c r="F385" s="2">
+        <v>44</v>
+      </c>
+      <c r="G385" s="2">
+        <v>52</v>
+      </c>
+      <c r="H385" s="2">
+        <v>85</v>
+      </c>
+      <c r="I385" s="2">
+        <v>81</v>
+      </c>
+      <c r="J385" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A386" s="2">
+        <v>384</v>
+      </c>
+      <c r="B386" s="1">
+        <v>44947</v>
+      </c>
+      <c r="C386" s="2">
+        <v>39</v>
+      </c>
+      <c r="D386" s="2">
+        <v>49</v>
+      </c>
+      <c r="E386" s="2">
+        <v>62</v>
+      </c>
+      <c r="F386" s="2">
+        <v>81</v>
+      </c>
+      <c r="G386" s="2">
+        <v>87</v>
+      </c>
+      <c r="H386" s="2">
+        <v>88</v>
+      </c>
+      <c r="I386" s="2">
+        <v>14</v>
+      </c>
+      <c r="J386" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A387" s="2">
+        <v>385</v>
+      </c>
+      <c r="B387" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C387" s="2">
+        <v>4</v>
+      </c>
+      <c r="D387" s="2">
+        <v>17</v>
+      </c>
+      <c r="E387" s="2">
+        <v>30</v>
+      </c>
+      <c r="F387" s="2">
+        <v>65</v>
+      </c>
+      <c r="G387" s="2">
+        <v>69</v>
+      </c>
+      <c r="H387" s="2">
+        <v>78</v>
+      </c>
+      <c r="I387" s="2">
+        <v>33</v>
+      </c>
+      <c r="J387" s="2">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J311">
     <sortCondition ref="B2:B311"/>
@@ -12178,10 +12434,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8BCBFC-83B0-4863-9D9A-FF955DDDA58C}">
-  <dimension ref="A1:H379"/>
+  <dimension ref="A1:H387"/>
   <sheetViews>
-    <sheetView topLeftCell="A348" workbookViewId="0">
-      <selection activeCell="A380" sqref="A380"/>
+    <sheetView topLeftCell="A367" workbookViewId="0">
+      <selection activeCell="B388" sqref="B388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22043,6 +22299,214 @@
         <v>53</v>
       </c>
     </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>378</v>
+      </c>
+      <c r="B380" s="1">
+        <v>44934</v>
+      </c>
+      <c r="C380">
+        <v>8</v>
+      </c>
+      <c r="D380">
+        <v>10</v>
+      </c>
+      <c r="E380">
+        <v>21</v>
+      </c>
+      <c r="F380">
+        <v>44</v>
+      </c>
+      <c r="G380">
+        <v>51</v>
+      </c>
+      <c r="H380">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>379</v>
+      </c>
+      <c r="B381" s="1">
+        <v>44936</v>
+      </c>
+      <c r="C381">
+        <v>15</v>
+      </c>
+      <c r="D381">
+        <v>24</v>
+      </c>
+      <c r="E381">
+        <v>29</v>
+      </c>
+      <c r="F381">
+        <v>30</v>
+      </c>
+      <c r="G381">
+        <v>44</v>
+      </c>
+      <c r="H381">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>380</v>
+      </c>
+      <c r="B382" s="1">
+        <v>44938</v>
+      </c>
+      <c r="C382">
+        <v>13</v>
+      </c>
+      <c r="D382">
+        <v>15</v>
+      </c>
+      <c r="E382">
+        <v>21</v>
+      </c>
+      <c r="F382">
+        <v>24</v>
+      </c>
+      <c r="G382">
+        <v>32</v>
+      </c>
+      <c r="H382">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>381</v>
+      </c>
+      <c r="B383" s="1">
+        <v>44941</v>
+      </c>
+      <c r="C383">
+        <v>2</v>
+      </c>
+      <c r="D383">
+        <v>12</v>
+      </c>
+      <c r="E383">
+        <v>18</v>
+      </c>
+      <c r="F383">
+        <v>24</v>
+      </c>
+      <c r="G383">
+        <v>43</v>
+      </c>
+      <c r="H383">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>382</v>
+      </c>
+      <c r="B384" s="1">
+        <v>44943</v>
+      </c>
+      <c r="C384">
+        <v>4</v>
+      </c>
+      <c r="D384">
+        <v>25</v>
+      </c>
+      <c r="E384">
+        <v>33</v>
+      </c>
+      <c r="F384">
+        <v>37</v>
+      </c>
+      <c r="G384">
+        <v>41</v>
+      </c>
+      <c r="H384">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>383</v>
+      </c>
+      <c r="B385" s="1">
+        <v>44945</v>
+      </c>
+      <c r="C385">
+        <v>2</v>
+      </c>
+      <c r="D385">
+        <v>27</v>
+      </c>
+      <c r="E385">
+        <v>30</v>
+      </c>
+      <c r="F385">
+        <v>43</v>
+      </c>
+      <c r="G385">
+        <v>46</v>
+      </c>
+      <c r="H385">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>384</v>
+      </c>
+      <c r="B386" s="1">
+        <v>44948</v>
+      </c>
+      <c r="C386">
+        <v>7</v>
+      </c>
+      <c r="D386">
+        <v>8</v>
+      </c>
+      <c r="E386">
+        <v>9</v>
+      </c>
+      <c r="F386">
+        <v>30</v>
+      </c>
+      <c r="G386">
+        <v>31</v>
+      </c>
+      <c r="H386">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>385</v>
+      </c>
+      <c r="B387" s="1">
+        <v>44950</v>
+      </c>
+      <c r="C387">
+        <v>1</v>
+      </c>
+      <c r="D387">
+        <v>6</v>
+      </c>
+      <c r="E387">
+        <v>16</v>
+      </c>
+      <c r="F387">
+        <v>35</v>
+      </c>
+      <c r="G387">
+        <v>56</v>
+      </c>
+      <c r="H387">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H311">
     <sortCondition ref="B2:B311"/>
@@ -22053,10 +22517,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4513EEF-0F11-4AC5-A4C7-CB00A18EA83B}">
-  <dimension ref="A1:H1242"/>
+  <dimension ref="A1:H1247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1218" workbookViewId="0">
-      <selection activeCell="C1243" sqref="C1243"/>
+    <sheetView tabSelected="1" topLeftCell="A1225" workbookViewId="0">
+      <selection activeCell="A1248" sqref="A1248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54354,6 +54818,136 @@
       </c>
       <c r="H1242">
         <v>7</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1243">
+        <v>1242</v>
+      </c>
+      <c r="B1243" s="1">
+        <v>44934</v>
+      </c>
+      <c r="C1243">
+        <v>19</v>
+      </c>
+      <c r="D1243">
+        <v>21</v>
+      </c>
+      <c r="E1243">
+        <v>22</v>
+      </c>
+      <c r="F1243">
+        <v>31</v>
+      </c>
+      <c r="G1243">
+        <v>34</v>
+      </c>
+      <c r="H1243">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1244">
+        <v>1243</v>
+      </c>
+      <c r="B1244" s="1">
+        <v>44937</v>
+      </c>
+      <c r="C1244">
+        <v>4</v>
+      </c>
+      <c r="D1244">
+        <v>12</v>
+      </c>
+      <c r="E1244">
+        <v>28</v>
+      </c>
+      <c r="F1244">
+        <v>30</v>
+      </c>
+      <c r="G1244">
+        <v>31</v>
+      </c>
+      <c r="H1244">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1245">
+        <v>1244</v>
+      </c>
+      <c r="B1245" s="1">
+        <v>44941</v>
+      </c>
+      <c r="C1245">
+        <v>13</v>
+      </c>
+      <c r="D1245">
+        <v>18</v>
+      </c>
+      <c r="E1245">
+        <v>25</v>
+      </c>
+      <c r="F1245">
+        <v>30</v>
+      </c>
+      <c r="G1245">
+        <v>31</v>
+      </c>
+      <c r="H1245">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1246">
+        <v>1245</v>
+      </c>
+      <c r="B1246" s="1">
+        <v>44944</v>
+      </c>
+      <c r="C1246">
+        <v>6</v>
+      </c>
+      <c r="D1246">
+        <v>13</v>
+      </c>
+      <c r="E1246">
+        <v>16</v>
+      </c>
+      <c r="F1246">
+        <v>22</v>
+      </c>
+      <c r="G1246">
+        <v>32</v>
+      </c>
+      <c r="H1246">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1247">
+        <v>1246</v>
+      </c>
+      <c r="B1247" s="1">
+        <v>44948</v>
+      </c>
+      <c r="C1247">
+        <v>4</v>
+      </c>
+      <c r="D1247">
+        <v>16</v>
+      </c>
+      <c r="E1247">
+        <v>23</v>
+      </c>
+      <c r="F1247">
+        <v>29</v>
+      </c>
+      <c r="G1247">
+        <v>32</v>
+      </c>
+      <c r="H1247">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -54444,11 +55038,11 @@
       </c>
       <c r="B2">
         <f>COUNTIF(CSL_Sonuclari!C:J,A2)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="5">
         <f t="shared" ref="C2:C33" si="0">AVERAGE(J2:Q2)</f>
-        <v>1695.9761904761904</v>
+        <v>1863.3214285714287</v>
       </c>
       <c r="D2">
         <f>COUNTIF(CSL_Sonuclari!J:J,A2)</f>
@@ -54468,31 +55062,31 @@
       </c>
       <c r="H2">
         <f>COUNTIF(CSL_Sonuclari!C:H,A2)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="5">
         <f t="shared" ref="I2:I33" si="3">AVERAGE(J2:O2)</f>
-        <v>2292.1666666666665</v>
+        <v>2526.4499999999998</v>
       </c>
       <c r="J2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H2,"")</f>
-        <v>2357.333333333333</v>
+        <v>2496</v>
       </c>
       <c r="K2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H2,"")</f>
-        <v>2133.5</v>
+        <v>2259</v>
       </c>
       <c r="L2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H2,"")</f>
-        <v>2788</v>
+        <v>3449.25</v>
       </c>
       <c r="M2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H2,"")</f>
-        <v>3417</v>
+        <v>3618</v>
       </c>
       <c r="N2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H2,"")</f>
-        <v>765</v>
+        <v>810</v>
       </c>
       <c r="O2" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H2,"")</f>
@@ -54513,11 +55107,11 @@
       </c>
       <c r="B3">
         <f>COUNTIF(CSL_Sonuclari!C:J,A3)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="5">
         <f t="shared" si="0"/>
-        <v>2898.125</v>
+        <v>3126.5</v>
       </c>
       <c r="D3">
         <f>COUNTIF(CSL_Sonuclari!J:J,A3)</f>
@@ -54537,35 +55131,35 @@
       </c>
       <c r="H3">
         <f>COUNTIF(CSL_Sonuclari!C:H,A3)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" s="5">
         <f t="shared" si="3"/>
-        <v>3693.3333333333335</v>
+        <v>3997.8333333333335</v>
       </c>
       <c r="J3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H3,"")</f>
-        <v>5936</v>
+        <v>6307</v>
       </c>
       <c r="K3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H3,"")</f>
-        <v>2016</v>
+        <v>2142</v>
       </c>
       <c r="L3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H3,"")</f>
-        <v>4800</v>
+        <v>5542</v>
       </c>
       <c r="M3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H3,"")</f>
-        <v>2592</v>
+        <v>2754</v>
       </c>
       <c r="N3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H3,"")</f>
-        <v>2448</v>
+        <v>2601</v>
       </c>
       <c r="O3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H3,"")</f>
-        <v>4368</v>
+        <v>4641</v>
       </c>
       <c r="P3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F3,"")</f>
@@ -54582,11 +55176,11 @@
       </c>
       <c r="B4">
         <f>COUNTIF(CSL_Sonuclari!C:J,A4)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="5">
         <f t="shared" si="0"/>
-        <v>2037.6666666666667</v>
+        <v>2165</v>
       </c>
       <c r="D4">
         <f>COUNTIF(CSL_Sonuclari!J:J,A4)</f>
@@ -54606,15 +55200,15 @@
       </c>
       <c r="H4">
         <f>COUNTIF(CSL_Sonuclari!C:H,A4)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4" s="5">
         <f t="shared" si="3"/>
-        <v>4400</v>
+        <v>4782</v>
       </c>
       <c r="J4">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H4,"")</f>
-        <v>4400</v>
+        <v>4782</v>
       </c>
       <c r="K4" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H4,"")</f>
@@ -54651,11 +55245,11 @@
       </c>
       <c r="B5">
         <f>COUNTIF(CSL_Sonuclari!C:J,A5)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="5">
         <f t="shared" si="0"/>
-        <v>2197.9166666666665</v>
+        <v>2486.6990740740744</v>
       </c>
       <c r="D5">
         <f>COUNTIF(CSL_Sonuclari!J:J,A5)</f>
@@ -54675,11 +55269,11 @@
       </c>
       <c r="H5">
         <f>COUNTIF(CSL_Sonuclari!C:H,A5)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I5" s="5">
         <f t="shared" si="3"/>
-        <v>2838.125</v>
+        <v>3271.2986111111113</v>
       </c>
       <c r="J5" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H5,"")</f>
@@ -54691,19 +55285,19 @@
       </c>
       <c r="L5">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H5,"")</f>
-        <v>4428</v>
+        <v>4674</v>
       </c>
       <c r="M5">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H5,"")</f>
-        <v>2164.5</v>
+        <v>2284.75</v>
       </c>
       <c r="N5">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H5,"")</f>
-        <v>3104</v>
+        <v>3276.4444444444448</v>
       </c>
       <c r="O5">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H5,"")</f>
-        <v>1656</v>
+        <v>2850</v>
       </c>
       <c r="P5">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F5,"")</f>
@@ -54720,11 +55314,11 @@
       </c>
       <c r="B6">
         <f>COUNTIF(CSL_Sonuclari!C:J,A6)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="5">
         <f t="shared" si="0"/>
-        <v>2615.9</v>
+        <v>2839.8</v>
       </c>
       <c r="D6">
         <f>COUNTIF(CSL_Sonuclari!J:J,A6)</f>
@@ -54744,23 +55338,23 @@
       </c>
       <c r="H6">
         <f>COUNTIF(CSL_Sonuclari!C:H,A6)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" s="5">
         <f t="shared" si="3"/>
-        <v>2942.625</v>
+        <v>3222.5</v>
       </c>
       <c r="J6">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H6,"")</f>
-        <v>3020.5</v>
+        <v>3515</v>
       </c>
       <c r="K6">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H6,"")</f>
-        <v>3696</v>
+        <v>3960</v>
       </c>
       <c r="L6">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H6,"")</f>
-        <v>4984</v>
+        <v>5340</v>
       </c>
       <c r="M6" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H6,"")</f>
@@ -54772,7 +55366,7 @@
       </c>
       <c r="O6">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H6,"")</f>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="P6">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F6,"")</f>
@@ -54789,11 +55383,11 @@
       </c>
       <c r="B7">
         <f>COUNTIF(CSL_Sonuclari!C:J,A7)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7" s="5">
         <f t="shared" si="0"/>
-        <v>2620.6428571428569</v>
+        <v>2903.6785714285711</v>
       </c>
       <c r="D7">
         <f>COUNTIF(CSL_Sonuclari!J:J,A7)</f>
@@ -54813,27 +55407,27 @@
       </c>
       <c r="H7">
         <f>COUNTIF(CSL_Sonuclari!C:H,A7)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I7" s="5">
         <f t="shared" si="3"/>
-        <v>3573.2142857142853</v>
+        <v>3997.7678571428569</v>
       </c>
       <c r="J7">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H7,"")</f>
-        <v>5434.5714285714284</v>
+        <v>6362.5</v>
       </c>
       <c r="K7">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H7,"")</f>
-        <v>4580.2857142857138</v>
+        <v>4978.5714285714284</v>
       </c>
       <c r="L7">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H7,"")</f>
-        <v>4255</v>
+        <v>4625</v>
       </c>
       <c r="M7">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H7,"")</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N7" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H7,"")</f>
@@ -54927,11 +55521,11 @@
       </c>
       <c r="B9">
         <f>COUNTIF(CSL_Sonuclari!C:J,A9)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>2748.5416666666665</v>
+        <v>3050.0291666666667</v>
       </c>
       <c r="D9">
         <f>COUNTIF(CSL_Sonuclari!J:J,A9)</f>
@@ -54951,11 +55545,11 @@
       </c>
       <c r="H9">
         <f>COUNTIF(CSL_Sonuclari!C:H,A9)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" si="3"/>
-        <v>3677.0625</v>
+        <v>4129.2937499999998</v>
       </c>
       <c r="J9" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H9,"")</f>
@@ -54963,19 +55557,19 @@
       </c>
       <c r="K9">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H9,"")</f>
-        <v>4671</v>
+        <v>4930.5</v>
       </c>
       <c r="L9">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H9,"")</f>
-        <v>2936.25</v>
+        <v>3099.375</v>
       </c>
       <c r="M9">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H9,"")</f>
-        <v>2142</v>
+        <v>3252.7999999999997</v>
       </c>
       <c r="N9">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H9,"")</f>
-        <v>4959</v>
+        <v>5234.5</v>
       </c>
       <c r="O9" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H9,"")</f>
@@ -54996,11 +55590,11 @@
       </c>
       <c r="B10">
         <f>COUNTIF(CSL_Sonuclari!C:J,A10)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" si="0"/>
-        <v>3727.0333333333333</v>
+        <v>4218.3142857142857</v>
       </c>
       <c r="D10">
         <f>COUNTIF(CSL_Sonuclari!J:J,A10)</f>
@@ -55020,31 +55614,31 @@
       </c>
       <c r="H10">
         <f>COUNTIF(CSL_Sonuclari!C:H,A10)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I10" s="5">
         <f t="shared" si="3"/>
-        <v>5100.8466666666664</v>
+        <v>5788.64</v>
       </c>
       <c r="J10">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H10,"")</f>
-        <v>3278</v>
+        <v>3576</v>
       </c>
       <c r="K10">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H10,"")</f>
-        <v>4074.3999999999996</v>
+        <v>5228</v>
       </c>
       <c r="L10">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H10,"")</f>
-        <v>6858.5</v>
+        <v>7819.2000000000007</v>
       </c>
       <c r="M10">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H10,"")</f>
-        <v>5188.3333333333339</v>
+        <v>5660</v>
       </c>
       <c r="N10">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H10,"")</f>
-        <v>6105</v>
+        <v>6660</v>
       </c>
       <c r="O10" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H10,"")</f>
@@ -55203,11 +55797,11 @@
       </c>
       <c r="B13">
         <f>COUNTIF(CSL_Sonuclari!C:J,A13)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="0"/>
-        <v>2565</v>
+        <v>2785.6833333333329</v>
       </c>
       <c r="D13">
         <f>COUNTIF(CSL_Sonuclari!J:J,A13)</f>
@@ -55227,27 +55821,27 @@
       </c>
       <c r="H13">
         <f>COUNTIF(CSL_Sonuclari!C:H,A13)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" si="3"/>
-        <v>3321</v>
+        <v>3652.0250000000001</v>
       </c>
       <c r="J13">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H13,"")</f>
-        <v>2488</v>
+        <v>2643.5</v>
       </c>
       <c r="K13">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H13,"")</f>
-        <v>3836</v>
+        <v>4569.6000000000004</v>
       </c>
       <c r="L13">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H13,"")</f>
-        <v>1376</v>
+        <v>1462</v>
       </c>
       <c r="M13">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H13,"")</f>
-        <v>5584</v>
+        <v>5933</v>
       </c>
       <c r="N13" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H13,"")</f>
@@ -55617,11 +56211,11 @@
       </c>
       <c r="B19">
         <f>COUNTIF(CSL_Sonuclari!C:J,A19)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
-        <v>1701.9</v>
+        <v>2030.5538461538461</v>
       </c>
       <c r="D19">
         <f>COUNTIF(CSL_Sonuclari!J:J,A19)</f>
@@ -55641,11 +56235,11 @@
       </c>
       <c r="H19">
         <f>COUNTIF(CSL_Sonuclari!C:H,A19)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I19" s="5">
         <f t="shared" si="3"/>
-        <v>2378.1666666666665</v>
+        <v>2925.9230769230767</v>
       </c>
       <c r="J19" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H19,"")</f>
@@ -55661,15 +56255,15 @@
       </c>
       <c r="M19">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H19,"")</f>
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="N19">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H19,"")</f>
-        <v>3872.8333333333335</v>
+        <v>4812</v>
       </c>
       <c r="O19">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H19,"")</f>
-        <v>3033.6666666666665</v>
+        <v>3713.7692307692305</v>
       </c>
       <c r="P19">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F19,"")</f>
@@ -55686,11 +56280,11 @@
       </c>
       <c r="B20">
         <f>COUNTIF(CSL_Sonuclari!C:J,A20)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
-        <v>3092.0416666666665</v>
+        <v>3297.5166666666664</v>
       </c>
       <c r="D20">
         <f>COUNTIF(CSL_Sonuclari!J:J,A20)</f>
@@ -55710,11 +56304,11 @@
       </c>
       <c r="H20">
         <f>COUNTIF(CSL_Sonuclari!C:H,A20)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I20" s="5">
         <f t="shared" si="3"/>
-        <v>4292.8125</v>
+        <v>4601.0249999999996</v>
       </c>
       <c r="J20" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H20,"")</f>
@@ -55722,7 +56316,7 @@
       </c>
       <c r="K20">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H20,"")</f>
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="L20" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H20,"")</f>
@@ -55730,15 +56324,15 @@
       </c>
       <c r="M20">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H20,"")</f>
-        <v>3850</v>
+        <v>4550</v>
       </c>
       <c r="N20">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H20,"")</f>
-        <v>6252.5</v>
+        <v>6502.5999999999995</v>
       </c>
       <c r="O20">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H20,"")</f>
-        <v>6593.75</v>
+        <v>6857.5</v>
       </c>
       <c r="P20">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F20,"")</f>
@@ -55755,11 +56349,11 @@
       </c>
       <c r="B21">
         <f>COUNTIF(CSL_Sonuclari!C:J,A21)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="0"/>
-        <v>2907.6507936507937</v>
+        <v>3484.1111111111109</v>
       </c>
       <c r="D21">
         <f>COUNTIF(CSL_Sonuclari!J:J,A21)</f>
@@ -55779,31 +56373,31 @@
       </c>
       <c r="H21">
         <f>COUNTIF(CSL_Sonuclari!C:H,A21)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I21" s="5">
         <f t="shared" si="3"/>
-        <v>3843.5111111111109</v>
+        <v>4650.5555555555557</v>
       </c>
       <c r="J21">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H21,"")</f>
-        <v>4220</v>
+        <v>4642</v>
       </c>
       <c r="K21">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H21,"")</f>
-        <v>3228.8888888888891</v>
+        <v>3551.7777777777783</v>
       </c>
       <c r="L21">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H21,"")</f>
-        <v>4472</v>
+        <v>5503.6666666666661</v>
       </c>
       <c r="M21">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H21,"")</f>
-        <v>3886.666666666667</v>
+        <v>4275.3333333333339</v>
       </c>
       <c r="N21">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H21,"")</f>
-        <v>3410</v>
+        <v>5280</v>
       </c>
       <c r="O21" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H21,"")</f>
@@ -55893,11 +56487,11 @@
       </c>
       <c r="B23">
         <f>COUNTIF(CSL_Sonuclari!C:J,A23)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
-        <v>3784.195238095238</v>
+        <v>4100.1142857142859</v>
       </c>
       <c r="D23">
         <f>COUNTIF(CSL_Sonuclari!J:J,A23)</f>
@@ -55917,11 +56511,11 @@
       </c>
       <c r="H23">
         <f>COUNTIF(CSL_Sonuclari!C:H,A23)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I23" s="5">
         <f t="shared" si="3"/>
-        <v>4420.2440476190477</v>
+        <v>4815.1428571428569</v>
       </c>
       <c r="J23" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H23,"")</f>
@@ -55933,19 +56527,19 @@
       </c>
       <c r="L23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H23,"")</f>
-        <v>4889.1428571428578</v>
+        <v>5101.7142857142862</v>
       </c>
       <c r="M23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H23,"")</f>
-        <v>3254.5</v>
+        <v>4206.8571428571431</v>
       </c>
       <c r="N23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H23,"")</f>
-        <v>4189.833333333333</v>
+        <v>4372</v>
       </c>
       <c r="O23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H23,"")</f>
-        <v>5347.5</v>
+        <v>5580</v>
       </c>
       <c r="P23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F23,"")</f>
@@ -55962,11 +56556,11 @@
       </c>
       <c r="B24">
         <f>COUNTIF(CSL_Sonuclari!C:J,A24)</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C24" s="5">
         <f t="shared" si="0"/>
-        <v>3739.3571428571427</v>
+        <v>4417.9890109890111</v>
       </c>
       <c r="D24">
         <f>COUNTIF(CSL_Sonuclari!J:J,A24)</f>
@@ -55978,19 +56572,19 @@
       </c>
       <c r="F24" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A24)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G24" s="8">
         <f t="shared" si="2"/>
-        <v>191</v>
+        <v>574</v>
       </c>
       <c r="H24">
         <f>COUNTIF(CSL_Sonuclari!C:H,A24)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I24" s="5">
         <f t="shared" si="3"/>
-        <v>4976.3</v>
+        <v>5849.7846153846158</v>
       </c>
       <c r="J24" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H24,"")</f>
@@ -55998,27 +56592,27 @@
       </c>
       <c r="K24">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H24,"")</f>
-        <v>6321</v>
+        <v>6923</v>
       </c>
       <c r="L24">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H24,"")</f>
-        <v>6300</v>
+        <v>6900</v>
       </c>
       <c r="M24">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H24,"")</f>
-        <v>3496.5</v>
+        <v>5497</v>
       </c>
       <c r="N24">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H24,"")</f>
-        <v>4704</v>
+        <v>5152</v>
       </c>
       <c r="O24">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H24,"")</f>
-        <v>4060</v>
+        <v>4776.9230769230762</v>
       </c>
       <c r="P24">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F24,"")</f>
-        <v>191</v>
+        <v>574</v>
       </c>
       <c r="Q24">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D24,"")</f>
@@ -56169,27 +56763,27 @@
       </c>
       <c r="B27">
         <f>COUNTIF(CSL_Sonuclari!C:J,A27)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C27" s="5">
         <f t="shared" si="0"/>
-        <v>4579.4787878787874</v>
+        <v>4707.4787878787874</v>
       </c>
       <c r="D27">
         <f>COUNTIF(CSL_Sonuclari!J:J,A27)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" si="1"/>
-        <v>649</v>
+        <v>1033</v>
       </c>
       <c r="F27" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A27)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G27" s="8">
         <f t="shared" si="2"/>
-        <v>982</v>
+        <v>1366</v>
       </c>
       <c r="H27">
         <f>COUNTIF(CSL_Sonuclari!C:H,A27)</f>
@@ -56225,11 +56819,11 @@
       </c>
       <c r="P27">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F27,"")</f>
-        <v>982</v>
+        <v>1366</v>
       </c>
       <c r="Q27">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D27,"")</f>
-        <v>649</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -56238,11 +56832,11 @@
       </c>
       <c r="B28">
         <f>COUNTIF(CSL_Sonuclari!C:J,A28)</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C28" s="5">
         <f t="shared" si="0"/>
-        <v>3191.2285714285713</v>
+        <v>3518.6857142857143</v>
       </c>
       <c r="D28">
         <f>COUNTIF(CSL_Sonuclari!J:J,A28)</f>
@@ -56254,47 +56848,47 @@
       </c>
       <c r="F28" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A28)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G28" s="8">
         <f t="shared" si="2"/>
-        <v>1013</v>
+        <v>1778</v>
       </c>
       <c r="H28">
         <f>COUNTIF(CSL_Sonuclari!C:H,A28)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I28" s="5">
         <f t="shared" si="3"/>
-        <v>3554.2666666666664</v>
+        <v>3808.7999999999997</v>
       </c>
       <c r="J28">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H28,"")</f>
-        <v>7475</v>
+        <v>7800</v>
       </c>
       <c r="K28">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H28,"")</f>
-        <v>4144.5999999999995</v>
+        <v>4324.7999999999993</v>
       </c>
       <c r="L28">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H28,"")</f>
-        <v>3611</v>
+        <v>3768</v>
       </c>
       <c r="M28">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H28,"")</f>
-        <v>5842</v>
+        <v>6696</v>
       </c>
       <c r="N28">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H28,"")</f>
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="O28">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H28,"")</f>
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P28">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F28,"")</f>
-        <v>1013</v>
+        <v>1778</v>
       </c>
       <c r="Q28" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D28,"")</f>
@@ -56307,11 +56901,11 @@
       </c>
       <c r="B29">
         <f>COUNTIF(CSL_Sonuclari!C:J,A29)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C29" s="5">
         <f t="shared" si="0"/>
-        <v>3362.1734693877552</v>
+        <v>3548.0952380952381</v>
       </c>
       <c r="D29">
         <f>COUNTIF(CSL_Sonuclari!J:J,A29)</f>
@@ -56331,31 +56925,31 @@
       </c>
       <c r="H29">
         <f>COUNTIF(CSL_Sonuclari!C:H,A29)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I29" s="5">
         <f t="shared" si="3"/>
-        <v>4425.0428571428574</v>
+        <v>4685.3333333333339</v>
       </c>
       <c r="J29">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H29,"")</f>
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="K29">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H29,"")</f>
-        <v>5490</v>
+        <v>5693.3333333333339</v>
       </c>
       <c r="L29">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H29,"")</f>
-        <v>5341.5</v>
+        <v>5539.3333333333339</v>
       </c>
       <c r="M29">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H29,"")</f>
-        <v>6595.7142857142853</v>
+        <v>7322</v>
       </c>
       <c r="N29">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H29,"")</f>
-        <v>4239</v>
+        <v>4396</v>
       </c>
       <c r="O29" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H29,"")</f>
@@ -56445,11 +57039,11 @@
       </c>
       <c r="B31">
         <f>COUNTIF(CSL_Sonuclari!C:J,A31)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C31" s="5">
         <f t="shared" si="0"/>
-        <v>3183</v>
+        <v>3356.9134615384614</v>
       </c>
       <c r="D31">
         <f>COUNTIF(CSL_Sonuclari!J:J,A31)</f>
@@ -56469,15 +57063,15 @@
       </c>
       <c r="H31">
         <f>COUNTIF(CSL_Sonuclari!C:H,A31)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I31" s="5">
         <f t="shared" si="3"/>
-        <v>4545</v>
+        <v>4805.8701923076924</v>
       </c>
       <c r="J31">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H31,"")</f>
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K31" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H31,"")</f>
@@ -56489,15 +57083,15 @@
       </c>
       <c r="M31">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H31,"")</f>
-        <v>6890</v>
+        <v>7155</v>
       </c>
       <c r="N31">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H31,"")</f>
-        <v>5180</v>
+        <v>5379.2307692307695</v>
       </c>
       <c r="O31">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H31,"")</f>
-        <v>6032</v>
+        <v>6608.25</v>
       </c>
       <c r="P31">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F31,"")</f>
@@ -56583,19 +57177,19 @@
       </c>
       <c r="B33">
         <f>COUNTIF(CSL_Sonuclari!C:J,A33)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C33" s="5">
         <f t="shared" si="0"/>
-        <v>3900.3223684210529</v>
+        <v>4028.655701754386</v>
       </c>
       <c r="D33">
         <f>COUNTIF(CSL_Sonuclari!J:J,A33)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" s="5">
         <f t="shared" si="1"/>
-        <v>294</v>
+        <v>679</v>
       </c>
       <c r="F33" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A33)</f>
@@ -56643,7 +57237,7 @@
       </c>
       <c r="Q33">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D33,"")</f>
-        <v>294</v>
+        <v>679</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -56721,11 +57315,11 @@
       </c>
       <c r="B35">
         <f>COUNTIF(CSL_Sonuclari!C:J,A35)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C35" s="5">
         <f t="shared" si="4"/>
-        <v>3217.1333333333332</v>
+        <v>3380.6999999999994</v>
       </c>
       <c r="D35">
         <f>COUNTIF(CSL_Sonuclari!J:J,A35)</f>
@@ -56745,11 +57339,11 @@
       </c>
       <c r="H35">
         <f>COUNTIF(CSL_Sonuclari!C:H,A35)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I35" s="5">
         <f t="shared" si="7"/>
-        <v>4542.2</v>
+        <v>4787.5499999999993</v>
       </c>
       <c r="J35" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H35,"")</f>
@@ -56761,19 +57355,19 @@
       </c>
       <c r="L35">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H35,"")</f>
-        <v>6843.2</v>
+        <v>7106.4</v>
       </c>
       <c r="M35">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H35,"")</f>
-        <v>2823.6</v>
+        <v>2932.2</v>
       </c>
       <c r="N35">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H35,"")</f>
-        <v>5746</v>
+        <v>6249.6</v>
       </c>
       <c r="O35">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H35,"")</f>
-        <v>2756</v>
+        <v>2862</v>
       </c>
       <c r="P35">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F35,"")</f>
@@ -56859,11 +57453,11 @@
       </c>
       <c r="B37">
         <f>COUNTIF(CSL_Sonuclari!C:J,A37)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C37" s="5">
         <f t="shared" si="4"/>
-        <v>2406.2222222222222</v>
+        <v>3294.0714285714284</v>
       </c>
       <c r="D37">
         <f>COUNTIF(CSL_Sonuclari!J:J,A37)</f>
@@ -56883,11 +57477,11 @@
       </c>
       <c r="H37">
         <f>COUNTIF(CSL_Sonuclari!C:H,A37)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I37" s="5">
         <f t="shared" si="7"/>
-        <v>3310.8333333333335</v>
+        <v>4372.8999999999996</v>
       </c>
       <c r="J37" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H37,"")</f>
@@ -56895,23 +57489,23 @@
       </c>
       <c r="K37">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H37,"")</f>
-        <v>2513.3333333333335</v>
+        <v>2639</v>
       </c>
       <c r="L37">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H37,"")</f>
-        <v>4060</v>
+        <v>4263</v>
       </c>
       <c r="M37">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H37,"")</f>
-        <v>2480</v>
+        <v>2604</v>
       </c>
       <c r="N37">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H37,"")</f>
-        <v>4190</v>
-      </c>
-      <c r="O37" t="str">
+        <v>4399.5</v>
+      </c>
+      <c r="O37">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H37,"")</f>
-        <v/>
+        <v>7959</v>
       </c>
       <c r="P37">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F37,"")</f>
@@ -57135,19 +57729,19 @@
       </c>
       <c r="B41">
         <f>COUNTIF(CSL_Sonuclari!C:J,A41)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41" s="5">
         <f t="shared" si="4"/>
-        <v>5428.5333333333338</v>
+        <v>4587.6111111111113</v>
       </c>
       <c r="D41">
         <f>COUNTIF(CSL_Sonuclari!J:J,A41)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>383</v>
       </c>
       <c r="F41" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A41)</f>
@@ -57193,9 +57787,9 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F41,"")</f>
         <v>1027</v>
       </c>
-      <c r="Q41" t="str">
+      <c r="Q41">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D41,"")</f>
-        <v/>
+        <v>383</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
@@ -57204,11 +57798,11 @@
       </c>
       <c r="B42">
         <f>COUNTIF(CSL_Sonuclari!C:J,A42)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C42" s="5">
         <f t="shared" si="4"/>
-        <v>2799.8095238095243</v>
+        <v>3253.5456349206347</v>
       </c>
       <c r="D42">
         <f>COUNTIF(CSL_Sonuclari!J:J,A42)</f>
@@ -57228,23 +57822,23 @@
       </c>
       <c r="H42">
         <f>COUNTIF(CSL_Sonuclari!C:H,A42)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I42" s="5">
         <f t="shared" si="7"/>
-        <v>3828.9642857142858</v>
+        <v>4509.5684523809523</v>
       </c>
       <c r="J42">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H42,"")</f>
-        <v>3569.1428571428573</v>
+        <v>4611.75</v>
       </c>
       <c r="K42">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H42,"")</f>
-        <v>3273</v>
+        <v>4246.666666666667</v>
       </c>
       <c r="L42">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H42,"")</f>
-        <v>4261.7142857142862</v>
+        <v>4616.8571428571431</v>
       </c>
       <c r="M42" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H42,"")</f>
@@ -57252,7 +57846,7 @@
       </c>
       <c r="N42">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H42,"")</f>
-        <v>4212</v>
+        <v>4563</v>
       </c>
       <c r="O42" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H42,"")</f>
@@ -57342,11 +57936,11 @@
       </c>
       <c r="B44">
         <f>COUNTIF(CSL_Sonuclari!C:J,A44)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44" s="5">
         <f t="shared" si="4"/>
-        <v>4143.7</v>
+        <v>4450.9423076923076</v>
       </c>
       <c r="D44">
         <f>COUNTIF(CSL_Sonuclari!J:J,A44)</f>
@@ -57366,11 +57960,11 @@
       </c>
       <c r="H44">
         <f>COUNTIF(CSL_Sonuclari!C:H,A44)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I44" s="5">
         <f t="shared" si="7"/>
-        <v>6293.833333333333</v>
+        <v>6805.9038461538466</v>
       </c>
       <c r="J44" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H44,"")</f>
@@ -57386,15 +57980,15 @@
       </c>
       <c r="M44">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H44,"")</f>
-        <v>8346</v>
+        <v>9477</v>
       </c>
       <c r="N44">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H44,"")</f>
-        <v>6311.5</v>
+        <v>6554.25</v>
       </c>
       <c r="O44">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H44,"")</f>
-        <v>4224</v>
+        <v>4386.4615384615381</v>
       </c>
       <c r="P44">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F44,"")</f>
@@ -57411,11 +58005,11 @@
       </c>
       <c r="B45">
         <f>COUNTIF(CSL_Sonuclari!C:J,A45)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C45" s="5">
         <f t="shared" si="4"/>
-        <v>2517.5083333333332</v>
+        <v>2743.1</v>
       </c>
       <c r="D45">
         <f>COUNTIF(CSL_Sonuclari!J:J,A45)</f>
@@ -57435,11 +58029,11 @@
       </c>
       <c r="H45">
         <f>COUNTIF(CSL_Sonuclari!C:H,A45)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I45" s="5">
         <f t="shared" si="7"/>
-        <v>3208.0124999999998</v>
+        <v>3546.4</v>
       </c>
       <c r="J45" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H45,"")</f>
@@ -57451,19 +58045,19 @@
       </c>
       <c r="L45">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H45,"")</f>
-        <v>3271.8</v>
+        <v>3427.6000000000004</v>
       </c>
       <c r="M45">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H45,"")</f>
-        <v>4662</v>
+        <v>4884</v>
       </c>
       <c r="N45">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H45,"")</f>
-        <v>4478.25</v>
+        <v>5434</v>
       </c>
       <c r="O45">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H45,"")</f>
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="P45">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F45,"")</f>
@@ -57756,11 +58350,11 @@
       </c>
       <c r="B50">
         <f>COUNTIF(CSL_Sonuclari!C:J,A50)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C50" s="5">
         <f t="shared" si="4"/>
-        <v>2617.5833333333335</v>
+        <v>2783.875</v>
       </c>
       <c r="D50">
         <f>COUNTIF(CSL_Sonuclari!J:J,A50)</f>
@@ -57780,11 +58374,11 @@
       </c>
       <c r="H50">
         <f>COUNTIF(CSL_Sonuclari!C:H,A50)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I50" s="5">
         <f t="shared" si="7"/>
-        <v>3265.625</v>
+        <v>3515.0625</v>
       </c>
       <c r="J50" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H50,"")</f>
@@ -57796,19 +58390,19 @@
       </c>
       <c r="L50">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H50,"")</f>
-        <v>962</v>
+        <v>999</v>
       </c>
       <c r="M50">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H50,"")</f>
-        <v>4186</v>
+        <v>4347</v>
       </c>
       <c r="N50">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H50,"")</f>
-        <v>3202</v>
+        <v>3820.5</v>
       </c>
       <c r="O50">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H50,"")</f>
-        <v>4712.5</v>
+        <v>4893.75</v>
       </c>
       <c r="P50">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F50,"")</f>
@@ -57825,11 +58419,11 @@
       </c>
       <c r="B51">
         <f>COUNTIF(CSL_Sonuclari!C:J,A51)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C51" s="5">
         <f t="shared" si="4"/>
-        <v>2549.6064814814813</v>
+        <v>2613.1064814814813</v>
       </c>
       <c r="D51">
         <f>COUNTIF(CSL_Sonuclari!J:J,A51)</f>
@@ -57841,11 +58435,11 @@
       </c>
       <c r="F51" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A51)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G51" s="8">
         <f t="shared" si="6"/>
-        <v>740</v>
+        <v>1121</v>
       </c>
       <c r="H51">
         <f>COUNTIF(CSL_Sonuclari!C:H,A51)</f>
@@ -57881,7 +58475,7 @@
       </c>
       <c r="P51">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F51,"")</f>
-        <v>740</v>
+        <v>1121</v>
       </c>
       <c r="Q51">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D51,"")</f>
@@ -57894,11 +58488,11 @@
       </c>
       <c r="B52">
         <f>COUNTIF(CSL_Sonuclari!C:J,A52)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C52" s="5">
         <f t="shared" si="4"/>
-        <v>2545.4058608058613</v>
+        <v>3217.3054945054942</v>
       </c>
       <c r="D52">
         <f>COUNTIF(CSL_Sonuclari!J:J,A52)</f>
@@ -57918,31 +58512,31 @@
       </c>
       <c r="H52">
         <f>COUNTIF(CSL_Sonuclari!C:H,A52)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I52" s="5">
         <f t="shared" si="7"/>
-        <v>3198.3682051282053</v>
+        <v>4139.0276923076917</v>
       </c>
       <c r="J52">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H52,"")</f>
-        <v>1150</v>
+        <v>5208</v>
       </c>
       <c r="K52">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H52,"")</f>
-        <v>3758.2000000000003</v>
+        <v>3921.6000000000004</v>
       </c>
       <c r="L52">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H52,"")</f>
-        <v>3547.3076923076924</v>
+        <v>3701.5384615384614</v>
       </c>
       <c r="M52">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H52,"")</f>
-        <v>7421.3333333333339</v>
+        <v>7744</v>
       </c>
       <c r="N52">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H52,"")</f>
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="O52" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H52,"")</f>
@@ -58032,11 +58626,11 @@
       </c>
       <c r="B54">
         <f>COUNTIF(CSL_Sonuclari!C:J,A54)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C54" s="5">
         <f t="shared" si="4"/>
-        <v>2820.7272727272725</v>
+        <v>3115.8393939393936</v>
       </c>
       <c r="D54">
         <f>COUNTIF(CSL_Sonuclari!J:J,A54)</f>
@@ -58056,11 +58650,11 @@
       </c>
       <c r="H54">
         <f>COUNTIF(CSL_Sonuclari!C:H,A54)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I54" s="5">
         <f t="shared" si="7"/>
-        <v>3862.840909090909</v>
+        <v>4305.5090909090904</v>
       </c>
       <c r="J54" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H54,"")</f>
@@ -58068,19 +58662,19 @@
       </c>
       <c r="K54">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H54,"")</f>
-        <v>2079</v>
+        <v>2156</v>
       </c>
       <c r="L54">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H54,"")</f>
-        <v>4590</v>
+        <v>5958.4000000000005</v>
       </c>
       <c r="M54">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H54,"")</f>
-        <v>3409.363636363636</v>
+        <v>3535.6363636363635</v>
       </c>
       <c r="N54">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H54,"")</f>
-        <v>5373</v>
+        <v>5572</v>
       </c>
       <c r="O54" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H54,"")</f>
@@ -58239,11 +58833,11 @@
       </c>
       <c r="B57">
         <f>COUNTIF(CSL_Sonuclari!C:J,A57)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C57" s="5">
         <f t="shared" si="4"/>
-        <v>3820.6333333333337</v>
+        <v>4133.88</v>
       </c>
       <c r="D57">
         <f>COUNTIF(CSL_Sonuclari!J:J,A57)</f>
@@ -58263,11 +58857,11 @@
       </c>
       <c r="H57">
         <f>COUNTIF(CSL_Sonuclari!C:H,A57)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I57" s="5">
         <f t="shared" si="7"/>
-        <v>4573.291666666667</v>
+        <v>4964.8500000000004</v>
       </c>
       <c r="J57" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H57,"")</f>
@@ -58275,19 +58869,19 @@
       </c>
       <c r="K57">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H57,"")</f>
-        <v>5674.5</v>
+        <v>6755.4</v>
       </c>
       <c r="L57">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H57,"")</f>
-        <v>2717</v>
+        <v>2821.5</v>
       </c>
       <c r="M57">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H57,"")</f>
-        <v>5343</v>
+        <v>5548.5</v>
       </c>
       <c r="N57">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H57,"")</f>
-        <v>4558.666666666667</v>
+        <v>4734</v>
       </c>
       <c r="O57" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H57,"")</f>
@@ -58308,19 +58902,19 @@
       </c>
       <c r="B58">
         <f>COUNTIF(CSL_Sonuclari!C:J,A58)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C58" s="5">
         <f t="shared" si="4"/>
-        <v>3113.7789987789988</v>
+        <v>3168.3504273504273</v>
       </c>
       <c r="D58">
         <f>COUNTIF(CSL_Sonuclari!J:J,A58)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58" s="5">
         <f t="shared" si="5"/>
-        <v>353</v>
+        <v>735</v>
       </c>
       <c r="F58" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A58)</f>
@@ -58368,7 +58962,7 @@
       </c>
       <c r="Q58">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D58,"")</f>
-        <v>353</v>
+        <v>735</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
@@ -58377,11 +58971,11 @@
       </c>
       <c r="B59">
         <f>COUNTIF(CSL_Sonuclari!C:J,A59)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59" s="5">
         <f t="shared" si="4"/>
-        <v>1594.5249999999999</v>
+        <v>1695.4677419354839</v>
       </c>
       <c r="D59">
         <f>COUNTIF(CSL_Sonuclari!J:J,A59)</f>
@@ -58401,15 +58995,15 @@
       </c>
       <c r="H59">
         <f>COUNTIF(CSL_Sonuclari!C:H,A59)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I59" s="5">
         <f t="shared" si="7"/>
-        <v>2900.0499999999997</v>
+        <v>3101.9354838709678</v>
       </c>
       <c r="J59">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H59,"")</f>
-        <v>5273.0999999999995</v>
+        <v>5659.8709677419356</v>
       </c>
       <c r="K59" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H59,"")</f>
@@ -58417,7 +59011,7 @@
       </c>
       <c r="L59">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H59,"")</f>
-        <v>527</v>
+        <v>544</v>
       </c>
       <c r="M59" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H59,"")</f>
@@ -58584,11 +59178,11 @@
       </c>
       <c r="B62">
         <f>COUNTIF(CSL_Sonuclari!C:J,A62)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C62" s="5">
         <f t="shared" si="4"/>
-        <v>3531.1054421768704</v>
+        <v>3914.4897959183677</v>
       </c>
       <c r="D62">
         <f>COUNTIF(CSL_Sonuclari!J:J,A62)</f>
@@ -58608,11 +59202,11 @@
       </c>
       <c r="H62">
         <f>COUNTIF(CSL_Sonuclari!C:H,A62)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I62" s="5">
         <f t="shared" si="7"/>
-        <v>4619.1476190476187</v>
+        <v>5155.8857142857141</v>
       </c>
       <c r="J62" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H62,"")</f>
@@ -58620,23 +59214,23 @@
       </c>
       <c r="K62">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H62,"")</f>
-        <v>4355.5</v>
+        <v>4496</v>
       </c>
       <c r="L62">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H62,"")</f>
-        <v>7130</v>
+        <v>7360</v>
       </c>
       <c r="M62">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H62,"")</f>
-        <v>4707.5714285714284</v>
+        <v>4859.4285714285716</v>
       </c>
       <c r="N62">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H62,"")</f>
-        <v>4360.6666666666661</v>
+        <v>6440</v>
       </c>
       <c r="O62">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H62,"")</f>
-        <v>2542</v>
+        <v>2624</v>
       </c>
       <c r="P62">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F62,"")</f>
@@ -58722,11 +59316,11 @@
       </c>
       <c r="B64">
         <f>COUNTIF(CSL_Sonuclari!C:J,A64)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C64" s="5">
         <f t="shared" si="4"/>
-        <v>3690.1875</v>
+        <v>4037.5185185185187</v>
       </c>
       <c r="D64">
         <f>COUNTIF(CSL_Sonuclari!J:J,A64)</f>
@@ -58746,27 +59340,27 @@
       </c>
       <c r="H64">
         <f>COUNTIF(CSL_Sonuclari!C:H,A64)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I64" s="5">
         <f t="shared" si="7"/>
-        <v>5360.78125</v>
+        <v>5881.7777777777783</v>
       </c>
       <c r="J64">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H64,"")</f>
-        <v>5685</v>
+        <v>6064</v>
       </c>
       <c r="K64">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H64,"")</f>
-        <v>5923.125</v>
+        <v>6972.4444444444443</v>
       </c>
       <c r="L64">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H64,"")</f>
-        <v>4405</v>
+        <v>4698.666666666667</v>
       </c>
       <c r="M64">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H64,"")</f>
-        <v>5430</v>
+        <v>5792</v>
       </c>
       <c r="N64" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H64,"")</f>
@@ -58860,11 +59454,11 @@
       </c>
       <c r="B66">
         <f>COUNTIF(CSL_Sonuclari!C:J,A66)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C66" s="5">
         <f t="shared" ref="C66:C91" si="8">AVERAGE(J66:Q66)</f>
-        <v>3505.7574074074073</v>
+        <v>3716.4920634920636</v>
       </c>
       <c r="D66">
         <f>COUNTIF(CSL_Sonuclari!J:J,A66)</f>
@@ -58884,19 +59478,19 @@
       </c>
       <c r="H66">
         <f>COUNTIF(CSL_Sonuclari!C:H,A66)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I66" s="5">
         <f t="shared" ref="I66:I91" si="11">AVERAGE(J66:O66)</f>
-        <v>5054.1361111111109</v>
+        <v>5370.2380952380954</v>
       </c>
       <c r="J66">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H66,"")</f>
-        <v>5291.0499999999993</v>
+        <v>5757.1428571428569</v>
       </c>
       <c r="K66">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H66,"")</f>
-        <v>4817.2222222222226</v>
+        <v>4983.333333333333</v>
       </c>
       <c r="L66" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H66,"")</f>
@@ -58929,19 +59523,19 @@
       </c>
       <c r="B67">
         <f>COUNTIF(CSL_Sonuclari!C:J,A67)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C67" s="5">
         <f t="shared" si="8"/>
-        <v>4646.886363636364</v>
+        <v>4942.9138888888892</v>
       </c>
       <c r="D67">
         <f>COUNTIF(CSL_Sonuclari!J:J,A67)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E67" s="5">
         <f t="shared" si="9"/>
-        <v>1230</v>
+        <v>1610</v>
       </c>
       <c r="F67" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A67)</f>
@@ -58953,11 +59547,11 @@
       </c>
       <c r="H67">
         <f>COUNTIF(CSL_Sonuclari!C:H,A67)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I67" s="5">
         <f t="shared" si="11"/>
-        <v>6610.329545454546</v>
+        <v>6959.3708333333343</v>
       </c>
       <c r="J67" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H67,"")</f>
@@ -58965,7 +59559,7 @@
       </c>
       <c r="K67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H67,"")</f>
-        <v>7380</v>
+        <v>7626</v>
       </c>
       <c r="L67" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H67,"")</f>
@@ -58973,15 +59567,15 @@
       </c>
       <c r="M67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H67,"")</f>
-        <v>5457</v>
+        <v>5638.9000000000005</v>
       </c>
       <c r="N67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H67,"")</f>
-        <v>5571.818181818182</v>
+        <v>6272.3333333333339</v>
       </c>
       <c r="O67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H67,"")</f>
-        <v>8032.5</v>
+        <v>8300.25</v>
       </c>
       <c r="P67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F67,"")</f>
@@ -58989,7 +59583,7 @@
       </c>
       <c r="Q67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D67,"")</f>
-        <v>1230</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
@@ -59067,19 +59661,19 @@
       </c>
       <c r="B69">
         <f>COUNTIF(CSL_Sonuclari!C:J,A69)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C69" s="5">
         <f t="shared" si="8"/>
-        <v>3056.8359126984133</v>
+        <v>3288.8404761904762</v>
       </c>
       <c r="D69">
         <f>COUNTIF(CSL_Sonuclari!J:J,A69)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E69" s="5">
         <f t="shared" si="9"/>
-        <v>456</v>
+        <v>834</v>
       </c>
       <c r="F69" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A69)</f>
@@ -59091,35 +59685,35 @@
       </c>
       <c r="H69">
         <f>COUNTIF(CSL_Sonuclari!C:H,A69)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I69" s="5">
         <f t="shared" si="11"/>
-        <v>3962.4478835978844</v>
+        <v>4208.787301587302</v>
       </c>
       <c r="J69">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H69,"")</f>
-        <v>1147</v>
+        <v>1184</v>
       </c>
       <c r="K69">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H69,"")</f>
-        <v>5335.0999999999995</v>
+        <v>5507.2</v>
       </c>
       <c r="L69">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H69,"")</f>
-        <v>7152.1428571428578</v>
+        <v>7382.8571428571431</v>
       </c>
       <c r="M69">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H69,"")</f>
-        <v>4984.1111111111113</v>
+        <v>5856</v>
       </c>
       <c r="N69">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H69,"")</f>
-        <v>4629.3333333333339</v>
+        <v>4778.666666666667</v>
       </c>
       <c r="O69">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H69,"")</f>
-        <v>527</v>
+        <v>544</v>
       </c>
       <c r="P69">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F69,"")</f>
@@ -59127,7 +59721,7 @@
       </c>
       <c r="Q69">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D69,"")</f>
-        <v>456</v>
+        <v>834</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
@@ -59136,11 +59730,11 @@
       </c>
       <c r="B70">
         <f>COUNTIF(CSL_Sonuclari!C:J,A70)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C70" s="5">
         <f t="shared" si="8"/>
-        <v>3079.1428571428573</v>
+        <v>3796.3571428571427</v>
       </c>
       <c r="D70">
         <f>COUNTIF(CSL_Sonuclari!J:J,A70)</f>
@@ -59152,19 +59746,19 @@
       </c>
       <c r="F70" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A70)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G70" s="8">
         <f t="shared" si="10"/>
-        <v>995</v>
+        <v>1377</v>
       </c>
       <c r="H70">
         <f>COUNTIF(CSL_Sonuclari!C:H,A70)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I70" s="5">
         <f t="shared" si="11"/>
-        <v>3964.4</v>
+        <v>4892.1000000000004</v>
       </c>
       <c r="J70" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H70,"")</f>
@@ -59172,27 +59766,27 @@
       </c>
       <c r="K70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H70,"")</f>
-        <v>1298</v>
+        <v>5094.5</v>
       </c>
       <c r="L70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H70,"")</f>
-        <v>4272.3999999999996</v>
+        <v>4466.5999999999995</v>
       </c>
       <c r="M70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H70,"")</f>
-        <v>3515.6000000000004</v>
+        <v>3675.4</v>
       </c>
       <c r="N70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H70,"")</f>
-        <v>5489</v>
+        <v>5738.5</v>
       </c>
       <c r="O70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H70,"")</f>
-        <v>5247</v>
+        <v>5485.5</v>
       </c>
       <c r="P70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F70,"")</f>
-        <v>995</v>
+        <v>1377</v>
       </c>
       <c r="Q70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D70,"")</f>
@@ -59343,19 +59937,19 @@
       </c>
       <c r="B73">
         <f>COUNTIF(CSL_Sonuclari!C:J,A73)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C73" s="5">
         <f t="shared" si="8"/>
-        <v>2616.9583333333335</v>
+        <v>2680.125</v>
       </c>
       <c r="D73">
         <f>COUNTIF(CSL_Sonuclari!J:J,A73)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E73" s="5">
         <f t="shared" si="9"/>
-        <v>347</v>
+        <v>726</v>
       </c>
       <c r="F73" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A73)</f>
@@ -59403,7 +59997,7 @@
       </c>
       <c r="Q73">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D73,"")</f>
-        <v>347</v>
+        <v>726</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
@@ -59412,11 +60006,11 @@
       </c>
       <c r="B74">
         <f>COUNTIF(CSL_Sonuclari!C:J,A74)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C74" s="5">
         <f t="shared" si="8"/>
-        <v>4785.0751633986929</v>
+        <v>4848.2418300653599</v>
       </c>
       <c r="D74">
         <f>COUNTIF(CSL_Sonuclari!J:J,A74)</f>
@@ -59428,11 +60022,11 @@
       </c>
       <c r="F74" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A74)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G74" s="8">
         <f t="shared" si="10"/>
-        <v>1156</v>
+        <v>1535</v>
       </c>
       <c r="H74">
         <f>COUNTIF(CSL_Sonuclari!C:H,A74)</f>
@@ -59468,7 +60062,7 @@
       </c>
       <c r="P74">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F74,"")</f>
-        <v>1156</v>
+        <v>1535</v>
       </c>
       <c r="Q74">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D74,"")</f>
@@ -59826,11 +60420,11 @@
       </c>
       <c r="B80">
         <f>COUNTIF(CSL_Sonuclari!C:J,A80)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C80" s="5">
         <f t="shared" si="8"/>
-        <v>4234.0408163265301</v>
+        <v>4484.0773809523807</v>
       </c>
       <c r="D80">
         <f>COUNTIF(CSL_Sonuclari!J:J,A80)</f>
@@ -59850,11 +60444,11 @@
       </c>
       <c r="H80">
         <f>COUNTIF(CSL_Sonuclari!C:H,A80)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I80" s="5">
         <f t="shared" si="11"/>
-        <v>5482.8571428571431</v>
+        <v>5832.9083333333338</v>
       </c>
       <c r="J80" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H80,"")</f>
@@ -59862,23 +60456,23 @@
       </c>
       <c r="K80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H80,"")</f>
-        <v>7630</v>
+        <v>7884.3333333333339</v>
       </c>
       <c r="L80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H80,"")</f>
-        <v>4954.2857142857138</v>
+        <v>5955.875</v>
       </c>
       <c r="M80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H80,"")</f>
-        <v>6943.3333333333339</v>
+        <v>7174.7777777777783</v>
       </c>
       <c r="N80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H80,"")</f>
-        <v>5006.666666666667</v>
+        <v>5173.5555555555557</v>
       </c>
       <c r="O80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H80,"")</f>
-        <v>2880</v>
+        <v>2976</v>
       </c>
       <c r="P80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F80,"")</f>
@@ -59895,11 +60489,11 @@
       </c>
       <c r="B81">
         <f>COUNTIF(CSL_Sonuclari!C:J,A81)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C81" s="5">
         <f t="shared" si="8"/>
-        <v>3079.5277777777774</v>
+        <v>3142.5277777777774</v>
       </c>
       <c r="D81">
         <f>COUNTIF(CSL_Sonuclari!J:J,A81)</f>
@@ -59911,11 +60505,11 @@
       </c>
       <c r="F81" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A81)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G81" s="8">
         <f t="shared" si="10"/>
-        <v>1223</v>
+        <v>1601</v>
       </c>
       <c r="H81">
         <f>COUNTIF(CSL_Sonuclari!C:H,A81)</f>
@@ -59951,7 +60545,7 @@
       </c>
       <c r="P81">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F81,"")</f>
-        <v>1223</v>
+        <v>1601</v>
       </c>
       <c r="Q81">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D81,"")</f>
@@ -60033,11 +60627,11 @@
       </c>
       <c r="B83">
         <f>COUNTIF(CSL_Sonuclari!C:J,A83)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C83" s="5">
         <f t="shared" si="8"/>
-        <v>2275.4197530864199</v>
+        <v>2377.2857142857142</v>
       </c>
       <c r="D83">
         <f>COUNTIF(CSL_Sonuclari!J:J,A83)</f>
@@ -60057,11 +60651,11 @@
       </c>
       <c r="H83">
         <f>COUNTIF(CSL_Sonuclari!C:H,A83)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I83" s="5">
         <f t="shared" si="11"/>
-        <v>3050.6296296296296</v>
+        <v>3203.4285714285716</v>
       </c>
       <c r="J83" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H83,"")</f>
@@ -60073,19 +60667,19 @@
       </c>
       <c r="L83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H83,"")</f>
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="M83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H83,"")</f>
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="N83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H83,"")</f>
-        <v>5673</v>
+        <v>5856</v>
       </c>
       <c r="O83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H83,"")</f>
-        <v>5909.5185185185182</v>
+        <v>6317.7142857142853</v>
       </c>
       <c r="P83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F83,"")</f>
@@ -60102,11 +60696,11 @@
       </c>
       <c r="B84">
         <f>COUNTIF(CSL_Sonuclari!C:J,A84)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C84" s="5">
         <f t="shared" si="8"/>
-        <v>3354.962962962963</v>
+        <v>3500.6160714285716</v>
       </c>
       <c r="D84">
         <f>COUNTIF(CSL_Sonuclari!J:J,A84)</f>
@@ -60126,15 +60720,15 @@
       </c>
       <c r="H84">
         <f>COUNTIF(CSL_Sonuclari!C:H,A84)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I84" s="5">
         <f t="shared" si="11"/>
-        <v>4006.6172839506175</v>
+        <v>4200.8214285714284</v>
       </c>
       <c r="J84">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H84,"")</f>
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="K84" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H84,"")</f>
@@ -60150,11 +60744,11 @@
       </c>
       <c r="N84">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H84,"")</f>
-        <v>4904</v>
+        <v>5057.25</v>
       </c>
       <c r="O84">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H84,"")</f>
-        <v>6667.8518518518522</v>
+        <v>7083.2142857142853</v>
       </c>
       <c r="P84">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F84,"")</f>
@@ -60171,11 +60765,11 @@
       </c>
       <c r="B85">
         <f>COUNTIF(CSL_Sonuclari!C:J,A85)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C85" s="5">
         <f t="shared" si="8"/>
-        <v>3556.3333333333335</v>
+        <v>4020.6769230769228</v>
       </c>
       <c r="D85">
         <f>COUNTIF(CSL_Sonuclari!J:J,A85)</f>
@@ -60195,11 +60789,11 @@
       </c>
       <c r="H85">
         <f>COUNTIF(CSL_Sonuclari!C:H,A85)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I85" s="5">
         <f t="shared" si="11"/>
-        <v>5030</v>
+        <v>5726.5153846153844</v>
       </c>
       <c r="J85" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H85,"")</f>
@@ -60207,7 +60801,7 @@
       </c>
       <c r="K85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H85,"")</f>
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="L85" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H85,"")</f>
@@ -60215,15 +60809,15 @@
       </c>
       <c r="M85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H85,"")</f>
-        <v>8688</v>
+        <v>9231</v>
       </c>
       <c r="N85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H85,"")</f>
-        <v>6504</v>
+        <v>8139.6</v>
       </c>
       <c r="O85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H85,"")</f>
-        <v>4768</v>
+        <v>5365.461538461539</v>
       </c>
       <c r="P85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F85,"")</f>
@@ -60309,19 +60903,19 @@
       </c>
       <c r="B87">
         <f>COUNTIF(CSL_Sonuclari!C:J,A87)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C87" s="5">
         <f t="shared" si="8"/>
-        <v>4499.2250000000004</v>
+        <v>4776.8346590909096</v>
       </c>
       <c r="D87">
         <f>COUNTIF(CSL_Sonuclari!J:J,A87)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E87" s="5">
         <f t="shared" si="9"/>
-        <v>571</v>
+        <v>952</v>
       </c>
       <c r="F87" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A87)</f>
@@ -60333,35 +60927,35 @@
       </c>
       <c r="H87">
         <f>COUNTIF(CSL_Sonuclari!C:H,A87)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I87" s="5">
         <f t="shared" si="11"/>
-        <v>5673.9666666666672</v>
+        <v>5980.6128787878797</v>
       </c>
       <c r="J87">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H87,"")</f>
-        <v>8064</v>
+        <v>8352</v>
       </c>
       <c r="K87">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H87,"")</f>
-        <v>4277</v>
+        <v>4429.75</v>
       </c>
       <c r="L87">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H87,"")</f>
-        <v>4012.4000000000005</v>
+        <v>4779.727272727273</v>
       </c>
       <c r="M87">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H87,"")</f>
-        <v>6126.4000000000005</v>
+        <v>6345.2000000000007</v>
       </c>
       <c r="N87">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H87,"")</f>
-        <v>6692</v>
+        <v>6931</v>
       </c>
       <c r="O87">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H87,"")</f>
-        <v>4872</v>
+        <v>5046</v>
       </c>
       <c r="P87">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F87,"")</f>
@@ -60369,7 +60963,7 @@
       </c>
       <c r="Q87">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D87,"")</f>
-        <v>571</v>
+        <v>952</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
@@ -60585,11 +61179,11 @@
       </c>
       <c r="B91">
         <f>COUNTIF(CSL_Sonuclari!C:J,A91)</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C91" s="5">
         <f t="shared" si="8"/>
-        <v>4883.1944444444443</v>
+        <v>5348.640151515151</v>
       </c>
       <c r="D91">
         <f>COUNTIF(CSL_Sonuclari!J:J,A91)</f>
@@ -60609,27 +61203,27 @@
       </c>
       <c r="H91">
         <f>COUNTIF(CSL_Sonuclari!C:H,A91)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I91" s="5">
         <f t="shared" si="11"/>
-        <v>6830.2916666666661</v>
+        <v>7528.460227272727</v>
       </c>
       <c r="J91">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H91,"")</f>
-        <v>6255</v>
+        <v>6634.090909090909</v>
       </c>
       <c r="K91">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H91,"")</f>
-        <v>5217</v>
+        <v>6186.25</v>
       </c>
       <c r="L91">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H91,"")</f>
-        <v>7945.6666666666661</v>
+        <v>8911</v>
       </c>
       <c r="M91">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H91,"")</f>
-        <v>7903.5</v>
+        <v>8382.5</v>
       </c>
       <c r="N91" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H91,"")</f>
@@ -60705,7 +61299,7 @@
       </c>
       <c r="B2">
         <f>COUNTIF(SL_Sonuclari!C:H,A2)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="5">
         <f t="shared" ref="C2:C33" si="0">AVERAGE(D2:H2)</f>
@@ -60738,15 +61332,15 @@
       </c>
       <c r="B3">
         <f>COUNTIF(SL_Sonuclari!C:H,A3)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="5">
         <f t="shared" si="0"/>
-        <v>87.283333333333331</v>
+        <v>90.790322580645167</v>
       </c>
       <c r="D3">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A3,SL_Sonuclari!A:A),"")</f>
-        <v>167.56666666666666</v>
+        <v>174.58064516129033</v>
       </c>
       <c r="E3" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A3,SL_Sonuclari!A:A),"")</f>
@@ -60804,15 +61398,15 @@
       </c>
       <c r="B5">
         <f>COUNTIF(SL_Sonuclari!C:H,A5)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="5">
         <f t="shared" si="0"/>
-        <v>102.90384615384616</v>
+        <v>109.44642857142857</v>
       </c>
       <c r="D5">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A5,SL_Sonuclari!A:A),"")</f>
-        <v>198.80769230769232</v>
+        <v>211.89285714285714</v>
       </c>
       <c r="E5" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A5,SL_Sonuclari!A:A),"")</f>
@@ -60870,15 +61464,15 @@
       </c>
       <c r="B7">
         <f>COUNTIF(SL_Sonuclari!C:H,A7)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="5">
         <f t="shared" si="0"/>
-        <v>159.65796703296704</v>
+        <v>162.92106227106228</v>
       </c>
       <c r="D7">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A7,SL_Sonuclari!A:A),"")</f>
-        <v>184.21428571428572</v>
+        <v>197.26666666666668</v>
       </c>
       <c r="E7">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A7,SL_Sonuclari!A:A),"")</f>
@@ -60936,19 +61530,19 @@
       </c>
       <c r="B9">
         <f>COUNTIF(SL_Sonuclari!C:H,A9)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>134.78869047619048</v>
+        <v>140.61666666666667</v>
       </c>
       <c r="D9">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A9,SL_Sonuclari!A:A),"")</f>
-        <v>178.25</v>
+        <v>190</v>
       </c>
       <c r="E9">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A9,SL_Sonuclari!A:A),"")</f>
-        <v>210.57142857142858</v>
+        <v>222.13333333333333</v>
       </c>
       <c r="F9">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A9,SL_Sonuclari!A:A),"")</f>
@@ -60969,11 +61563,11 @@
       </c>
       <c r="B10">
         <f>COUNTIF(SL_Sonuclari!C:H,A10)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" si="0"/>
-        <v>183.64209401709402</v>
+        <v>189.86153846153846</v>
       </c>
       <c r="D10" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A10,SL_Sonuclari!A:A),"")</f>
@@ -60981,7 +61575,7 @@
       </c>
       <c r="E10">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A10,SL_Sonuclari!A:A),"")</f>
-        <v>134.22222222222223</v>
+        <v>159.1</v>
       </c>
       <c r="F10">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A10,SL_Sonuclari!A:A),"")</f>
@@ -61002,11 +61596,11 @@
       </c>
       <c r="B11">
         <f>COUNTIF(SL_Sonuclari!C:H,A11)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="0"/>
-        <v>140.4032738095238</v>
+        <v>143.13792293233081</v>
       </c>
       <c r="D11">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A11,SL_Sonuclari!A:A),"")</f>
@@ -61014,7 +61608,7 @@
       </c>
       <c r="E11">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A11,SL_Sonuclari!A:A),"")</f>
-        <v>170.16666666666666</v>
+        <v>181.10526315789474</v>
       </c>
       <c r="F11">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A11,SL_Sonuclari!A:A),"")</f>
@@ -61035,11 +61629,11 @@
       </c>
       <c r="B12">
         <f>COUNTIF(SL_Sonuclari!C:H,A12)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="0"/>
-        <v>141.00624999999999</v>
+        <v>145.62777777777779</v>
       </c>
       <c r="D12">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A12,SL_Sonuclari!A:A),"")</f>
@@ -61047,7 +61641,7 @@
       </c>
       <c r="E12">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A12,SL_Sonuclari!A:A),"")</f>
-        <v>218.625</v>
+        <v>237.11111111111111</v>
       </c>
       <c r="F12">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A12,SL_Sonuclari!A:A),"")</f>
@@ -61068,15 +61662,15 @@
       </c>
       <c r="B13">
         <f>COUNTIF(SL_Sonuclari!C:H,A13)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="0"/>
-        <v>147.00714285714287</v>
+        <v>148.94642857142856</v>
       </c>
       <c r="D13">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A13,SL_Sonuclari!A:A),"")</f>
-        <v>219.1</v>
+        <v>226.85714285714286</v>
       </c>
       <c r="E13">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A13,SL_Sonuclari!A:A),"")</f>
@@ -61134,11 +61728,11 @@
       </c>
       <c r="B15">
         <f>COUNTIF(SL_Sonuclari!C:H,A15)</f>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="0"/>
-        <v>156.51888888888888</v>
+        <v>179.24949494949493</v>
       </c>
       <c r="D15">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A15,SL_Sonuclari!A:A),"")</f>
@@ -61146,7 +61740,7 @@
       </c>
       <c r="E15">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A15,SL_Sonuclari!A:A),"")</f>
-        <v>233.4</v>
+        <v>246.63636363636363</v>
       </c>
       <c r="F15">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A15,SL_Sonuclari!A:A),"")</f>
@@ -61154,7 +61748,7 @@
       </c>
       <c r="G15">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A15,SL_Sonuclari!A:A),"")</f>
-        <v>79.25</v>
+        <v>179.66666666666666</v>
       </c>
       <c r="H15">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A15,SL_Sonuclari!A:A),"")</f>
@@ -61200,19 +61794,19 @@
       </c>
       <c r="B17">
         <f>COUNTIF(SL_Sonuclari!C:H,A17)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="0"/>
-        <v>200.2960372960373</v>
+        <v>206.00952380952381</v>
       </c>
       <c r="D17">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A17,SL_Sonuclari!A:A),"")</f>
-        <v>210.45454545454547</v>
+        <v>224.5</v>
       </c>
       <c r="E17">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A17,SL_Sonuclari!A:A),"")</f>
-        <v>176.69230769230768</v>
+        <v>191.21428571428572</v>
       </c>
       <c r="F17">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A17,SL_Sonuclari!A:A),"")</f>
@@ -61299,11 +61893,11 @@
       </c>
       <c r="B20">
         <f>COUNTIF(SL_Sonuclari!C:H,A20)</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
-        <v>183.17361111111111</v>
+        <v>189.53968253968253</v>
       </c>
       <c r="D20">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A20,SL_Sonuclari!A:A),"")</f>
@@ -61315,7 +61909,7 @@
       </c>
       <c r="F20">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A20,SL_Sonuclari!A:A),"")</f>
-        <v>200.75</v>
+        <v>226.21428571428572</v>
       </c>
       <c r="G20">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A20,SL_Sonuclari!A:A),"")</f>
@@ -61332,11 +61926,11 @@
       </c>
       <c r="B21">
         <f>COUNTIF(SL_Sonuclari!C:H,A21)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="0"/>
-        <v>197.61250000000001</v>
+        <v>200.91704545454544</v>
       </c>
       <c r="D21">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A21,SL_Sonuclari!A:A),"")</f>
@@ -61344,7 +61938,7 @@
       </c>
       <c r="E21">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A21,SL_Sonuclari!A:A),"")</f>
-        <v>235.6</v>
+        <v>248.81818181818181</v>
       </c>
       <c r="F21">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A21,SL_Sonuclari!A:A),"")</f>
@@ -61398,11 +61992,11 @@
       </c>
       <c r="B23">
         <f>COUNTIF(SL_Sonuclari!C:H,A23)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
-        <v>181.36160714285714</v>
+        <v>186.70882936507937</v>
       </c>
       <c r="D23" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A23,SL_Sonuclari!A:A),"")</f>
@@ -61422,7 +62016,7 @@
       </c>
       <c r="H23">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A23,SL_Sonuclari!A:A),"")</f>
-        <v>187.5</v>
+        <v>208.88888888888889</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -61431,11 +62025,11 @@
       </c>
       <c r="B24">
         <f>COUNTIF(SL_Sonuclari!C:H,A24)</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C24" s="5">
         <f t="shared" si="0"/>
-        <v>172.91666666666666</v>
+        <v>181.35470085470084</v>
       </c>
       <c r="D24" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A24,SL_Sonuclari!A:A),"")</f>
@@ -61451,11 +62045,11 @@
       </c>
       <c r="G24">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A24,SL_Sonuclari!A:A),"")</f>
-        <v>205.5</v>
+        <v>217.33333333333334</v>
       </c>
       <c r="H24">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A24,SL_Sonuclari!A:A),"")</f>
-        <v>205.75</v>
+        <v>219.23076923076923</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -61464,11 +62058,11 @@
       </c>
       <c r="B25">
         <f>COUNTIF(SL_Sonuclari!C:H,A25)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" s="5">
         <f t="shared" si="0"/>
-        <v>164.47916666666666</v>
+        <v>171.13541666666666</v>
       </c>
       <c r="D25" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A25,SL_Sonuclari!A:A),"")</f>
@@ -61488,7 +62082,7 @@
       </c>
       <c r="H25">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A25,SL_Sonuclari!A:A),"")</f>
-        <v>169</v>
+        <v>195.625</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -61530,11 +62124,11 @@
       </c>
       <c r="B27">
         <f>COUNTIF(SL_Sonuclari!C:H,A27)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C27" s="5">
         <f t="shared" si="0"/>
-        <v>142.71428571428572</v>
+        <v>154.5625</v>
       </c>
       <c r="D27" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A27,SL_Sonuclari!A:A),"")</f>
@@ -61554,7 +62148,7 @@
       </c>
       <c r="H27">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A27,SL_Sonuclari!A:A),"")</f>
-        <v>195.42857142857142</v>
+        <v>219.125</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -61629,11 +62223,11 @@
       </c>
       <c r="B30">
         <f>COUNTIF(SL_Sonuclari!C:H,A30)</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C30" s="5">
         <f t="shared" si="0"/>
-        <v>168.30666666666667</v>
+        <v>175.65757575757576</v>
       </c>
       <c r="D30">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A30,SL_Sonuclari!A:A),"")</f>
@@ -61645,11 +62239,11 @@
       </c>
       <c r="F30">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A30,SL_Sonuclari!A:A),"")</f>
-        <v>181.1</v>
+        <v>199.45454545454547</v>
       </c>
       <c r="G30">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A30,SL_Sonuclari!A:A),"")</f>
-        <v>271.10000000000002</v>
+        <v>289.5</v>
       </c>
       <c r="H30">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A30,SL_Sonuclari!A:A),"")</f>
@@ -61695,7 +62289,7 @@
       </c>
       <c r="B32">
         <f>COUNTIF(SL_Sonuclari!C:H,A32)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C32" s="5">
         <f t="shared" si="0"/>
@@ -61794,11 +62388,11 @@
       </c>
       <c r="B35">
         <f>COUNTIF(SL_Sonuclari!C:H,A35)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C35" s="5">
         <f t="shared" si="1"/>
-        <v>194.9111111111111</v>
+        <v>198.9020202020202</v>
       </c>
       <c r="D35">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A35,SL_Sonuclari!A:A),"")</f>
@@ -61810,7 +62404,7 @@
       </c>
       <c r="F35">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A35,SL_Sonuclari!A:A),"")</f>
-        <v>162.5</v>
+        <v>182.45454545454547</v>
       </c>
       <c r="G35">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A35,SL_Sonuclari!A:A),"")</f>
@@ -61827,11 +62421,11 @@
       </c>
       <c r="B36">
         <f>COUNTIF(SL_Sonuclari!C:H,A36)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C36" s="5">
         <f t="shared" si="1"/>
-        <v>172.19444444444446</v>
+        <v>176.89743589743588</v>
       </c>
       <c r="D36" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A36,SL_Sonuclari!A:A),"")</f>
@@ -61851,7 +62445,7 @@
       </c>
       <c r="H36">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A36,SL_Sonuclari!A:A),"")</f>
-        <v>199.58333333333334</v>
+        <v>213.69230769230768</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -61860,15 +62454,15 @@
       </c>
       <c r="B37">
         <f>COUNTIF(SL_Sonuclari!C:H,A37)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C37" s="5">
         <f t="shared" si="1"/>
-        <v>173.8267195767196</v>
+        <v>175.88095238095238</v>
       </c>
       <c r="D37">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A37,SL_Sonuclari!A:A),"")</f>
-        <v>211.44444444444446</v>
+        <v>217.60714285714286</v>
       </c>
       <c r="E37">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A37,SL_Sonuclari!A:A),"")</f>
@@ -61959,11 +62553,11 @@
       </c>
       <c r="B40">
         <f>COUNTIF(SL_Sonuclari!C:H,A40)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C40" s="5">
         <f t="shared" si="1"/>
-        <v>196.57291666666666</v>
+        <v>199.55269607843135</v>
       </c>
       <c r="D40" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A40,SL_Sonuclari!A:A),"")</f>
@@ -61979,7 +62573,7 @@
       </c>
       <c r="G40">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A40,SL_Sonuclari!A:A),"")</f>
-        <v>182.375</v>
+        <v>194.29411764705881</v>
       </c>
       <c r="H40">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A40,SL_Sonuclari!A:A),"")</f>
@@ -61992,11 +62586,11 @@
       </c>
       <c r="B41">
         <f>COUNTIF(SL_Sonuclari!C:H,A41)</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C41" s="5">
         <f t="shared" si="1"/>
-        <v>184.82676862611075</v>
+        <v>187.05308441558444</v>
       </c>
       <c r="D41" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A41,SL_Sonuclari!A:A),"")</f>
@@ -62012,7 +62606,7 @@
       </c>
       <c r="G41">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A41,SL_Sonuclari!A:A),"")</f>
-        <v>203.89473684210526</v>
+        <v>212.8</v>
       </c>
       <c r="H41">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A41,SL_Sonuclari!A:A),"")</f>
@@ -62025,7 +62619,7 @@
       </c>
       <c r="B42">
         <f>COUNTIF(SL_Sonuclari!C:H,A42)</f>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C42" s="5">
         <f t="shared" si="1"/>
@@ -62190,11 +62784,11 @@
       </c>
       <c r="B47">
         <f>COUNTIF(SL_Sonuclari!C:H,A47)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C47" s="5">
         <f t="shared" si="1"/>
-        <v>205.70874183006532</v>
+        <v>210.67818627450981</v>
       </c>
       <c r="D47">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A47,SL_Sonuclari!A:A),"")</f>
@@ -62206,7 +62800,7 @@
       </c>
       <c r="F47">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A47,SL_Sonuclari!A:A),"")</f>
-        <v>182.22222222222223</v>
+        <v>202.1</v>
       </c>
       <c r="G47">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A47,SL_Sonuclari!A:A),"")</f>
@@ -62223,11 +62817,11 @@
       </c>
       <c r="B48">
         <f>COUNTIF(SL_Sonuclari!C:H,A48)</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C48" s="5">
         <f t="shared" si="1"/>
-        <v>200.63299663299662</v>
+        <v>216.99410774410774</v>
       </c>
       <c r="D48">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A48,SL_Sonuclari!A:A),"")</f>
@@ -62239,7 +62833,7 @@
       </c>
       <c r="F48">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A48,SL_Sonuclari!A:A),"")</f>
-        <v>187.66666666666666</v>
+        <v>236.75</v>
       </c>
       <c r="G48" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A48,SL_Sonuclari!A:A),"")</f>
@@ -62256,11 +62850,11 @@
       </c>
       <c r="B49">
         <f>COUNTIF(SL_Sonuclari!C:H,A49)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C49" s="5">
         <f t="shared" si="1"/>
-        <v>189.43809523809526</v>
+        <v>191.99835164835164</v>
       </c>
       <c r="D49">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A49,SL_Sonuclari!A:A),"")</f>
@@ -62272,7 +62866,7 @@
       </c>
       <c r="F49">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A49,SL_Sonuclari!A:A),"")</f>
-        <v>212.58333333333334</v>
+        <v>225.38461538461539</v>
       </c>
       <c r="G49">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A49,SL_Sonuclari!A:A),"")</f>
@@ -62289,11 +62883,11 @@
       </c>
       <c r="B50">
         <f>COUNTIF(SL_Sonuclari!C:H,A50)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C50" s="5">
         <f t="shared" si="1"/>
-        <v>205.58181818181819</v>
+        <v>208.44335664335668</v>
       </c>
       <c r="D50">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A50,SL_Sonuclari!A:A),"")</f>
@@ -62301,7 +62895,7 @@
       </c>
       <c r="E50">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A50,SL_Sonuclari!A:A),"")</f>
-        <v>196</v>
+        <v>210.30769230769232</v>
       </c>
       <c r="F50">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A50,SL_Sonuclari!A:A),"")</f>
@@ -62355,11 +62949,11 @@
       </c>
       <c r="B52">
         <f>COUNTIF(SL_Sonuclari!C:H,A52)</f>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C52" s="5">
         <f t="shared" si="1"/>
-        <v>202.95</v>
+        <v>208.6875</v>
       </c>
       <c r="D52" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A52,SL_Sonuclari!A:A),"")</f>
@@ -62375,11 +62969,11 @@
       </c>
       <c r="G52">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A52,SL_Sonuclari!A:A),"")</f>
-        <v>213.06666666666666</v>
+        <v>223.375</v>
       </c>
       <c r="H52">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A52,SL_Sonuclari!A:A),"")</f>
-        <v>176.73333333333332</v>
+        <v>189.375</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -62454,11 +63048,11 @@
       </c>
       <c r="B55">
         <f>COUNTIF(SL_Sonuclari!C:H,A55)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C55" s="5">
         <f t="shared" si="1"/>
-        <v>206.9482456140351</v>
+        <v>211.79824561403512</v>
       </c>
       <c r="D55">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A55,SL_Sonuclari!A:A),"")</f>
@@ -62478,7 +63072,7 @@
       </c>
       <c r="H55">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A55,SL_Sonuclari!A:A),"")</f>
-        <v>262.75</v>
+        <v>287</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -62487,11 +63081,11 @@
       </c>
       <c r="B56">
         <f>COUNTIF(SL_Sonuclari!C:H,A56)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C56" s="5">
         <f t="shared" si="1"/>
-        <v>224.97676767676768</v>
+        <v>227.57449494949492</v>
       </c>
       <c r="D56">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A56,SL_Sonuclari!A:A),"")</f>
@@ -62503,7 +63097,7 @@
       </c>
       <c r="F56">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A56,SL_Sonuclari!A:A),"")</f>
-        <v>270.7</v>
+        <v>281.09090909090907</v>
       </c>
       <c r="G56">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A56,SL_Sonuclari!A:A),"")</f>
@@ -62520,7 +63114,7 @@
       </c>
       <c r="B57">
         <f>COUNTIF(SL_Sonuclari!C:H,A57)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C57" s="5">
         <f t="shared" si="1"/>
@@ -62548,7 +63142,7 @@
       </c>
       <c r="I57">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!H:H,A57,SL_Sonuclari!A:A),"")</f>
-        <v>158.33333333333334</v>
+        <v>172.25</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -62557,7 +63151,7 @@
       </c>
       <c r="B58">
         <f>COUNTIF(SL_Sonuclari!C:H,A58)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58" s="5">
         <f t="shared" si="1"/>
@@ -62623,11 +63217,11 @@
       </c>
       <c r="B60">
         <f>COUNTIF(SL_Sonuclari!C:H,A60)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C60" s="5">
         <f t="shared" si="1"/>
-        <v>215.54999999999998</v>
+        <v>221.85606060606059</v>
       </c>
       <c r="D60" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A60,SL_Sonuclari!A:A),"")</f>
@@ -62647,7 +63241,7 @@
       </c>
       <c r="H60">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A60,SL_Sonuclari!A:A),"")</f>
-        <v>169.9</v>
+        <v>188.81818181818181</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">

--- a/SLIStatistik.xlsx
+++ b/SLIStatistik.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\ReadExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FE5A76-8B51-43BA-8923-2BD2D997780E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67529EA5-42CE-4A2E-B015-D69487EB3DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="2970" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12765" windowHeight="15600" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
   </bookViews>
   <sheets>
     <sheet name="CSL_Sonuclari" sheetId="2" r:id="rId1"/>
@@ -604,7 +604,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -612,13 +612,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21120D27-1448-4179-993C-6B3BE739480A}">
-  <dimension ref="A1:L387"/>
+  <dimension ref="A1:L398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B372" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B366" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A388" sqref="A388"/>
+      <selection pane="bottomRight" activeCell="A399" sqref="A399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12423,6 +12423,358 @@
         <v>3</v>
       </c>
     </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A388" s="2">
+        <v>386</v>
+      </c>
+      <c r="B388" s="1">
+        <v>44951</v>
+      </c>
+      <c r="C388" s="2">
+        <v>26</v>
+      </c>
+      <c r="D388" s="2">
+        <v>29</v>
+      </c>
+      <c r="E388" s="2">
+        <v>40</v>
+      </c>
+      <c r="F388" s="2">
+        <v>63</v>
+      </c>
+      <c r="G388" s="2">
+        <v>70</v>
+      </c>
+      <c r="H388" s="2">
+        <v>88</v>
+      </c>
+      <c r="I388" s="2">
+        <v>72</v>
+      </c>
+      <c r="J388" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A389" s="2">
+        <v>387</v>
+      </c>
+      <c r="B389" s="1">
+        <v>44954</v>
+      </c>
+      <c r="C389" s="2">
+        <v>7</v>
+      </c>
+      <c r="D389" s="2">
+        <v>11</v>
+      </c>
+      <c r="E389" s="2">
+        <v>29</v>
+      </c>
+      <c r="F389" s="2">
+        <v>44</v>
+      </c>
+      <c r="G389" s="2">
+        <v>45</v>
+      </c>
+      <c r="H389" s="2">
+        <v>84</v>
+      </c>
+      <c r="I389" s="2">
+        <v>51</v>
+      </c>
+      <c r="J389" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A390" s="2">
+        <v>388</v>
+      </c>
+      <c r="B390" s="1">
+        <v>44956</v>
+      </c>
+      <c r="C390" s="2">
+        <v>7</v>
+      </c>
+      <c r="D390" s="2">
+        <v>61</v>
+      </c>
+      <c r="E390" s="2">
+        <v>63</v>
+      </c>
+      <c r="F390" s="2">
+        <v>75</v>
+      </c>
+      <c r="G390" s="2">
+        <v>83</v>
+      </c>
+      <c r="H390" s="2">
+        <v>89</v>
+      </c>
+      <c r="I390" s="2">
+        <v>71</v>
+      </c>
+      <c r="J390" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A391" s="2">
+        <v>289</v>
+      </c>
+      <c r="B391" s="1">
+        <v>44958</v>
+      </c>
+      <c r="C391" s="2">
+        <v>12</v>
+      </c>
+      <c r="D391" s="2">
+        <v>13</v>
+      </c>
+      <c r="E391" s="2">
+        <v>79</v>
+      </c>
+      <c r="F391" s="2">
+        <v>87</v>
+      </c>
+      <c r="G391" s="2">
+        <v>88</v>
+      </c>
+      <c r="H391" s="2">
+        <v>89</v>
+      </c>
+      <c r="I391" s="2">
+        <v>29</v>
+      </c>
+      <c r="J391" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A392" s="2">
+        <v>290</v>
+      </c>
+      <c r="B392" s="1">
+        <v>44961</v>
+      </c>
+      <c r="C392" s="2">
+        <v>25</v>
+      </c>
+      <c r="D392" s="2">
+        <v>31</v>
+      </c>
+      <c r="E392" s="2">
+        <v>37</v>
+      </c>
+      <c r="F392" s="2">
+        <v>38</v>
+      </c>
+      <c r="G392" s="2">
+        <v>56</v>
+      </c>
+      <c r="H392" s="2">
+        <v>85</v>
+      </c>
+      <c r="I392" s="2">
+        <v>29</v>
+      </c>
+      <c r="J392" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A393" s="2">
+        <v>291</v>
+      </c>
+      <c r="B393" s="1">
+        <v>44963</v>
+      </c>
+      <c r="C393" s="2">
+        <v>12</v>
+      </c>
+      <c r="D393" s="2">
+        <v>30</v>
+      </c>
+      <c r="E393" s="2">
+        <v>48</v>
+      </c>
+      <c r="F393" s="2">
+        <v>52</v>
+      </c>
+      <c r="G393" s="2">
+        <v>61</v>
+      </c>
+      <c r="H393" s="2">
+        <v>82</v>
+      </c>
+      <c r="I393" s="2">
+        <v>55</v>
+      </c>
+      <c r="J393" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A394" s="2">
+        <v>292</v>
+      </c>
+      <c r="B394" s="1">
+        <v>44965</v>
+      </c>
+      <c r="C394" s="2">
+        <v>5</v>
+      </c>
+      <c r="D394" s="2">
+        <v>6</v>
+      </c>
+      <c r="E394" s="2">
+        <v>21</v>
+      </c>
+      <c r="F394" s="2">
+        <v>44</v>
+      </c>
+      <c r="G394" s="2">
+        <v>71</v>
+      </c>
+      <c r="H394" s="2">
+        <v>79</v>
+      </c>
+      <c r="I394" s="2">
+        <v>43</v>
+      </c>
+      <c r="J394" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A395" s="2">
+        <v>293</v>
+      </c>
+      <c r="B395" s="1">
+        <v>44968</v>
+      </c>
+      <c r="C395" s="2">
+        <v>6</v>
+      </c>
+      <c r="D395" s="2">
+        <v>11</v>
+      </c>
+      <c r="E395" s="2">
+        <v>16</v>
+      </c>
+      <c r="F395" s="2">
+        <v>46</v>
+      </c>
+      <c r="G395" s="2">
+        <v>59</v>
+      </c>
+      <c r="H395" s="2">
+        <v>69</v>
+      </c>
+      <c r="I395" s="2">
+        <v>25</v>
+      </c>
+      <c r="J395" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A396" s="2">
+        <v>294</v>
+      </c>
+      <c r="B396" s="1">
+        <v>44970</v>
+      </c>
+      <c r="C396" s="2">
+        <v>4</v>
+      </c>
+      <c r="D396" s="2">
+        <v>7</v>
+      </c>
+      <c r="E396" s="2">
+        <v>23</v>
+      </c>
+      <c r="F396" s="2">
+        <v>37</v>
+      </c>
+      <c r="G396" s="2">
+        <v>40</v>
+      </c>
+      <c r="H396" s="2">
+        <v>50</v>
+      </c>
+      <c r="I396" s="2">
+        <v>75</v>
+      </c>
+      <c r="J396" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A397" s="2">
+        <v>295</v>
+      </c>
+      <c r="B397" s="1">
+        <v>44972</v>
+      </c>
+      <c r="C397" s="2">
+        <v>11</v>
+      </c>
+      <c r="D397" s="2">
+        <v>32</v>
+      </c>
+      <c r="E397" s="2">
+        <v>59</v>
+      </c>
+      <c r="F397" s="2">
+        <v>60</v>
+      </c>
+      <c r="G397" s="2">
+        <v>67</v>
+      </c>
+      <c r="H397" s="2">
+        <v>85</v>
+      </c>
+      <c r="I397" s="2">
+        <v>26</v>
+      </c>
+      <c r="J397" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A398" s="2">
+        <v>296</v>
+      </c>
+      <c r="B398" s="1">
+        <v>44975</v>
+      </c>
+      <c r="C398" s="2">
+        <v>20</v>
+      </c>
+      <c r="D398" s="2">
+        <v>23</v>
+      </c>
+      <c r="E398" s="2">
+        <v>40</v>
+      </c>
+      <c r="F398" s="2">
+        <v>60</v>
+      </c>
+      <c r="G398" s="2">
+        <v>83</v>
+      </c>
+      <c r="H398" s="2">
+        <v>85</v>
+      </c>
+      <c r="I398" s="2">
+        <v>64</v>
+      </c>
+      <c r="J398" s="2">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J311">
     <sortCondition ref="B2:B311"/>
@@ -12434,10 +12786,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8BCBFC-83B0-4863-9D9A-FF955DDDA58C}">
-  <dimension ref="A1:H387"/>
+  <dimension ref="A1:H398"/>
   <sheetViews>
     <sheetView topLeftCell="A367" workbookViewId="0">
-      <selection activeCell="B388" sqref="B388"/>
+      <selection activeCell="A399" sqref="A399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22507,6 +22859,292 @@
         <v>59</v>
       </c>
     </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>386</v>
+      </c>
+      <c r="B388" s="1">
+        <v>44952</v>
+      </c>
+      <c r="C388">
+        <v>3</v>
+      </c>
+      <c r="D388">
+        <v>5</v>
+      </c>
+      <c r="E388">
+        <v>8</v>
+      </c>
+      <c r="F388">
+        <v>50</v>
+      </c>
+      <c r="G388">
+        <v>52</v>
+      </c>
+      <c r="H388">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>387</v>
+      </c>
+      <c r="B389" s="1">
+        <v>44955</v>
+      </c>
+      <c r="C389">
+        <v>7</v>
+      </c>
+      <c r="D389">
+        <v>9</v>
+      </c>
+      <c r="E389">
+        <v>10</v>
+      </c>
+      <c r="F389">
+        <v>14</v>
+      </c>
+      <c r="G389">
+        <v>35</v>
+      </c>
+      <c r="H389">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>388</v>
+      </c>
+      <c r="B390" s="1">
+        <v>44957</v>
+      </c>
+      <c r="C390">
+        <v>20</v>
+      </c>
+      <c r="D390">
+        <v>34</v>
+      </c>
+      <c r="E390">
+        <v>42</v>
+      </c>
+      <c r="F390">
+        <v>44</v>
+      </c>
+      <c r="G390">
+        <v>47</v>
+      </c>
+      <c r="H390">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>389</v>
+      </c>
+      <c r="B391" s="1">
+        <v>44959</v>
+      </c>
+      <c r="C391">
+        <v>20</v>
+      </c>
+      <c r="D391">
+        <v>21</v>
+      </c>
+      <c r="E391">
+        <v>32</v>
+      </c>
+      <c r="F391">
+        <v>39</v>
+      </c>
+      <c r="G391">
+        <v>46</v>
+      </c>
+      <c r="H391">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>390</v>
+      </c>
+      <c r="B392" s="1">
+        <v>44962</v>
+      </c>
+      <c r="C392">
+        <v>6</v>
+      </c>
+      <c r="D392">
+        <v>28</v>
+      </c>
+      <c r="E392">
+        <v>30</v>
+      </c>
+      <c r="F392">
+        <v>37</v>
+      </c>
+      <c r="G392">
+        <v>38</v>
+      </c>
+      <c r="H392">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>391</v>
+      </c>
+      <c r="B393" s="1">
+        <v>44964</v>
+      </c>
+      <c r="C393">
+        <v>2</v>
+      </c>
+      <c r="D393">
+        <v>9</v>
+      </c>
+      <c r="E393">
+        <v>21</v>
+      </c>
+      <c r="F393">
+        <v>34</v>
+      </c>
+      <c r="G393">
+        <v>43</v>
+      </c>
+      <c r="H393">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>392</v>
+      </c>
+      <c r="B394" s="1">
+        <v>44966</v>
+      </c>
+      <c r="C394">
+        <v>2</v>
+      </c>
+      <c r="D394">
+        <v>28</v>
+      </c>
+      <c r="E394">
+        <v>49</v>
+      </c>
+      <c r="F394">
+        <v>51</v>
+      </c>
+      <c r="G394">
+        <v>56</v>
+      </c>
+      <c r="H394">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>393</v>
+      </c>
+      <c r="B395" s="1">
+        <v>44969</v>
+      </c>
+      <c r="C395">
+        <v>18</v>
+      </c>
+      <c r="D395">
+        <v>23</v>
+      </c>
+      <c r="E395">
+        <v>25</v>
+      </c>
+      <c r="F395">
+        <v>30</v>
+      </c>
+      <c r="G395">
+        <v>46</v>
+      </c>
+      <c r="H395">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>394</v>
+      </c>
+      <c r="B396" s="1">
+        <v>44971</v>
+      </c>
+      <c r="C396">
+        <v>3</v>
+      </c>
+      <c r="D396">
+        <v>6</v>
+      </c>
+      <c r="E396">
+        <v>19</v>
+      </c>
+      <c r="F396">
+        <v>24</v>
+      </c>
+      <c r="G396">
+        <v>40</v>
+      </c>
+      <c r="H396">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>395</v>
+      </c>
+      <c r="B397" s="1">
+        <v>44973</v>
+      </c>
+      <c r="C397">
+        <v>3</v>
+      </c>
+      <c r="D397">
+        <v>17</v>
+      </c>
+      <c r="E397">
+        <v>38</v>
+      </c>
+      <c r="F397">
+        <v>44</v>
+      </c>
+      <c r="G397">
+        <v>45</v>
+      </c>
+      <c r="H397">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>396</v>
+      </c>
+      <c r="B398" s="1">
+        <v>44976</v>
+      </c>
+      <c r="C398">
+        <v>1</v>
+      </c>
+      <c r="D398">
+        <v>18</v>
+      </c>
+      <c r="E398">
+        <v>22</v>
+      </c>
+      <c r="F398">
+        <v>53</v>
+      </c>
+      <c r="G398">
+        <v>56</v>
+      </c>
+      <c r="H398">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H311">
     <sortCondition ref="B2:B311"/>
@@ -22517,10 +23155,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4513EEF-0F11-4AC5-A4C7-CB00A18EA83B}">
-  <dimension ref="A1:H1247"/>
+  <dimension ref="A1:H1255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1225" workbookViewId="0">
-      <selection activeCell="A1248" sqref="A1248"/>
+    <sheetView tabSelected="1" topLeftCell="A1237" workbookViewId="0">
+      <selection activeCell="A1256" sqref="A1256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54948,6 +55586,214 @@
       </c>
       <c r="H1247">
         <v>6</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1248">
+        <v>1247</v>
+      </c>
+      <c r="B1248" s="1">
+        <v>44951</v>
+      </c>
+      <c r="C1248">
+        <v>4</v>
+      </c>
+      <c r="D1248">
+        <v>6</v>
+      </c>
+      <c r="E1248">
+        <v>12</v>
+      </c>
+      <c r="F1248">
+        <v>16</v>
+      </c>
+      <c r="G1248">
+        <v>33</v>
+      </c>
+      <c r="H1248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1249">
+        <v>1248</v>
+      </c>
+      <c r="B1249" s="1">
+        <v>44955</v>
+      </c>
+      <c r="C1249">
+        <v>9</v>
+      </c>
+      <c r="D1249">
+        <v>12</v>
+      </c>
+      <c r="E1249">
+        <v>14</v>
+      </c>
+      <c r="F1249">
+        <v>23</v>
+      </c>
+      <c r="G1249">
+        <v>27</v>
+      </c>
+      <c r="H1249">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1250">
+        <v>1249</v>
+      </c>
+      <c r="B1250" s="1">
+        <v>44958</v>
+      </c>
+      <c r="C1250">
+        <v>1</v>
+      </c>
+      <c r="D1250">
+        <v>4</v>
+      </c>
+      <c r="E1250">
+        <v>7</v>
+      </c>
+      <c r="F1250">
+        <v>22</v>
+      </c>
+      <c r="G1250">
+        <v>27</v>
+      </c>
+      <c r="H1250">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1251">
+        <v>1250</v>
+      </c>
+      <c r="B1251" s="1">
+        <v>44962</v>
+      </c>
+      <c r="C1251">
+        <v>18</v>
+      </c>
+      <c r="D1251">
+        <v>19</v>
+      </c>
+      <c r="E1251">
+        <v>22</v>
+      </c>
+      <c r="F1251">
+        <v>32</v>
+      </c>
+      <c r="G1251">
+        <v>33</v>
+      </c>
+      <c r="H1251">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1252">
+        <v>1251</v>
+      </c>
+      <c r="B1252" s="1">
+        <v>44965</v>
+      </c>
+      <c r="C1252">
+        <v>3</v>
+      </c>
+      <c r="D1252">
+        <v>5</v>
+      </c>
+      <c r="E1252">
+        <v>9</v>
+      </c>
+      <c r="F1252">
+        <v>10</v>
+      </c>
+      <c r="G1252">
+        <v>29</v>
+      </c>
+      <c r="H1252">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1253">
+        <v>1252</v>
+      </c>
+      <c r="B1253" s="1">
+        <v>44969</v>
+      </c>
+      <c r="C1253">
+        <v>3</v>
+      </c>
+      <c r="D1253">
+        <v>11</v>
+      </c>
+      <c r="E1253">
+        <v>23</v>
+      </c>
+      <c r="F1253">
+        <v>24</v>
+      </c>
+      <c r="G1253">
+        <v>34</v>
+      </c>
+      <c r="H1253">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1254">
+        <v>1253</v>
+      </c>
+      <c r="B1254" s="1">
+        <v>44972</v>
+      </c>
+      <c r="C1254">
+        <v>6</v>
+      </c>
+      <c r="D1254">
+        <v>19</v>
+      </c>
+      <c r="E1254">
+        <v>21</v>
+      </c>
+      <c r="F1254">
+        <v>25</v>
+      </c>
+      <c r="G1254">
+        <v>32</v>
+      </c>
+      <c r="H1254">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1255">
+        <v>1254</v>
+      </c>
+      <c r="B1255" s="1">
+        <v>44976</v>
+      </c>
+      <c r="C1255">
+        <v>7</v>
+      </c>
+      <c r="D1255">
+        <v>21</v>
+      </c>
+      <c r="E1255">
+        <v>25</v>
+      </c>
+      <c r="F1255">
+        <v>27</v>
+      </c>
+      <c r="G1255">
+        <v>33</v>
+      </c>
+      <c r="H1255">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -55038,19 +55884,19 @@
       </c>
       <c r="B2">
         <f>COUNTIF(CSL_Sonuclari!C:J,A2)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" s="5">
         <f t="shared" ref="C2:C33" si="0">AVERAGE(J2:Q2)</f>
-        <v>1863.3214285714287</v>
+        <v>2154.8869047619046</v>
       </c>
       <c r="D2">
         <f>COUNTIF(CSL_Sonuclari!J:J,A2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:E33" si="1">IF(Q2&lt;&gt;"",Q2,0)</f>
-        <v>291</v>
+        <v>582</v>
       </c>
       <c r="F2" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A2)</f>
@@ -55062,31 +55908,31 @@
       </c>
       <c r="H2">
         <f>COUNTIF(CSL_Sonuclari!C:H,A2)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" s="5">
         <f t="shared" ref="I2:I33" si="3">AVERAGE(J2:O2)</f>
-        <v>2526.4499999999998</v>
+        <v>2876.4416666666666</v>
       </c>
       <c r="J2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H2,"")</f>
-        <v>2496</v>
+        <v>2634.6666666666665</v>
       </c>
       <c r="K2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H2,"")</f>
-        <v>2259</v>
+        <v>3432.6666666666665</v>
       </c>
       <c r="L2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H2,"")</f>
-        <v>3449.25</v>
+        <v>3640.875</v>
       </c>
       <c r="M2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H2,"")</f>
-        <v>3618</v>
+        <v>3819</v>
       </c>
       <c r="N2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H2,"")</f>
-        <v>810</v>
+        <v>855</v>
       </c>
       <c r="O2" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H2,"")</f>
@@ -55098,7 +55944,7 @@
       </c>
       <c r="Q2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D2,"")</f>
-        <v>291</v>
+        <v>582</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -55107,11 +55953,11 @@
       </c>
       <c r="B3">
         <f>COUNTIF(CSL_Sonuclari!C:J,A3)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="5">
         <f t="shared" si="0"/>
-        <v>3126.5</v>
+        <v>3174.875</v>
       </c>
       <c r="D3">
         <f>COUNTIF(CSL_Sonuclari!J:J,A3)</f>
@@ -55123,11 +55969,11 @@
       </c>
       <c r="F3" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A3)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" s="8">
         <f t="shared" si="2"/>
-        <v>708</v>
+        <v>1095</v>
       </c>
       <c r="H3">
         <f>COUNTIF(CSL_Sonuclari!C:H,A3)</f>
@@ -55163,7 +56009,7 @@
       </c>
       <c r="P3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F3,"")</f>
-        <v>708</v>
+        <v>1095</v>
       </c>
       <c r="Q3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D3,"")</f>
@@ -55245,19 +56091,19 @@
       </c>
       <c r="B5">
         <f>COUNTIF(CSL_Sonuclari!C:J,A5)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" s="5">
         <f t="shared" si="0"/>
-        <v>2486.6990740740744</v>
+        <v>2721.8333333333335</v>
       </c>
       <c r="D5">
         <f>COUNTIF(CSL_Sonuclari!J:J,A5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" si="1"/>
-        <v>631</v>
+        <v>926</v>
       </c>
       <c r="F5" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A5)</f>
@@ -55269,11 +56115,11 @@
       </c>
       <c r="H5">
         <f>COUNTIF(CSL_Sonuclari!C:H,A5)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I5" s="5">
         <f t="shared" si="3"/>
-        <v>3271.2986111111113</v>
+        <v>3550.25</v>
       </c>
       <c r="J5" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H5,"")</f>
@@ -55285,19 +56131,19 @@
       </c>
       <c r="L5">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H5,"")</f>
-        <v>4674</v>
+        <v>4920</v>
       </c>
       <c r="M5">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H5,"")</f>
-        <v>2284.75</v>
+        <v>2405</v>
       </c>
       <c r="N5">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H5,"")</f>
-        <v>3276.4444444444448</v>
+        <v>3876</v>
       </c>
       <c r="O5">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H5,"")</f>
-        <v>2850</v>
+        <v>3000</v>
       </c>
       <c r="P5">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F5,"")</f>
@@ -55305,7 +56151,7 @@
       </c>
       <c r="Q5">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D5,"")</f>
-        <v>631</v>
+        <v>926</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -55383,19 +56229,19 @@
       </c>
       <c r="B7">
         <f>COUNTIF(CSL_Sonuclari!C:J,A7)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C7" s="5">
         <f t="shared" si="0"/>
-        <v>2903.6785714285711</v>
+        <v>3069.687675070028</v>
       </c>
       <c r="D7">
         <f>COUNTIF(CSL_Sonuclari!J:J,A7)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="1"/>
-        <v>352</v>
+        <v>648</v>
       </c>
       <c r="F7" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A7)</f>
@@ -55407,27 +56253,27 @@
       </c>
       <c r="H7">
         <f>COUNTIF(CSL_Sonuclari!C:H,A7)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I7" s="5">
         <f t="shared" si="3"/>
-        <v>3997.7678571428569</v>
+        <v>4172.7815126050418</v>
       </c>
       <c r="J7">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H7,"")</f>
-        <v>6362.5</v>
+        <v>6677.411764705882</v>
       </c>
       <c r="K7">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H7,"")</f>
-        <v>4978.5714285714284</v>
+        <v>5177.7142857142853</v>
       </c>
       <c r="L7">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H7,"")</f>
-        <v>4625</v>
+        <v>4810</v>
       </c>
       <c r="M7">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H7,"")</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N7" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H7,"")</f>
@@ -55443,7 +56289,7 @@
       </c>
       <c r="Q7">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D7,"")</f>
-        <v>352</v>
+        <v>648</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -55452,19 +56298,19 @@
       </c>
       <c r="B8">
         <f>COUNTIF(CSL_Sonuclari!C:J,A8)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" si="0"/>
-        <v>2497.6214285714286</v>
+        <v>2575.0214285714287</v>
       </c>
       <c r="D8">
         <f>COUNTIF(CSL_Sonuclari!J:J,A8)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="1"/>
-        <v>610</v>
+        <v>997</v>
       </c>
       <c r="F8" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A8)</f>
@@ -55512,7 +56358,7 @@
       </c>
       <c r="Q8">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D8,"")</f>
-        <v>610</v>
+        <v>997</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -55521,11 +56367,11 @@
       </c>
       <c r="B9">
         <f>COUNTIF(CSL_Sonuclari!C:J,A9)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>3050.0291666666667</v>
+        <v>3578.5</v>
       </c>
       <c r="D9">
         <f>COUNTIF(CSL_Sonuclari!J:J,A9)</f>
@@ -55545,11 +56391,11 @@
       </c>
       <c r="H9">
         <f>COUNTIF(CSL_Sonuclari!C:H,A9)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" si="3"/>
-        <v>4129.2937499999998</v>
+        <v>4653.3</v>
       </c>
       <c r="J9" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H9,"")</f>
@@ -55557,23 +56403,23 @@
       </c>
       <c r="K9">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H9,"")</f>
-        <v>4930.5</v>
+        <v>5190</v>
       </c>
       <c r="L9">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H9,"")</f>
-        <v>3099.375</v>
+        <v>3262.5</v>
       </c>
       <c r="M9">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H9,"")</f>
-        <v>3252.7999999999997</v>
+        <v>3424</v>
       </c>
       <c r="N9">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H9,"")</f>
-        <v>5234.5</v>
-      </c>
-      <c r="O9" t="str">
+        <v>5510</v>
+      </c>
+      <c r="O9">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H9,"")</f>
-        <v/>
+        <v>5880</v>
       </c>
       <c r="P9">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F9,"")</f>
@@ -55659,11 +56505,11 @@
       </c>
       <c r="B11">
         <f>COUNTIF(CSL_Sonuclari!C:J,A11)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="0"/>
-        <v>2869.4336734693875</v>
+        <v>2999.5102040816323</v>
       </c>
       <c r="D11">
         <f>COUNTIF(CSL_Sonuclari!J:J,A11)</f>
@@ -55683,31 +56529,31 @@
       </c>
       <c r="H11">
         <f>COUNTIF(CSL_Sonuclari!C:H,A11)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" si="3"/>
-        <v>3902.6071428571427</v>
+        <v>4084.7142857142853</v>
       </c>
       <c r="J11">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H11,"")</f>
-        <v>5267</v>
+        <v>5496</v>
       </c>
       <c r="K11">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H11,"")</f>
-        <v>6193.5714285714284</v>
+        <v>6525</v>
       </c>
       <c r="L11">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H11,"")</f>
-        <v>3179.75</v>
+        <v>3318</v>
       </c>
       <c r="M11">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H11,"")</f>
-        <v>4573.7142857142862</v>
+        <v>4772.5714285714284</v>
       </c>
       <c r="N11">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H11,"")</f>
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="O11" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H11,"")</f>
@@ -55866,11 +56712,11 @@
       </c>
       <c r="B14">
         <f>COUNTIF(CSL_Sonuclari!C:J,A14)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="0"/>
-        <v>3253.7619047619046</v>
+        <v>3645.1714285714288</v>
       </c>
       <c r="D14">
         <f>COUNTIF(CSL_Sonuclari!J:J,A14)</f>
@@ -55890,31 +56736,31 @@
       </c>
       <c r="H14">
         <f>COUNTIF(CSL_Sonuclari!C:H,A14)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" si="3"/>
-        <v>4407.4666666666662</v>
+        <v>4955.4400000000005</v>
       </c>
       <c r="J14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H14,"")</f>
-        <v>7280</v>
+        <v>7644</v>
       </c>
       <c r="K14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H14,"")</f>
-        <v>4773.333333333333</v>
+        <v>5012</v>
       </c>
       <c r="L14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H14,"")</f>
-        <v>3204</v>
+        <v>3364.2</v>
       </c>
       <c r="M14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H14,"")</f>
-        <v>1120</v>
+        <v>2814</v>
       </c>
       <c r="N14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H14,"")</f>
-        <v>5660</v>
+        <v>5943</v>
       </c>
       <c r="O14" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H14,"")</f>
@@ -56004,11 +56850,11 @@
       </c>
       <c r="B16">
         <f>COUNTIF(CSL_Sonuclari!C:J,A16)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
-        <v>2130.8428571428572</v>
+        <v>2250.5666666666671</v>
       </c>
       <c r="D16">
         <f>COUNTIF(CSL_Sonuclari!J:J,A16)</f>
@@ -56028,11 +56874,11 @@
       </c>
       <c r="H16">
         <f>COUNTIF(CSL_Sonuclari!C:H,A16)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I16" s="5">
         <f t="shared" si="3"/>
-        <v>3012.014285714286</v>
+        <v>3191.6000000000004</v>
       </c>
       <c r="J16" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H16,"")</f>
@@ -56044,19 +56890,19 @@
       </c>
       <c r="L16">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H16,"")</f>
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="M16">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H16,"")</f>
-        <v>4922</v>
+        <v>5136</v>
       </c>
       <c r="N16">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H16,"")</f>
-        <v>3114.2000000000003</v>
+        <v>3249.6000000000004</v>
       </c>
       <c r="O16">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H16,"")</f>
-        <v>3896.8571428571427</v>
+        <v>4260.8</v>
       </c>
       <c r="P16">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F16,"")</f>
@@ -56073,11 +56919,11 @@
       </c>
       <c r="B17">
         <f>COUNTIF(CSL_Sonuclari!C:J,A17)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="0"/>
-        <v>3013.7999999999997</v>
+        <v>3262.4888888888891</v>
       </c>
       <c r="D17">
         <f>COUNTIF(CSL_Sonuclari!J:J,A17)</f>
@@ -56097,27 +56943,27 @@
       </c>
       <c r="H17">
         <f>COUNTIF(CSL_Sonuclari!C:H,A17)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I17" s="5">
         <f t="shared" si="3"/>
-        <v>4214.7</v>
+        <v>4587.7333333333336</v>
       </c>
       <c r="J17">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H17,"")</f>
-        <v>4137</v>
+        <v>4334</v>
       </c>
       <c r="K17">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H17,"")</f>
-        <v>5035.8</v>
+        <v>5275.6</v>
       </c>
       <c r="L17">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H17,"")</f>
-        <v>4179</v>
+        <v>5067.3333333333339</v>
       </c>
       <c r="M17">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H17,"")</f>
-        <v>3507</v>
+        <v>3674</v>
       </c>
       <c r="N17" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H17,"")</f>
@@ -56142,11 +56988,11 @@
       </c>
       <c r="B18">
         <f>COUNTIF(CSL_Sonuclari!C:J,A18)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="0"/>
-        <v>3372.4369047619048</v>
+        <v>2987.3485714285716</v>
       </c>
       <c r="D18">
         <f>COUNTIF(CSL_Sonuclari!J:J,A18)</f>
@@ -56158,19 +57004,19 @@
       </c>
       <c r="F18" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A18)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="H18">
         <f>COUNTIF(CSL_Sonuclari!C:H,A18)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I18" s="5">
         <f t="shared" si="3"/>
-        <v>4296.5825396825394</v>
+        <v>4680.9142857142861</v>
       </c>
       <c r="J18" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H18,"")</f>
@@ -56186,19 +57032,19 @@
       </c>
       <c r="M18">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H18,"")</f>
-        <v>4948.833333333333</v>
+        <v>5756.5714285714284</v>
       </c>
       <c r="N18">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H18,"")</f>
-        <v>3584.7142857142858</v>
+        <v>3740.5714285714284</v>
       </c>
       <c r="O18">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H18,"")</f>
-        <v>4356.2</v>
-      </c>
-      <c r="P18" t="str">
+        <v>4545.6000000000004</v>
+      </c>
+      <c r="P18">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F18,"")</f>
-        <v/>
+        <v>294</v>
       </c>
       <c r="Q18">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D18,"")</f>
@@ -56211,11 +57057,11 @@
       </c>
       <c r="B19">
         <f>COUNTIF(CSL_Sonuclari!C:J,A19)</f>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
-        <v>2030.5538461538461</v>
+        <v>2386.4857142857145</v>
       </c>
       <c r="D19">
         <f>COUNTIF(CSL_Sonuclari!J:J,A19)</f>
@@ -56235,11 +57081,11 @@
       </c>
       <c r="H19">
         <f>COUNTIF(CSL_Sonuclari!C:H,A19)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I19" s="5">
         <f t="shared" si="3"/>
-        <v>2925.9230769230767</v>
+        <v>3519.1428571428573</v>
       </c>
       <c r="J19" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H19,"")</f>
@@ -56255,15 +57101,15 @@
       </c>
       <c r="M19">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H19,"")</f>
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="N19">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H19,"")</f>
-        <v>4812</v>
+        <v>5499.4285714285716</v>
       </c>
       <c r="O19">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H19,"")</f>
-        <v>3713.7692307692305</v>
+        <v>4770</v>
       </c>
       <c r="P19">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F19,"")</f>
@@ -56280,19 +57126,19 @@
       </c>
       <c r="B20">
         <f>COUNTIF(CSL_Sonuclari!C:J,A20)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
-        <v>3297.5166666666664</v>
+        <v>3361.85</v>
       </c>
       <c r="D20">
         <f>COUNTIF(CSL_Sonuclari!J:J,A20)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="1"/>
-        <v>465</v>
+        <v>851</v>
       </c>
       <c r="F20" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A20)</f>
@@ -56340,7 +57186,7 @@
       </c>
       <c r="Q20">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D20,"")</f>
-        <v>465</v>
+        <v>851</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -56625,11 +57471,11 @@
       </c>
       <c r="B25">
         <f>COUNTIF(CSL_Sonuclari!C:J,A25)</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C25" s="5">
         <f t="shared" si="0"/>
-        <v>3956.1319444444443</v>
+        <v>4787.2999999999993</v>
       </c>
       <c r="D25">
         <f>COUNTIF(CSL_Sonuclari!J:J,A25)</f>
@@ -56649,23 +57495,23 @@
       </c>
       <c r="H25">
         <f>COUNTIF(CSL_Sonuclari!C:H,A25)</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I25" s="5">
         <f t="shared" si="3"/>
-        <v>5181.1759259259261</v>
+        <v>6289.3999999999987</v>
       </c>
       <c r="J25">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H25,"")</f>
-        <v>4072.2777777777774</v>
+        <v>5150.5999999999995</v>
       </c>
       <c r="K25">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H25,"")</f>
-        <v>3444.25</v>
+        <v>4643.5999999999995</v>
       </c>
       <c r="L25">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H25,"")</f>
-        <v>8027</v>
+        <v>9074</v>
       </c>
       <c r="M25" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H25,"")</f>
@@ -56970,11 +57816,11 @@
       </c>
       <c r="B30">
         <f>COUNTIF(CSL_Sonuclari!C:J,A30)</f>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C30" s="5">
         <f t="shared" si="0"/>
-        <v>3606.8333333333335</v>
+        <v>4209.0222222222219</v>
       </c>
       <c r="D30">
         <f>COUNTIF(CSL_Sonuclari!J:J,A30)</f>
@@ -56986,35 +57832,35 @@
       </c>
       <c r="F30" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A30)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G30" s="8">
         <f t="shared" si="2"/>
-        <v>927</v>
+        <v>1506</v>
       </c>
       <c r="H30">
         <f>COUNTIF(CSL_Sonuclari!C:H,A30)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I30" s="5">
         <f t="shared" si="3"/>
-        <v>5039.25</v>
+        <v>5797.7833333333328</v>
       </c>
       <c r="J30">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H30,"")</f>
-        <v>3720</v>
+        <v>4030</v>
       </c>
       <c r="K30">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H30,"")</f>
-        <v>4827</v>
+        <v>5763.333333333333</v>
       </c>
       <c r="L30">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H30,"")</f>
-        <v>5502</v>
+        <v>6780.8</v>
       </c>
       <c r="M30">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H30,"")</f>
-        <v>6108</v>
+        <v>6617</v>
       </c>
       <c r="N30" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H30,"")</f>
@@ -57026,7 +57872,7 @@
       </c>
       <c r="P30">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F30,"")</f>
-        <v>927</v>
+        <v>1506</v>
       </c>
       <c r="Q30">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D30,"")</f>
@@ -57108,11 +57954,11 @@
       </c>
       <c r="B32">
         <f>COUNTIF(CSL_Sonuclari!C:J,A32)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C32" s="5">
         <f t="shared" si="0"/>
-        <v>3084</v>
+        <v>3497.2772108843537</v>
       </c>
       <c r="D32">
         <f>COUNTIF(CSL_Sonuclari!J:J,A32)</f>
@@ -57132,11 +57978,11 @@
       </c>
       <c r="H32">
         <f>COUNTIF(CSL_Sonuclari!C:H,A32)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I32" s="5">
         <f t="shared" si="3"/>
-        <v>4190.3999999999996</v>
+        <v>4768.9880952380954</v>
       </c>
       <c r="J32" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H32,"")</f>
@@ -57144,23 +57990,23 @@
       </c>
       <c r="K32">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H32,"")</f>
-        <v>5856</v>
+        <v>6344</v>
       </c>
       <c r="L32">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H32,"")</f>
-        <v>3812.5714285714284</v>
+        <v>4572.75</v>
       </c>
       <c r="M32">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H32,"")</f>
-        <v>5379.4285714285716</v>
+        <v>5827.7142857142853</v>
       </c>
       <c r="N32">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H32,"")</f>
-        <v>2480</v>
+        <v>3391.1428571428569</v>
       </c>
       <c r="O32">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H32,"")</f>
-        <v>3424</v>
+        <v>3709.333333333333</v>
       </c>
       <c r="P32">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F32,"")</f>
@@ -57315,11 +58161,11 @@
       </c>
       <c r="B35">
         <f>COUNTIF(CSL_Sonuclari!C:J,A35)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C35" s="5">
         <f t="shared" si="4"/>
-        <v>3380.6999999999994</v>
+        <v>3941.1166666666668</v>
       </c>
       <c r="D35">
         <f>COUNTIF(CSL_Sonuclari!J:J,A35)</f>
@@ -57339,11 +58185,11 @@
       </c>
       <c r="H35">
         <f>COUNTIF(CSL_Sonuclari!C:H,A35)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I35" s="5">
         <f t="shared" si="7"/>
-        <v>4787.5499999999993</v>
+        <v>5628.1750000000002</v>
       </c>
       <c r="J35" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H35,"")</f>
@@ -57355,19 +58201,19 @@
       </c>
       <c r="L35">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H35,"")</f>
-        <v>7106.4</v>
+        <v>8236</v>
       </c>
       <c r="M35">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H35,"")</f>
-        <v>2932.2</v>
+        <v>4490.166666666667</v>
       </c>
       <c r="N35">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H35,"")</f>
-        <v>6249.6</v>
+        <v>6712.5333333333338</v>
       </c>
       <c r="O35">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H35,"")</f>
-        <v>2862</v>
+        <v>3074</v>
       </c>
       <c r="P35">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F35,"")</f>
@@ -57453,11 +58299,11 @@
       </c>
       <c r="B37">
         <f>COUNTIF(CSL_Sonuclari!C:J,A37)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C37" s="5">
         <f t="shared" si="4"/>
-        <v>3294.0714285714284</v>
+        <v>3470.4666666666667</v>
       </c>
       <c r="D37">
         <f>COUNTIF(CSL_Sonuclari!J:J,A37)</f>
@@ -57477,11 +58323,11 @@
       </c>
       <c r="H37">
         <f>COUNTIF(CSL_Sonuclari!C:H,A37)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I37" s="5">
         <f t="shared" si="7"/>
-        <v>4372.8999999999996</v>
+        <v>4619.8533333333335</v>
       </c>
       <c r="J37" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H37,"")</f>
@@ -57489,23 +58335,23 @@
       </c>
       <c r="K37">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H37,"")</f>
-        <v>2639</v>
+        <v>2764.666666666667</v>
       </c>
       <c r="L37">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H37,"")</f>
-        <v>4263</v>
+        <v>4659.6000000000004</v>
       </c>
       <c r="M37">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H37,"")</f>
-        <v>2604</v>
+        <v>2728</v>
       </c>
       <c r="N37">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H37,"")</f>
-        <v>4399.5</v>
+        <v>4609</v>
       </c>
       <c r="O37">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H37,"")</f>
-        <v>7959</v>
+        <v>8338</v>
       </c>
       <c r="P37">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F37,"")</f>
@@ -57591,11 +58437,11 @@
       </c>
       <c r="B39">
         <f>COUNTIF(CSL_Sonuclari!C:J,A39)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C39" s="5">
         <f t="shared" si="4"/>
-        <v>3700.5650793650793</v>
+        <v>4025.0519480519479</v>
       </c>
       <c r="D39">
         <f>COUNTIF(CSL_Sonuclari!J:J,A39)</f>
@@ -57615,11 +58461,11 @@
       </c>
       <c r="H39">
         <f>COUNTIF(CSL_Sonuclari!C:H,A39)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I39" s="5">
         <f t="shared" si="7"/>
-        <v>4848.7911111111116</v>
+        <v>5303.0727272727272</v>
       </c>
       <c r="J39" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H39,"")</f>
@@ -57627,23 +58473,23 @@
       </c>
       <c r="K39">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H39,"")</f>
-        <v>4060</v>
+        <v>4350</v>
       </c>
       <c r="L39">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H39,"")</f>
-        <v>4894.4000000000005</v>
+        <v>5244</v>
       </c>
       <c r="M39">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H39,"")</f>
-        <v>5503.5555555555547</v>
+        <v>6436.363636363636</v>
       </c>
       <c r="N39">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H39,"")</f>
-        <v>7546</v>
+        <v>8085</v>
       </c>
       <c r="O39">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H39,"")</f>
-        <v>2240</v>
+        <v>2400</v>
       </c>
       <c r="P39">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F39,"")</f>
@@ -57660,11 +58506,11 @@
       </c>
       <c r="B40">
         <f>COUNTIF(CSL_Sonuclari!C:J,A40)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C40" s="5">
         <f t="shared" si="4"/>
-        <v>3685.6952380952384</v>
+        <v>3970.0238095238092</v>
       </c>
       <c r="D40">
         <f>COUNTIF(CSL_Sonuclari!J:J,A40)</f>
@@ -57676,35 +58522,35 @@
       </c>
       <c r="F40" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A40)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G40" s="8">
         <f t="shared" si="6"/>
-        <v>886</v>
+        <v>1181</v>
       </c>
       <c r="H40">
         <f>COUNTIF(CSL_Sonuclari!C:H,A40)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I40" s="5">
         <f t="shared" si="7"/>
-        <v>5078.5428571428574</v>
+        <v>5431.2857142857138</v>
       </c>
       <c r="J40">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H40,"")</f>
-        <v>5693.6</v>
+        <v>6440</v>
       </c>
       <c r="K40">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H40,"")</f>
-        <v>2762.5714285714284</v>
+        <v>2888.1428571428569</v>
       </c>
       <c r="L40">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H40,"")</f>
-        <v>5676</v>
+        <v>5934</v>
       </c>
       <c r="M40">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H40,"")</f>
-        <v>6182</v>
+        <v>6463</v>
       </c>
       <c r="N40" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H40,"")</f>
@@ -57716,7 +58562,7 @@
       </c>
       <c r="P40">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F40,"")</f>
-        <v>886</v>
+        <v>1181</v>
       </c>
       <c r="Q40">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D40,"")</f>
@@ -57729,11 +58575,11 @@
       </c>
       <c r="B41">
         <f>COUNTIF(CSL_Sonuclari!C:J,A41)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C41" s="5">
         <f t="shared" si="4"/>
-        <v>4587.6111111111113</v>
+        <v>4636.9444444444443</v>
       </c>
       <c r="D41">
         <f>COUNTIF(CSL_Sonuclari!J:J,A41)</f>
@@ -57745,11 +58591,11 @@
       </c>
       <c r="F41" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A41)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G41" s="8">
         <f t="shared" si="6"/>
-        <v>1027</v>
+        <v>1323</v>
       </c>
       <c r="H41">
         <f>COUNTIF(CSL_Sonuclari!C:H,A41)</f>
@@ -57785,7 +58631,7 @@
       </c>
       <c r="P41">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F41,"")</f>
-        <v>1027</v>
+        <v>1323</v>
       </c>
       <c r="Q41">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D41,"")</f>
@@ -57798,11 +58644,11 @@
       </c>
       <c r="B42">
         <f>COUNTIF(CSL_Sonuclari!C:J,A42)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C42" s="5">
         <f t="shared" si="4"/>
-        <v>3253.5456349206347</v>
+        <v>3433.5416666666665</v>
       </c>
       <c r="D42">
         <f>COUNTIF(CSL_Sonuclari!J:J,A42)</f>
@@ -57822,23 +58668,23 @@
       </c>
       <c r="H42">
         <f>COUNTIF(CSL_Sonuclari!C:H,A42)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I42" s="5">
         <f t="shared" si="7"/>
-        <v>4509.5684523809523</v>
+        <v>4779.5625</v>
       </c>
       <c r="J42">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H42,"")</f>
-        <v>4611.75</v>
+        <v>4789.125</v>
       </c>
       <c r="K42">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H42,"")</f>
-        <v>4246.666666666667</v>
+        <v>4410</v>
       </c>
       <c r="L42">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H42,"")</f>
-        <v>4616.8571428571431</v>
+        <v>5180.625</v>
       </c>
       <c r="M42" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H42,"")</f>
@@ -57846,7 +58692,7 @@
       </c>
       <c r="N42">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H42,"")</f>
-        <v>4563</v>
+        <v>4738.5</v>
       </c>
       <c r="O42" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H42,"")</f>
@@ -57867,11 +58713,11 @@
       </c>
       <c r="B43">
         <f>COUNTIF(CSL_Sonuclari!C:J,A43)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C43" s="5">
         <f t="shared" si="4"/>
-        <v>3164.4404761904761</v>
+        <v>3508.3968253968255</v>
       </c>
       <c r="D43">
         <f>COUNTIF(CSL_Sonuclari!J:J,A43)</f>
@@ -57891,31 +58737,31 @@
       </c>
       <c r="H43">
         <f>COUNTIF(CSL_Sonuclari!C:H,A43)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I43" s="5">
         <f t="shared" si="7"/>
-        <v>4089.0166666666664</v>
+        <v>4570.5555555555557</v>
       </c>
       <c r="J43">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H43,"")</f>
-        <v>5673.333333333333</v>
+        <v>6166.6666666666661</v>
       </c>
       <c r="K43">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H43,"")</f>
-        <v>4232</v>
+        <v>4600</v>
       </c>
       <c r="L43">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H43,"")</f>
-        <v>3493.125</v>
+        <v>4180.5555555555557</v>
       </c>
       <c r="M43">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H43,"")</f>
-        <v>4723.625</v>
+        <v>5380.5555555555557</v>
       </c>
       <c r="N43">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H43,"")</f>
-        <v>2323</v>
+        <v>2525</v>
       </c>
       <c r="O43" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H43,"")</f>
@@ -58212,27 +59058,27 @@
       </c>
       <c r="B48">
         <f>COUNTIF(CSL_Sonuclari!C:J,A48)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C48" s="5">
         <f t="shared" si="4"/>
-        <v>3994.1359126984125</v>
+        <v>4067.2609126984125</v>
       </c>
       <c r="D48">
         <f>COUNTIF(CSL_Sonuclari!J:J,A48)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" s="5">
         <f t="shared" si="5"/>
-        <v>203</v>
+        <v>497</v>
       </c>
       <c r="F48" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A48)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G48" s="8">
         <f t="shared" si="6"/>
-        <v>701</v>
+        <v>992</v>
       </c>
       <c r="H48">
         <f>COUNTIF(CSL_Sonuclari!C:H,A48)</f>
@@ -58268,11 +59114,11 @@
       </c>
       <c r="P48">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F48,"")</f>
-        <v>701</v>
+        <v>992</v>
       </c>
       <c r="Q48">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D48,"")</f>
-        <v>203</v>
+        <v>497</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
@@ -58281,11 +59127,11 @@
       </c>
       <c r="B49">
         <f>COUNTIF(CSL_Sonuclari!C:J,A49)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C49" s="5">
         <f t="shared" si="4"/>
-        <v>4017.6512059369206</v>
+        <v>4187.2820037105757</v>
       </c>
       <c r="D49">
         <f>COUNTIF(CSL_Sonuclari!J:J,A49)</f>
@@ -58305,15 +59151,15 @@
       </c>
       <c r="H49">
         <f>COUNTIF(CSL_Sonuclari!C:H,A49)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I49" s="5">
         <f t="shared" si="7"/>
-        <v>5354.1116883116892</v>
+        <v>5591.5948051948053</v>
       </c>
       <c r="J49">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H49,"")</f>
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K49" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H49,"")</f>
@@ -58321,19 +59167,19 @@
       </c>
       <c r="L49">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H49,"")</f>
-        <v>6030</v>
+        <v>6231</v>
       </c>
       <c r="M49">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H49,"")</f>
-        <v>8374.2857142857156</v>
+        <v>8653.4285714285725</v>
       </c>
       <c r="N49">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H49,"")</f>
-        <v>5709</v>
+        <v>6194.363636363636</v>
       </c>
       <c r="O49">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H49,"")</f>
-        <v>6507.272727272727</v>
+        <v>6724.181818181818</v>
       </c>
       <c r="P49">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F49,"")</f>
@@ -58419,11 +59265,11 @@
       </c>
       <c r="B51">
         <f>COUNTIF(CSL_Sonuclari!C:J,A51)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C51" s="5">
         <f t="shared" si="4"/>
-        <v>2613.1064814814813</v>
+        <v>2916.8973684210528</v>
       </c>
       <c r="D51">
         <f>COUNTIF(CSL_Sonuclari!J:J,A51)</f>
@@ -58443,27 +59289,27 @@
       </c>
       <c r="H51">
         <f>COUNTIF(CSL_Sonuclari!C:H,A51)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I51" s="5">
         <f t="shared" si="7"/>
-        <v>3501.9097222222222</v>
+        <v>3957.5960526315789</v>
       </c>
       <c r="J51">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H51,"")</f>
-        <v>5113.8888888888887</v>
+        <v>5648.6842105263158</v>
       </c>
       <c r="K51">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H51,"")</f>
-        <v>4631.25</v>
+        <v>5578.2</v>
       </c>
       <c r="L51">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H51,"")</f>
-        <v>3750</v>
+        <v>4050</v>
       </c>
       <c r="M51">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H51,"")</f>
-        <v>512.5</v>
+        <v>553.5</v>
       </c>
       <c r="N51" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H51,"")</f>
@@ -58695,11 +59541,11 @@
       </c>
       <c r="B55">
         <f>COUNTIF(CSL_Sonuclari!C:J,A55)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C55" s="5">
         <f t="shared" si="4"/>
-        <v>3054.5238095238096</v>
+        <v>3257.0952380952381</v>
       </c>
       <c r="D55">
         <f>COUNTIF(CSL_Sonuclari!J:J,A55)</f>
@@ -58719,31 +59565,31 @@
       </c>
       <c r="H55">
         <f>COUNTIF(CSL_Sonuclari!C:H,A55)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I55" s="5">
         <f t="shared" si="7"/>
-        <v>3950.7333333333336</v>
+        <v>4234.3333333333339</v>
       </c>
       <c r="J55">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H55,"")</f>
-        <v>4186.3333333333339</v>
+        <v>4785</v>
       </c>
       <c r="K55">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H55,"")</f>
-        <v>2736</v>
+        <v>2880</v>
       </c>
       <c r="L55">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H55,"")</f>
-        <v>3103.3333333333335</v>
+        <v>3266.666666666667</v>
       </c>
       <c r="M55">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H55,"")</f>
-        <v>6346</v>
+        <v>6680</v>
       </c>
       <c r="N55">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H55,"")</f>
-        <v>3382</v>
+        <v>3560</v>
       </c>
       <c r="O55" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H55,"")</f>
@@ -58764,11 +59610,11 @@
       </c>
       <c r="B56">
         <f>COUNTIF(CSL_Sonuclari!C:J,A56)</f>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C56" s="5">
         <f t="shared" si="4"/>
-        <v>3536.2857142857142</v>
+        <v>4256.0952380952376</v>
       </c>
       <c r="D56">
         <f>COUNTIF(CSL_Sonuclari!J:J,A56)</f>
@@ -58788,31 +59634,31 @@
       </c>
       <c r="H56">
         <f>COUNTIF(CSL_Sonuclari!C:H,A56)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I56" s="5">
         <f t="shared" si="7"/>
-        <v>4449.6000000000004</v>
+        <v>5457.333333333333</v>
       </c>
       <c r="J56">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H56,"")</f>
-        <v>5019</v>
+        <v>5736</v>
       </c>
       <c r="K56">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H56,"")</f>
-        <v>4410</v>
+        <v>5040</v>
       </c>
       <c r="L56">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H56,"")</f>
-        <v>5112</v>
+        <v>6362.6666666666661</v>
       </c>
       <c r="M56">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H56,"")</f>
-        <v>5050.5</v>
+        <v>5772</v>
       </c>
       <c r="N56">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H56,"")</f>
-        <v>2656.5</v>
+        <v>4376</v>
       </c>
       <c r="O56" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H56,"")</f>
@@ -58833,11 +59679,11 @@
       </c>
       <c r="B57">
         <f>COUNTIF(CSL_Sonuclari!C:J,A57)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C57" s="5">
         <f t="shared" si="4"/>
-        <v>4133.88</v>
+        <v>4450.32</v>
       </c>
       <c r="D57">
         <f>COUNTIF(CSL_Sonuclari!J:J,A57)</f>
@@ -58857,11 +59703,11 @@
       </c>
       <c r="H57">
         <f>COUNTIF(CSL_Sonuclari!C:H,A57)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I57" s="5">
         <f t="shared" si="7"/>
-        <v>4964.8500000000004</v>
+        <v>5360.4</v>
       </c>
       <c r="J57" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H57,"")</f>
@@ -58869,19 +59715,19 @@
       </c>
       <c r="K57">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H57,"")</f>
-        <v>6755.4</v>
+        <v>7005.5999999999995</v>
       </c>
       <c r="L57">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H57,"")</f>
-        <v>2821.5</v>
+        <v>2926</v>
       </c>
       <c r="M57">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H57,"")</f>
-        <v>5548.5</v>
+        <v>5754</v>
       </c>
       <c r="N57">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H57,"")</f>
-        <v>4734</v>
+        <v>5756</v>
       </c>
       <c r="O57" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H57,"")</f>
@@ -58902,11 +59748,11 @@
       </c>
       <c r="B58">
         <f>COUNTIF(CSL_Sonuclari!C:J,A58)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C58" s="5">
         <f t="shared" si="4"/>
-        <v>3168.3504273504273</v>
+        <v>3987.7241758241757</v>
       </c>
       <c r="D58">
         <f>COUNTIF(CSL_Sonuclari!J:J,A58)</f>
@@ -58926,11 +59772,11 @@
       </c>
       <c r="H58">
         <f>COUNTIF(CSL_Sonuclari!C:H,A58)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I58" s="5">
         <f t="shared" si="7"/>
-        <v>4078.2905982905986</v>
+        <v>5225.413846153846</v>
       </c>
       <c r="J58" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H58,"")</f>
@@ -58938,23 +59784,23 @@
       </c>
       <c r="K58">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H58,"")</f>
-        <v>7500</v>
+        <v>8100</v>
       </c>
       <c r="L58">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H58,"")</f>
-        <v>150</v>
+        <v>3982.5</v>
       </c>
       <c r="M58">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H58,"")</f>
-        <v>2800</v>
+        <v>3024</v>
       </c>
       <c r="N58">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H58,"")</f>
-        <v>5269.2307692307695</v>
+        <v>5690.7692307692305</v>
       </c>
       <c r="O58">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H58,"")</f>
-        <v>4672.2222222222217</v>
+        <v>5329.8</v>
       </c>
       <c r="P58">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F58,"")</f>
@@ -59178,19 +60024,19 @@
       </c>
       <c r="B62">
         <f>COUNTIF(CSL_Sonuclari!C:J,A62)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C62" s="5">
         <f t="shared" si="4"/>
-        <v>3914.4897959183677</v>
+        <v>4115.1642857142861</v>
       </c>
       <c r="D62">
         <f>COUNTIF(CSL_Sonuclari!J:J,A62)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E62" s="5">
         <f t="shared" si="5"/>
-        <v>1026</v>
+        <v>1319</v>
       </c>
       <c r="F62" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A62)</f>
@@ -59202,11 +60048,11 @@
       </c>
       <c r="H62">
         <f>COUNTIF(CSL_Sonuclari!C:H,A62)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I62" s="5">
         <f t="shared" si="7"/>
-        <v>5155.8857142857141</v>
+        <v>5378.2300000000005</v>
       </c>
       <c r="J62" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H62,"")</f>
@@ -59214,23 +60060,23 @@
       </c>
       <c r="K62">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H62,"")</f>
-        <v>4496</v>
+        <v>4636.5</v>
       </c>
       <c r="L62">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H62,"")</f>
-        <v>7360</v>
+        <v>7590</v>
       </c>
       <c r="M62">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H62,"")</f>
-        <v>4859.4285714285716</v>
+        <v>5317.4</v>
       </c>
       <c r="N62">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H62,"")</f>
-        <v>6440</v>
+        <v>6641.25</v>
       </c>
       <c r="O62">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H62,"")</f>
-        <v>2624</v>
+        <v>2706</v>
       </c>
       <c r="P62">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F62,"")</f>
@@ -59238,7 +60084,7 @@
       </c>
       <c r="Q62">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D62,"")</f>
-        <v>1026</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -59247,11 +60093,11 @@
       </c>
       <c r="B63">
         <f>COUNTIF(CSL_Sonuclari!C:J,A63)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C63" s="5">
         <f t="shared" si="4"/>
-        <v>3109.689393939394</v>
+        <v>3174.0227272727275</v>
       </c>
       <c r="D63">
         <f>COUNTIF(CSL_Sonuclari!J:J,A63)</f>
@@ -59263,11 +60109,11 @@
       </c>
       <c r="F63" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A63)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G63" s="8">
         <f t="shared" si="6"/>
-        <v>598</v>
+        <v>984</v>
       </c>
       <c r="H63">
         <f>COUNTIF(CSL_Sonuclari!C:H,A63)</f>
@@ -59303,7 +60149,7 @@
       </c>
       <c r="P63">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F63,"")</f>
-        <v>598</v>
+        <v>984</v>
       </c>
       <c r="Q63">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D63,"")</f>
@@ -59385,11 +60231,11 @@
       </c>
       <c r="B65">
         <f>COUNTIF(CSL_Sonuclari!C:J,A65)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C65" s="5">
         <f t="shared" si="4"/>
-        <v>3874.5111111111109</v>
+        <v>4057.0070175438595</v>
       </c>
       <c r="D65">
         <f>COUNTIF(CSL_Sonuclari!J:J,A65)</f>
@@ -59409,11 +60255,11 @@
       </c>
       <c r="H65">
         <f>COUNTIF(CSL_Sonuclari!C:H,A65)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I65" s="5">
         <f t="shared" si="7"/>
-        <v>5726.8518518518513</v>
+        <v>6031.0116959064326</v>
       </c>
       <c r="J65" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H65,"")</f>
@@ -59429,15 +60275,15 @@
       </c>
       <c r="M65">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H65,"")</f>
-        <v>7725</v>
+        <v>8034</v>
       </c>
       <c r="N65">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H65,"")</f>
-        <v>3895.8333333333335</v>
+        <v>4051.666666666667</v>
       </c>
       <c r="O65">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H65,"")</f>
-        <v>5559.7222222222217</v>
+        <v>6007.3684210526317</v>
       </c>
       <c r="P65">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F65,"")</f>
@@ -59523,11 +60369,11 @@
       </c>
       <c r="B67">
         <f>COUNTIF(CSL_Sonuclari!C:J,A67)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C67" s="5">
         <f t="shared" si="8"/>
-        <v>4942.9138888888892</v>
+        <v>5107.5407407407411</v>
       </c>
       <c r="D67">
         <f>COUNTIF(CSL_Sonuclari!J:J,A67)</f>
@@ -59547,11 +60393,11 @@
       </c>
       <c r="H67">
         <f>COUNTIF(CSL_Sonuclari!C:H,A67)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I67" s="5">
         <f t="shared" si="11"/>
-        <v>6959.3708333333343</v>
+        <v>7206.3111111111111</v>
       </c>
       <c r="J67" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H67,"")</f>
@@ -59559,7 +60405,7 @@
       </c>
       <c r="K67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H67,"")</f>
-        <v>7626</v>
+        <v>7872</v>
       </c>
       <c r="L67" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H67,"")</f>
@@ -59567,15 +60413,15 @@
       </c>
       <c r="M67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H67,"")</f>
-        <v>5638.9000000000005</v>
+        <v>5820.8</v>
       </c>
       <c r="N67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H67,"")</f>
-        <v>6272.3333333333339</v>
+        <v>6474.666666666667</v>
       </c>
       <c r="O67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H67,"")</f>
-        <v>8300.25</v>
+        <v>8657.7777777777774</v>
       </c>
       <c r="P67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F67,"")</f>
@@ -59592,11 +60438,11 @@
       </c>
       <c r="B68">
         <f>COUNTIF(CSL_Sonuclari!C:J,A68)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C68" s="5">
         <f t="shared" si="8"/>
-        <v>5074.6762523191092</v>
+        <v>5330.545454545455</v>
       </c>
       <c r="D68">
         <f>COUNTIF(CSL_Sonuclari!J:J,A68)</f>
@@ -59608,39 +60454,39 @@
       </c>
       <c r="F68" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A68)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G68" s="8">
         <f t="shared" si="10"/>
-        <v>1056</v>
+        <v>1349</v>
       </c>
       <c r="H68">
         <f>COUNTIF(CSL_Sonuclari!C:H,A68)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I68" s="5">
         <f t="shared" si="11"/>
-        <v>6799.7467532467535</v>
+        <v>7099.3636363636369</v>
       </c>
       <c r="J68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H68,"")</f>
-        <v>5891.1428571428569</v>
+        <v>6420</v>
       </c>
       <c r="K68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H68,"")</f>
-        <v>5676.090909090909</v>
+        <v>5871.818181818182</v>
       </c>
       <c r="L68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H68,"")</f>
-        <v>7105</v>
+        <v>7350</v>
       </c>
       <c r="M68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H68,"")</f>
-        <v>7989.5</v>
+        <v>8265</v>
       </c>
       <c r="N68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H68,"")</f>
-        <v>7337</v>
+        <v>7590</v>
       </c>
       <c r="O68" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H68,"")</f>
@@ -59648,7 +60494,7 @@
       </c>
       <c r="P68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F68,"")</f>
-        <v>1056</v>
+        <v>1349</v>
       </c>
       <c r="Q68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D68,"")</f>
@@ -59661,11 +60507,11 @@
       </c>
       <c r="B69">
         <f>COUNTIF(CSL_Sonuclari!C:J,A69)</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C69" s="5">
         <f t="shared" si="8"/>
-        <v>3288.8404761904762</v>
+        <v>3596.9815476190479</v>
       </c>
       <c r="D69">
         <f>COUNTIF(CSL_Sonuclari!J:J,A69)</f>
@@ -59685,35 +60531,35 @@
       </c>
       <c r="H69">
         <f>COUNTIF(CSL_Sonuclari!C:H,A69)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I69" s="5">
         <f t="shared" si="11"/>
-        <v>4208.787301587302</v>
+        <v>4619.6420634920642</v>
       </c>
       <c r="J69">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H69,"")</f>
-        <v>1184</v>
+        <v>1258</v>
       </c>
       <c r="K69">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H69,"")</f>
-        <v>5507.2</v>
+        <v>5851.4</v>
       </c>
       <c r="L69">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H69,"")</f>
-        <v>7382.8571428571431</v>
+        <v>7844.2857142857147</v>
       </c>
       <c r="M69">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H69,"")</f>
-        <v>5856</v>
+        <v>7108.8333333333339</v>
       </c>
       <c r="N69">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H69,"")</f>
-        <v>4778.666666666667</v>
+        <v>5077.3333333333339</v>
       </c>
       <c r="O69">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H69,"")</f>
-        <v>544</v>
+        <v>578</v>
       </c>
       <c r="P69">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F69,"")</f>
@@ -59799,11 +60645,11 @@
       </c>
       <c r="B71">
         <f>COUNTIF(CSL_Sonuclari!C:J,A71)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C71" s="5">
         <f t="shared" si="8"/>
-        <v>4063.2539682539682</v>
+        <v>4104.9682539682535</v>
       </c>
       <c r="D71">
         <f>COUNTIF(CSL_Sonuclari!J:J,A71)</f>
@@ -59815,11 +60661,11 @@
       </c>
       <c r="F71" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A71)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G71" s="8">
         <f t="shared" si="10"/>
-        <v>627</v>
+        <v>919</v>
       </c>
       <c r="H71">
         <f>COUNTIF(CSL_Sonuclari!C:H,A71)</f>
@@ -59855,7 +60701,7 @@
       </c>
       <c r="P71">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F71,"")</f>
-        <v>627</v>
+        <v>919</v>
       </c>
       <c r="Q71" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D71,"")</f>
@@ -59868,11 +60714,11 @@
       </c>
       <c r="B72">
         <f>COUNTIF(CSL_Sonuclari!C:J,A72)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C72" s="5">
         <f t="shared" si="8"/>
-        <v>3061.798701298701</v>
+        <v>3382.7234432234432</v>
       </c>
       <c r="D72">
         <f>COUNTIF(CSL_Sonuclari!J:J,A72)</f>
@@ -59892,15 +60738,15 @@
       </c>
       <c r="H72">
         <f>COUNTIF(CSL_Sonuclari!C:H,A72)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I72" s="5">
         <f t="shared" si="11"/>
-        <v>4087.7181818181816</v>
+        <v>4537.0128205128203</v>
       </c>
       <c r="J72">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H72,"")</f>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K72" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H72,"")</f>
@@ -59908,19 +60754,19 @@
       </c>
       <c r="L72">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H72,"")</f>
-        <v>8127</v>
+        <v>8729</v>
       </c>
       <c r="M72">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H72,"")</f>
-        <v>3550.5</v>
+        <v>3813.5</v>
       </c>
       <c r="N72">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H72,"")</f>
-        <v>4801.090909090909</v>
+        <v>5889.2307692307686</v>
       </c>
       <c r="O72">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H72,"")</f>
-        <v>3905.9999999999995</v>
+        <v>4195.333333333333</v>
       </c>
       <c r="P72">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F72,"")</f>
@@ -60006,11 +60852,11 @@
       </c>
       <c r="B74">
         <f>COUNTIF(CSL_Sonuclari!C:J,A74)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C74" s="5">
         <f t="shared" si="8"/>
-        <v>4848.2418300653599</v>
+        <v>5271.7724301841945</v>
       </c>
       <c r="D74">
         <f>COUNTIF(CSL_Sonuclari!J:J,A74)</f>
@@ -60030,27 +60876,27 @@
       </c>
       <c r="H74">
         <f>COUNTIF(CSL_Sonuclari!C:H,A74)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I74" s="5">
         <f t="shared" si="11"/>
-        <v>6811.8627450980393</v>
+        <v>7447.1586452762922</v>
       </c>
       <c r="J74">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H74,"")</f>
-        <v>4963.3333333333339</v>
+        <v>6018.909090909091</v>
       </c>
       <c r="K74">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H74,"")</f>
-        <v>6314.1176470588234</v>
+        <v>6735.0588235294117</v>
       </c>
       <c r="L74">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H74,"")</f>
-        <v>5290</v>
+        <v>5642.666666666667</v>
       </c>
       <c r="M74">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H74,"")</f>
-        <v>10680</v>
+        <v>11392</v>
       </c>
       <c r="N74" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H74,"")</f>
@@ -60144,11 +60990,11 @@
       </c>
       <c r="B76">
         <f>COUNTIF(CSL_Sonuclari!C:J,A76)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C76" s="5">
         <f t="shared" si="8"/>
-        <v>5723.3273809523807</v>
+        <v>5931.9632936507942</v>
       </c>
       <c r="D76">
         <f>COUNTIF(CSL_Sonuclari!J:J,A76)</f>
@@ -60168,35 +61014,35 @@
       </c>
       <c r="H76">
         <f>COUNTIF(CSL_Sonuclari!C:H,A76)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I76" s="5">
         <f t="shared" si="11"/>
-        <v>7265.603174603174</v>
+        <v>7543.7843915343919</v>
       </c>
       <c r="J76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H76,"")</f>
-        <v>9000</v>
+        <v>9300</v>
       </c>
       <c r="K76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H76,"")</f>
-        <v>4654.2857142857138</v>
+        <v>4809.4285714285716</v>
       </c>
       <c r="L76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H76,"")</f>
-        <v>4683.333333333333</v>
+        <v>4839.4444444444443</v>
       </c>
       <c r="M76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H76,"")</f>
-        <v>7536</v>
+        <v>8003.166666666667</v>
       </c>
       <c r="N76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H76,"")</f>
-        <v>7430</v>
+        <v>7677.6666666666661</v>
       </c>
       <c r="O76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H76,"")</f>
-        <v>10290</v>
+        <v>10633</v>
       </c>
       <c r="P76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F76,"")</f>
@@ -60282,11 +61128,11 @@
       </c>
       <c r="B78">
         <f>COUNTIF(CSL_Sonuclari!C:J,A78)</f>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C78" s="5">
         <f t="shared" si="8"/>
-        <v>2884.001282051282</v>
+        <v>3340.378787878788</v>
       </c>
       <c r="D78">
         <f>COUNTIF(CSL_Sonuclari!J:J,A78)</f>
@@ -60306,23 +61152,23 @@
       </c>
       <c r="H78">
         <f>COUNTIF(CSL_Sonuclari!C:H,A78)</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I78" s="5">
         <f t="shared" si="11"/>
-        <v>3796.251923076923</v>
+        <v>4480.818181818182</v>
       </c>
       <c r="J78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H78,"")</f>
-        <v>5348.7</v>
+        <v>6207.272727272727</v>
       </c>
       <c r="K78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H78,"")</f>
-        <v>3869.3076923076928</v>
+        <v>5086</v>
       </c>
       <c r="L78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H78,"")</f>
-        <v>5589</v>
+        <v>6210</v>
       </c>
       <c r="M78" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H78,"")</f>
@@ -60334,7 +61180,7 @@
       </c>
       <c r="O78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H78,"")</f>
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="P78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F78,"")</f>
@@ -60351,11 +61197,11 @@
       </c>
       <c r="B79">
         <f>COUNTIF(CSL_Sonuclari!C:J,A79)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C79" s="5">
         <f t="shared" si="8"/>
-        <v>3148.6034090909088</v>
+        <v>4600.1412337662341</v>
       </c>
       <c r="D79">
         <f>COUNTIF(CSL_Sonuclari!J:J,A79)</f>
@@ -60375,35 +61221,35 @@
       </c>
       <c r="H79">
         <f>COUNTIF(CSL_Sonuclari!C:H,A79)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I79" s="5">
         <f t="shared" si="11"/>
-        <v>4408.6551136363632</v>
+        <v>6188.7977272727276</v>
       </c>
       <c r="J79" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H79,"")</f>
         <v/>
       </c>
-      <c r="K79" t="str">
+      <c r="K79">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H79,"")</f>
-        <v/>
+        <v>11252</v>
       </c>
       <c r="L79">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H79,"")</f>
-        <v>4606.875</v>
+        <v>4948.125</v>
       </c>
       <c r="M79">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H79,"")</f>
-        <v>5127.545454545454</v>
+        <v>5507.363636363636</v>
       </c>
       <c r="N79">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H79,"")</f>
-        <v>3661.2</v>
+        <v>4683.5</v>
       </c>
       <c r="O79">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H79,"")</f>
-        <v>4239</v>
+        <v>4553</v>
       </c>
       <c r="P79">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F79,"")</f>
@@ -60420,11 +61266,11 @@
       </c>
       <c r="B80">
         <f>COUNTIF(CSL_Sonuclari!C:J,A80)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C80" s="5">
         <f t="shared" si="8"/>
-        <v>4484.0773809523807</v>
+        <v>4674.7555555555564</v>
       </c>
       <c r="D80">
         <f>COUNTIF(CSL_Sonuclari!J:J,A80)</f>
@@ -60444,11 +61290,11 @@
       </c>
       <c r="H80">
         <f>COUNTIF(CSL_Sonuclari!C:H,A80)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I80" s="5">
         <f t="shared" si="11"/>
-        <v>5832.9083333333338</v>
+        <v>6099.8577777777782</v>
       </c>
       <c r="J80" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H80,"")</f>
@@ -60456,23 +61302,23 @@
       </c>
       <c r="K80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H80,"")</f>
-        <v>7884.3333333333339</v>
+        <v>8138.666666666667</v>
       </c>
       <c r="L80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H80,"")</f>
-        <v>5955.875</v>
+        <v>6148</v>
       </c>
       <c r="M80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H80,"")</f>
-        <v>7174.7777777777783</v>
+        <v>7406.2222222222226</v>
       </c>
       <c r="N80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H80,"")</f>
-        <v>5173.5555555555557</v>
+        <v>5734.4</v>
       </c>
       <c r="O80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H80,"")</f>
-        <v>2976</v>
+        <v>3072</v>
       </c>
       <c r="P80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F80,"")</f>
@@ -60489,19 +61335,19 @@
       </c>
       <c r="B81">
         <f>COUNTIF(CSL_Sonuclari!C:J,A81)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C81" s="5">
         <f t="shared" si="8"/>
-        <v>3142.5277777777774</v>
+        <v>3190.8611111111109</v>
       </c>
       <c r="D81">
         <f>COUNTIF(CSL_Sonuclari!J:J,A81)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E81" s="5">
         <f t="shared" si="9"/>
-        <v>263</v>
+        <v>553</v>
       </c>
       <c r="F81" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A81)</f>
@@ -60549,7 +61395,7 @@
       </c>
       <c r="Q81">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D81,"")</f>
-        <v>263</v>
+        <v>553</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
@@ -60627,11 +61473,11 @@
       </c>
       <c r="B83">
         <f>COUNTIF(CSL_Sonuclari!C:J,A83)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C83" s="5">
         <f t="shared" si="8"/>
-        <v>2377.2857142857142</v>
+        <v>2564.0555555555557</v>
       </c>
       <c r="D83">
         <f>COUNTIF(CSL_Sonuclari!J:J,A83)</f>
@@ -60651,11 +61497,11 @@
       </c>
       <c r="H83">
         <f>COUNTIF(CSL_Sonuclari!C:H,A83)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I83" s="5">
         <f t="shared" si="11"/>
-        <v>3203.4285714285716</v>
+        <v>3483.5833333333335</v>
       </c>
       <c r="J83" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H83,"")</f>
@@ -60667,19 +61513,19 @@
       </c>
       <c r="L83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H83,"")</f>
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="M83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H83,"")</f>
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="N83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H83,"")</f>
-        <v>5856</v>
+        <v>6222</v>
       </c>
       <c r="O83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H83,"")</f>
-        <v>6317.7142857142853</v>
+        <v>7032.3333333333339</v>
       </c>
       <c r="P83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F83,"")</f>
@@ -60696,11 +61542,11 @@
       </c>
       <c r="B84">
         <f>COUNTIF(CSL_Sonuclari!C:J,A84)</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C84" s="5">
         <f t="shared" si="8"/>
-        <v>3500.6160714285716</v>
+        <v>3980.8275862068967</v>
       </c>
       <c r="D84">
         <f>COUNTIF(CSL_Sonuclari!J:J,A84)</f>
@@ -60720,15 +61566,15 @@
       </c>
       <c r="H84">
         <f>COUNTIF(CSL_Sonuclari!C:H,A84)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I84" s="5">
         <f t="shared" si="11"/>
-        <v>4200.8214285714284</v>
+        <v>4841.1034482758623</v>
       </c>
       <c r="J84">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H84,"")</f>
-        <v>462</v>
+        <v>490</v>
       </c>
       <c r="K84" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H84,"")</f>
@@ -60744,11 +61590,11 @@
       </c>
       <c r="N84">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H84,"")</f>
-        <v>5057.25</v>
+        <v>6314</v>
       </c>
       <c r="O84">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H84,"")</f>
-        <v>7083.2142857142853</v>
+        <v>7719.310344827587</v>
       </c>
       <c r="P84">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F84,"")</f>
@@ -60765,19 +61611,19 @@
       </c>
       <c r="B85">
         <f>COUNTIF(CSL_Sonuclari!C:J,A85)</f>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C85" s="5">
         <f t="shared" si="8"/>
-        <v>4020.6769230769228</v>
+        <v>4263.8226495726494</v>
       </c>
       <c r="D85">
         <f>COUNTIF(CSL_Sonuclari!J:J,A85)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E85" s="5">
         <f t="shared" si="9"/>
-        <v>819</v>
+        <v>1400</v>
       </c>
       <c r="F85" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A85)</f>
@@ -60789,11 +61635,11 @@
       </c>
       <c r="H85">
         <f>COUNTIF(CSL_Sonuclari!C:H,A85)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I85" s="5">
         <f t="shared" si="11"/>
-        <v>5726.5153846153844</v>
+        <v>5945.9839743589737</v>
       </c>
       <c r="J85" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H85,"")</f>
@@ -60801,7 +61647,7 @@
       </c>
       <c r="K85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H85,"")</f>
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L85" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H85,"")</f>
@@ -60809,15 +61655,15 @@
       </c>
       <c r="M85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H85,"")</f>
-        <v>9231</v>
+        <v>9706.6666666666661</v>
       </c>
       <c r="N85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H85,"")</f>
-        <v>8139.6</v>
+        <v>8379</v>
       </c>
       <c r="O85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H85,"")</f>
-        <v>5365.461538461539</v>
+        <v>5523.2692307692314</v>
       </c>
       <c r="P85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F85,"")</f>
@@ -60825,7 +61671,7 @@
       </c>
       <c r="Q85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D85,"")</f>
-        <v>819</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
@@ -60834,11 +61680,11 @@
       </c>
       <c r="B86">
         <f>COUNTIF(CSL_Sonuclari!C:J,A86)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C86" s="5">
         <f t="shared" si="8"/>
-        <v>4297.3558823529411</v>
+        <v>4460.0923076923082</v>
       </c>
       <c r="D86">
         <f>COUNTIF(CSL_Sonuclari!J:J,A86)</f>
@@ -60858,23 +61704,23 @@
       </c>
       <c r="H86">
         <f>COUNTIF(CSL_Sonuclari!C:H,A86)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I86" s="5">
         <f t="shared" si="11"/>
-        <v>6622.5931372549021</v>
+        <v>6893.8205128205127</v>
       </c>
       <c r="J86">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H86,"")</f>
-        <v>6846.5294117647054</v>
+        <v>7054</v>
       </c>
       <c r="K86">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H86,"")</f>
-        <v>6866.75</v>
+        <v>7286.461538461539</v>
       </c>
       <c r="L86">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H86,"")</f>
-        <v>6154.5</v>
+        <v>6341</v>
       </c>
       <c r="M86" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H86,"")</f>
@@ -60903,11 +61749,11 @@
       </c>
       <c r="B87">
         <f>COUNTIF(CSL_Sonuclari!C:J,A87)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C87" s="5">
         <f t="shared" si="8"/>
-        <v>4776.8346590909096</v>
+        <v>4990.776515151515</v>
       </c>
       <c r="D87">
         <f>COUNTIF(CSL_Sonuclari!J:J,A87)</f>
@@ -60927,35 +61773,35 @@
       </c>
       <c r="H87">
         <f>COUNTIF(CSL_Sonuclari!C:H,A87)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I87" s="5">
         <f t="shared" si="11"/>
-        <v>5980.6128787878797</v>
+        <v>6265.8686868686864</v>
       </c>
       <c r="J87">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H87,"")</f>
-        <v>8352</v>
+        <v>8640</v>
       </c>
       <c r="K87">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H87,"")</f>
-        <v>4429.75</v>
+        <v>5056.6666666666661</v>
       </c>
       <c r="L87">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H87,"")</f>
-        <v>4779.727272727273</v>
+        <v>4944.545454545454</v>
       </c>
       <c r="M87">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H87,"")</f>
-        <v>6345.2000000000007</v>
+        <v>6564</v>
       </c>
       <c r="N87">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H87,"")</f>
-        <v>6931</v>
+        <v>7170</v>
       </c>
       <c r="O87">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H87,"")</f>
-        <v>5046</v>
+        <v>5220</v>
       </c>
       <c r="P87">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F87,"")</f>
@@ -60972,11 +61818,11 @@
       </c>
       <c r="B88">
         <f>COUNTIF(CSL_Sonuclari!C:J,A88)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C88" s="5">
         <f t="shared" si="8"/>
-        <v>2233.4800000000005</v>
+        <v>2331.2095238095235</v>
       </c>
       <c r="D88">
         <f>COUNTIF(CSL_Sonuclari!J:J,A88)</f>
@@ -60996,19 +61842,19 @@
       </c>
       <c r="H88">
         <f>COUNTIF(CSL_Sonuclari!C:H,A88)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I88" s="5">
         <f t="shared" si="11"/>
-        <v>3001.8000000000006</v>
+        <v>3164.6825396825393</v>
       </c>
       <c r="J88">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H88,"")</f>
-        <v>4789.4000000000005</v>
+        <v>5127.4761904761899</v>
       </c>
       <c r="K88">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H88,"")</f>
-        <v>3572</v>
+        <v>3699.5714285714284</v>
       </c>
       <c r="L88" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H88,"")</f>
@@ -61024,7 +61870,7 @@
       </c>
       <c r="O88">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H88,"")</f>
-        <v>644</v>
+        <v>667</v>
       </c>
       <c r="P88">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F88,"")</f>
@@ -61041,35 +61887,35 @@
       </c>
       <c r="B89">
         <f>COUNTIF(CSL_Sonuclari!C:J,A89)</f>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C89" s="5">
         <f t="shared" si="8"/>
-        <v>4838.0793650793648</v>
+        <v>5110.4873015873018</v>
       </c>
       <c r="D89">
         <f>COUNTIF(CSL_Sonuclari!J:J,A89)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E89" s="5">
         <f t="shared" si="9"/>
-        <v>993</v>
+        <v>1381</v>
       </c>
       <c r="F89" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A89)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G89" s="8">
         <f t="shared" si="10"/>
-        <v>158</v>
+        <v>546</v>
       </c>
       <c r="H89">
         <f>COUNTIF(CSL_Sonuclari!C:H,A89)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I89" s="5">
         <f t="shared" si="11"/>
-        <v>6543.1111111111113</v>
+        <v>6769.2822222222221</v>
       </c>
       <c r="J89" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H89,"")</f>
@@ -61077,31 +61923,31 @@
       </c>
       <c r="K89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H89,"")</f>
-        <v>2180</v>
+        <v>2234.5</v>
       </c>
       <c r="L89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H89,"")</f>
-        <v>4480</v>
+        <v>4592</v>
       </c>
       <c r="M89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H89,"")</f>
-        <v>10275.555555555557</v>
+        <v>10532.444444444445</v>
       </c>
       <c r="N89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H89,"")</f>
-        <v>7100</v>
+        <v>7590.4666666666662</v>
       </c>
       <c r="O89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H89,"")</f>
-        <v>8680</v>
+        <v>8897</v>
       </c>
       <c r="P89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F89,"")</f>
-        <v>158</v>
+        <v>546</v>
       </c>
       <c r="Q89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D89,"")</f>
-        <v>993</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
@@ -61179,11 +62025,11 @@
       </c>
       <c r="B91">
         <f>COUNTIF(CSL_Sonuclari!C:J,A91)</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C91" s="5">
         <f t="shared" si="8"/>
-        <v>5348.640151515151</v>
+        <v>5714.0938228438217</v>
       </c>
       <c r="D91">
         <f>COUNTIF(CSL_Sonuclari!J:J,A91)</f>
@@ -61203,27 +62049,27 @@
       </c>
       <c r="H91">
         <f>COUNTIF(CSL_Sonuclari!C:H,A91)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I91" s="5">
         <f t="shared" si="11"/>
-        <v>7528.460227272727</v>
+        <v>8076.640734265734</v>
       </c>
       <c r="J91">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H91,"")</f>
-        <v>6634.090909090909</v>
+        <v>7013.181818181818</v>
       </c>
       <c r="K91">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H91,"")</f>
-        <v>6186.25</v>
+        <v>6879.1538461538466</v>
       </c>
       <c r="L91">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H91,"")</f>
-        <v>8911</v>
+        <v>9552.7272727272721</v>
       </c>
       <c r="M91">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H91,"")</f>
-        <v>8382.5</v>
+        <v>8861.5</v>
       </c>
       <c r="N91" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H91,"")</f>
@@ -61332,15 +62178,15 @@
       </c>
       <c r="B3">
         <f>COUNTIF(SL_Sonuclari!C:H,A3)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="5">
         <f t="shared" si="0"/>
-        <v>90.790322580645167</v>
+        <v>94.25</v>
       </c>
       <c r="D3">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A3,SL_Sonuclari!A:A),"")</f>
-        <v>174.58064516129033</v>
+        <v>181.5</v>
       </c>
       <c r="E3" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A3,SL_Sonuclari!A:A),"")</f>
@@ -61365,11 +62211,11 @@
       </c>
       <c r="B4">
         <f>COUNTIF(SL_Sonuclari!C:H,A4)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="5">
         <f t="shared" si="0"/>
-        <v>104.66249999999999</v>
+        <v>112.27916666666667</v>
       </c>
       <c r="D4">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A4,SL_Sonuclari!A:A),"")</f>
@@ -61385,7 +62231,7 @@
       </c>
       <c r="G4">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A4,SL_Sonuclari!A:A),"")</f>
-        <v>203.2</v>
+        <v>233.66666666666666</v>
       </c>
       <c r="H4">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A4,SL_Sonuclari!A:A),"")</f>
@@ -61398,15 +62244,15 @@
       </c>
       <c r="B5">
         <f>COUNTIF(SL_Sonuclari!C:H,A5)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" s="5">
         <f t="shared" si="0"/>
-        <v>109.44642857142857</v>
+        <v>115.43333333333334</v>
       </c>
       <c r="D5">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A5,SL_Sonuclari!A:A),"")</f>
-        <v>211.89285714285714</v>
+        <v>223.86666666666667</v>
       </c>
       <c r="E5" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A5,SL_Sonuclari!A:A),"")</f>
@@ -61431,11 +62277,11 @@
       </c>
       <c r="B6">
         <f>COUNTIF(SL_Sonuclari!C:H,A6)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="5">
         <f t="shared" si="0"/>
-        <v>127.10416666666666</v>
+        <v>132.0625</v>
       </c>
       <c r="D6">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A6,SL_Sonuclari!A:A),"")</f>
@@ -61443,7 +62289,7 @@
       </c>
       <c r="E6">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A6,SL_Sonuclari!A:A),"")</f>
-        <v>187.66666666666666</v>
+        <v>207.5</v>
       </c>
       <c r="F6">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A6,SL_Sonuclari!A:A),"")</f>
@@ -61530,11 +62376,11 @@
       </c>
       <c r="B9">
         <f>COUNTIF(SL_Sonuclari!C:H,A9)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>140.61666666666667</v>
+        <v>185.74166666666667</v>
       </c>
       <c r="D9">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A9,SL_Sonuclari!A:A),"")</f>
@@ -61546,7 +62392,7 @@
       </c>
       <c r="F9">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A9,SL_Sonuclari!A:A),"")</f>
-        <v>25</v>
+        <v>205.5</v>
       </c>
       <c r="G9">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A9,SL_Sonuclari!A:A),"")</f>
@@ -61596,11 +62442,11 @@
       </c>
       <c r="B11">
         <f>COUNTIF(SL_Sonuclari!C:H,A11)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="0"/>
-        <v>143.13792293233081</v>
+        <v>146.37750626566415</v>
       </c>
       <c r="D11">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A11,SL_Sonuclari!A:A),"")</f>
@@ -61612,7 +62458,7 @@
       </c>
       <c r="F11">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A11,SL_Sonuclari!A:A),"")</f>
-        <v>270.375</v>
+        <v>283.33333333333331</v>
       </c>
       <c r="G11">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A11,SL_Sonuclari!A:A),"")</f>
@@ -61629,19 +62475,19 @@
       </c>
       <c r="B12">
         <f>COUNTIF(SL_Sonuclari!C:H,A12)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="0"/>
-        <v>145.62777777777779</v>
+        <v>151.94404761904764</v>
       </c>
       <c r="D12">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A12,SL_Sonuclari!A:A),"")</f>
-        <v>188.9</v>
+        <v>198.47619047619048</v>
       </c>
       <c r="E12">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A12,SL_Sonuclari!A:A),"")</f>
-        <v>237.11111111111111</v>
+        <v>252.8</v>
       </c>
       <c r="F12">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A12,SL_Sonuclari!A:A),"")</f>
@@ -61695,11 +62541,11 @@
       </c>
       <c r="B14">
         <f>COUNTIF(SL_Sonuclari!C:H,A14)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="0"/>
-        <v>159.39775910364148</v>
+        <v>167.79775910364145</v>
       </c>
       <c r="D14">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A14,SL_Sonuclari!A:A),"")</f>
@@ -61715,7 +62561,7 @@
       </c>
       <c r="G14">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A14,SL_Sonuclari!A:A),"")</f>
-        <v>219</v>
+        <v>261</v>
       </c>
       <c r="H14">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A14,SL_Sonuclari!A:A),"")</f>
@@ -61728,11 +62574,11 @@
       </c>
       <c r="B15">
         <f>COUNTIF(SL_Sonuclari!C:H,A15)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="0"/>
-        <v>179.24949494949493</v>
+        <v>185.37330447330447</v>
       </c>
       <c r="D15">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A15,SL_Sonuclari!A:A),"")</f>
@@ -61748,7 +62594,7 @@
       </c>
       <c r="G15">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A15,SL_Sonuclari!A:A),"")</f>
-        <v>179.66666666666666</v>
+        <v>210.28571428571428</v>
       </c>
       <c r="H15">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A15,SL_Sonuclari!A:A),"")</f>
@@ -61761,15 +62607,15 @@
       </c>
       <c r="B16">
         <f>COUNTIF(SL_Sonuclari!C:H,A16)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
-        <v>178.40862745098039</v>
+        <v>189.85862745098038</v>
       </c>
       <c r="D16">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A16,SL_Sonuclari!A:A),"")</f>
-        <v>159.5</v>
+        <v>216.75</v>
       </c>
       <c r="E16">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A16,SL_Sonuclari!A:A),"")</f>
@@ -61827,11 +62673,11 @@
       </c>
       <c r="B18">
         <f>COUNTIF(SL_Sonuclari!C:H,A18)</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="0"/>
-        <v>142.73015873015871</v>
+        <v>145.82034632034632</v>
       </c>
       <c r="D18" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A18,SL_Sonuclari!A:A),"")</f>
@@ -61851,7 +62697,7 @@
       </c>
       <c r="H18">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A18,SL_Sonuclari!A:A),"")</f>
-        <v>184.04761904761904</v>
+        <v>193.31818181818181</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -61860,11 +62706,11 @@
       </c>
       <c r="B19">
         <f>COUNTIF(SL_Sonuclari!C:H,A19)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
-        <v>132.58333333333334</v>
+        <v>152.61666666666667</v>
       </c>
       <c r="D19" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A19,SL_Sonuclari!A:A),"")</f>
@@ -61880,7 +62726,7 @@
       </c>
       <c r="G19">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A19,SL_Sonuclari!A:A),"")</f>
-        <v>95.5</v>
+        <v>155.6</v>
       </c>
       <c r="H19">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A19,SL_Sonuclari!A:A),"")</f>
@@ -61893,11 +62739,11 @@
       </c>
       <c r="B20">
         <f>COUNTIF(SL_Sonuclari!C:H,A20)</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
-        <v>189.53968253968253</v>
+        <v>195.62702020202022</v>
       </c>
       <c r="D20">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A20,SL_Sonuclari!A:A),"")</f>
@@ -61905,11 +62751,11 @@
       </c>
       <c r="E20">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A20,SL_Sonuclari!A:A),"")</f>
-        <v>242</v>
+        <v>255.36363636363637</v>
       </c>
       <c r="F20">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A20,SL_Sonuclari!A:A),"")</f>
-        <v>226.21428571428572</v>
+        <v>237.2</v>
       </c>
       <c r="G20">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A20,SL_Sonuclari!A:A),"")</f>
@@ -61992,11 +62838,11 @@
       </c>
       <c r="B23">
         <f>COUNTIF(SL_Sonuclari!C:H,A23)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
-        <v>186.70882936507937</v>
+        <v>192.50396825396825</v>
       </c>
       <c r="D23" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A23,SL_Sonuclari!A:A),"")</f>
@@ -62008,7 +62854,7 @@
       </c>
       <c r="F23">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A23,SL_Sonuclari!A:A),"")</f>
-        <v>180.375</v>
+        <v>203.55555555555554</v>
       </c>
       <c r="G23">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A23,SL_Sonuclari!A:A),"")</f>
@@ -62025,11 +62871,11 @@
       </c>
       <c r="B24">
         <f>COUNTIF(SL_Sonuclari!C:H,A24)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="5">
         <f t="shared" si="0"/>
-        <v>181.35470085470084</v>
+        <v>185.44444444444446</v>
       </c>
       <c r="D24" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A24,SL_Sonuclari!A:A),"")</f>
@@ -62049,7 +62895,7 @@
       </c>
       <c r="H24">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A24,SL_Sonuclari!A:A),"")</f>
-        <v>219.23076923076923</v>
+        <v>231.5</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -62091,11 +62937,11 @@
       </c>
       <c r="B26">
         <f>COUNTIF(SL_Sonuclari!C:H,A26)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" s="5">
         <f t="shared" si="0"/>
-        <v>154.72857142857143</v>
+        <v>157.65565476190477</v>
       </c>
       <c r="D26" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A26,SL_Sonuclari!A:A),"")</f>
@@ -62115,7 +62961,7 @@
       </c>
       <c r="H26">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A26,SL_Sonuclari!A:A),"")</f>
-        <v>206.66666666666666</v>
+        <v>218.375</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -62124,11 +62970,11 @@
       </c>
       <c r="B27">
         <f>COUNTIF(SL_Sonuclari!C:H,A27)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C27" s="5">
         <f t="shared" si="0"/>
-        <v>154.5625</v>
+        <v>172.05</v>
       </c>
       <c r="D27" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A27,SL_Sonuclari!A:A),"")</f>
@@ -62148,7 +62994,7 @@
       </c>
       <c r="H27">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A27,SL_Sonuclari!A:A),"")</f>
-        <v>219.125</v>
+        <v>254.1</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -62190,11 +63036,11 @@
       </c>
       <c r="B29">
         <f>COUNTIF(SL_Sonuclari!C:H,A29)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C29" s="5">
         <f t="shared" si="0"/>
-        <v>182.41964285714286</v>
+        <v>185.59583333333333</v>
       </c>
       <c r="D29" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A29,SL_Sonuclari!A:A),"")</f>
@@ -62210,7 +63056,7 @@
       </c>
       <c r="G29">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A29,SL_Sonuclari!A:A),"")</f>
-        <v>198.42857142857142</v>
+        <v>211.13333333333333</v>
       </c>
       <c r="H29">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A29,SL_Sonuclari!A:A),"")</f>
@@ -62223,11 +63069,11 @@
       </c>
       <c r="B30">
         <f>COUNTIF(SL_Sonuclari!C:H,A30)</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C30" s="5">
         <f t="shared" si="0"/>
-        <v>175.65757575757576</v>
+        <v>180.42564102564103</v>
       </c>
       <c r="D30">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A30,SL_Sonuclari!A:A),"")</f>
@@ -62239,11 +63085,11 @@
       </c>
       <c r="F30">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A30,SL_Sonuclari!A:A),"")</f>
-        <v>199.45454545454547</v>
+        <v>215.33333333333334</v>
       </c>
       <c r="G30">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A30,SL_Sonuclari!A:A),"")</f>
-        <v>289.5</v>
+        <v>297.46153846153845</v>
       </c>
       <c r="H30">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A30,SL_Sonuclari!A:A),"")</f>
@@ -62256,11 +63102,11 @@
       </c>
       <c r="B31">
         <f>COUNTIF(SL_Sonuclari!C:H,A31)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C31" s="5">
         <f t="shared" si="0"/>
-        <v>171.31777777777779</v>
+        <v>176.6888888888889</v>
       </c>
       <c r="D31">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A31,SL_Sonuclari!A:A),"")</f>
@@ -62268,7 +63114,7 @@
       </c>
       <c r="E31">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A31,SL_Sonuclari!A:A),"")</f>
-        <v>124.44444444444444</v>
+        <v>151.30000000000001</v>
       </c>
       <c r="F31">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A31,SL_Sonuclari!A:A),"")</f>
@@ -62289,11 +63135,11 @@
       </c>
       <c r="B32">
         <f>COUNTIF(SL_Sonuclari!C:H,A32)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C32" s="5">
         <f t="shared" si="0"/>
-        <v>204.1</v>
+        <v>208.24404761904762</v>
       </c>
       <c r="D32" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A32,SL_Sonuclari!A:A),"")</f>
@@ -62313,7 +63159,7 @@
       </c>
       <c r="H32">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A32,SL_Sonuclari!A:A),"")</f>
-        <v>220.95</v>
+        <v>229.23809523809524</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -62322,11 +63168,11 @@
       </c>
       <c r="B33">
         <f>COUNTIF(SL_Sonuclari!C:H,A33)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C33" s="5">
         <f t="shared" si="0"/>
-        <v>167.67994505494505</v>
+        <v>177.25931013431014</v>
       </c>
       <c r="D33" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A33,SL_Sonuclari!A:A),"")</f>
@@ -62334,7 +63180,7 @@
       </c>
       <c r="E33">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A33,SL_Sonuclari!A:A),"")</f>
-        <v>218.57142857142858</v>
+        <v>256.88888888888891</v>
       </c>
       <c r="F33">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A33,SL_Sonuclari!A:A),"")</f>
@@ -62355,11 +63201,11 @@
       </c>
       <c r="B34">
         <f>COUNTIF(SL_Sonuclari!C:H,A34)</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C34" s="5">
         <f t="shared" ref="C34:C61" si="1">AVERAGE(D34:H34)</f>
-        <v>210.35</v>
+        <v>270.90000000000003</v>
       </c>
       <c r="D34" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A34,SL_Sonuclari!A:A),"")</f>
@@ -62369,9 +63215,9 @@
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A34,SL_Sonuclari!A:A),"")</f>
         <v/>
       </c>
-      <c r="F34" t="str">
+      <c r="F34">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A34,SL_Sonuclari!A:A),"")</f>
-        <v/>
+        <v>392</v>
       </c>
       <c r="G34">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A34,SL_Sonuclari!A:A),"")</f>
@@ -62421,11 +63267,11 @@
       </c>
       <c r="B36">
         <f>COUNTIF(SL_Sonuclari!C:H,A36)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C36" s="5">
         <f t="shared" si="1"/>
-        <v>176.89743589743588</v>
+        <v>184.7777777777778</v>
       </c>
       <c r="D36" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A36,SL_Sonuclari!A:A),"")</f>
@@ -62445,7 +63291,7 @@
       </c>
       <c r="H36">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A36,SL_Sonuclari!A:A),"")</f>
-        <v>213.69230769230768</v>
+        <v>237.33333333333334</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -62454,15 +63300,15 @@
       </c>
       <c r="B37">
         <f>COUNTIF(SL_Sonuclari!C:H,A37)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C37" s="5">
         <f t="shared" si="1"/>
-        <v>175.88095238095238</v>
+        <v>177.82799671592775</v>
       </c>
       <c r="D37">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A37,SL_Sonuclari!A:A),"")</f>
-        <v>217.60714285714286</v>
+        <v>223.44827586206895</v>
       </c>
       <c r="E37">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A37,SL_Sonuclari!A:A),"")</f>
@@ -62487,11 +63333,11 @@
       </c>
       <c r="B38">
         <f>COUNTIF(SL_Sonuclari!C:H,A38)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" s="5">
         <f t="shared" si="1"/>
-        <v>170.22647058823532</v>
+        <v>173.16111111111113</v>
       </c>
       <c r="D38">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A38,SL_Sonuclari!A:A),"")</f>
@@ -62503,7 +63349,7 @@
       </c>
       <c r="F38">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A38,SL_Sonuclari!A:A),"")</f>
-        <v>184.70588235294119</v>
+        <v>196.44444444444446</v>
       </c>
       <c r="G38">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A38,SL_Sonuclari!A:A),"")</f>
@@ -62520,11 +63366,11 @@
       </c>
       <c r="B39">
         <f>COUNTIF(SL_Sonuclari!C:H,A39)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C39" s="5">
         <f t="shared" si="1"/>
-        <v>203.61192810457516</v>
+        <v>207.53970588235293</v>
       </c>
       <c r="D39">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A39,SL_Sonuclari!A:A),"")</f>
@@ -62536,7 +63382,7 @@
       </c>
       <c r="F39">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A39,SL_Sonuclari!A:A),"")</f>
-        <v>236.88888888888889</v>
+        <v>252.6</v>
       </c>
       <c r="G39">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A39,SL_Sonuclari!A:A),"")</f>
@@ -62553,11 +63399,11 @@
       </c>
       <c r="B40">
         <f>COUNTIF(SL_Sonuclari!C:H,A40)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C40" s="5">
         <f t="shared" si="1"/>
-        <v>199.55269607843135</v>
+        <v>206.58245798319325</v>
       </c>
       <c r="D40" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A40,SL_Sonuclari!A:A),"")</f>
@@ -62577,7 +63423,7 @@
       </c>
       <c r="H40">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A40,SL_Sonuclari!A:A),"")</f>
-        <v>190.16666666666666</v>
+        <v>218.28571428571428</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -62586,11 +63432,11 @@
       </c>
       <c r="B41">
         <f>COUNTIF(SL_Sonuclari!C:H,A41)</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C41" s="5">
         <f t="shared" si="1"/>
-        <v>187.05308441558444</v>
+        <v>189.16260822510824</v>
       </c>
       <c r="D41" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A41,SL_Sonuclari!A:A),"")</f>
@@ -62606,7 +63452,7 @@
       </c>
       <c r="G41">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A41,SL_Sonuclari!A:A),"")</f>
-        <v>212.8</v>
+        <v>221.23809523809524</v>
       </c>
       <c r="H41">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A41,SL_Sonuclari!A:A),"")</f>
@@ -62619,7 +63465,7 @@
       </c>
       <c r="B42">
         <f>COUNTIF(SL_Sonuclari!C:H,A42)</f>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C42" s="5">
         <f t="shared" si="1"/>
@@ -62652,11 +63498,11 @@
       </c>
       <c r="B43">
         <f>COUNTIF(SL_Sonuclari!C:H,A43)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C43" s="5">
         <f t="shared" si="1"/>
-        <v>194.74074074074073</v>
+        <v>201.36574074074073</v>
       </c>
       <c r="D43" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A43,SL_Sonuclari!A:A),"")</f>
@@ -62668,7 +63514,7 @@
       </c>
       <c r="F43">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A43,SL_Sonuclari!A:A),"")</f>
-        <v>229</v>
+        <v>248.875</v>
       </c>
       <c r="G43">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A43,SL_Sonuclari!A:A),"")</f>
@@ -62685,15 +63531,15 @@
       </c>
       <c r="B44">
         <f>COUNTIF(SL_Sonuclari!C:H,A44)</f>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C44" s="5">
         <f t="shared" si="1"/>
-        <v>216.14999999999998</v>
+        <v>222.13488372093025</v>
       </c>
       <c r="D44">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A44,SL_Sonuclari!A:A),"")</f>
-        <v>220.1</v>
+        <v>232.06976744186048</v>
       </c>
       <c r="E44">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A44,SL_Sonuclari!A:A),"")</f>
@@ -62718,11 +63564,11 @@
       </c>
       <c r="B45">
         <f>COUNTIF(SL_Sonuclari!C:H,A45)</f>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C45" s="5">
         <f t="shared" si="1"/>
-        <v>193.52828839869281</v>
+        <v>202.45034722222223</v>
       </c>
       <c r="D45" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A45,SL_Sonuclari!A:A),"")</f>
@@ -62734,7 +63580,7 @@
       </c>
       <c r="F45">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A45,SL_Sonuclari!A:A),"")</f>
-        <v>152.88888888888889</v>
+        <v>177.1</v>
       </c>
       <c r="G45">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A45,SL_Sonuclari!A:A),"")</f>
@@ -62742,7 +63588,7 @@
       </c>
       <c r="H45">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A45,SL_Sonuclari!A:A),"")</f>
-        <v>183.41176470588235</v>
+        <v>194.88888888888889</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -62784,19 +63630,19 @@
       </c>
       <c r="B47">
         <f>COUNTIF(SL_Sonuclari!C:H,A47)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C47" s="5">
         <f t="shared" si="1"/>
-        <v>210.67818627450981</v>
+        <v>225.41944444444442</v>
       </c>
       <c r="D47">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A47,SL_Sonuclari!A:A),"")</f>
-        <v>147.75</v>
+        <v>196.8</v>
       </c>
       <c r="E47">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A47,SL_Sonuclari!A:A),"")</f>
-        <v>217.52941176470588</v>
+        <v>227.44444444444446</v>
       </c>
       <c r="F47">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A47,SL_Sonuclari!A:A),"")</f>
@@ -62817,11 +63663,11 @@
       </c>
       <c r="B48">
         <f>COUNTIF(SL_Sonuclari!C:H,A48)</f>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C48" s="5">
         <f t="shared" si="1"/>
-        <v>216.99410774410774</v>
+        <v>222.34259259259261</v>
       </c>
       <c r="D48">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A48,SL_Sonuclari!A:A),"")</f>
@@ -62829,7 +63675,7 @@
       </c>
       <c r="E48">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A48,SL_Sonuclari!A:A),"")</f>
-        <v>196.45454545454547</v>
+        <v>212.5</v>
       </c>
       <c r="F48">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A48,SL_Sonuclari!A:A),"")</f>
@@ -62883,11 +63729,11 @@
       </c>
       <c r="B50">
         <f>COUNTIF(SL_Sonuclari!C:H,A50)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C50" s="5">
         <f t="shared" si="1"/>
-        <v>208.44335664335668</v>
+        <v>210.91153846153847</v>
       </c>
       <c r="D50">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A50,SL_Sonuclari!A:A),"")</f>
@@ -62899,7 +63745,7 @@
       </c>
       <c r="F50">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A50,SL_Sonuclari!A:A),"")</f>
-        <v>244.90909090909091</v>
+        <v>257.25</v>
       </c>
       <c r="G50">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A50,SL_Sonuclari!A:A),"")</f>
@@ -62949,11 +63795,11 @@
       </c>
       <c r="B52">
         <f>COUNTIF(SL_Sonuclari!C:H,A52)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C52" s="5">
         <f t="shared" si="1"/>
-        <v>208.6875</v>
+        <v>213.35763888888889</v>
       </c>
       <c r="D52" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A52,SL_Sonuclari!A:A),"")</f>
@@ -62969,7 +63815,7 @@
       </c>
       <c r="G52">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A52,SL_Sonuclari!A:A),"")</f>
-        <v>223.375</v>
+        <v>242.05555555555554</v>
       </c>
       <c r="H52">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A52,SL_Sonuclari!A:A),"")</f>
@@ -62982,11 +63828,11 @@
       </c>
       <c r="B53">
         <f>COUNTIF(SL_Sonuclari!C:H,A53)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C53" s="5">
         <f t="shared" si="1"/>
-        <v>229.6436011904762</v>
+        <v>232.25665266106444</v>
       </c>
       <c r="D53">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A53,SL_Sonuclari!A:A),"")</f>
@@ -62994,7 +63840,7 @@
       </c>
       <c r="E53">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A53,SL_Sonuclari!A:A),"")</f>
-        <v>217.3125</v>
+        <v>227.76470588235293</v>
       </c>
       <c r="F53">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A53,SL_Sonuclari!A:A),"")</f>
@@ -63015,11 +63861,11 @@
       </c>
       <c r="B54">
         <f>COUNTIF(SL_Sonuclari!C:H,A54)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C54" s="5">
         <f t="shared" si="1"/>
-        <v>197.8</v>
+        <v>218.66666666666666</v>
       </c>
       <c r="D54">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A54,SL_Sonuclari!A:A),"")</f>
@@ -63027,7 +63873,7 @@
       </c>
       <c r="E54">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A54,SL_Sonuclari!A:A),"")</f>
-        <v>137</v>
+        <v>220.66666666666666</v>
       </c>
       <c r="F54">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A54,SL_Sonuclari!A:A),"")</f>
@@ -63035,7 +63881,7 @@
       </c>
       <c r="G54">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A54,SL_Sonuclari!A:A),"")</f>
-        <v>267</v>
+        <v>287.66666666666669</v>
       </c>
       <c r="H54">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A54,SL_Sonuclari!A:A),"")</f>
@@ -63114,11 +63960,11 @@
       </c>
       <c r="B57">
         <f>COUNTIF(SL_Sonuclari!C:H,A57)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C57" s="5">
         <f t="shared" si="1"/>
-        <v>206.75</v>
+        <v>211.78070175438597</v>
       </c>
       <c r="D57" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A57,SL_Sonuclari!A:A),"")</f>
@@ -63138,11 +63984,11 @@
       </c>
       <c r="H57">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A57,SL_Sonuclari!A:A),"")</f>
-        <v>194.83333333333334</v>
+        <v>204.89473684210526</v>
       </c>
       <c r="I57">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!H:H,A57,SL_Sonuclari!A:A),"")</f>
-        <v>172.25</v>
+        <v>185.29411764705881</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -63217,11 +64063,11 @@
       </c>
       <c r="B60">
         <f>COUNTIF(SL_Sonuclari!C:H,A60)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C60" s="5">
         <f t="shared" si="1"/>
-        <v>221.85606060606059</v>
+        <v>234.5393939393939</v>
       </c>
       <c r="D60" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A60,SL_Sonuclari!A:A),"")</f>
@@ -63237,7 +64083,7 @@
       </c>
       <c r="G60">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A60,SL_Sonuclari!A:A),"")</f>
-        <v>201.75</v>
+        <v>239.8</v>
       </c>
       <c r="H60">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A60,SL_Sonuclari!A:A),"")</f>
@@ -63250,7 +64096,7 @@
       </c>
       <c r="B61">
         <f>COUNTIF(SL_Sonuclari!C:H,A61)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C61" s="5" t="e">
         <f t="shared" si="1"/>

--- a/SLIStatistik.xlsx
+++ b/SLIStatistik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\ReadExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67529EA5-42CE-4A2E-B015-D69487EB3DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11663A36-5406-477E-AD80-375692289140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12765" windowHeight="15600" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
   </bookViews>
   <sheets>
     <sheet name="CSL_Sonuclari" sheetId="2" r:id="rId1"/>
@@ -612,13 +612,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21120D27-1448-4179-993C-6B3BE739480A}">
-  <dimension ref="A1:L398"/>
+  <dimension ref="A1:L400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B366" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B369" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A399" sqref="A399"/>
+      <selection pane="bottomRight" activeCell="I400" sqref="I400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12775,6 +12775,70 @@
         <v>4</v>
       </c>
     </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A399" s="2">
+        <v>297</v>
+      </c>
+      <c r="B399" s="1">
+        <v>44977</v>
+      </c>
+      <c r="C399" s="2">
+        <v>5</v>
+      </c>
+      <c r="D399" s="2">
+        <v>13</v>
+      </c>
+      <c r="E399" s="2">
+        <v>42</v>
+      </c>
+      <c r="F399" s="2">
+        <v>45</v>
+      </c>
+      <c r="G399" s="2">
+        <v>68</v>
+      </c>
+      <c r="H399" s="2">
+        <v>81</v>
+      </c>
+      <c r="I399" s="2">
+        <v>41</v>
+      </c>
+      <c r="J399" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A400" s="2">
+        <v>298</v>
+      </c>
+      <c r="B400" s="1">
+        <v>44979</v>
+      </c>
+      <c r="C400" s="2">
+        <v>21</v>
+      </c>
+      <c r="D400" s="2">
+        <v>24</v>
+      </c>
+      <c r="E400" s="2">
+        <v>63</v>
+      </c>
+      <c r="F400" s="2">
+        <v>72</v>
+      </c>
+      <c r="G400" s="2">
+        <v>80</v>
+      </c>
+      <c r="H400" s="2">
+        <v>86</v>
+      </c>
+      <c r="I400" s="2">
+        <v>46</v>
+      </c>
+      <c r="J400" s="2">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J311">
     <sortCondition ref="B2:B311"/>
@@ -12786,10 +12850,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8BCBFC-83B0-4863-9D9A-FF955DDDA58C}">
-  <dimension ref="A1:H398"/>
+  <dimension ref="A1:H399"/>
   <sheetViews>
     <sheetView topLeftCell="A367" workbookViewId="0">
-      <selection activeCell="A399" sqref="A399"/>
+      <selection activeCell="A400" sqref="A400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23145,6 +23209,32 @@
         <v>59</v>
       </c>
     </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>397</v>
+      </c>
+      <c r="B399" s="1">
+        <v>45006</v>
+      </c>
+      <c r="C399">
+        <v>9</v>
+      </c>
+      <c r="D399">
+        <v>15</v>
+      </c>
+      <c r="E399">
+        <v>16</v>
+      </c>
+      <c r="F399">
+        <v>38</v>
+      </c>
+      <c r="G399">
+        <v>45</v>
+      </c>
+      <c r="H399">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H311">
     <sortCondition ref="B2:B311"/>
@@ -23155,10 +23245,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4513EEF-0F11-4AC5-A4C7-CB00A18EA83B}">
-  <dimension ref="A1:H1255"/>
+  <dimension ref="A1:H1256"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1237" workbookViewId="0">
-      <selection activeCell="A1256" sqref="A1256"/>
+      <selection activeCell="A1257" sqref="A1257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55794,6 +55884,32 @@
       </c>
       <c r="H1255">
         <v>13</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1256">
+        <v>1255</v>
+      </c>
+      <c r="B1256" s="1">
+        <v>44979</v>
+      </c>
+      <c r="C1256">
+        <v>1</v>
+      </c>
+      <c r="D1256">
+        <v>13</v>
+      </c>
+      <c r="E1256">
+        <v>23</v>
+      </c>
+      <c r="F1256">
+        <v>30</v>
+      </c>
+      <c r="G1256">
+        <v>34</v>
+      </c>
+      <c r="H1256">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -57057,19 +57173,19 @@
       </c>
       <c r="B19">
         <f>COUNTIF(CSL_Sonuclari!C:J,A19)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
-        <v>2386.4857142857145</v>
+        <v>2446.0857142857144</v>
       </c>
       <c r="D19">
         <f>COUNTIF(CSL_Sonuclari!J:J,A19)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>598</v>
       </c>
       <c r="F19" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A19)</f>
@@ -57117,7 +57233,7 @@
       </c>
       <c r="Q19">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D19,"")</f>
-        <v>300</v>
+        <v>598</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -57402,11 +57518,11 @@
       </c>
       <c r="B24">
         <f>COUNTIF(CSL_Sonuclari!C:J,A24)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C24" s="5">
         <f t="shared" si="0"/>
-        <v>4417.9890109890111</v>
+        <v>4621.5306122448983</v>
       </c>
       <c r="D24">
         <f>COUNTIF(CSL_Sonuclari!J:J,A24)</f>
@@ -57426,11 +57542,11 @@
       </c>
       <c r="H24">
         <f>COUNTIF(CSL_Sonuclari!C:H,A24)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I24" s="5">
         <f t="shared" si="3"/>
-        <v>5849.7846153846158</v>
+        <v>6134.7428571428572</v>
       </c>
       <c r="J24" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H24,"")</f>
@@ -57438,23 +57554,23 @@
       </c>
       <c r="K24">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H24,"")</f>
-        <v>6923</v>
+        <v>7224</v>
       </c>
       <c r="L24">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H24,"")</f>
-        <v>6900</v>
+        <v>7200</v>
       </c>
       <c r="M24">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H24,"")</f>
-        <v>5497</v>
+        <v>5736</v>
       </c>
       <c r="N24">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H24,"")</f>
-        <v>5152</v>
+        <v>5376</v>
       </c>
       <c r="O24">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H24,"")</f>
-        <v>4776.9230769230762</v>
+        <v>5137.7142857142862</v>
       </c>
       <c r="P24">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F24,"")</f>
@@ -57540,11 +57656,11 @@
       </c>
       <c r="B26">
         <f>COUNTIF(CSL_Sonuclari!C:J,A26)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26" s="5">
         <f t="shared" si="0"/>
-        <v>3778.8174603174607</v>
+        <v>3935.7023809523812</v>
       </c>
       <c r="D26">
         <f>COUNTIF(CSL_Sonuclari!J:J,A26)</f>
@@ -57564,11 +57680,11 @@
       </c>
       <c r="H26">
         <f>COUNTIF(CSL_Sonuclari!C:H,A26)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I26" s="5">
         <f t="shared" si="3"/>
-        <v>5302.9761904761908</v>
+        <v>5538.3035714285716</v>
       </c>
       <c r="J26" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H26,"")</f>
@@ -57580,19 +57696,19 @@
       </c>
       <c r="L26">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H26,"")</f>
-        <v>3150</v>
+        <v>3276</v>
       </c>
       <c r="M26">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H26,"")</f>
-        <v>4678.5714285714284</v>
+        <v>4865.7142857142853</v>
       </c>
       <c r="N26">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H26,"")</f>
-        <v>6264.5833333333339</v>
+        <v>6608</v>
       </c>
       <c r="O26">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H26,"")</f>
-        <v>7118.75</v>
+        <v>7403.5</v>
       </c>
       <c r="P26">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F26,"")</f>
@@ -57747,11 +57863,11 @@
       </c>
       <c r="B29">
         <f>COUNTIF(CSL_Sonuclari!C:J,A29)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C29" s="5">
         <f t="shared" si="0"/>
-        <v>3548.0952380952381</v>
+        <v>3590.5238095238096</v>
       </c>
       <c r="D29">
         <f>COUNTIF(CSL_Sonuclari!J:J,A29)</f>
@@ -57763,11 +57879,11 @@
       </c>
       <c r="F29" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A29)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29" s="8">
         <f t="shared" si="2"/>
-        <v>450</v>
+        <v>747</v>
       </c>
       <c r="H29">
         <f>COUNTIF(CSL_Sonuclari!C:H,A29)</f>
@@ -57803,7 +57919,7 @@
       </c>
       <c r="P29">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F29,"")</f>
-        <v>450</v>
+        <v>747</v>
       </c>
       <c r="Q29">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D29,"")</f>
@@ -58023,19 +58139,19 @@
       </c>
       <c r="B33">
         <f>COUNTIF(CSL_Sonuclari!C:J,A33)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C33" s="5">
         <f t="shared" si="0"/>
-        <v>4028.655701754386</v>
+        <v>4127.6557017543864</v>
       </c>
       <c r="D33">
         <f>COUNTIF(CSL_Sonuclari!J:J,A33)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E33" s="5">
         <f t="shared" si="1"/>
-        <v>679</v>
+        <v>976</v>
       </c>
       <c r="F33" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A33)</f>
@@ -58083,7 +58199,7 @@
       </c>
       <c r="Q33">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D33,"")</f>
-        <v>679</v>
+        <v>976</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -58161,11 +58277,11 @@
       </c>
       <c r="B35">
         <f>COUNTIF(CSL_Sonuclari!C:J,A35)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C35" s="5">
         <f t="shared" si="4"/>
-        <v>3941.1166666666668</v>
+        <v>4080.5</v>
       </c>
       <c r="D35">
         <f>COUNTIF(CSL_Sonuclari!J:J,A35)</f>
@@ -58185,11 +58301,11 @@
       </c>
       <c r="H35">
         <f>COUNTIF(CSL_Sonuclari!C:H,A35)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I35" s="5">
         <f t="shared" si="7"/>
-        <v>5628.1750000000002</v>
+        <v>5837.25</v>
       </c>
       <c r="J35" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H35,"")</f>
@@ -58201,19 +58317,19 @@
       </c>
       <c r="L35">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H35,"")</f>
-        <v>8236</v>
+        <v>8580</v>
       </c>
       <c r="M35">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H35,"")</f>
-        <v>4490.166666666667</v>
+        <v>4645</v>
       </c>
       <c r="N35">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H35,"")</f>
-        <v>6712.5333333333338</v>
+        <v>6944</v>
       </c>
       <c r="O35">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H35,"")</f>
-        <v>3074</v>
+        <v>3180</v>
       </c>
       <c r="P35">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F35,"")</f>
@@ -58644,11 +58760,11 @@
       </c>
       <c r="B42">
         <f>COUNTIF(CSL_Sonuclari!C:J,A42)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C42" s="5">
         <f t="shared" si="4"/>
-        <v>3433.5416666666665</v>
+        <v>3614.1018518518517</v>
       </c>
       <c r="D42">
         <f>COUNTIF(CSL_Sonuclari!J:J,A42)</f>
@@ -58668,23 +58784,23 @@
       </c>
       <c r="H42">
         <f>COUNTIF(CSL_Sonuclari!C:H,A42)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I42" s="5">
         <f t="shared" si="7"/>
-        <v>4779.5625</v>
+        <v>5050.4027777777774</v>
       </c>
       <c r="J42">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H42,"")</f>
-        <v>4789.125</v>
+        <v>5341.7777777777774</v>
       </c>
       <c r="K42">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H42,"")</f>
-        <v>4410</v>
+        <v>4573.3333333333339</v>
       </c>
       <c r="L42">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H42,"")</f>
-        <v>5180.625</v>
+        <v>5372.5</v>
       </c>
       <c r="M42" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H42,"")</f>
@@ -58692,7 +58808,7 @@
       </c>
       <c r="N42">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H42,"")</f>
-        <v>4738.5</v>
+        <v>4914</v>
       </c>
       <c r="O42" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H42,"")</f>
@@ -58920,11 +59036,11 @@
       </c>
       <c r="B46">
         <f>COUNTIF(CSL_Sonuclari!C:J,A46)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C46" s="5">
         <f t="shared" si="4"/>
-        <v>3038.3762626262628</v>
+        <v>3184.25</v>
       </c>
       <c r="D46">
         <f>COUNTIF(CSL_Sonuclari!J:J,A46)</f>
@@ -58944,11 +59060,11 @@
       </c>
       <c r="H46">
         <f>COUNTIF(CSL_Sonuclari!C:H,A46)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I46" s="5">
         <f t="shared" si="7"/>
-        <v>4297.064393939394</v>
+        <v>4515.875</v>
       </c>
       <c r="J46" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H46,"")</f>
@@ -58956,19 +59072,19 @@
       </c>
       <c r="K46">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H46,"")</f>
-        <v>3783.3333333333335</v>
+        <v>3934.666666666667</v>
       </c>
       <c r="L46">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H46,"")</f>
-        <v>5259.090909090909</v>
+        <v>5657.166666666667</v>
       </c>
       <c r="M46">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H46,"")</f>
-        <v>4108.3333333333339</v>
+        <v>4272.666666666667</v>
       </c>
       <c r="N46">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H46,"")</f>
-        <v>4037.5</v>
+        <v>4199</v>
       </c>
       <c r="O46" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H46,"")</f>
@@ -58989,11 +59105,11 @@
       </c>
       <c r="B47">
         <f>COUNTIF(CSL_Sonuclari!C:J,A47)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C47" s="5">
         <f t="shared" si="4"/>
-        <v>3399.5800000000004</v>
+        <v>3558.1018181818181</v>
       </c>
       <c r="D47">
         <f>COUNTIF(CSL_Sonuclari!J:J,A47)</f>
@@ -59013,11 +59129,11 @@
       </c>
       <c r="H47">
         <f>COUNTIF(CSL_Sonuclari!C:H,A47)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I47" s="5">
         <f t="shared" si="7"/>
-        <v>5289.3</v>
+        <v>5553.5030303030298</v>
       </c>
       <c r="J47" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H47,"")</f>
@@ -59033,15 +59149,15 @@
       </c>
       <c r="M47">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H47,"")</f>
-        <v>4266</v>
+        <v>4424</v>
       </c>
       <c r="N47">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H47,"")</f>
-        <v>5872.5</v>
+        <v>6294.909090909091</v>
       </c>
       <c r="O47">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H47,"")</f>
-        <v>5729.4</v>
+        <v>5941.5999999999995</v>
       </c>
       <c r="P47">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F47,"")</f>
@@ -59679,11 +59795,11 @@
       </c>
       <c r="B57">
         <f>COUNTIF(CSL_Sonuclari!C:J,A57)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C57" s="5">
         <f t="shared" si="4"/>
-        <v>4450.32</v>
+        <v>4662.4409523809518</v>
       </c>
       <c r="D57">
         <f>COUNTIF(CSL_Sonuclari!J:J,A57)</f>
@@ -59703,11 +59819,11 @@
       </c>
       <c r="H57">
         <f>COUNTIF(CSL_Sonuclari!C:H,A57)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I57" s="5">
         <f t="shared" si="7"/>
-        <v>5360.4</v>
+        <v>5625.5511904761897</v>
       </c>
       <c r="J57" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H57,"")</f>
@@ -59715,19 +59831,19 @@
       </c>
       <c r="K57">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H57,"")</f>
-        <v>7005.5999999999995</v>
+        <v>7255.7999999999993</v>
       </c>
       <c r="L57">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H57,"")</f>
-        <v>2926</v>
+        <v>3030.5</v>
       </c>
       <c r="M57">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H57,"")</f>
-        <v>5754</v>
+        <v>6254.333333333333</v>
       </c>
       <c r="N57">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H57,"")</f>
-        <v>5756</v>
+        <v>5961.5714285714294</v>
       </c>
       <c r="O57" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H57,"")</f>
@@ -59886,11 +60002,11 @@
       </c>
       <c r="B60">
         <f>COUNTIF(CSL_Sonuclari!C:J,A60)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60" s="5">
         <f t="shared" si="4"/>
-        <v>3073.1166666666663</v>
+        <v>3215.876923076923</v>
       </c>
       <c r="D60">
         <f>COUNTIF(CSL_Sonuclari!J:J,A60)</f>
@@ -59910,23 +60026,23 @@
       </c>
       <c r="H60">
         <f>COUNTIF(CSL_Sonuclari!C:H,A60)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I60" s="5">
         <f t="shared" si="7"/>
-        <v>4449.8611111111104</v>
+        <v>4687.7948717948721</v>
       </c>
       <c r="J60">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H60,"")</f>
-        <v>4063.333333333333</v>
+        <v>4240</v>
       </c>
       <c r="K60">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H60,"")</f>
-        <v>5192.25</v>
+        <v>5551.3846153846152</v>
       </c>
       <c r="L60">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H60,"")</f>
-        <v>4094</v>
+        <v>4272</v>
       </c>
       <c r="M60" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H60,"")</f>
@@ -60093,11 +60209,11 @@
       </c>
       <c r="B63">
         <f>COUNTIF(CSL_Sonuclari!C:J,A63)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C63" s="5">
         <f t="shared" si="4"/>
-        <v>3174.0227272727275</v>
+        <v>3565.3939393939395</v>
       </c>
       <c r="D63">
         <f>COUNTIF(CSL_Sonuclari!J:J,A63)</f>
@@ -60117,11 +60233,11 @@
       </c>
       <c r="H63">
         <f>COUNTIF(CSL_Sonuclari!C:H,A63)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I63" s="5">
         <f t="shared" si="7"/>
-        <v>4447.534090909091</v>
+        <v>5034.590909090909</v>
       </c>
       <c r="J63" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H63,"")</f>
@@ -60133,19 +60249,19 @@
       </c>
       <c r="L63">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H63,"")</f>
-        <v>6993</v>
+        <v>7252</v>
       </c>
       <c r="M63">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H63,"")</f>
-        <v>1530</v>
+        <v>3276</v>
       </c>
       <c r="N63">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H63,"")</f>
-        <v>3853.6363636363635</v>
+        <v>3996.363636363636</v>
       </c>
       <c r="O63">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H63,"")</f>
-        <v>5413.5</v>
+        <v>5614</v>
       </c>
       <c r="P63">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F63,"")</f>
@@ -60990,11 +61106,11 @@
       </c>
       <c r="B76">
         <f>COUNTIF(CSL_Sonuclari!C:J,A76)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C76" s="5">
         <f t="shared" si="8"/>
-        <v>5931.9632936507942</v>
+        <v>5969.2132936507942</v>
       </c>
       <c r="D76">
         <f>COUNTIF(CSL_Sonuclari!J:J,A76)</f>
@@ -61006,11 +61122,11 @@
       </c>
       <c r="F76" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A76)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G76" s="8">
         <f t="shared" si="10"/>
-        <v>1563</v>
+        <v>1860.9999999999998</v>
       </c>
       <c r="H76">
         <f>COUNTIF(CSL_Sonuclari!C:H,A76)</f>
@@ -61046,7 +61162,7 @@
       </c>
       <c r="P76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F76,"")</f>
-        <v>1563</v>
+        <v>1860.9999999999998</v>
       </c>
       <c r="Q76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D76,"")</f>
@@ -61404,11 +61520,11 @@
       </c>
       <c r="B82">
         <f>COUNTIF(CSL_Sonuclari!C:J,A82)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C82" s="5">
         <f t="shared" si="8"/>
-        <v>3977.1687499999998</v>
+        <v>4118.8500000000004</v>
       </c>
       <c r="D82">
         <f>COUNTIF(CSL_Sonuclari!J:J,A82)</f>
@@ -61428,11 +61544,11 @@
       </c>
       <c r="H82">
         <f>COUNTIF(CSL_Sonuclari!C:H,A82)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I82" s="5">
         <f t="shared" si="11"/>
-        <v>6953.8374999999996</v>
+        <v>7237.2</v>
       </c>
       <c r="J82" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H82,"")</f>
@@ -61452,11 +61568,11 @@
       </c>
       <c r="N82">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H82,"")</f>
-        <v>7371.7999999999993</v>
+        <v>7626</v>
       </c>
       <c r="O82">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H82,"")</f>
-        <v>6535.875</v>
+        <v>6848.4</v>
       </c>
       <c r="P82">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F82,"")</f>
@@ -61680,11 +61796,11 @@
       </c>
       <c r="B86">
         <f>COUNTIF(CSL_Sonuclari!C:J,A86)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C86" s="5">
         <f t="shared" si="8"/>
-        <v>4460.0923076923082</v>
+        <v>4623.0941176470587</v>
       </c>
       <c r="D86">
         <f>COUNTIF(CSL_Sonuclari!J:J,A86)</f>
@@ -61704,23 +61820,23 @@
       </c>
       <c r="H86">
         <f>COUNTIF(CSL_Sonuclari!C:H,A86)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I86" s="5">
         <f t="shared" si="11"/>
-        <v>6893.8205128205127</v>
+        <v>7165.4901960784309</v>
       </c>
       <c r="J86">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H86,"")</f>
-        <v>7054</v>
+        <v>7261.4705882352937</v>
       </c>
       <c r="K86">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H86,"")</f>
-        <v>7286.461538461539</v>
+        <v>7707.5</v>
       </c>
       <c r="L86">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H86,"")</f>
-        <v>6341</v>
+        <v>6527.5</v>
       </c>
       <c r="M86" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H86,"")</f>
@@ -61818,11 +61934,11 @@
       </c>
       <c r="B88">
         <f>COUNTIF(CSL_Sonuclari!C:J,A88)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C88" s="5">
         <f t="shared" si="8"/>
-        <v>2331.2095238095235</v>
+        <v>2429.4649350649352</v>
       </c>
       <c r="D88">
         <f>COUNTIF(CSL_Sonuclari!J:J,A88)</f>
@@ -61842,19 +61958,19 @@
       </c>
       <c r="H88">
         <f>COUNTIF(CSL_Sonuclari!C:H,A88)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I88" s="5">
         <f t="shared" si="11"/>
-        <v>3164.6825396825393</v>
+        <v>3328.4415584415583</v>
       </c>
       <c r="J88">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H88,"")</f>
-        <v>5127.4761904761899</v>
+        <v>5468.181818181818</v>
       </c>
       <c r="K88">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H88,"")</f>
-        <v>3699.5714285714284</v>
+        <v>3827.1428571428569</v>
       </c>
       <c r="L88" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H88,"")</f>
@@ -61870,7 +61986,7 @@
       </c>
       <c r="O88">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H88,"")</f>
-        <v>667</v>
+        <v>690</v>
       </c>
       <c r="P88">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F88,"")</f>
@@ -62640,11 +62756,11 @@
       </c>
       <c r="B17">
         <f>COUNTIF(SL_Sonuclari!C:H,A17)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="0"/>
-        <v>206.00952380952381</v>
+        <v>208.75333333333333</v>
       </c>
       <c r="D17">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A17,SL_Sonuclari!A:A),"")</f>
@@ -62652,7 +62768,7 @@
       </c>
       <c r="E17">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A17,SL_Sonuclari!A:A),"")</f>
-        <v>191.21428571428572</v>
+        <v>204.93333333333334</v>
       </c>
       <c r="F17">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A17,SL_Sonuclari!A:A),"")</f>
@@ -63135,11 +63251,11 @@
       </c>
       <c r="B32">
         <f>COUNTIF(SL_Sonuclari!C:H,A32)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5">
         <f t="shared" si="0"/>
-        <v>208.24404761904762</v>
+        <v>212.05681818181819</v>
       </c>
       <c r="D32" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A32,SL_Sonuclari!A:A),"")</f>
@@ -63159,7 +63275,7 @@
       </c>
       <c r="H32">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A32,SL_Sonuclari!A:A),"")</f>
-        <v>229.23809523809524</v>
+        <v>236.86363636363637</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -63267,7 +63383,7 @@
       </c>
       <c r="B36">
         <f>COUNTIF(SL_Sonuclari!C:H,A36)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C36" s="5">
         <f t="shared" si="1"/>
@@ -63564,11 +63680,11 @@
       </c>
       <c r="B45">
         <f>COUNTIF(SL_Sonuclari!C:H,A45)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C45" s="5">
         <f t="shared" si="1"/>
-        <v>202.45034722222223</v>
+        <v>205.61486928104577</v>
       </c>
       <c r="D45" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A45,SL_Sonuclari!A:A),"")</f>
@@ -63584,7 +63700,7 @@
       </c>
       <c r="G45">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A45,SL_Sonuclari!A:A),"")</f>
-        <v>181.8125</v>
+        <v>194.47058823529412</v>
       </c>
       <c r="H45">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A45,SL_Sonuclari!A:A),"")</f>
@@ -63663,15 +63779,15 @@
       </c>
       <c r="B48">
         <f>COUNTIF(SL_Sonuclari!C:H,A48)</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C48" s="5">
         <f t="shared" si="1"/>
-        <v>222.34259259259261</v>
+        <v>224.47619047619048</v>
       </c>
       <c r="D48">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A48,SL_Sonuclari!A:A),"")</f>
-        <v>217.77777777777777</v>
+        <v>224.17857142857142</v>
       </c>
       <c r="E48">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A48,SL_Sonuclari!A:A),"")</f>
@@ -63927,11 +64043,11 @@
       </c>
       <c r="B56">
         <f>COUNTIF(SL_Sonuclari!C:H,A56)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C56" s="5">
         <f t="shared" si="1"/>
-        <v>227.57449494949492</v>
+        <v>229.98926767676767</v>
       </c>
       <c r="D56">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A56,SL_Sonuclari!A:A),"")</f>
@@ -63943,7 +64059,7 @@
       </c>
       <c r="F56">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A56,SL_Sonuclari!A:A),"")</f>
-        <v>281.09090909090907</v>
+        <v>290.75</v>
       </c>
       <c r="G56">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A56,SL_Sonuclari!A:A),"")</f>

--- a/SLIStatistik.xlsx
+++ b/SLIStatistik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\ReadExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11663A36-5406-477E-AD80-375692289140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C4D1D8-58FA-4775-B39B-FED2079E215A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
   </bookViews>
   <sheets>
     <sheet name="CSL_Sonuclari" sheetId="2" r:id="rId1"/>
@@ -612,13 +612,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21120D27-1448-4179-993C-6B3BE739480A}">
-  <dimension ref="A1:L400"/>
+  <dimension ref="A1:L402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B369" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I400" sqref="I400"/>
+      <selection pane="bottomRight" activeCell="A403" sqref="A403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12839,6 +12839,70 @@
         <v>85</v>
       </c>
     </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A401" s="2">
+        <v>299</v>
+      </c>
+      <c r="B401" s="1">
+        <v>44982</v>
+      </c>
+      <c r="C401" s="2">
+        <v>1</v>
+      </c>
+      <c r="D401" s="2">
+        <v>17</v>
+      </c>
+      <c r="E401" s="2">
+        <v>25</v>
+      </c>
+      <c r="F401" s="2">
+        <v>55</v>
+      </c>
+      <c r="G401" s="2">
+        <v>62</v>
+      </c>
+      <c r="H401" s="2">
+        <v>77</v>
+      </c>
+      <c r="I401" s="2">
+        <v>13</v>
+      </c>
+      <c r="J401" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A402" s="2">
+        <v>300</v>
+      </c>
+      <c r="B402" s="1">
+        <v>44984</v>
+      </c>
+      <c r="C402" s="2">
+        <v>6</v>
+      </c>
+      <c r="D402" s="2">
+        <v>7</v>
+      </c>
+      <c r="E402" s="2">
+        <v>71</v>
+      </c>
+      <c r="F402" s="2">
+        <v>74</v>
+      </c>
+      <c r="G402" s="2">
+        <v>82</v>
+      </c>
+      <c r="H402" s="2">
+        <v>86</v>
+      </c>
+      <c r="I402" s="2">
+        <v>38</v>
+      </c>
+      <c r="J402" s="2">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J311">
     <sortCondition ref="B2:B311"/>
@@ -12850,10 +12914,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8BCBFC-83B0-4863-9D9A-FF955DDDA58C}">
-  <dimension ref="A1:H399"/>
+  <dimension ref="A1:H402"/>
   <sheetViews>
-    <sheetView topLeftCell="A367" workbookViewId="0">
-      <selection activeCell="A400" sqref="A400"/>
+    <sheetView tabSelected="1" topLeftCell="A368" workbookViewId="0">
+      <selection activeCell="A403" sqref="A403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23235,6 +23299,84 @@
         <v>46</v>
       </c>
     </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>398</v>
+      </c>
+      <c r="B400" s="1">
+        <v>45008</v>
+      </c>
+      <c r="C400">
+        <v>11</v>
+      </c>
+      <c r="D400">
+        <v>16</v>
+      </c>
+      <c r="E400">
+        <v>20</v>
+      </c>
+      <c r="F400">
+        <v>26</v>
+      </c>
+      <c r="G400">
+        <v>45</v>
+      </c>
+      <c r="H400">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>399</v>
+      </c>
+      <c r="B401" s="1">
+        <v>45011</v>
+      </c>
+      <c r="C401">
+        <v>8</v>
+      </c>
+      <c r="D401">
+        <v>19</v>
+      </c>
+      <c r="E401">
+        <v>25</v>
+      </c>
+      <c r="F401">
+        <v>31</v>
+      </c>
+      <c r="G401">
+        <v>38</v>
+      </c>
+      <c r="H401">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>400</v>
+      </c>
+      <c r="B402" s="1">
+        <v>45013</v>
+      </c>
+      <c r="C402">
+        <v>6</v>
+      </c>
+      <c r="D402">
+        <v>10</v>
+      </c>
+      <c r="E402">
+        <v>12</v>
+      </c>
+      <c r="F402">
+        <v>19</v>
+      </c>
+      <c r="G402">
+        <v>35</v>
+      </c>
+      <c r="H402">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H311">
     <sortCondition ref="B2:B311"/>
@@ -23245,10 +23387,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4513EEF-0F11-4AC5-A4C7-CB00A18EA83B}">
-  <dimension ref="A1:H1256"/>
+  <dimension ref="A1:H1257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1237" workbookViewId="0">
-      <selection activeCell="A1257" sqref="A1257"/>
+    <sheetView topLeftCell="A1237" workbookViewId="0">
+      <selection activeCell="A1258" sqref="A1258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55910,6 +56052,32 @@
       </c>
       <c r="H1256">
         <v>14</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1257">
+        <v>1256</v>
+      </c>
+      <c r="B1257" s="1">
+        <v>44983</v>
+      </c>
+      <c r="C1257">
+        <v>14</v>
+      </c>
+      <c r="D1257">
+        <v>15</v>
+      </c>
+      <c r="E1257">
+        <v>19</v>
+      </c>
+      <c r="F1257">
+        <v>22</v>
+      </c>
+      <c r="G1257">
+        <v>27</v>
+      </c>
+      <c r="H1257">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -56759,11 +56927,11 @@
       </c>
       <c r="B13">
         <f>COUNTIF(CSL_Sonuclari!C:J,A13)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="0"/>
-        <v>2785.6833333333329</v>
+        <v>2944</v>
       </c>
       <c r="D13">
         <f>COUNTIF(CSL_Sonuclari!J:J,A13)</f>
@@ -56783,27 +56951,27 @@
       </c>
       <c r="H13">
         <f>COUNTIF(CSL_Sonuclari!C:H,A13)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" si="3"/>
-        <v>3652.0250000000001</v>
+        <v>3889.5</v>
       </c>
       <c r="J13">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H13,"")</f>
-        <v>2643.5</v>
+        <v>2799</v>
       </c>
       <c r="K13">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H13,"")</f>
-        <v>4569.6000000000004</v>
+        <v>4929</v>
       </c>
       <c r="L13">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H13,"")</f>
-        <v>1462</v>
+        <v>1548</v>
       </c>
       <c r="M13">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H13,"")</f>
-        <v>5933</v>
+        <v>6282</v>
       </c>
       <c r="N13" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H13,"")</f>
@@ -56828,11 +56996,11 @@
       </c>
       <c r="B14">
         <f>COUNTIF(CSL_Sonuclari!C:J,A14)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="0"/>
-        <v>3645.1714285714288</v>
+        <v>3688.0285714285715</v>
       </c>
       <c r="D14">
         <f>COUNTIF(CSL_Sonuclari!J:J,A14)</f>
@@ -56844,11 +57012,11 @@
       </c>
       <c r="F14" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A14)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14" s="8">
         <f t="shared" si="2"/>
-        <v>452</v>
+        <v>752</v>
       </c>
       <c r="H14">
         <f>COUNTIF(CSL_Sonuclari!C:H,A14)</f>
@@ -56884,7 +57052,7 @@
       </c>
       <c r="P14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F14,"")</f>
-        <v>452</v>
+        <v>752</v>
       </c>
       <c r="Q14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D14,"")</f>
@@ -56966,19 +57134,19 @@
       </c>
       <c r="B16">
         <f>COUNTIF(CSL_Sonuclari!C:J,A16)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
-        <v>2250.5666666666671</v>
+        <v>2503.3611111111113</v>
       </c>
       <c r="D16">
         <f>COUNTIF(CSL_Sonuclari!J:J,A16)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="1"/>
-        <v>607</v>
+        <v>906</v>
       </c>
       <c r="F16" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A16)</f>
@@ -56990,11 +57158,11 @@
       </c>
       <c r="H16">
         <f>COUNTIF(CSL_Sonuclari!C:H,A16)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I16" s="5">
         <f t="shared" si="3"/>
-        <v>3191.6000000000004</v>
+        <v>3496.041666666667</v>
       </c>
       <c r="J16" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H16,"")</f>
@@ -57006,19 +57174,19 @@
       </c>
       <c r="L16">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H16,"")</f>
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="M16">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H16,"")</f>
-        <v>5136</v>
+        <v>5350</v>
       </c>
       <c r="N16">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H16,"")</f>
-        <v>3249.6000000000004</v>
+        <v>4070.8333333333335</v>
       </c>
       <c r="O16">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H16,"")</f>
-        <v>4260.8</v>
+        <v>4438.333333333333</v>
       </c>
       <c r="P16">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F16,"")</f>
@@ -57026,7 +57194,7 @@
       </c>
       <c r="Q16">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D16,"")</f>
-        <v>607</v>
+        <v>906</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -57587,11 +57755,11 @@
       </c>
       <c r="B25">
         <f>COUNTIF(CSL_Sonuclari!C:J,A25)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C25" s="5">
         <f t="shared" si="0"/>
-        <v>4787.2999999999993</v>
+        <v>5105.3</v>
       </c>
       <c r="D25">
         <f>COUNTIF(CSL_Sonuclari!J:J,A25)</f>
@@ -57611,23 +57779,23 @@
       </c>
       <c r="H25">
         <f>COUNTIF(CSL_Sonuclari!C:H,A25)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I25" s="5">
         <f t="shared" si="3"/>
-        <v>6289.3999999999987</v>
+        <v>6713.4000000000005</v>
       </c>
       <c r="J25">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H25,"")</f>
-        <v>5150.5999999999995</v>
+        <v>5348.7</v>
       </c>
       <c r="K25">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H25,"")</f>
-        <v>4643.5999999999995</v>
+        <v>5368.5</v>
       </c>
       <c r="L25">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H25,"")</f>
-        <v>9074</v>
+        <v>9423</v>
       </c>
       <c r="M25" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H25,"")</f>
@@ -58898,11 +59066,11 @@
       </c>
       <c r="B44">
         <f>COUNTIF(CSL_Sonuclari!C:J,A44)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C44" s="5">
         <f t="shared" si="4"/>
-        <v>4450.9423076923076</v>
+        <v>4656.8</v>
       </c>
       <c r="D44">
         <f>COUNTIF(CSL_Sonuclari!J:J,A44)</f>
@@ -58922,11 +59090,11 @@
       </c>
       <c r="H44">
         <f>COUNTIF(CSL_Sonuclari!C:H,A44)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I44" s="5">
         <f t="shared" si="7"/>
-        <v>6805.9038461538466</v>
+        <v>7149</v>
       </c>
       <c r="J44" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H44,"")</f>
@@ -58942,15 +59110,15 @@
       </c>
       <c r="M44">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H44,"")</f>
-        <v>9477</v>
+        <v>9828</v>
       </c>
       <c r="N44">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H44,"")</f>
-        <v>6554.25</v>
+        <v>6797</v>
       </c>
       <c r="O44">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H44,"")</f>
-        <v>4386.4615384615381</v>
+        <v>4822</v>
       </c>
       <c r="P44">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F44,"")</f>
@@ -59174,11 +59342,11 @@
       </c>
       <c r="B48">
         <f>COUNTIF(CSL_Sonuclari!C:J,A48)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C48" s="5">
         <f t="shared" si="4"/>
-        <v>4067.2609126984125</v>
+        <v>4269.5152777777785</v>
       </c>
       <c r="D48">
         <f>COUNTIF(CSL_Sonuclari!J:J,A48)</f>
@@ -59198,35 +59366,35 @@
       </c>
       <c r="H48">
         <f>COUNTIF(CSL_Sonuclari!C:H,A48)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I48" s="5">
         <f t="shared" si="7"/>
-        <v>5174.8478835978831</v>
+        <v>5444.520370370371</v>
       </c>
       <c r="J48">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H48,"")</f>
-        <v>8275</v>
+        <v>8606</v>
       </c>
       <c r="K48">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H48,"")</f>
-        <v>7212.5</v>
+        <v>7501</v>
       </c>
       <c r="L48">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H48,"")</f>
-        <v>4085</v>
+        <v>4248.4000000000005</v>
       </c>
       <c r="M48">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H48,"")</f>
-        <v>4582.1428571428569</v>
+        <v>5141.5</v>
       </c>
       <c r="N48">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H48,"")</f>
-        <v>3144.4444444444443</v>
+        <v>3270.2222222222222</v>
       </c>
       <c r="O48">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H48,"")</f>
-        <v>3750</v>
+        <v>3900</v>
       </c>
       <c r="P48">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F48,"")</f>
@@ -59312,11 +59480,11 @@
       </c>
       <c r="B50">
         <f>COUNTIF(CSL_Sonuclari!C:J,A50)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C50" s="5">
         <f t="shared" si="4"/>
-        <v>2783.875</v>
+        <v>2942.7407407407409</v>
       </c>
       <c r="D50">
         <f>COUNTIF(CSL_Sonuclari!J:J,A50)</f>
@@ -59336,11 +59504,11 @@
       </c>
       <c r="H50">
         <f>COUNTIF(CSL_Sonuclari!C:H,A50)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I50" s="5">
         <f t="shared" si="7"/>
-        <v>3515.0625</v>
+        <v>3753.3611111111113</v>
       </c>
       <c r="J50" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H50,"")</f>
@@ -59352,19 +59520,19 @@
       </c>
       <c r="L50">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H50,"")</f>
-        <v>999</v>
+        <v>1036</v>
       </c>
       <c r="M50">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H50,"")</f>
-        <v>4347</v>
+        <v>4940.4444444444453</v>
       </c>
       <c r="N50">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H50,"")</f>
-        <v>3820.5</v>
+        <v>3962</v>
       </c>
       <c r="O50">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H50,"")</f>
-        <v>4893.75</v>
+        <v>5075</v>
       </c>
       <c r="P50">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F50,"")</f>
@@ -59381,11 +59549,11 @@
       </c>
       <c r="B51">
         <f>COUNTIF(CSL_Sonuclari!C:J,A51)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C51" s="5">
         <f t="shared" si="4"/>
-        <v>2916.8973684210528</v>
+        <v>3035.7999999999997</v>
       </c>
       <c r="D51">
         <f>COUNTIF(CSL_Sonuclari!J:J,A51)</f>
@@ -59405,27 +59573,27 @@
       </c>
       <c r="H51">
         <f>COUNTIF(CSL_Sonuclari!C:H,A51)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I51" s="5">
         <f t="shared" si="7"/>
-        <v>3957.5960526315789</v>
+        <v>4135.95</v>
       </c>
       <c r="J51">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H51,"")</f>
-        <v>5648.6842105263158</v>
+        <v>5985</v>
       </c>
       <c r="K51">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H51,"")</f>
-        <v>5578.2</v>
+        <v>5784.8</v>
       </c>
       <c r="L51">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H51,"")</f>
-        <v>4050</v>
+        <v>4200</v>
       </c>
       <c r="M51">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H51,"")</f>
-        <v>553.5</v>
+        <v>574</v>
       </c>
       <c r="N51" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H51,"")</f>
@@ -59588,11 +59756,11 @@
       </c>
       <c r="B54">
         <f>COUNTIF(CSL_Sonuclari!C:J,A54)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C54" s="5">
         <f t="shared" si="4"/>
-        <v>3115.8393939393936</v>
+        <v>3258.6292929292927</v>
       </c>
       <c r="D54">
         <f>COUNTIF(CSL_Sonuclari!J:J,A54)</f>
@@ -59612,11 +59780,11 @@
       </c>
       <c r="H54">
         <f>COUNTIF(CSL_Sonuclari!C:H,A54)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I54" s="5">
         <f t="shared" si="7"/>
-        <v>4305.5090909090904</v>
+        <v>4519.6939393939392</v>
       </c>
       <c r="J54" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H54,"")</f>
@@ -59624,19 +59792,19 @@
       </c>
       <c r="K54">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H54,"")</f>
-        <v>2156</v>
+        <v>2233</v>
       </c>
       <c r="L54">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H54,"")</f>
-        <v>5958.4000000000005</v>
+        <v>6171.2000000000007</v>
       </c>
       <c r="M54">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H54,"")</f>
-        <v>3535.6363636363635</v>
+        <v>3661.9090909090905</v>
       </c>
       <c r="N54">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H54,"")</f>
-        <v>5572</v>
+        <v>6012.666666666667</v>
       </c>
       <c r="O54" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H54,"")</f>
@@ -59933,11 +60101,11 @@
       </c>
       <c r="B59">
         <f>COUNTIF(CSL_Sonuclari!C:J,A59)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C59" s="5">
         <f t="shared" si="4"/>
-        <v>1695.4677419354839</v>
+        <v>1775.421875</v>
       </c>
       <c r="D59">
         <f>COUNTIF(CSL_Sonuclari!J:J,A59)</f>
@@ -59957,15 +60125,15 @@
       </c>
       <c r="H59">
         <f>COUNTIF(CSL_Sonuclari!C:H,A59)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I59" s="5">
         <f t="shared" si="7"/>
-        <v>3101.9354838709678</v>
+        <v>3261.84375</v>
       </c>
       <c r="J59">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H59,"")</f>
-        <v>5659.8709677419356</v>
+        <v>5962.6875</v>
       </c>
       <c r="K59" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H59,"")</f>
@@ -59973,7 +60141,7 @@
       </c>
       <c r="L59">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H59,"")</f>
-        <v>544</v>
+        <v>561</v>
       </c>
       <c r="M59" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H59,"")</f>
@@ -60554,11 +60722,11 @@
       </c>
       <c r="B68">
         <f>COUNTIF(CSL_Sonuclari!C:J,A68)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C68" s="5">
         <f t="shared" si="8"/>
-        <v>5330.545454545455</v>
+        <v>5526.1493506493507</v>
       </c>
       <c r="D68">
         <f>COUNTIF(CSL_Sonuclari!J:J,A68)</f>
@@ -60578,31 +60746,31 @@
       </c>
       <c r="H68">
         <f>COUNTIF(CSL_Sonuclari!C:H,A68)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I68" s="5">
         <f t="shared" si="11"/>
-        <v>7099.3636363636369</v>
+        <v>7373.2090909090912</v>
       </c>
       <c r="J68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H68,"")</f>
-        <v>6420</v>
+        <v>6634</v>
       </c>
       <c r="K68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H68,"")</f>
-        <v>5871.818181818182</v>
+        <v>6067.545454545454</v>
       </c>
       <c r="L68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H68,"")</f>
-        <v>7350</v>
+        <v>7781</v>
       </c>
       <c r="M68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H68,"")</f>
-        <v>8265</v>
+        <v>8540.5</v>
       </c>
       <c r="N68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H68,"")</f>
-        <v>7590</v>
+        <v>7843</v>
       </c>
       <c r="O68" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H68,"")</f>
@@ -60899,19 +61067,19 @@
       </c>
       <c r="B73">
         <f>COUNTIF(CSL_Sonuclari!C:J,A73)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C73" s="5">
         <f t="shared" si="8"/>
-        <v>2680.125</v>
+        <v>2730.125</v>
       </c>
       <c r="D73">
         <f>COUNTIF(CSL_Sonuclari!J:J,A73)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E73" s="5">
         <f t="shared" si="9"/>
-        <v>726</v>
+        <v>1026</v>
       </c>
       <c r="F73" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A73)</f>
@@ -60959,7 +61127,7 @@
       </c>
       <c r="Q73">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D73,"")</f>
-        <v>726</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
@@ -61520,11 +61688,11 @@
       </c>
       <c r="B82">
         <f>COUNTIF(CSL_Sonuclari!C:J,A82)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C82" s="5">
         <f t="shared" si="8"/>
-        <v>4118.8500000000004</v>
+        <v>4260.8480769230773</v>
       </c>
       <c r="D82">
         <f>COUNTIF(CSL_Sonuclari!J:J,A82)</f>
@@ -61544,11 +61712,11 @@
       </c>
       <c r="H82">
         <f>COUNTIF(CSL_Sonuclari!C:H,A82)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I82" s="5">
         <f t="shared" si="11"/>
-        <v>7237.2</v>
+        <v>7521.1961538461537</v>
       </c>
       <c r="J82" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H82,"")</f>
@@ -61568,11 +61736,11 @@
       </c>
       <c r="N82">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H82,"")</f>
-        <v>7626</v>
+        <v>7880.2</v>
       </c>
       <c r="O82">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H82,"")</f>
-        <v>6848.4</v>
+        <v>7162.1923076923076</v>
       </c>
       <c r="P82">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F82,"")</f>
@@ -61796,11 +61964,11 @@
       </c>
       <c r="B86">
         <f>COUNTIF(CSL_Sonuclari!C:J,A86)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C86" s="5">
         <f t="shared" si="8"/>
-        <v>4623.0941176470587</v>
+        <v>4682.8941176470589</v>
       </c>
       <c r="D86">
         <f>COUNTIF(CSL_Sonuclari!J:J,A86)</f>
@@ -61812,11 +61980,11 @@
       </c>
       <c r="F86" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A86)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G86" s="8">
         <f t="shared" si="10"/>
-        <v>567</v>
+        <v>866</v>
       </c>
       <c r="H86">
         <f>COUNTIF(CSL_Sonuclari!C:H,A86)</f>
@@ -61852,7 +62020,7 @@
       </c>
       <c r="P86">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F86,"")</f>
-        <v>567</v>
+        <v>866</v>
       </c>
       <c r="Q86">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D86,"")</f>
@@ -62003,11 +62171,11 @@
       </c>
       <c r="B89">
         <f>COUNTIF(CSL_Sonuclari!C:J,A89)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C89" s="5">
         <f t="shared" si="8"/>
-        <v>5110.4873015873018</v>
+        <v>5604.4190476190479</v>
       </c>
       <c r="D89">
         <f>COUNTIF(CSL_Sonuclari!J:J,A89)</f>
@@ -62027,11 +62195,11 @@
       </c>
       <c r="H89">
         <f>COUNTIF(CSL_Sonuclari!C:H,A89)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I89" s="5">
         <f t="shared" si="11"/>
-        <v>6769.2822222222221</v>
+        <v>7460.7866666666669</v>
       </c>
       <c r="J89" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H89,"")</f>
@@ -62039,23 +62207,23 @@
       </c>
       <c r="K89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H89,"")</f>
-        <v>2234.5</v>
+        <v>2289</v>
       </c>
       <c r="L89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H89,"")</f>
-        <v>4592</v>
+        <v>7336</v>
       </c>
       <c r="M89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H89,"")</f>
-        <v>10532.444444444445</v>
+        <v>10789.333333333334</v>
       </c>
       <c r="N89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H89,"")</f>
-        <v>7590.4666666666662</v>
+        <v>7775.5999999999995</v>
       </c>
       <c r="O89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H89,"")</f>
-        <v>8897</v>
+        <v>9114</v>
       </c>
       <c r="P89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F89,"")</f>
@@ -62492,15 +62660,15 @@
       </c>
       <c r="B9">
         <f>COUNTIF(SL_Sonuclari!C:H,A9)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>185.74166666666667</v>
+        <v>188.64444444444445</v>
       </c>
       <c r="D9">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A9,SL_Sonuclari!A:A),"")</f>
-        <v>190</v>
+        <v>201.61111111111111</v>
       </c>
       <c r="E9">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A9,SL_Sonuclari!A:A),"")</f>
@@ -62558,11 +62726,11 @@
       </c>
       <c r="B11">
         <f>COUNTIF(SL_Sonuclari!C:H,A11)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="0"/>
-        <v>146.37750626566415</v>
+        <v>149.11369047619047</v>
       </c>
       <c r="D11">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A11,SL_Sonuclari!A:A),"")</f>
@@ -62570,7 +62738,7 @@
       </c>
       <c r="E11">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A11,SL_Sonuclari!A:A),"")</f>
-        <v>181.10526315789474</v>
+        <v>192.05</v>
       </c>
       <c r="F11">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A11,SL_Sonuclari!A:A),"")</f>
@@ -62591,15 +62759,15 @@
       </c>
       <c r="B12">
         <f>COUNTIF(SL_Sonuclari!C:H,A12)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="0"/>
-        <v>151.94404761904764</v>
+        <v>154.23409090909092</v>
       </c>
       <c r="D12">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A12,SL_Sonuclari!A:A),"")</f>
-        <v>198.47619047619048</v>
+        <v>207.63636363636363</v>
       </c>
       <c r="E12">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A12,SL_Sonuclari!A:A),"")</f>
@@ -62723,11 +62891,11 @@
       </c>
       <c r="B16">
         <f>COUNTIF(SL_Sonuclari!C:H,A16)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
-        <v>189.85862745098038</v>
+        <v>192.56777777777776</v>
       </c>
       <c r="D16">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A16,SL_Sonuclari!A:A),"")</f>
@@ -62739,7 +62907,7 @@
       </c>
       <c r="F16">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A16,SL_Sonuclari!A:A),"")</f>
-        <v>154.1764705882353</v>
+        <v>167.72222222222223</v>
       </c>
       <c r="G16">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A16,SL_Sonuclari!A:A),"")</f>
@@ -62789,7 +62957,7 @@
       </c>
       <c r="B18">
         <f>COUNTIF(SL_Sonuclari!C:H,A18)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="0"/>
@@ -62888,11 +63056,11 @@
       </c>
       <c r="B21">
         <f>COUNTIF(SL_Sonuclari!C:H,A21)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="0"/>
-        <v>200.91704545454544</v>
+        <v>209.32775974025972</v>
       </c>
       <c r="D21">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A21,SL_Sonuclari!A:A),"")</f>
@@ -62904,7 +63072,7 @@
       </c>
       <c r="F21">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A21,SL_Sonuclari!A:A),"")</f>
-        <v>164.5</v>
+        <v>198.14285714285714</v>
       </c>
       <c r="G21">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A21,SL_Sonuclari!A:A),"")</f>
@@ -62921,7 +63089,7 @@
       </c>
       <c r="B22">
         <f>COUNTIF(SL_Sonuclari!C:H,A22)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
@@ -63119,15 +63287,15 @@
       </c>
       <c r="B28">
         <f>COUNTIF(SL_Sonuclari!C:H,A28)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28" s="5">
         <f t="shared" si="0"/>
-        <v>192.79590643274855</v>
+        <v>196.13888888888889</v>
       </c>
       <c r="D28">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A28,SL_Sonuclari!A:A),"")</f>
-        <v>197.42105263157896</v>
+        <v>207.45</v>
       </c>
       <c r="E28">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A28,SL_Sonuclari!A:A),"")</f>
@@ -63251,11 +63419,11 @@
       </c>
       <c r="B32">
         <f>COUNTIF(SL_Sonuclari!C:H,A32)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" s="5">
         <f t="shared" si="0"/>
-        <v>212.05681818181819</v>
+        <v>215.55978260869566</v>
       </c>
       <c r="D32" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A32,SL_Sonuclari!A:A),"")</f>
@@ -63275,7 +63443,7 @@
       </c>
       <c r="H32">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A32,SL_Sonuclari!A:A),"")</f>
-        <v>236.86363636363637</v>
+        <v>243.86956521739131</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -63482,11 +63650,11 @@
       </c>
       <c r="B39">
         <f>COUNTIF(SL_Sonuclari!C:H,A39)</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C39" s="5">
         <f t="shared" si="1"/>
-        <v>207.53970588235293</v>
+        <v>220.05138888888888</v>
       </c>
       <c r="D39">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A39,SL_Sonuclari!A:A),"")</f>
@@ -63494,7 +63662,7 @@
       </c>
       <c r="E39">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A39,SL_Sonuclari!A:A),"")</f>
-        <v>219.05882352941177</v>
+        <v>229.05555555555554</v>
       </c>
       <c r="F39">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A39,SL_Sonuclari!A:A),"")</f>
@@ -63502,7 +63670,7 @@
       </c>
       <c r="G39">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A39,SL_Sonuclari!A:A),"")</f>
-        <v>199.75</v>
+        <v>239.8</v>
       </c>
       <c r="H39" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A39,SL_Sonuclari!A:A),"")</f>
@@ -63515,11 +63683,11 @@
       </c>
       <c r="B40">
         <f>COUNTIF(SL_Sonuclari!C:H,A40)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C40" s="5">
         <f t="shared" si="1"/>
-        <v>206.58245798319325</v>
+        <v>212.2610294117647</v>
       </c>
       <c r="D40" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A40,SL_Sonuclari!A:A),"")</f>
@@ -63539,7 +63707,7 @@
       </c>
       <c r="H40">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A40,SL_Sonuclari!A:A),"")</f>
-        <v>218.28571428571428</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -63680,11 +63848,11 @@
       </c>
       <c r="B45">
         <f>COUNTIF(SL_Sonuclari!C:H,A45)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C45" s="5">
         <f t="shared" si="1"/>
-        <v>205.61486928104577</v>
+        <v>208.30054179566565</v>
       </c>
       <c r="D45" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A45,SL_Sonuclari!A:A),"")</f>
@@ -63704,7 +63872,7 @@
       </c>
       <c r="H45">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A45,SL_Sonuclari!A:A),"")</f>
-        <v>194.88888888888889</v>
+        <v>205.63157894736841</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -63713,11 +63881,11 @@
       </c>
       <c r="B46">
         <f>COUNTIF(SL_Sonuclari!C:H,A46)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C46" s="5">
         <f t="shared" si="1"/>
-        <v>201.59567099567101</v>
+        <v>207.44924242424244</v>
       </c>
       <c r="D46">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A46,SL_Sonuclari!A:A),"")</f>
@@ -63733,7 +63901,7 @@
       </c>
       <c r="G46">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A46,SL_Sonuclari!A:A),"")</f>
-        <v>163.85714285714286</v>
+        <v>193.125</v>
       </c>
       <c r="H46">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A46,SL_Sonuclari!A:A),"")</f>
@@ -63845,11 +64013,11 @@
       </c>
       <c r="B50">
         <f>COUNTIF(SL_Sonuclari!C:H,A50)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C50" s="5">
         <f t="shared" si="1"/>
-        <v>210.91153846153847</v>
+        <v>213.09230769230771</v>
       </c>
       <c r="D50">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A50,SL_Sonuclari!A:A),"")</f>
@@ -63861,7 +64029,7 @@
       </c>
       <c r="F50">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A50,SL_Sonuclari!A:A),"")</f>
-        <v>257.25</v>
+        <v>268.15384615384613</v>
       </c>
       <c r="G50">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A50,SL_Sonuclari!A:A),"")</f>
@@ -64010,11 +64178,11 @@
       </c>
       <c r="B55">
         <f>COUNTIF(SL_Sonuclari!C:H,A55)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C55" s="5">
         <f t="shared" si="1"/>
-        <v>211.79824561403512</v>
+        <v>213.74666666666667</v>
       </c>
       <c r="D55">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A55,SL_Sonuclari!A:A),"")</f>
@@ -64030,7 +64198,7 @@
       </c>
       <c r="G55">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A55,SL_Sonuclari!A:A),"")</f>
-        <v>204.15789473684211</v>
+        <v>213.9</v>
       </c>
       <c r="H55">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A55,SL_Sonuclari!A:A),"")</f>
@@ -64043,11 +64211,11 @@
       </c>
       <c r="B56">
         <f>COUNTIF(SL_Sonuclari!C:H,A56)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C56" s="5">
         <f t="shared" si="1"/>
-        <v>229.98926767676767</v>
+        <v>232.59450483091786</v>
       </c>
       <c r="D56">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A56,SL_Sonuclari!A:A),"")</f>
@@ -64055,7 +64223,7 @@
       </c>
       <c r="E56">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A56,SL_Sonuclari!A:A),"")</f>
-        <v>158.31818181818181</v>
+        <v>168.7391304347826</v>
       </c>
       <c r="F56">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A56,SL_Sonuclari!A:A),"")</f>
@@ -64212,7 +64380,7 @@
       </c>
       <c r="B61">
         <f>COUNTIF(SL_Sonuclari!C:H,A61)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C61" s="5" t="e">
         <f t="shared" si="1"/>

--- a/SLIStatistik.xlsx
+++ b/SLIStatistik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\ReadExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C4D1D8-58FA-4775-B39B-FED2079E215A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FCBC70-0C1B-4E9A-8168-BC258C8D57E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
   </bookViews>
   <sheets>
     <sheet name="CSL_Sonuclari" sheetId="2" r:id="rId1"/>
@@ -612,13 +612,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21120D27-1448-4179-993C-6B3BE739480A}">
-  <dimension ref="A1:L402"/>
+  <dimension ref="A1:L403"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B369" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B375" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A403" sqref="A403"/>
+      <selection pane="bottomRight" activeCell="B404" sqref="B404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12521,7 +12521,7 @@
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
-        <v>289</v>
+        <v>389</v>
       </c>
       <c r="B391" s="1">
         <v>44958</v>
@@ -12553,7 +12553,7 @@
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
-        <v>290</v>
+        <v>390</v>
       </c>
       <c r="B392" s="1">
         <v>44961</v>
@@ -12585,7 +12585,7 @@
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
-        <v>291</v>
+        <v>391</v>
       </c>
       <c r="B393" s="1">
         <v>44963</v>
@@ -12617,7 +12617,7 @@
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
-        <v>292</v>
+        <v>392</v>
       </c>
       <c r="B394" s="1">
         <v>44965</v>
@@ -12649,7 +12649,7 @@
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
-        <v>293</v>
+        <v>393</v>
       </c>
       <c r="B395" s="1">
         <v>44968</v>
@@ -12681,7 +12681,7 @@
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
-        <v>294</v>
+        <v>394</v>
       </c>
       <c r="B396" s="1">
         <v>44970</v>
@@ -12713,7 +12713,7 @@
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
-        <v>295</v>
+        <v>395</v>
       </c>
       <c r="B397" s="1">
         <v>44972</v>
@@ -12745,7 +12745,7 @@
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
-        <v>296</v>
+        <v>396</v>
       </c>
       <c r="B398" s="1">
         <v>44975</v>
@@ -12777,7 +12777,7 @@
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
-        <v>297</v>
+        <v>397</v>
       </c>
       <c r="B399" s="1">
         <v>44977</v>
@@ -12809,7 +12809,7 @@
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
-        <v>298</v>
+        <v>398</v>
       </c>
       <c r="B400" s="1">
         <v>44979</v>
@@ -12841,7 +12841,7 @@
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
-        <v>299</v>
+        <v>399</v>
       </c>
       <c r="B401" s="1">
         <v>44982</v>
@@ -12873,7 +12873,7 @@
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="B402" s="1">
         <v>44984</v>
@@ -12901,6 +12901,38 @@
       </c>
       <c r="J402" s="2">
         <v>73</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A403" s="2">
+        <v>401</v>
+      </c>
+      <c r="B403" s="1">
+        <v>44986</v>
+      </c>
+      <c r="C403" s="2">
+        <v>5</v>
+      </c>
+      <c r="D403" s="2">
+        <v>6</v>
+      </c>
+      <c r="E403" s="2">
+        <v>8</v>
+      </c>
+      <c r="F403" s="2">
+        <v>24</v>
+      </c>
+      <c r="G403" s="2">
+        <v>57</v>
+      </c>
+      <c r="H403" s="2">
+        <v>58</v>
+      </c>
+      <c r="I403" s="2">
+        <v>87</v>
+      </c>
+      <c r="J403" s="2">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -12916,8 +12948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8BCBFC-83B0-4863-9D9A-FF955DDDA58C}">
   <dimension ref="A1:H402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A368" workbookViewId="0">
-      <selection activeCell="A403" sqref="A403"/>
+    <sheetView topLeftCell="A373" workbookViewId="0">
+      <selection activeCell="C406" sqref="C406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23387,10 +23419,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4513EEF-0F11-4AC5-A4C7-CB00A18EA83B}">
-  <dimension ref="A1:H1257"/>
+  <dimension ref="A1:H1258"/>
   <sheetViews>
-    <sheetView topLeftCell="A1237" workbookViewId="0">
-      <selection activeCell="A1258" sqref="A1258"/>
+    <sheetView tabSelected="1" topLeftCell="A1237" workbookViewId="0">
+      <selection activeCell="A1259" sqref="A1259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56078,6 +56110,32 @@
       </c>
       <c r="H1257">
         <v>8</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1258">
+        <v>1257</v>
+      </c>
+      <c r="B1258" s="1">
+        <v>44986</v>
+      </c>
+      <c r="C1258">
+        <v>5</v>
+      </c>
+      <c r="D1258">
+        <v>7</v>
+      </c>
+      <c r="E1258">
+        <v>17</v>
+      </c>
+      <c r="F1258">
+        <v>31</v>
+      </c>
+      <c r="G1258">
+        <v>32</v>
+      </c>
+      <c r="H1258">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -56172,7 +56230,7 @@
       </c>
       <c r="C2" s="5">
         <f t="shared" ref="C2:C33" si="0">AVERAGE(J2:Q2)</f>
-        <v>2154.8869047619046</v>
+        <v>2259.6488095238096</v>
       </c>
       <c r="D2">
         <f>COUNTIF(CSL_Sonuclari!J:J,A2)</f>
@@ -56180,7 +56238,7 @@
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:E33" si="1">IF(Q2&lt;&gt;"",Q2,0)</f>
-        <v>582</v>
+        <v>682</v>
       </c>
       <c r="F2" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A2)</f>
@@ -56196,7 +56254,7 @@
       </c>
       <c r="I2" s="5">
         <f t="shared" ref="I2:I33" si="3">AVERAGE(J2:O2)</f>
-        <v>2876.4416666666666</v>
+        <v>3003.1083333333331</v>
       </c>
       <c r="J2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H2,"")</f>
@@ -56204,7 +56262,7 @@
       </c>
       <c r="K2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H2,"")</f>
-        <v>3432.6666666666665</v>
+        <v>4066</v>
       </c>
       <c r="L2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H2,"")</f>
@@ -56228,7 +56286,7 @@
       </c>
       <c r="Q2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D2,"")</f>
-        <v>582</v>
+        <v>682</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -56379,7 +56437,7 @@
       </c>
       <c r="C5" s="5">
         <f t="shared" si="0"/>
-        <v>2721.8333333333335</v>
+        <v>2738.5</v>
       </c>
       <c r="D5">
         <f>COUNTIF(CSL_Sonuclari!J:J,A5)</f>
@@ -56387,7 +56445,7 @@
       </c>
       <c r="E5" s="5">
         <f t="shared" si="1"/>
-        <v>926</v>
+        <v>1026</v>
       </c>
       <c r="F5" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A5)</f>
@@ -56435,7 +56493,7 @@
       </c>
       <c r="Q5">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D5,"")</f>
-        <v>926</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -56517,7 +56575,7 @@
       </c>
       <c r="C7" s="5">
         <f t="shared" si="0"/>
-        <v>3069.687675070028</v>
+        <v>3111.8445378151259</v>
       </c>
       <c r="D7">
         <f>COUNTIF(CSL_Sonuclari!J:J,A7)</f>
@@ -56525,7 +56583,7 @@
       </c>
       <c r="E7" s="5">
         <f t="shared" si="1"/>
-        <v>648</v>
+        <v>748</v>
       </c>
       <c r="F7" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A7)</f>
@@ -56541,11 +56599,11 @@
       </c>
       <c r="I7" s="5">
         <f t="shared" si="3"/>
-        <v>4172.7815126050418</v>
+        <v>4211.0168067226887</v>
       </c>
       <c r="J7">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H7,"")</f>
-        <v>6677.411764705882</v>
+        <v>6830.3529411764703</v>
       </c>
       <c r="K7">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H7,"")</f>
@@ -56573,7 +56631,7 @@
       </c>
       <c r="Q7">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D7,"")</f>
-        <v>648</v>
+        <v>748</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -56655,7 +56713,7 @@
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>3578.5</v>
+        <v>3864.2142857142858</v>
       </c>
       <c r="D9">
         <f>COUNTIF(CSL_Sonuclari!J:J,A9)</f>
@@ -56679,7 +56737,7 @@
       </c>
       <c r="I9" s="5">
         <f t="shared" si="3"/>
-        <v>4653.3</v>
+        <v>5053.3</v>
       </c>
       <c r="J9" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H9,"")</f>
@@ -56703,7 +56761,7 @@
       </c>
       <c r="O9">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H9,"")</f>
-        <v>5880</v>
+        <v>7880</v>
       </c>
       <c r="P9">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F9,"")</f>
@@ -56793,7 +56851,7 @@
       </c>
       <c r="C11" s="5">
         <f t="shared" si="0"/>
-        <v>2999.5102040816323</v>
+        <v>3042.3673469387754</v>
       </c>
       <c r="D11">
         <f>COUNTIF(CSL_Sonuclari!J:J,A11)</f>
@@ -56817,7 +56875,7 @@
       </c>
       <c r="I11" s="5">
         <f t="shared" si="3"/>
-        <v>4084.7142857142853</v>
+        <v>4144.7142857142853</v>
       </c>
       <c r="J11">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H11,"")</f>
@@ -56825,7 +56883,7 @@
       </c>
       <c r="K11">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H11,"")</f>
-        <v>6525</v>
+        <v>6825</v>
       </c>
       <c r="L11">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H11,"")</f>
@@ -56931,7 +56989,7 @@
       </c>
       <c r="C13" s="5">
         <f t="shared" si="0"/>
-        <v>2944</v>
+        <v>2994</v>
       </c>
       <c r="D13">
         <f>COUNTIF(CSL_Sonuclari!J:J,A13)</f>
@@ -56955,7 +57013,7 @@
       </c>
       <c r="I13" s="5">
         <f t="shared" si="3"/>
-        <v>3889.5</v>
+        <v>3964.5</v>
       </c>
       <c r="J13">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H13,"")</f>
@@ -56963,7 +57021,7 @@
       </c>
       <c r="K13">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H13,"")</f>
-        <v>4929</v>
+        <v>5229</v>
       </c>
       <c r="L13">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H13,"")</f>
@@ -57000,7 +57058,7 @@
       </c>
       <c r="C14" s="5">
         <f t="shared" si="0"/>
-        <v>3688.0285714285715</v>
+        <v>3802.3142857142857</v>
       </c>
       <c r="D14">
         <f>COUNTIF(CSL_Sonuclari!J:J,A14)</f>
@@ -57016,7 +57074,7 @@
       </c>
       <c r="G14" s="8">
         <f t="shared" si="2"/>
-        <v>752</v>
+        <v>852</v>
       </c>
       <c r="H14">
         <f>COUNTIF(CSL_Sonuclari!C:H,A14)</f>
@@ -57024,7 +57082,7 @@
       </c>
       <c r="I14" s="5">
         <f t="shared" si="3"/>
-        <v>4955.4400000000005</v>
+        <v>5095.4400000000005</v>
       </c>
       <c r="J14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H14,"")</f>
@@ -57040,7 +57098,7 @@
       </c>
       <c r="M14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H14,"")</f>
-        <v>2814</v>
+        <v>3514</v>
       </c>
       <c r="N14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H14,"")</f>
@@ -57052,7 +57110,7 @@
       </c>
       <c r="P14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F14,"")</f>
-        <v>752</v>
+        <v>852</v>
       </c>
       <c r="Q14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D14,"")</f>
@@ -57138,7 +57196,7 @@
       </c>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
-        <v>2503.3611111111113</v>
+        <v>2617.25</v>
       </c>
       <c r="D16">
         <f>COUNTIF(CSL_Sonuclari!J:J,A16)</f>
@@ -57146,7 +57204,7 @@
       </c>
       <c r="E16" s="5">
         <f t="shared" si="1"/>
-        <v>906</v>
+        <v>1006</v>
       </c>
       <c r="F16" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A16)</f>
@@ -57162,7 +57220,7 @@
       </c>
       <c r="I16" s="5">
         <f t="shared" si="3"/>
-        <v>3496.041666666667</v>
+        <v>3641.875</v>
       </c>
       <c r="J16" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H16,"")</f>
@@ -57182,11 +57240,11 @@
       </c>
       <c r="N16">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H16,"")</f>
-        <v>4070.8333333333335</v>
+        <v>4487.5</v>
       </c>
       <c r="O16">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H16,"")</f>
-        <v>4438.333333333333</v>
+        <v>4605</v>
       </c>
       <c r="P16">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F16,"")</f>
@@ -57194,7 +57252,7 @@
       </c>
       <c r="Q16">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D16,"")</f>
-        <v>906</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -57207,7 +57265,7 @@
       </c>
       <c r="C17" s="5">
         <f t="shared" si="0"/>
-        <v>3262.4888888888891</v>
+        <v>3384.7111111111112</v>
       </c>
       <c r="D17">
         <f>COUNTIF(CSL_Sonuclari!J:J,A17)</f>
@@ -57231,7 +57289,7 @@
       </c>
       <c r="I17" s="5">
         <f t="shared" si="3"/>
-        <v>4587.7333333333336</v>
+        <v>4771.0666666666666</v>
       </c>
       <c r="J17">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H17,"")</f>
@@ -57243,7 +57301,7 @@
       </c>
       <c r="L17">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H17,"")</f>
-        <v>5067.3333333333339</v>
+        <v>5800.666666666667</v>
       </c>
       <c r="M17">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H17,"")</f>
@@ -57276,7 +57334,7 @@
       </c>
       <c r="C18" s="5">
         <f t="shared" si="0"/>
-        <v>2987.3485714285716</v>
+        <v>3007.3485714285716</v>
       </c>
       <c r="D18">
         <f>COUNTIF(CSL_Sonuclari!J:J,A18)</f>
@@ -57292,7 +57350,7 @@
       </c>
       <c r="G18" s="8">
         <f t="shared" si="2"/>
-        <v>294</v>
+        <v>394</v>
       </c>
       <c r="H18">
         <f>COUNTIF(CSL_Sonuclari!C:H,A18)</f>
@@ -57328,7 +57386,7 @@
       </c>
       <c r="P18">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F18,"")</f>
-        <v>294</v>
+        <v>394</v>
       </c>
       <c r="Q18">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D18,"")</f>
@@ -57345,7 +57403,7 @@
       </c>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
-        <v>2446.0857142857144</v>
+        <v>2556.0857142857144</v>
       </c>
       <c r="D19">
         <f>COUNTIF(CSL_Sonuclari!J:J,A19)</f>
@@ -57353,7 +57411,7 @@
       </c>
       <c r="E19" s="5">
         <f t="shared" si="1"/>
-        <v>598</v>
+        <v>698</v>
       </c>
       <c r="F19" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A19)</f>
@@ -57369,7 +57427,7 @@
       </c>
       <c r="I19" s="5">
         <f t="shared" si="3"/>
-        <v>3519.1428571428573</v>
+        <v>3669.1428571428573</v>
       </c>
       <c r="J19" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H19,"")</f>
@@ -57393,7 +57451,7 @@
       </c>
       <c r="O19">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H19,"")</f>
-        <v>4770</v>
+        <v>5220</v>
       </c>
       <c r="P19">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F19,"")</f>
@@ -57401,7 +57459,7 @@
       </c>
       <c r="Q19">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D19,"")</f>
-        <v>598</v>
+        <v>698</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -57617,11 +57675,11 @@
       </c>
       <c r="B23">
         <f>COUNTIF(CSL_Sonuclari!C:J,A23)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
-        <v>4100.1142857142859</v>
+        <v>4429.1190476190477</v>
       </c>
       <c r="D23">
         <f>COUNTIF(CSL_Sonuclari!J:J,A23)</f>
@@ -57641,11 +57699,11 @@
       </c>
       <c r="H23">
         <f>COUNTIF(CSL_Sonuclari!C:H,A23)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I23" s="5">
         <f t="shared" si="3"/>
-        <v>4815.1428571428569</v>
+        <v>5226.3988095238092</v>
       </c>
       <c r="J23" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H23,"")</f>
@@ -57657,19 +57715,19 @@
       </c>
       <c r="L23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H23,"")</f>
-        <v>5101.7142857142862</v>
+        <v>5314.2857142857147</v>
       </c>
       <c r="M23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H23,"")</f>
-        <v>4206.8571428571431</v>
+        <v>4382.1428571428569</v>
       </c>
       <c r="N23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H23,"")</f>
-        <v>4372</v>
+        <v>4554.1666666666661</v>
       </c>
       <c r="O23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H23,"")</f>
-        <v>5580</v>
+        <v>6655</v>
       </c>
       <c r="P23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F23,"")</f>
@@ -57690,7 +57748,7 @@
       </c>
       <c r="C24" s="5">
         <f t="shared" si="0"/>
-        <v>4621.5306122448983</v>
+        <v>4646.0204081632646</v>
       </c>
       <c r="D24">
         <f>COUNTIF(CSL_Sonuclari!J:J,A24)</f>
@@ -57714,7 +57772,7 @@
       </c>
       <c r="I24" s="5">
         <f t="shared" si="3"/>
-        <v>6134.7428571428572</v>
+        <v>6169.028571428571</v>
       </c>
       <c r="J24" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H24,"")</f>
@@ -57738,7 +57796,7 @@
       </c>
       <c r="O24">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H24,"")</f>
-        <v>5137.7142857142862</v>
+        <v>5309.1428571428569</v>
       </c>
       <c r="P24">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F24,"")</f>
@@ -57759,7 +57817,7 @@
       </c>
       <c r="C25" s="5">
         <f t="shared" si="0"/>
-        <v>5105.3</v>
+        <v>5330.3</v>
       </c>
       <c r="D25">
         <f>COUNTIF(CSL_Sonuclari!J:J,A25)</f>
@@ -57783,7 +57841,7 @@
       </c>
       <c r="I25" s="5">
         <f t="shared" si="3"/>
-        <v>6713.4000000000005</v>
+        <v>7013.4000000000005</v>
       </c>
       <c r="J25">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H25,"")</f>
@@ -57791,7 +57849,7 @@
       </c>
       <c r="K25">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H25,"")</f>
-        <v>5368.5</v>
+        <v>6268.5</v>
       </c>
       <c r="L25">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H25,"")</f>
@@ -57828,7 +57886,7 @@
       </c>
       <c r="C26" s="5">
         <f t="shared" si="0"/>
-        <v>3935.7023809523812</v>
+        <v>3969.0357142857142</v>
       </c>
       <c r="D26">
         <f>COUNTIF(CSL_Sonuclari!J:J,A26)</f>
@@ -57852,7 +57910,7 @@
       </c>
       <c r="I26" s="5">
         <f t="shared" si="3"/>
-        <v>5538.3035714285716</v>
+        <v>5588.3035714285716</v>
       </c>
       <c r="J26" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H26,"")</f>
@@ -57872,7 +57930,7 @@
       </c>
       <c r="N26">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H26,"")</f>
-        <v>6608</v>
+        <v>6808.0000000000009</v>
       </c>
       <c r="O26">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H26,"")</f>
@@ -58035,7 +58093,7 @@
       </c>
       <c r="C29" s="5">
         <f t="shared" si="0"/>
-        <v>3590.5238095238096</v>
+        <v>3604.8095238095239</v>
       </c>
       <c r="D29">
         <f>COUNTIF(CSL_Sonuclari!J:J,A29)</f>
@@ -58051,7 +58109,7 @@
       </c>
       <c r="G29" s="8">
         <f t="shared" si="2"/>
-        <v>747</v>
+        <v>847</v>
       </c>
       <c r="H29">
         <f>COUNTIF(CSL_Sonuclari!C:H,A29)</f>
@@ -58087,7 +58145,7 @@
       </c>
       <c r="P29">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F29,"")</f>
-        <v>747</v>
+        <v>847</v>
       </c>
       <c r="Q29">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D29,"")</f>
@@ -58104,7 +58162,7 @@
       </c>
       <c r="C30" s="5">
         <f t="shared" si="0"/>
-        <v>4209.0222222222219</v>
+        <v>4242.3555555555549</v>
       </c>
       <c r="D30">
         <f>COUNTIF(CSL_Sonuclari!J:J,A30)</f>
@@ -58120,7 +58178,7 @@
       </c>
       <c r="G30" s="8">
         <f t="shared" si="2"/>
-        <v>1506</v>
+        <v>1706</v>
       </c>
       <c r="H30">
         <f>COUNTIF(CSL_Sonuclari!C:H,A30)</f>
@@ -58156,7 +58214,7 @@
       </c>
       <c r="P30">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F30,"")</f>
-        <v>1506</v>
+        <v>1706</v>
       </c>
       <c r="Q30">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D30,"")</f>
@@ -58238,19 +58296,19 @@
       </c>
       <c r="B32">
         <f>COUNTIF(CSL_Sonuclari!C:J,A32)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C32" s="5">
         <f t="shared" si="0"/>
-        <v>3497.2772108843537</v>
+        <v>3654.0527210884352</v>
       </c>
       <c r="D32">
         <f>COUNTIF(CSL_Sonuclari!J:J,A32)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" s="5">
         <f t="shared" si="1"/>
-        <v>256</v>
+        <v>657</v>
       </c>
       <c r="F32" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A32)</f>
@@ -58266,7 +58324,7 @@
       </c>
       <c r="I32" s="5">
         <f t="shared" si="3"/>
-        <v>4768.9880952380954</v>
+        <v>4908.2738095238092</v>
       </c>
       <c r="J32" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H32,"")</f>
@@ -58278,7 +58336,7 @@
       </c>
       <c r="L32">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H32,"")</f>
-        <v>4572.75</v>
+        <v>4897.75</v>
       </c>
       <c r="M32">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H32,"")</f>
@@ -58286,7 +58344,7 @@
       </c>
       <c r="N32">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H32,"")</f>
-        <v>3391.1428571428569</v>
+        <v>3762.5714285714289</v>
       </c>
       <c r="O32">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H32,"")</f>
@@ -58298,7 +58356,7 @@
       </c>
       <c r="Q32">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D32,"")</f>
-        <v>256</v>
+        <v>657</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -58311,7 +58369,7 @@
       </c>
       <c r="C33" s="5">
         <f t="shared" si="0"/>
-        <v>4127.6557017543864</v>
+        <v>4160.9890350877195</v>
       </c>
       <c r="D33">
         <f>COUNTIF(CSL_Sonuclari!J:J,A33)</f>
@@ -58319,7 +58377,7 @@
       </c>
       <c r="E33" s="5">
         <f t="shared" si="1"/>
-        <v>976</v>
+        <v>1076</v>
       </c>
       <c r="F33" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A33)</f>
@@ -58367,7 +58425,7 @@
       </c>
       <c r="Q33">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D33,"")</f>
-        <v>976</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -58449,7 +58507,7 @@
       </c>
       <c r="C35" s="5">
         <f t="shared" si="4"/>
-        <v>4080.5</v>
+        <v>4151.9285714285716</v>
       </c>
       <c r="D35">
         <f>COUNTIF(CSL_Sonuclari!J:J,A35)</f>
@@ -58473,7 +58531,7 @@
       </c>
       <c r="I35" s="5">
         <f t="shared" si="7"/>
-        <v>5837.25</v>
+        <v>5944.3928571428569</v>
       </c>
       <c r="J35" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H35,"")</f>
@@ -58485,7 +58543,7 @@
       </c>
       <c r="L35">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H35,"")</f>
-        <v>8580</v>
+        <v>9008.5714285714275</v>
       </c>
       <c r="M35">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H35,"")</f>
@@ -58587,7 +58645,7 @@
       </c>
       <c r="C37" s="5">
         <f t="shared" si="4"/>
-        <v>3470.4666666666667</v>
+        <v>3501.8952380952383</v>
       </c>
       <c r="D37">
         <f>COUNTIF(CSL_Sonuclari!J:J,A37)</f>
@@ -58611,7 +58669,7 @@
       </c>
       <c r="I37" s="5">
         <f t="shared" si="7"/>
-        <v>4619.8533333333335</v>
+        <v>4663.8533333333335</v>
       </c>
       <c r="J37" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H37,"")</f>
@@ -58623,7 +58681,7 @@
       </c>
       <c r="L37">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H37,"")</f>
-        <v>4659.6000000000004</v>
+        <v>4879.6000000000004</v>
       </c>
       <c r="M37">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H37,"")</f>
@@ -58725,7 +58783,7 @@
       </c>
       <c r="C39" s="5">
         <f t="shared" si="4"/>
-        <v>4025.0519480519479</v>
+        <v>4102.9740259740265</v>
       </c>
       <c r="D39">
         <f>COUNTIF(CSL_Sonuclari!J:J,A39)</f>
@@ -58749,7 +58807,7 @@
       </c>
       <c r="I39" s="5">
         <f t="shared" si="7"/>
-        <v>5303.0727272727272</v>
+        <v>5412.1636363636371</v>
       </c>
       <c r="J39" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H39,"")</f>
@@ -58765,7 +58823,7 @@
       </c>
       <c r="M39">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H39,"")</f>
-        <v>6436.363636363636</v>
+        <v>6981.818181818182</v>
       </c>
       <c r="N39">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H39,"")</f>
@@ -58794,7 +58852,7 @@
       </c>
       <c r="C40" s="5">
         <f t="shared" si="4"/>
-        <v>3970.0238095238092</v>
+        <v>3986.6904761904757</v>
       </c>
       <c r="D40">
         <f>COUNTIF(CSL_Sonuclari!J:J,A40)</f>
@@ -58810,7 +58868,7 @@
       </c>
       <c r="G40" s="8">
         <f t="shared" si="6"/>
-        <v>1181</v>
+        <v>1281</v>
       </c>
       <c r="H40">
         <f>COUNTIF(CSL_Sonuclari!C:H,A40)</f>
@@ -58846,7 +58904,7 @@
       </c>
       <c r="P40">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F40,"")</f>
-        <v>1181</v>
+        <v>1281</v>
       </c>
       <c r="Q40">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D40,"")</f>
@@ -58863,7 +58921,7 @@
       </c>
       <c r="C41" s="5">
         <f t="shared" si="4"/>
-        <v>4636.9444444444443</v>
+        <v>4653.6111111111113</v>
       </c>
       <c r="D41">
         <f>COUNTIF(CSL_Sonuclari!J:J,A41)</f>
@@ -58879,7 +58937,7 @@
       </c>
       <c r="G41" s="8">
         <f t="shared" si="6"/>
-        <v>1323</v>
+        <v>1423</v>
       </c>
       <c r="H41">
         <f>COUNTIF(CSL_Sonuclari!C:H,A41)</f>
@@ -58915,7 +58973,7 @@
       </c>
       <c r="P41">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F41,"")</f>
-        <v>1323</v>
+        <v>1423</v>
       </c>
       <c r="Q41">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D41,"")</f>
@@ -58932,7 +58990,7 @@
       </c>
       <c r="C42" s="5">
         <f t="shared" si="4"/>
-        <v>3614.1018518518517</v>
+        <v>3724.287037037037</v>
       </c>
       <c r="D42">
         <f>COUNTIF(CSL_Sonuclari!J:J,A42)</f>
@@ -58956,11 +59014,11 @@
       </c>
       <c r="I42" s="5">
         <f t="shared" si="7"/>
-        <v>5050.4027777777774</v>
+        <v>5215.6805555555557</v>
       </c>
       <c r="J42">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H42,"")</f>
-        <v>5341.7777777777774</v>
+        <v>5652.8888888888887</v>
       </c>
       <c r="K42">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H42,"")</f>
@@ -58968,7 +59026,7 @@
       </c>
       <c r="L42">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H42,"")</f>
-        <v>5372.5</v>
+        <v>5722.5</v>
       </c>
       <c r="M42" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H42,"")</f>
@@ -59001,7 +59059,7 @@
       </c>
       <c r="C43" s="5">
         <f t="shared" si="4"/>
-        <v>3508.3968253968255</v>
+        <v>3587.761904761905</v>
       </c>
       <c r="D43">
         <f>COUNTIF(CSL_Sonuclari!J:J,A43)</f>
@@ -59025,7 +59083,7 @@
       </c>
       <c r="I43" s="5">
         <f t="shared" si="7"/>
-        <v>4570.5555555555557</v>
+        <v>4681.666666666667</v>
       </c>
       <c r="J43">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H43,"")</f>
@@ -59037,11 +59095,11 @@
       </c>
       <c r="L43">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H43,"")</f>
-        <v>4180.5555555555557</v>
+        <v>4458.3333333333339</v>
       </c>
       <c r="M43">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H43,"")</f>
-        <v>5380.5555555555557</v>
+        <v>5658.3333333333339</v>
       </c>
       <c r="N43">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H43,"")</f>
@@ -59070,7 +59128,7 @@
       </c>
       <c r="C44" s="5">
         <f t="shared" si="4"/>
-        <v>4656.8</v>
+        <v>4696.8</v>
       </c>
       <c r="D44">
         <f>COUNTIF(CSL_Sonuclari!J:J,A44)</f>
@@ -59094,7 +59152,7 @@
       </c>
       <c r="I44" s="5">
         <f t="shared" si="7"/>
-        <v>7149</v>
+        <v>7215.666666666667</v>
       </c>
       <c r="J44" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H44,"")</f>
@@ -59118,7 +59176,7 @@
       </c>
       <c r="O44">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H44,"")</f>
-        <v>4822</v>
+        <v>5022</v>
       </c>
       <c r="P44">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F44,"")</f>
@@ -59135,11 +59193,11 @@
       </c>
       <c r="B45">
         <f>COUNTIF(CSL_Sonuclari!C:J,A45)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C45" s="5">
         <f t="shared" si="4"/>
-        <v>2743.1</v>
+        <v>2948.9555555555557</v>
       </c>
       <c r="D45">
         <f>COUNTIF(CSL_Sonuclari!J:J,A45)</f>
@@ -59159,11 +59217,11 @@
       </c>
       <c r="H45">
         <f>COUNTIF(CSL_Sonuclari!C:H,A45)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I45" s="5">
         <f t="shared" si="7"/>
-        <v>3546.4</v>
+        <v>3855.1833333333334</v>
       </c>
       <c r="J45" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H45,"")</f>
@@ -59175,19 +59233,19 @@
       </c>
       <c r="L45">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H45,"")</f>
-        <v>3427.6000000000004</v>
+        <v>3583.4</v>
       </c>
       <c r="M45">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H45,"")</f>
-        <v>4884</v>
+        <v>5106</v>
       </c>
       <c r="N45">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H45,"")</f>
-        <v>5434</v>
+        <v>6271.3333333333339</v>
       </c>
       <c r="O45">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H45,"")</f>
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="P45">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F45,"")</f>
@@ -59208,7 +59266,7 @@
       </c>
       <c r="C46" s="5">
         <f t="shared" si="4"/>
-        <v>3184.25</v>
+        <v>3220.3611111111113</v>
       </c>
       <c r="D46">
         <f>COUNTIF(CSL_Sonuclari!J:J,A46)</f>
@@ -59232,7 +59290,7 @@
       </c>
       <c r="I46" s="5">
         <f t="shared" si="7"/>
-        <v>4515.875</v>
+        <v>4570.041666666667</v>
       </c>
       <c r="J46" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H46,"")</f>
@@ -59244,7 +59302,7 @@
       </c>
       <c r="L46">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H46,"")</f>
-        <v>5657.166666666667</v>
+        <v>5873.833333333333</v>
       </c>
       <c r="M46">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H46,"")</f>
@@ -59277,7 +59335,7 @@
       </c>
       <c r="C47" s="5">
         <f t="shared" si="4"/>
-        <v>3558.1018181818181</v>
+        <v>3609.0109090909086</v>
       </c>
       <c r="D47">
         <f>COUNTIF(CSL_Sonuclari!J:J,A47)</f>
@@ -59301,7 +59359,7 @@
       </c>
       <c r="I47" s="5">
         <f t="shared" si="7"/>
-        <v>5553.5030303030298</v>
+        <v>5638.3515151515139</v>
       </c>
       <c r="J47" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H47,"")</f>
@@ -59321,7 +59379,7 @@
       </c>
       <c r="N47">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H47,"")</f>
-        <v>6294.909090909091</v>
+        <v>6549.454545454545</v>
       </c>
       <c r="O47">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H47,"")</f>
@@ -59346,7 +59404,7 @@
       </c>
       <c r="C48" s="5">
         <f t="shared" si="4"/>
-        <v>4269.5152777777785</v>
+        <v>4335.1402777777785</v>
       </c>
       <c r="D48">
         <f>COUNTIF(CSL_Sonuclari!J:J,A48)</f>
@@ -59354,7 +59412,7 @@
       </c>
       <c r="E48" s="5">
         <f t="shared" si="5"/>
-        <v>497</v>
+        <v>597</v>
       </c>
       <c r="F48" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A48)</f>
@@ -59362,7 +59420,7 @@
       </c>
       <c r="G48" s="8">
         <f t="shared" si="6"/>
-        <v>992</v>
+        <v>1092</v>
       </c>
       <c r="H48">
         <f>COUNTIF(CSL_Sonuclari!C:H,A48)</f>
@@ -59370,7 +59428,7 @@
       </c>
       <c r="I48" s="5">
         <f t="shared" si="7"/>
-        <v>5444.520370370371</v>
+        <v>5498.687037037038</v>
       </c>
       <c r="J48">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H48,"")</f>
@@ -59386,7 +59444,7 @@
       </c>
       <c r="M48">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H48,"")</f>
-        <v>5141.5</v>
+        <v>5466.5</v>
       </c>
       <c r="N48">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H48,"")</f>
@@ -59398,11 +59456,11 @@
       </c>
       <c r="P48">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F48,"")</f>
-        <v>992</v>
+        <v>1092</v>
       </c>
       <c r="Q48">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D48,"")</f>
-        <v>497</v>
+        <v>597</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
@@ -59415,7 +59473,7 @@
       </c>
       <c r="C49" s="5">
         <f t="shared" si="4"/>
-        <v>4187.2820037105757</v>
+        <v>4227.5417439703151</v>
       </c>
       <c r="D49">
         <f>COUNTIF(CSL_Sonuclari!J:J,A49)</f>
@@ -59439,7 +59497,7 @@
       </c>
       <c r="I49" s="5">
         <f t="shared" si="7"/>
-        <v>5591.5948051948053</v>
+        <v>5647.9584415584413</v>
       </c>
       <c r="J49">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H49,"")</f>
@@ -59459,7 +59517,7 @@
       </c>
       <c r="N49">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H49,"")</f>
-        <v>6194.363636363636</v>
+        <v>6476.181818181818</v>
       </c>
       <c r="O49">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H49,"")</f>
@@ -59484,7 +59542,7 @@
       </c>
       <c r="C50" s="5">
         <f t="shared" si="4"/>
-        <v>2942.7407407407409</v>
+        <v>2994.5925925925926</v>
       </c>
       <c r="D50">
         <f>COUNTIF(CSL_Sonuclari!J:J,A50)</f>
@@ -59508,7 +59566,7 @@
       </c>
       <c r="I50" s="5">
         <f t="shared" si="7"/>
-        <v>3753.3611111111113</v>
+        <v>3831.1388888888887</v>
       </c>
       <c r="J50" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H50,"")</f>
@@ -59524,7 +59582,7 @@
       </c>
       <c r="M50">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H50,"")</f>
-        <v>4940.4444444444453</v>
+        <v>5251.5555555555547</v>
       </c>
       <c r="N50">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H50,"")</f>
@@ -59549,11 +59607,11 @@
       </c>
       <c r="B51">
         <f>COUNTIF(CSL_Sonuclari!C:J,A51)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C51" s="5">
         <f t="shared" si="4"/>
-        <v>3035.7999999999997</v>
+        <v>3419.7638888888887</v>
       </c>
       <c r="D51">
         <f>COUNTIF(CSL_Sonuclari!J:J,A51)</f>
@@ -59573,27 +59631,27 @@
       </c>
       <c r="H51">
         <f>COUNTIF(CSL_Sonuclari!C:H,A51)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I51" s="5">
         <f t="shared" si="7"/>
-        <v>4135.95</v>
+        <v>4711.895833333333</v>
       </c>
       <c r="J51">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H51,"")</f>
-        <v>5985</v>
+        <v>6488.75</v>
       </c>
       <c r="K51">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H51,"")</f>
-        <v>5784.8</v>
+        <v>7414.333333333333</v>
       </c>
       <c r="L51">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H51,"")</f>
-        <v>4200</v>
+        <v>4350</v>
       </c>
       <c r="M51">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H51,"")</f>
-        <v>574</v>
+        <v>594.5</v>
       </c>
       <c r="N51" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H51,"")</f>
@@ -59760,7 +59818,7 @@
       </c>
       <c r="C54" s="5">
         <f t="shared" si="4"/>
-        <v>3258.6292929292927</v>
+        <v>3298.9070707070709</v>
       </c>
       <c r="D54">
         <f>COUNTIF(CSL_Sonuclari!J:J,A54)</f>
@@ -59784,7 +59842,7 @@
       </c>
       <c r="I54" s="5">
         <f t="shared" si="7"/>
-        <v>4519.6939393939392</v>
+        <v>4580.1106060606062</v>
       </c>
       <c r="J54" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H54,"")</f>
@@ -59804,7 +59862,7 @@
       </c>
       <c r="N54">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H54,"")</f>
-        <v>6012.666666666667</v>
+        <v>6254.333333333333</v>
       </c>
       <c r="O54" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H54,"")</f>
@@ -59829,7 +59887,7 @@
       </c>
       <c r="C55" s="5">
         <f t="shared" si="4"/>
-        <v>3257.0952380952381</v>
+        <v>3328.5238095238096</v>
       </c>
       <c r="D55">
         <f>COUNTIF(CSL_Sonuclari!J:J,A55)</f>
@@ -59853,11 +59911,11 @@
       </c>
       <c r="I55" s="5">
         <f t="shared" si="7"/>
-        <v>4234.3333333333339</v>
+        <v>4334.3333333333339</v>
       </c>
       <c r="J55">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H55,"")</f>
-        <v>4785</v>
+        <v>5285</v>
       </c>
       <c r="K55">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H55,"")</f>
@@ -59898,7 +59956,7 @@
       </c>
       <c r="C56" s="5">
         <f t="shared" si="4"/>
-        <v>4256.0952380952376</v>
+        <v>4408.4761904761908</v>
       </c>
       <c r="D56">
         <f>COUNTIF(CSL_Sonuclari!J:J,A56)</f>
@@ -59922,7 +59980,7 @@
       </c>
       <c r="I56" s="5">
         <f t="shared" si="7"/>
-        <v>5457.333333333333</v>
+        <v>5670.666666666667</v>
       </c>
       <c r="J56">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H56,"")</f>
@@ -59934,7 +59992,7 @@
       </c>
       <c r="L56">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H56,"")</f>
-        <v>6362.6666666666661</v>
+        <v>6629.3333333333339</v>
       </c>
       <c r="M56">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H56,"")</f>
@@ -59942,7 +60000,7 @@
       </c>
       <c r="N56">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H56,"")</f>
-        <v>4376</v>
+        <v>5176</v>
       </c>
       <c r="O56" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H56,"")</f>
@@ -59967,7 +60025,7 @@
       </c>
       <c r="C57" s="5">
         <f t="shared" si="4"/>
-        <v>4662.4409523809518</v>
+        <v>4726.885396825397</v>
       </c>
       <c r="D57">
         <f>COUNTIF(CSL_Sonuclari!J:J,A57)</f>
@@ -59991,7 +60049,7 @@
       </c>
       <c r="I57" s="5">
         <f t="shared" si="7"/>
-        <v>5625.5511904761897</v>
+        <v>5706.1067460317463</v>
       </c>
       <c r="J57" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H57,"")</f>
@@ -60007,7 +60065,7 @@
       </c>
       <c r="M57">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H57,"")</f>
-        <v>6254.333333333333</v>
+        <v>6576.5555555555557</v>
       </c>
       <c r="N57">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H57,"")</f>
@@ -60036,7 +60094,7 @@
       </c>
       <c r="C58" s="5">
         <f t="shared" si="4"/>
-        <v>3987.7241758241757</v>
+        <v>4219.1527472527468</v>
       </c>
       <c r="D58">
         <f>COUNTIF(CSL_Sonuclari!J:J,A58)</f>
@@ -60060,7 +60118,7 @@
       </c>
       <c r="I58" s="5">
         <f t="shared" si="7"/>
-        <v>5225.413846153846</v>
+        <v>5549.413846153846</v>
       </c>
       <c r="J58" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H58,"")</f>
@@ -60072,7 +60130,7 @@
       </c>
       <c r="L58">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H58,"")</f>
-        <v>3982.5</v>
+        <v>5332.5</v>
       </c>
       <c r="M58">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H58,"")</f>
@@ -60084,7 +60142,7 @@
       </c>
       <c r="O58">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H58,"")</f>
-        <v>5329.8</v>
+        <v>5599.8</v>
       </c>
       <c r="P58">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F58,"")</f>
@@ -60105,7 +60163,7 @@
       </c>
       <c r="C59" s="5">
         <f t="shared" si="4"/>
-        <v>1775.421875</v>
+        <v>1801.203125</v>
       </c>
       <c r="D59">
         <f>COUNTIF(CSL_Sonuclari!J:J,A59)</f>
@@ -60129,11 +60187,11 @@
       </c>
       <c r="I59" s="5">
         <f t="shared" si="7"/>
-        <v>3261.84375</v>
+        <v>3313.40625</v>
       </c>
       <c r="J59">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H59,"")</f>
-        <v>5962.6875</v>
+        <v>6065.8125</v>
       </c>
       <c r="K59" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H59,"")</f>
@@ -60170,11 +60228,11 @@
       </c>
       <c r="B60">
         <f>COUNTIF(CSL_Sonuclari!C:J,A60)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C60" s="5">
         <f t="shared" si="4"/>
-        <v>3215.876923076923</v>
+        <v>4480.4444444444443</v>
       </c>
       <c r="D60">
         <f>COUNTIF(CSL_Sonuclari!J:J,A60)</f>
@@ -60194,27 +60252,27 @@
       </c>
       <c r="H60">
         <f>COUNTIF(CSL_Sonuclari!C:H,A60)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I60" s="5">
         <f t="shared" si="7"/>
-        <v>4687.7948717948721</v>
+        <v>6216.6666666666661</v>
       </c>
       <c r="J60">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H60,"")</f>
-        <v>4240</v>
+        <v>4416.6666666666661</v>
       </c>
       <c r="K60">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H60,"")</f>
-        <v>5551.3846153846152</v>
+        <v>5975</v>
       </c>
       <c r="L60">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H60,"")</f>
-        <v>4272</v>
-      </c>
-      <c r="M60" t="str">
+        <v>4450</v>
+      </c>
+      <c r="M60">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H60,"")</f>
-        <v/>
+        <v>10025</v>
       </c>
       <c r="N60" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H60,"")</f>
@@ -60312,7 +60370,7 @@
       </c>
       <c r="C62" s="5">
         <f t="shared" si="4"/>
-        <v>4115.1642857142861</v>
+        <v>4160.8785714285714</v>
       </c>
       <c r="D62">
         <f>COUNTIF(CSL_Sonuclari!J:J,A62)</f>
@@ -60320,7 +60378,7 @@
       </c>
       <c r="E62" s="5">
         <f t="shared" si="5"/>
-        <v>1319</v>
+        <v>1419</v>
       </c>
       <c r="F62" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A62)</f>
@@ -60336,7 +60394,7 @@
       </c>
       <c r="I62" s="5">
         <f t="shared" si="7"/>
-        <v>5378.2300000000005</v>
+        <v>5422.2300000000005</v>
       </c>
       <c r="J62" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H62,"")</f>
@@ -60352,7 +60410,7 @@
       </c>
       <c r="M62">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H62,"")</f>
-        <v>5317.4</v>
+        <v>5537.4000000000005</v>
       </c>
       <c r="N62">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H62,"")</f>
@@ -60368,7 +60426,7 @@
       </c>
       <c r="Q62">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D62,"")</f>
-        <v>1319</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -60381,7 +60439,7 @@
       </c>
       <c r="C63" s="5">
         <f t="shared" si="4"/>
-        <v>3565.3939393939395</v>
+        <v>3682.060606060606</v>
       </c>
       <c r="D63">
         <f>COUNTIF(CSL_Sonuclari!J:J,A63)</f>
@@ -60405,7 +60463,7 @@
       </c>
       <c r="I63" s="5">
         <f t="shared" si="7"/>
-        <v>5034.590909090909</v>
+        <v>5209.590909090909</v>
       </c>
       <c r="J63" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H63,"")</f>
@@ -60421,7 +60479,7 @@
       </c>
       <c r="M63">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H63,"")</f>
-        <v>3276</v>
+        <v>3976</v>
       </c>
       <c r="N63">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H63,"")</f>
@@ -60584,11 +60642,11 @@
       </c>
       <c r="B66">
         <f>COUNTIF(CSL_Sonuclari!C:J,A66)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C66" s="5">
         <f t="shared" ref="C66:C91" si="8">AVERAGE(J66:Q66)</f>
-        <v>3716.4920634920636</v>
+        <v>5984.6230158730159</v>
       </c>
       <c r="D66">
         <f>COUNTIF(CSL_Sonuclari!J:J,A66)</f>
@@ -60608,23 +60666,23 @@
       </c>
       <c r="H66">
         <f>COUNTIF(CSL_Sonuclari!C:H,A66)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I66" s="5">
         <f t="shared" ref="I66:I91" si="11">AVERAGE(J66:O66)</f>
-        <v>5370.2380952380954</v>
+        <v>7843.1640211640215</v>
       </c>
       <c r="J66">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H66,"")</f>
-        <v>5757.1428571428569</v>
+        <v>5949.0476190476193</v>
       </c>
       <c r="K66">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H66,"")</f>
-        <v>4983.333333333333</v>
-      </c>
-      <c r="L66" t="str">
+        <v>5149.4444444444443</v>
+      </c>
+      <c r="L66">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H66,"")</f>
-        <v/>
+        <v>12431</v>
       </c>
       <c r="M66" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H66,"")</f>
@@ -60657,7 +60715,7 @@
       </c>
       <c r="C67" s="5">
         <f t="shared" si="8"/>
-        <v>5107.5407407407411</v>
+        <v>5166.8</v>
       </c>
       <c r="D67">
         <f>COUNTIF(CSL_Sonuclari!J:J,A67)</f>
@@ -60681,7 +60739,7 @@
       </c>
       <c r="I67" s="5">
         <f t="shared" si="11"/>
-        <v>7206.3111111111111</v>
+        <v>7295.2000000000007</v>
       </c>
       <c r="J67" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H67,"")</f>
@@ -60705,7 +60763,7 @@
       </c>
       <c r="O67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H67,"")</f>
-        <v>8657.7777777777774</v>
+        <v>9013.3333333333339</v>
       </c>
       <c r="P67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F67,"")</f>
@@ -60726,7 +60784,7 @@
       </c>
       <c r="C68" s="5">
         <f t="shared" si="8"/>
-        <v>5526.1493506493507</v>
+        <v>5644.9985569985565</v>
       </c>
       <c r="D68">
         <f>COUNTIF(CSL_Sonuclari!J:J,A68)</f>
@@ -60742,7 +60800,7 @@
       </c>
       <c r="G68" s="8">
         <f t="shared" si="10"/>
-        <v>1349</v>
+        <v>1449</v>
       </c>
       <c r="H68">
         <f>COUNTIF(CSL_Sonuclari!C:H,A68)</f>
@@ -60750,11 +60808,11 @@
       </c>
       <c r="I68" s="5">
         <f t="shared" si="11"/>
-        <v>7373.2090909090912</v>
+        <v>7519.597979797979</v>
       </c>
       <c r="J68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H68,"")</f>
-        <v>6634</v>
+        <v>7021.5</v>
       </c>
       <c r="K68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H68,"")</f>
@@ -60762,7 +60820,7 @@
       </c>
       <c r="L68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H68,"")</f>
-        <v>7781</v>
+        <v>8125.4444444444434</v>
       </c>
       <c r="M68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H68,"")</f>
@@ -60778,7 +60836,7 @@
       </c>
       <c r="P68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F68,"")</f>
-        <v>1349</v>
+        <v>1449</v>
       </c>
       <c r="Q68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D68,"")</f>
@@ -60795,7 +60853,7 @@
       </c>
       <c r="C69" s="5">
         <f t="shared" si="8"/>
-        <v>3596.9815476190479</v>
+        <v>3632.3982142857149</v>
       </c>
       <c r="D69">
         <f>COUNTIF(CSL_Sonuclari!J:J,A69)</f>
@@ -60819,7 +60877,7 @@
       </c>
       <c r="I69" s="5">
         <f t="shared" si="11"/>
-        <v>4619.6420634920642</v>
+        <v>4666.8642857142868</v>
       </c>
       <c r="J69">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H69,"")</f>
@@ -60835,7 +60893,7 @@
       </c>
       <c r="M69">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H69,"")</f>
-        <v>7108.8333333333339</v>
+        <v>7392.1666666666661</v>
       </c>
       <c r="N69">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H69,"")</f>
@@ -60933,7 +60991,7 @@
       </c>
       <c r="C71" s="5">
         <f t="shared" si="8"/>
-        <v>4104.9682539682535</v>
+        <v>4119.2539682539682</v>
       </c>
       <c r="D71">
         <f>COUNTIF(CSL_Sonuclari!J:J,A71)</f>
@@ -60949,7 +61007,7 @@
       </c>
       <c r="G71" s="8">
         <f t="shared" si="10"/>
-        <v>919</v>
+        <v>1019</v>
       </c>
       <c r="H71">
         <f>COUNTIF(CSL_Sonuclari!C:H,A71)</f>
@@ -60985,7 +61043,7 @@
       </c>
       <c r="P71">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F71,"")</f>
-        <v>919</v>
+        <v>1019</v>
       </c>
       <c r="Q71" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D71,"")</f>
@@ -61002,7 +61060,7 @@
       </c>
       <c r="C72" s="5">
         <f t="shared" si="8"/>
-        <v>3382.7234432234432</v>
+        <v>3414.5915750915747</v>
       </c>
       <c r="D72">
         <f>COUNTIF(CSL_Sonuclari!J:J,A72)</f>
@@ -61026,7 +61084,7 @@
       </c>
       <c r="I72" s="5">
         <f t="shared" si="11"/>
-        <v>4537.0128205128203</v>
+        <v>4581.6282051282051</v>
       </c>
       <c r="J72">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H72,"")</f>
@@ -61046,7 +61104,7 @@
       </c>
       <c r="N72">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H72,"")</f>
-        <v>5889.2307692307686</v>
+        <v>6112.3076923076924</v>
       </c>
       <c r="O72">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H72,"")</f>
@@ -61071,7 +61129,7 @@
       </c>
       <c r="C73" s="5">
         <f t="shared" si="8"/>
-        <v>2730.125</v>
+        <v>2746.7916666666665</v>
       </c>
       <c r="D73">
         <f>COUNTIF(CSL_Sonuclari!J:J,A73)</f>
@@ -61079,7 +61137,7 @@
       </c>
       <c r="E73" s="5">
         <f t="shared" si="9"/>
-        <v>1026</v>
+        <v>1126</v>
       </c>
       <c r="F73" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A73)</f>
@@ -61127,7 +61185,7 @@
       </c>
       <c r="Q73">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D73,"")</f>
-        <v>1026</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
@@ -61140,7 +61198,7 @@
       </c>
       <c r="C74" s="5">
         <f t="shared" si="8"/>
-        <v>5271.7724301841945</v>
+        <v>5368.7421271538924</v>
       </c>
       <c r="D74">
         <f>COUNTIF(CSL_Sonuclari!J:J,A74)</f>
@@ -61164,11 +61222,11 @@
       </c>
       <c r="I74" s="5">
         <f t="shared" si="11"/>
-        <v>7447.1586452762922</v>
+        <v>7592.6131907308381</v>
       </c>
       <c r="J74">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H74,"")</f>
-        <v>6018.909090909091</v>
+        <v>6600.727272727273</v>
       </c>
       <c r="K74">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H74,"")</f>
@@ -61278,7 +61336,7 @@
       </c>
       <c r="C76" s="5">
         <f t="shared" si="8"/>
-        <v>5969.2132936507942</v>
+        <v>6046.2966269841272</v>
       </c>
       <c r="D76">
         <f>COUNTIF(CSL_Sonuclari!J:J,A76)</f>
@@ -61294,7 +61352,7 @@
       </c>
       <c r="G76" s="8">
         <f t="shared" si="10"/>
-        <v>1860.9999999999998</v>
+        <v>1961.0000000000002</v>
       </c>
       <c r="H76">
         <f>COUNTIF(CSL_Sonuclari!C:H,A76)</f>
@@ -61302,7 +61360,7 @@
       </c>
       <c r="I76" s="5">
         <f t="shared" si="11"/>
-        <v>7543.7843915343919</v>
+        <v>7629.8955026455033</v>
       </c>
       <c r="J76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H76,"")</f>
@@ -61318,7 +61376,7 @@
       </c>
       <c r="M76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H76,"")</f>
-        <v>8003.166666666667</v>
+        <v>8519.8333333333321</v>
       </c>
       <c r="N76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H76,"")</f>
@@ -61330,7 +61388,7 @@
       </c>
       <c r="P76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F76,"")</f>
-        <v>1860.9999999999998</v>
+        <v>1961.0000000000002</v>
       </c>
       <c r="Q76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D76,"")</f>
@@ -61416,7 +61474,7 @@
       </c>
       <c r="C78" s="5">
         <f t="shared" si="8"/>
-        <v>3340.378787878788</v>
+        <v>3419.1666666666665</v>
       </c>
       <c r="D78">
         <f>COUNTIF(CSL_Sonuclari!J:J,A78)</f>
@@ -61440,15 +61498,15 @@
       </c>
       <c r="I78" s="5">
         <f t="shared" si="11"/>
-        <v>4480.818181818182</v>
+        <v>4599</v>
       </c>
       <c r="J78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H78,"")</f>
-        <v>6207.272727272727</v>
+        <v>6480</v>
       </c>
       <c r="K78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H78,"")</f>
-        <v>5086</v>
+        <v>5286</v>
       </c>
       <c r="L78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H78,"")</f>
@@ -61485,7 +61543,7 @@
       </c>
       <c r="C79" s="5">
         <f t="shared" si="8"/>
-        <v>4600.1412337662341</v>
+        <v>4669.1888528138525</v>
       </c>
       <c r="D79">
         <f>COUNTIF(CSL_Sonuclari!J:J,A79)</f>
@@ -61509,7 +61567,7 @@
       </c>
       <c r="I79" s="5">
         <f t="shared" si="11"/>
-        <v>6188.7977272727276</v>
+        <v>6285.4643939393936</v>
       </c>
       <c r="J79" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H79,"")</f>
@@ -61529,7 +61587,7 @@
       </c>
       <c r="N79">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H79,"")</f>
-        <v>4683.5</v>
+        <v>5166.833333333333</v>
       </c>
       <c r="O79">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H79,"")</f>
@@ -61554,7 +61612,7 @@
       </c>
       <c r="C80" s="5">
         <f t="shared" si="8"/>
-        <v>4674.7555555555564</v>
+        <v>4720.4698412698417</v>
       </c>
       <c r="D80">
         <f>COUNTIF(CSL_Sonuclari!J:J,A80)</f>
@@ -61578,7 +61636,7 @@
       </c>
       <c r="I80" s="5">
         <f t="shared" si="11"/>
-        <v>6099.8577777777782</v>
+        <v>6163.8577777777782</v>
       </c>
       <c r="J80" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H80,"")</f>
@@ -61598,7 +61656,7 @@
       </c>
       <c r="N80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H80,"")</f>
-        <v>5734.4</v>
+        <v>6054.4</v>
       </c>
       <c r="O80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H80,"")</f>
@@ -61623,7 +61681,7 @@
       </c>
       <c r="C81" s="5">
         <f t="shared" si="8"/>
-        <v>3190.8611111111109</v>
+        <v>3207.5277777777774</v>
       </c>
       <c r="D81">
         <f>COUNTIF(CSL_Sonuclari!J:J,A81)</f>
@@ -61631,7 +61689,7 @@
       </c>
       <c r="E81" s="5">
         <f t="shared" si="9"/>
-        <v>553</v>
+        <v>653</v>
       </c>
       <c r="F81" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A81)</f>
@@ -61679,7 +61737,7 @@
       </c>
       <c r="Q81">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D81,"")</f>
-        <v>553</v>
+        <v>653</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
@@ -61692,7 +61750,7 @@
       </c>
       <c r="C82" s="5">
         <f t="shared" si="8"/>
-        <v>4260.8480769230773</v>
+        <v>4320.4634615384612</v>
       </c>
       <c r="D82">
         <f>COUNTIF(CSL_Sonuclari!J:J,A82)</f>
@@ -61716,7 +61774,7 @@
       </c>
       <c r="I82" s="5">
         <f t="shared" si="11"/>
-        <v>7521.1961538461537</v>
+        <v>7640.4269230769223</v>
       </c>
       <c r="J82" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H82,"")</f>
@@ -61740,7 +61798,7 @@
       </c>
       <c r="O82">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H82,"")</f>
-        <v>7162.1923076923076</v>
+        <v>7400.6538461538457</v>
       </c>
       <c r="P82">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F82,"")</f>
@@ -61761,7 +61819,7 @@
       </c>
       <c r="C83" s="5">
         <f t="shared" si="8"/>
-        <v>2564.0555555555557</v>
+        <v>2582.9444444444443</v>
       </c>
       <c r="D83">
         <f>COUNTIF(CSL_Sonuclari!J:J,A83)</f>
@@ -61785,7 +61843,7 @@
       </c>
       <c r="I83" s="5">
         <f t="shared" si="11"/>
-        <v>3483.5833333333335</v>
+        <v>3511.9166666666665</v>
       </c>
       <c r="J83" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H83,"")</f>
@@ -61809,7 +61867,7 @@
       </c>
       <c r="O83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H83,"")</f>
-        <v>7032.3333333333339</v>
+        <v>7145.6666666666661</v>
       </c>
       <c r="P83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F83,"")</f>
@@ -61830,7 +61888,7 @@
       </c>
       <c r="C84" s="5">
         <f t="shared" si="8"/>
-        <v>3980.8275862068967</v>
+        <v>4155.8275862068967</v>
       </c>
       <c r="D84">
         <f>COUNTIF(CSL_Sonuclari!J:J,A84)</f>
@@ -61854,7 +61912,7 @@
       </c>
       <c r="I84" s="5">
         <f t="shared" si="11"/>
-        <v>4841.1034482758623</v>
+        <v>5074.4367816091954</v>
       </c>
       <c r="J84">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H84,"")</f>
@@ -61874,7 +61932,7 @@
       </c>
       <c r="N84">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H84,"")</f>
-        <v>6314</v>
+        <v>7014</v>
       </c>
       <c r="O84">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H84,"")</f>
@@ -61895,11 +61953,11 @@
       </c>
       <c r="B85">
         <f>COUNTIF(CSL_Sonuclari!C:J,A85)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C85" s="5">
         <f t="shared" si="8"/>
-        <v>4263.8226495726494</v>
+        <v>4558.4337606837607</v>
       </c>
       <c r="D85">
         <f>COUNTIF(CSL_Sonuclari!J:J,A85)</f>
@@ -61907,15 +61965,15 @@
       </c>
       <c r="E85" s="5">
         <f t="shared" si="9"/>
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="F85" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A85)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G85" s="8">
         <f t="shared" si="10"/>
-        <v>399</v>
+        <v>800</v>
       </c>
       <c r="H85">
         <f>COUNTIF(CSL_Sonuclari!C:H,A85)</f>
@@ -61923,7 +61981,7 @@
       </c>
       <c r="I85" s="5">
         <f t="shared" si="11"/>
-        <v>5945.9839743589737</v>
+        <v>6237.6506410256416</v>
       </c>
       <c r="J85" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H85,"")</f>
@@ -61939,7 +61997,7 @@
       </c>
       <c r="M85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H85,"")</f>
-        <v>9706.6666666666661</v>
+        <v>10873.333333333334</v>
       </c>
       <c r="N85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H85,"")</f>
@@ -61951,11 +62009,11 @@
       </c>
       <c r="P85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F85,"")</f>
-        <v>399</v>
+        <v>800</v>
       </c>
       <c r="Q85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D85,"")</f>
-        <v>1400</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
@@ -61968,7 +62026,7 @@
       </c>
       <c r="C86" s="5">
         <f t="shared" si="8"/>
-        <v>4682.8941176470589</v>
+        <v>4802.8941176470589</v>
       </c>
       <c r="D86">
         <f>COUNTIF(CSL_Sonuclari!J:J,A86)</f>
@@ -61984,7 +62042,7 @@
       </c>
       <c r="G86" s="8">
         <f t="shared" si="10"/>
-        <v>866</v>
+        <v>966</v>
       </c>
       <c r="H86">
         <f>COUNTIF(CSL_Sonuclari!C:H,A86)</f>
@@ -61992,7 +62050,7 @@
       </c>
       <c r="I86" s="5">
         <f t="shared" si="11"/>
-        <v>7165.4901960784309</v>
+        <v>7332.1568627450979</v>
       </c>
       <c r="J86">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H86,"")</f>
@@ -62000,7 +62058,7 @@
       </c>
       <c r="K86">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H86,"")</f>
-        <v>7707.5</v>
+        <v>8207.5</v>
       </c>
       <c r="L86">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H86,"")</f>
@@ -62020,7 +62078,7 @@
       </c>
       <c r="P86">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F86,"")</f>
-        <v>866</v>
+        <v>966</v>
       </c>
       <c r="Q86">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D86,"")</f>
@@ -62037,7 +62095,7 @@
       </c>
       <c r="C87" s="5">
         <f t="shared" si="8"/>
-        <v>4990.776515151515</v>
+        <v>5032.443181818182</v>
       </c>
       <c r="D87">
         <f>COUNTIF(CSL_Sonuclari!J:J,A87)</f>
@@ -62061,7 +62119,7 @@
       </c>
       <c r="I87" s="5">
         <f t="shared" si="11"/>
-        <v>6265.8686868686864</v>
+        <v>6321.4242424242429</v>
       </c>
       <c r="J87">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H87,"")</f>
@@ -62069,7 +62127,7 @@
       </c>
       <c r="K87">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H87,"")</f>
-        <v>5056.6666666666661</v>
+        <v>5390</v>
       </c>
       <c r="L87">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H87,"")</f>
@@ -62102,11 +62160,11 @@
       </c>
       <c r="B88">
         <f>COUNTIF(CSL_Sonuclari!C:J,A88)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C88" s="5">
         <f t="shared" si="8"/>
-        <v>2429.4649350649352</v>
+        <v>2608.9080745341616</v>
       </c>
       <c r="D88">
         <f>COUNTIF(CSL_Sonuclari!J:J,A88)</f>
@@ -62126,19 +62184,19 @@
       </c>
       <c r="H88">
         <f>COUNTIF(CSL_Sonuclari!C:H,A88)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I88" s="5">
         <f t="shared" si="11"/>
-        <v>3328.4415584415583</v>
+        <v>3627.5134575569359</v>
       </c>
       <c r="J88">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H88,"")</f>
-        <v>5468.181818181818</v>
+        <v>6214.826086956522</v>
       </c>
       <c r="K88">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H88,"")</f>
-        <v>3827.1428571428569</v>
+        <v>3954.7142857142858</v>
       </c>
       <c r="L88" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H88,"")</f>
@@ -62154,7 +62212,7 @@
       </c>
       <c r="O88">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H88,"")</f>
-        <v>690</v>
+        <v>713</v>
       </c>
       <c r="P88">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F88,"")</f>
@@ -62175,7 +62233,7 @@
       </c>
       <c r="C89" s="5">
         <f t="shared" si="8"/>
-        <v>5604.4190476190479</v>
+        <v>5844.4190476190479</v>
       </c>
       <c r="D89">
         <f>COUNTIF(CSL_Sonuclari!J:J,A89)</f>
@@ -62199,7 +62257,7 @@
       </c>
       <c r="I89" s="5">
         <f t="shared" si="11"/>
-        <v>7460.7866666666669</v>
+        <v>7796.7866666666669</v>
       </c>
       <c r="J89" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H89,"")</f>
@@ -62211,7 +62269,7 @@
       </c>
       <c r="L89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H89,"")</f>
-        <v>7336</v>
+        <v>8736</v>
       </c>
       <c r="M89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H89,"")</f>
@@ -62219,7 +62277,7 @@
       </c>
       <c r="N89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H89,"")</f>
-        <v>7775.5999999999995</v>
+        <v>8055.6</v>
       </c>
       <c r="O89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H89,"")</f>
@@ -62313,7 +62371,7 @@
       </c>
       <c r="C91" s="5">
         <f t="shared" si="8"/>
-        <v>5714.0938228438217</v>
+        <v>5817.5903263403261</v>
       </c>
       <c r="D91">
         <f>COUNTIF(CSL_Sonuclari!J:J,A91)</f>
@@ -62337,7 +62395,7 @@
       </c>
       <c r="I91" s="5">
         <f t="shared" si="11"/>
-        <v>8076.640734265734</v>
+        <v>8231.8854895104887</v>
       </c>
       <c r="J91">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H91,"")</f>
@@ -62345,11 +62403,11 @@
       </c>
       <c r="K91">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H91,"")</f>
-        <v>6879.1538461538466</v>
+        <v>7163.7692307692305</v>
       </c>
       <c r="L91">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H91,"")</f>
-        <v>9552.7272727272721</v>
+        <v>9889.0909090909081</v>
       </c>
       <c r="M91">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H91,"")</f>

--- a/SLIStatistik.xlsx
+++ b/SLIStatistik.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\ReadExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FCBC70-0C1B-4E9A-8168-BC258C8D57E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31790556-FDDF-4741-AA1C-EDF5A7086F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
   </bookViews>
   <sheets>
     <sheet name="CSL_Sonuclari" sheetId="2" r:id="rId1"/>
@@ -612,13 +612,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21120D27-1448-4179-993C-6B3BE739480A}">
-  <dimension ref="A1:L403"/>
+  <dimension ref="A1:L405"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B375" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B404" sqref="B404"/>
+      <selection pane="bottomRight" activeCell="A406" sqref="A406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12935,6 +12935,70 @@
         <v>59</v>
       </c>
     </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A404" s="2">
+        <v>402</v>
+      </c>
+      <c r="B404" s="1">
+        <v>44989</v>
+      </c>
+      <c r="C404" s="2">
+        <v>48</v>
+      </c>
+      <c r="D404" s="2">
+        <v>57</v>
+      </c>
+      <c r="E404" s="2">
+        <v>62</v>
+      </c>
+      <c r="F404" s="2">
+        <v>74</v>
+      </c>
+      <c r="G404" s="2">
+        <v>87</v>
+      </c>
+      <c r="H404" s="2">
+        <v>88</v>
+      </c>
+      <c r="I404" s="2">
+        <v>42</v>
+      </c>
+      <c r="J404" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A405" s="2">
+        <v>403</v>
+      </c>
+      <c r="B405" s="1">
+        <v>44991</v>
+      </c>
+      <c r="C405" s="2">
+        <v>5</v>
+      </c>
+      <c r="D405" s="2">
+        <v>7</v>
+      </c>
+      <c r="E405" s="2">
+        <v>38</v>
+      </c>
+      <c r="F405" s="2">
+        <v>57</v>
+      </c>
+      <c r="G405" s="2">
+        <v>64</v>
+      </c>
+      <c r="H405" s="2">
+        <v>66</v>
+      </c>
+      <c r="I405" s="2">
+        <v>16</v>
+      </c>
+      <c r="J405" s="2">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J311">
     <sortCondition ref="B2:B311"/>
@@ -12946,10 +13010,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8BCBFC-83B0-4863-9D9A-FF955DDDA58C}">
-  <dimension ref="A1:H402"/>
+  <dimension ref="A1:H404"/>
   <sheetViews>
     <sheetView topLeftCell="A373" workbookViewId="0">
-      <selection activeCell="C406" sqref="C406"/>
+      <selection activeCell="A405" sqref="A405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23310,7 +23374,7 @@
         <v>397</v>
       </c>
       <c r="B399" s="1">
-        <v>45006</v>
+        <v>44978</v>
       </c>
       <c r="C399">
         <v>9</v>
@@ -23336,7 +23400,7 @@
         <v>398</v>
       </c>
       <c r="B400" s="1">
-        <v>45008</v>
+        <v>44980</v>
       </c>
       <c r="C400">
         <v>11</v>
@@ -23362,7 +23426,7 @@
         <v>399</v>
       </c>
       <c r="B401" s="1">
-        <v>45011</v>
+        <v>44983</v>
       </c>
       <c r="C401">
         <v>8</v>
@@ -23388,7 +23452,7 @@
         <v>400</v>
       </c>
       <c r="B402" s="1">
-        <v>45013</v>
+        <v>44985</v>
       </c>
       <c r="C402">
         <v>6</v>
@@ -23407,6 +23471,58 @@
       </c>
       <c r="H402">
         <v>47</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>401</v>
+      </c>
+      <c r="B403" s="1">
+        <v>44987</v>
+      </c>
+      <c r="C403">
+        <v>8</v>
+      </c>
+      <c r="D403">
+        <v>38</v>
+      </c>
+      <c r="E403">
+        <v>40</v>
+      </c>
+      <c r="F403">
+        <v>46</v>
+      </c>
+      <c r="G403">
+        <v>49</v>
+      </c>
+      <c r="H403">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>402</v>
+      </c>
+      <c r="B404" s="1">
+        <v>44990</v>
+      </c>
+      <c r="C404">
+        <v>7</v>
+      </c>
+      <c r="D404">
+        <v>9</v>
+      </c>
+      <c r="E404">
+        <v>21</v>
+      </c>
+      <c r="F404">
+        <v>37</v>
+      </c>
+      <c r="G404">
+        <v>52</v>
+      </c>
+      <c r="H404">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -23419,10 +23535,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4513EEF-0F11-4AC5-A4C7-CB00A18EA83B}">
-  <dimension ref="A1:H1258"/>
+  <dimension ref="A1:H1259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1237" workbookViewId="0">
-      <selection activeCell="A1259" sqref="A1259"/>
+    <sheetView topLeftCell="A1237" workbookViewId="0">
+      <selection activeCell="M1251" sqref="M1251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56136,6 +56252,32 @@
       </c>
       <c r="H1258">
         <v>5</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1259">
+        <v>1258</v>
+      </c>
+      <c r="B1259" s="1">
+        <v>44990</v>
+      </c>
+      <c r="C1259">
+        <v>6</v>
+      </c>
+      <c r="D1259">
+        <v>9</v>
+      </c>
+      <c r="E1259">
+        <v>14</v>
+      </c>
+      <c r="F1259">
+        <v>15</v>
+      </c>
+      <c r="G1259">
+        <v>33</v>
+      </c>
+      <c r="H1259">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -56640,19 +56782,19 @@
       </c>
       <c r="B8">
         <f>COUNTIF(CSL_Sonuclari!C:J,A8)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" si="0"/>
-        <v>2575.0214285714287</v>
+        <v>2655.6214285714286</v>
       </c>
       <c r="D8">
         <f>COUNTIF(CSL_Sonuclari!J:J,A8)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="1"/>
-        <v>997</v>
+        <v>1400</v>
       </c>
       <c r="F8" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A8)</f>
@@ -56700,7 +56842,7 @@
       </c>
       <c r="Q8">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D8,"")</f>
-        <v>997</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -57054,11 +57196,11 @@
       </c>
       <c r="B14">
         <f>COUNTIF(CSL_Sonuclari!C:J,A14)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="0"/>
-        <v>3802.3142857142857</v>
+        <v>4044.9999999999995</v>
       </c>
       <c r="D14">
         <f>COUNTIF(CSL_Sonuclari!J:J,A14)</f>
@@ -57078,31 +57220,31 @@
       </c>
       <c r="H14">
         <f>COUNTIF(CSL_Sonuclari!C:H,A14)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" si="3"/>
-        <v>5095.4400000000005</v>
+        <v>5435.1999999999989</v>
       </c>
       <c r="J14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H14,"")</f>
-        <v>7644</v>
+        <v>8008</v>
       </c>
       <c r="K14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H14,"")</f>
-        <v>5012</v>
+        <v>5250.6666666666661</v>
       </c>
       <c r="L14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H14,"")</f>
-        <v>3364.2</v>
+        <v>4010</v>
       </c>
       <c r="M14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H14,"")</f>
-        <v>3514</v>
+        <v>3681.3333333333335</v>
       </c>
       <c r="N14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H14,"")</f>
-        <v>5943</v>
+        <v>6226</v>
       </c>
       <c r="O14" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H14,"")</f>
@@ -57261,11 +57403,11 @@
       </c>
       <c r="B17">
         <f>COUNTIF(CSL_Sonuclari!C:J,A17)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="0"/>
-        <v>3384.7111111111112</v>
+        <v>3451.8777777777777</v>
       </c>
       <c r="D17">
         <f>COUNTIF(CSL_Sonuclari!J:J,A17)</f>
@@ -57277,11 +57419,11 @@
       </c>
       <c r="F17" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A17)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G17" s="8">
         <f t="shared" si="2"/>
-        <v>1018</v>
+        <v>1421</v>
       </c>
       <c r="H17">
         <f>COUNTIF(CSL_Sonuclari!C:H,A17)</f>
@@ -57317,7 +57459,7 @@
       </c>
       <c r="P17">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F17,"")</f>
-        <v>1018</v>
+        <v>1421</v>
       </c>
       <c r="Q17">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D17,"")</f>
@@ -57606,11 +57748,11 @@
       </c>
       <c r="B22">
         <f>COUNTIF(CSL_Sonuclari!C:J,A22)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
-        <v>3810.1666666666665</v>
+        <v>4240.5740740740739</v>
       </c>
       <c r="D22">
         <f>COUNTIF(CSL_Sonuclari!J:J,A22)</f>
@@ -57630,11 +57772,11 @@
       </c>
       <c r="H22">
         <f>COUNTIF(CSL_Sonuclari!C:H,A22)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I22" s="5">
         <f t="shared" si="3"/>
-        <v>5540.25</v>
+        <v>6185.8611111111113</v>
       </c>
       <c r="J22" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H22,"")</f>
@@ -57646,19 +57788,19 @@
       </c>
       <c r="L22">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H22,"")</f>
-        <v>6111</v>
+        <v>6337.3333333333339</v>
       </c>
       <c r="M22">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H22,"")</f>
-        <v>6024</v>
+        <v>6247.1111111111113</v>
       </c>
       <c r="N22">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H22,"")</f>
-        <v>5940</v>
+        <v>6160</v>
       </c>
       <c r="O22">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H22,"")</f>
-        <v>4086.0000000000005</v>
+        <v>5999</v>
       </c>
       <c r="P22">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F22,"")</f>
@@ -57813,11 +57955,11 @@
       </c>
       <c r="B25">
         <f>COUNTIF(CSL_Sonuclari!C:J,A25)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" s="5">
         <f t="shared" si="0"/>
-        <v>5330.3</v>
+        <v>5695.95</v>
       </c>
       <c r="D25">
         <f>COUNTIF(CSL_Sonuclari!J:J,A25)</f>
@@ -57837,23 +57979,23 @@
       </c>
       <c r="H25">
         <f>COUNTIF(CSL_Sonuclari!C:H,A25)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I25" s="5">
         <f t="shared" si="3"/>
-        <v>7013.4000000000005</v>
+        <v>7500.9333333333334</v>
       </c>
       <c r="J25">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H25,"")</f>
-        <v>5348.7</v>
+        <v>5546.8</v>
       </c>
       <c r="K25">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H25,"")</f>
-        <v>6268.5</v>
+        <v>7184</v>
       </c>
       <c r="L25">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H25,"")</f>
-        <v>9423</v>
+        <v>9772</v>
       </c>
       <c r="M25" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H25,"")</f>
@@ -58641,11 +58783,11 @@
       </c>
       <c r="B37">
         <f>COUNTIF(CSL_Sonuclari!C:J,A37)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C37" s="5">
         <f t="shared" si="4"/>
-        <v>3501.8952380952383</v>
+        <v>4352.4041666666672</v>
       </c>
       <c r="D37">
         <f>COUNTIF(CSL_Sonuclari!J:J,A37)</f>
@@ -58665,35 +58807,35 @@
       </c>
       <c r="H37">
         <f>COUNTIF(CSL_Sonuclari!C:H,A37)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I37" s="5">
         <f t="shared" si="7"/>
-        <v>4663.8533333333335</v>
-      </c>
-      <c r="J37" t="str">
+        <v>5604.2055555555562</v>
+      </c>
+      <c r="J37">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H37,"")</f>
-        <v/>
+        <v>9246</v>
       </c>
       <c r="K37">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H37,"")</f>
-        <v>2764.666666666667</v>
+        <v>2890.3333333333335</v>
       </c>
       <c r="L37">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H37,"")</f>
-        <v>4879.6000000000004</v>
+        <v>5101.4000000000005</v>
       </c>
       <c r="M37">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H37,"")</f>
-        <v>2728</v>
+        <v>2852</v>
       </c>
       <c r="N37">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H37,"")</f>
-        <v>4609</v>
+        <v>4818.5</v>
       </c>
       <c r="O37">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H37,"")</f>
-        <v>8338</v>
+        <v>8717</v>
       </c>
       <c r="P37">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F37,"")</f>
@@ -58917,11 +59059,11 @@
       </c>
       <c r="B41">
         <f>COUNTIF(CSL_Sonuclari!C:J,A41)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C41" s="5">
         <f t="shared" si="4"/>
-        <v>4653.6111111111113</v>
+        <v>4910.7</v>
       </c>
       <c r="D41">
         <f>COUNTIF(CSL_Sonuclari!J:J,A41)</f>
@@ -58941,11 +59083,11 @@
       </c>
       <c r="H41">
         <f>COUNTIF(CSL_Sonuclari!C:H,A41)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I41" s="5">
         <f t="shared" si="7"/>
-        <v>6528.916666666667</v>
+        <v>6914.55</v>
       </c>
       <c r="J41" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H41,"")</f>
@@ -58957,19 +59099,19 @@
       </c>
       <c r="L41">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H41,"")</f>
-        <v>4920</v>
+        <v>5084</v>
       </c>
       <c r="M41">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H41,"")</f>
-        <v>7404</v>
+        <v>7650.8</v>
       </c>
       <c r="N41">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H41,"")</f>
-        <v>5586.666666666667</v>
+        <v>6444.9000000000005</v>
       </c>
       <c r="O41">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H41,"")</f>
-        <v>8205</v>
+        <v>8478.5</v>
       </c>
       <c r="P41">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F41,"")</f>
@@ -59193,11 +59335,11 @@
       </c>
       <c r="B45">
         <f>COUNTIF(CSL_Sonuclari!C:J,A45)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C45" s="5">
         <f t="shared" si="4"/>
-        <v>2948.9555555555557</v>
+        <v>4208.8214285714294</v>
       </c>
       <c r="D45">
         <f>COUNTIF(CSL_Sonuclari!J:J,A45)</f>
@@ -59217,35 +59359,35 @@
       </c>
       <c r="H45">
         <f>COUNTIF(CSL_Sonuclari!C:H,A45)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I45" s="5">
         <f t="shared" si="7"/>
-        <v>3855.1833333333334</v>
+        <v>5437.7500000000009</v>
       </c>
       <c r="J45" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H45,"")</f>
         <v/>
       </c>
-      <c r="K45" t="str">
+      <c r="K45">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H45,"")</f>
-        <v/>
+        <v>10050</v>
       </c>
       <c r="L45">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H45,"")</f>
-        <v>3583.4</v>
+        <v>3895.0000000000005</v>
       </c>
       <c r="M45">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H45,"")</f>
-        <v>5106</v>
+        <v>5927.0833333333339</v>
       </c>
       <c r="N45">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H45,"")</f>
-        <v>6271.3333333333339</v>
+        <v>6816.666666666667</v>
       </c>
       <c r="O45">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H45,"")</f>
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="P45">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F45,"")</f>
@@ -59262,11 +59404,11 @@
       </c>
       <c r="B46">
         <f>COUNTIF(CSL_Sonuclari!C:J,A46)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C46" s="5">
         <f t="shared" si="4"/>
-        <v>3220.3611111111113</v>
+        <v>3287.3611111111113</v>
       </c>
       <c r="D46">
         <f>COUNTIF(CSL_Sonuclari!J:J,A46)</f>
@@ -59278,11 +59420,11 @@
       </c>
       <c r="F46" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A46)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G46" s="8">
         <f t="shared" si="6"/>
-        <v>424</v>
+        <v>826</v>
       </c>
       <c r="H46">
         <f>COUNTIF(CSL_Sonuclari!C:H,A46)</f>
@@ -59318,7 +59460,7 @@
       </c>
       <c r="P46">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F46,"")</f>
-        <v>424</v>
+        <v>826</v>
       </c>
       <c r="Q46">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D46,"")</f>
@@ -59538,11 +59680,11 @@
       </c>
       <c r="B50">
         <f>COUNTIF(CSL_Sonuclari!C:J,A50)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C50" s="5">
         <f t="shared" si="4"/>
-        <v>2994.5925925925926</v>
+        <v>3189.4583333333335</v>
       </c>
       <c r="D50">
         <f>COUNTIF(CSL_Sonuclari!J:J,A50)</f>
@@ -59562,11 +59704,11 @@
       </c>
       <c r="H50">
         <f>COUNTIF(CSL_Sonuclari!C:H,A50)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I50" s="5">
         <f t="shared" si="7"/>
-        <v>3831.1388888888887</v>
+        <v>4123.4375</v>
       </c>
       <c r="J50" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H50,"")</f>
@@ -59578,19 +59720,19 @@
       </c>
       <c r="L50">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H50,"")</f>
-        <v>1036</v>
+        <v>1073</v>
       </c>
       <c r="M50">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H50,"")</f>
-        <v>5251.5555555555547</v>
+        <v>6061</v>
       </c>
       <c r="N50">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H50,"")</f>
-        <v>3962</v>
+        <v>4103.5</v>
       </c>
       <c r="O50">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H50,"")</f>
-        <v>5075</v>
+        <v>5256.25</v>
       </c>
       <c r="P50">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F50,"")</f>
@@ -59814,11 +59956,11 @@
       </c>
       <c r="B54">
         <f>COUNTIF(CSL_Sonuclari!C:J,A54)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54" s="5">
         <f t="shared" si="4"/>
-        <v>3298.9070707070709</v>
+        <v>3561.863636363636</v>
       </c>
       <c r="D54">
         <f>COUNTIF(CSL_Sonuclari!J:J,A54)</f>
@@ -59838,11 +59980,11 @@
       </c>
       <c r="H54">
         <f>COUNTIF(CSL_Sonuclari!C:H,A54)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I54" s="5">
         <f t="shared" si="7"/>
-        <v>4580.1106060606062</v>
+        <v>4974.545454545454</v>
       </c>
       <c r="J54" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H54,"")</f>
@@ -59850,19 +59992,19 @@
       </c>
       <c r="K54">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H54,"")</f>
-        <v>2233</v>
+        <v>2310</v>
       </c>
       <c r="L54">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H54,"")</f>
-        <v>6171.2000000000007</v>
+        <v>7330</v>
       </c>
       <c r="M54">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H54,"")</f>
-        <v>3661.9090909090905</v>
+        <v>3788.181818181818</v>
       </c>
       <c r="N54">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H54,"")</f>
-        <v>6254.333333333333</v>
+        <v>6470</v>
       </c>
       <c r="O54" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H54,"")</f>
@@ -60642,19 +60784,19 @@
       </c>
       <c r="B66">
         <f>COUNTIF(CSL_Sonuclari!C:J,A66)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C66" s="5">
         <f t="shared" ref="C66:C91" si="8">AVERAGE(J66:Q66)</f>
-        <v>5984.6230158730159</v>
+        <v>4868.0984126984131</v>
       </c>
       <c r="D66">
         <f>COUNTIF(CSL_Sonuclari!J:J,A66)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" s="5">
         <f t="shared" ref="E66:E91" si="9">IF(Q66&lt;&gt;"",Q66,0)</f>
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="F66" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A66)</f>
@@ -60700,9 +60842,9 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F66,"")</f>
         <v>409</v>
       </c>
-      <c r="Q66" t="str">
+      <c r="Q66">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D66,"")</f>
-        <v/>
+        <v>402</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
@@ -61884,11 +62026,11 @@
       </c>
       <c r="B84">
         <f>COUNTIF(CSL_Sonuclari!C:J,A84)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C84" s="5">
         <f t="shared" si="8"/>
-        <v>4155.8275862068967</v>
+        <v>4319</v>
       </c>
       <c r="D84">
         <f>COUNTIF(CSL_Sonuclari!J:J,A84)</f>
@@ -61908,15 +62050,15 @@
       </c>
       <c r="H84">
         <f>COUNTIF(CSL_Sonuclari!C:H,A84)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I84" s="5">
         <f t="shared" si="11"/>
-        <v>5074.4367816091954</v>
+        <v>5292</v>
       </c>
       <c r="J84">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H84,"")</f>
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="K84" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H84,"")</f>
@@ -61932,11 +62074,11 @@
       </c>
       <c r="N84">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H84,"")</f>
-        <v>7014</v>
+        <v>7214.4000000000005</v>
       </c>
       <c r="O84">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H84,"")</f>
-        <v>7719.310344827587</v>
+        <v>8157.5999999999995</v>
       </c>
       <c r="P84">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F84,"")</f>
@@ -61953,11 +62095,11 @@
       </c>
       <c r="B85">
         <f>COUNTIF(CSL_Sonuclari!C:J,A85)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C85" s="5">
         <f t="shared" si="8"/>
-        <v>4558.4337606837607</v>
+        <v>4839.8461538461534</v>
       </c>
       <c r="D85">
         <f>COUNTIF(CSL_Sonuclari!J:J,A85)</f>
@@ -61977,11 +62119,11 @@
       </c>
       <c r="H85">
         <f>COUNTIF(CSL_Sonuclari!C:H,A85)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I85" s="5">
         <f t="shared" si="11"/>
-        <v>6237.6506410256416</v>
+        <v>6659.7692307692305</v>
       </c>
       <c r="J85" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H85,"")</f>
@@ -61989,7 +62131,7 @@
       </c>
       <c r="K85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H85,"")</f>
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="L85" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H85,"")</f>
@@ -61997,15 +62139,15 @@
       </c>
       <c r="M85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H85,"")</f>
-        <v>10873.333333333334</v>
+        <v>11184</v>
       </c>
       <c r="N85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H85,"")</f>
-        <v>8379</v>
+        <v>9594</v>
       </c>
       <c r="O85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H85,"")</f>
-        <v>5523.2692307692314</v>
+        <v>5681.0769230769238</v>
       </c>
       <c r="P85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F85,"")</f>
@@ -62160,11 +62302,11 @@
       </c>
       <c r="B88">
         <f>COUNTIF(CSL_Sonuclari!C:J,A88)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C88" s="5">
         <f t="shared" si="8"/>
-        <v>2608.9080745341616</v>
+        <v>2733.1238095238095</v>
       </c>
       <c r="D88">
         <f>COUNTIF(CSL_Sonuclari!J:J,A88)</f>
@@ -62184,19 +62326,19 @@
       </c>
       <c r="H88">
         <f>COUNTIF(CSL_Sonuclari!C:H,A88)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I88" s="5">
         <f t="shared" si="11"/>
-        <v>3627.5134575569359</v>
+        <v>3834.5396825396824</v>
       </c>
       <c r="J88">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H88,"")</f>
-        <v>6214.826086956522</v>
+        <v>6685.333333333333</v>
       </c>
       <c r="K88">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H88,"")</f>
-        <v>3954.7142857142858</v>
+        <v>4082.2857142857142</v>
       </c>
       <c r="L88" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H88,"")</f>
@@ -62212,7 +62354,7 @@
       </c>
       <c r="O88">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H88,"")</f>
-        <v>713</v>
+        <v>736</v>
       </c>
       <c r="P88">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F88,"")</f>
@@ -62718,15 +62860,15 @@
       </c>
       <c r="B9">
         <f>COUNTIF(SL_Sonuclari!C:H,A9)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>188.64444444444445</v>
+        <v>191.26798245614034</v>
       </c>
       <c r="D9">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A9,SL_Sonuclari!A:A),"")</f>
-        <v>201.61111111111111</v>
+        <v>212.10526315789474</v>
       </c>
       <c r="E9">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A9,SL_Sonuclari!A:A),"")</f>
@@ -63048,7 +63190,7 @@
       </c>
       <c r="B19">
         <f>COUNTIF(SL_Sonuclari!C:H,A19)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
@@ -63081,11 +63223,11 @@
       </c>
       <c r="B20">
         <f>COUNTIF(SL_Sonuclari!C:H,A20)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
-        <v>195.62702020202022</v>
+        <v>198.20202020202021</v>
       </c>
       <c r="D20">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A20,SL_Sonuclari!A:A),"")</f>
@@ -63097,7 +63239,7 @@
       </c>
       <c r="F20">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A20,SL_Sonuclari!A:A),"")</f>
-        <v>237.2</v>
+        <v>247.5</v>
       </c>
       <c r="G20">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A20,SL_Sonuclari!A:A),"")</f>
@@ -63279,11 +63421,11 @@
       </c>
       <c r="B26">
         <f>COUNTIF(SL_Sonuclari!C:H,A26)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" s="5">
         <f t="shared" si="0"/>
-        <v>157.65565476190477</v>
+        <v>164.50833333333333</v>
       </c>
       <c r="D26" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A26,SL_Sonuclari!A:A),"")</f>
@@ -63295,7 +63437,7 @@
       </c>
       <c r="F26">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A26,SL_Sonuclari!A:A),"")</f>
-        <v>181.71428571428572</v>
+        <v>209.125</v>
       </c>
       <c r="G26">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A26,SL_Sonuclari!A:A),"")</f>
@@ -63312,7 +63454,7 @@
       </c>
       <c r="B27">
         <f>COUNTIF(SL_Sonuclari!C:H,A27)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27" s="5">
         <f t="shared" si="0"/>
@@ -63543,11 +63685,11 @@
       </c>
       <c r="B34">
         <f>COUNTIF(SL_Sonuclari!C:H,A34)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C34" s="5">
         <f t="shared" ref="C34:C61" si="1">AVERAGE(D34:H34)</f>
-        <v>270.90000000000003</v>
+        <v>274.07142857142861</v>
       </c>
       <c r="D34" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A34,SL_Sonuclari!A:A),"")</f>
@@ -63567,7 +63709,7 @@
       </c>
       <c r="H34">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A34,SL_Sonuclari!A:A),"")</f>
-        <v>201.2</v>
+        <v>210.71428571428572</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -63609,11 +63751,11 @@
       </c>
       <c r="B36">
         <f>COUNTIF(SL_Sonuclari!C:H,A36)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36" s="5">
         <f t="shared" si="1"/>
-        <v>184.7777777777778</v>
+        <v>196.63492063492063</v>
       </c>
       <c r="D36" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A36,SL_Sonuclari!A:A),"")</f>
@@ -63629,7 +63771,7 @@
       </c>
       <c r="G36">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A36,SL_Sonuclari!A:A),"")</f>
-        <v>152</v>
+        <v>187.57142857142858</v>
       </c>
       <c r="H36">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A36,SL_Sonuclari!A:A),"")</f>
@@ -63642,15 +63784,15 @@
       </c>
       <c r="B37">
         <f>COUNTIF(SL_Sonuclari!C:H,A37)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C37" s="5">
         <f t="shared" si="1"/>
-        <v>177.82799671592775</v>
+        <v>179.81190476190477</v>
       </c>
       <c r="D37">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A37,SL_Sonuclari!A:A),"")</f>
-        <v>223.44827586206895</v>
+        <v>229.4</v>
       </c>
       <c r="E37">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A37,SL_Sonuclari!A:A),"")</f>
@@ -63774,11 +63916,11 @@
       </c>
       <c r="B41">
         <f>COUNTIF(SL_Sonuclari!C:H,A41)</f>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C41" s="5">
         <f t="shared" si="1"/>
-        <v>189.16260822510824</v>
+        <v>191.21672077922079</v>
       </c>
       <c r="D41" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A41,SL_Sonuclari!A:A),"")</f>
@@ -63794,7 +63936,7 @@
       </c>
       <c r="G41">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A41,SL_Sonuclari!A:A),"")</f>
-        <v>221.23809523809524</v>
+        <v>229.45454545454547</v>
       </c>
       <c r="H41">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A41,SL_Sonuclari!A:A),"")</f>
@@ -63906,11 +64048,11 @@
       </c>
       <c r="B45">
         <f>COUNTIF(SL_Sonuclari!C:H,A45)</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C45" s="5">
         <f t="shared" si="1"/>
-        <v>208.30054179566565</v>
+        <v>226.42554179566565</v>
       </c>
       <c r="D45" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A45,SL_Sonuclari!A:A),"")</f>
@@ -63918,7 +64060,7 @@
       </c>
       <c r="E45">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A45,SL_Sonuclari!A:A),"")</f>
-        <v>256</v>
+        <v>328.5</v>
       </c>
       <c r="F45">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A45,SL_Sonuclari!A:A),"")</f>
@@ -64005,11 +64147,11 @@
       </c>
       <c r="B48">
         <f>COUNTIF(SL_Sonuclari!C:H,A48)</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C48" s="5">
         <f t="shared" si="1"/>
-        <v>224.47619047619048</v>
+        <v>227.00285714285715</v>
       </c>
       <c r="D48">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A48,SL_Sonuclari!A:A),"")</f>
@@ -64017,7 +64159,7 @@
       </c>
       <c r="E48">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A48,SL_Sonuclari!A:A),"")</f>
-        <v>212.5</v>
+        <v>220.08</v>
       </c>
       <c r="F48">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A48,SL_Sonuclari!A:A),"")</f>
@@ -64302,11 +64444,11 @@
       </c>
       <c r="B57">
         <f>COUNTIF(SL_Sonuclari!C:H,A57)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C57" s="5">
         <f t="shared" si="1"/>
-        <v>211.78070175438597</v>
+        <v>216.70833333333331</v>
       </c>
       <c r="D57" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A57,SL_Sonuclari!A:A),"")</f>
@@ -64326,7 +64468,7 @@
       </c>
       <c r="H57">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A57,SL_Sonuclari!A:A),"")</f>
-        <v>204.89473684210526</v>
+        <v>214.75</v>
       </c>
       <c r="I57">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!H:H,A57,SL_Sonuclari!A:A),"")</f>

--- a/SLIStatistik.xlsx
+++ b/SLIStatistik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\ReadExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31790556-FDDF-4741-AA1C-EDF5A7086F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D57F1A-E14D-41CD-8A4D-D884CE817F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
   </bookViews>
   <sheets>
     <sheet name="CSL_Sonuclari" sheetId="2" r:id="rId1"/>
@@ -612,13 +612,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21120D27-1448-4179-993C-6B3BE739480A}">
-  <dimension ref="A1:L405"/>
+  <dimension ref="A1:L406"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B375" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A406" sqref="A406"/>
+      <selection pane="bottomRight" activeCell="A407" sqref="A407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12999,6 +12999,38 @@
         <v>76</v>
       </c>
     </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A406" s="2">
+        <v>404</v>
+      </c>
+      <c r="B406" s="1">
+        <v>44993</v>
+      </c>
+      <c r="C406" s="2">
+        <v>28</v>
+      </c>
+      <c r="D406" s="2">
+        <v>29</v>
+      </c>
+      <c r="E406" s="2">
+        <v>30</v>
+      </c>
+      <c r="F406" s="2">
+        <v>37</v>
+      </c>
+      <c r="G406" s="2">
+        <v>61</v>
+      </c>
+      <c r="H406" s="2">
+        <v>71</v>
+      </c>
+      <c r="I406" s="2">
+        <v>10</v>
+      </c>
+      <c r="J406" s="2">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J311">
     <sortCondition ref="B2:B311"/>
@@ -13010,10 +13042,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8BCBFC-83B0-4863-9D9A-FF955DDDA58C}">
-  <dimension ref="A1:H404"/>
+  <dimension ref="A1:H405"/>
   <sheetViews>
     <sheetView topLeftCell="A373" workbookViewId="0">
-      <selection activeCell="A405" sqref="A405"/>
+      <selection activeCell="A406" sqref="A406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23525,6 +23557,32 @@
         <v>53</v>
       </c>
     </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>403</v>
+      </c>
+      <c r="B405" s="1">
+        <v>44992</v>
+      </c>
+      <c r="C405">
+        <v>1</v>
+      </c>
+      <c r="D405">
+        <v>7</v>
+      </c>
+      <c r="E405">
+        <v>27</v>
+      </c>
+      <c r="F405">
+        <v>31</v>
+      </c>
+      <c r="G405">
+        <v>37</v>
+      </c>
+      <c r="H405">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H311">
     <sortCondition ref="B2:B311"/>
@@ -23535,10 +23593,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4513EEF-0F11-4AC5-A4C7-CB00A18EA83B}">
-  <dimension ref="A1:H1259"/>
+  <dimension ref="A1:H1260"/>
   <sheetViews>
-    <sheetView topLeftCell="A1237" workbookViewId="0">
-      <selection activeCell="M1251" sqref="M1251"/>
+    <sheetView tabSelected="1" topLeftCell="A1237" workbookViewId="0">
+      <selection activeCell="A1261" sqref="A1261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56278,6 +56336,32 @@
       </c>
       <c r="H1259">
         <v>11</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1260">
+        <v>1259</v>
+      </c>
+      <c r="B1260" s="1">
+        <v>44993</v>
+      </c>
+      <c r="C1260">
+        <v>11</v>
+      </c>
+      <c r="D1260">
+        <v>13</v>
+      </c>
+      <c r="E1260">
+        <v>14</v>
+      </c>
+      <c r="F1260">
+        <v>26</v>
+      </c>
+      <c r="G1260">
+        <v>29</v>
+      </c>
+      <c r="H1260">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -56368,11 +56452,11 @@
       </c>
       <c r="B2">
         <f>COUNTIF(CSL_Sonuclari!C:J,A2)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="5">
         <f t="shared" ref="C2:C33" si="0">AVERAGE(J2:Q2)</f>
-        <v>2259.6488095238096</v>
+        <v>2439.968253968254</v>
       </c>
       <c r="D2">
         <f>COUNTIF(CSL_Sonuclari!J:J,A2)</f>
@@ -56392,31 +56476,31 @@
       </c>
       <c r="H2">
         <f>COUNTIF(CSL_Sonuclari!C:H,A2)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" s="5">
         <f t="shared" ref="I2:I33" si="3">AVERAGE(J2:O2)</f>
-        <v>3003.1083333333331</v>
+        <v>3255.5555555555557</v>
       </c>
       <c r="J2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H2,"")</f>
-        <v>2634.6666666666665</v>
+        <v>2773.333333333333</v>
       </c>
       <c r="K2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H2,"")</f>
-        <v>4066</v>
+        <v>4280</v>
       </c>
       <c r="L2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H2,"")</f>
-        <v>3640.875</v>
+        <v>4304.4444444444443</v>
       </c>
       <c r="M2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H2,"")</f>
-        <v>3819</v>
+        <v>4020</v>
       </c>
       <c r="N2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H2,"")</f>
-        <v>855</v>
+        <v>900</v>
       </c>
       <c r="O2" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H2,"")</f>
@@ -56644,11 +56728,11 @@
       </c>
       <c r="B6">
         <f>COUNTIF(CSL_Sonuclari!C:J,A6)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="5">
         <f t="shared" si="0"/>
-        <v>2839.8</v>
+        <v>2920.6</v>
       </c>
       <c r="D6">
         <f>COUNTIF(CSL_Sonuclari!J:J,A6)</f>
@@ -56660,11 +56744,11 @@
       </c>
       <c r="F6" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A6)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G6" s="8">
         <f t="shared" si="2"/>
-        <v>1309</v>
+        <v>1713</v>
       </c>
       <c r="H6">
         <f>COUNTIF(CSL_Sonuclari!C:H,A6)</f>
@@ -56700,7 +56784,7 @@
       </c>
       <c r="P6">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F6,"")</f>
-        <v>1309</v>
+        <v>1713</v>
       </c>
       <c r="Q6" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D6,"")</f>
@@ -58300,11 +58384,11 @@
       </c>
       <c r="B30">
         <f>COUNTIF(CSL_Sonuclari!C:J,A30)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C30" s="5">
         <f t="shared" si="0"/>
-        <v>4242.3555555555549</v>
+        <v>4473.0666666666666</v>
       </c>
       <c r="D30">
         <f>COUNTIF(CSL_Sonuclari!J:J,A30)</f>
@@ -58324,27 +58408,27 @@
       </c>
       <c r="H30">
         <f>COUNTIF(CSL_Sonuclari!C:H,A30)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I30" s="5">
         <f t="shared" si="3"/>
-        <v>5797.7833333333328</v>
+        <v>6143.85</v>
       </c>
       <c r="J30">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H30,"")</f>
-        <v>4030</v>
+        <v>4185</v>
       </c>
       <c r="K30">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H30,"")</f>
-        <v>5763.333333333333</v>
+        <v>6477.3</v>
       </c>
       <c r="L30">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H30,"")</f>
-        <v>6780.8</v>
+        <v>7041.6</v>
       </c>
       <c r="M30">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H30,"")</f>
-        <v>6617</v>
+        <v>6871.5</v>
       </c>
       <c r="N30" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H30,"")</f>
@@ -58714,19 +58798,19 @@
       </c>
       <c r="B36">
         <f>COUNTIF(CSL_Sonuclari!C:J,A36)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C36" s="5">
         <f t="shared" si="4"/>
-        <v>3845.54</v>
+        <v>3926.34</v>
       </c>
       <c r="D36">
         <f>COUNTIF(CSL_Sonuclari!J:J,A36)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" s="5">
         <f t="shared" si="5"/>
-        <v>209</v>
+        <v>613</v>
       </c>
       <c r="F36" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A36)</f>
@@ -58774,7 +58858,7 @@
       </c>
       <c r="Q36">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D36,"")</f>
-        <v>209</v>
+        <v>613</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
@@ -58852,11 +58936,11 @@
       </c>
       <c r="B38">
         <f>COUNTIF(CSL_Sonuclari!C:J,A38)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C38" s="5">
         <f t="shared" si="4"/>
-        <v>4645.4018939393936</v>
+        <v>4942.977272727273</v>
       </c>
       <c r="D38">
         <f>COUNTIF(CSL_Sonuclari!J:J,A38)</f>
@@ -58876,27 +58960,27 @@
       </c>
       <c r="H38">
         <f>COUNTIF(CSL_Sonuclari!C:H,A38)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I38" s="5">
         <f t="shared" si="7"/>
-        <v>6577.1028409090904</v>
+        <v>7023.4659090909099</v>
       </c>
       <c r="J38">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H38,"")</f>
-        <v>6215.4</v>
+        <v>7256.666666666667</v>
       </c>
       <c r="K38">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H38,"")</f>
-        <v>7887.375</v>
+        <v>8179.5</v>
       </c>
       <c r="L38">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H38,"")</f>
-        <v>5635.6363636363631</v>
+        <v>5844.363636363636</v>
       </c>
       <c r="M38">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H38,"")</f>
-        <v>6570</v>
+        <v>6813.3333333333339</v>
       </c>
       <c r="N38" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H38,"")</f>
@@ -59197,11 +59281,11 @@
       </c>
       <c r="B43">
         <f>COUNTIF(CSL_Sonuclari!C:J,A43)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C43" s="5">
         <f t="shared" si="4"/>
-        <v>3587.761904761905</v>
+        <v>3787.5142857142855</v>
       </c>
       <c r="D43">
         <f>COUNTIF(CSL_Sonuclari!J:J,A43)</f>
@@ -59221,31 +59305,31 @@
       </c>
       <c r="H43">
         <f>COUNTIF(CSL_Sonuclari!C:H,A43)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I43" s="5">
         <f t="shared" si="7"/>
-        <v>4681.666666666667</v>
+        <v>4961.32</v>
       </c>
       <c r="J43">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H43,"")</f>
-        <v>6166.6666666666661</v>
+        <v>6413.333333333333</v>
       </c>
       <c r="K43">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H43,"")</f>
-        <v>4600</v>
+        <v>4784</v>
       </c>
       <c r="L43">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H43,"")</f>
-        <v>4458.3333333333339</v>
+        <v>4636.666666666667</v>
       </c>
       <c r="M43">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H43,"")</f>
-        <v>5658.3333333333339</v>
+        <v>6346.5999999999995</v>
       </c>
       <c r="N43">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H43,"")</f>
-        <v>2525</v>
+        <v>2626</v>
       </c>
       <c r="O43" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H43,"")</f>
@@ -61681,11 +61765,11 @@
       </c>
       <c r="B79">
         <f>COUNTIF(CSL_Sonuclari!C:J,A79)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C79" s="5">
         <f t="shared" si="8"/>
-        <v>4669.1888528138525</v>
+        <v>4962.2685528756947</v>
       </c>
       <c r="D79">
         <f>COUNTIF(CSL_Sonuclari!J:J,A79)</f>
@@ -61705,11 +61789,11 @@
       </c>
       <c r="H79">
         <f>COUNTIF(CSL_Sonuclari!C:H,A79)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I79" s="5">
         <f t="shared" si="11"/>
-        <v>6285.4643939393936</v>
+        <v>6695.7759740259735</v>
       </c>
       <c r="J79" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H79,"")</f>
@@ -61717,23 +61801,23 @@
       </c>
       <c r="K79">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H79,"")</f>
-        <v>11252</v>
+        <v>11640</v>
       </c>
       <c r="L79">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H79,"")</f>
-        <v>4948.125</v>
+        <v>5118.75</v>
       </c>
       <c r="M79">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H79,"")</f>
-        <v>5507.363636363636</v>
+        <v>5697.272727272727</v>
       </c>
       <c r="N79">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H79,"")</f>
-        <v>5166.833333333333</v>
+        <v>6312.8571428571422</v>
       </c>
       <c r="O79">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H79,"")</f>
-        <v>4553</v>
+        <v>4710</v>
       </c>
       <c r="P79">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F79,"")</f>
@@ -62371,11 +62455,11 @@
       </c>
       <c r="B89">
         <f>COUNTIF(CSL_Sonuclari!C:J,A89)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C89" s="5">
         <f t="shared" si="8"/>
-        <v>5844.4190476190479</v>
+        <v>6059.0684807256239</v>
       </c>
       <c r="D89">
         <f>COUNTIF(CSL_Sonuclari!J:J,A89)</f>
@@ -62395,11 +62479,11 @@
       </c>
       <c r="H89">
         <f>COUNTIF(CSL_Sonuclari!C:H,A89)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I89" s="5">
         <f t="shared" si="11"/>
-        <v>7796.7866666666669</v>
+        <v>8097.2958730158734</v>
       </c>
       <c r="J89" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H89,"")</f>
@@ -62407,23 +62491,23 @@
       </c>
       <c r="K89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H89,"")</f>
-        <v>2289</v>
+        <v>2343.5</v>
       </c>
       <c r="L89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H89,"")</f>
-        <v>8736</v>
+        <v>8944</v>
       </c>
       <c r="M89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H89,"")</f>
-        <v>10789.333333333334</v>
+        <v>11046.222222222223</v>
       </c>
       <c r="N89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H89,"")</f>
-        <v>8055.6</v>
+        <v>8247.4</v>
       </c>
       <c r="O89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H89,"")</f>
-        <v>9114</v>
+        <v>9905.3571428571431</v>
       </c>
       <c r="P89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F89,"")</f>
@@ -62662,15 +62746,15 @@
       </c>
       <c r="B3">
         <f>COUNTIF(SL_Sonuclari!C:H,A3)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" s="5">
         <f t="shared" si="0"/>
-        <v>94.25</v>
+        <v>97.606060606060609</v>
       </c>
       <c r="D3">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A3,SL_Sonuclari!A:A),"")</f>
-        <v>181.5</v>
+        <v>188.21212121212122</v>
       </c>
       <c r="E3" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A3,SL_Sonuclari!A:A),"")</f>
@@ -62893,11 +62977,11 @@
       </c>
       <c r="B10">
         <f>COUNTIF(SL_Sonuclari!C:H,A10)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" si="0"/>
-        <v>189.86153846153846</v>
+        <v>193.19532967032967</v>
       </c>
       <c r="D10" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A10,SL_Sonuclari!A:A),"")</f>
@@ -62909,7 +62993,7 @@
       </c>
       <c r="F10">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A10,SL_Sonuclari!A:A),"")</f>
-        <v>216.30769230769232</v>
+        <v>229.64285714285714</v>
       </c>
       <c r="G10">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A10,SL_Sonuclari!A:A),"")</f>
@@ -63784,11 +63868,11 @@
       </c>
       <c r="B37">
         <f>COUNTIF(SL_Sonuclari!C:H,A37)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C37" s="5">
         <f t="shared" si="1"/>
-        <v>179.81190476190477</v>
+        <v>184.73888888888891</v>
       </c>
       <c r="D37">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A37,SL_Sonuclari!A:A),"")</f>
@@ -63796,7 +63880,7 @@
       </c>
       <c r="E37">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A37,SL_Sonuclari!A:A),"")</f>
-        <v>181.28571428571428</v>
+        <v>196.06666666666666</v>
       </c>
       <c r="F37">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A37,SL_Sonuclari!A:A),"")</f>
@@ -63916,11 +64000,11 @@
       </c>
       <c r="B41">
         <f>COUNTIF(SL_Sonuclari!C:H,A41)</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C41" s="5">
         <f t="shared" si="1"/>
-        <v>191.21672077922079</v>
+        <v>196.75649350649351</v>
       </c>
       <c r="D41" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A41,SL_Sonuclari!A:A),"")</f>
@@ -63940,7 +64024,7 @@
       </c>
       <c r="H41">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A41,SL_Sonuclari!A:A),"")</f>
-        <v>137.09090909090909</v>
+        <v>159.25</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -64048,7 +64132,7 @@
       </c>
       <c r="B45">
         <f>COUNTIF(SL_Sonuclari!C:H,A45)</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C45" s="5">
         <f t="shared" si="1"/>
@@ -64378,11 +64462,11 @@
       </c>
       <c r="B55">
         <f>COUNTIF(SL_Sonuclari!C:H,A55)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C55" s="5">
         <f t="shared" si="1"/>
-        <v>213.74666666666667</v>
+        <v>215.54761904761909</v>
       </c>
       <c r="D55">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A55,SL_Sonuclari!A:A),"")</f>
@@ -64398,7 +64482,7 @@
       </c>
       <c r="G55">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A55,SL_Sonuclari!A:A),"")</f>
-        <v>213.9</v>
+        <v>222.9047619047619</v>
       </c>
       <c r="H55">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A55,SL_Sonuclari!A:A),"")</f>

--- a/SLIStatistik.xlsx
+++ b/SLIStatistik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\ReadExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D57F1A-E14D-41CD-8A4D-D884CE817F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C0A8E4-C291-4652-82ED-B8A0031E1C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
   </bookViews>
@@ -612,13 +612,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21120D27-1448-4179-993C-6B3BE739480A}">
-  <dimension ref="A1:L406"/>
+  <dimension ref="A1:L407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B375" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A407" sqref="A407"/>
+      <selection pane="bottomRight" activeCell="B408" sqref="B408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13031,6 +13031,38 @@
         <v>9</v>
       </c>
     </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A407" s="2">
+        <v>405</v>
+      </c>
+      <c r="B407" s="1">
+        <v>44996</v>
+      </c>
+      <c r="C407" s="2">
+        <v>23</v>
+      </c>
+      <c r="D407" s="2">
+        <v>38</v>
+      </c>
+      <c r="E407" s="2">
+        <v>45</v>
+      </c>
+      <c r="F407" s="2">
+        <v>66</v>
+      </c>
+      <c r="G407" s="2">
+        <v>77</v>
+      </c>
+      <c r="H407" s="2">
+        <v>83</v>
+      </c>
+      <c r="I407" s="2">
+        <v>75</v>
+      </c>
+      <c r="J407" s="2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J311">
     <sortCondition ref="B2:B311"/>
@@ -13042,10 +13074,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8BCBFC-83B0-4863-9D9A-FF955DDDA58C}">
-  <dimension ref="A1:H405"/>
+  <dimension ref="A1:H407"/>
   <sheetViews>
     <sheetView topLeftCell="A373" workbookViewId="0">
-      <selection activeCell="A406" sqref="A406"/>
+      <selection activeCell="C408" sqref="C408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23583,6 +23615,58 @@
         <v>38</v>
       </c>
     </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>404</v>
+      </c>
+      <c r="B406" s="1">
+        <v>44994</v>
+      </c>
+      <c r="C406">
+        <v>6</v>
+      </c>
+      <c r="D406">
+        <v>16</v>
+      </c>
+      <c r="E406">
+        <v>41</v>
+      </c>
+      <c r="F406">
+        <v>44</v>
+      </c>
+      <c r="G406">
+        <v>57</v>
+      </c>
+      <c r="H406">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>405</v>
+      </c>
+      <c r="B407" s="1">
+        <v>44997</v>
+      </c>
+      <c r="C407">
+        <v>2</v>
+      </c>
+      <c r="D407">
+        <v>31</v>
+      </c>
+      <c r="E407">
+        <v>34</v>
+      </c>
+      <c r="F407">
+        <v>35</v>
+      </c>
+      <c r="G407">
+        <v>45</v>
+      </c>
+      <c r="H407">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H311">
     <sortCondition ref="B2:B311"/>
@@ -23593,10 +23677,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4513EEF-0F11-4AC5-A4C7-CB00A18EA83B}">
-  <dimension ref="A1:H1260"/>
+  <dimension ref="A1:H1261"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1237" workbookViewId="0">
-      <selection activeCell="A1261" sqref="A1261"/>
+      <selection activeCell="A1262" sqref="A1262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56362,6 +56446,32 @@
       </c>
       <c r="H1260">
         <v>2</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1261">
+        <v>1260</v>
+      </c>
+      <c r="B1261" s="1">
+        <v>44997</v>
+      </c>
+      <c r="C1261">
+        <v>9</v>
+      </c>
+      <c r="D1261">
+        <v>15</v>
+      </c>
+      <c r="E1261">
+        <v>19</v>
+      </c>
+      <c r="F1261">
+        <v>23</v>
+      </c>
+      <c r="G1261">
+        <v>33</v>
+      </c>
+      <c r="H1261">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -56590,19 +56700,19 @@
       </c>
       <c r="B4">
         <f>COUNTIF(CSL_Sonuclari!C:J,A4)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5">
         <f t="shared" si="0"/>
-        <v>2165</v>
+        <v>2300</v>
       </c>
       <c r="D4">
         <f>COUNTIF(CSL_Sonuclari!J:J,A4)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" si="1"/>
-        <v>1177</v>
+        <v>1582</v>
       </c>
       <c r="F4" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A4)</f>
@@ -56650,7 +56760,7 @@
       </c>
       <c r="Q4">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D4,"")</f>
-        <v>1177</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -57280,11 +57390,11 @@
       </c>
       <c r="B14">
         <f>COUNTIF(CSL_Sonuclari!C:J,A14)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="0"/>
-        <v>4044.9999999999995</v>
+        <v>4299.5423623995057</v>
       </c>
       <c r="D14">
         <f>COUNTIF(CSL_Sonuclari!J:J,A14)</f>
@@ -57304,31 +57414,31 @@
       </c>
       <c r="H14">
         <f>COUNTIF(CSL_Sonuclari!C:H,A14)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" si="3"/>
-        <v>5435.1999999999989</v>
+        <v>5791.5593073593072</v>
       </c>
       <c r="J14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H14,"")</f>
-        <v>8008</v>
+        <v>8372</v>
       </c>
       <c r="K14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H14,"")</f>
-        <v>5250.6666666666661</v>
+        <v>6035.8571428571431</v>
       </c>
       <c r="L14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H14,"")</f>
-        <v>4010</v>
+        <v>4192.272727272727</v>
       </c>
       <c r="M14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H14,"")</f>
-        <v>3681.3333333333335</v>
+        <v>3848.666666666667</v>
       </c>
       <c r="N14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H14,"")</f>
-        <v>6226</v>
+        <v>6509</v>
       </c>
       <c r="O14" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H14,"")</f>
@@ -57556,11 +57666,11 @@
       </c>
       <c r="B18">
         <f>COUNTIF(CSL_Sonuclari!C:J,A18)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="0"/>
-        <v>3007.3485714285716</v>
+        <v>3088.3485714285716</v>
       </c>
       <c r="D18">
         <f>COUNTIF(CSL_Sonuclari!J:J,A18)</f>
@@ -57572,11 +57682,11 @@
       </c>
       <c r="F18" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A18)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="8">
         <f t="shared" si="2"/>
-        <v>394</v>
+        <v>799</v>
       </c>
       <c r="H18">
         <f>COUNTIF(CSL_Sonuclari!C:H,A18)</f>
@@ -57612,7 +57722,7 @@
       </c>
       <c r="P18">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F18,"")</f>
-        <v>394</v>
+        <v>799</v>
       </c>
       <c r="Q18">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D18,"")</f>
@@ -57832,11 +57942,11 @@
       </c>
       <c r="B22">
         <f>COUNTIF(CSL_Sonuclari!C:J,A22)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
-        <v>4240.5740740740739</v>
+        <v>4475.7694444444451</v>
       </c>
       <c r="D22">
         <f>COUNTIF(CSL_Sonuclari!J:J,A22)</f>
@@ -57856,11 +57966,11 @@
       </c>
       <c r="H22">
         <f>COUNTIF(CSL_Sonuclari!C:H,A22)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I22" s="5">
         <f t="shared" si="3"/>
-        <v>6185.8611111111113</v>
+        <v>6538.6541666666672</v>
       </c>
       <c r="J22" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H22,"")</f>
@@ -57872,19 +57982,19 @@
       </c>
       <c r="L22">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H22,"")</f>
-        <v>6337.3333333333339</v>
+        <v>6563.666666666667</v>
       </c>
       <c r="M22">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H22,"")</f>
-        <v>6247.1111111111113</v>
+        <v>6997.7000000000007</v>
       </c>
       <c r="N22">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H22,"")</f>
-        <v>6160</v>
+        <v>6380</v>
       </c>
       <c r="O22">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H22,"")</f>
-        <v>5999</v>
+        <v>6213.25</v>
       </c>
       <c r="P22">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F22,"")</f>
@@ -59350,11 +59460,11 @@
       </c>
       <c r="B44">
         <f>COUNTIF(CSL_Sonuclari!C:J,A44)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C44" s="5">
         <f t="shared" si="4"/>
-        <v>4696.8</v>
+        <v>4923.8098901098901</v>
       </c>
       <c r="D44">
         <f>COUNTIF(CSL_Sonuclari!J:J,A44)</f>
@@ -59374,11 +59484,11 @@
       </c>
       <c r="H44">
         <f>COUNTIF(CSL_Sonuclari!C:H,A44)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I44" s="5">
         <f t="shared" si="7"/>
-        <v>7215.666666666667</v>
+        <v>7594.0164835164833</v>
       </c>
       <c r="J44" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H44,"")</f>
@@ -59394,15 +59504,15 @@
       </c>
       <c r="M44">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H44,"")</f>
-        <v>9828</v>
+        <v>10179</v>
       </c>
       <c r="N44">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H44,"")</f>
-        <v>6797</v>
+        <v>7401.6923076923076</v>
       </c>
       <c r="O44">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H44,"")</f>
-        <v>5022</v>
+        <v>5201.3571428571431</v>
       </c>
       <c r="P44">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F44,"")</f>
@@ -60247,11 +60357,11 @@
       </c>
       <c r="B57">
         <f>COUNTIF(CSL_Sonuclari!C:J,A57)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57" s="5">
         <f t="shared" si="4"/>
-        <v>4726.885396825397</v>
+        <v>5084.6285714285714</v>
       </c>
       <c r="D57">
         <f>COUNTIF(CSL_Sonuclari!J:J,A57)</f>
@@ -60271,11 +60381,11 @@
       </c>
       <c r="H57">
         <f>COUNTIF(CSL_Sonuclari!C:H,A57)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I57" s="5">
         <f t="shared" si="7"/>
-        <v>5706.1067460317463</v>
+        <v>6153.2857142857147</v>
       </c>
       <c r="J57" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H57,"")</f>
@@ -60283,19 +60393,19 @@
       </c>
       <c r="K57">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H57,"")</f>
-        <v>7255.7999999999993</v>
+        <v>7506</v>
       </c>
       <c r="L57">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H57,"")</f>
-        <v>3030.5</v>
+        <v>4136.666666666667</v>
       </c>
       <c r="M57">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H57,"")</f>
-        <v>6576.5555555555557</v>
+        <v>6803.333333333333</v>
       </c>
       <c r="N57">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H57,"")</f>
-        <v>5961.5714285714294</v>
+        <v>6167.1428571428578</v>
       </c>
       <c r="O57" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H57,"")</f>
@@ -61282,11 +61392,11 @@
       </c>
       <c r="B72">
         <f>COUNTIF(CSL_Sonuclari!C:J,A72)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C72" s="5">
         <f t="shared" si="8"/>
-        <v>3414.5915750915747</v>
+        <v>3613.2637362637361</v>
       </c>
       <c r="D72">
         <f>COUNTIF(CSL_Sonuclari!J:J,A72)</f>
@@ -61306,15 +61416,15 @@
       </c>
       <c r="H72">
         <f>COUNTIF(CSL_Sonuclari!C:H,A72)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I72" s="5">
         <f t="shared" si="11"/>
-        <v>4581.6282051282051</v>
+        <v>4859.7692307692305</v>
       </c>
       <c r="J72">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H72,"")</f>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K72" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H72,"")</f>
@@ -61322,19 +61432,19 @@
       </c>
       <c r="L72">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H72,"")</f>
-        <v>8729</v>
+        <v>9030</v>
       </c>
       <c r="M72">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H72,"")</f>
-        <v>3813.5</v>
+        <v>3945</v>
       </c>
       <c r="N72">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H72,"")</f>
-        <v>6112.3076923076924</v>
+        <v>6323.0769230769229</v>
       </c>
       <c r="O72">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H72,"")</f>
-        <v>4195.333333333333</v>
+        <v>4940.7692307692305</v>
       </c>
       <c r="P72">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F72,"")</f>
@@ -62593,11 +62703,11 @@
       </c>
       <c r="B91">
         <f>COUNTIF(CSL_Sonuclari!C:J,A91)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C91" s="5">
         <f t="shared" si="8"/>
-        <v>5817.5903263403261</v>
+        <v>6079.6247086247085</v>
       </c>
       <c r="D91">
         <f>COUNTIF(CSL_Sonuclari!J:J,A91)</f>
@@ -62617,27 +62727,27 @@
       </c>
       <c r="H91">
         <f>COUNTIF(CSL_Sonuclari!C:H,A91)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I91" s="5">
         <f t="shared" si="11"/>
-        <v>8231.8854895104887</v>
+        <v>8624.9370629370624</v>
       </c>
       <c r="J91">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H91,"")</f>
-        <v>7013.181818181818</v>
+        <v>7885</v>
       </c>
       <c r="K91">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H91,"")</f>
-        <v>7163.7692307692305</v>
+        <v>7357.3846153846152</v>
       </c>
       <c r="L91">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H91,"")</f>
-        <v>9889.0909090909081</v>
+        <v>10156.363636363636</v>
       </c>
       <c r="M91">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H91,"")</f>
-        <v>8861.5</v>
+        <v>9101</v>
       </c>
       <c r="N91" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H91,"")</f>
@@ -62779,7 +62889,7 @@
       </c>
       <c r="B4">
         <f>COUNTIF(SL_Sonuclari!C:H,A4)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" s="5">
         <f t="shared" si="0"/>
@@ -62812,15 +62922,15 @@
       </c>
       <c r="B5">
         <f>COUNTIF(SL_Sonuclari!C:H,A5)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" s="5">
         <f t="shared" si="0"/>
-        <v>115.43333333333334</v>
+        <v>118.35483870967742</v>
       </c>
       <c r="D5">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A5,SL_Sonuclari!A:A),"")</f>
-        <v>223.86666666666667</v>
+        <v>229.70967741935485</v>
       </c>
       <c r="E5" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A5,SL_Sonuclari!A:A),"")</f>
@@ -63043,15 +63153,15 @@
       </c>
       <c r="B12">
         <f>COUNTIF(SL_Sonuclari!C:H,A12)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="0"/>
-        <v>154.23409090909092</v>
+        <v>156.36847826086955</v>
       </c>
       <c r="D12">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A12,SL_Sonuclari!A:A),"")</f>
-        <v>207.63636363636363</v>
+        <v>216.17391304347825</v>
       </c>
       <c r="E12">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A12,SL_Sonuclari!A:A),"")</f>
@@ -63373,11 +63483,11 @@
       </c>
       <c r="B22">
         <f>COUNTIF(SL_Sonuclari!C:H,A22)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
-        <v>206.9375</v>
+        <v>219.72222222222223</v>
       </c>
       <c r="D22" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A22,SL_Sonuclari!A:A),"")</f>
@@ -63397,7 +63507,7 @@
       </c>
       <c r="H22">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A22,SL_Sonuclari!A:A),"")</f>
-        <v>173.875</v>
+        <v>199.44444444444446</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -63472,11 +63582,11 @@
       </c>
       <c r="B25">
         <f>COUNTIF(SL_Sonuclari!C:H,A25)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C25" s="5">
         <f t="shared" si="0"/>
-        <v>171.13541666666666</v>
+        <v>180.41666666666666</v>
       </c>
       <c r="D25" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A25,SL_Sonuclari!A:A),"")</f>
@@ -63488,7 +63598,7 @@
       </c>
       <c r="F25">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A25,SL_Sonuclari!A:A),"")</f>
-        <v>107</v>
+        <v>144.125</v>
       </c>
       <c r="G25">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A25,SL_Sonuclari!A:A),"")</f>
@@ -63703,11 +63813,11 @@
       </c>
       <c r="B32">
         <f>COUNTIF(SL_Sonuclari!C:H,A32)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C32" s="5">
         <f t="shared" si="0"/>
-        <v>215.55978260869566</v>
+        <v>218.91666666666669</v>
       </c>
       <c r="D32" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A32,SL_Sonuclari!A:A),"")</f>
@@ -63727,7 +63837,7 @@
       </c>
       <c r="H32">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A32,SL_Sonuclari!A:A),"")</f>
-        <v>243.86956521739131</v>
+        <v>250.58333333333334</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -63967,11 +64077,11 @@
       </c>
       <c r="B40">
         <f>COUNTIF(SL_Sonuclari!C:H,A40)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C40" s="5">
         <f t="shared" si="1"/>
-        <v>212.2610294117647</v>
+        <v>215.1875</v>
       </c>
       <c r="D40" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A40,SL_Sonuclari!A:A),"")</f>
@@ -63987,7 +64097,7 @@
       </c>
       <c r="G40">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A40,SL_Sonuclari!A:A),"")</f>
-        <v>194.29411764705881</v>
+        <v>206</v>
       </c>
       <c r="H40">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A40,SL_Sonuclari!A:A),"")</f>
@@ -64363,11 +64473,11 @@
       </c>
       <c r="B52">
         <f>COUNTIF(SL_Sonuclari!C:H,A52)</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C52" s="5">
         <f t="shared" si="1"/>
-        <v>213.35763888888889</v>
+        <v>215.48848684210526</v>
       </c>
       <c r="D52" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A52,SL_Sonuclari!A:A),"")</f>
@@ -64383,7 +64493,7 @@
       </c>
       <c r="G52">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A52,SL_Sonuclari!A:A),"")</f>
-        <v>242.05555555555554</v>
+        <v>250.57894736842104</v>
       </c>
       <c r="H52">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A52,SL_Sonuclari!A:A),"")</f>
@@ -64429,11 +64539,11 @@
       </c>
       <c r="B54">
         <f>COUNTIF(SL_Sonuclari!C:H,A54)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C54" s="5">
         <f t="shared" si="1"/>
-        <v>218.66666666666666</v>
+        <v>226</v>
       </c>
       <c r="D54">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A54,SL_Sonuclari!A:A),"")</f>
@@ -64445,7 +64555,7 @@
       </c>
       <c r="F54">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A54,SL_Sonuclari!A:A),"")</f>
-        <v>185</v>
+        <v>221.66666666666666</v>
       </c>
       <c r="G54">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A54,SL_Sonuclari!A:A),"")</f>
@@ -64462,11 +64572,11 @@
       </c>
       <c r="B55">
         <f>COUNTIF(SL_Sonuclari!C:H,A55)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C55" s="5">
         <f t="shared" si="1"/>
-        <v>215.54761904761909</v>
+        <v>225.5809523809524</v>
       </c>
       <c r="D55">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A55,SL_Sonuclari!A:A),"")</f>
@@ -64474,7 +64584,7 @@
       </c>
       <c r="E55">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A55,SL_Sonuclari!A:A),"")</f>
-        <v>204.33333333333334</v>
+        <v>254.5</v>
       </c>
       <c r="F55">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A55,SL_Sonuclari!A:A),"")</f>
@@ -64495,11 +64605,11 @@
       </c>
       <c r="B56">
         <f>COUNTIF(SL_Sonuclari!C:H,A56)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C56" s="5">
         <f t="shared" si="1"/>
-        <v>232.59450483091786</v>
+        <v>235.04513888888889</v>
       </c>
       <c r="D56">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A56,SL_Sonuclari!A:A),"")</f>
@@ -64507,7 +64617,7 @@
       </c>
       <c r="E56">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A56,SL_Sonuclari!A:A),"")</f>
-        <v>168.7391304347826</v>
+        <v>178.54166666666666</v>
       </c>
       <c r="F56">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A56,SL_Sonuclari!A:A),"")</f>
@@ -64664,7 +64774,7 @@
       </c>
       <c r="B61">
         <f>COUNTIF(SL_Sonuclari!C:H,A61)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C61" s="5" t="e">
         <f t="shared" si="1"/>

--- a/SLIStatistik.xlsx
+++ b/SLIStatistik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\ReadExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C0A8E4-C291-4652-82ED-B8A0031E1C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCADB0C-7C58-445C-B9C6-48141643663B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
   </bookViews>
@@ -612,13 +612,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21120D27-1448-4179-993C-6B3BE739480A}">
-  <dimension ref="A1:L407"/>
+  <dimension ref="A1:L409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B375" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B408" sqref="B408"/>
+      <selection pane="bottomRight" activeCell="J409" sqref="J409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13063,6 +13063,70 @@
         <v>2</v>
       </c>
     </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A408" s="2">
+        <v>406</v>
+      </c>
+      <c r="B408" s="1">
+        <v>44998</v>
+      </c>
+      <c r="C408" s="2">
+        <v>5</v>
+      </c>
+      <c r="D408" s="2">
+        <v>30</v>
+      </c>
+      <c r="E408" s="2">
+        <v>78</v>
+      </c>
+      <c r="F408" s="2">
+        <v>81</v>
+      </c>
+      <c r="G408" s="2">
+        <v>83</v>
+      </c>
+      <c r="H408" s="2">
+        <v>90</v>
+      </c>
+      <c r="I408" s="2">
+        <v>62</v>
+      </c>
+      <c r="J408" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A409" s="2">
+        <v>407</v>
+      </c>
+      <c r="B409" s="1">
+        <v>45000</v>
+      </c>
+      <c r="C409" s="2">
+        <v>11</v>
+      </c>
+      <c r="D409" s="2">
+        <v>28</v>
+      </c>
+      <c r="E409" s="2">
+        <v>29</v>
+      </c>
+      <c r="F409" s="2">
+        <v>58</v>
+      </c>
+      <c r="G409" s="2">
+        <v>68</v>
+      </c>
+      <c r="H409" s="2">
+        <v>78</v>
+      </c>
+      <c r="I409" s="2">
+        <v>24</v>
+      </c>
+      <c r="J409" s="2">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J311">
     <sortCondition ref="B2:B311"/>
@@ -13074,10 +13138,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8BCBFC-83B0-4863-9D9A-FF955DDDA58C}">
-  <dimension ref="A1:H407"/>
+  <dimension ref="A1:H408"/>
   <sheetViews>
-    <sheetView topLeftCell="A373" workbookViewId="0">
-      <selection activeCell="C408" sqref="C408"/>
+    <sheetView topLeftCell="A376" workbookViewId="0">
+      <selection activeCell="A409" sqref="A409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23667,6 +23731,32 @@
         <v>50</v>
       </c>
     </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>406</v>
+      </c>
+      <c r="B408" s="1">
+        <v>44999</v>
+      </c>
+      <c r="C408">
+        <v>12</v>
+      </c>
+      <c r="D408">
+        <v>19</v>
+      </c>
+      <c r="E408">
+        <v>35</v>
+      </c>
+      <c r="F408">
+        <v>36</v>
+      </c>
+      <c r="G408">
+        <v>55</v>
+      </c>
+      <c r="H408">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H311">
     <sortCondition ref="B2:B311"/>
@@ -23677,10 +23767,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4513EEF-0F11-4AC5-A4C7-CB00A18EA83B}">
-  <dimension ref="A1:H1261"/>
+  <dimension ref="A1:H1262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1237" workbookViewId="0">
-      <selection activeCell="A1262" sqref="A1262"/>
+      <selection activeCell="A1263" sqref="A1263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56471,6 +56561,32 @@
         <v>33</v>
       </c>
       <c r="H1261">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1262">
+        <v>1261</v>
+      </c>
+      <c r="B1262" s="1">
+        <v>45000</v>
+      </c>
+      <c r="C1262">
+        <v>9</v>
+      </c>
+      <c r="D1262">
+        <v>18</v>
+      </c>
+      <c r="E1262">
+        <v>21</v>
+      </c>
+      <c r="F1262">
+        <v>26</v>
+      </c>
+      <c r="G1262">
+        <v>29</v>
+      </c>
+      <c r="H1262">
         <v>8</v>
       </c>
     </row>
@@ -56562,11 +56678,11 @@
       </c>
       <c r="B2">
         <f>COUNTIF(CSL_Sonuclari!C:J,A2)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="5">
         <f t="shared" ref="C2:C33" si="0">AVERAGE(J2:Q2)</f>
-        <v>2439.968253968254</v>
+        <v>2700.2380952380954</v>
       </c>
       <c r="D2">
         <f>COUNTIF(CSL_Sonuclari!J:J,A2)</f>
@@ -56586,31 +56702,31 @@
       </c>
       <c r="H2">
         <f>COUNTIF(CSL_Sonuclari!C:H,A2)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" s="5">
         <f t="shared" ref="I2:I33" si="3">AVERAGE(J2:O2)</f>
-        <v>3255.5555555555557</v>
+        <v>3619.9333333333334</v>
       </c>
       <c r="J2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H2,"")</f>
-        <v>2773.333333333333</v>
+        <v>2912</v>
       </c>
       <c r="K2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H2,"")</f>
-        <v>4280</v>
+        <v>5502</v>
       </c>
       <c r="L2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H2,"")</f>
-        <v>4304.4444444444443</v>
+        <v>4519.666666666667</v>
       </c>
       <c r="M2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H2,"")</f>
-        <v>4020</v>
+        <v>4221</v>
       </c>
       <c r="N2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H2,"")</f>
-        <v>900</v>
+        <v>945</v>
       </c>
       <c r="O2" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H2,"")</f>
@@ -58011,11 +58127,11 @@
       </c>
       <c r="B23">
         <f>COUNTIF(CSL_Sonuclari!C:J,A23)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
-        <v>4429.1190476190477</v>
+        <v>4746.9780952380952</v>
       </c>
       <c r="D23">
         <f>COUNTIF(CSL_Sonuclari!J:J,A23)</f>
@@ -58035,11 +58151,11 @@
       </c>
       <c r="H23">
         <f>COUNTIF(CSL_Sonuclari!C:H,A23)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I23" s="5">
         <f t="shared" si="3"/>
-        <v>5226.3988095238092</v>
+        <v>5623.7226190476194</v>
       </c>
       <c r="J23" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H23,"")</f>
@@ -58051,19 +58167,19 @@
       </c>
       <c r="L23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H23,"")</f>
-        <v>5314.2857142857147</v>
+        <v>5526.8571428571431</v>
       </c>
       <c r="M23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H23,"")</f>
-        <v>4382.1428571428569</v>
+        <v>5310.5</v>
       </c>
       <c r="N23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H23,"")</f>
-        <v>4554.1666666666661</v>
+        <v>4736.333333333333</v>
       </c>
       <c r="O23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H23,"")</f>
-        <v>6655</v>
+        <v>6921.2</v>
       </c>
       <c r="P23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F23,"")</f>
@@ -58080,11 +58196,11 @@
       </c>
       <c r="B24">
         <f>COUNTIF(CSL_Sonuclari!C:J,A24)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" s="5">
         <f t="shared" si="0"/>
-        <v>4646.0204081632646</v>
+        <v>4978.7295918367354</v>
       </c>
       <c r="D24">
         <f>COUNTIF(CSL_Sonuclari!J:J,A24)</f>
@@ -58104,11 +58220,11 @@
       </c>
       <c r="H24">
         <f>COUNTIF(CSL_Sonuclari!C:H,A24)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I24" s="5">
         <f t="shared" si="3"/>
-        <v>6169.028571428571</v>
+        <v>6634.8214285714294</v>
       </c>
       <c r="J24" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H24,"")</f>
@@ -58116,23 +58232,23 @@
       </c>
       <c r="K24">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H24,"")</f>
-        <v>7224</v>
+        <v>7525</v>
       </c>
       <c r="L24">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H24,"")</f>
-        <v>7200</v>
+        <v>7500</v>
       </c>
       <c r="M24">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H24,"")</f>
-        <v>5736</v>
+        <v>7018.75</v>
       </c>
       <c r="N24">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H24,"")</f>
-        <v>5376</v>
+        <v>5600</v>
       </c>
       <c r="O24">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H24,"")</f>
-        <v>5309.1428571428569</v>
+        <v>5530.3571428571431</v>
       </c>
       <c r="P24">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F24,"")</f>
@@ -58218,11 +58334,11 @@
       </c>
       <c r="B26">
         <f>COUNTIF(CSL_Sonuclari!C:J,A26)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C26" s="5">
         <f t="shared" si="0"/>
-        <v>3969.0357142857142</v>
+        <v>4158.9821428571431</v>
       </c>
       <c r="D26">
         <f>COUNTIF(CSL_Sonuclari!J:J,A26)</f>
@@ -58242,11 +58358,11 @@
       </c>
       <c r="H26">
         <f>COUNTIF(CSL_Sonuclari!C:H,A26)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I26" s="5">
         <f t="shared" si="3"/>
-        <v>5588.3035714285716</v>
+        <v>5873.2232142857147</v>
       </c>
       <c r="J26" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H26,"")</f>
@@ -58258,19 +58374,19 @@
       </c>
       <c r="L26">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H26,"")</f>
-        <v>3276</v>
+        <v>3402</v>
       </c>
       <c r="M26">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H26,"")</f>
-        <v>4865.7142857142853</v>
+        <v>5052.8571428571431</v>
       </c>
       <c r="N26">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H26,"")</f>
-        <v>6808.0000000000009</v>
+        <v>7349.7857142857147</v>
       </c>
       <c r="O26">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H26,"")</f>
-        <v>7403.5</v>
+        <v>7688.25</v>
       </c>
       <c r="P26">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F26,"")</f>
@@ -58494,11 +58610,11 @@
       </c>
       <c r="B30">
         <f>COUNTIF(CSL_Sonuclari!C:J,A30)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C30" s="5">
         <f t="shared" si="0"/>
-        <v>4473.0666666666666</v>
+        <v>4738.4777777777781</v>
       </c>
       <c r="D30">
         <f>COUNTIF(CSL_Sonuclari!J:J,A30)</f>
@@ -58518,27 +58634,27 @@
       </c>
       <c r="H30">
         <f>COUNTIF(CSL_Sonuclari!C:H,A30)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I30" s="5">
         <f t="shared" si="3"/>
-        <v>6143.85</v>
+        <v>6541.9666666666672</v>
       </c>
       <c r="J30">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H30,"")</f>
-        <v>4185</v>
+        <v>4340</v>
       </c>
       <c r="K30">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H30,"")</f>
-        <v>6477.3</v>
+        <v>6717.2</v>
       </c>
       <c r="L30">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H30,"")</f>
-        <v>7041.6</v>
+        <v>7984.666666666667</v>
       </c>
       <c r="M30">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H30,"")</f>
-        <v>6871.5</v>
+        <v>7126</v>
       </c>
       <c r="N30" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H30,"")</f>
@@ -58563,11 +58679,11 @@
       </c>
       <c r="B31">
         <f>COUNTIF(CSL_Sonuclari!C:J,A31)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C31" s="5">
         <f t="shared" si="0"/>
-        <v>3356.9134615384614</v>
+        <v>4814.4835164835167</v>
       </c>
       <c r="D31">
         <f>COUNTIF(CSL_Sonuclari!J:J,A31)</f>
@@ -58587,35 +58703,35 @@
       </c>
       <c r="H31">
         <f>COUNTIF(CSL_Sonuclari!C:H,A31)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I31" s="5">
         <f t="shared" si="3"/>
-        <v>4805.8701923076924</v>
+        <v>6556.6769230769232</v>
       </c>
       <c r="J31">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H31,"")</f>
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K31" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H31,"")</f>
         <v/>
       </c>
-      <c r="L31" t="str">
+      <c r="L31">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H31,"")</f>
-        <v/>
+        <v>11774</v>
       </c>
       <c r="M31">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H31,"")</f>
-        <v>7155</v>
+        <v>7685</v>
       </c>
       <c r="N31">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H31,"")</f>
-        <v>5379.2307692307695</v>
+        <v>5777.6923076923076</v>
       </c>
       <c r="O31">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H31,"")</f>
-        <v>6608.25</v>
+        <v>7459.6923076923076</v>
       </c>
       <c r="P31">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F31,"")</f>
@@ -59046,11 +59162,11 @@
       </c>
       <c r="B38">
         <f>COUNTIF(CSL_Sonuclari!C:J,A38)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C38" s="5">
         <f t="shared" si="4"/>
-        <v>4942.977272727273</v>
+        <v>5171.8947811447815</v>
       </c>
       <c r="D38">
         <f>COUNTIF(CSL_Sonuclari!J:J,A38)</f>
@@ -59070,27 +59186,27 @@
       </c>
       <c r="H38">
         <f>COUNTIF(CSL_Sonuclari!C:H,A38)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I38" s="5">
         <f t="shared" si="7"/>
-        <v>7023.4659090909099</v>
+        <v>7366.8421717171723</v>
       </c>
       <c r="J38">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H38,"")</f>
-        <v>7256.666666666667</v>
+        <v>7515.8333333333339</v>
       </c>
       <c r="K38">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H38,"")</f>
-        <v>8179.5</v>
+        <v>8841.7777777777792</v>
       </c>
       <c r="L38">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H38,"")</f>
-        <v>5844.363636363636</v>
+        <v>6053.090909090909</v>
       </c>
       <c r="M38">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H38,"")</f>
-        <v>6813.3333333333339</v>
+        <v>7056.666666666667</v>
       </c>
       <c r="N38" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H38,"")</f>
@@ -59184,19 +59300,19 @@
       </c>
       <c r="B40">
         <f>COUNTIF(CSL_Sonuclari!C:J,A40)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C40" s="5">
         <f t="shared" si="4"/>
-        <v>3986.6904761904757</v>
+        <v>4054.5238095238092</v>
       </c>
       <c r="D40">
         <f>COUNTIF(CSL_Sonuclari!J:J,A40)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E40" s="5">
         <f t="shared" si="5"/>
-        <v>914</v>
+        <v>1321</v>
       </c>
       <c r="F40" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A40)</f>
@@ -59244,7 +59360,7 @@
       </c>
       <c r="Q40">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D40,"")</f>
-        <v>914</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
@@ -59322,19 +59438,19 @@
       </c>
       <c r="B42">
         <f>COUNTIF(CSL_Sonuclari!C:J,A42)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42" s="5">
         <f t="shared" si="4"/>
-        <v>3724.287037037037</v>
+        <v>3791.9537037037039</v>
       </c>
       <c r="D42">
         <f>COUNTIF(CSL_Sonuclari!J:J,A42)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E42" s="5">
         <f t="shared" si="5"/>
-        <v>1102</v>
+        <v>1508</v>
       </c>
       <c r="F42" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A42)</f>
@@ -59382,7 +59498,7 @@
       </c>
       <c r="Q42">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D42,"")</f>
-        <v>1102</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
@@ -60150,11 +60266,11 @@
       </c>
       <c r="B54">
         <f>COUNTIF(CSL_Sonuclari!C:J,A54)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C54" s="5">
         <f t="shared" si="4"/>
-        <v>3561.863636363636</v>
+        <v>3629.5303030303025</v>
       </c>
       <c r="D54">
         <f>COUNTIF(CSL_Sonuclari!J:J,A54)</f>
@@ -60166,11 +60282,11 @@
       </c>
       <c r="F54" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A54)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G54" s="8">
         <f t="shared" si="6"/>
-        <v>426</v>
+        <v>832</v>
       </c>
       <c r="H54">
         <f>COUNTIF(CSL_Sonuclari!C:H,A54)</f>
@@ -60206,7 +60322,7 @@
       </c>
       <c r="P54">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F54,"")</f>
-        <v>426</v>
+        <v>832</v>
       </c>
       <c r="Q54">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D54,"")</f>
@@ -60564,11 +60680,11 @@
       </c>
       <c r="B60">
         <f>COUNTIF(CSL_Sonuclari!C:J,A60)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C60" s="5">
         <f t="shared" si="4"/>
-        <v>4480.4444444444443</v>
+        <v>4548.2777777777774</v>
       </c>
       <c r="D60">
         <f>COUNTIF(CSL_Sonuclari!J:J,A60)</f>
@@ -60580,11 +60696,11 @@
       </c>
       <c r="F60" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A60)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G60" s="8">
         <f t="shared" si="6"/>
-        <v>678</v>
+        <v>1085</v>
       </c>
       <c r="H60">
         <f>COUNTIF(CSL_Sonuclari!C:H,A60)</f>
@@ -60620,7 +60736,7 @@
       </c>
       <c r="P60">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F60,"")</f>
-        <v>678</v>
+        <v>1085</v>
       </c>
       <c r="Q60">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D60,"")</f>
@@ -61392,11 +61508,11 @@
       </c>
       <c r="B72">
         <f>COUNTIF(CSL_Sonuclari!C:J,A72)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C72" s="5">
         <f t="shared" si="8"/>
-        <v>3613.2637362637361</v>
+        <v>3790.7291993720569</v>
       </c>
       <c r="D72">
         <f>COUNTIF(CSL_Sonuclari!J:J,A72)</f>
@@ -61416,15 +61532,15 @@
       </c>
       <c r="H72">
         <f>COUNTIF(CSL_Sonuclari!C:H,A72)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I72" s="5">
         <f t="shared" si="11"/>
-        <v>4859.7692307692305</v>
+        <v>5108.2208791208795</v>
       </c>
       <c r="J72">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H72,"")</f>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K72" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H72,"")</f>
@@ -61432,19 +61548,19 @@
       </c>
       <c r="L72">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H72,"")</f>
-        <v>9030</v>
+        <v>9331</v>
       </c>
       <c r="M72">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H72,"")</f>
-        <v>3945</v>
+        <v>4076.5</v>
       </c>
       <c r="N72">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H72,"")</f>
-        <v>6323.0769230769229</v>
+        <v>6966.1428571428578</v>
       </c>
       <c r="O72">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H72,"")</f>
-        <v>4940.7692307692305</v>
+        <v>5105.4615384615381</v>
       </c>
       <c r="P72">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F72,"")</f>
@@ -61737,11 +61853,11 @@
       </c>
       <c r="B77">
         <f>COUNTIF(CSL_Sonuclari!C:J,A77)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C77" s="5">
         <f t="shared" si="8"/>
-        <v>1589.7304347826089</v>
+        <v>1682.7666666666664</v>
       </c>
       <c r="D77">
         <f>COUNTIF(CSL_Sonuclari!J:J,A77)</f>
@@ -61761,15 +61877,15 @@
       </c>
       <c r="H77">
         <f>COUNTIF(CSL_Sonuclari!C:H,A77)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I77" s="5">
         <f t="shared" si="11"/>
-        <v>1906.8840579710147</v>
+        <v>2061.9444444444443</v>
       </c>
       <c r="J77">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H77,"")</f>
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="K77" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H77,"")</f>
@@ -61777,7 +61893,7 @@
       </c>
       <c r="L77">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H77,"")</f>
-        <v>575</v>
+        <v>598</v>
       </c>
       <c r="M77" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H77,"")</f>
@@ -61789,7 +61905,7 @@
       </c>
       <c r="O77">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H77,"")</f>
-        <v>4695.652173913044</v>
+        <v>5119.833333333333</v>
       </c>
       <c r="P77">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F77,"")</f>
@@ -61806,11 +61922,11 @@
       </c>
       <c r="B78">
         <f>COUNTIF(CSL_Sonuclari!C:J,A78)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C78" s="5">
         <f t="shared" si="8"/>
-        <v>3419.1666666666665</v>
+        <v>3603.6027777777776</v>
       </c>
       <c r="D78">
         <f>COUNTIF(CSL_Sonuclari!J:J,A78)</f>
@@ -61830,23 +61946,23 @@
       </c>
       <c r="H78">
         <f>COUNTIF(CSL_Sonuclari!C:H,A78)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I78" s="5">
         <f t="shared" si="11"/>
-        <v>4599</v>
+        <v>4875.6541666666662</v>
       </c>
       <c r="J78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H78,"")</f>
-        <v>6480</v>
+        <v>7189.4166666666661</v>
       </c>
       <c r="K78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H78,"")</f>
-        <v>5286</v>
+        <v>5462.2</v>
       </c>
       <c r="L78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H78,"")</f>
-        <v>6210</v>
+        <v>6417</v>
       </c>
       <c r="M78" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H78,"")</f>
@@ -61858,7 +61974,7 @@
       </c>
       <c r="O78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H78,"")</f>
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="P78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F78,"")</f>
@@ -62496,11 +62612,11 @@
       </c>
       <c r="B88">
         <f>COUNTIF(CSL_Sonuclari!C:J,A88)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C88" s="5">
         <f t="shared" si="8"/>
-        <v>2733.1238095238095</v>
+        <v>2857.0514285714285</v>
       </c>
       <c r="D88">
         <f>COUNTIF(CSL_Sonuclari!J:J,A88)</f>
@@ -62520,19 +62636,19 @@
       </c>
       <c r="H88">
         <f>COUNTIF(CSL_Sonuclari!C:H,A88)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I88" s="5">
         <f t="shared" si="11"/>
-        <v>3834.5396825396824</v>
+        <v>4041.0857142857144</v>
       </c>
       <c r="J88">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H88,"")</f>
-        <v>6685.333333333333</v>
+        <v>7154.4000000000005</v>
       </c>
       <c r="K88">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H88,"")</f>
-        <v>4082.2857142857142</v>
+        <v>4209.8571428571431</v>
       </c>
       <c r="L88" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H88,"")</f>
@@ -62548,7 +62664,7 @@
       </c>
       <c r="O88">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H88,"")</f>
-        <v>736</v>
+        <v>759</v>
       </c>
       <c r="P88">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F88,"")</f>
@@ -63450,15 +63566,15 @@
       </c>
       <c r="B21">
         <f>COUNTIF(SL_Sonuclari!C:H,A21)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="0"/>
-        <v>209.32775974025972</v>
+        <v>214.05275974025975</v>
       </c>
       <c r="D21">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A21,SL_Sonuclari!A:A),"")</f>
-        <v>198.1</v>
+        <v>217</v>
       </c>
       <c r="E21">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A21,SL_Sonuclari!A:A),"")</f>
@@ -63483,7 +63599,7 @@
       </c>
       <c r="B22">
         <f>COUNTIF(SL_Sonuclari!C:H,A22)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
@@ -64044,11 +64160,11 @@
       </c>
       <c r="B39">
         <f>COUNTIF(SL_Sonuclari!C:H,A39)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C39" s="5">
         <f t="shared" si="1"/>
-        <v>220.05138888888888</v>
+        <v>222.37960526315788</v>
       </c>
       <c r="D39">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A39,SL_Sonuclari!A:A),"")</f>
@@ -64056,7 +64172,7 @@
       </c>
       <c r="E39">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A39,SL_Sonuclari!A:A),"")</f>
-        <v>229.05555555555554</v>
+        <v>238.36842105263159</v>
       </c>
       <c r="F39">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A39,SL_Sonuclari!A:A),"")</f>
@@ -64077,11 +64193,11 @@
       </c>
       <c r="B40">
         <f>COUNTIF(SL_Sonuclari!C:H,A40)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C40" s="5">
         <f t="shared" si="1"/>
-        <v>215.1875</v>
+        <v>218.26470588235293</v>
       </c>
       <c r="D40" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A40,SL_Sonuclari!A:A),"")</f>
@@ -64093,7 +64209,7 @@
       </c>
       <c r="F40">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A40,SL_Sonuclari!A:A),"")</f>
-        <v>196.75</v>
+        <v>209.05882352941177</v>
       </c>
       <c r="G40">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A40,SL_Sonuclari!A:A),"")</f>
@@ -64440,11 +64556,11 @@
       </c>
       <c r="B51">
         <f>COUNTIF(SL_Sonuclari!C:H,A51)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C51" s="5">
         <f t="shared" si="1"/>
-        <v>181.75844155844158</v>
+        <v>186.04772727272729</v>
       </c>
       <c r="D51" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A51,SL_Sonuclari!A:A),"")</f>
@@ -64460,7 +64576,7 @@
       </c>
       <c r="G51">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A51,SL_Sonuclari!A:A),"")</f>
-        <v>148.64285714285714</v>
+        <v>165.8</v>
       </c>
       <c r="H51">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A51,SL_Sonuclari!A:A),"")</f>
@@ -64708,11 +64824,11 @@
       </c>
       <c r="B59">
         <f>COUNTIF(SL_Sonuclari!C:H,A59)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C59" s="5">
         <f t="shared" si="1"/>
-        <v>221.77777777777777</v>
+        <v>230.6</v>
       </c>
       <c r="D59" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A59,SL_Sonuclari!A:A),"")</f>
@@ -64732,7 +64848,7 @@
       </c>
       <c r="H59">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A59,SL_Sonuclari!A:A),"")</f>
-        <v>229.55555555555554</v>
+        <v>247.2</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">

--- a/SLIStatistik.xlsx
+++ b/SLIStatistik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\ReadExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCADB0C-7C58-445C-B9C6-48141643663B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4BDF08-F1AD-410B-B236-878314A797AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
   </bookViews>
   <sheets>
     <sheet name="CSL_Sonuclari" sheetId="2" r:id="rId1"/>
@@ -615,10 +615,10 @@
   <dimension ref="A1:L409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B375" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B393" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J409" sqref="J409"/>
+      <selection pane="bottomRight" activeCell="A410" sqref="A410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13138,10 +13138,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8BCBFC-83B0-4863-9D9A-FF955DDDA58C}">
-  <dimension ref="A1:H408"/>
+  <dimension ref="A1:H409"/>
   <sheetViews>
-    <sheetView topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="A409" sqref="A409"/>
+    <sheetView tabSelected="1" topLeftCell="A376" workbookViewId="0">
+      <selection activeCell="I409" sqref="I409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23755,6 +23755,32 @@
       </c>
       <c r="H408">
         <v>57</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>407</v>
+      </c>
+      <c r="B409" s="1">
+        <v>45001</v>
+      </c>
+      <c r="C409">
+        <v>4</v>
+      </c>
+      <c r="D409">
+        <v>5</v>
+      </c>
+      <c r="E409">
+        <v>23</v>
+      </c>
+      <c r="F409">
+        <v>26</v>
+      </c>
+      <c r="G409">
+        <v>40</v>
+      </c>
+      <c r="H409">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -23769,7 +23795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4513EEF-0F11-4AC5-A4C7-CB00A18EA83B}">
   <dimension ref="A1:H1262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1237" workbookViewId="0">
+    <sheetView topLeftCell="A1237" workbookViewId="0">
       <selection activeCell="A1263" sqref="A1263"/>
     </sheetView>
   </sheetViews>
@@ -63071,11 +63097,11 @@
       </c>
       <c r="B6">
         <f>COUNTIF(SL_Sonuclari!C:H,A6)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="5">
         <f t="shared" si="0"/>
-        <v>132.0625</v>
+        <v>136.59659090909091</v>
       </c>
       <c r="D6">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A6,SL_Sonuclari!A:A),"")</f>
@@ -63083,7 +63109,7 @@
       </c>
       <c r="E6">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A6,SL_Sonuclari!A:A),"")</f>
-        <v>207.5</v>
+        <v>225.63636363636363</v>
       </c>
       <c r="F6">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A6,SL_Sonuclari!A:A),"")</f>
@@ -63302,15 +63328,15 @@
       </c>
       <c r="B13">
         <f>COUNTIF(SL_Sonuclari!C:H,A13)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="0"/>
-        <v>148.94642857142856</v>
+        <v>150.99350649350649</v>
       </c>
       <c r="D13">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A13,SL_Sonuclari!A:A),"")</f>
-        <v>226.85714285714286</v>
+        <v>235.04545454545453</v>
       </c>
       <c r="E13">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A13,SL_Sonuclari!A:A),"")</f>
@@ -63731,11 +63757,11 @@
       </c>
       <c r="B26">
         <f>COUNTIF(SL_Sonuclari!C:H,A26)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" s="5">
         <f t="shared" si="0"/>
-        <v>164.50833333333333</v>
+        <v>167.28223039215686</v>
       </c>
       <c r="D26" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A26,SL_Sonuclari!A:A),"")</f>
@@ -63755,7 +63781,7 @@
       </c>
       <c r="H26">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A26,SL_Sonuclari!A:A),"")</f>
-        <v>218.375</v>
+        <v>229.47058823529412</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -63764,7 +63790,7 @@
       </c>
       <c r="B27">
         <f>COUNTIF(SL_Sonuclari!C:H,A27)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27" s="5">
         <f t="shared" si="0"/>
@@ -63896,11 +63922,11 @@
       </c>
       <c r="B31">
         <f>COUNTIF(SL_Sonuclari!C:H,A31)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C31" s="5">
         <f t="shared" si="0"/>
-        <v>176.6888888888889</v>
+        <v>180.1979797979798</v>
       </c>
       <c r="D31">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A31,SL_Sonuclari!A:A),"")</f>
@@ -63912,7 +63938,7 @@
       </c>
       <c r="F31">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A31,SL_Sonuclari!A:A),"")</f>
-        <v>214</v>
+        <v>231.54545454545453</v>
       </c>
       <c r="G31">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A31,SL_Sonuclari!A:A),"")</f>
@@ -64391,11 +64417,11 @@
       </c>
       <c r="B46">
         <f>COUNTIF(SL_Sonuclari!C:H,A46)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C46" s="5">
         <f t="shared" si="1"/>
-        <v>207.44924242424244</v>
+        <v>212.20202020202024</v>
       </c>
       <c r="D46">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A46,SL_Sonuclari!A:A),"")</f>
@@ -64411,7 +64437,7 @@
       </c>
       <c r="G46">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A46,SL_Sonuclari!A:A),"")</f>
-        <v>193.125</v>
+        <v>216.88888888888889</v>
       </c>
       <c r="H46">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A46,SL_Sonuclari!A:A),"")</f>

--- a/SLIStatistik.xlsx
+++ b/SLIStatistik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\ReadExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4BDF08-F1AD-410B-B236-878314A797AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9127EBD7-8F97-408C-882C-328AFA6F167B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
   </bookViews>
   <sheets>
     <sheet name="CSL_Sonuclari" sheetId="2" r:id="rId1"/>
@@ -612,13 +612,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21120D27-1448-4179-993C-6B3BE739480A}">
-  <dimension ref="A1:L409"/>
+  <dimension ref="A1:L412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B393" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A410" sqref="A410"/>
+      <selection pane="bottomRight" activeCell="A413" sqref="A413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13127,6 +13127,102 @@
         <v>26</v>
       </c>
     </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A410" s="2">
+        <v>408</v>
+      </c>
+      <c r="B410" s="1">
+        <v>45003</v>
+      </c>
+      <c r="C410" s="2">
+        <v>11</v>
+      </c>
+      <c r="D410" s="2">
+        <v>18</v>
+      </c>
+      <c r="E410" s="2">
+        <v>30</v>
+      </c>
+      <c r="F410" s="2">
+        <v>60</v>
+      </c>
+      <c r="G410" s="2">
+        <v>81</v>
+      </c>
+      <c r="H410" s="2">
+        <v>84</v>
+      </c>
+      <c r="I410" s="2">
+        <v>17</v>
+      </c>
+      <c r="J410" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A411" s="2">
+        <v>409</v>
+      </c>
+      <c r="B411" s="1">
+        <v>45005</v>
+      </c>
+      <c r="C411" s="2">
+        <v>11</v>
+      </c>
+      <c r="D411" s="2">
+        <v>14</v>
+      </c>
+      <c r="E411" s="2">
+        <v>15</v>
+      </c>
+      <c r="F411" s="2">
+        <v>25</v>
+      </c>
+      <c r="G411" s="2">
+        <v>26</v>
+      </c>
+      <c r="H411" s="2">
+        <v>74</v>
+      </c>
+      <c r="I411" s="2">
+        <v>64</v>
+      </c>
+      <c r="J411" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A412" s="2">
+        <v>410</v>
+      </c>
+      <c r="B412" s="1">
+        <v>45007</v>
+      </c>
+      <c r="C412" s="2">
+        <v>3</v>
+      </c>
+      <c r="D412" s="2">
+        <v>29</v>
+      </c>
+      <c r="E412" s="2">
+        <v>58</v>
+      </c>
+      <c r="F412" s="2">
+        <v>68</v>
+      </c>
+      <c r="G412" s="2">
+        <v>69</v>
+      </c>
+      <c r="H412" s="2">
+        <v>77</v>
+      </c>
+      <c r="I412" s="2">
+        <v>42</v>
+      </c>
+      <c r="J412" s="2">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J311">
     <sortCondition ref="B2:B311"/>
@@ -13138,10 +13234,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8BCBFC-83B0-4863-9D9A-FF955DDDA58C}">
-  <dimension ref="A1:H409"/>
+  <dimension ref="A1:H411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="I409" sqref="I409"/>
+    <sheetView topLeftCell="A379" workbookViewId="0">
+      <selection activeCell="A412" sqref="A412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23783,6 +23879,58 @@
         <v>56</v>
       </c>
     </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>408</v>
+      </c>
+      <c r="B410" s="1">
+        <v>45004</v>
+      </c>
+      <c r="C410">
+        <v>1</v>
+      </c>
+      <c r="D410">
+        <v>6</v>
+      </c>
+      <c r="E410">
+        <v>17</v>
+      </c>
+      <c r="F410">
+        <v>25</v>
+      </c>
+      <c r="G410">
+        <v>32</v>
+      </c>
+      <c r="H410">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>409</v>
+      </c>
+      <c r="B411" s="1">
+        <v>45006</v>
+      </c>
+      <c r="C411">
+        <v>11</v>
+      </c>
+      <c r="D411">
+        <v>17</v>
+      </c>
+      <c r="E411">
+        <v>19</v>
+      </c>
+      <c r="F411">
+        <v>29</v>
+      </c>
+      <c r="G411">
+        <v>45</v>
+      </c>
+      <c r="H411">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H311">
     <sortCondition ref="B2:B311"/>
@@ -23793,10 +23941,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4513EEF-0F11-4AC5-A4C7-CB00A18EA83B}">
-  <dimension ref="A1:H1262"/>
+  <dimension ref="A1:H1264"/>
   <sheetViews>
-    <sheetView topLeftCell="A1237" workbookViewId="0">
-      <selection activeCell="A1263" sqref="A1263"/>
+    <sheetView tabSelected="1" topLeftCell="A1237" workbookViewId="0">
+      <selection activeCell="A1265" sqref="A1265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56614,6 +56762,58 @@
       </c>
       <c r="H1262">
         <v>8</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1263">
+        <v>1262</v>
+      </c>
+      <c r="B1263" s="1">
+        <v>45004</v>
+      </c>
+      <c r="C1263">
+        <v>6</v>
+      </c>
+      <c r="D1263">
+        <v>8</v>
+      </c>
+      <c r="E1263">
+        <v>12</v>
+      </c>
+      <c r="F1263">
+        <v>13</v>
+      </c>
+      <c r="G1263">
+        <v>21</v>
+      </c>
+      <c r="H1263">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1264">
+        <v>1653</v>
+      </c>
+      <c r="B1264" s="1">
+        <v>110750</v>
+      </c>
+      <c r="C1264">
+        <v>5</v>
+      </c>
+      <c r="D1264">
+        <v>6</v>
+      </c>
+      <c r="E1264">
+        <v>20</v>
+      </c>
+      <c r="F1264">
+        <v>26</v>
+      </c>
+      <c r="G1264">
+        <v>28</v>
+      </c>
+      <c r="H1264">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -56704,11 +56904,11 @@
       </c>
       <c r="B2">
         <f>COUNTIF(CSL_Sonuclari!C:J,A2)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="5">
         <f t="shared" ref="C2:C33" si="0">AVERAGE(J2:Q2)</f>
-        <v>2700.2380952380954</v>
+        <v>2883.9523809523807</v>
       </c>
       <c r="D2">
         <f>COUNTIF(CSL_Sonuclari!J:J,A2)</f>
@@ -56728,31 +56928,31 @@
       </c>
       <c r="H2">
         <f>COUNTIF(CSL_Sonuclari!C:H,A2)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="5">
         <f t="shared" ref="I2:I33" si="3">AVERAGE(J2:O2)</f>
-        <v>3619.9333333333334</v>
+        <v>3877.1333333333328</v>
       </c>
       <c r="J2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H2,"")</f>
-        <v>2912</v>
+        <v>3050.6666666666665</v>
       </c>
       <c r="K2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H2,"")</f>
-        <v>5502</v>
+        <v>5764</v>
       </c>
       <c r="L2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H2,"")</f>
-        <v>4519.666666666667</v>
+        <v>5159</v>
       </c>
       <c r="M2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H2,"")</f>
-        <v>4221</v>
+        <v>4422</v>
       </c>
       <c r="N2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H2,"")</f>
-        <v>945</v>
+        <v>990</v>
       </c>
       <c r="O2" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H2,"")</f>
@@ -57463,11 +57663,11 @@
       </c>
       <c r="B13">
         <f>COUNTIF(CSL_Sonuclari!C:J,A13)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="0"/>
-        <v>2994</v>
+        <v>3062</v>
       </c>
       <c r="D13">
         <f>COUNTIF(CSL_Sonuclari!J:J,A13)</f>
@@ -57479,11 +57679,11 @@
       </c>
       <c r="F13" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A13)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G13" s="8">
         <f t="shared" si="2"/>
-        <v>1294</v>
+        <v>1702</v>
       </c>
       <c r="H13">
         <f>COUNTIF(CSL_Sonuclari!C:H,A13)</f>
@@ -57519,7 +57719,7 @@
       </c>
       <c r="P13">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F13,"")</f>
-        <v>1294</v>
+        <v>1702</v>
       </c>
       <c r="Q13">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D13,"")</f>
@@ -58153,19 +58353,19 @@
       </c>
       <c r="B23">
         <f>COUNTIF(CSL_Sonuclari!C:J,A23)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
-        <v>4746.9780952380952</v>
+        <v>4279.2333333333336</v>
       </c>
       <c r="D23">
         <f>COUNTIF(CSL_Sonuclari!J:J,A23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>409</v>
       </c>
       <c r="F23" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A23)</f>
@@ -58177,11 +58377,11 @@
       </c>
       <c r="H23">
         <f>COUNTIF(CSL_Sonuclari!C:H,A23)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I23" s="5">
         <f t="shared" si="3"/>
-        <v>5623.7226190476194</v>
+        <v>6006.6</v>
       </c>
       <c r="J23" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H23,"")</f>
@@ -58193,27 +58393,27 @@
       </c>
       <c r="L23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H23,"")</f>
-        <v>5526.8571428571431</v>
+        <v>6405.75</v>
       </c>
       <c r="M23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H23,"")</f>
-        <v>5310.5</v>
+        <v>5514.75</v>
       </c>
       <c r="N23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H23,"")</f>
-        <v>4736.333333333333</v>
+        <v>4918.5</v>
       </c>
       <c r="O23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H23,"")</f>
-        <v>6921.2</v>
+        <v>7187.4</v>
       </c>
       <c r="P23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F23,"")</f>
         <v>1240</v>
       </c>
-      <c r="Q23" t="str">
+      <c r="Q23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D23,"")</f>
-        <v/>
+        <v>409</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -58222,11 +58422,11 @@
       </c>
       <c r="B24">
         <f>COUNTIF(CSL_Sonuclari!C:J,A24)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" s="5">
         <f t="shared" si="0"/>
-        <v>4978.7295918367354</v>
+        <v>5282.2006802721089</v>
       </c>
       <c r="D24">
         <f>COUNTIF(CSL_Sonuclari!J:J,A24)</f>
@@ -58246,11 +58446,11 @@
       </c>
       <c r="H24">
         <f>COUNTIF(CSL_Sonuclari!C:H,A24)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I24" s="5">
         <f t="shared" si="3"/>
-        <v>6634.8214285714294</v>
+        <v>7059.6809523809525</v>
       </c>
       <c r="J24" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H24,"")</f>
@@ -58258,23 +58458,23 @@
       </c>
       <c r="K24">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H24,"")</f>
-        <v>7525</v>
+        <v>7826</v>
       </c>
       <c r="L24">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H24,"")</f>
-        <v>7500</v>
+        <v>7800</v>
       </c>
       <c r="M24">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H24,"")</f>
-        <v>7018.75</v>
+        <v>7299.5</v>
       </c>
       <c r="N24">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H24,"")</f>
-        <v>5600</v>
+        <v>6621.333333333333</v>
       </c>
       <c r="O24">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H24,"")</f>
-        <v>5530.3571428571431</v>
+        <v>5751.5714285714284</v>
       </c>
       <c r="P24">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F24,"")</f>
@@ -58360,11 +58560,11 @@
       </c>
       <c r="B26">
         <f>COUNTIF(CSL_Sonuclari!C:J,A26)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C26" s="5">
         <f t="shared" si="0"/>
-        <v>4158.9821428571431</v>
+        <v>4434</v>
       </c>
       <c r="D26">
         <f>COUNTIF(CSL_Sonuclari!J:J,A26)</f>
@@ -58384,11 +58584,11 @@
       </c>
       <c r="H26">
         <f>COUNTIF(CSL_Sonuclari!C:H,A26)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I26" s="5">
         <f t="shared" si="3"/>
-        <v>5873.2232142857147</v>
+        <v>6285.75</v>
       </c>
       <c r="J26" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H26,"")</f>
@@ -58400,19 +58600,19 @@
       </c>
       <c r="L26">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H26,"")</f>
-        <v>3402</v>
+        <v>3528</v>
       </c>
       <c r="M26">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H26,"")</f>
-        <v>5052.8571428571431</v>
+        <v>6020</v>
       </c>
       <c r="N26">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H26,"")</f>
-        <v>7349.7857142857147</v>
+        <v>7622</v>
       </c>
       <c r="O26">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H26,"")</f>
-        <v>7688.25</v>
+        <v>7973</v>
       </c>
       <c r="P26">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F26,"")</f>
@@ -58429,19 +58629,19 @@
       </c>
       <c r="B27">
         <f>COUNTIF(CSL_Sonuclari!C:J,A27)</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C27" s="5">
         <f t="shared" si="0"/>
-        <v>4707.4787878787874</v>
+        <v>5025.1242424242428</v>
       </c>
       <c r="D27">
         <f>COUNTIF(CSL_Sonuclari!J:J,A27)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" si="1"/>
-        <v>1033</v>
+        <v>1443</v>
       </c>
       <c r="F27" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A27)</f>
@@ -58453,27 +58653,27 @@
       </c>
       <c r="H27">
         <f>COUNTIF(CSL_Sonuclari!C:H,A27)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I27" s="5">
         <f t="shared" si="3"/>
-        <v>6461.4681818181816</v>
+        <v>6835.4363636363641</v>
       </c>
       <c r="J27">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H27,"")</f>
-        <v>5817.2727272727279</v>
+        <v>6032.727272727273</v>
       </c>
       <c r="K27">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H27,"")</f>
-        <v>5329.8</v>
+        <v>6065.818181818182</v>
       </c>
       <c r="L27">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H27,"")</f>
-        <v>6274.8</v>
+        <v>6507.2</v>
       </c>
       <c r="M27">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H27,"")</f>
-        <v>8424</v>
+        <v>8736</v>
       </c>
       <c r="N27" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H27,"")</f>
@@ -58489,7 +58689,7 @@
       </c>
       <c r="Q27">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D27,"")</f>
-        <v>1033</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -58636,11 +58836,11 @@
       </c>
       <c r="B30">
         <f>COUNTIF(CSL_Sonuclari!C:J,A30)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C30" s="5">
         <f t="shared" si="0"/>
-        <v>4738.4777777777781</v>
+        <v>4968.9797979797986</v>
       </c>
       <c r="D30">
         <f>COUNTIF(CSL_Sonuclari!J:J,A30)</f>
@@ -58660,27 +58860,27 @@
       </c>
       <c r="H30">
         <f>COUNTIF(CSL_Sonuclari!C:H,A30)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I30" s="5">
         <f t="shared" si="3"/>
-        <v>6541.9666666666672</v>
+        <v>6887.7196969696979</v>
       </c>
       <c r="J30">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H30,"")</f>
-        <v>4340</v>
+        <v>4495</v>
       </c>
       <c r="K30">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H30,"")</f>
-        <v>6717.2</v>
+        <v>7405.545454545455</v>
       </c>
       <c r="L30">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H30,"")</f>
-        <v>7984.666666666667</v>
+        <v>8269.8333333333339</v>
       </c>
       <c r="M30">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H30,"")</f>
-        <v>7126</v>
+        <v>7380.5</v>
       </c>
       <c r="N30" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H30,"")</f>
@@ -58843,11 +59043,11 @@
       </c>
       <c r="B33">
         <f>COUNTIF(CSL_Sonuclari!C:J,A33)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C33" s="5">
         <f t="shared" si="0"/>
-        <v>4160.9890350877195</v>
+        <v>4411.9000000000005</v>
       </c>
       <c r="D33">
         <f>COUNTIF(CSL_Sonuclari!J:J,A33)</f>
@@ -58867,19 +59067,19 @@
       </c>
       <c r="H33">
         <f>COUNTIF(CSL_Sonuclari!C:H,A33)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I33" s="5">
         <f t="shared" si="3"/>
-        <v>5703.4835526315792</v>
+        <v>6079.85</v>
       </c>
       <c r="J33">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H33,"")</f>
-        <v>4700.8421052631584</v>
+        <v>5205.2</v>
       </c>
       <c r="K33">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H33,"")</f>
-        <v>6706.125</v>
+        <v>6954.5</v>
       </c>
       <c r="L33" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H33,"")</f>
@@ -59257,11 +59457,11 @@
       </c>
       <c r="B39">
         <f>COUNTIF(CSL_Sonuclari!C:J,A39)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C39" s="5">
         <f t="shared" si="4"/>
-        <v>4102.9740259740265</v>
+        <v>4296.5190476190473</v>
       </c>
       <c r="D39">
         <f>COUNTIF(CSL_Sonuclari!J:J,A39)</f>
@@ -59281,11 +59481,11 @@
       </c>
       <c r="H39">
         <f>COUNTIF(CSL_Sonuclari!C:H,A39)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I39" s="5">
         <f t="shared" si="7"/>
-        <v>5412.1636363636371</v>
+        <v>5683.1266666666661</v>
       </c>
       <c r="J39" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H39,"")</f>
@@ -59293,23 +59493,23 @@
       </c>
       <c r="K39">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H39,"")</f>
-        <v>4350</v>
+        <v>4495</v>
       </c>
       <c r="L39">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H39,"")</f>
-        <v>5244</v>
+        <v>5418.8</v>
       </c>
       <c r="M39">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H39,"")</f>
-        <v>6981.818181818182</v>
+        <v>7667.3333333333339</v>
       </c>
       <c r="N39">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H39,"")</f>
-        <v>8085</v>
+        <v>8354.5</v>
       </c>
       <c r="O39">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H39,"")</f>
-        <v>2400</v>
+        <v>2480</v>
       </c>
       <c r="P39">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F39,"")</f>
@@ -59326,11 +59526,11 @@
       </c>
       <c r="B40">
         <f>COUNTIF(CSL_Sonuclari!C:J,A40)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C40" s="5">
         <f t="shared" si="4"/>
-        <v>4054.5238095238092</v>
+        <v>5012.5306122448983</v>
       </c>
       <c r="D40">
         <f>COUNTIF(CSL_Sonuclari!J:J,A40)</f>
@@ -59350,31 +59550,31 @@
       </c>
       <c r="H40">
         <f>COUNTIF(CSL_Sonuclari!C:H,A40)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I40" s="5">
         <f t="shared" si="7"/>
-        <v>5431.2857142857138</v>
+        <v>6497.1428571428569</v>
       </c>
       <c r="J40">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H40,"")</f>
-        <v>6440</v>
+        <v>6720</v>
       </c>
       <c r="K40">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H40,"")</f>
-        <v>2888.1428571428569</v>
+        <v>3013.7142857142858</v>
       </c>
       <c r="L40">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H40,"")</f>
-        <v>5934</v>
+        <v>6192</v>
       </c>
       <c r="M40">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H40,"")</f>
-        <v>6463</v>
-      </c>
-      <c r="N40" t="str">
+        <v>6744</v>
+      </c>
+      <c r="N40">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H40,"")</f>
-        <v/>
+        <v>9816</v>
       </c>
       <c r="O40" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H40,"")</f>
@@ -59395,11 +59595,11 @@
       </c>
       <c r="B41">
         <f>COUNTIF(CSL_Sonuclari!C:J,A41)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C41" s="5">
         <f t="shared" si="4"/>
-        <v>4910.7</v>
+        <v>4978.8666666666668</v>
       </c>
       <c r="D41">
         <f>COUNTIF(CSL_Sonuclari!J:J,A41)</f>
@@ -59411,11 +59611,11 @@
       </c>
       <c r="F41" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A41)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G41" s="8">
         <f t="shared" si="6"/>
-        <v>1423</v>
+        <v>1832</v>
       </c>
       <c r="H41">
         <f>COUNTIF(CSL_Sonuclari!C:H,A41)</f>
@@ -59451,7 +59651,7 @@
       </c>
       <c r="P41">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F41,"")</f>
-        <v>1423</v>
+        <v>1832</v>
       </c>
       <c r="Q41">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D41,"")</f>
@@ -59602,11 +59802,11 @@
       </c>
       <c r="B44">
         <f>COUNTIF(CSL_Sonuclari!C:J,A44)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C44" s="5">
         <f t="shared" si="4"/>
-        <v>4923.8098901098901</v>
+        <v>5173.1846153846154</v>
       </c>
       <c r="D44">
         <f>COUNTIF(CSL_Sonuclari!J:J,A44)</f>
@@ -59626,11 +59826,11 @@
       </c>
       <c r="H44">
         <f>COUNTIF(CSL_Sonuclari!C:H,A44)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I44" s="5">
         <f t="shared" si="7"/>
-        <v>7594.0164835164833</v>
+        <v>8009.6410256410263</v>
       </c>
       <c r="J44" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H44,"")</f>
@@ -59646,15 +59846,15 @@
       </c>
       <c r="M44">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H44,"")</f>
-        <v>10179</v>
+        <v>10530</v>
       </c>
       <c r="N44">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H44,"")</f>
-        <v>7401.6923076923076</v>
+        <v>7656.9230769230771</v>
       </c>
       <c r="O44">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H44,"")</f>
-        <v>5201.3571428571431</v>
+        <v>5842</v>
       </c>
       <c r="P44">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F44,"")</f>
@@ -59740,11 +59940,11 @@
       </c>
       <c r="B46">
         <f>COUNTIF(CSL_Sonuclari!C:J,A46)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C46" s="5">
         <f t="shared" si="4"/>
-        <v>3287.3611111111113</v>
+        <v>3355.6944444444448</v>
       </c>
       <c r="D46">
         <f>COUNTIF(CSL_Sonuclari!J:J,A46)</f>
@@ -59756,11 +59956,11 @@
       </c>
       <c r="F46" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A46)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G46" s="8">
         <f t="shared" si="6"/>
-        <v>826</v>
+        <v>1236</v>
       </c>
       <c r="H46">
         <f>COUNTIF(CSL_Sonuclari!C:H,A46)</f>
@@ -59796,7 +59996,7 @@
       </c>
       <c r="P46">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F46,"")</f>
-        <v>826</v>
+        <v>1236</v>
       </c>
       <c r="Q46">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D46,"")</f>
@@ -60016,11 +60216,11 @@
       </c>
       <c r="B50">
         <f>COUNTIF(CSL_Sonuclari!C:J,A50)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C50" s="5">
         <f t="shared" si="4"/>
-        <v>3189.4583333333335</v>
+        <v>3512</v>
       </c>
       <c r="D50">
         <f>COUNTIF(CSL_Sonuclari!J:J,A50)</f>
@@ -60040,11 +60240,11 @@
       </c>
       <c r="H50">
         <f>COUNTIF(CSL_Sonuclari!C:H,A50)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I50" s="5">
         <f t="shared" si="7"/>
-        <v>4123.4375</v>
+        <v>4607.25</v>
       </c>
       <c r="J50" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H50,"")</f>
@@ -60056,19 +60256,19 @@
       </c>
       <c r="L50">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H50,"")</f>
-        <v>1073</v>
+        <v>1110</v>
       </c>
       <c r="M50">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H50,"")</f>
-        <v>6061</v>
+        <v>6270</v>
       </c>
       <c r="N50">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H50,"")</f>
-        <v>4103.5</v>
+        <v>4245</v>
       </c>
       <c r="O50">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H50,"")</f>
-        <v>5256.25</v>
+        <v>6804</v>
       </c>
       <c r="P50">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F50,"")</f>
@@ -61051,11 +61251,11 @@
       </c>
       <c r="B65">
         <f>COUNTIF(CSL_Sonuclari!C:J,A65)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C65" s="5">
         <f t="shared" si="4"/>
-        <v>4057.0070175438595</v>
+        <v>4243.96</v>
       </c>
       <c r="D65">
         <f>COUNTIF(CSL_Sonuclari!J:J,A65)</f>
@@ -61075,11 +61275,11 @@
       </c>
       <c r="H65">
         <f>COUNTIF(CSL_Sonuclari!C:H,A65)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I65" s="5">
         <f t="shared" si="7"/>
-        <v>6031.0116959064326</v>
+        <v>6342.5999999999995</v>
       </c>
       <c r="J65" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H65,"")</f>
@@ -61095,15 +61295,15 @@
       </c>
       <c r="M65">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H65,"")</f>
-        <v>8034</v>
+        <v>8343</v>
       </c>
       <c r="N65">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H65,"")</f>
-        <v>4051.666666666667</v>
+        <v>4207.5</v>
       </c>
       <c r="O65">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H65,"")</f>
-        <v>6007.3684210526317</v>
+        <v>6477.3</v>
       </c>
       <c r="P65">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F65,"")</f>
@@ -61189,11 +61389,11 @@
       </c>
       <c r="B67">
         <f>COUNTIF(CSL_Sonuclari!C:J,A67)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C67" s="5">
         <f t="shared" si="8"/>
-        <v>5166.8</v>
+        <v>5406.6423076923083</v>
       </c>
       <c r="D67">
         <f>COUNTIF(CSL_Sonuclari!J:J,A67)</f>
@@ -61213,11 +61413,11 @@
       </c>
       <c r="H67">
         <f>COUNTIF(CSL_Sonuclari!C:H,A67)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I67" s="5">
         <f t="shared" si="11"/>
-        <v>7295.2000000000007</v>
+        <v>7654.9634615384621</v>
       </c>
       <c r="J67" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H67,"")</f>
@@ -61225,7 +61425,7 @@
       </c>
       <c r="K67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H67,"")</f>
-        <v>7872</v>
+        <v>8118</v>
       </c>
       <c r="L67" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H67,"")</f>
@@ -61233,15 +61433,15 @@
       </c>
       <c r="M67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H67,"")</f>
-        <v>5820.8</v>
+        <v>6002.7</v>
       </c>
       <c r="N67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H67,"")</f>
-        <v>6474.666666666667</v>
+        <v>7204.1538461538466</v>
       </c>
       <c r="O67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H67,"")</f>
-        <v>9013.3333333333339</v>
+        <v>9295</v>
       </c>
       <c r="P67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F67,"")</f>
@@ -61258,11 +61458,11 @@
       </c>
       <c r="B68">
         <f>COUNTIF(CSL_Sonuclari!C:J,A68)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C68" s="5">
         <f t="shared" si="8"/>
-        <v>5644.9985569985565</v>
+        <v>6021.6897546897544</v>
       </c>
       <c r="D68">
         <f>COUNTIF(CSL_Sonuclari!J:J,A68)</f>
@@ -61282,31 +61482,31 @@
       </c>
       <c r="H68">
         <f>COUNTIF(CSL_Sonuclari!C:H,A68)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I68" s="5">
         <f t="shared" si="11"/>
-        <v>7519.597979797979</v>
+        <v>8046.9656565656569</v>
       </c>
       <c r="J68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H68,"")</f>
-        <v>7021.5</v>
+        <v>7248</v>
       </c>
       <c r="K68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H68,"")</f>
-        <v>6067.545454545454</v>
+        <v>6263.272727272727</v>
       </c>
       <c r="L68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H68,"")</f>
-        <v>8125.4444444444434</v>
+        <v>8387.5555555555547</v>
       </c>
       <c r="M68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H68,"")</f>
-        <v>8540.5</v>
+        <v>10240</v>
       </c>
       <c r="N68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H68,"")</f>
-        <v>7843</v>
+        <v>8096</v>
       </c>
       <c r="O68" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H68,"")</f>
@@ -61948,11 +62148,11 @@
       </c>
       <c r="B78">
         <f>COUNTIF(CSL_Sonuclari!C:J,A78)</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C78" s="5">
         <f t="shared" si="8"/>
-        <v>3603.6027777777776</v>
+        <v>3952.0523809523806</v>
       </c>
       <c r="D78">
         <f>COUNTIF(CSL_Sonuclari!J:J,A78)</f>
@@ -61972,23 +62172,23 @@
       </c>
       <c r="H78">
         <f>COUNTIF(CSL_Sonuclari!C:H,A78)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I78" s="5">
         <f t="shared" si="11"/>
-        <v>4875.6541666666662</v>
+        <v>5398.3285714285712</v>
       </c>
       <c r="J78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H78,"")</f>
-        <v>7189.4166666666661</v>
+        <v>8485.7142857142862</v>
       </c>
       <c r="K78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H78,"")</f>
-        <v>5462.2</v>
+        <v>5814.5999999999995</v>
       </c>
       <c r="L78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H78,"")</f>
-        <v>6417</v>
+        <v>6831</v>
       </c>
       <c r="M78" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H78,"")</f>
@@ -62000,7 +62200,7 @@
       </c>
       <c r="O78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H78,"")</f>
-        <v>434</v>
+        <v>462</v>
       </c>
       <c r="P78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F78,"")</f>
@@ -62017,19 +62217,19 @@
       </c>
       <c r="B79">
         <f>COUNTIF(CSL_Sonuclari!C:J,A79)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C79" s="5">
         <f t="shared" si="8"/>
-        <v>4962.2685528756947</v>
+        <v>5020.5542671614094</v>
       </c>
       <c r="D79">
         <f>COUNTIF(CSL_Sonuclari!J:J,A79)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E79" s="5">
         <f t="shared" si="9"/>
-        <v>525</v>
+        <v>933</v>
       </c>
       <c r="F79" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A79)</f>
@@ -62077,7 +62277,7 @@
       </c>
       <c r="Q79">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D79,"")</f>
-        <v>525</v>
+        <v>933</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
@@ -62155,11 +62355,11 @@
       </c>
       <c r="B81">
         <f>COUNTIF(CSL_Sonuclari!C:J,A81)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C81" s="5">
         <f t="shared" si="8"/>
-        <v>3207.5277777777774</v>
+        <v>3446.6170634920632</v>
       </c>
       <c r="D81">
         <f>COUNTIF(CSL_Sonuclari!J:J,A81)</f>
@@ -62179,27 +62379,27 @@
       </c>
       <c r="H81">
         <f>COUNTIF(CSL_Sonuclari!C:H,A81)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I81" s="5">
         <f t="shared" si="11"/>
-        <v>4247.7916666666661</v>
+        <v>4606.4255952380945</v>
       </c>
       <c r="J81">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H81,"")</f>
-        <v>5471.6666666666661</v>
+        <v>5667.083333333333</v>
       </c>
       <c r="K81">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H81,"")</f>
-        <v>6000</v>
+        <v>6214.2857142857138</v>
       </c>
       <c r="L81">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H81,"")</f>
-        <v>4259.5</v>
+        <v>5239.333333333333</v>
       </c>
       <c r="M81">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H81,"")</f>
-        <v>1260</v>
+        <v>1305</v>
       </c>
       <c r="N81" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H81,"")</f>
@@ -62776,11 +62976,11 @@
       </c>
       <c r="B90">
         <f>COUNTIF(CSL_Sonuclari!C:J,A90)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C90" s="5">
         <f t="shared" si="8"/>
-        <v>3620.4164835164838</v>
+        <v>3798.934065934066</v>
       </c>
       <c r="D90">
         <f>COUNTIF(CSL_Sonuclari!J:J,A90)</f>
@@ -62800,35 +63000,35 @@
       </c>
       <c r="H90">
         <f>COUNTIF(CSL_Sonuclari!C:H,A90)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I90" s="5">
         <f t="shared" si="11"/>
-        <v>3943.3192307692311</v>
+        <v>4151.5897435897432</v>
       </c>
       <c r="J90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H90,"")</f>
-        <v>4213.6153846153848</v>
+        <v>4349.5384615384619</v>
       </c>
       <c r="K90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H90,"")</f>
-        <v>7464.8</v>
+        <v>8192</v>
       </c>
       <c r="L90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H90,"")</f>
-        <v>4960</v>
+        <v>5120</v>
       </c>
       <c r="M90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H90,"")</f>
-        <v>6432.5</v>
+        <v>6640</v>
       </c>
       <c r="N90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H90,"")</f>
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="O90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H90,"")</f>
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="P90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F90,"")</f>
@@ -62998,15 +63198,15 @@
       </c>
       <c r="B3">
         <f>COUNTIF(SL_Sonuclari!C:H,A3)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" s="5">
         <f t="shared" si="0"/>
-        <v>97.606060606060609</v>
+        <v>100.83823529411765</v>
       </c>
       <c r="D3">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A3,SL_Sonuclari!A:A),"")</f>
-        <v>188.21212121212122</v>
+        <v>194.6764705882353</v>
       </c>
       <c r="E3" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A3,SL_Sonuclari!A:A),"")</f>
@@ -63295,11 +63495,11 @@
       </c>
       <c r="B12">
         <f>COUNTIF(SL_Sonuclari!C:H,A12)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="0"/>
-        <v>156.36847826086955</v>
+        <v>159.89575098814231</v>
       </c>
       <c r="D12">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A12,SL_Sonuclari!A:A),"")</f>
@@ -63307,7 +63507,7 @@
       </c>
       <c r="E12">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A12,SL_Sonuclari!A:A),"")</f>
-        <v>252.8</v>
+        <v>266.90909090909093</v>
       </c>
       <c r="F12">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A12,SL_Sonuclari!A:A),"")</f>
@@ -63526,7 +63726,7 @@
       </c>
       <c r="B19">
         <f>COUNTIF(SL_Sonuclari!C:H,A19)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
@@ -63658,11 +63858,11 @@
       </c>
       <c r="B23">
         <f>COUNTIF(SL_Sonuclari!C:H,A23)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
-        <v>192.50396825396825</v>
+        <v>197.48174603174601</v>
       </c>
       <c r="D23" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A23,SL_Sonuclari!A:A),"")</f>
@@ -63682,7 +63882,7 @@
       </c>
       <c r="H23">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A23,SL_Sonuclari!A:A),"")</f>
-        <v>208.88888888888889</v>
+        <v>228.8</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -63823,15 +64023,15 @@
       </c>
       <c r="B28">
         <f>COUNTIF(SL_Sonuclari!C:H,A28)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28" s="5">
         <f t="shared" si="0"/>
-        <v>196.13888888888889</v>
+        <v>199.33809523809524</v>
       </c>
       <c r="D28">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A28,SL_Sonuclari!A:A),"")</f>
-        <v>207.45</v>
+        <v>217.04761904761904</v>
       </c>
       <c r="E28">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A28,SL_Sonuclari!A:A),"")</f>
@@ -63955,11 +64155,11 @@
       </c>
       <c r="B32">
         <f>COUNTIF(SL_Sonuclari!C:H,A32)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" s="5">
         <f t="shared" si="0"/>
-        <v>218.91666666666669</v>
+        <v>222.08500000000001</v>
       </c>
       <c r="D32" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A32,SL_Sonuclari!A:A),"")</f>
@@ -63979,7 +64179,7 @@
       </c>
       <c r="H32">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A32,SL_Sonuclari!A:A),"")</f>
-        <v>250.58333333333334</v>
+        <v>256.92</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -64186,11 +64386,11 @@
       </c>
       <c r="B39">
         <f>COUNTIF(SL_Sonuclari!C:H,A39)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C39" s="5">
         <f t="shared" si="1"/>
-        <v>222.37960526315788</v>
+        <v>225.93415071770335</v>
       </c>
       <c r="D39">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A39,SL_Sonuclari!A:A),"")</f>
@@ -64202,7 +64402,7 @@
       </c>
       <c r="F39">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A39,SL_Sonuclari!A:A),"")</f>
-        <v>252.6</v>
+        <v>266.81818181818181</v>
       </c>
       <c r="G39">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A39,SL_Sonuclari!A:A),"")</f>
@@ -64516,11 +64716,11 @@
       </c>
       <c r="B49">
         <f>COUNTIF(SL_Sonuclari!C:H,A49)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C49" s="5">
         <f t="shared" si="1"/>
-        <v>191.99835164835164</v>
+        <v>194.51085164835166</v>
       </c>
       <c r="D49">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A49,SL_Sonuclari!A:A),"")</f>
@@ -64536,7 +64736,7 @@
       </c>
       <c r="G49">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A49,SL_Sonuclari!A:A),"")</f>
-        <v>208</v>
+        <v>220.5625</v>
       </c>
       <c r="H49">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A49,SL_Sonuclari!A:A),"")</f>
@@ -64549,11 +64749,11 @@
       </c>
       <c r="B50">
         <f>COUNTIF(SL_Sonuclari!C:H,A50)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C50" s="5">
         <f t="shared" si="1"/>
-        <v>213.09230769230771</v>
+        <v>218.63516483516483</v>
       </c>
       <c r="D50">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A50,SL_Sonuclari!A:A),"")</f>
@@ -64569,7 +64769,7 @@
       </c>
       <c r="G50">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A50,SL_Sonuclari!A:A),"")</f>
-        <v>186.28571428571428</v>
+        <v>214</v>
       </c>
       <c r="H50">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A50,SL_Sonuclari!A:A),"")</f>
@@ -64648,11 +64848,11 @@
       </c>
       <c r="B53">
         <f>COUNTIF(SL_Sonuclari!C:H,A53)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C53" s="5">
         <f t="shared" si="1"/>
-        <v>232.25665266106444</v>
+        <v>240.04166666666666</v>
       </c>
       <c r="D53">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A53,SL_Sonuclari!A:A),"")</f>
@@ -64660,11 +64860,11 @@
       </c>
       <c r="E53">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A53,SL_Sonuclari!A:A),"")</f>
-        <v>227.76470588235293</v>
+        <v>237.83333333333334</v>
       </c>
       <c r="F53">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A53,SL_Sonuclari!A:A),"")</f>
-        <v>260.5</v>
+        <v>281.57142857142856</v>
       </c>
       <c r="G53">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A53,SL_Sonuclari!A:A),"")</f>
@@ -64850,7 +65050,7 @@
       </c>
       <c r="B59">
         <f>COUNTIF(SL_Sonuclari!C:H,A59)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C59" s="5">
         <f t="shared" si="1"/>

--- a/SLIStatistik.xlsx
+++ b/SLIStatistik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\ReadExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9127EBD7-8F97-408C-882C-328AFA6F167B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B621D87-CCC3-49C6-9317-4C0EFAC87173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
   </bookViews>
@@ -612,13 +612,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21120D27-1448-4179-993C-6B3BE739480A}">
-  <dimension ref="A1:L412"/>
+  <dimension ref="A1:L414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B393" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A413" sqref="A413"/>
+      <selection pane="bottomRight" activeCell="A415" sqref="A415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13223,6 +13223,70 @@
         <v>14</v>
       </c>
     </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A413" s="2">
+        <v>411</v>
+      </c>
+      <c r="B413" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C413" s="2">
+        <v>6</v>
+      </c>
+      <c r="D413" s="2">
+        <v>37</v>
+      </c>
+      <c r="E413" s="2">
+        <v>66</v>
+      </c>
+      <c r="F413" s="2">
+        <v>72</v>
+      </c>
+      <c r="G413" s="2">
+        <v>77</v>
+      </c>
+      <c r="H413" s="2">
+        <v>83</v>
+      </c>
+      <c r="I413" s="2">
+        <v>1</v>
+      </c>
+      <c r="J413" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A414" s="2">
+        <v>412</v>
+      </c>
+      <c r="B414" s="1">
+        <v>45012</v>
+      </c>
+      <c r="C414" s="2">
+        <v>23</v>
+      </c>
+      <c r="D414" s="2">
+        <v>25</v>
+      </c>
+      <c r="E414" s="2">
+        <v>36</v>
+      </c>
+      <c r="F414" s="2">
+        <v>38</v>
+      </c>
+      <c r="G414" s="2">
+        <v>82</v>
+      </c>
+      <c r="H414" s="2">
+        <v>83</v>
+      </c>
+      <c r="I414" s="2">
+        <v>16</v>
+      </c>
+      <c r="J414" s="2">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J311">
     <sortCondition ref="B2:B311"/>
@@ -13234,10 +13298,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8BCBFC-83B0-4863-9D9A-FF955DDDA58C}">
-  <dimension ref="A1:H411"/>
+  <dimension ref="A1:H413"/>
   <sheetViews>
-    <sheetView topLeftCell="A379" workbookViewId="0">
-      <selection activeCell="A412" sqref="A412"/>
+    <sheetView topLeftCell="A380" workbookViewId="0">
+      <selection activeCell="C415" sqref="C414:C415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23931,6 +23995,58 @@
         <v>55</v>
       </c>
     </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>410</v>
+      </c>
+      <c r="B412" s="1">
+        <v>45008</v>
+      </c>
+      <c r="C412">
+        <v>8</v>
+      </c>
+      <c r="D412">
+        <v>11</v>
+      </c>
+      <c r="E412">
+        <v>21</v>
+      </c>
+      <c r="F412">
+        <v>43</v>
+      </c>
+      <c r="G412">
+        <v>45</v>
+      </c>
+      <c r="H412">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>411</v>
+      </c>
+      <c r="B413" s="1">
+        <v>45011</v>
+      </c>
+      <c r="C413">
+        <v>7</v>
+      </c>
+      <c r="D413">
+        <v>9</v>
+      </c>
+      <c r="E413">
+        <v>40</v>
+      </c>
+      <c r="F413">
+        <v>43</v>
+      </c>
+      <c r="G413">
+        <v>49</v>
+      </c>
+      <c r="H413">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H311">
     <sortCondition ref="B2:B311"/>
@@ -23941,10 +24057,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4513EEF-0F11-4AC5-A4C7-CB00A18EA83B}">
-  <dimension ref="A1:H1264"/>
+  <dimension ref="A1:H1265"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1237" workbookViewId="0">
-      <selection activeCell="A1265" sqref="A1265"/>
+      <selection activeCell="A1266" sqref="A1266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56814,6 +56930,32 @@
       </c>
       <c r="H1264">
         <v>4</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1265">
+        <v>1654</v>
+      </c>
+      <c r="B1265" s="1">
+        <v>45011</v>
+      </c>
+      <c r="C1265">
+        <v>5</v>
+      </c>
+      <c r="D1265">
+        <v>14</v>
+      </c>
+      <c r="E1265">
+        <v>25</v>
+      </c>
+      <c r="F1265">
+        <v>29</v>
+      </c>
+      <c r="G1265">
+        <v>33</v>
+      </c>
+      <c r="H1265">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -57456,19 +57598,19 @@
       </c>
       <c r="B10">
         <f>COUNTIF(CSL_Sonuclari!C:J,A10)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" si="0"/>
-        <v>4218.3142857142857</v>
+        <v>4277.1714285714288</v>
       </c>
       <c r="D10">
         <f>COUNTIF(CSL_Sonuclari!J:J,A10)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" si="1"/>
-        <v>268</v>
+        <v>680</v>
       </c>
       <c r="F10" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A10)</f>
@@ -57516,7 +57658,7 @@
       </c>
       <c r="Q10">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D10,"")</f>
-        <v>268</v>
+        <v>680</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -57732,11 +57874,11 @@
       </c>
       <c r="B14">
         <f>COUNTIF(CSL_Sonuclari!C:J,A14)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="0"/>
-        <v>4299.5423623995057</v>
+        <v>4689.1187384044524</v>
       </c>
       <c r="D14">
         <f>COUNTIF(CSL_Sonuclari!J:J,A14)</f>
@@ -57756,31 +57898,31 @@
       </c>
       <c r="H14">
         <f>COUNTIF(CSL_Sonuclari!C:H,A14)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" si="3"/>
-        <v>5791.5593073593072</v>
+        <v>6336.9662337662339</v>
       </c>
       <c r="J14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H14,"")</f>
-        <v>8372</v>
+        <v>8736</v>
       </c>
       <c r="K14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H14,"")</f>
-        <v>6035.8571428571431</v>
+        <v>6298.2857142857147</v>
       </c>
       <c r="L14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H14,"")</f>
-        <v>4192.272727272727</v>
+        <v>4374.545454545455</v>
       </c>
       <c r="M14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H14,"")</f>
-        <v>3848.666666666667</v>
+        <v>5484</v>
       </c>
       <c r="N14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H14,"")</f>
-        <v>6509</v>
+        <v>6792</v>
       </c>
       <c r="O14" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H14,"")</f>
@@ -57801,11 +57943,11 @@
       </c>
       <c r="B15">
         <f>COUNTIF(CSL_Sonuclari!C:J,A15)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="0"/>
-        <v>3379.5714285714284</v>
+        <v>3615.9744897959181</v>
       </c>
       <c r="D15">
         <f>COUNTIF(CSL_Sonuclari!J:J,A15)</f>
@@ -57825,31 +57967,31 @@
       </c>
       <c r="H15">
         <f>COUNTIF(CSL_Sonuclari!C:H,A15)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I15" s="5">
         <f t="shared" si="3"/>
-        <v>4500</v>
+        <v>4830.9642857142853</v>
       </c>
       <c r="J15">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H15,"")</f>
-        <v>4081</v>
+        <v>4275.3333333333339</v>
       </c>
       <c r="K15">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H15,"")</f>
-        <v>5871</v>
+        <v>6150.5714285714284</v>
       </c>
       <c r="L15">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H15,"")</f>
-        <v>4197</v>
+        <v>4980.25</v>
       </c>
       <c r="M15">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H15,"")</f>
-        <v>5075</v>
+        <v>5316.6666666666661</v>
       </c>
       <c r="N15">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H15,"")</f>
-        <v>3276</v>
+        <v>3432</v>
       </c>
       <c r="O15" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H15,"")</f>
@@ -57870,11 +58012,11 @@
       </c>
       <c r="B16">
         <f>COUNTIF(CSL_Sonuclari!C:J,A16)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
-        <v>2617.25</v>
+        <v>2858.2952380952379</v>
       </c>
       <c r="D16">
         <f>COUNTIF(CSL_Sonuclari!J:J,A16)</f>
@@ -57894,11 +58036,11 @@
       </c>
       <c r="H16">
         <f>COUNTIF(CSL_Sonuclari!C:H,A16)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I16" s="5">
         <f t="shared" si="3"/>
-        <v>3641.875</v>
+        <v>4003.4428571428571</v>
       </c>
       <c r="J16" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H16,"")</f>
@@ -57910,19 +58052,19 @@
       </c>
       <c r="L16">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H16,"")</f>
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M16">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H16,"")</f>
-        <v>5350</v>
+        <v>5564</v>
       </c>
       <c r="N16">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H16,"")</f>
-        <v>4487.5</v>
+        <v>5530.5714285714284</v>
       </c>
       <c r="O16">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H16,"")</f>
-        <v>4605</v>
+        <v>4789.2</v>
       </c>
       <c r="P16">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F16,"")</f>
@@ -57939,11 +58081,11 @@
       </c>
       <c r="B17">
         <f>COUNTIF(CSL_Sonuclari!C:J,A17)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="0"/>
-        <v>3451.8777777777777</v>
+        <v>3520.5444444444443</v>
       </c>
       <c r="D17">
         <f>COUNTIF(CSL_Sonuclari!J:J,A17)</f>
@@ -57955,11 +58097,11 @@
       </c>
       <c r="F17" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A17)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G17" s="8">
         <f t="shared" si="2"/>
-        <v>1421</v>
+        <v>1833</v>
       </c>
       <c r="H17">
         <f>COUNTIF(CSL_Sonuclari!C:H,A17)</f>
@@ -57995,7 +58137,7 @@
       </c>
       <c r="P17">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F17,"")</f>
-        <v>1421</v>
+        <v>1833</v>
       </c>
       <c r="Q17">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D17,"")</f>
@@ -58284,11 +58426,11 @@
       </c>
       <c r="B22">
         <f>COUNTIF(CSL_Sonuclari!C:J,A22)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
-        <v>4475.7694444444451</v>
+        <v>4856.916666666667</v>
       </c>
       <c r="D22">
         <f>COUNTIF(CSL_Sonuclari!J:J,A22)</f>
@@ -58308,11 +58450,11 @@
       </c>
       <c r="H22">
         <f>COUNTIF(CSL_Sonuclari!C:H,A22)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I22" s="5">
         <f t="shared" si="3"/>
-        <v>6538.6541666666672</v>
+        <v>7110.375</v>
       </c>
       <c r="J22" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H22,"")</f>
@@ -58324,19 +58466,19 @@
       </c>
       <c r="L22">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H22,"")</f>
-        <v>6563.666666666667</v>
+        <v>8175</v>
       </c>
       <c r="M22">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H22,"")</f>
-        <v>6997.7000000000007</v>
+        <v>7239</v>
       </c>
       <c r="N22">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H22,"")</f>
-        <v>6380</v>
+        <v>6600</v>
       </c>
       <c r="O22">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H22,"")</f>
-        <v>6213.25</v>
+        <v>6427.5</v>
       </c>
       <c r="P22">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F22,"")</f>
@@ -59733,11 +59875,11 @@
       </c>
       <c r="B43">
         <f>COUNTIF(CSL_Sonuclari!C:J,A43)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43" s="5">
         <f t="shared" si="4"/>
-        <v>3787.5142857142855</v>
+        <v>4142.7071428571426</v>
       </c>
       <c r="D43">
         <f>COUNTIF(CSL_Sonuclari!J:J,A43)</f>
@@ -59757,31 +59899,31 @@
       </c>
       <c r="H43">
         <f>COUNTIF(CSL_Sonuclari!C:H,A43)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I43" s="5">
         <f t="shared" si="7"/>
-        <v>4961.32</v>
+        <v>5458.59</v>
       </c>
       <c r="J43">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H43,"")</f>
-        <v>6413.333333333333</v>
+        <v>6660</v>
       </c>
       <c r="K43">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H43,"")</f>
-        <v>4784</v>
+        <v>6500.25</v>
       </c>
       <c r="L43">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H43,"")</f>
-        <v>4636.666666666667</v>
+        <v>4815</v>
       </c>
       <c r="M43">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H43,"")</f>
-        <v>6346.5999999999995</v>
+        <v>6590.7</v>
       </c>
       <c r="N43">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H43,"")</f>
-        <v>2626</v>
+        <v>2727</v>
       </c>
       <c r="O43" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H43,"")</f>
@@ -59802,11 +59944,11 @@
       </c>
       <c r="B44">
         <f>COUNTIF(CSL_Sonuclari!C:J,A44)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C44" s="5">
         <f t="shared" si="4"/>
-        <v>5173.1846153846154</v>
+        <v>5402.3609523809519</v>
       </c>
       <c r="D44">
         <f>COUNTIF(CSL_Sonuclari!J:J,A44)</f>
@@ -59826,11 +59968,11 @@
       </c>
       <c r="H44">
         <f>COUNTIF(CSL_Sonuclari!C:H,A44)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I44" s="5">
         <f t="shared" si="7"/>
-        <v>8009.6410256410263</v>
+        <v>8391.6015873015876</v>
       </c>
       <c r="J44" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H44,"")</f>
@@ -59846,15 +59988,15 @@
       </c>
       <c r="M44">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H44,"")</f>
-        <v>10530</v>
+        <v>10881</v>
       </c>
       <c r="N44">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H44,"")</f>
-        <v>7656.9230769230771</v>
+        <v>8257.0714285714275</v>
       </c>
       <c r="O44">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H44,"")</f>
-        <v>5842</v>
+        <v>6036.7333333333327</v>
       </c>
       <c r="P44">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F44,"")</f>
@@ -60285,11 +60427,11 @@
       </c>
       <c r="B51">
         <f>COUNTIF(CSL_Sonuclari!C:J,A51)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C51" s="5">
         <f t="shared" si="4"/>
-        <v>3419.7638888888887</v>
+        <v>3572.6666666666665</v>
       </c>
       <c r="D51">
         <f>COUNTIF(CSL_Sonuclari!J:J,A51)</f>
@@ -60309,27 +60451,27 @@
       </c>
       <c r="H51">
         <f>COUNTIF(CSL_Sonuclari!C:H,A51)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I51" s="5">
         <f t="shared" si="7"/>
-        <v>4711.895833333333</v>
+        <v>4941.25</v>
       </c>
       <c r="J51">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H51,"")</f>
-        <v>6488.75</v>
+        <v>6980</v>
       </c>
       <c r="K51">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H51,"")</f>
-        <v>7414.333333333333</v>
+        <v>7670</v>
       </c>
       <c r="L51">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H51,"")</f>
-        <v>4350</v>
+        <v>4500</v>
       </c>
       <c r="M51">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H51,"")</f>
-        <v>594.5</v>
+        <v>615</v>
       </c>
       <c r="N51" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H51,"")</f>
@@ -60837,11 +60979,11 @@
       </c>
       <c r="B59">
         <f>COUNTIF(CSL_Sonuclari!C:J,A59)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C59" s="5">
         <f t="shared" si="4"/>
-        <v>1801.203125</v>
+        <v>1903.953125</v>
       </c>
       <c r="D59">
         <f>COUNTIF(CSL_Sonuclari!J:J,A59)</f>
@@ -60853,11 +60995,11 @@
       </c>
       <c r="F59" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A59)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G59" s="8">
         <f t="shared" si="6"/>
-        <v>227</v>
+        <v>638</v>
       </c>
       <c r="H59">
         <f>COUNTIF(CSL_Sonuclari!C:H,A59)</f>
@@ -60893,7 +61035,7 @@
       </c>
       <c r="P59">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F59,"")</f>
-        <v>227</v>
+        <v>638</v>
       </c>
       <c r="Q59">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D59,"")</f>
@@ -61113,11 +61255,11 @@
       </c>
       <c r="B63">
         <f>COUNTIF(CSL_Sonuclari!C:J,A63)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C63" s="5">
         <f t="shared" si="4"/>
-        <v>3682.060606060606</v>
+        <v>4066.1318181818183</v>
       </c>
       <c r="D63">
         <f>COUNTIF(CSL_Sonuclari!J:J,A63)</f>
@@ -61137,11 +61279,11 @@
       </c>
       <c r="H63">
         <f>COUNTIF(CSL_Sonuclari!C:H,A63)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I63" s="5">
         <f t="shared" si="7"/>
-        <v>5209.590909090909</v>
+        <v>5785.6977272727272</v>
       </c>
       <c r="J63" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H63,"")</f>
@@ -61153,19 +61295,19 @@
       </c>
       <c r="L63">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H63,"")</f>
-        <v>7252</v>
+        <v>7511</v>
       </c>
       <c r="M63">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H63,"")</f>
-        <v>3976</v>
+        <v>5678.2000000000007</v>
       </c>
       <c r="N63">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H63,"")</f>
-        <v>3996.363636363636</v>
+        <v>4139.090909090909</v>
       </c>
       <c r="O63">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H63,"")</f>
-        <v>5614</v>
+        <v>5814.5</v>
       </c>
       <c r="P63">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F63,"")</f>
@@ -61458,11 +61600,11 @@
       </c>
       <c r="B68">
         <f>COUNTIF(CSL_Sonuclari!C:J,A68)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C68" s="5">
         <f t="shared" si="8"/>
-        <v>6021.6897546897544</v>
+        <v>6286.2738095238092</v>
       </c>
       <c r="D68">
         <f>COUNTIF(CSL_Sonuclari!J:J,A68)</f>
@@ -61482,31 +61624,31 @@
       </c>
       <c r="H68">
         <f>COUNTIF(CSL_Sonuclari!C:H,A68)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I68" s="5">
         <f t="shared" si="11"/>
-        <v>8046.9656565656569</v>
+        <v>8417.3833333333332</v>
       </c>
       <c r="J68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H68,"")</f>
-        <v>7248</v>
+        <v>7474.5</v>
       </c>
       <c r="K68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H68,"")</f>
-        <v>6263.272727272727</v>
+        <v>7053.75</v>
       </c>
       <c r="L68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H68,"")</f>
-        <v>8387.5555555555547</v>
+        <v>8649.6666666666661</v>
       </c>
       <c r="M68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H68,"")</f>
-        <v>10240</v>
+        <v>10560</v>
       </c>
       <c r="N68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H68,"")</f>
-        <v>8096</v>
+        <v>8349</v>
       </c>
       <c r="O68" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H68,"")</f>
@@ -61734,11 +61876,11 @@
       </c>
       <c r="B72">
         <f>COUNTIF(CSL_Sonuclari!C:J,A72)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C72" s="5">
         <f t="shared" si="8"/>
-        <v>3790.7291993720569</v>
+        <v>4181.2673469387755</v>
       </c>
       <c r="D72">
         <f>COUNTIF(CSL_Sonuclari!J:J,A72)</f>
@@ -61758,15 +61900,15 @@
       </c>
       <c r="H72">
         <f>COUNTIF(CSL_Sonuclari!C:H,A72)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I72" s="5">
         <f t="shared" si="11"/>
-        <v>5108.2208791208795</v>
+        <v>5654.9742857142855</v>
       </c>
       <c r="J72">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H72,"")</f>
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K72" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H72,"")</f>
@@ -61774,19 +61916,19 @@
       </c>
       <c r="L72">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H72,"")</f>
-        <v>9331</v>
+        <v>9933</v>
       </c>
       <c r="M72">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H72,"")</f>
-        <v>4076.5</v>
+        <v>4339.5</v>
       </c>
       <c r="N72">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H72,"")</f>
-        <v>6966.1428571428578</v>
+        <v>7415.5714285714284</v>
       </c>
       <c r="O72">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H72,"")</f>
-        <v>5105.4615384615381</v>
+        <v>6520.8</v>
       </c>
       <c r="P72">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F72,"")</f>
@@ -61941,19 +62083,19 @@
       </c>
       <c r="B75">
         <f>COUNTIF(CSL_Sonuclari!C:J,A75)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C75" s="5">
         <f t="shared" si="8"/>
-        <v>3838.1791666666663</v>
+        <v>3889.5541666666663</v>
       </c>
       <c r="D75">
         <f>COUNTIF(CSL_Sonuclari!J:J,A75)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E75" s="5">
         <f t="shared" si="9"/>
-        <v>1140</v>
+        <v>1551</v>
       </c>
       <c r="F75" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A75)</f>
@@ -62001,7 +62143,7 @@
       </c>
       <c r="Q75">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D75,"")</f>
-        <v>1140</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
@@ -63045,11 +63187,11 @@
       </c>
       <c r="B91">
         <f>COUNTIF(CSL_Sonuclari!C:J,A91)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C91" s="5">
         <f t="shared" si="8"/>
-        <v>6079.6247086247085</v>
+        <v>6333.1893939393931</v>
       </c>
       <c r="D91">
         <f>COUNTIF(CSL_Sonuclari!J:J,A91)</f>
@@ -63069,27 +63211,27 @@
       </c>
       <c r="H91">
         <f>COUNTIF(CSL_Sonuclari!C:H,A91)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I91" s="5">
         <f t="shared" si="11"/>
-        <v>8624.9370629370624</v>
+        <v>9005.2840909090901</v>
       </c>
       <c r="J91">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H91,"")</f>
-        <v>7885</v>
+        <v>8706</v>
       </c>
       <c r="K91">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H91,"")</f>
-        <v>7357.3846153846152</v>
+        <v>7551</v>
       </c>
       <c r="L91">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H91,"")</f>
-        <v>10156.363636363636</v>
+        <v>10423.636363636362</v>
       </c>
       <c r="M91">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H91,"")</f>
-        <v>9101</v>
+        <v>9340.5</v>
       </c>
       <c r="N91" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H91,"")</f>
@@ -63396,15 +63538,15 @@
       </c>
       <c r="B9">
         <f>COUNTIF(SL_Sonuclari!C:H,A9)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>191.26798245614034</v>
+        <v>193.74166666666667</v>
       </c>
       <c r="D9">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A9,SL_Sonuclari!A:A),"")</f>
-        <v>212.10526315789474</v>
+        <v>222</v>
       </c>
       <c r="E9">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A9,SL_Sonuclari!A:A),"")</f>
@@ -63759,11 +63901,11 @@
       </c>
       <c r="B20">
         <f>COUNTIF(SL_Sonuclari!C:H,A20)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
-        <v>198.20202020202021</v>
+        <v>200.59172608437314</v>
       </c>
       <c r="D20">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A20,SL_Sonuclari!A:A),"")</f>
@@ -63775,7 +63917,7 @@
       </c>
       <c r="F20">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A20,SL_Sonuclari!A:A),"")</f>
-        <v>247.5</v>
+        <v>257.05882352941177</v>
       </c>
       <c r="G20">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A20,SL_Sonuclari!A:A),"")</f>
@@ -63825,7 +63967,7 @@
       </c>
       <c r="B22">
         <f>COUNTIF(SL_Sonuclari!C:H,A22)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
@@ -63891,11 +64033,11 @@
       </c>
       <c r="B24">
         <f>COUNTIF(SL_Sonuclari!C:H,A24)</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C24" s="5">
         <f t="shared" si="0"/>
-        <v>185.44444444444446</v>
+        <v>193.01960784313724</v>
       </c>
       <c r="D24" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A24,SL_Sonuclari!A:A),"")</f>
@@ -63911,7 +64053,7 @@
       </c>
       <c r="G24">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A24,SL_Sonuclari!A:A),"")</f>
-        <v>217.33333333333334</v>
+        <v>240.05882352941177</v>
       </c>
       <c r="H24">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A24,SL_Sonuclari!A:A),"")</f>
@@ -63957,11 +64099,11 @@
       </c>
       <c r="B26">
         <f>COUNTIF(SL_Sonuclari!C:H,A26)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" s="5">
         <f t="shared" si="0"/>
-        <v>167.28223039215686</v>
+        <v>172.88986928104575</v>
       </c>
       <c r="D26" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A26,SL_Sonuclari!A:A),"")</f>
@@ -63973,7 +64115,7 @@
       </c>
       <c r="F26">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A26,SL_Sonuclari!A:A),"")</f>
-        <v>209.125</v>
+        <v>231.55555555555554</v>
       </c>
       <c r="G26">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A26,SL_Sonuclari!A:A),"")</f>
@@ -64023,11 +64165,11 @@
       </c>
       <c r="B28">
         <f>COUNTIF(SL_Sonuclari!C:H,A28)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" s="5">
         <f t="shared" si="0"/>
-        <v>199.33809523809524</v>
+        <v>204.38392857142856</v>
       </c>
       <c r="D28">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A28,SL_Sonuclari!A:A),"")</f>
@@ -64035,7 +64177,7 @@
       </c>
       <c r="E28">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A28,SL_Sonuclari!A:A),"")</f>
-        <v>167.8</v>
+        <v>182.9375</v>
       </c>
       <c r="F28">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A28,SL_Sonuclari!A:A),"")</f>
@@ -64155,11 +64297,11 @@
       </c>
       <c r="B32">
         <f>COUNTIF(SL_Sonuclari!C:H,A32)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C32" s="5">
         <f t="shared" si="0"/>
-        <v>222.08500000000001</v>
+        <v>225.02884615384616</v>
       </c>
       <c r="D32" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A32,SL_Sonuclari!A:A),"")</f>
@@ -64179,7 +64321,7 @@
       </c>
       <c r="H32">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A32,SL_Sonuclari!A:A),"")</f>
-        <v>256.92</v>
+        <v>262.80769230769232</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -64221,11 +64363,11 @@
       </c>
       <c r="B34">
         <f>COUNTIF(SL_Sonuclari!C:H,A34)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C34" s="5">
         <f t="shared" ref="C34:C61" si="1">AVERAGE(D34:H34)</f>
-        <v>274.07142857142861</v>
+        <v>277.10606060606057</v>
       </c>
       <c r="D34" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A34,SL_Sonuclari!A:A),"")</f>
@@ -64245,7 +64387,7 @@
       </c>
       <c r="H34">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A34,SL_Sonuclari!A:A),"")</f>
-        <v>210.71428571428572</v>
+        <v>219.81818181818181</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -64320,15 +64462,15 @@
       </c>
       <c r="B37">
         <f>COUNTIF(SL_Sonuclari!C:H,A37)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C37" s="5">
         <f t="shared" si="1"/>
-        <v>184.73888888888891</v>
+        <v>186.69157706093188</v>
       </c>
       <c r="D37">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A37,SL_Sonuclari!A:A),"")</f>
-        <v>229.4</v>
+        <v>235.25806451612902</v>
       </c>
       <c r="E37">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A37,SL_Sonuclari!A:A),"")</f>
@@ -64485,7 +64627,7 @@
       </c>
       <c r="B42">
         <f>COUNTIF(SL_Sonuclari!C:H,A42)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C42" s="5">
         <f t="shared" si="1"/>
@@ -64683,11 +64825,11 @@
       </c>
       <c r="B48">
         <f>COUNTIF(SL_Sonuclari!C:H,A48)</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C48" s="5">
         <f t="shared" si="1"/>
-        <v>227.00285714285715</v>
+        <v>229.45054945054946</v>
       </c>
       <c r="D48">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A48,SL_Sonuclari!A:A),"")</f>
@@ -64695,7 +64837,7 @@
       </c>
       <c r="E48">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A48,SL_Sonuclari!A:A),"")</f>
-        <v>220.08</v>
+        <v>227.42307692307693</v>
       </c>
       <c r="F48">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A48,SL_Sonuclari!A:A),"")</f>

--- a/SLIStatistik.xlsx
+++ b/SLIStatistik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\ReadExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B621D87-CCC3-49C6-9317-4C0EFAC87173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5575FA1F-CD11-4AF3-8601-CFB133944064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
   </bookViews>
   <sheets>
     <sheet name="CSL_Sonuclari" sheetId="2" r:id="rId1"/>
@@ -13301,7 +13301,7 @@
   <dimension ref="A1:H413"/>
   <sheetViews>
     <sheetView topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="C415" sqref="C414:C415"/>
+      <selection activeCell="B380" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24060,12 +24060,12 @@
   <dimension ref="A1:H1265"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1237" workbookViewId="0">
-      <selection activeCell="A1266" sqref="A1266"/>
+      <selection activeCell="P1257" sqref="P1257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -56911,7 +56911,7 @@
         <v>1653</v>
       </c>
       <c r="B1264" s="1">
-        <v>110750</v>
+        <v>45007</v>
       </c>
       <c r="C1264">
         <v>5</v>
@@ -56959,6 +56959,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H1265">
+    <sortCondition ref="B2:B1265"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/SLIStatistik.xlsx
+++ b/SLIStatistik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\ReadExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5575FA1F-CD11-4AF3-8601-CFB133944064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3BF5A8-455F-47E5-8A7A-ABF038F92890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
   </bookViews>
   <sheets>
     <sheet name="CSL_Sonuclari" sheetId="2" r:id="rId1"/>
@@ -612,13 +612,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21120D27-1448-4179-993C-6B3BE739480A}">
-  <dimension ref="A1:L414"/>
+  <dimension ref="A1:L415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B393" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A415" sqref="A415"/>
+      <selection pane="bottomRight" activeCell="A416" sqref="A416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13287,6 +13287,38 @@
         <v>34</v>
       </c>
     </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A415" s="2">
+        <v>413</v>
+      </c>
+      <c r="B415" s="1">
+        <v>45014</v>
+      </c>
+      <c r="C415" s="2">
+        <v>21</v>
+      </c>
+      <c r="D415" s="2">
+        <v>33</v>
+      </c>
+      <c r="E415" s="2">
+        <v>49</v>
+      </c>
+      <c r="F415" s="2">
+        <v>50</v>
+      </c>
+      <c r="G415" s="2">
+        <v>51</v>
+      </c>
+      <c r="H415" s="2">
+        <v>55</v>
+      </c>
+      <c r="I415" s="2">
+        <v>76</v>
+      </c>
+      <c r="J415" s="2">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J311">
     <sortCondition ref="B2:B311"/>
@@ -13298,10 +13330,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8BCBFC-83B0-4863-9D9A-FF955DDDA58C}">
-  <dimension ref="A1:H413"/>
+  <dimension ref="A1:H415"/>
   <sheetViews>
-    <sheetView topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="B380" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A383" workbookViewId="0">
+      <selection activeCell="A416" sqref="A416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24047,6 +24079,58 @@
         <v>57</v>
       </c>
     </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>412</v>
+      </c>
+      <c r="B414" s="1">
+        <v>45013</v>
+      </c>
+      <c r="C414">
+        <v>16</v>
+      </c>
+      <c r="D414">
+        <v>25</v>
+      </c>
+      <c r="E414">
+        <v>32</v>
+      </c>
+      <c r="F414">
+        <v>33</v>
+      </c>
+      <c r="G414">
+        <v>38</v>
+      </c>
+      <c r="H414">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>413</v>
+      </c>
+      <c r="B415" s="1">
+        <v>45015</v>
+      </c>
+      <c r="C415">
+        <v>1</v>
+      </c>
+      <c r="D415">
+        <v>25</v>
+      </c>
+      <c r="E415">
+        <v>33</v>
+      </c>
+      <c r="F415">
+        <v>35</v>
+      </c>
+      <c r="G415">
+        <v>53</v>
+      </c>
+      <c r="H415">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H311">
     <sortCondition ref="B2:B311"/>
@@ -24057,10 +24141,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4513EEF-0F11-4AC5-A4C7-CB00A18EA83B}">
-  <dimension ref="A1:H1265"/>
+  <dimension ref="A1:H1266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1237" workbookViewId="0">
-      <selection activeCell="P1257" sqref="P1257"/>
+    <sheetView topLeftCell="A1237" workbookViewId="0">
+      <selection activeCell="A1267" sqref="A1267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56956,6 +57040,32 @@
       </c>
       <c r="H1265">
         <v>3</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1266">
+        <v>1655</v>
+      </c>
+      <c r="B1266" s="1">
+        <v>45014</v>
+      </c>
+      <c r="C1266">
+        <v>11</v>
+      </c>
+      <c r="D1266">
+        <v>13</v>
+      </c>
+      <c r="E1266">
+        <v>30</v>
+      </c>
+      <c r="F1266">
+        <v>31</v>
+      </c>
+      <c r="G1266">
+        <v>34</v>
+      </c>
+      <c r="H1266">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -57118,11 +57228,11 @@
       </c>
       <c r="B3">
         <f>COUNTIF(CSL_Sonuclari!C:J,A3)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="5">
         <f t="shared" si="0"/>
-        <v>3174.875</v>
+        <v>3546.25</v>
       </c>
       <c r="D3">
         <f>COUNTIF(CSL_Sonuclari!J:J,A3)</f>
@@ -57142,35 +57252,35 @@
       </c>
       <c r="H3">
         <f>COUNTIF(CSL_Sonuclari!C:H,A3)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" s="5">
         <f t="shared" si="3"/>
-        <v>3997.8333333333335</v>
+        <v>4493</v>
       </c>
       <c r="J3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H3,"")</f>
-        <v>6307</v>
+        <v>6678</v>
       </c>
       <c r="K3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H3,"")</f>
-        <v>2142</v>
+        <v>2268</v>
       </c>
       <c r="L3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H3,"")</f>
-        <v>5542</v>
+        <v>5868</v>
       </c>
       <c r="M3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H3,"")</f>
-        <v>2754</v>
+        <v>2916</v>
       </c>
       <c r="N3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H3,"")</f>
-        <v>2601</v>
+        <v>4314</v>
       </c>
       <c r="O3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H3,"")</f>
-        <v>4641</v>
+        <v>4914</v>
       </c>
       <c r="P3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F3,"")</f>
@@ -57463,11 +57573,11 @@
       </c>
       <c r="B8">
         <f>COUNTIF(CSL_Sonuclari!C:J,A8)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" si="0"/>
-        <v>2655.6214285714286</v>
+        <v>2738.2214285714285</v>
       </c>
       <c r="D8">
         <f>COUNTIF(CSL_Sonuclari!J:J,A8)</f>
@@ -57479,11 +57589,11 @@
       </c>
       <c r="F8" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A8)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="2"/>
-        <v>434</v>
+        <v>847</v>
       </c>
       <c r="H8">
         <f>COUNTIF(CSL_Sonuclari!C:H,A8)</f>
@@ -57519,7 +57629,7 @@
       </c>
       <c r="P8">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F8,"")</f>
-        <v>434</v>
+        <v>847</v>
       </c>
       <c r="Q8">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D8,"")</f>
@@ -57532,11 +57642,11 @@
       </c>
       <c r="B9">
         <f>COUNTIF(CSL_Sonuclari!C:J,A9)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>3864.2142857142858</v>
+        <v>4165.5892857142853</v>
       </c>
       <c r="D9">
         <f>COUNTIF(CSL_Sonuclari!J:J,A9)</f>
@@ -57556,11 +57666,11 @@
       </c>
       <c r="H9">
         <f>COUNTIF(CSL_Sonuclari!C:H,A9)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" si="3"/>
-        <v>5053.3</v>
+        <v>5475.2250000000004</v>
       </c>
       <c r="J9" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H9,"")</f>
@@ -57568,23 +57678,23 @@
       </c>
       <c r="K9">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H9,"")</f>
-        <v>5190</v>
+        <v>5449.5</v>
       </c>
       <c r="L9">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H9,"")</f>
-        <v>3262.5</v>
+        <v>3425.625</v>
       </c>
       <c r="M9">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H9,"")</f>
-        <v>3424</v>
+        <v>4441.5</v>
       </c>
       <c r="N9">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H9,"")</f>
-        <v>5510</v>
+        <v>5785.5</v>
       </c>
       <c r="O9">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H9,"")</f>
-        <v>7880</v>
+        <v>8274</v>
       </c>
       <c r="P9">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F9,"")</f>
@@ -58843,11 +58953,11 @@
       </c>
       <c r="B28">
         <f>COUNTIF(CSL_Sonuclari!C:J,A28)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C28" s="5">
         <f t="shared" si="0"/>
-        <v>3518.6857142857143</v>
+        <v>3730.298701298701</v>
       </c>
       <c r="D28">
         <f>COUNTIF(CSL_Sonuclari!J:J,A28)</f>
@@ -58867,35 +58977,35 @@
       </c>
       <c r="H28">
         <f>COUNTIF(CSL_Sonuclari!C:H,A28)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I28" s="5">
         <f t="shared" si="3"/>
-        <v>3808.7999999999997</v>
+        <v>4055.681818181818</v>
       </c>
       <c r="J28">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H28,"")</f>
-        <v>7800</v>
+        <v>8125</v>
       </c>
       <c r="K28">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H28,"")</f>
-        <v>4324.7999999999993</v>
+        <v>5034.090909090909</v>
       </c>
       <c r="L28">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H28,"")</f>
-        <v>3768</v>
+        <v>3925</v>
       </c>
       <c r="M28">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H28,"")</f>
-        <v>6696</v>
+        <v>6975</v>
       </c>
       <c r="N28">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H28,"")</f>
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="O28">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H28,"")</f>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P28">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F28,"")</f>
@@ -59119,19 +59229,19 @@
       </c>
       <c r="B32">
         <f>COUNTIF(CSL_Sonuclari!C:J,A32)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C32" s="5">
         <f t="shared" si="0"/>
-        <v>3654.0527210884352</v>
+        <v>3713.0527210884352</v>
       </c>
       <c r="D32">
         <f>COUNTIF(CSL_Sonuclari!J:J,A32)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" s="5">
         <f t="shared" si="1"/>
-        <v>657</v>
+        <v>1070</v>
       </c>
       <c r="F32" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A32)</f>
@@ -59179,7 +59289,7 @@
       </c>
       <c r="Q32">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D32,"")</f>
-        <v>657</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -59809,11 +59919,11 @@
       </c>
       <c r="B42">
         <f>COUNTIF(CSL_Sonuclari!C:J,A42)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C42" s="5">
         <f t="shared" si="4"/>
-        <v>3791.9537037037039</v>
+        <v>4018.1736111111113</v>
       </c>
       <c r="D42">
         <f>COUNTIF(CSL_Sonuclari!J:J,A42)</f>
@@ -59833,23 +59943,23 @@
       </c>
       <c r="H42">
         <f>COUNTIF(CSL_Sonuclari!C:H,A42)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I42" s="5">
         <f t="shared" si="7"/>
-        <v>5215.6805555555557</v>
+        <v>5555.010416666667</v>
       </c>
       <c r="J42">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H42,"")</f>
-        <v>5652.8888888888887</v>
+        <v>6467</v>
       </c>
       <c r="K42">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H42,"")</f>
-        <v>4573.3333333333339</v>
+        <v>4736.666666666667</v>
       </c>
       <c r="L42">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H42,"")</f>
-        <v>5722.5</v>
+        <v>5926.875</v>
       </c>
       <c r="M42" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H42,"")</f>
@@ -59857,7 +59967,7 @@
       </c>
       <c r="N42">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H42,"")</f>
-        <v>4914</v>
+        <v>5089.5</v>
       </c>
       <c r="O42" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H42,"")</f>
@@ -60223,11 +60333,11 @@
       </c>
       <c r="B48">
         <f>COUNTIF(CSL_Sonuclari!C:J,A48)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C48" s="5">
         <f t="shared" si="4"/>
-        <v>4335.1402777777785</v>
+        <v>4937.5687500000004</v>
       </c>
       <c r="D48">
         <f>COUNTIF(CSL_Sonuclari!J:J,A48)</f>
@@ -60247,35 +60357,35 @@
       </c>
       <c r="H48">
         <f>COUNTIF(CSL_Sonuclari!C:H,A48)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I48" s="5">
         <f t="shared" si="7"/>
-        <v>5498.687037037038</v>
+        <v>6301.9250000000002</v>
       </c>
       <c r="J48">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H48,"")</f>
-        <v>8606</v>
+        <v>8937</v>
       </c>
       <c r="K48">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H48,"")</f>
-        <v>7501</v>
+        <v>7789.5</v>
       </c>
       <c r="L48">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H48,"")</f>
-        <v>4248.4000000000005</v>
+        <v>4411.8</v>
       </c>
       <c r="M48">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H48,"")</f>
-        <v>5466.5</v>
+        <v>5676.75</v>
       </c>
       <c r="N48">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H48,"")</f>
-        <v>3270.2222222222222</v>
+        <v>3396</v>
       </c>
       <c r="O48">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H48,"")</f>
-        <v>3900</v>
+        <v>7600.5</v>
       </c>
       <c r="P48">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F48,"")</f>
@@ -61741,11 +61851,11 @@
       </c>
       <c r="B70">
         <f>COUNTIF(CSL_Sonuclari!C:J,A70)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70" s="5">
         <f t="shared" si="8"/>
-        <v>3796.3571428571427</v>
+        <v>4016.4831168831174</v>
       </c>
       <c r="D70">
         <f>COUNTIF(CSL_Sonuclari!J:J,A70)</f>
@@ -61765,11 +61875,11 @@
       </c>
       <c r="H70">
         <f>COUNTIF(CSL_Sonuclari!C:H,A70)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I70" s="5">
         <f t="shared" si="11"/>
-        <v>4892.1000000000004</v>
+        <v>5200.2763636363643</v>
       </c>
       <c r="J70" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H70,"")</f>
@@ -61777,23 +61887,23 @@
       </c>
       <c r="K70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H70,"")</f>
-        <v>5094.5</v>
+        <v>5316</v>
       </c>
       <c r="L70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H70,"")</f>
-        <v>4466.5999999999995</v>
+        <v>5138.181818181818</v>
       </c>
       <c r="M70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H70,"")</f>
-        <v>3675.4</v>
+        <v>3835.2000000000003</v>
       </c>
       <c r="N70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H70,"")</f>
-        <v>5738.5</v>
+        <v>5988</v>
       </c>
       <c r="O70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H70,"")</f>
-        <v>5485.5</v>
+        <v>5724</v>
       </c>
       <c r="P70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F70,"")</f>
@@ -63343,15 +63453,15 @@
       </c>
       <c r="B3">
         <f>COUNTIF(SL_Sonuclari!C:H,A3)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="5">
         <f t="shared" si="0"/>
-        <v>100.83823529411765</v>
+        <v>103.95714285714286</v>
       </c>
       <c r="D3">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A3,SL_Sonuclari!A:A),"")</f>
-        <v>194.6764705882353</v>
+        <v>200.91428571428571</v>
       </c>
       <c r="E3" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A3,SL_Sonuclari!A:A),"")</f>
@@ -63871,11 +63981,11 @@
       </c>
       <c r="B19">
         <f>COUNTIF(SL_Sonuclari!C:H,A19)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
-        <v>152.61666666666667</v>
+        <v>172.93333333333331</v>
       </c>
       <c r="D19" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A19,SL_Sonuclari!A:A),"")</f>
@@ -63895,7 +64005,7 @@
       </c>
       <c r="H19">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A19,SL_Sonuclari!A:A),"")</f>
-        <v>108.25</v>
+        <v>169.2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -64003,11 +64113,11 @@
       </c>
       <c r="B23">
         <f>COUNTIF(SL_Sonuclari!C:H,A23)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
-        <v>197.48174603174601</v>
+        <v>202.69285714285712</v>
       </c>
       <c r="D23" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A23,SL_Sonuclari!A:A),"")</f>
@@ -64019,7 +64129,7 @@
       </c>
       <c r="F23">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A23,SL_Sonuclari!A:A),"")</f>
-        <v>203.55555555555554</v>
+        <v>224.4</v>
       </c>
       <c r="G23">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A23,SL_Sonuclari!A:A),"")</f>
@@ -64135,7 +64245,7 @@
       </c>
       <c r="B27">
         <f>COUNTIF(SL_Sonuclari!C:H,A27)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27" s="5">
         <f t="shared" si="0"/>
@@ -64399,11 +64509,11 @@
       </c>
       <c r="B35">
         <f>COUNTIF(SL_Sonuclari!C:H,A35)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C35" s="5">
         <f t="shared" si="1"/>
-        <v>198.9020202020202</v>
+        <v>207.44666666666663</v>
       </c>
       <c r="D35">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A35,SL_Sonuclari!A:A),"")</f>
@@ -64415,11 +64525,11 @@
       </c>
       <c r="F35">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A35,SL_Sonuclari!A:A),"")</f>
-        <v>182.45454545454547</v>
+        <v>201.66666666666666</v>
       </c>
       <c r="G35">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A35,SL_Sonuclari!A:A),"")</f>
-        <v>176.88888888888889</v>
+        <v>200.4</v>
       </c>
       <c r="H35">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A35,SL_Sonuclari!A:A),"")</f>
@@ -64564,11 +64674,11 @@
       </c>
       <c r="B40">
         <f>COUNTIF(SL_Sonuclari!C:H,A40)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C40" s="5">
         <f t="shared" si="1"/>
-        <v>218.26470588235293</v>
+        <v>220.98839009287926</v>
       </c>
       <c r="D40" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A40,SL_Sonuclari!A:A),"")</f>
@@ -64584,7 +64694,7 @@
       </c>
       <c r="G40">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A40,SL_Sonuclari!A:A),"")</f>
-        <v>206</v>
+        <v>216.89473684210526</v>
       </c>
       <c r="H40">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A40,SL_Sonuclari!A:A),"")</f>
@@ -64729,11 +64839,11 @@
       </c>
       <c r="B45">
         <f>COUNTIF(SL_Sonuclari!C:H,A45)</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C45" s="5">
         <f t="shared" si="1"/>
-        <v>226.42554179566565</v>
+        <v>229.00514705882352</v>
       </c>
       <c r="D45" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A45,SL_Sonuclari!A:A),"")</f>
@@ -64753,7 +64863,7 @@
       </c>
       <c r="H45">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A45,SL_Sonuclari!A:A),"")</f>
-        <v>205.63157894736841</v>
+        <v>215.95</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -64894,11 +65004,11 @@
       </c>
       <c r="B50">
         <f>COUNTIF(SL_Sonuclari!C:H,A50)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C50" s="5">
         <f t="shared" si="1"/>
-        <v>218.63516483516483</v>
+        <v>224.02695970695973</v>
       </c>
       <c r="D50">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A50,SL_Sonuclari!A:A),"")</f>
@@ -64906,7 +65016,7 @@
       </c>
       <c r="E50">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A50,SL_Sonuclari!A:A),"")</f>
-        <v>210.30769230769232</v>
+        <v>237.26666666666668</v>
       </c>
       <c r="F50">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A50,SL_Sonuclari!A:A),"")</f>
@@ -64960,7 +65070,7 @@
       </c>
       <c r="B52">
         <f>COUNTIF(SL_Sonuclari!C:H,A52)</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C52" s="5">
         <f t="shared" si="1"/>
@@ -65092,15 +65202,15 @@
       </c>
       <c r="B56">
         <f>COUNTIF(SL_Sonuclari!C:H,A56)</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C56" s="5">
         <f t="shared" si="1"/>
-        <v>235.04513888888889</v>
+        <v>241.24791666666667</v>
       </c>
       <c r="D56">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A56,SL_Sonuclari!A:A),"")</f>
-        <v>163.88888888888889</v>
+        <v>188.7</v>
       </c>
       <c r="E56">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A56,SL_Sonuclari!A:A),"")</f>

--- a/SLIStatistik.xlsx
+++ b/SLIStatistik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\ReadExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3BF5A8-455F-47E5-8A7A-ABF038F92890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC7FC48-96DE-4BCA-B7E0-AB6E78AA8314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
   </bookViews>
   <sheets>
     <sheet name="CSL_Sonuclari" sheetId="2" r:id="rId1"/>
@@ -612,13 +612,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21120D27-1448-4179-993C-6B3BE739480A}">
-  <dimension ref="A1:L415"/>
+  <dimension ref="A1:L416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B393" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A416" sqref="A416"/>
+      <selection pane="bottomRight" activeCell="A417" sqref="A417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13319,6 +13319,38 @@
         <v>59</v>
       </c>
     </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A416" s="2">
+        <v>414</v>
+      </c>
+      <c r="B416" s="1">
+        <v>45017</v>
+      </c>
+      <c r="C416" s="2">
+        <v>10</v>
+      </c>
+      <c r="D416" s="2">
+        <v>28</v>
+      </c>
+      <c r="E416" s="2">
+        <v>38</v>
+      </c>
+      <c r="F416" s="2">
+        <v>70</v>
+      </c>
+      <c r="G416" s="2">
+        <v>86</v>
+      </c>
+      <c r="H416" s="2">
+        <v>89</v>
+      </c>
+      <c r="I416" s="2">
+        <v>13</v>
+      </c>
+      <c r="J416" s="2">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J311">
     <sortCondition ref="B2:B311"/>
@@ -13330,10 +13362,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8BCBFC-83B0-4863-9D9A-FF955DDDA58C}">
-  <dimension ref="A1:H415"/>
+  <dimension ref="A1:H416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A383" workbookViewId="0">
-      <selection activeCell="A416" sqref="A416"/>
+    <sheetView topLeftCell="A383" workbookViewId="0">
+      <selection activeCell="A417" sqref="A417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24131,6 +24163,32 @@
         <v>56</v>
       </c>
     </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>414</v>
+      </c>
+      <c r="B416" s="1">
+        <v>45018</v>
+      </c>
+      <c r="C416">
+        <v>13</v>
+      </c>
+      <c r="D416">
+        <v>21</v>
+      </c>
+      <c r="E416">
+        <v>26</v>
+      </c>
+      <c r="F416">
+        <v>30</v>
+      </c>
+      <c r="G416">
+        <v>54</v>
+      </c>
+      <c r="H416">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H311">
     <sortCondition ref="B2:B311"/>
@@ -24141,10 +24199,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4513EEF-0F11-4AC5-A4C7-CB00A18EA83B}">
-  <dimension ref="A1:H1266"/>
+  <dimension ref="A1:H1267"/>
   <sheetViews>
-    <sheetView topLeftCell="A1237" workbookViewId="0">
-      <selection activeCell="A1267" sqref="A1267"/>
+    <sheetView tabSelected="1" topLeftCell="A1237" workbookViewId="0">
+      <selection activeCell="B1268" sqref="B1268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57066,6 +57124,32 @@
       </c>
       <c r="H1266">
         <v>14</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1267">
+        <v>1656</v>
+      </c>
+      <c r="B1267" s="1">
+        <v>45018</v>
+      </c>
+      <c r="C1267">
+        <v>12</v>
+      </c>
+      <c r="D1267">
+        <v>17</v>
+      </c>
+      <c r="E1267">
+        <v>23</v>
+      </c>
+      <c r="F1267">
+        <v>28</v>
+      </c>
+      <c r="G1267">
+        <v>33</v>
+      </c>
+      <c r="H1267">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -57366,11 +57450,11 @@
       </c>
       <c r="B5">
         <f>COUNTIF(CSL_Sonuclari!C:J,A5)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="5">
         <f t="shared" si="0"/>
-        <v>2738.5</v>
+        <v>3062.4666666666667</v>
       </c>
       <c r="D5">
         <f>COUNTIF(CSL_Sonuclari!J:J,A5)</f>
@@ -57390,11 +57474,11 @@
       </c>
       <c r="H5">
         <f>COUNTIF(CSL_Sonuclari!C:H,A5)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I5" s="5">
         <f t="shared" si="3"/>
-        <v>3550.25</v>
+        <v>4036.2</v>
       </c>
       <c r="J5" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H5,"")</f>
@@ -57406,19 +57490,19 @@
       </c>
       <c r="L5">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H5,"")</f>
-        <v>4920</v>
+        <v>5166</v>
       </c>
       <c r="M5">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H5,"")</f>
-        <v>2405</v>
+        <v>3759</v>
       </c>
       <c r="N5">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H5,"")</f>
-        <v>3876</v>
+        <v>4069.8</v>
       </c>
       <c r="O5">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H5,"")</f>
-        <v>3000</v>
+        <v>3150</v>
       </c>
       <c r="P5">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F5,"")</f>
@@ -57435,11 +57519,11 @@
       </c>
       <c r="B6">
         <f>COUNTIF(CSL_Sonuclari!C:J,A6)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="5">
         <f t="shared" si="0"/>
-        <v>2920.6</v>
+        <v>3149.96</v>
       </c>
       <c r="D6">
         <f>COUNTIF(CSL_Sonuclari!J:J,A6)</f>
@@ -57459,23 +57543,23 @@
       </c>
       <c r="H6">
         <f>COUNTIF(CSL_Sonuclari!C:H,A6)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I6" s="5">
         <f t="shared" si="3"/>
-        <v>3222.5</v>
+        <v>3509.2</v>
       </c>
       <c r="J6">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H6,"")</f>
-        <v>3515</v>
+        <v>4036.8</v>
       </c>
       <c r="K6">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H6,"")</f>
-        <v>3960</v>
+        <v>4224</v>
       </c>
       <c r="L6">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H6,"")</f>
-        <v>5340</v>
+        <v>5696</v>
       </c>
       <c r="M6" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H6,"")</f>
@@ -57487,7 +57571,7 @@
       </c>
       <c r="O6">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H6,"")</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="P6">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F6,"")</f>
@@ -57987,11 +58071,11 @@
       </c>
       <c r="B14">
         <f>COUNTIF(CSL_Sonuclari!C:J,A14)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="0"/>
-        <v>4689.1187384044524</v>
+        <v>4946.6853741496598</v>
       </c>
       <c r="D14">
         <f>COUNTIF(CSL_Sonuclari!J:J,A14)</f>
@@ -58011,31 +58095,31 @@
       </c>
       <c r="H14">
         <f>COUNTIF(CSL_Sonuclari!C:H,A14)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" si="3"/>
-        <v>6336.9662337662339</v>
+        <v>6697.5595238095239</v>
       </c>
       <c r="J14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H14,"")</f>
-        <v>8736</v>
+        <v>9100</v>
       </c>
       <c r="K14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H14,"")</f>
-        <v>6298.2857142857147</v>
+        <v>6560.7142857142862</v>
       </c>
       <c r="L14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H14,"")</f>
-        <v>4374.545454545455</v>
+        <v>5039.5833333333339</v>
       </c>
       <c r="M14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H14,"")</f>
-        <v>5484</v>
+        <v>5712.5</v>
       </c>
       <c r="N14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H14,"")</f>
-        <v>6792</v>
+        <v>7075</v>
       </c>
       <c r="O14" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H14,"")</f>
@@ -59643,11 +59727,11 @@
       </c>
       <c r="B38">
         <f>COUNTIF(CSL_Sonuclari!C:J,A38)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" s="5">
         <f t="shared" si="4"/>
-        <v>5171.8947811447815</v>
+        <v>5395.8030303030309</v>
       </c>
       <c r="D38">
         <f>COUNTIF(CSL_Sonuclari!J:J,A38)</f>
@@ -59667,27 +59751,27 @@
       </c>
       <c r="H38">
         <f>COUNTIF(CSL_Sonuclari!C:H,A38)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I38" s="5">
         <f t="shared" si="7"/>
-        <v>7366.8421717171723</v>
+        <v>7702.704545454546</v>
       </c>
       <c r="J38">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H38,"")</f>
-        <v>7515.8333333333339</v>
+        <v>7775.0000000000009</v>
       </c>
       <c r="K38">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H38,"")</f>
-        <v>8841.7777777777792</v>
+        <v>9474</v>
       </c>
       <c r="L38">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H38,"")</f>
-        <v>6053.090909090909</v>
+        <v>6261.818181818182</v>
       </c>
       <c r="M38">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H38,"")</f>
-        <v>7056.666666666667</v>
+        <v>7300</v>
       </c>
       <c r="N38" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H38,"")</f>
@@ -61575,19 +61659,19 @@
       </c>
       <c r="B66">
         <f>COUNTIF(CSL_Sonuclari!C:J,A66)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66" s="5">
         <f t="shared" ref="C66:C91" si="8">AVERAGE(J66:Q66)</f>
-        <v>4868.0984126984131</v>
+        <v>4950.8984126984124</v>
       </c>
       <c r="D66">
         <f>COUNTIF(CSL_Sonuclari!J:J,A66)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" s="5">
         <f t="shared" ref="E66:E91" si="9">IF(Q66&lt;&gt;"",Q66,0)</f>
-        <v>402</v>
+        <v>816</v>
       </c>
       <c r="F66" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A66)</f>
@@ -61635,7 +61719,7 @@
       </c>
       <c r="Q66">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D66,"")</f>
-        <v>402</v>
+        <v>816</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
@@ -62679,11 +62763,11 @@
       </c>
       <c r="B82">
         <f>COUNTIF(CSL_Sonuclari!C:J,A82)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C82" s="5">
         <f t="shared" si="8"/>
-        <v>4320.4634615384612</v>
+        <v>4656.7628205128203</v>
       </c>
       <c r="D82">
         <f>COUNTIF(CSL_Sonuclari!J:J,A82)</f>
@@ -62703,11 +62787,11 @@
       </c>
       <c r="H82">
         <f>COUNTIF(CSL_Sonuclari!C:H,A82)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I82" s="5">
         <f t="shared" si="11"/>
-        <v>7640.4269230769223</v>
+        <v>8313.0256410256407</v>
       </c>
       <c r="J82" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H82,"")</f>
@@ -62727,11 +62811,11 @@
       </c>
       <c r="N82">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H82,"")</f>
-        <v>7880.2</v>
+        <v>8986.6666666666661</v>
       </c>
       <c r="O82">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H82,"")</f>
-        <v>7400.6538461538457</v>
+        <v>7639.3846153846152</v>
       </c>
       <c r="P82">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F82,"")</f>
@@ -62748,11 +62832,11 @@
       </c>
       <c r="B83">
         <f>COUNTIF(CSL_Sonuclari!C:J,A83)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C83" s="5">
         <f t="shared" si="8"/>
-        <v>2582.9444444444443</v>
+        <v>2690.161290322581</v>
       </c>
       <c r="D83">
         <f>COUNTIF(CSL_Sonuclari!J:J,A83)</f>
@@ -62772,11 +62856,11 @@
       </c>
       <c r="H83">
         <f>COUNTIF(CSL_Sonuclari!C:H,A83)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I83" s="5">
         <f t="shared" si="11"/>
-        <v>3511.9166666666665</v>
+        <v>3672.7419354838712</v>
       </c>
       <c r="J83" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H83,"")</f>
@@ -62788,19 +62872,19 @@
       </c>
       <c r="L83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H83,"")</f>
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="M83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H83,"")</f>
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="N83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H83,"")</f>
-        <v>6222</v>
+        <v>6405</v>
       </c>
       <c r="O83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H83,"")</f>
-        <v>7145.6666666666661</v>
+        <v>7585.9677419354839</v>
       </c>
       <c r="P83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F83,"")</f>
@@ -62955,11 +63039,11 @@
       </c>
       <c r="B86">
         <f>COUNTIF(CSL_Sonuclari!C:J,A86)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C86" s="5">
         <f t="shared" si="8"/>
-        <v>4802.8941176470589</v>
+        <v>4885.6941176470591</v>
       </c>
       <c r="D86">
         <f>COUNTIF(CSL_Sonuclari!J:J,A86)</f>
@@ -62971,11 +63055,11 @@
       </c>
       <c r="F86" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A86)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G86" s="8">
         <f t="shared" si="10"/>
-        <v>966</v>
+        <v>1380</v>
       </c>
       <c r="H86">
         <f>COUNTIF(CSL_Sonuclari!C:H,A86)</f>
@@ -63011,7 +63095,7 @@
       </c>
       <c r="P86">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F86,"")</f>
-        <v>966</v>
+        <v>1380</v>
       </c>
       <c r="Q86">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D86,"")</f>
@@ -63585,15 +63669,15 @@
       </c>
       <c r="B7">
         <f>COUNTIF(SL_Sonuclari!C:H,A7)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="5">
         <f t="shared" si="0"/>
-        <v>162.92106227106228</v>
+        <v>166.30752060439559</v>
       </c>
       <c r="D7">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A7,SL_Sonuclari!A:A),"")</f>
-        <v>197.26666666666668</v>
+        <v>210.8125</v>
       </c>
       <c r="E7">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A7,SL_Sonuclari!A:A),"")</f>
@@ -64014,11 +64098,11 @@
       </c>
       <c r="B20">
         <f>COUNTIF(SL_Sonuclari!C:H,A20)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
-        <v>200.59172608437314</v>
+        <v>203.89665032679738</v>
       </c>
       <c r="D20">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A20,SL_Sonuclari!A:A),"")</f>
@@ -64026,7 +64110,7 @@
       </c>
       <c r="E20">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A20,SL_Sonuclari!A:A),"")</f>
-        <v>255.36363636363637</v>
+        <v>268.58333333333331</v>
       </c>
       <c r="F20">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A20,SL_Sonuclari!A:A),"")</f>
@@ -64344,11 +64428,11 @@
       </c>
       <c r="B30">
         <f>COUNTIF(SL_Sonuclari!C:H,A30)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C30" s="5">
         <f t="shared" si="0"/>
-        <v>180.42564102564103</v>
+        <v>182.09047619047618</v>
       </c>
       <c r="D30">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A30,SL_Sonuclari!A:A),"")</f>
@@ -64364,7 +64448,7 @@
       </c>
       <c r="G30">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A30,SL_Sonuclari!A:A),"")</f>
-        <v>297.46153846153845</v>
+        <v>305.78571428571428</v>
       </c>
       <c r="H30">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A30,SL_Sonuclari!A:A),"")</f>
@@ -64872,11 +64956,11 @@
       </c>
       <c r="B46">
         <f>COUNTIF(SL_Sonuclari!C:H,A46)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C46" s="5">
         <f t="shared" si="1"/>
-        <v>212.20202020202024</v>
+        <v>213.82702020202024</v>
       </c>
       <c r="D46">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A46,SL_Sonuclari!A:A),"")</f>
@@ -64888,7 +64972,7 @@
       </c>
       <c r="F46">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A46,SL_Sonuclari!A:A),"")</f>
-        <v>219</v>
+        <v>227.125</v>
       </c>
       <c r="G46">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A46,SL_Sonuclari!A:A),"")</f>
@@ -65272,11 +65356,11 @@
       </c>
       <c r="B58">
         <f>COUNTIF(SL_Sonuclari!C:H,A58)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C58" s="5">
         <f t="shared" si="1"/>
-        <v>230.73611111111111</v>
+        <v>236.79605263157896</v>
       </c>
       <c r="D58" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A58,SL_Sonuclari!A:A),"")</f>
@@ -65296,7 +65380,7 @@
       </c>
       <c r="H58">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A58,SL_Sonuclari!A:A),"")</f>
-        <v>183.72222222222223</v>
+        <v>195.84210526315789</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -65305,7 +65389,7 @@
       </c>
       <c r="B59">
         <f>COUNTIF(SL_Sonuclari!C:H,A59)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C59" s="5">
         <f t="shared" si="1"/>

--- a/SLIStatistik.xlsx
+++ b/SLIStatistik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\ReadExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC7FC48-96DE-4BCA-B7E0-AB6E78AA8314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930A9F15-5EC8-413F-BDC6-30526BFDC845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
   </bookViews>
   <sheets>
     <sheet name="CSL_Sonuclari" sheetId="2" r:id="rId1"/>
@@ -612,13 +612,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21120D27-1448-4179-993C-6B3BE739480A}">
-  <dimension ref="A1:L416"/>
+  <dimension ref="A1:L417"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B393" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A417" sqref="A417"/>
+      <selection pane="bottomRight" activeCell="A418" sqref="A418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13349,6 +13349,38 @@
       </c>
       <c r="J416" s="2">
         <v>8</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A417" s="2">
+        <v>415</v>
+      </c>
+      <c r="B417" s="1">
+        <v>45019</v>
+      </c>
+      <c r="C417" s="2">
+        <v>2</v>
+      </c>
+      <c r="D417" s="2">
+        <v>11</v>
+      </c>
+      <c r="E417" s="2">
+        <v>47</v>
+      </c>
+      <c r="F417" s="2">
+        <v>61</v>
+      </c>
+      <c r="G417" s="2">
+        <v>80</v>
+      </c>
+      <c r="H417" s="2">
+        <v>89</v>
+      </c>
+      <c r="I417" s="2">
+        <v>74</v>
+      </c>
+      <c r="J417" s="2">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -24201,7 +24233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4513EEF-0F11-4AC5-A4C7-CB00A18EA83B}">
   <dimension ref="A1:H1267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1237" workbookViewId="0">
+    <sheetView topLeftCell="A1237" workbookViewId="0">
       <selection activeCell="B1268" sqref="B1268"/>
     </sheetView>
   </sheetViews>
@@ -57381,11 +57413,11 @@
       </c>
       <c r="B4">
         <f>COUNTIF(CSL_Sonuclari!C:J,A4)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" s="5">
         <f t="shared" si="0"/>
-        <v>2300</v>
+        <v>2438.3333333333335</v>
       </c>
       <c r="D4">
         <f>COUNTIF(CSL_Sonuclari!J:J,A4)</f>
@@ -57405,15 +57437,15 @@
       </c>
       <c r="H4">
         <f>COUNTIF(CSL_Sonuclari!C:H,A4)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I4" s="5">
         <f t="shared" si="3"/>
-        <v>4782</v>
+        <v>5197</v>
       </c>
       <c r="J4">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H4,"")</f>
-        <v>4782</v>
+        <v>5197</v>
       </c>
       <c r="K4" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H4,"")</f>
@@ -60348,11 +60380,11 @@
       </c>
       <c r="B47">
         <f>COUNTIF(CSL_Sonuclari!C:J,A47)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C47" s="5">
         <f t="shared" si="4"/>
-        <v>3609.0109090909086</v>
+        <v>3817.3599999999997</v>
       </c>
       <c r="D47">
         <f>COUNTIF(CSL_Sonuclari!J:J,A47)</f>
@@ -60372,11 +60404,11 @@
       </c>
       <c r="H47">
         <f>COUNTIF(CSL_Sonuclari!C:H,A47)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I47" s="5">
         <f t="shared" si="7"/>
-        <v>5638.3515151515139</v>
+        <v>5985.5999999999995</v>
       </c>
       <c r="J47" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H47,"")</f>
@@ -60392,15 +60424,15 @@
       </c>
       <c r="M47">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H47,"")</f>
-        <v>4424</v>
+        <v>4582</v>
       </c>
       <c r="N47">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H47,"")</f>
-        <v>6549.454545454545</v>
+        <v>7221</v>
       </c>
       <c r="O47">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H47,"")</f>
-        <v>5941.5999999999995</v>
+        <v>6153.7999999999993</v>
       </c>
       <c r="P47">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F47,"")</f>
@@ -60555,11 +60587,11 @@
       </c>
       <c r="B50">
         <f>COUNTIF(CSL_Sonuclari!C:J,A50)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C50" s="5">
         <f t="shared" si="4"/>
-        <v>3512</v>
+        <v>3581.1666666666665</v>
       </c>
       <c r="D50">
         <f>COUNTIF(CSL_Sonuclari!J:J,A50)</f>
@@ -60571,11 +60603,11 @@
       </c>
       <c r="F50" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A50)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G50" s="8">
         <f t="shared" si="6"/>
-        <v>1068</v>
+        <v>1483</v>
       </c>
       <c r="H50">
         <f>COUNTIF(CSL_Sonuclari!C:H,A50)</f>
@@ -60611,7 +60643,7 @@
       </c>
       <c r="P50">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F50,"")</f>
-        <v>1068</v>
+        <v>1483</v>
       </c>
       <c r="Q50">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D50,"")</f>
@@ -61314,11 +61346,11 @@
       </c>
       <c r="B61">
         <f>COUNTIF(CSL_Sonuclari!C:J,A61)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61" s="5">
         <f t="shared" si="4"/>
-        <v>3539.0208333333335</v>
+        <v>3764.9955357142858</v>
       </c>
       <c r="D61">
         <f>COUNTIF(CSL_Sonuclari!J:J,A61)</f>
@@ -61338,35 +61370,35 @@
       </c>
       <c r="H61">
         <f>COUNTIF(CSL_Sonuclari!C:H,A61)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I61" s="5">
         <f t="shared" si="7"/>
-        <v>4387.8611111111113</v>
+        <v>4689.1607142857147</v>
       </c>
       <c r="J61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H61,"")</f>
-        <v>6032</v>
+        <v>6264</v>
       </c>
       <c r="K61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H61,"")</f>
-        <v>4439.5</v>
+        <v>4610.25</v>
       </c>
       <c r="L61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H61,"")</f>
-        <v>5429.666666666667</v>
+        <v>6433.7142857142853</v>
       </c>
       <c r="M61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H61,"")</f>
-        <v>4264</v>
+        <v>4428</v>
       </c>
       <c r="N61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H61,"")</f>
-        <v>6136</v>
+        <v>6372</v>
       </c>
       <c r="O61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H61,"")</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F61,"")</f>
@@ -62487,11 +62519,11 @@
       </c>
       <c r="B78">
         <f>COUNTIF(CSL_Sonuclari!C:J,A78)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C78" s="5">
         <f t="shared" si="8"/>
-        <v>3952.0523809523806</v>
+        <v>4145.6845238095239</v>
       </c>
       <c r="D78">
         <f>COUNTIF(CSL_Sonuclari!J:J,A78)</f>
@@ -62511,23 +62543,23 @@
       </c>
       <c r="H78">
         <f>COUNTIF(CSL_Sonuclari!C:H,A78)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I78" s="5">
         <f t="shared" si="11"/>
-        <v>5398.3285714285712</v>
+        <v>5688.7767857142862</v>
       </c>
       <c r="J78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H78,"")</f>
-        <v>8485.7142857142862</v>
+        <v>8742.8571428571431</v>
       </c>
       <c r="K78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H78,"")</f>
-        <v>5814.5999999999995</v>
+        <v>6498.25</v>
       </c>
       <c r="L78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H78,"")</f>
-        <v>6831</v>
+        <v>7038</v>
       </c>
       <c r="M78" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H78,"")</f>
@@ -62539,7 +62571,7 @@
       </c>
       <c r="O78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H78,"")</f>
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="P78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F78,"")</f>
@@ -62556,11 +62588,11 @@
       </c>
       <c r="B79">
         <f>COUNTIF(CSL_Sonuclari!C:J,A79)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C79" s="5">
         <f t="shared" si="8"/>
-        <v>5020.5542671614094</v>
+        <v>5263.0467687074834</v>
       </c>
       <c r="D79">
         <f>COUNTIF(CSL_Sonuclari!J:J,A79)</f>
@@ -62580,11 +62612,11 @@
       </c>
       <c r="H79">
         <f>COUNTIF(CSL_Sonuclari!C:H,A79)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I79" s="5">
         <f t="shared" si="11"/>
-        <v>6695.7759740259735</v>
+        <v>7035.265476190476</v>
       </c>
       <c r="J79" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H79,"")</f>
@@ -62592,23 +62624,23 @@
       </c>
       <c r="K79">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H79,"")</f>
-        <v>11640</v>
+        <v>12028</v>
       </c>
       <c r="L79">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H79,"")</f>
-        <v>5118.75</v>
+        <v>5289.375</v>
       </c>
       <c r="M79">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H79,"")</f>
-        <v>5697.272727272727</v>
+        <v>6468.6666666666661</v>
       </c>
       <c r="N79">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H79,"")</f>
-        <v>6312.8571428571422</v>
+        <v>6523.2857142857138</v>
       </c>
       <c r="O79">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H79,"")</f>
-        <v>4710</v>
+        <v>4867</v>
       </c>
       <c r="P79">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F79,"")</f>
@@ -62832,11 +62864,11 @@
       </c>
       <c r="B83">
         <f>COUNTIF(CSL_Sonuclari!C:J,A83)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C83" s="5">
         <f t="shared" si="8"/>
-        <v>2690.161290322581</v>
+        <v>2797.2916666666665</v>
       </c>
       <c r="D83">
         <f>COUNTIF(CSL_Sonuclari!J:J,A83)</f>
@@ -62856,11 +62888,11 @@
       </c>
       <c r="H83">
         <f>COUNTIF(CSL_Sonuclari!C:H,A83)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I83" s="5">
         <f t="shared" si="11"/>
-        <v>3672.7419354838712</v>
+        <v>3833.4375</v>
       </c>
       <c r="J83" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H83,"")</f>
@@ -62872,19 +62904,19 @@
       </c>
       <c r="L83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H83,"")</f>
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="M83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H83,"")</f>
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="N83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H83,"")</f>
-        <v>6405</v>
+        <v>6588</v>
       </c>
       <c r="O83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H83,"")</f>
-        <v>7585.9677419354839</v>
+        <v>8025.75</v>
       </c>
       <c r="P83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F83,"")</f>
@@ -63039,19 +63071,19 @@
       </c>
       <c r="B86">
         <f>COUNTIF(CSL_Sonuclari!C:J,A86)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C86" s="5">
         <f t="shared" si="8"/>
-        <v>4885.6941176470591</v>
+        <v>4968.6941176470591</v>
       </c>
       <c r="D86">
         <f>COUNTIF(CSL_Sonuclari!J:J,A86)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E86" s="5">
         <f t="shared" si="9"/>
-        <v>1052</v>
+        <v>1467</v>
       </c>
       <c r="F86" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A86)</f>
@@ -63099,7 +63131,7 @@
       </c>
       <c r="Q86">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D86,"")</f>
-        <v>1052</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">

--- a/SLIStatistik.xlsx
+++ b/SLIStatistik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\ReadExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930A9F15-5EC8-413F-BDC6-30526BFDC845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1064E032-E455-4DE8-AB0C-1706746661C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
   </bookViews>
   <sheets>
     <sheet name="CSL_Sonuclari" sheetId="2" r:id="rId1"/>
@@ -614,7 +614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21120D27-1448-4179-993C-6B3BE739480A}">
   <dimension ref="A1:L417"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B393" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -13394,10 +13394,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8BCBFC-83B0-4863-9D9A-FF955DDDA58C}">
-  <dimension ref="A1:H416"/>
+  <dimension ref="A1:H417"/>
   <sheetViews>
-    <sheetView topLeftCell="A383" workbookViewId="0">
-      <selection activeCell="A417" sqref="A417"/>
+    <sheetView tabSelected="1" topLeftCell="A383" workbookViewId="0">
+      <selection activeCell="A418" sqref="A418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24219,6 +24219,32 @@
       </c>
       <c r="H416">
         <v>55</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>415</v>
+      </c>
+      <c r="B417" s="1">
+        <v>45020</v>
+      </c>
+      <c r="C417">
+        <v>2</v>
+      </c>
+      <c r="D417">
+        <v>6</v>
+      </c>
+      <c r="E417">
+        <v>16</v>
+      </c>
+      <c r="F417">
+        <v>39</v>
+      </c>
+      <c r="G417">
+        <v>40</v>
+      </c>
+      <c r="H417">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -63635,15 +63661,15 @@
       </c>
       <c r="B5">
         <f>COUNTIF(SL_Sonuclari!C:H,A5)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="5">
         <f t="shared" si="0"/>
-        <v>118.35483870967742</v>
+        <v>121.25</v>
       </c>
       <c r="D5">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A5,SL_Sonuclari!A:A),"")</f>
-        <v>229.70967741935485</v>
+        <v>235.5</v>
       </c>
       <c r="E5" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A5,SL_Sonuclari!A:A),"")</f>
@@ -63866,11 +63892,11 @@
       </c>
       <c r="B12">
         <f>COUNTIF(SL_Sonuclari!C:H,A12)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="0"/>
-        <v>159.89575098814231</v>
+        <v>162.98097826086956</v>
       </c>
       <c r="D12">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A12,SL_Sonuclari!A:A),"")</f>
@@ -63878,7 +63904,7 @@
       </c>
       <c r="E12">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A12,SL_Sonuclari!A:A),"")</f>
-        <v>266.90909090909093</v>
+        <v>279.25</v>
       </c>
       <c r="F12">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A12,SL_Sonuclari!A:A),"")</f>
@@ -64196,7 +64222,7 @@
       </c>
       <c r="B22">
         <f>COUNTIF(SL_Sonuclari!C:H,A22)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
@@ -64328,11 +64354,11 @@
       </c>
       <c r="B26">
         <f>COUNTIF(SL_Sonuclari!C:H,A26)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" s="5">
         <f t="shared" si="0"/>
-        <v>172.88986928104575</v>
+        <v>175.46666666666664</v>
       </c>
       <c r="D26" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A26,SL_Sonuclari!A:A),"")</f>
@@ -64352,7 +64378,7 @@
       </c>
       <c r="H26">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A26,SL_Sonuclari!A:A),"")</f>
-        <v>229.47058823529412</v>
+        <v>239.77777777777777</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -64427,11 +64453,11 @@
       </c>
       <c r="B29">
         <f>COUNTIF(SL_Sonuclari!C:H,A29)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C29" s="5">
         <f t="shared" si="0"/>
-        <v>185.59583333333333</v>
+        <v>188.78125</v>
       </c>
       <c r="D29" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A29,SL_Sonuclari!A:A),"")</f>
@@ -64447,7 +64473,7 @@
       </c>
       <c r="G29">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A29,SL_Sonuclari!A:A),"")</f>
-        <v>211.13333333333333</v>
+        <v>223.875</v>
       </c>
       <c r="H29">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A29,SL_Sonuclari!A:A),"")</f>
@@ -65318,11 +65344,11 @@
       </c>
       <c r="B56">
         <f>COUNTIF(SL_Sonuclari!C:H,A56)</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C56" s="5">
         <f t="shared" si="1"/>
-        <v>241.24791666666667</v>
+        <v>243.63733974358973</v>
       </c>
       <c r="D56">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A56,SL_Sonuclari!A:A),"")</f>
@@ -65334,7 +65360,7 @@
       </c>
       <c r="F56">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A56,SL_Sonuclari!A:A),"")</f>
-        <v>290.75</v>
+        <v>300.30769230769232</v>
       </c>
       <c r="G56">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A56,SL_Sonuclari!A:A),"")</f>

--- a/SLIStatistik.xlsx
+++ b/SLIStatistik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\ReadExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1064E032-E455-4DE8-AB0C-1706746661C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8AF61B-3E75-4A11-979C-ED6E1A20BBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
   </bookViews>
   <sheets>
     <sheet name="CSL_Sonuclari" sheetId="2" r:id="rId1"/>
@@ -612,13 +612,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21120D27-1448-4179-993C-6B3BE739480A}">
-  <dimension ref="A1:L417"/>
+  <dimension ref="A1:L418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B393" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A418" sqref="A418"/>
+      <selection pane="bottomRight" activeCell="A419" sqref="A419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13381,6 +13381,38 @@
       </c>
       <c r="J417" s="2">
         <v>13</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A418" s="2">
+        <v>416</v>
+      </c>
+      <c r="B418" s="1">
+        <v>45021</v>
+      </c>
+      <c r="C418" s="2">
+        <v>25</v>
+      </c>
+      <c r="D418" s="2">
+        <v>36</v>
+      </c>
+      <c r="E418" s="2">
+        <v>39</v>
+      </c>
+      <c r="F418" s="2">
+        <v>47</v>
+      </c>
+      <c r="G418" s="2">
+        <v>55</v>
+      </c>
+      <c r="H418" s="2">
+        <v>58</v>
+      </c>
+      <c r="I418" s="2">
+        <v>51</v>
+      </c>
+      <c r="J418" s="2">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -13396,7 +13428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8BCBFC-83B0-4863-9D9A-FF955DDDA58C}">
   <dimension ref="A1:H417"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A383" workbookViewId="0">
+    <sheetView topLeftCell="A386" workbookViewId="0">
       <selection activeCell="A418" sqref="A418"/>
     </sheetView>
   </sheetViews>
@@ -24257,10 +24289,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4513EEF-0F11-4AC5-A4C7-CB00A18EA83B}">
-  <dimension ref="A1:H1267"/>
+  <dimension ref="A1:H1268"/>
   <sheetViews>
-    <sheetView topLeftCell="A1237" workbookViewId="0">
-      <selection activeCell="B1268" sqref="B1268"/>
+    <sheetView tabSelected="1" topLeftCell="A1237" workbookViewId="0">
+      <selection activeCell="A1269" sqref="A1269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57207,6 +57239,32 @@
         <v>33</v>
       </c>
       <c r="H1267">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1268">
+        <v>1657</v>
+      </c>
+      <c r="B1268" s="1">
+        <v>45021</v>
+      </c>
+      <c r="C1268">
+        <v>4</v>
+      </c>
+      <c r="D1268">
+        <v>8</v>
+      </c>
+      <c r="E1268">
+        <v>9</v>
+      </c>
+      <c r="F1268">
+        <v>21</v>
+      </c>
+      <c r="G1268">
+        <v>31</v>
+      </c>
+      <c r="H1268">
         <v>4</v>
       </c>
     </row>
@@ -57370,11 +57428,11 @@
       </c>
       <c r="B3">
         <f>COUNTIF(CSL_Sonuclari!C:J,A3)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="5">
         <f t="shared" si="0"/>
-        <v>3546.25</v>
+        <v>3598.25</v>
       </c>
       <c r="D3">
         <f>COUNTIF(CSL_Sonuclari!J:J,A3)</f>
@@ -57386,11 +57444,11 @@
       </c>
       <c r="F3" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A3)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3" s="8">
         <f t="shared" si="2"/>
-        <v>1095</v>
+        <v>1511</v>
       </c>
       <c r="H3">
         <f>COUNTIF(CSL_Sonuclari!C:H,A3)</f>
@@ -57426,7 +57484,7 @@
       </c>
       <c r="P3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F3,"")</f>
-        <v>1095</v>
+        <v>1511</v>
       </c>
       <c r="Q3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D3,"")</f>
@@ -57508,19 +57566,19 @@
       </c>
       <c r="B5">
         <f>COUNTIF(CSL_Sonuclari!C:J,A5)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="5">
         <f t="shared" si="0"/>
-        <v>3062.4666666666667</v>
+        <v>3131.7999999999997</v>
       </c>
       <c r="D5">
         <f>COUNTIF(CSL_Sonuclari!J:J,A5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" si="1"/>
-        <v>1026</v>
+        <v>1442</v>
       </c>
       <c r="F5" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A5)</f>
@@ -57568,7 +57626,7 @@
       </c>
       <c r="Q5">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D5,"")</f>
-        <v>1026</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -58198,11 +58256,11 @@
       </c>
       <c r="B15">
         <f>COUNTIF(CSL_Sonuclari!C:J,A15)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="0"/>
-        <v>3615.9744897959181</v>
+        <v>3828.8571428571427</v>
       </c>
       <c r="D15">
         <f>COUNTIF(CSL_Sonuclari!J:J,A15)</f>
@@ -58222,31 +58280,31 @@
       </c>
       <c r="H15">
         <f>COUNTIF(CSL_Sonuclari!C:H,A15)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I15" s="5">
         <f t="shared" si="3"/>
-        <v>4830.9642857142853</v>
+        <v>5129</v>
       </c>
       <c r="J15">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H15,"")</f>
-        <v>4275.3333333333339</v>
+        <v>4469.666666666667</v>
       </c>
       <c r="K15">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H15,"")</f>
-        <v>6150.5714285714284</v>
+        <v>6822.375</v>
       </c>
       <c r="L15">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H15,"")</f>
-        <v>4980.25</v>
+        <v>5206.625</v>
       </c>
       <c r="M15">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H15,"")</f>
-        <v>5316.6666666666661</v>
+        <v>5558.333333333333</v>
       </c>
       <c r="N15">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H15,"")</f>
-        <v>3432</v>
+        <v>3588</v>
       </c>
       <c r="O15" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H15,"")</f>
@@ -58750,11 +58808,11 @@
       </c>
       <c r="B23">
         <f>COUNTIF(CSL_Sonuclari!C:J,A23)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
-        <v>4279.2333333333336</v>
+        <v>4544.0555555555557</v>
       </c>
       <c r="D23">
         <f>COUNTIF(CSL_Sonuclari!J:J,A23)</f>
@@ -58774,11 +58832,11 @@
       </c>
       <c r="H23">
         <f>COUNTIF(CSL_Sonuclari!C:H,A23)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I23" s="5">
         <f t="shared" si="3"/>
-        <v>6006.6</v>
+        <v>6403.833333333333</v>
       </c>
       <c r="J23" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H23,"")</f>
@@ -58790,19 +58848,19 @@
       </c>
       <c r="L23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H23,"")</f>
-        <v>6405.75</v>
+        <v>6643</v>
       </c>
       <c r="M23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H23,"")</f>
-        <v>5514.75</v>
+        <v>5719</v>
       </c>
       <c r="N23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H23,"")</f>
-        <v>4918.5</v>
+        <v>5100.6666666666661</v>
       </c>
       <c r="O23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H23,"")</f>
-        <v>7187.4</v>
+        <v>8152.666666666667</v>
       </c>
       <c r="P23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F23,"")</f>
@@ -60475,11 +60533,11 @@
       </c>
       <c r="B48">
         <f>COUNTIF(CSL_Sonuclari!C:J,A48)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48" s="5">
         <f t="shared" si="4"/>
-        <v>4937.5687500000004</v>
+        <v>5214.2000000000007</v>
       </c>
       <c r="D48">
         <f>COUNTIF(CSL_Sonuclari!J:J,A48)</f>
@@ -60499,35 +60557,35 @@
       </c>
       <c r="H48">
         <f>COUNTIF(CSL_Sonuclari!C:H,A48)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I48" s="5">
         <f t="shared" si="7"/>
-        <v>6301.9250000000002</v>
+        <v>6670.7666666666673</v>
       </c>
       <c r="J48">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H48,"")</f>
-        <v>8937</v>
+        <v>9268</v>
       </c>
       <c r="K48">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H48,"")</f>
-        <v>7789.5</v>
+        <v>8078</v>
       </c>
       <c r="L48">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H48,"")</f>
-        <v>4411.8</v>
+        <v>4575.2</v>
       </c>
       <c r="M48">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H48,"")</f>
-        <v>5676.75</v>
+        <v>5887</v>
       </c>
       <c r="N48">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H48,"")</f>
-        <v>3396</v>
+        <v>4334.4000000000005</v>
       </c>
       <c r="O48">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H48,"")</f>
-        <v>7600.5</v>
+        <v>7882</v>
       </c>
       <c r="P48">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F48,"")</f>
@@ -60751,11 +60809,11 @@
       </c>
       <c r="B52">
         <f>COUNTIF(CSL_Sonuclari!C:J,A52)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C52" s="5">
         <f t="shared" si="4"/>
-        <v>3217.3054945054942</v>
+        <v>3407.2687074829932</v>
       </c>
       <c r="D52">
         <f>COUNTIF(CSL_Sonuclari!J:J,A52)</f>
@@ -60775,31 +60833,31 @@
       </c>
       <c r="H52">
         <f>COUNTIF(CSL_Sonuclari!C:H,A52)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I52" s="5">
         <f t="shared" si="7"/>
-        <v>4139.0276923076917</v>
+        <v>4404.9761904761908</v>
       </c>
       <c r="J52">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H52,"")</f>
-        <v>5208</v>
+        <v>5425</v>
       </c>
       <c r="K52">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H52,"")</f>
-        <v>3921.6000000000004</v>
+        <v>4085</v>
       </c>
       <c r="L52">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H52,"")</f>
-        <v>3701.5384615384614</v>
+        <v>4323.2142857142853</v>
       </c>
       <c r="M52">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H52,"")</f>
-        <v>7744</v>
+        <v>8066.666666666667</v>
       </c>
       <c r="N52">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H52,"")</f>
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="O52" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H52,"")</f>
@@ -61372,11 +61430,11 @@
       </c>
       <c r="B61">
         <f>COUNTIF(CSL_Sonuclari!C:J,A61)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C61" s="5">
         <f t="shared" si="4"/>
-        <v>3764.9955357142858</v>
+        <v>3975.431818181818</v>
       </c>
       <c r="D61">
         <f>COUNTIF(CSL_Sonuclari!J:J,A61)</f>
@@ -61396,35 +61454,35 @@
       </c>
       <c r="H61">
         <f>COUNTIF(CSL_Sonuclari!C:H,A61)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I61" s="5">
         <f t="shared" si="7"/>
-        <v>4689.1607142857147</v>
+        <v>4969.742424242424</v>
       </c>
       <c r="J61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H61,"")</f>
-        <v>6264</v>
+        <v>6496</v>
       </c>
       <c r="K61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H61,"")</f>
-        <v>4610.25</v>
+        <v>4781</v>
       </c>
       <c r="L61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H61,"")</f>
-        <v>6433.7142857142853</v>
+        <v>6672</v>
       </c>
       <c r="M61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H61,"")</f>
-        <v>4428</v>
+        <v>5233.454545454545</v>
       </c>
       <c r="N61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H61,"")</f>
-        <v>6372</v>
+        <v>6608</v>
       </c>
       <c r="O61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H61,"")</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F61,"")</f>
@@ -61855,11 +61913,11 @@
       </c>
       <c r="B68">
         <f>COUNTIF(CSL_Sonuclari!C:J,A68)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C68" s="5">
         <f t="shared" si="8"/>
-        <v>6286.2738095238092</v>
+        <v>6570.7380952380945</v>
       </c>
       <c r="D68">
         <f>COUNTIF(CSL_Sonuclari!J:J,A68)</f>
@@ -61879,31 +61937,31 @@
       </c>
       <c r="H68">
         <f>COUNTIF(CSL_Sonuclari!C:H,A68)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I68" s="5">
         <f t="shared" si="11"/>
-        <v>8417.3833333333332</v>
+        <v>8815.6333333333332</v>
       </c>
       <c r="J68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H68,"")</f>
-        <v>7474.5</v>
+        <v>8416.8888888888887</v>
       </c>
       <c r="K68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H68,"")</f>
-        <v>7053.75</v>
+        <v>7267.5</v>
       </c>
       <c r="L68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H68,"")</f>
-        <v>8649.6666666666661</v>
+        <v>8911.7777777777774</v>
       </c>
       <c r="M68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H68,"")</f>
-        <v>10560</v>
+        <v>10880</v>
       </c>
       <c r="N68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H68,"")</f>
-        <v>8349</v>
+        <v>8602</v>
       </c>
       <c r="O68" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H68,"")</f>

--- a/SLIStatistik.xlsx
+++ b/SLIStatistik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\ReadExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8AF61B-3E75-4A11-979C-ED6E1A20BBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AFB78E-57A5-4897-A75F-9499E47040FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
   </bookViews>
   <sheets>
     <sheet name="CSL_Sonuclari" sheetId="2" r:id="rId1"/>
@@ -13426,10 +13426,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8BCBFC-83B0-4863-9D9A-FF955DDDA58C}">
-  <dimension ref="A1:H417"/>
+  <dimension ref="A1:H418"/>
   <sheetViews>
-    <sheetView topLeftCell="A386" workbookViewId="0">
-      <selection activeCell="A418" sqref="A418"/>
+    <sheetView tabSelected="1" topLeftCell="A386" workbookViewId="0">
+      <selection activeCell="A419" sqref="A419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24277,6 +24277,32 @@
       </c>
       <c r="H417">
         <v>57</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>416</v>
+      </c>
+      <c r="B418" s="1">
+        <v>45022</v>
+      </c>
+      <c r="C418">
+        <v>2</v>
+      </c>
+      <c r="D418">
+        <v>18</v>
+      </c>
+      <c r="E418">
+        <v>25</v>
+      </c>
+      <c r="F418">
+        <v>27</v>
+      </c>
+      <c r="G418">
+        <v>48</v>
+      </c>
+      <c r="H418">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -24291,7 +24317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4513EEF-0F11-4AC5-A4C7-CB00A18EA83B}">
   <dimension ref="A1:H1268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1237" workbookViewId="0">
+    <sheetView topLeftCell="A1237" workbookViewId="0">
       <selection activeCell="A1269" sqref="A1269"/>
     </sheetView>
   </sheetViews>
@@ -63620,7 +63646,7 @@
       </c>
       <c r="B2">
         <f>COUNTIF(SL_Sonuclari!C:H,A2)</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="5">
         <f t="shared" ref="C2:C33" si="0">AVERAGE(D2:H2)</f>
@@ -63719,15 +63745,15 @@
       </c>
       <c r="B5">
         <f>COUNTIF(SL_Sonuclari!C:H,A5)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="5">
         <f t="shared" si="0"/>
-        <v>121.25</v>
+        <v>123.98484848484848</v>
       </c>
       <c r="D5">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A5,SL_Sonuclari!A:A),"")</f>
-        <v>235.5</v>
+        <v>240.96969696969697</v>
       </c>
       <c r="E5" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A5,SL_Sonuclari!A:A),"")</f>
@@ -63818,11 +63844,11 @@
       </c>
       <c r="B8">
         <f>COUNTIF(SL_Sonuclari!C:H,A8)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" si="0"/>
-        <v>148.55208333333334</v>
+        <v>150.91749999999999</v>
       </c>
       <c r="D8">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A8,SL_Sonuclari!A:A),"")</f>
@@ -63842,7 +63868,7 @@
       </c>
       <c r="H8">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A8,SL_Sonuclari!A:A),"")</f>
-        <v>179.45833333333334</v>
+        <v>188.92</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -63884,11 +63910,11 @@
       </c>
       <c r="B10">
         <f>COUNTIF(SL_Sonuclari!C:H,A10)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" si="0"/>
-        <v>193.19532967032967</v>
+        <v>197.2392857142857</v>
       </c>
       <c r="D10" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A10,SL_Sonuclari!A:A),"")</f>
@@ -63904,7 +63930,7 @@
       </c>
       <c r="G10">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A10,SL_Sonuclari!A:A),"")</f>
-        <v>189.53846153846155</v>
+        <v>205.71428571428572</v>
       </c>
       <c r="H10">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A10,SL_Sonuclari!A:A),"")</f>
@@ -65105,11 +65131,11 @@
       </c>
       <c r="B47">
         <f>COUNTIF(SL_Sonuclari!C:H,A47)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C47" s="5">
         <f t="shared" si="1"/>
-        <v>225.41944444444442</v>
+        <v>227.90043859649126</v>
       </c>
       <c r="D47">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A47,SL_Sonuclari!A:A),"")</f>
@@ -65117,7 +65143,7 @@
       </c>
       <c r="E47">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A47,SL_Sonuclari!A:A),"")</f>
-        <v>227.44444444444446</v>
+        <v>237.36842105263159</v>
       </c>
       <c r="F47">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A47,SL_Sonuclari!A:A),"")</f>
@@ -65204,11 +65230,11 @@
       </c>
       <c r="B50">
         <f>COUNTIF(SL_Sonuclari!C:H,A50)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C50" s="5">
         <f t="shared" si="1"/>
-        <v>224.02695970695973</v>
+        <v>226.13904761904763</v>
       </c>
       <c r="D50">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A50,SL_Sonuclari!A:A),"")</f>
@@ -65220,7 +65246,7 @@
       </c>
       <c r="F50">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A50,SL_Sonuclari!A:A),"")</f>
-        <v>268.15384615384613</v>
+        <v>278.71428571428572</v>
       </c>
       <c r="G50">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A50,SL_Sonuclari!A:A),"")</f>

--- a/SLIStatistik.xlsx
+++ b/SLIStatistik.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\ReadExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AFB78E-57A5-4897-A75F-9499E47040FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60E26F8-79D9-4E38-BEF4-73102FDB6CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
   </bookViews>
   <sheets>
     <sheet name="CSL_Sonuclari" sheetId="2" r:id="rId1"/>
@@ -612,13 +612,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21120D27-1448-4179-993C-6B3BE739480A}">
-  <dimension ref="A1:L418"/>
+  <dimension ref="A1:L419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B393" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A419" sqref="A419"/>
+      <selection pane="bottomRight" activeCell="A420" sqref="A420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13415,6 +13415,38 @@
         <v>70</v>
       </c>
     </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A419" s="2">
+        <v>417</v>
+      </c>
+      <c r="B419" s="1">
+        <v>45024</v>
+      </c>
+      <c r="C419" s="2">
+        <v>5</v>
+      </c>
+      <c r="D419" s="2">
+        <v>20</v>
+      </c>
+      <c r="E419" s="2">
+        <v>21</v>
+      </c>
+      <c r="F419" s="2">
+        <v>31</v>
+      </c>
+      <c r="G419" s="2">
+        <v>40</v>
+      </c>
+      <c r="H419" s="2">
+        <v>51</v>
+      </c>
+      <c r="I419" s="2">
+        <v>24</v>
+      </c>
+      <c r="J419" s="2">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J311">
     <sortCondition ref="B2:B311"/>
@@ -13426,10 +13458,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8BCBFC-83B0-4863-9D9A-FF955DDDA58C}">
-  <dimension ref="A1:H418"/>
+  <dimension ref="A1:H419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A386" workbookViewId="0">
-      <selection activeCell="A419" sqref="A419"/>
+    <sheetView topLeftCell="A386" workbookViewId="0">
+      <selection activeCell="A420" sqref="A420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24305,6 +24337,32 @@
         <v>58</v>
       </c>
     </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>417</v>
+      </c>
+      <c r="B419" s="1">
+        <v>45025</v>
+      </c>
+      <c r="C419">
+        <v>21</v>
+      </c>
+      <c r="D419">
+        <v>24</v>
+      </c>
+      <c r="E419">
+        <v>28</v>
+      </c>
+      <c r="F419">
+        <v>33</v>
+      </c>
+      <c r="G419">
+        <v>34</v>
+      </c>
+      <c r="H419">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H311">
     <sortCondition ref="B2:B311"/>
@@ -24315,10 +24373,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4513EEF-0F11-4AC5-A4C7-CB00A18EA83B}">
-  <dimension ref="A1:H1268"/>
+  <dimension ref="A1:H1269"/>
   <sheetViews>
-    <sheetView topLeftCell="A1237" workbookViewId="0">
-      <selection activeCell="A1269" sqref="A1269"/>
+    <sheetView tabSelected="1" topLeftCell="A1237" workbookViewId="0">
+      <selection activeCell="B1270" sqref="B1270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57292,6 +57350,32 @@
       </c>
       <c r="H1268">
         <v>4</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1269">
+        <v>1658</v>
+      </c>
+      <c r="B1269" s="1">
+        <v>45025</v>
+      </c>
+      <c r="C1269">
+        <v>2</v>
+      </c>
+      <c r="D1269">
+        <v>3</v>
+      </c>
+      <c r="E1269">
+        <v>4</v>
+      </c>
+      <c r="F1269">
+        <v>6</v>
+      </c>
+      <c r="G1269">
+        <v>7</v>
+      </c>
+      <c r="H1269">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -57454,11 +57538,11 @@
       </c>
       <c r="B3">
         <f>COUNTIF(CSL_Sonuclari!C:J,A3)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="5">
         <f t="shared" si="0"/>
-        <v>3598.25</v>
+        <v>3956.458333333333</v>
       </c>
       <c r="D3">
         <f>COUNTIF(CSL_Sonuclari!J:J,A3)</f>
@@ -57478,35 +57562,35 @@
       </c>
       <c r="H3">
         <f>COUNTIF(CSL_Sonuclari!C:H,A3)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" s="5">
         <f t="shared" si="3"/>
-        <v>4493</v>
+        <v>4970.6111111111104</v>
       </c>
       <c r="J3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H3,"")</f>
-        <v>6678</v>
+        <v>7049</v>
       </c>
       <c r="K3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H3,"")</f>
-        <v>2268</v>
+        <v>2394</v>
       </c>
       <c r="L3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H3,"")</f>
-        <v>5868</v>
+        <v>6194</v>
       </c>
       <c r="M3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H3,"")</f>
-        <v>2916</v>
+        <v>3078</v>
       </c>
       <c r="N3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H3,"")</f>
-        <v>4314</v>
+        <v>4553.6666666666661</v>
       </c>
       <c r="O3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H3,"")</f>
-        <v>4914</v>
+        <v>6555</v>
       </c>
       <c r="P3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F3,"")</f>
@@ -58006,11 +58090,11 @@
       </c>
       <c r="B11">
         <f>COUNTIF(CSL_Sonuclari!C:J,A11)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="0"/>
-        <v>3042.3673469387754</v>
+        <v>3263.1071428571427</v>
       </c>
       <c r="D11">
         <f>COUNTIF(CSL_Sonuclari!J:J,A11)</f>
@@ -58030,31 +58114,31 @@
       </c>
       <c r="H11">
         <f>COUNTIF(CSL_Sonuclari!C:H,A11)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" si="3"/>
-        <v>4144.7142857142853</v>
+        <v>4453.75</v>
       </c>
       <c r="J11">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H11,"")</f>
-        <v>5496</v>
+        <v>5725</v>
       </c>
       <c r="K11">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H11,"")</f>
-        <v>6825</v>
+        <v>7109.375</v>
       </c>
       <c r="L11">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H11,"")</f>
-        <v>3318</v>
+        <v>3456.25</v>
       </c>
       <c r="M11">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H11,"")</f>
-        <v>4772.5714285714284</v>
+        <v>5653.125</v>
       </c>
       <c r="N11">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H11,"")</f>
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="O11" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H11,"")</f>
@@ -60145,11 +60229,11 @@
       </c>
       <c r="B42">
         <f>COUNTIF(CSL_Sonuclari!C:J,A42)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C42" s="5">
         <f t="shared" si="4"/>
-        <v>4018.1736111111113</v>
+        <v>4264</v>
       </c>
       <c r="D42">
         <f>COUNTIF(CSL_Sonuclari!J:J,A42)</f>
@@ -60169,23 +60253,23 @@
       </c>
       <c r="H42">
         <f>COUNTIF(CSL_Sonuclari!C:H,A42)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I42" s="5">
         <f t="shared" si="7"/>
-        <v>5555.010416666667</v>
+        <v>5923.75</v>
       </c>
       <c r="J42">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H42,"")</f>
-        <v>6467</v>
+        <v>6690</v>
       </c>
       <c r="K42">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H42,"")</f>
-        <v>4736.666666666667</v>
+        <v>4900</v>
       </c>
       <c r="L42">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H42,"")</f>
-        <v>5926.875</v>
+        <v>6840</v>
       </c>
       <c r="M42" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H42,"")</f>
@@ -60193,7 +60277,7 @@
       </c>
       <c r="N42">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H42,"")</f>
-        <v>5089.5</v>
+        <v>5265</v>
       </c>
       <c r="O42" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H42,"")</f>
@@ -60490,19 +60574,19 @@
       </c>
       <c r="B47">
         <f>COUNTIF(CSL_Sonuclari!C:J,A47)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47" s="5">
         <f t="shared" si="4"/>
-        <v>3817.3599999999997</v>
+        <v>3900.7599999999998</v>
       </c>
       <c r="D47">
         <f>COUNTIF(CSL_Sonuclari!J:J,A47)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E47" s="5">
         <f t="shared" si="5"/>
-        <v>579</v>
+        <v>996</v>
       </c>
       <c r="F47" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A47)</f>
@@ -60550,7 +60634,7 @@
       </c>
       <c r="Q47">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D47,"")</f>
-        <v>579</v>
+        <v>996</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
@@ -61042,11 +61126,11 @@
       </c>
       <c r="B55">
         <f>COUNTIF(CSL_Sonuclari!C:J,A55)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C55" s="5">
         <f t="shared" si="4"/>
-        <v>3328.5238095238096</v>
+        <v>3551.5714285714284</v>
       </c>
       <c r="D55">
         <f>COUNTIF(CSL_Sonuclari!J:J,A55)</f>
@@ -61066,31 +61150,31 @@
       </c>
       <c r="H55">
         <f>COUNTIF(CSL_Sonuclari!C:H,A55)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I55" s="5">
         <f t="shared" si="7"/>
-        <v>4334.3333333333339</v>
+        <v>4646.6000000000004</v>
       </c>
       <c r="J55">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H55,"")</f>
-        <v>5285</v>
+        <v>5549.25</v>
       </c>
       <c r="K55">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H55,"")</f>
-        <v>2880</v>
+        <v>3501.75</v>
       </c>
       <c r="L55">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H55,"")</f>
-        <v>3266.666666666667</v>
+        <v>3430</v>
       </c>
       <c r="M55">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H55,"")</f>
-        <v>6680</v>
+        <v>7014</v>
       </c>
       <c r="N55">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H55,"")</f>
-        <v>3560</v>
+        <v>3738</v>
       </c>
       <c r="O55" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H55,"")</f>
@@ -61111,11 +61195,11 @@
       </c>
       <c r="B56">
         <f>COUNTIF(CSL_Sonuclari!C:J,A56)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C56" s="5">
         <f t="shared" si="4"/>
-        <v>4408.4761904761908</v>
+        <v>4757.0079365079364</v>
       </c>
       <c r="D56">
         <f>COUNTIF(CSL_Sonuclari!J:J,A56)</f>
@@ -61135,31 +61219,31 @@
       </c>
       <c r="H56">
         <f>COUNTIF(CSL_Sonuclari!C:H,A56)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I56" s="5">
         <f t="shared" si="7"/>
-        <v>5670.666666666667</v>
+        <v>6158.6111111111113</v>
       </c>
       <c r="J56">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H56,"")</f>
-        <v>5736</v>
+        <v>5975</v>
       </c>
       <c r="K56">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H56,"")</f>
-        <v>5040</v>
+        <v>5250</v>
       </c>
       <c r="L56">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H56,"")</f>
-        <v>6629.3333333333339</v>
+        <v>6905.5555555555557</v>
       </c>
       <c r="M56">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H56,"")</f>
-        <v>5772</v>
+        <v>6012.5</v>
       </c>
       <c r="N56">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H56,"")</f>
-        <v>5176</v>
+        <v>6650</v>
       </c>
       <c r="O56" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H56,"")</f>
@@ -61387,11 +61471,11 @@
       </c>
       <c r="B60">
         <f>COUNTIF(CSL_Sonuclari!C:J,A60)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C60" s="5">
         <f t="shared" si="4"/>
-        <v>4548.2777777777774</v>
+        <v>4617.7777777777774</v>
       </c>
       <c r="D60">
         <f>COUNTIF(CSL_Sonuclari!J:J,A60)</f>
@@ -61403,11 +61487,11 @@
       </c>
       <c r="F60" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A60)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G60" s="8">
         <f t="shared" si="6"/>
-        <v>1085</v>
+        <v>1502</v>
       </c>
       <c r="H60">
         <f>COUNTIF(CSL_Sonuclari!C:H,A60)</f>
@@ -61443,7 +61527,7 @@
       </c>
       <c r="P60">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F60,"")</f>
-        <v>1085</v>
+        <v>1502</v>
       </c>
       <c r="Q60">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D60,"")</f>
@@ -63319,11 +63403,11 @@
       </c>
       <c r="B88">
         <f>COUNTIF(CSL_Sonuclari!C:J,A88)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C88" s="5">
         <f t="shared" si="8"/>
-        <v>2857.0514285714285</v>
+        <v>2982.8857142857146</v>
       </c>
       <c r="D88">
         <f>COUNTIF(CSL_Sonuclari!J:J,A88)</f>
@@ -63343,19 +63427,19 @@
       </c>
       <c r="H88">
         <f>COUNTIF(CSL_Sonuclari!C:H,A88)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I88" s="5">
         <f t="shared" si="11"/>
-        <v>4041.0857142857144</v>
+        <v>4250.8095238095239</v>
       </c>
       <c r="J88">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H88,"")</f>
-        <v>7154.4000000000005</v>
+        <v>7633</v>
       </c>
       <c r="K88">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H88,"")</f>
-        <v>4209.8571428571431</v>
+        <v>4337.4285714285716</v>
       </c>
       <c r="L88" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H88,"")</f>
@@ -63371,7 +63455,7 @@
       </c>
       <c r="O88">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H88,"")</f>
-        <v>759</v>
+        <v>782</v>
       </c>
       <c r="P88">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F88,"")</f>
@@ -64075,11 +64159,11 @@
       </c>
       <c r="B15">
         <f>COUNTIF(SL_Sonuclari!C:H,A15)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="0"/>
-        <v>185.37330447330447</v>
+        <v>188.21269841269844</v>
       </c>
       <c r="D15">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A15,SL_Sonuclari!A:A),"")</f>
@@ -64087,7 +64171,7 @@
       </c>
       <c r="E15">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A15,SL_Sonuclari!A:A),"")</f>
-        <v>246.63636363636363</v>
+        <v>260.83333333333331</v>
       </c>
       <c r="F15">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A15,SL_Sonuclari!A:A),"")</f>
@@ -64240,15 +64324,15 @@
       </c>
       <c r="B20">
         <f>COUNTIF(SL_Sonuclari!C:H,A20)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
-        <v>203.89665032679738</v>
+        <v>209.86053921568629</v>
       </c>
       <c r="D20">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A20,SL_Sonuclari!A:A),"")</f>
-        <v>178.44444444444446</v>
+        <v>202.3</v>
       </c>
       <c r="E20">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A20,SL_Sonuclari!A:A),"")</f>
@@ -64669,11 +64753,11 @@
       </c>
       <c r="B33">
         <f>COUNTIF(SL_Sonuclari!C:H,A33)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C33" s="5">
         <f t="shared" si="0"/>
-        <v>177.25931013431014</v>
+        <v>181.24978632478633</v>
       </c>
       <c r="D33" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A33,SL_Sonuclari!A:A),"")</f>
@@ -64685,7 +64769,7 @@
       </c>
       <c r="F33">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A33,SL_Sonuclari!A:A),"")</f>
-        <v>177.57142857142858</v>
+        <v>193.53333333333333</v>
       </c>
       <c r="G33">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A33,SL_Sonuclari!A:A),"")</f>
@@ -64702,7 +64786,7 @@
       </c>
       <c r="B34">
         <f>COUNTIF(SL_Sonuclari!C:H,A34)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C34" s="5">
         <f t="shared" ref="C34:C61" si="1">AVERAGE(D34:H34)</f>
@@ -64735,11 +64819,11 @@
       </c>
       <c r="B35">
         <f>COUNTIF(SL_Sonuclari!C:H,A35)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C35" s="5">
         <f t="shared" si="1"/>
-        <v>207.44666666666663</v>
+        <v>211.3848484848485</v>
       </c>
       <c r="D35">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A35,SL_Sonuclari!A:A),"")</f>
@@ -64755,7 +64839,7 @@
       </c>
       <c r="G35">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A35,SL_Sonuclari!A:A),"")</f>
-        <v>200.4</v>
+        <v>220.09090909090909</v>
       </c>
       <c r="H35">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A35,SL_Sonuclari!A:A),"")</f>
@@ -65362,11 +65446,11 @@
       </c>
       <c r="B54">
         <f>COUNTIF(SL_Sonuclari!C:H,A54)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C54" s="5">
         <f t="shared" si="1"/>
-        <v>226</v>
+        <v>229.46666666666664</v>
       </c>
       <c r="D54">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A54,SL_Sonuclari!A:A),"")</f>
@@ -65386,7 +65470,7 @@
       </c>
       <c r="H54">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A54,SL_Sonuclari!A:A),"")</f>
-        <v>261</v>
+        <v>278.33333333333331</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">

--- a/SLIStatistik.xlsx
+++ b/SLIStatistik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\ReadExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60E26F8-79D9-4E38-BEF4-73102FDB6CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173DB15C-2306-4B6E-B432-9A8120E865CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
+    <workbookView xWindow="0" yWindow="945" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
   </bookViews>
   <sheets>
     <sheet name="CSL_Sonuclari" sheetId="2" r:id="rId1"/>
@@ -612,13 +612,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21120D27-1448-4179-993C-6B3BE739480A}">
-  <dimension ref="A1:L419"/>
+  <dimension ref="A1:J420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B393" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A420" sqref="A420"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,7 +628,7 @@
     <col min="3" max="10" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -659,9 +659,8 @@
       <c r="J1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -690,7 +689,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -719,7 +718,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -748,7 +747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -777,7 +776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -806,7 +805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -834,9 +833,8 @@
       <c r="I7" s="2">
         <v>30</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -865,7 +863,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -894,7 +892,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -923,7 +921,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -952,7 +950,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -981,7 +979,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1010,7 +1008,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1039,7 +1037,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1068,7 +1066,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -13445,6 +13443,38 @@
       </c>
       <c r="J419" s="2">
         <v>80</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A420" s="2">
+        <v>418</v>
+      </c>
+      <c r="B420" s="1">
+        <v>45024</v>
+      </c>
+      <c r="C420" s="2">
+        <v>1</v>
+      </c>
+      <c r="D420" s="2">
+        <v>2</v>
+      </c>
+      <c r="E420" s="2">
+        <v>11</v>
+      </c>
+      <c r="F420" s="2">
+        <v>33</v>
+      </c>
+      <c r="G420" s="2">
+        <v>38</v>
+      </c>
+      <c r="H420" s="2">
+        <v>89</v>
+      </c>
+      <c r="I420" s="2">
+        <v>81</v>
+      </c>
+      <c r="J420" s="2">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -13458,10 +13488,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8BCBFC-83B0-4863-9D9A-FF955DDDA58C}">
-  <dimension ref="A1:H419"/>
+  <dimension ref="A1:H420"/>
   <sheetViews>
     <sheetView topLeftCell="A386" workbookViewId="0">
-      <selection activeCell="A420" sqref="A420"/>
+      <selection activeCell="H421" sqref="H421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24361,6 +24391,32 @@
       </c>
       <c r="H419">
         <v>49</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>418</v>
+      </c>
+      <c r="B420" s="1">
+        <v>45027</v>
+      </c>
+      <c r="C420">
+        <v>8</v>
+      </c>
+      <c r="D420">
+        <v>10</v>
+      </c>
+      <c r="E420">
+        <v>13</v>
+      </c>
+      <c r="F420">
+        <v>33</v>
+      </c>
+      <c r="G420">
+        <v>36</v>
+      </c>
+      <c r="H420">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -24375,8 +24431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4513EEF-0F11-4AC5-A4C7-CB00A18EA83B}">
   <dimension ref="A1:H1269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1237" workbookViewId="0">
-      <selection activeCell="B1270" sqref="B1270"/>
+    <sheetView tabSelected="1" topLeftCell="A1251" workbookViewId="0">
+      <selection activeCell="G1268" sqref="G1268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57389,10 +57445,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A55E31F-00A6-45CC-856C-785A4E4D2184}">
-  <dimension ref="A1:Q91"/>
+  <dimension ref="A1:S420"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57410,7 +57466,7 @@
     <col min="17" max="17" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -57462,8 +57518,9 @@
       <c r="Q1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>30</v>
       </c>
@@ -57531,8 +57588,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D2,"")</f>
         <v>682</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2" s="2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R2)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>51</v>
       </c>
@@ -57600,18 +57664,25 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D3,"")</f>
         <v>317</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" s="2">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R3)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <f>COUNTIF(CSL_Sonuclari!C:J,A4)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" s="5">
         <f t="shared" si="0"/>
-        <v>2438.3333333333335</v>
+        <v>4291.306818181818</v>
       </c>
       <c r="D4">
         <f>COUNTIF(CSL_Sonuclari!J:J,A4)</f>
@@ -57631,19 +57702,19 @@
       </c>
       <c r="H4">
         <f>COUNTIF(CSL_Sonuclari!C:H,A4)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I4" s="5">
         <f t="shared" si="3"/>
-        <v>5197</v>
+        <v>7523.613636363636</v>
       </c>
       <c r="J4">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H4,"")</f>
-        <v>5197</v>
-      </c>
-      <c r="K4" t="str">
+        <v>5433.227272727273</v>
+      </c>
+      <c r="K4">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H4,"")</f>
-        <v/>
+        <v>9614</v>
       </c>
       <c r="L4" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H4,"")</f>
@@ -57669,8 +57740,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D4,"")</f>
         <v>1582</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4" s="2">
+        <v>3</v>
+      </c>
+      <c r="S4">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R4)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>70</v>
       </c>
@@ -57738,8 +57816,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D5,"")</f>
         <v>1442</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5" s="2">
+        <v>4</v>
+      </c>
+      <c r="S5">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R5)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
@@ -57807,8 +57892,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D6,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6" s="2">
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R6)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -57876,8 +57968,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D7,"")</f>
         <v>748</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7" s="2">
+        <v>6</v>
+      </c>
+      <c r="S7">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R7)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>76</v>
       </c>
@@ -57945,26 +58044,33 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D8,"")</f>
         <v>1400</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8" s="2">
+        <v>7</v>
+      </c>
+      <c r="S8">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R8)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>50</v>
       </c>
       <c r="B9">
         <f>COUNTIF(CSL_Sonuclari!C:J,A9)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>4165.5892857142853</v>
+        <v>4225.3035714285716</v>
       </c>
       <c r="D9">
         <f>COUNTIF(CSL_Sonuclari!J:J,A9)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="1"/>
-        <v>913</v>
+        <v>1331</v>
       </c>
       <c r="F9" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A9)</f>
@@ -58012,10 +58118,17 @@
       </c>
       <c r="Q9">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D9,"")</f>
-        <v>913</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+      <c r="R9" s="2">
+        <v>8</v>
+      </c>
+      <c r="S9">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R9)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>34</v>
       </c>
@@ -58083,8 +58196,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D10,"")</f>
         <v>680</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10" s="2">
+        <v>9</v>
+      </c>
+      <c r="S10">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R10)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>31</v>
       </c>
@@ -58152,8 +58272,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D11,"")</f>
         <v>244</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11" s="2">
+        <v>10</v>
+      </c>
+      <c r="S11">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R11)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>54</v>
       </c>
@@ -58221,8 +58348,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D12,"")</f>
         <v>239</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12" s="2">
+        <v>11</v>
+      </c>
+      <c r="S12">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R12)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>17</v>
       </c>
@@ -58290,18 +58424,25 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D13,"")</f>
         <v>812</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13" s="2">
+        <v>12</v>
+      </c>
+      <c r="S13">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R13)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>38</v>
       </c>
       <c r="B14">
         <f>COUNTIF(CSL_Sonuclari!C:J,A14)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="0"/>
-        <v>4946.6853741496598</v>
+        <v>5388.7585034013609</v>
       </c>
       <c r="D14">
         <f>COUNTIF(CSL_Sonuclari!J:J,A14)</f>
@@ -58321,31 +58462,31 @@
       </c>
       <c r="H14">
         <f>COUNTIF(CSL_Sonuclari!C:H,A14)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" si="3"/>
-        <v>6697.5595238095239</v>
+        <v>7316.4619047619053</v>
       </c>
       <c r="J14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H14,"")</f>
-        <v>9100</v>
+        <v>9464</v>
       </c>
       <c r="K14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H14,"")</f>
-        <v>6560.7142857142862</v>
+        <v>6823.1428571428578</v>
       </c>
       <c r="L14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H14,"")</f>
-        <v>5039.5833333333339</v>
+        <v>5241.166666666667</v>
       </c>
       <c r="M14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H14,"")</f>
-        <v>5712.5</v>
+        <v>5941</v>
       </c>
       <c r="N14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H14,"")</f>
-        <v>7075</v>
+        <v>9113</v>
       </c>
       <c r="O14" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H14,"")</f>
@@ -58359,8 +58500,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D14,"")</f>
         <v>287</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14" s="2">
+        <v>13</v>
+      </c>
+      <c r="S14">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R14)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>36</v>
       </c>
@@ -58428,8 +58576,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D15,"")</f>
         <v>575</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15" s="2">
+        <v>14</v>
+      </c>
+      <c r="S15">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R15)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>82</v>
       </c>
@@ -58497,8 +58652,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D16,"")</f>
         <v>1006</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16" s="2">
+        <v>15</v>
+      </c>
+      <c r="S16">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R16)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -58566,8 +58728,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D17,"")</f>
         <v>206</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17" s="2">
+        <v>16</v>
+      </c>
+      <c r="S17">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R17)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>75</v>
       </c>
@@ -58635,8 +58804,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D18,"")</f>
         <v>600</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18" s="2">
+        <v>17</v>
+      </c>
+      <c r="S18">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R18)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>85</v>
       </c>
@@ -58704,8 +58880,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D19,"")</f>
         <v>698</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R19" s="2">
+        <v>18</v>
+      </c>
+      <c r="S19">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R19)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>65</v>
       </c>
@@ -58773,8 +58956,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D20,"")</f>
         <v>851</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R20" s="2">
+        <v>19</v>
+      </c>
+      <c r="S20">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R20)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>35</v>
       </c>
@@ -58842,8 +59032,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D21,"")</f>
         <v>720</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R21" s="2">
+        <v>20</v>
+      </c>
+      <c r="S21">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R21)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>66</v>
       </c>
@@ -58911,8 +59108,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D22,"")</f>
         <v>612</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R22" s="2">
+        <v>21</v>
+      </c>
+      <c r="S22">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R22)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>58</v>
       </c>
@@ -58980,18 +59184,25 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D23,"")</f>
         <v>409</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R23" s="2">
+        <v>22</v>
+      </c>
+      <c r="S23">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R23)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>81</v>
       </c>
       <c r="B24">
         <f>COUNTIF(CSL_Sonuclari!C:J,A24)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24" s="5">
         <f t="shared" si="0"/>
-        <v>5282.2006802721089</v>
+        <v>5341.9149659863951</v>
       </c>
       <c r="D24">
         <f>COUNTIF(CSL_Sonuclari!J:J,A24)</f>
@@ -59003,11 +59214,11 @@
       </c>
       <c r="F24" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A24)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G24" s="8">
         <f t="shared" si="2"/>
-        <v>574</v>
+        <v>992</v>
       </c>
       <c r="H24">
         <f>COUNTIF(CSL_Sonuclari!C:H,A24)</f>
@@ -59043,14 +59254,21 @@
       </c>
       <c r="P24">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F24,"")</f>
-        <v>574</v>
+        <v>992</v>
       </c>
       <c r="Q24">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D24,"")</f>
         <v>1103</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R24" s="2">
+        <v>23</v>
+      </c>
+      <c r="S24">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R24)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>7</v>
       </c>
@@ -59118,8 +59336,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D25,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R25" s="2">
+        <v>24</v>
+      </c>
+      <c r="S25">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R25)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>68</v>
       </c>
@@ -59187,8 +59412,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D26,"")</f>
         <v>659</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R26" s="2">
+        <v>25</v>
+      </c>
+      <c r="S26">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R26)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>14</v>
       </c>
@@ -59256,18 +59488,25 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D27,"")</f>
         <v>1443</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R27" s="2">
+        <v>26</v>
+      </c>
+      <c r="S27">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R27)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>33</v>
       </c>
       <c r="B28">
         <f>COUNTIF(CSL_Sonuclari!C:J,A28)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C28" s="5">
         <f t="shared" si="0"/>
-        <v>3730.298701298701</v>
+        <v>3955.3982683982686</v>
       </c>
       <c r="D28">
         <f>COUNTIF(CSL_Sonuclari!J:J,A28)</f>
@@ -59287,35 +59526,35 @@
       </c>
       <c r="H28">
         <f>COUNTIF(CSL_Sonuclari!C:H,A28)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I28" s="5">
         <f t="shared" si="3"/>
-        <v>4055.681818181818</v>
+        <v>4318.2979797979797</v>
       </c>
       <c r="J28">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H28,"")</f>
-        <v>8125</v>
+        <v>8450</v>
       </c>
       <c r="K28">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H28,"")</f>
-        <v>5034.090909090909</v>
+        <v>5235.454545454546</v>
       </c>
       <c r="L28">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H28,"")</f>
-        <v>3925</v>
+        <v>4082</v>
       </c>
       <c r="M28">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H28,"")</f>
-        <v>6975</v>
+        <v>7856.3333333333339</v>
       </c>
       <c r="N28">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H28,"")</f>
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="O28">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H28,"")</f>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P28">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F28,"")</f>
@@ -59325,8 +59564,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D28,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R28" s="2">
+        <v>27</v>
+      </c>
+      <c r="S28">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R28)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>41</v>
       </c>
@@ -59394,8 +59640,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D29,"")</f>
         <v>960</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R29" s="2">
+        <v>28</v>
+      </c>
+      <c r="S29">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R29)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -59463,8 +59716,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D30,"")</f>
         <v>557</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R30" s="2">
+        <v>29</v>
+      </c>
+      <c r="S30">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R30)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>78</v>
       </c>
@@ -59532,8 +59792,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D31,"")</f>
         <v>227</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R31" s="2">
+        <v>30</v>
+      </c>
+      <c r="S31">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R31)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>59</v>
       </c>
@@ -59601,8 +59868,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D32,"")</f>
         <v>1070</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R32" s="2">
+        <v>31</v>
+      </c>
+      <c r="S32">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R32)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -59670,8 +59944,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D33,"")</f>
         <v>1076</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R33" s="2">
+        <v>32</v>
+      </c>
+      <c r="S33">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R33)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>27</v>
       </c>
@@ -59739,8 +60020,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D34,"")</f>
         <v>216</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R34" s="2">
+        <v>33</v>
+      </c>
+      <c r="S34">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R34)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>63</v>
       </c>
@@ -59808,8 +60096,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D35,"")</f>
         <v>649</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R35" s="2">
+        <v>34</v>
+      </c>
+      <c r="S35">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R35)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>9</v>
       </c>
@@ -59877,8 +60172,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D36,"")</f>
         <v>613</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R36" s="2">
+        <v>35</v>
+      </c>
+      <c r="S36">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R36)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>48</v>
       </c>
@@ -59946,8 +60248,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D37,"")</f>
         <v>631</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R37" s="2">
+        <v>36</v>
+      </c>
+      <c r="S37">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R37)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>28</v>
       </c>
@@ -60015,8 +60324,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D38,"")</f>
         <v>577</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R38" s="2">
+        <v>37</v>
+      </c>
+      <c r="S38">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R38)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>60</v>
       </c>
@@ -60084,8 +60400,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D39,"")</f>
         <v>694</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R39" s="2">
+        <v>38</v>
+      </c>
+      <c r="S39">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R39)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>26</v>
       </c>
@@ -60153,8 +60476,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D40,"")</f>
         <v>1321</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R40" s="2">
+        <v>39</v>
+      </c>
+      <c r="S40">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R40)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>64</v>
       </c>
@@ -60222,8 +60552,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D41,"")</f>
         <v>383</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R41" s="2">
+        <v>40</v>
+      </c>
+      <c r="S41">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R41)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>21</v>
       </c>
@@ -60291,8 +60628,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D42,"")</f>
         <v>1508</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R42" s="2">
+        <v>41</v>
+      </c>
+      <c r="S42">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R42)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>37</v>
       </c>
@@ -60360,8 +60704,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D43,"")</f>
         <v>581</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R43" s="2">
+        <v>42</v>
+      </c>
+      <c r="S43">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R43)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>77</v>
       </c>
@@ -60429,8 +60780,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D44,"")</f>
         <v>646</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R44" s="2">
+        <v>43</v>
+      </c>
+      <c r="S44">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R44)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>57</v>
       </c>
@@ -60498,8 +60856,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D45,"")</f>
         <v>274</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R45" s="2">
+        <v>44</v>
+      </c>
+      <c r="S45">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R45)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>42</v>
       </c>
@@ -60567,8 +60932,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D46,"")</f>
         <v>618</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R46" s="2">
+        <v>45</v>
+      </c>
+      <c r="S46">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R46)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>80</v>
       </c>
@@ -60636,8 +61008,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D47,"")</f>
         <v>996</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R47" s="2">
+        <v>46</v>
+      </c>
+      <c r="S47">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R47)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>55</v>
       </c>
@@ -60705,8 +61084,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D48,"")</f>
         <v>597</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R48" s="2">
+        <v>47</v>
+      </c>
+      <c r="S48">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R48)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>67</v>
       </c>
@@ -60774,8 +61160,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D49,"")</f>
         <v>720</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R49" s="2">
+        <v>48</v>
+      </c>
+      <c r="S49">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R49)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>74</v>
       </c>
@@ -60843,8 +61236,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D50,"")</f>
         <v>1575</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R50" s="2">
+        <v>49</v>
+      </c>
+      <c r="S50">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R50)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>6</v>
       </c>
@@ -60912,8 +61312,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D51,"")</f>
         <v>550</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R51" s="2">
+        <v>50</v>
+      </c>
+      <c r="S51">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R51)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>39</v>
       </c>
@@ -60981,8 +61388,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D52,"")</f>
         <v>308</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R52" s="2">
+        <v>51</v>
+      </c>
+      <c r="S52">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R52)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>19</v>
       </c>
@@ -61050,8 +61464,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D53,"")</f>
         <v>573</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R53" s="2">
+        <v>52</v>
+      </c>
+      <c r="S53">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R53)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>62</v>
       </c>
@@ -61119,8 +61540,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D54,"")</f>
         <v>1047</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R54" s="2">
+        <v>53</v>
+      </c>
+      <c r="S54">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R54)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>20</v>
       </c>
@@ -61188,8 +61616,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D55,"")</f>
         <v>852</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R55" s="2">
+        <v>54</v>
+      </c>
+      <c r="S55">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R55)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>40</v>
       </c>
@@ -61257,8 +61692,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D56,"")</f>
         <v>1315</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R56" s="2">
+        <v>55</v>
+      </c>
+      <c r="S56">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R56)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>45</v>
       </c>
@@ -61326,8 +61768,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D57,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R57" s="2">
+        <v>56</v>
+      </c>
+      <c r="S57">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R57)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>79</v>
       </c>
@@ -61395,18 +61844,25 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D58,"")</f>
         <v>735</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R58" s="2">
+        <v>57</v>
+      </c>
+      <c r="S58">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R58)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
       <c r="B59">
         <f>COUNTIF(CSL_Sonuclari!C:J,A59)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C59" s="5">
         <f t="shared" si="4"/>
-        <v>1903.953125</v>
+        <v>2014.4772727272727</v>
       </c>
       <c r="D59">
         <f>COUNTIF(CSL_Sonuclari!J:J,A59)</f>
@@ -61426,15 +61882,15 @@
       </c>
       <c r="H59">
         <f>COUNTIF(CSL_Sonuclari!C:H,A59)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I59" s="5">
         <f t="shared" si="7"/>
-        <v>3313.40625</v>
+        <v>3534.4545454545455</v>
       </c>
       <c r="J59">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H59,"")</f>
-        <v>6065.8125</v>
+        <v>6490.909090909091</v>
       </c>
       <c r="K59" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H59,"")</f>
@@ -61442,7 +61898,7 @@
       </c>
       <c r="L59">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H59,"")</f>
-        <v>561</v>
+        <v>578</v>
       </c>
       <c r="M59" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H59,"")</f>
@@ -61464,8 +61920,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D59,"")</f>
         <v>351</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R59" s="2">
+        <v>58</v>
+      </c>
+      <c r="S59">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R59)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>24</v>
       </c>
@@ -61533,8 +61996,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D60,"")</f>
         <v>1338</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R60" s="2">
+        <v>59</v>
+      </c>
+      <c r="S60">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R60)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>47</v>
       </c>
@@ -61602,8 +62072,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D61,"")</f>
         <v>923</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R61" s="2">
+        <v>60</v>
+      </c>
+      <c r="S61">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R61)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>52</v>
       </c>
@@ -61671,8 +62148,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D62,"")</f>
         <v>1419</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R62" s="2">
+        <v>61</v>
+      </c>
+      <c r="S62">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R62)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>72</v>
       </c>
@@ -61740,8 +62224,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D63,"")</f>
         <v>270</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R63" s="2">
+        <v>62</v>
+      </c>
+      <c r="S63">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R63)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>22</v>
       </c>
@@ -61809,8 +62300,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D64,"")</f>
         <v>558</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R64" s="2">
+        <v>63</v>
+      </c>
+      <c r="S64">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R64)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>84</v>
       </c>
@@ -61878,8 +62376,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D65,"")</f>
         <v>1012</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R65" s="2">
+        <v>64</v>
+      </c>
+      <c r="S65">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R65)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>8</v>
       </c>
@@ -61947,8 +62452,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D66,"")</f>
         <v>816</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R66" s="2">
+        <v>65</v>
+      </c>
+      <c r="S66">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R66)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>69</v>
       </c>
@@ -62016,8 +62528,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D67,"")</f>
         <v>1610</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R67" s="2">
+        <v>66</v>
+      </c>
+      <c r="S67">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R67)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>25</v>
       </c>
@@ -62085,8 +62604,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D68,"")</f>
         <v>468</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R68" s="2">
+        <v>67</v>
+      </c>
+      <c r="S68">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R68)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>44</v>
       </c>
@@ -62154,8 +62680,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D69,"")</f>
         <v>834</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R69" s="2">
+        <v>68</v>
+      </c>
+      <c r="S69">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R69)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>49</v>
       </c>
@@ -62223,8 +62756,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D70,"")</f>
         <v>737</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R70" s="2">
+        <v>69</v>
+      </c>
+      <c r="S70">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R70)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>43</v>
       </c>
@@ -62292,8 +62832,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D71,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R71" s="2">
+        <v>70</v>
+      </c>
+      <c r="S71">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R71)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>83</v>
       </c>
@@ -62361,8 +62908,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D72,"")</f>
         <v>575</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R72" s="2">
+        <v>71</v>
+      </c>
+      <c r="S72">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R72)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>73</v>
       </c>
@@ -62430,8 +62984,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D73,"")</f>
         <v>1126</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R73" s="2">
+        <v>72</v>
+      </c>
+      <c r="S73">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R73)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>12</v>
       </c>
@@ -62499,8 +63060,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D74,"")</f>
         <v>307</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R74" s="2">
+        <v>73</v>
+      </c>
+      <c r="S74">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R74)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>53</v>
       </c>
@@ -62568,8 +63136,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D75,"")</f>
         <v>1551</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R75" s="2">
+        <v>74</v>
+      </c>
+      <c r="S75">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R75)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>46</v>
       </c>
@@ -62637,8 +63212,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D76,"")</f>
         <v>630</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R76" s="2">
+        <v>75</v>
+      </c>
+      <c r="S76">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R76)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>90</v>
       </c>
@@ -62706,18 +63288,25 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D77,"")</f>
         <v>304</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R77" s="2">
+        <v>76</v>
+      </c>
+      <c r="S77">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R77)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>11</v>
       </c>
       <c r="B78">
         <f>COUNTIF(CSL_Sonuclari!C:J,A78)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C78" s="5">
         <f t="shared" si="8"/>
-        <v>4145.6845238095239</v>
+        <v>4564.9375</v>
       </c>
       <c r="D78">
         <f>COUNTIF(CSL_Sonuclari!J:J,A78)</f>
@@ -62737,23 +63326,23 @@
       </c>
       <c r="H78">
         <f>COUNTIF(CSL_Sonuclari!C:H,A78)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I78" s="5">
         <f t="shared" si="11"/>
-        <v>5688.7767857142862</v>
+        <v>6317.65625</v>
       </c>
       <c r="J78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H78,"")</f>
-        <v>8742.8571428571431</v>
+        <v>9000</v>
       </c>
       <c r="K78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H78,"")</f>
-        <v>6498.25</v>
+        <v>6689.375</v>
       </c>
       <c r="L78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H78,"")</f>
-        <v>7038</v>
+        <v>9091.25</v>
       </c>
       <c r="M78" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H78,"")</f>
@@ -62765,7 +63354,7 @@
       </c>
       <c r="O78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H78,"")</f>
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="P78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F78,"")</f>
@@ -62775,8 +63364,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D78,"")</f>
         <v>446</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R78" s="2">
+        <v>77</v>
+      </c>
+      <c r="S78">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R78)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>61</v>
       </c>
@@ -62844,8 +63440,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D79,"")</f>
         <v>933</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R79" s="2">
+        <v>78</v>
+      </c>
+      <c r="S79">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R79)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>56</v>
       </c>
@@ -62913,8 +63516,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D80,"")</f>
         <v>1315</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R80" s="2">
+        <v>79</v>
+      </c>
+      <c r="S80">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R80)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>15</v>
       </c>
@@ -62982,8 +63592,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D81,"")</f>
         <v>653</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R81" s="2">
+        <v>80</v>
+      </c>
+      <c r="S81">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R81)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>86</v>
       </c>
@@ -63051,18 +63668,25 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D82,"")</f>
         <v>646</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R82" s="2">
+        <v>81</v>
+      </c>
+      <c r="S82">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R82)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>89</v>
       </c>
       <c r="B83">
         <f>COUNTIF(CSL_Sonuclari!C:J,A83)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C83" s="5">
         <f t="shared" si="8"/>
-        <v>2797.2916666666665</v>
+        <v>2904.7323232323233</v>
       </c>
       <c r="D83">
         <f>COUNTIF(CSL_Sonuclari!J:J,A83)</f>
@@ -63082,11 +63706,11 @@
       </c>
       <c r="H83">
         <f>COUNTIF(CSL_Sonuclari!C:H,A83)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I83" s="5">
         <f t="shared" si="11"/>
-        <v>3833.4375</v>
+        <v>3994.598484848485</v>
       </c>
       <c r="J83" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H83,"")</f>
@@ -63098,19 +63722,19 @@
       </c>
       <c r="L83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H83,"")</f>
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="M83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H83,"")</f>
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="N83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H83,"")</f>
-        <v>6588</v>
+        <v>6771</v>
       </c>
       <c r="O83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H83,"")</f>
-        <v>8025.75</v>
+        <v>8467.3939393939399</v>
       </c>
       <c r="P83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F83,"")</f>
@@ -63120,8 +63744,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D83,"")</f>
         <v>907</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R83" s="2">
+        <v>82</v>
+      </c>
+      <c r="S83">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R83)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>88</v>
       </c>
@@ -63189,8 +63820,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D84,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R84" s="2">
+        <v>83</v>
+      </c>
+      <c r="S84">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R84)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>87</v>
       </c>
@@ -63258,8 +63896,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D85,"")</f>
         <v>1600</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R85" s="2">
+        <v>84</v>
+      </c>
+      <c r="S85">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R85)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>13</v>
       </c>
@@ -63327,8 +63972,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D86,"")</f>
         <v>1467</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R86" s="2">
+        <v>85</v>
+      </c>
+      <c r="S86">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R86)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>32</v>
       </c>
@@ -63396,8 +64048,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D87,"")</f>
         <v>952</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R87" s="2">
+        <v>86</v>
+      </c>
+      <c r="S87">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R87)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>5</v>
       </c>
@@ -63465,8 +64124,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D88,"")</f>
         <v>1378</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R88" s="2">
+        <v>87</v>
+      </c>
+      <c r="S88">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R88)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>71</v>
       </c>
@@ -63534,8 +64200,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D89,"")</f>
         <v>1381</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R89" s="2">
+        <v>88</v>
+      </c>
+      <c r="S89">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R89)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>18</v>
       </c>
@@ -63603,8 +64276,15 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D90,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R90" s="2">
+        <v>89</v>
+      </c>
+      <c r="S90">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R90)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>23</v>
       </c>
@@ -63671,6 +64351,1987 @@
       <c r="Q91">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D91,"")</f>
         <v>1210</v>
+      </c>
+      <c r="R91" s="2">
+        <v>90</v>
+      </c>
+      <c r="S91">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R91)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S92">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R92)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S93">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R93)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S94">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R94)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S95">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R95)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S96">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R96)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S97">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R97)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S98">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R98)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S99">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R99)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S100">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S101">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R101)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S102">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R102)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S103">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R103)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S104">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R104)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S105">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S106">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R106)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S107">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R107)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S108">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R108)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S109">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R109)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S110">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R110)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S111">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R111)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S112">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R112)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S113">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R113)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S114">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R114)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S115">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R115)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S116">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R116)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S117">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S118">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R118)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S119">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R119)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S120">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R120)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S121">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R121)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S122">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R122)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S123">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R123)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S124">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R124)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S125">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R125)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S126">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R126)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S127">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R127)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S128">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R128)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S129">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R129)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S130">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R130)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S131">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R131)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S132">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R132)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S133">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R133)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S134">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R134)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S135">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R135)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S136">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R136)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S137">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R137)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S138">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R138)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S139">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R139)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S140">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R140)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S141">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R141)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S142">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R142)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S143">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R143)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S144">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R144)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S145">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R145)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S146">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R146)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S147">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R147)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S148">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R148)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S149">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R149)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S150">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R150)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S151">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R151)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S152">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R152)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S153">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R153)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S154">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R154)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S155">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R155)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S156">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R156)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S157">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R157)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S158">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R158)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S159">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R159)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S160">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R160)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S161">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R161)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S162">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R162)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S163">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R163)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S164">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R164)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S165">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R165)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S166">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R166)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S167">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R167)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S168">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R168)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S169">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R169)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S170">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R170)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S171">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R171)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S172">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R172)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S173">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R173)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S174">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R174)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S175">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R175)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S176">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R176)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S177">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R177)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S178">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R178)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S179">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R179)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S180">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R180)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S181">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R181)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S182">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R182)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S183">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R183)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S184">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R184)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S185">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R185)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S186">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R186)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S187">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R187)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S188">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R188)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S189">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R189)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S190">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R190)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S191">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R191)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S192">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R192)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S193">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R193)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S194">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R194)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S195">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R195)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S196">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R196)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S197">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R197)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S198">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R198)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S199">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R199)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S200">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R200)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S201">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R201)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S202">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R202)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S203">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R203)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S204">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R204)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S205">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R205)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S206">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R206)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S207">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R207)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S208">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R208)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S209">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R209)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S210">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R210)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S211">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R211)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S212">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R212)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S213">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R213)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S214">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R214)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S215">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R215)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S216">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R216)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S217">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R217)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S218">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R218)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S219">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R219)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S220">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R220)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S221">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R221)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S222">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R222)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S223">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R223)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S224">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R224)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S225">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R225)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S226">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R226)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S227">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R227)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S228">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R228)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S229">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R229)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S230">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R230)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S231">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R231)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S232">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R232)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S233">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R233)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S234">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R234)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S235">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R235)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S236">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R236)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S237">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R237)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S238">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R238)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S239">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R239)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S240">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R240)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S241">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R241)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S242">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R242)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S243">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R243)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S244">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R244)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S245">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R245)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S246">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R246)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S247">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R247)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S248">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R248)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S249">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R249)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S250">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R250)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S251">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R251)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S252">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R252)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S253">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R253)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S254">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R254)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S255">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R255)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S256">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R256)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S257">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R257)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S258">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R258)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S259">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R259)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S260">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R260)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S261">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R261)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S262">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R262)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S263">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R263)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S264">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R264)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S265">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R265)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S266">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R266)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S267">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R267)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S268">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R268)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S269">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R269)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S270">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R270)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S271">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R271)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S272">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R272)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S273">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R273)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S274">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R274)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S275">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R275)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S276">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R276)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S277">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R277)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S278">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R278)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S279">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R279)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S280">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R280)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S281">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R281)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S282">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R282)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S283">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R283)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S284">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R284)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S285">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R285)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S286">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R286)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S287">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R287)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S288">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R288)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S289">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R289)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S290">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R290)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S291">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R291)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S292">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R292)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S293">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R293)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S294">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R294)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S295">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R295)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S296">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R296)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S297">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R297)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S298">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R298)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S299">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R299)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S300">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R300)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S301">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R301)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S302">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R302)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S303">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R303)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S304">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R304)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S305">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R305)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S306">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R306)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S307">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R307)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S308">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R308)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S309">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R309)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S310">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R310)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S311">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R311)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S312">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R312)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S313">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R313)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S314">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R314)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S315">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R315)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S316">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R316)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S317">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R317)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S318">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R318)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S319">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R319)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S320">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R320)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S321">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R321)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S322">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R322)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S323">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R323)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S324">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R324)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S325">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R325)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S326">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R326)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S327">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R327)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S328">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R328)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S329">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R329)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S330">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R330)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S331">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R331)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S332">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R332)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S333">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R333)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S334">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R334)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S335">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R335)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S336">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R336)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S337">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R337)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S338">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R338)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S339">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R339)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S340">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R340)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S341">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R341)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S342">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R342)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S343">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R343)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S344">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R344)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S345">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R345)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S346">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R346)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S347">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R347)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S348">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R348)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S349">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R349)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S350">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R350)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S351">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R351)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S352">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R352)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S353">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R353)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S354">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R354)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S355">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R355)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S356">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R356)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S357">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R357)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S358">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R358)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S359">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R359)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S360">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R360)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S361">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R361)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S362">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R362)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S363">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R363)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S364">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R364)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S365">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R365)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S366">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R366)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S367">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R367)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S368">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R368)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S369">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R369)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S370">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R370)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S371">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R371)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S372">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R372)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S373">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R373)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S374">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R374)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S375">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R375)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S376">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R376)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S377">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R377)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S378">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R378)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S379">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R379)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S380">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R380)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S381">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R381)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S382">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R382)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S383">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R383)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S384">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R384)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S385">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R385)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S386">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R386)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S387">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R387)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S388">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R388)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S389">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R389)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S390">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R390)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S391">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R391)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S392">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R392)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S393">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R393)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S394">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R394)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S395">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R395)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S396">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R396)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S397">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R397)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S398">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R398)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S399">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R399)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S400">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R400)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S401">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R401)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S402">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R402)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S403">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R403)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S404">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R404)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S405">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R405)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S406">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R406)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S407">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R407)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S408">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R408)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S409">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R409)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S410">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R410)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S411">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R411)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S412">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R412)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S413">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R413)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S414">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R414)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S415">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R415)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S416">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R416)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S417">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R417)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S418">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R418)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S419">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R419)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S420">
+        <f>COUNTIF(CSL_Sonuclari!C:I,$R420)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -63895,11 +66556,11 @@
       </c>
       <c r="B7">
         <f>COUNTIF(SL_Sonuclari!C:H,A7)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="5">
         <f t="shared" si="0"/>
-        <v>166.30752060439559</v>
+        <v>172.10216346153845</v>
       </c>
       <c r="D7">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A7,SL_Sonuclari!A:A),"")</f>
@@ -63911,7 +66572,7 @@
       </c>
       <c r="F7">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A7,SL_Sonuclari!A:A),"")</f>
-        <v>232.57142857142858</v>
+        <v>255.75</v>
       </c>
       <c r="G7">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A7,SL_Sonuclari!A:A),"")</f>
@@ -63961,15 +66622,15 @@
       </c>
       <c r="B9">
         <f>COUNTIF(SL_Sonuclari!C:H,A9)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>193.74166666666667</v>
+        <v>196.07500000000002</v>
       </c>
       <c r="D9">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A9,SL_Sonuclari!A:A),"")</f>
-        <v>222</v>
+        <v>231.33333333333334</v>
       </c>
       <c r="E9">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A9,SL_Sonuclari!A:A),"")</f>
@@ -64027,11 +66688,11 @@
       </c>
       <c r="B11">
         <f>COUNTIF(SL_Sonuclari!C:H,A11)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="0"/>
-        <v>149.11369047619047</v>
+        <v>151.80357142857142</v>
       </c>
       <c r="D11">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A11,SL_Sonuclari!A:A),"")</f>
@@ -64039,7 +66700,7 @@
       </c>
       <c r="E11">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A11,SL_Sonuclari!A:A),"")</f>
-        <v>192.05</v>
+        <v>202.8095238095238</v>
       </c>
       <c r="F11">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A11,SL_Sonuclari!A:A),"")</f>
@@ -64522,7 +67183,7 @@
       </c>
       <c r="B26">
         <f>COUNTIF(SL_Sonuclari!C:H,A26)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" s="5">
         <f t="shared" si="0"/>
@@ -64819,11 +67480,11 @@
       </c>
       <c r="B35">
         <f>COUNTIF(SL_Sonuclari!C:H,A35)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C35" s="5">
         <f t="shared" si="1"/>
-        <v>211.3848484848485</v>
+        <v>214.68333333333331</v>
       </c>
       <c r="D35">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A35,SL_Sonuclari!A:A),"")</f>
@@ -64839,7 +67500,7 @@
       </c>
       <c r="G35">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A35,SL_Sonuclari!A:A),"")</f>
-        <v>220.09090909090909</v>
+        <v>236.58333333333334</v>
       </c>
       <c r="H35">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A35,SL_Sonuclari!A:A),"")</f>
@@ -65347,11 +68008,11 @@
       </c>
       <c r="B51">
         <f>COUNTIF(SL_Sonuclari!C:H,A51)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C51" s="5">
         <f t="shared" si="1"/>
-        <v>186.04772727272729</v>
+        <v>191.08750000000001</v>
       </c>
       <c r="D51" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A51,SL_Sonuclari!A:A),"")</f>
@@ -65371,7 +68032,7 @@
       </c>
       <c r="H51">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A51,SL_Sonuclari!A:A),"")</f>
-        <v>176.09090909090909</v>
+        <v>196.25</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">

--- a/SLIStatistik.xlsx
+++ b/SLIStatistik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\ReadExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173DB15C-2306-4B6E-B432-9A8120E865CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C702D3D-44A8-4397-927E-56594D9B5C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="945" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13725" windowHeight="15600" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
   </bookViews>
   <sheets>
     <sheet name="CSL_Sonuclari" sheetId="2" r:id="rId1"/>
@@ -612,13 +612,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21120D27-1448-4179-993C-6B3BE739480A}">
-  <dimension ref="A1:J420"/>
+  <dimension ref="A1:J421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B391" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="K1:L1048576"/>
+      <selection pane="bottomRight" activeCell="B421" sqref="B421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13450,7 +13450,7 @@
         <v>418</v>
       </c>
       <c r="B420" s="1">
-        <v>45024</v>
+        <v>45026</v>
       </c>
       <c r="C420" s="2">
         <v>1</v>
@@ -13475,6 +13475,38 @@
       </c>
       <c r="J420" s="2">
         <v>50</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A421" s="2">
+        <v>419</v>
+      </c>
+      <c r="B421" s="1">
+        <v>45028</v>
+      </c>
+      <c r="C421" s="2">
+        <v>38</v>
+      </c>
+      <c r="D421" s="2">
+        <v>42</v>
+      </c>
+      <c r="E421" s="2">
+        <v>63</v>
+      </c>
+      <c r="F421" s="2">
+        <v>65</v>
+      </c>
+      <c r="G421" s="2">
+        <v>82</v>
+      </c>
+      <c r="H421" s="2">
+        <v>85</v>
+      </c>
+      <c r="I421" s="2">
+        <v>9</v>
+      </c>
+      <c r="J421" s="2">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -13488,10 +13520,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8BCBFC-83B0-4863-9D9A-FF955DDDA58C}">
-  <dimension ref="A1:H420"/>
+  <dimension ref="A1:H421"/>
   <sheetViews>
-    <sheetView topLeftCell="A386" workbookViewId="0">
-      <selection activeCell="H421" sqref="H421"/>
+    <sheetView topLeftCell="A389" workbookViewId="0">
+      <selection activeCell="A422" sqref="A422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24419,6 +24451,32 @@
         <v>40</v>
       </c>
     </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>419</v>
+      </c>
+      <c r="B421" s="1">
+        <v>45029</v>
+      </c>
+      <c r="C421">
+        <v>2</v>
+      </c>
+      <c r="D421">
+        <v>6</v>
+      </c>
+      <c r="E421">
+        <v>8</v>
+      </c>
+      <c r="F421">
+        <v>20</v>
+      </c>
+      <c r="G421">
+        <v>57</v>
+      </c>
+      <c r="H421">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H311">
     <sortCondition ref="B2:B311"/>
@@ -24429,10 +24487,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4513EEF-0F11-4AC5-A4C7-CB00A18EA83B}">
-  <dimension ref="A1:H1269"/>
+  <dimension ref="A1:H1270"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1251" workbookViewId="0">
-      <selection activeCell="G1268" sqref="G1268"/>
+      <selection activeCell="A1271" sqref="A1271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57432,6 +57490,32 @@
       </c>
       <c r="H1269">
         <v>13</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1270">
+        <v>1659</v>
+      </c>
+      <c r="B1270" s="1">
+        <v>45028</v>
+      </c>
+      <c r="C1270">
+        <v>9</v>
+      </c>
+      <c r="D1270">
+        <v>12</v>
+      </c>
+      <c r="E1270">
+        <v>17</v>
+      </c>
+      <c r="F1270">
+        <v>23</v>
+      </c>
+      <c r="G1270">
+        <v>34</v>
+      </c>
+      <c r="H1270">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -58201,7 +58285,7 @@
       </c>
       <c r="S10">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R10)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -58438,11 +58522,11 @@
       </c>
       <c r="B14">
         <f>COUNTIF(CSL_Sonuclari!C:J,A14)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="0"/>
-        <v>5388.7585034013609</v>
+        <v>5695.8316326530612</v>
       </c>
       <c r="D14">
         <f>COUNTIF(CSL_Sonuclari!J:J,A14)</f>
@@ -58462,31 +58546,31 @@
       </c>
       <c r="H14">
         <f>COUNTIF(CSL_Sonuclari!C:H,A14)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" si="3"/>
-        <v>7316.4619047619053</v>
+        <v>7746.3642857142859</v>
       </c>
       <c r="J14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H14,"")</f>
-        <v>9464</v>
+        <v>10570.5</v>
       </c>
       <c r="K14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H14,"")</f>
-        <v>6823.1428571428578</v>
+        <v>7085.5714285714294</v>
       </c>
       <c r="L14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H14,"")</f>
-        <v>5241.166666666667</v>
+        <v>5442.75</v>
       </c>
       <c r="M14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H14,"")</f>
-        <v>5941</v>
+        <v>6169.5</v>
       </c>
       <c r="N14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H14,"")</f>
-        <v>9113</v>
+        <v>9463.5</v>
       </c>
       <c r="O14" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H14,"")</f>
@@ -58590,11 +58674,11 @@
       </c>
       <c r="B16">
         <f>COUNTIF(CSL_Sonuclari!C:J,A16)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
-        <v>2858.2952380952379</v>
+        <v>3076.9833333333336</v>
       </c>
       <c r="D16">
         <f>COUNTIF(CSL_Sonuclari!J:J,A16)</f>
@@ -58614,11 +58698,11 @@
       </c>
       <c r="H16">
         <f>COUNTIF(CSL_Sonuclari!C:H,A16)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I16" s="5">
         <f t="shared" si="3"/>
-        <v>4003.4428571428571</v>
+        <v>4331.4750000000004</v>
       </c>
       <c r="J16" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H16,"")</f>
@@ -58630,19 +58714,19 @@
       </c>
       <c r="L16">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H16,"")</f>
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M16">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H16,"")</f>
-        <v>5564</v>
+        <v>5778</v>
       </c>
       <c r="N16">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H16,"")</f>
-        <v>5530.5714285714284</v>
+        <v>6439.5</v>
       </c>
       <c r="O16">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H16,"")</f>
-        <v>4789.2</v>
+        <v>4973.3999999999996</v>
       </c>
       <c r="P16">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F16,"")</f>
@@ -58818,11 +58902,11 @@
       </c>
       <c r="B19">
         <f>COUNTIF(CSL_Sonuclari!C:J,A19)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
-        <v>2556.0857142857144</v>
+        <v>2707.0789915966388</v>
       </c>
       <c r="D19">
         <f>COUNTIF(CSL_Sonuclari!J:J,A19)</f>
@@ -58842,11 +58926,11 @@
       </c>
       <c r="H19">
         <f>COUNTIF(CSL_Sonuclari!C:H,A19)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I19" s="5">
         <f t="shared" si="3"/>
-        <v>3669.1428571428573</v>
+        <v>3920.798319327731</v>
       </c>
       <c r="J19" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H19,"")</f>
@@ -58862,15 +58946,15 @@
       </c>
       <c r="M19">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H19,"")</f>
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="N19">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H19,"")</f>
-        <v>5499.4285714285716</v>
+        <v>5728.5714285714284</v>
       </c>
       <c r="O19">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H19,"")</f>
-        <v>5220</v>
+        <v>5733.8235294117649</v>
       </c>
       <c r="P19">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F19,"")</f>
@@ -58894,11 +58978,11 @@
       </c>
       <c r="B20">
         <f>COUNTIF(CSL_Sonuclari!C:J,A20)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
-        <v>3361.85</v>
+        <v>3571.3250000000003</v>
       </c>
       <c r="D20">
         <f>COUNTIF(CSL_Sonuclari!J:J,A20)</f>
@@ -58918,11 +59002,11 @@
       </c>
       <c r="H20">
         <f>COUNTIF(CSL_Sonuclari!C:H,A20)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I20" s="5">
         <f t="shared" si="3"/>
-        <v>4601.0249999999996</v>
+        <v>4915.2375000000002</v>
       </c>
       <c r="J20" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H20,"")</f>
@@ -58930,7 +59014,7 @@
       </c>
       <c r="K20">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H20,"")</f>
-        <v>494</v>
+        <v>513</v>
       </c>
       <c r="L20" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H20,"")</f>
@@ -58938,15 +59022,15 @@
       </c>
       <c r="M20">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H20,"")</f>
-        <v>4550</v>
+        <v>5274</v>
       </c>
       <c r="N20">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H20,"")</f>
-        <v>6502.5999999999995</v>
+        <v>6752.7</v>
       </c>
       <c r="O20">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H20,"")</f>
-        <v>6857.5</v>
+        <v>7121.25</v>
       </c>
       <c r="P20">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F20,"")</f>
@@ -60034,11 +60118,11 @@
       </c>
       <c r="B35">
         <f>COUNTIF(CSL_Sonuclari!C:J,A35)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C35" s="5">
         <f t="shared" si="4"/>
-        <v>4151.9285714285716</v>
+        <v>4360.6958333333341</v>
       </c>
       <c r="D35">
         <f>COUNTIF(CSL_Sonuclari!J:J,A35)</f>
@@ -60058,11 +60142,11 @@
       </c>
       <c r="H35">
         <f>COUNTIF(CSL_Sonuclari!C:H,A35)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I35" s="5">
         <f t="shared" si="7"/>
-        <v>5944.3928571428569</v>
+        <v>6257.5437500000007</v>
       </c>
       <c r="J35" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H35,"")</f>
@@ -60074,19 +60158,19 @@
       </c>
       <c r="L35">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H35,"")</f>
-        <v>9008.5714285714275</v>
+        <v>9768.875</v>
       </c>
       <c r="M35">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H35,"")</f>
-        <v>4645</v>
+        <v>4799.8333333333339</v>
       </c>
       <c r="N35">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H35,"")</f>
-        <v>6944</v>
+        <v>7175.4666666666672</v>
       </c>
       <c r="O35">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H35,"")</f>
-        <v>3180</v>
+        <v>3286</v>
       </c>
       <c r="P35">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F35,"")</f>
@@ -60110,11 +60194,11 @@
       </c>
       <c r="B36">
         <f>COUNTIF(CSL_Sonuclari!C:J,A36)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C36" s="5">
         <f t="shared" si="4"/>
-        <v>3926.34</v>
+        <v>4010.1400000000003</v>
       </c>
       <c r="D36">
         <f>COUNTIF(CSL_Sonuclari!J:J,A36)</f>
@@ -60126,11 +60210,11 @@
       </c>
       <c r="F36" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A36)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G36" s="8">
         <f t="shared" si="6"/>
-        <v>1158</v>
+        <v>1577</v>
       </c>
       <c r="H36">
         <f>COUNTIF(CSL_Sonuclari!C:H,A36)</f>
@@ -60166,7 +60250,7 @@
       </c>
       <c r="P36">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F36,"")</f>
-        <v>1158</v>
+        <v>1577</v>
       </c>
       <c r="Q36">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D36,"")</f>
@@ -60405,7 +60489,7 @@
       </c>
       <c r="S39">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R39)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -60709,7 +60793,7 @@
       </c>
       <c r="S43">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R43)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
@@ -60870,11 +60954,11 @@
       </c>
       <c r="B46">
         <f>COUNTIF(CSL_Sonuclari!C:J,A46)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C46" s="5">
         <f t="shared" si="4"/>
-        <v>3355.6944444444448</v>
+        <v>3644.9464285714289</v>
       </c>
       <c r="D46">
         <f>COUNTIF(CSL_Sonuclari!J:J,A46)</f>
@@ -60894,11 +60978,11 @@
       </c>
       <c r="H46">
         <f>COUNTIF(CSL_Sonuclari!C:H,A46)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I46" s="5">
         <f t="shared" si="7"/>
-        <v>4570.041666666667</v>
+        <v>5003.9196428571431</v>
       </c>
       <c r="J46" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H46,"")</f>
@@ -60906,19 +60990,19 @@
       </c>
       <c r="K46">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H46,"")</f>
-        <v>3934.666666666667</v>
+        <v>5118.4285714285716</v>
       </c>
       <c r="L46">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H46,"")</f>
-        <v>5873.833333333333</v>
+        <v>6099.75</v>
       </c>
       <c r="M46">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H46,"")</f>
-        <v>4272.666666666667</v>
+        <v>4437</v>
       </c>
       <c r="N46">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H46,"")</f>
-        <v>4199</v>
+        <v>4360.5</v>
       </c>
       <c r="O46" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H46,"")</f>
@@ -62162,19 +62246,19 @@
       </c>
       <c r="B63">
         <f>COUNTIF(CSL_Sonuclari!C:J,A63)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63" s="5">
         <f t="shared" si="4"/>
-        <v>4066.1318181818183</v>
+        <v>4135.9651515151518</v>
       </c>
       <c r="D63">
         <f>COUNTIF(CSL_Sonuclari!J:J,A63)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63" s="5">
         <f t="shared" si="5"/>
-        <v>270</v>
+        <v>689</v>
       </c>
       <c r="F63" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A63)</f>
@@ -62222,7 +62306,7 @@
       </c>
       <c r="Q63">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D63,"")</f>
-        <v>270</v>
+        <v>689</v>
       </c>
       <c r="R63" s="2">
         <v>62</v>
@@ -62305,7 +62389,7 @@
       </c>
       <c r="S64">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R64)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
@@ -62457,7 +62541,7 @@
       </c>
       <c r="S66">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R66)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
@@ -63749,7 +63833,7 @@
       </c>
       <c r="S83">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R83)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
@@ -63977,7 +64061,7 @@
       </c>
       <c r="S86">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R86)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
@@ -66490,15 +66574,15 @@
       </c>
       <c r="B5">
         <f>COUNTIF(SL_Sonuclari!C:H,A5)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" s="5">
         <f t="shared" si="0"/>
-        <v>123.98484848484848</v>
+        <v>126.60294117647059</v>
       </c>
       <c r="D5">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A5,SL_Sonuclari!A:A),"")</f>
-        <v>240.96969696969697</v>
+        <v>246.20588235294119</v>
       </c>
       <c r="E5" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A5,SL_Sonuclari!A:A),"")</f>
@@ -66622,11 +66706,11 @@
       </c>
       <c r="B9">
         <f>COUNTIF(SL_Sonuclari!C:H,A9)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>196.07500000000002</v>
+        <v>213.8666666666667</v>
       </c>
       <c r="D9">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A9,SL_Sonuclari!A:A),"")</f>
@@ -66638,7 +66722,7 @@
       </c>
       <c r="F9">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A9,SL_Sonuclari!A:A),"")</f>
-        <v>205.5</v>
+        <v>276.66666666666669</v>
       </c>
       <c r="G9">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A9,SL_Sonuclari!A:A),"")</f>
@@ -66721,11 +66805,11 @@
       </c>
       <c r="B12">
         <f>COUNTIF(SL_Sonuclari!C:H,A12)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="0"/>
-        <v>162.98097826086956</v>
+        <v>165.66847826086956</v>
       </c>
       <c r="D12">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A12,SL_Sonuclari!A:A),"")</f>
@@ -66733,7 +66817,7 @@
       </c>
       <c r="E12">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A12,SL_Sonuclari!A:A),"")</f>
-        <v>279.25</v>
+        <v>290</v>
       </c>
       <c r="F12">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A12,SL_Sonuclari!A:A),"")</f>
@@ -66853,11 +66937,11 @@
       </c>
       <c r="B16">
         <f>COUNTIF(SL_Sonuclari!C:H,A16)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
-        <v>192.56777777777776</v>
+        <v>197.7915873015873</v>
       </c>
       <c r="D16">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A16,SL_Sonuclari!A:A),"")</f>
@@ -66873,7 +66957,7 @@
       </c>
       <c r="G16">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A16,SL_Sonuclari!A:A),"")</f>
-        <v>236.16666666666666</v>
+        <v>262.28571428571428</v>
       </c>
       <c r="H16">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A16,SL_Sonuclari!A:A),"")</f>
@@ -67051,11 +67135,11 @@
       </c>
       <c r="B22">
         <f>COUNTIF(SL_Sonuclari!C:H,A22)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
-        <v>219.72222222222223</v>
+        <v>230.7</v>
       </c>
       <c r="D22" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A22,SL_Sonuclari!A:A),"")</f>
@@ -67075,7 +67159,7 @@
       </c>
       <c r="H22">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A22,SL_Sonuclari!A:A),"")</f>
-        <v>199.44444444444446</v>
+        <v>221.4</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -67711,7 +67795,7 @@
       </c>
       <c r="B42">
         <f>COUNTIF(SL_Sonuclari!C:H,A42)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C42" s="5">
         <f t="shared" si="1"/>

--- a/SLIStatistik.xlsx
+++ b/SLIStatistik.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\ReadExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C702D3D-44A8-4397-927E-56594D9B5C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390B80BA-47F1-4799-B347-4B644AF799B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13725" windowHeight="15600" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
   </bookViews>
   <sheets>
     <sheet name="CSL_Sonuclari" sheetId="2" r:id="rId1"/>
@@ -612,13 +612,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21120D27-1448-4179-993C-6B3BE739480A}">
-  <dimension ref="A1:J421"/>
+  <dimension ref="A1:J422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B391" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B421" sqref="B421"/>
+      <selection pane="bottomRight" activeCell="A423" sqref="A423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13509,6 +13509,38 @@
         <v>72</v>
       </c>
     </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A422" s="2">
+        <v>420</v>
+      </c>
+      <c r="B422" s="1">
+        <v>45031</v>
+      </c>
+      <c r="C422" s="2">
+        <v>9</v>
+      </c>
+      <c r="D422" s="2">
+        <v>26</v>
+      </c>
+      <c r="E422" s="2">
+        <v>39</v>
+      </c>
+      <c r="F422" s="2">
+        <v>43</v>
+      </c>
+      <c r="G422" s="2">
+        <v>56</v>
+      </c>
+      <c r="H422" s="2">
+        <v>64</v>
+      </c>
+      <c r="I422" s="2">
+        <v>87</v>
+      </c>
+      <c r="J422" s="2">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J311">
     <sortCondition ref="B2:B311"/>
@@ -13520,10 +13552,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8BCBFC-83B0-4863-9D9A-FF955DDDA58C}">
-  <dimension ref="A1:H421"/>
+  <dimension ref="A1:H422"/>
   <sheetViews>
     <sheetView topLeftCell="A389" workbookViewId="0">
-      <selection activeCell="A422" sqref="A422"/>
+      <selection activeCell="A423" sqref="A423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24477,6 +24509,32 @@
         <v>59</v>
       </c>
     </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>420</v>
+      </c>
+      <c r="B422" s="1">
+        <v>45032</v>
+      </c>
+      <c r="C422">
+        <v>1</v>
+      </c>
+      <c r="D422">
+        <v>23</v>
+      </c>
+      <c r="E422">
+        <v>40</v>
+      </c>
+      <c r="F422">
+        <v>50</v>
+      </c>
+      <c r="G422">
+        <v>53</v>
+      </c>
+      <c r="H422">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H311">
     <sortCondition ref="B2:B311"/>
@@ -24487,10 +24545,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4513EEF-0F11-4AC5-A4C7-CB00A18EA83B}">
-  <dimension ref="A1:H1270"/>
+  <dimension ref="A1:H1271"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1251" workbookViewId="0">
-      <selection activeCell="A1271" sqref="A1271"/>
+      <selection activeCell="A1272" sqref="A1272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57516,6 +57574,32 @@
       </c>
       <c r="H1270">
         <v>14</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1271">
+        <v>1660</v>
+      </c>
+      <c r="B1271" s="1">
+        <v>45032</v>
+      </c>
+      <c r="C1271">
+        <v>9</v>
+      </c>
+      <c r="D1271">
+        <v>10</v>
+      </c>
+      <c r="E1271">
+        <v>25</v>
+      </c>
+      <c r="F1271">
+        <v>30</v>
+      </c>
+      <c r="G1271">
+        <v>33</v>
+      </c>
+      <c r="H1271">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -58285,7 +58369,7 @@
       </c>
       <c r="S10">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R10)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -59577,7 +59661,7 @@
       </c>
       <c r="S27">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R27)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -60194,19 +60278,19 @@
       </c>
       <c r="B36">
         <f>COUNTIF(CSL_Sonuclari!C:J,A36)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C36" s="5">
         <f t="shared" si="4"/>
-        <v>4010.1400000000003</v>
+        <v>4278.3428571428576</v>
       </c>
       <c r="D36">
         <f>COUNTIF(CSL_Sonuclari!J:J,A36)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E36" s="5">
         <f t="shared" si="5"/>
-        <v>613</v>
+        <v>1033</v>
       </c>
       <c r="F36" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A36)</f>
@@ -60218,23 +60302,23 @@
       </c>
       <c r="H36">
         <f>COUNTIF(CSL_Sonuclari!C:H,A36)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I36" s="5">
         <f t="shared" si="7"/>
-        <v>5953.5666666666666</v>
+        <v>6260.5714285714284</v>
       </c>
       <c r="J36">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H36,"")</f>
-        <v>6186.7</v>
+        <v>6658.7142857142853</v>
       </c>
       <c r="K36">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H36,"")</f>
-        <v>5928</v>
+        <v>6156</v>
       </c>
       <c r="L36">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H36,"")</f>
-        <v>5746</v>
+        <v>5967</v>
       </c>
       <c r="M36" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H36,"")</f>
@@ -60254,7 +60338,7 @@
       </c>
       <c r="Q36">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D36,"")</f>
-        <v>613</v>
+        <v>1033</v>
       </c>
       <c r="R36" s="2">
         <v>35</v>
@@ -60498,11 +60582,11 @@
       </c>
       <c r="B40">
         <f>COUNTIF(CSL_Sonuclari!C:J,A40)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40" s="5">
         <f t="shared" si="4"/>
-        <v>5012.5306122448983</v>
+        <v>5337.3392857142853</v>
       </c>
       <c r="D40">
         <f>COUNTIF(CSL_Sonuclari!J:J,A40)</f>
@@ -60522,31 +60606,31 @@
       </c>
       <c r="H40">
         <f>COUNTIF(CSL_Sonuclari!C:H,A40)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I40" s="5">
         <f t="shared" si="7"/>
-        <v>6497.1428571428569</v>
+        <v>6951.875</v>
       </c>
       <c r="J40">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H40,"")</f>
-        <v>6720</v>
+        <v>7000</v>
       </c>
       <c r="K40">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H40,"")</f>
-        <v>3013.7142857142858</v>
+        <v>4059.375</v>
       </c>
       <c r="L40">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H40,"")</f>
-        <v>6192</v>
+        <v>6450</v>
       </c>
       <c r="M40">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H40,"")</f>
-        <v>6744</v>
+        <v>7025</v>
       </c>
       <c r="N40">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H40,"")</f>
-        <v>9816</v>
+        <v>10225</v>
       </c>
       <c r="O40" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H40,"")</f>
@@ -60565,7 +60649,7 @@
       </c>
       <c r="S40">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R40)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
@@ -60574,11 +60658,11 @@
       </c>
       <c r="B41">
         <f>COUNTIF(CSL_Sonuclari!C:J,A41)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C41" s="5">
         <f t="shared" si="4"/>
-        <v>4978.8666666666668</v>
+        <v>5239.1857142857143</v>
       </c>
       <c r="D41">
         <f>COUNTIF(CSL_Sonuclari!J:J,A41)</f>
@@ -60598,11 +60682,11 @@
       </c>
       <c r="H41">
         <f>COUNTIF(CSL_Sonuclari!C:H,A41)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I41" s="5">
         <f t="shared" si="7"/>
-        <v>6914.55</v>
+        <v>7305.0285714285719</v>
       </c>
       <c r="J41" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H41,"")</f>
@@ -60614,19 +60698,19 @@
       </c>
       <c r="L41">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H41,"")</f>
-        <v>5084</v>
+        <v>5248</v>
       </c>
       <c r="M41">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H41,"")</f>
-        <v>7650.8</v>
+        <v>7897.6</v>
       </c>
       <c r="N41">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H41,"")</f>
-        <v>6444.9000000000005</v>
+        <v>6652.8</v>
       </c>
       <c r="O41">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H41,"")</f>
-        <v>8478.5</v>
+        <v>9421.7142857142862</v>
       </c>
       <c r="P41">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F41,"")</f>
@@ -60869,7 +60953,7 @@
       </c>
       <c r="S44">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R44)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
@@ -61410,11 +61494,11 @@
       </c>
       <c r="B52">
         <f>COUNTIF(CSL_Sonuclari!C:J,A52)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C52" s="5">
         <f t="shared" si="4"/>
-        <v>3407.2687074829932</v>
+        <v>3594.3047619047625</v>
       </c>
       <c r="D52">
         <f>COUNTIF(CSL_Sonuclari!J:J,A52)</f>
@@ -61434,31 +61518,31 @@
       </c>
       <c r="H52">
         <f>COUNTIF(CSL_Sonuclari!C:H,A52)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I52" s="5">
         <f t="shared" si="7"/>
-        <v>4404.9761904761908</v>
+        <v>4666.8266666666677</v>
       </c>
       <c r="J52">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H52,"")</f>
-        <v>5425</v>
+        <v>5642</v>
       </c>
       <c r="K52">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H52,"")</f>
-        <v>4085</v>
+        <v>4248.4000000000005</v>
       </c>
       <c r="L52">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H52,"")</f>
-        <v>4323.2142857142853</v>
+        <v>4924.4000000000005</v>
       </c>
       <c r="M52">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H52,"")</f>
-        <v>8066.666666666667</v>
+        <v>8389.3333333333339</v>
       </c>
       <c r="N52">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H52,"")</f>
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="O52" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H52,"")</f>
@@ -61857,7 +61941,7 @@
       </c>
       <c r="S57">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R57)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
@@ -62465,7 +62549,7 @@
       </c>
       <c r="S65">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R65)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
@@ -62854,11 +62938,11 @@
       </c>
       <c r="B71">
         <f>COUNTIF(CSL_Sonuclari!C:J,A71)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71" s="5">
         <f t="shared" si="8"/>
-        <v>4119.2539682539682</v>
+        <v>4365.2029478458053</v>
       </c>
       <c r="D71">
         <f>COUNTIF(CSL_Sonuclari!J:J,A71)</f>
@@ -62878,35 +62962,35 @@
       </c>
       <c r="H71">
         <f>COUNTIF(CSL_Sonuclari!C:H,A71)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I71" s="5">
         <f t="shared" si="11"/>
-        <v>4635.9629629629626</v>
+        <v>4922.9034391534396</v>
       </c>
       <c r="J71">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H71,"")</f>
-        <v>2016</v>
+        <v>2088</v>
       </c>
       <c r="K71">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H71,"")</f>
-        <v>4344</v>
+        <v>4499.1428571428569</v>
       </c>
       <c r="L71">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H71,"")</f>
-        <v>5509.7777777777774</v>
+        <v>5706.5555555555557</v>
       </c>
       <c r="M71">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H71,"")</f>
-        <v>5432</v>
+        <v>6354.2222222222226</v>
       </c>
       <c r="N71">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H71,"")</f>
-        <v>1162</v>
+        <v>1203.5</v>
       </c>
       <c r="O71">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H71,"")</f>
-        <v>9352</v>
+        <v>9686</v>
       </c>
       <c r="P71">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F71,"")</f>
@@ -63538,11 +63622,11 @@
       </c>
       <c r="B80">
         <f>COUNTIF(CSL_Sonuclari!C:J,A80)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C80" s="5">
         <f t="shared" si="8"/>
-        <v>4720.4698412698417</v>
+        <v>4956.9702380952385</v>
       </c>
       <c r="D80">
         <f>COUNTIF(CSL_Sonuclari!J:J,A80)</f>
@@ -63562,11 +63646,11 @@
       </c>
       <c r="H80">
         <f>COUNTIF(CSL_Sonuclari!C:H,A80)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I80" s="5">
         <f t="shared" si="11"/>
-        <v>6163.8577777777782</v>
+        <v>6494.9583333333339</v>
       </c>
       <c r="J80" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H80,"")</f>
@@ -63574,23 +63658,23 @@
       </c>
       <c r="K80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H80,"")</f>
-        <v>8138.666666666667</v>
+        <v>8393</v>
       </c>
       <c r="L80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H80,"")</f>
-        <v>6148</v>
+        <v>6340.125</v>
       </c>
       <c r="M80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H80,"")</f>
-        <v>7406.2222222222226</v>
+        <v>7637.666666666667</v>
       </c>
       <c r="N80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H80,"")</f>
-        <v>6054.4</v>
+        <v>6936</v>
       </c>
       <c r="O80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H80,"")</f>
-        <v>3072</v>
+        <v>3168</v>
       </c>
       <c r="P80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F80,"")</f>
@@ -63918,11 +64002,11 @@
       </c>
       <c r="B85">
         <f>COUNTIF(CSL_Sonuclari!C:J,A85)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C85" s="5">
         <f t="shared" si="8"/>
-        <v>4839.8461538461534</v>
+        <v>4909.8461538461534</v>
       </c>
       <c r="D85">
         <f>COUNTIF(CSL_Sonuclari!J:J,A85)</f>
@@ -63934,11 +64018,11 @@
       </c>
       <c r="F85" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A85)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G85" s="8">
         <f t="shared" si="10"/>
-        <v>800</v>
+        <v>1220</v>
       </c>
       <c r="H85">
         <f>COUNTIF(CSL_Sonuclari!C:H,A85)</f>
@@ -63974,7 +64058,7 @@
       </c>
       <c r="P85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F85,"")</f>
-        <v>800</v>
+        <v>1220</v>
       </c>
       <c r="Q85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D85,"")</f>
@@ -64213,7 +64297,7 @@
       </c>
       <c r="S88">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R88)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
@@ -66508,15 +66592,15 @@
       </c>
       <c r="B3">
         <f>COUNTIF(SL_Sonuclari!C:H,A3)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="5">
         <f t="shared" si="0"/>
-        <v>103.95714285714286</v>
+        <v>107</v>
       </c>
       <c r="D3">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A3,SL_Sonuclari!A:A),"")</f>
-        <v>200.91428571428571</v>
+        <v>207</v>
       </c>
       <c r="E3" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A3,SL_Sonuclari!A:A),"")</f>
@@ -66541,11 +66625,11 @@
       </c>
       <c r="B4">
         <f>COUNTIF(SL_Sonuclari!C:H,A4)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" s="5">
         <f t="shared" si="0"/>
-        <v>112.27916666666667</v>
+        <v>118.93392857142857</v>
       </c>
       <c r="D4">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A4,SL_Sonuclari!A:A),"")</f>
@@ -66561,7 +66645,7 @@
       </c>
       <c r="G4">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A4,SL_Sonuclari!A:A),"")</f>
-        <v>233.66666666666666</v>
+        <v>260.28571428571428</v>
       </c>
       <c r="H4">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A4,SL_Sonuclari!A:A),"")</f>
@@ -67036,11 +67120,11 @@
       </c>
       <c r="B19">
         <f>COUNTIF(SL_Sonuclari!C:H,A19)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
-        <v>172.93333333333331</v>
+        <v>186.86666666666667</v>
       </c>
       <c r="D19" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A19,SL_Sonuclari!A:A),"")</f>
@@ -67060,7 +67144,7 @@
       </c>
       <c r="H19">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A19,SL_Sonuclari!A:A),"")</f>
-        <v>169.2</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -67267,11 +67351,11 @@
       </c>
       <c r="B26">
         <f>COUNTIF(SL_Sonuclari!C:H,A26)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" s="5">
         <f t="shared" si="0"/>
-        <v>175.46666666666664</v>
+        <v>180.17777777777775</v>
       </c>
       <c r="D26" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A26,SL_Sonuclari!A:A),"")</f>
@@ -67283,7 +67367,7 @@
       </c>
       <c r="F26">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A26,SL_Sonuclari!A:A),"")</f>
-        <v>231.55555555555554</v>
+        <v>250.4</v>
       </c>
       <c r="G26">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A26,SL_Sonuclari!A:A),"")</f>
@@ -67300,7 +67384,7 @@
       </c>
       <c r="B27">
         <f>COUNTIF(SL_Sonuclari!C:H,A27)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="5">
         <f t="shared" si="0"/>
@@ -67432,11 +67516,11 @@
       </c>
       <c r="B31">
         <f>COUNTIF(SL_Sonuclari!C:H,A31)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C31" s="5">
         <f t="shared" si="0"/>
-        <v>180.1979797979798</v>
+        <v>185.08343434343436</v>
       </c>
       <c r="D31">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A31,SL_Sonuclari!A:A),"")</f>
@@ -67444,7 +67528,7 @@
       </c>
       <c r="E31">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A31,SL_Sonuclari!A:A),"")</f>
-        <v>151.30000000000001</v>
+        <v>175.72727272727272</v>
       </c>
       <c r="F31">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A31,SL_Sonuclari!A:A),"")</f>

--- a/SLIStatistik.xlsx
+++ b/SLIStatistik.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\ReadExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390B80BA-47F1-4799-B347-4B644AF799B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDDC172-8F36-4CE6-9F56-A18AEB334B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11835" windowHeight="15600" firstSheet="1" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
   </bookViews>
   <sheets>
     <sheet name="CSL_Sonuclari" sheetId="2" r:id="rId1"/>
@@ -612,13 +612,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21120D27-1448-4179-993C-6B3BE739480A}">
-  <dimension ref="A1:J422"/>
+  <dimension ref="A1:J423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B391" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A423" sqref="A423"/>
+      <selection pane="bottomRight" activeCell="A424" sqref="A424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13541,6 +13541,38 @@
         <v>9</v>
       </c>
     </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A423" s="2">
+        <v>421</v>
+      </c>
+      <c r="B423" s="1">
+        <v>45033</v>
+      </c>
+      <c r="C423" s="2">
+        <v>5</v>
+      </c>
+      <c r="D423" s="2">
+        <v>6</v>
+      </c>
+      <c r="E423" s="2">
+        <v>18</v>
+      </c>
+      <c r="F423" s="2">
+        <v>25</v>
+      </c>
+      <c r="G423" s="2">
+        <v>48</v>
+      </c>
+      <c r="H423" s="2">
+        <v>72</v>
+      </c>
+      <c r="I423" s="2">
+        <v>2</v>
+      </c>
+      <c r="J423" s="2">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J311">
     <sortCondition ref="B2:B311"/>
@@ -13552,10 +13584,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8BCBFC-83B0-4863-9D9A-FF955DDDA58C}">
-  <dimension ref="A1:H422"/>
+  <dimension ref="A1:H423"/>
   <sheetViews>
     <sheetView topLeftCell="A389" workbookViewId="0">
-      <selection activeCell="A423" sqref="A423"/>
+      <selection activeCell="A424" sqref="A424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24533,6 +24565,32 @@
       </c>
       <c r="H422">
         <v>56</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>421</v>
+      </c>
+      <c r="B423" s="1">
+        <v>45034</v>
+      </c>
+      <c r="C423">
+        <v>8</v>
+      </c>
+      <c r="D423">
+        <v>30</v>
+      </c>
+      <c r="E423">
+        <v>36</v>
+      </c>
+      <c r="F423">
+        <v>37</v>
+      </c>
+      <c r="G423">
+        <v>57</v>
+      </c>
+      <c r="H423">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -24548,7 +24606,7 @@
   <dimension ref="A1:H1271"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1251" workbookViewId="0">
-      <selection activeCell="A1272" sqref="A1272"/>
+      <selection activeCell="B1272" sqref="B1272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57837,7 +57895,7 @@
       </c>
       <c r="S3">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R3)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -57846,11 +57904,11 @@
       </c>
       <c r="B4">
         <f>COUNTIF(CSL_Sonuclari!C:J,A4)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="5">
         <f t="shared" si="0"/>
-        <v>4291.306818181818</v>
+        <v>4396.556818181818</v>
       </c>
       <c r="D4">
         <f>COUNTIF(CSL_Sonuclari!J:J,A4)</f>
@@ -57862,11 +57920,11 @@
       </c>
       <c r="F4" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" s="8">
         <f t="shared" si="2"/>
-        <v>536</v>
+        <v>957</v>
       </c>
       <c r="H4">
         <f>COUNTIF(CSL_Sonuclari!C:H,A4)</f>
@@ -57902,7 +57960,7 @@
       </c>
       <c r="P4">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F4,"")</f>
-        <v>536</v>
+        <v>957</v>
       </c>
       <c r="Q4">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D4,"")</f>
@@ -57922,19 +57980,19 @@
       </c>
       <c r="B5">
         <f>COUNTIF(CSL_Sonuclari!C:J,A5)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="5">
         <f t="shared" si="0"/>
-        <v>3131.7999999999997</v>
+        <v>3201.9666666666667</v>
       </c>
       <c r="D5">
         <f>COUNTIF(CSL_Sonuclari!J:J,A5)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" si="1"/>
-        <v>1442</v>
+        <v>1863</v>
       </c>
       <c r="F5" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A5)</f>
@@ -57982,7 +58040,7 @@
       </c>
       <c r="Q5">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D5,"")</f>
-        <v>1442</v>
+        <v>1863</v>
       </c>
       <c r="R5" s="2">
         <v>4</v>
@@ -58065,7 +58123,7 @@
       </c>
       <c r="S6">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R6)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -58141,7 +58199,7 @@
       </c>
       <c r="S7">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R7)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -59053,7 +59111,7 @@
       </c>
       <c r="S19">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R19)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -59585,7 +59643,7 @@
       </c>
       <c r="S26">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R26)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -60354,11 +60412,11 @@
       </c>
       <c r="B37">
         <f>COUNTIF(CSL_Sonuclari!C:J,A37)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C37" s="5">
         <f t="shared" si="4"/>
-        <v>4352.4041666666672</v>
+        <v>4746.6499999999996</v>
       </c>
       <c r="D37">
         <f>COUNTIF(CSL_Sonuclari!J:J,A37)</f>
@@ -60378,35 +60436,35 @@
       </c>
       <c r="H37">
         <f>COUNTIF(CSL_Sonuclari!C:H,A37)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I37" s="5">
         <f t="shared" si="7"/>
-        <v>5604.2055555555562</v>
+        <v>6129.8666666666659</v>
       </c>
       <c r="J37">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H37,"")</f>
-        <v>9246</v>
+        <v>9648</v>
       </c>
       <c r="K37">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H37,"")</f>
-        <v>2890.3333333333335</v>
+        <v>3016</v>
       </c>
       <c r="L37">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H37,"")</f>
-        <v>5101.4000000000005</v>
+        <v>5323.2000000000007</v>
       </c>
       <c r="M37">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H37,"")</f>
-        <v>2852</v>
+        <v>2976</v>
       </c>
       <c r="N37">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H37,"")</f>
-        <v>4818.5</v>
+        <v>6720</v>
       </c>
       <c r="O37">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H37,"")</f>
-        <v>8717</v>
+        <v>9096</v>
       </c>
       <c r="P37">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F37,"")</f>
@@ -61333,7 +61391,7 @@
       </c>
       <c r="S49">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R49)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
@@ -61418,11 +61476,11 @@
       </c>
       <c r="B51">
         <f>COUNTIF(CSL_Sonuclari!C:J,A51)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C51" s="5">
         <f t="shared" si="4"/>
-        <v>3572.6666666666665</v>
+        <v>3804.5039682539682</v>
       </c>
       <c r="D51">
         <f>COUNTIF(CSL_Sonuclari!J:J,A51)</f>
@@ -61442,27 +61500,27 @@
       </c>
       <c r="H51">
         <f>COUNTIF(CSL_Sonuclari!C:H,A51)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I51" s="5">
         <f t="shared" si="7"/>
-        <v>4941.25</v>
+        <v>5289.0059523809523</v>
       </c>
       <c r="J51">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H51,"")</f>
-        <v>6980</v>
+        <v>7212.6666666666661</v>
       </c>
       <c r="K51">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H51,"")</f>
-        <v>7670</v>
+        <v>8657.8571428571431</v>
       </c>
       <c r="L51">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H51,"")</f>
-        <v>4500</v>
+        <v>4650</v>
       </c>
       <c r="M51">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H51,"")</f>
-        <v>615</v>
+        <v>635.5</v>
       </c>
       <c r="N51" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H51,"")</f>
@@ -62330,11 +62388,11 @@
       </c>
       <c r="B63">
         <f>COUNTIF(CSL_Sonuclari!C:J,A63)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C63" s="5">
         <f t="shared" si="4"/>
-        <v>4135.9651515151518</v>
+        <v>4353.7773892773894</v>
       </c>
       <c r="D63">
         <f>COUNTIF(CSL_Sonuclari!J:J,A63)</f>
@@ -62354,11 +62412,11 @@
       </c>
       <c r="H63">
         <f>COUNTIF(CSL_Sonuclari!C:H,A63)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I63" s="5">
         <f t="shared" si="7"/>
-        <v>5785.6977272727272</v>
+        <v>6112.4160839160841</v>
       </c>
       <c r="J63" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H63,"")</f>
@@ -62370,19 +62428,19 @@
       </c>
       <c r="L63">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H63,"")</f>
-        <v>7511</v>
+        <v>7770</v>
       </c>
       <c r="M63">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H63,"")</f>
-        <v>5678.2000000000007</v>
+        <v>5874</v>
       </c>
       <c r="N63">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H63,"")</f>
-        <v>4139.090909090909</v>
+        <v>4281.818181818182</v>
       </c>
       <c r="O63">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H63,"")</f>
-        <v>5814.5</v>
+        <v>6523.8461538461534</v>
       </c>
       <c r="P63">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F63,"")</f>
@@ -62710,11 +62768,11 @@
       </c>
       <c r="B68">
         <f>COUNTIF(CSL_Sonuclari!C:J,A68)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C68" s="5">
         <f t="shared" si="8"/>
-        <v>6570.7380952380945</v>
+        <v>6882.1904761904752</v>
       </c>
       <c r="D68">
         <f>COUNTIF(CSL_Sonuclari!J:J,A68)</f>
@@ -62734,31 +62792,31 @@
       </c>
       <c r="H68">
         <f>COUNTIF(CSL_Sonuclari!C:H,A68)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I68" s="5">
         <f t="shared" si="11"/>
-        <v>8815.6333333333332</v>
+        <v>9251.6666666666661</v>
       </c>
       <c r="J68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H68,"")</f>
-        <v>8416.8888888888887</v>
+        <v>8664.4444444444434</v>
       </c>
       <c r="K68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H68,"")</f>
-        <v>7267.5</v>
+        <v>7481.25</v>
       </c>
       <c r="L68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H68,"")</f>
-        <v>8911.7777777777774</v>
+        <v>9173.8888888888887</v>
       </c>
       <c r="M68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H68,"")</f>
-        <v>10880</v>
+        <v>12083.75</v>
       </c>
       <c r="N68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H68,"")</f>
-        <v>8602</v>
+        <v>8855</v>
       </c>
       <c r="O68" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H68,"")</f>
@@ -63157,7 +63215,7 @@
       </c>
       <c r="S73">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R73)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
@@ -64230,11 +64288,11 @@
       </c>
       <c r="B88">
         <f>COUNTIF(CSL_Sonuclari!C:J,A88)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C88" s="5">
         <f t="shared" si="8"/>
-        <v>2982.8857142857146</v>
+        <v>3108.8444444444444</v>
       </c>
       <c r="D88">
         <f>COUNTIF(CSL_Sonuclari!J:J,A88)</f>
@@ -64254,19 +64312,19 @@
       </c>
       <c r="H88">
         <f>COUNTIF(CSL_Sonuclari!C:H,A88)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I88" s="5">
         <f t="shared" si="11"/>
-        <v>4250.8095238095239</v>
+        <v>4460.7407407407409</v>
       </c>
       <c r="J88">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H88,"")</f>
-        <v>7633</v>
+        <v>8112.2222222222217</v>
       </c>
       <c r="K88">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H88,"")</f>
-        <v>4337.4285714285716</v>
+        <v>4465</v>
       </c>
       <c r="L88" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H88,"")</f>
@@ -64282,7 +64340,7 @@
       </c>
       <c r="O88">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H88,"")</f>
-        <v>782</v>
+        <v>805</v>
       </c>
       <c r="P88">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F88,"")</f>
@@ -64382,11 +64440,11 @@
       </c>
       <c r="B90">
         <f>COUNTIF(CSL_Sonuclari!C:J,A90)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C90" s="5">
         <f t="shared" si="8"/>
-        <v>3798.934065934066</v>
+        <v>4156.2230769230764</v>
       </c>
       <c r="D90">
         <f>COUNTIF(CSL_Sonuclari!J:J,A90)</f>
@@ -64406,35 +64464,35 @@
       </c>
       <c r="H90">
         <f>COUNTIF(CSL_Sonuclari!C:H,A90)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I90" s="5">
         <f t="shared" si="11"/>
-        <v>4151.5897435897432</v>
+        <v>4568.4269230769232</v>
       </c>
       <c r="J90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H90,"")</f>
-        <v>4349.5384615384619</v>
+        <v>4485.461538461539</v>
       </c>
       <c r="K90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H90,"")</f>
-        <v>8192</v>
+        <v>8448</v>
       </c>
       <c r="L90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H90,"")</f>
-        <v>5120</v>
+        <v>7002.5999999999995</v>
       </c>
       <c r="M90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H90,"")</f>
-        <v>6640</v>
+        <v>6847.5</v>
       </c>
       <c r="N90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H90,"")</f>
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="O90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H90,"")</f>
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="P90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F90,"")</f>
@@ -66559,7 +66617,7 @@
       </c>
       <c r="B2">
         <f>COUNTIF(SL_Sonuclari!C:H,A2)</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" s="5">
         <f t="shared" ref="C2:C33" si="0">AVERAGE(D2:H2)</f>
@@ -66790,15 +66848,15 @@
       </c>
       <c r="B9">
         <f>COUNTIF(SL_Sonuclari!C:H,A9)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>213.8666666666667</v>
+        <v>216.02196969696971</v>
       </c>
       <c r="D9">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A9,SL_Sonuclari!A:A),"")</f>
-        <v>231.33333333333334</v>
+        <v>239.95454545454547</v>
       </c>
       <c r="E9">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A9,SL_Sonuclari!A:A),"")</f>
@@ -67219,11 +67277,11 @@
       </c>
       <c r="B22">
         <f>COUNTIF(SL_Sonuclari!C:H,A22)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
-        <v>230.7</v>
+        <v>239.77272727272725</v>
       </c>
       <c r="D22" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A22,SL_Sonuclari!A:A),"")</f>
@@ -67243,7 +67301,7 @@
       </c>
       <c r="H22">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A22,SL_Sonuclari!A:A),"")</f>
-        <v>221.4</v>
+        <v>239.54545454545453</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -67483,11 +67541,11 @@
       </c>
       <c r="B30">
         <f>COUNTIF(SL_Sonuclari!C:H,A30)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C30" s="5">
         <f t="shared" si="0"/>
-        <v>182.09047619047618</v>
+        <v>190.76666666666665</v>
       </c>
       <c r="D30">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A30,SL_Sonuclari!A:A),"")</f>
@@ -67495,7 +67553,7 @@
       </c>
       <c r="E30">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A30,SL_Sonuclari!A:A),"")</f>
-        <v>117.33333333333333</v>
+        <v>160.71428571428572</v>
       </c>
       <c r="F30">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A30,SL_Sonuclari!A:A),"")</f>
@@ -67846,11 +67904,11 @@
       </c>
       <c r="B41">
         <f>COUNTIF(SL_Sonuclari!C:H,A41)</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C41" s="5">
         <f t="shared" si="1"/>
-        <v>196.75649350649351</v>
+        <v>198.83850931677017</v>
       </c>
       <c r="D41" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A41,SL_Sonuclari!A:A),"")</f>
@@ -67866,7 +67924,7 @@
       </c>
       <c r="G41">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A41,SL_Sonuclari!A:A),"")</f>
-        <v>229.45454545454547</v>
+        <v>237.78260869565219</v>
       </c>
       <c r="H41">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A41,SL_Sonuclari!A:A),"")</f>
@@ -68176,11 +68234,11 @@
       </c>
       <c r="B51">
         <f>COUNTIF(SL_Sonuclari!C:H,A51)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C51" s="5">
         <f t="shared" si="1"/>
-        <v>191.08750000000001</v>
+        <v>197.1602272727273</v>
       </c>
       <c r="D51" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A51,SL_Sonuclari!A:A),"")</f>
@@ -68192,7 +68250,7 @@
       </c>
       <c r="F51">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A51,SL_Sonuclari!A:A),"")</f>
-        <v>153.80000000000001</v>
+        <v>178.09090909090909</v>
       </c>
       <c r="G51">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A51,SL_Sonuclari!A:A),"")</f>

--- a/SLIStatistik.xlsx
+++ b/SLIStatistik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\ReadExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDDC172-8F36-4CE6-9F56-A18AEB334B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E72569-C4E5-4234-A54D-200FC4FEC37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11835" windowHeight="15600" firstSheet="1" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
   </bookViews>
   <sheets>
     <sheet name="CSL_Sonuclari" sheetId="2" r:id="rId1"/>
@@ -612,13 +612,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21120D27-1448-4179-993C-6B3BE739480A}">
-  <dimension ref="A1:J423"/>
+  <dimension ref="A1:J425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B391" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B392" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A424" sqref="A424"/>
+      <selection pane="bottomRight" activeCell="A425" sqref="A425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13573,6 +13573,70 @@
         <v>70</v>
       </c>
     </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A424" s="2">
+        <v>422</v>
+      </c>
+      <c r="B424" s="1">
+        <v>45035</v>
+      </c>
+      <c r="C424" s="2">
+        <v>35</v>
+      </c>
+      <c r="D424" s="2">
+        <v>41</v>
+      </c>
+      <c r="E424" s="2">
+        <v>42</v>
+      </c>
+      <c r="F424" s="2">
+        <v>46</v>
+      </c>
+      <c r="G424" s="2">
+        <v>70</v>
+      </c>
+      <c r="H424" s="2">
+        <v>87</v>
+      </c>
+      <c r="I424" s="2">
+        <v>7</v>
+      </c>
+      <c r="J424" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A425" s="2">
+        <v>423</v>
+      </c>
+      <c r="B425" s="1">
+        <v>45038</v>
+      </c>
+      <c r="C425" s="2">
+        <v>7</v>
+      </c>
+      <c r="D425" s="2">
+        <v>8</v>
+      </c>
+      <c r="E425" s="2">
+        <v>11</v>
+      </c>
+      <c r="F425" s="2">
+        <v>20</v>
+      </c>
+      <c r="G425" s="2">
+        <v>46</v>
+      </c>
+      <c r="H425" s="2">
+        <v>76</v>
+      </c>
+      <c r="I425" s="2">
+        <v>5</v>
+      </c>
+      <c r="J425" s="2">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J311">
     <sortCondition ref="B2:B311"/>
@@ -13584,10 +13648,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8BCBFC-83B0-4863-9D9A-FF955DDDA58C}">
-  <dimension ref="A1:H423"/>
+  <dimension ref="A1:H425"/>
   <sheetViews>
-    <sheetView topLeftCell="A389" workbookViewId="0">
-      <selection activeCell="A424" sqref="A424"/>
+    <sheetView topLeftCell="A392" workbookViewId="0">
+      <selection activeCell="C425" sqref="C425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24593,6 +24657,58 @@
         <v>58</v>
       </c>
     </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>422</v>
+      </c>
+      <c r="B424" s="1">
+        <v>45036</v>
+      </c>
+      <c r="C424">
+        <v>4</v>
+      </c>
+      <c r="D424">
+        <v>11</v>
+      </c>
+      <c r="E424">
+        <v>15</v>
+      </c>
+      <c r="F424">
+        <v>28</v>
+      </c>
+      <c r="G424">
+        <v>29</v>
+      </c>
+      <c r="H424">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>423</v>
+      </c>
+      <c r="B425" s="1">
+        <v>45039</v>
+      </c>
+      <c r="C425">
+        <v>1</v>
+      </c>
+      <c r="D425">
+        <v>8</v>
+      </c>
+      <c r="E425">
+        <v>9</v>
+      </c>
+      <c r="F425">
+        <v>21</v>
+      </c>
+      <c r="G425">
+        <v>22</v>
+      </c>
+      <c r="H425">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H311">
     <sortCondition ref="B2:B311"/>
@@ -24603,10 +24719,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4513EEF-0F11-4AC5-A4C7-CB00A18EA83B}">
-  <dimension ref="A1:H1271"/>
+  <dimension ref="A1:H1273"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1251" workbookViewId="0">
-      <selection activeCell="B1272" sqref="B1272"/>
+      <selection activeCell="A1274" sqref="A1274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57658,6 +57774,58 @@
       </c>
       <c r="H1271">
         <v>13</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1272">
+        <v>1661</v>
+      </c>
+      <c r="B1272" s="1">
+        <v>45035</v>
+      </c>
+      <c r="C1272">
+        <v>4</v>
+      </c>
+      <c r="D1272">
+        <v>5</v>
+      </c>
+      <c r="E1272">
+        <v>17</v>
+      </c>
+      <c r="F1272">
+        <v>28</v>
+      </c>
+      <c r="G1272">
+        <v>32</v>
+      </c>
+      <c r="H1272">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1273">
+        <v>1662</v>
+      </c>
+      <c r="B1273" s="1">
+        <v>45039</v>
+      </c>
+      <c r="C1273">
+        <v>9</v>
+      </c>
+      <c r="D1273">
+        <v>22</v>
+      </c>
+      <c r="E1273">
+        <v>26</v>
+      </c>
+      <c r="F1273">
+        <v>27</v>
+      </c>
+      <c r="G1273">
+        <v>28</v>
+      </c>
+      <c r="H1273">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -57980,11 +58148,11 @@
       </c>
       <c r="B5">
         <f>COUNTIF(CSL_Sonuclari!C:J,A5)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" s="5">
         <f t="shared" si="0"/>
-        <v>3201.9666666666667</v>
+        <v>3406.1666666666665</v>
       </c>
       <c r="D5">
         <f>COUNTIF(CSL_Sonuclari!J:J,A5)</f>
@@ -58004,11 +58172,11 @@
       </c>
       <c r="H5">
         <f>COUNTIF(CSL_Sonuclari!C:H,A5)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5" s="5">
         <f t="shared" si="3"/>
-        <v>4036.2</v>
+        <v>4342.5</v>
       </c>
       <c r="J5" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H5,"")</f>
@@ -58020,19 +58188,19 @@
       </c>
       <c r="L5">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H5,"")</f>
-        <v>5166</v>
+        <v>5412</v>
       </c>
       <c r="M5">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H5,"")</f>
-        <v>3759</v>
+        <v>3938</v>
       </c>
       <c r="N5">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H5,"")</f>
-        <v>4069.8</v>
+        <v>4720</v>
       </c>
       <c r="O5">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H5,"")</f>
-        <v>3150</v>
+        <v>3300</v>
       </c>
       <c r="P5">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F5,"")</f>
@@ -58123,7 +58291,7 @@
       </c>
       <c r="S6">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R6)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -58208,11 +58376,11 @@
       </c>
       <c r="B8">
         <f>COUNTIF(CSL_Sonuclari!C:J,A8)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" si="0"/>
-        <v>2738.2214285714285</v>
+        <v>2956.3523809523808</v>
       </c>
       <c r="D8">
         <f>COUNTIF(CSL_Sonuclari!J:J,A8)</f>
@@ -58232,11 +58400,11 @@
       </c>
       <c r="H8">
         <f>COUNTIF(CSL_Sonuclari!C:H,A8)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I8" s="5">
         <f t="shared" si="3"/>
-        <v>3814.7023809523812</v>
+        <v>4178.2539682539682</v>
       </c>
       <c r="J8" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H8,"")</f>
@@ -58252,15 +58420,15 @@
       </c>
       <c r="M8">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H8,"")</f>
-        <v>2916.5</v>
+        <v>3070</v>
       </c>
       <c r="N8">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H8,"")</f>
-        <v>4665.8571428571431</v>
+        <v>4911.4285714285716</v>
       </c>
       <c r="O8">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H8,"")</f>
-        <v>3861.75</v>
+        <v>4553.333333333333</v>
       </c>
       <c r="P8">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F8,"")</f>
@@ -58275,7 +58443,7 @@
       </c>
       <c r="S8">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R8)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -58351,7 +58519,7 @@
       </c>
       <c r="S9">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R9)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -58579,7 +58747,7 @@
       </c>
       <c r="S12">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R12)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -59196,11 +59364,11 @@
       </c>
       <c r="B21">
         <f>COUNTIF(CSL_Sonuclari!C:J,A21)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="0"/>
-        <v>3484.1111111111109</v>
+        <v>3981.7460317460318</v>
       </c>
       <c r="D21">
         <f>COUNTIF(CSL_Sonuclari!J:J,A21)</f>
@@ -59220,31 +59388,31 @@
       </c>
       <c r="H21">
         <f>COUNTIF(CSL_Sonuclari!C:H,A21)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I21" s="5">
         <f t="shared" si="3"/>
-        <v>4650.5555555555557</v>
+        <v>5347.2444444444445</v>
       </c>
       <c r="J21">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H21,"")</f>
-        <v>4642</v>
+        <v>7279.5</v>
       </c>
       <c r="K21">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H21,"")</f>
-        <v>3551.7777777777783</v>
+        <v>3713.2222222222226</v>
       </c>
       <c r="L21">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H21,"")</f>
-        <v>5503.6666666666661</v>
+        <v>5753.833333333333</v>
       </c>
       <c r="M21">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H21,"")</f>
-        <v>4275.3333333333339</v>
+        <v>4469.666666666667</v>
       </c>
       <c r="N21">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H21,"")</f>
-        <v>5280</v>
+        <v>5520</v>
       </c>
       <c r="O21" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H21,"")</f>
@@ -59263,7 +59431,7 @@
       </c>
       <c r="S21">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R21)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -59500,11 +59668,11 @@
       </c>
       <c r="B25">
         <f>COUNTIF(CSL_Sonuclari!C:J,A25)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C25" s="5">
         <f t="shared" si="0"/>
-        <v>5695.95</v>
+        <v>6080.0119047619046</v>
       </c>
       <c r="D25">
         <f>COUNTIF(CSL_Sonuclari!J:J,A25)</f>
@@ -59516,31 +59684,31 @@
       </c>
       <c r="F25" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A25)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G25" s="8">
         <f t="shared" si="2"/>
-        <v>281</v>
+        <v>703</v>
       </c>
       <c r="H25">
         <f>COUNTIF(CSL_Sonuclari!C:H,A25)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I25" s="5">
         <f t="shared" si="3"/>
-        <v>7500.9333333333334</v>
+        <v>7872.3492063492058</v>
       </c>
       <c r="J25">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H25,"")</f>
-        <v>5546.8</v>
+        <v>6055.4761904761899</v>
       </c>
       <c r="K25">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H25,"")</f>
-        <v>7184</v>
+        <v>7440.5714285714284</v>
       </c>
       <c r="L25">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H25,"")</f>
-        <v>9772</v>
+        <v>10121</v>
       </c>
       <c r="M25" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H25,"")</f>
@@ -59556,7 +59724,7 @@
       </c>
       <c r="P25">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F25,"")</f>
-        <v>281</v>
+        <v>703</v>
       </c>
       <c r="Q25" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D25,"")</f>
@@ -59804,11 +59972,11 @@
       </c>
       <c r="B29">
         <f>COUNTIF(CSL_Sonuclari!C:J,A29)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29" s="5">
         <f t="shared" si="0"/>
-        <v>3604.8095238095239</v>
+        <v>3950.8095238095239</v>
       </c>
       <c r="D29">
         <f>COUNTIF(CSL_Sonuclari!J:J,A29)</f>
@@ -59828,31 +59996,31 @@
       </c>
       <c r="H29">
         <f>COUNTIF(CSL_Sonuclari!C:H,A29)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I29" s="5">
         <f t="shared" si="3"/>
-        <v>4685.3333333333339</v>
+        <v>5169.7333333333336</v>
       </c>
       <c r="J29">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H29,"")</f>
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="K29">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H29,"")</f>
-        <v>5693.3333333333339</v>
+        <v>7482</v>
       </c>
       <c r="L29">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H29,"")</f>
-        <v>5539.3333333333339</v>
+        <v>5737.166666666667</v>
       </c>
       <c r="M29">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H29,"")</f>
-        <v>7322</v>
+        <v>7583.5</v>
       </c>
       <c r="N29">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H29,"")</f>
-        <v>4396</v>
+        <v>4553</v>
       </c>
       <c r="O29" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H29,"")</f>
@@ -60403,7 +60571,7 @@
       </c>
       <c r="S36">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R36)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -60859,7 +61027,7 @@
       </c>
       <c r="S42">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R42)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
@@ -60935,7 +61103,7 @@
       </c>
       <c r="S43">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R43)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
@@ -61096,11 +61264,11 @@
       </c>
       <c r="B46">
         <f>COUNTIF(CSL_Sonuclari!C:J,A46)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46" s="5">
         <f t="shared" si="4"/>
-        <v>3644.9464285714289</v>
+        <v>3838.8888888888891</v>
       </c>
       <c r="D46">
         <f>COUNTIF(CSL_Sonuclari!J:J,A46)</f>
@@ -61120,11 +61288,11 @@
       </c>
       <c r="H46">
         <f>COUNTIF(CSL_Sonuclari!C:H,A46)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I46" s="5">
         <f t="shared" si="7"/>
-        <v>5003.9196428571431</v>
+        <v>5294.8333333333339</v>
       </c>
       <c r="J46" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H46,"")</f>
@@ -61132,19 +61300,19 @@
       </c>
       <c r="K46">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H46,"")</f>
-        <v>5118.4285714285716</v>
+        <v>5308</v>
       </c>
       <c r="L46">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H46,"")</f>
-        <v>6099.75</v>
+        <v>6748</v>
       </c>
       <c r="M46">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H46,"")</f>
-        <v>4437</v>
+        <v>4601.3333333333339</v>
       </c>
       <c r="N46">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H46,"")</f>
-        <v>4360.5</v>
+        <v>4522</v>
       </c>
       <c r="O46" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H46,"")</f>
@@ -61239,7 +61407,7 @@
       </c>
       <c r="S47">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R47)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -61704,19 +61872,19 @@
       </c>
       <c r="B54">
         <f>COUNTIF(CSL_Sonuclari!C:J,A54)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C54" s="5">
         <f t="shared" si="4"/>
-        <v>3629.5303030303025</v>
+        <v>3699.863636363636</v>
       </c>
       <c r="D54">
         <f>COUNTIF(CSL_Sonuclari!J:J,A54)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E54" s="5">
         <f t="shared" si="5"/>
-        <v>1047</v>
+        <v>1469</v>
       </c>
       <c r="F54" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A54)</f>
@@ -61764,7 +61932,7 @@
       </c>
       <c r="Q54">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D54,"")</f>
-        <v>1047</v>
+        <v>1469</v>
       </c>
       <c r="R54" s="2">
         <v>53</v>
@@ -61780,11 +61948,11 @@
       </c>
       <c r="B55">
         <f>COUNTIF(CSL_Sonuclari!C:J,A55)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C55" s="5">
         <f t="shared" si="4"/>
-        <v>3551.5714285714284</v>
+        <v>3849.4761904761908</v>
       </c>
       <c r="D55">
         <f>COUNTIF(CSL_Sonuclari!J:J,A55)</f>
@@ -61804,31 +61972,31 @@
       </c>
       <c r="H55">
         <f>COUNTIF(CSL_Sonuclari!C:H,A55)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I55" s="5">
         <f t="shared" si="7"/>
-        <v>4646.6000000000004</v>
+        <v>5063.666666666667</v>
       </c>
       <c r="J55">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H55,"")</f>
-        <v>5549.25</v>
+        <v>5813.5</v>
       </c>
       <c r="K55">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H55,"")</f>
-        <v>3501.75</v>
+        <v>3668.5</v>
       </c>
       <c r="L55">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H55,"")</f>
-        <v>3430</v>
+        <v>3593.3333333333335</v>
       </c>
       <c r="M55">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H55,"")</f>
-        <v>7014</v>
+        <v>8327</v>
       </c>
       <c r="N55">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H55,"")</f>
-        <v>3738</v>
+        <v>3916</v>
       </c>
       <c r="O55" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H55,"")</f>
@@ -62616,11 +62784,11 @@
       </c>
       <c r="B66">
         <f>COUNTIF(CSL_Sonuclari!C:J,A66)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C66" s="5">
         <f t="shared" ref="C66:C91" si="8">AVERAGE(J66:Q66)</f>
-        <v>4950.8984126984124</v>
+        <v>5267.1104761904762</v>
       </c>
       <c r="D66">
         <f>COUNTIF(CSL_Sonuclari!J:J,A66)</f>
@@ -62640,23 +62808,23 @@
       </c>
       <c r="H66">
         <f>COUNTIF(CSL_Sonuclari!C:H,A66)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I66" s="5">
         <f t="shared" ref="I66:I91" si="11">AVERAGE(J66:O66)</f>
-        <v>7843.1640211640215</v>
+        <v>8370.1841269841261</v>
       </c>
       <c r="J66">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H66,"")</f>
-        <v>5949.0476190476193</v>
+        <v>6140.9523809523807</v>
       </c>
       <c r="K66">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H66,"")</f>
-        <v>5149.4444444444443</v>
+        <v>6137.6</v>
       </c>
       <c r="L66">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H66,"")</f>
-        <v>12431</v>
+        <v>12832</v>
       </c>
       <c r="M66" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H66,"")</f>
@@ -63063,7 +63231,7 @@
       </c>
       <c r="S71">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R71)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
@@ -63376,11 +63544,11 @@
       </c>
       <c r="B76">
         <f>COUNTIF(CSL_Sonuclari!C:J,A76)</f>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C76" s="5">
         <f t="shared" si="8"/>
-        <v>6046.2966269841272</v>
+        <v>6605.5297619047624</v>
       </c>
       <c r="D76">
         <f>COUNTIF(CSL_Sonuclari!J:J,A76)</f>
@@ -63400,35 +63568,35 @@
       </c>
       <c r="H76">
         <f>COUNTIF(CSL_Sonuclari!C:H,A76)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I76" s="5">
         <f t="shared" si="11"/>
-        <v>7629.8955026455033</v>
+        <v>8375.5396825396838</v>
       </c>
       <c r="J76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H76,"")</f>
-        <v>9300</v>
+        <v>9900</v>
       </c>
       <c r="K76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H76,"")</f>
-        <v>4809.4285714285716</v>
+        <v>5119.7142857142853</v>
       </c>
       <c r="L76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H76,"")</f>
-        <v>4839.4444444444443</v>
+        <v>5151.666666666667</v>
       </c>
       <c r="M76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H76,"")</f>
-        <v>8519.8333333333321</v>
+        <v>9763.2857142857138</v>
       </c>
       <c r="N76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H76,"")</f>
-        <v>7677.6666666666661</v>
+        <v>8999.5714285714294</v>
       </c>
       <c r="O76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H76,"")</f>
-        <v>10633</v>
+        <v>11319</v>
       </c>
       <c r="P76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F76,"")</f>
@@ -63519,7 +63687,7 @@
       </c>
       <c r="S77">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R77)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
@@ -63528,11 +63696,11 @@
       </c>
       <c r="B78">
         <f>COUNTIF(CSL_Sonuclari!C:J,A78)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C78" s="5">
         <f t="shared" si="8"/>
-        <v>4564.9375</v>
+        <v>4881.1738095238097</v>
       </c>
       <c r="D78">
         <f>COUNTIF(CSL_Sonuclari!J:J,A78)</f>
@@ -63552,23 +63720,23 @@
       </c>
       <c r="H78">
         <f>COUNTIF(CSL_Sonuclari!C:H,A78)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I78" s="5">
         <f t="shared" si="11"/>
-        <v>6317.65625</v>
+        <v>6792.0107142857141</v>
       </c>
       <c r="J78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H78,"")</f>
-        <v>9000</v>
+        <v>9257.1428571428587</v>
       </c>
       <c r="K78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H78,"")</f>
-        <v>6689.375</v>
+        <v>6880.5</v>
       </c>
       <c r="L78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H78,"")</f>
-        <v>9091.25</v>
+        <v>10526.4</v>
       </c>
       <c r="M78" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H78,"")</f>
@@ -63580,7 +63748,7 @@
       </c>
       <c r="O78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H78,"")</f>
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="P78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F78,"")</f>
@@ -64060,11 +64228,11 @@
       </c>
       <c r="B85">
         <f>COUNTIF(CSL_Sonuclari!C:J,A85)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C85" s="5">
         <f t="shared" si="8"/>
-        <v>4909.8461538461534</v>
+        <v>5093.5154320987649</v>
       </c>
       <c r="D85">
         <f>COUNTIF(CSL_Sonuclari!J:J,A85)</f>
@@ -64084,11 +64252,11 @@
       </c>
       <c r="H85">
         <f>COUNTIF(CSL_Sonuclari!C:H,A85)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I85" s="5">
         <f t="shared" si="11"/>
-        <v>6659.7692307692305</v>
+        <v>6935.2731481481478</v>
       </c>
       <c r="J85" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H85,"")</f>
@@ -64096,7 +64264,7 @@
       </c>
       <c r="K85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H85,"")</f>
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="L85" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H85,"")</f>
@@ -64104,15 +64272,15 @@
       </c>
       <c r="M85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H85,"")</f>
-        <v>11184</v>
+        <v>11494.666666666668</v>
       </c>
       <c r="N85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H85,"")</f>
-        <v>9594</v>
+        <v>9860.5</v>
       </c>
       <c r="O85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H85,"")</f>
-        <v>5681.0769230769238</v>
+        <v>6200.9259259259252</v>
       </c>
       <c r="P85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F85,"")</f>
@@ -64288,11 +64456,11 @@
       </c>
       <c r="B88">
         <f>COUNTIF(CSL_Sonuclari!C:J,A88)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C88" s="5">
         <f t="shared" si="8"/>
-        <v>3108.8444444444444</v>
+        <v>3193.4444444444443</v>
       </c>
       <c r="D88">
         <f>COUNTIF(CSL_Sonuclari!J:J,A88)</f>
@@ -64304,11 +64472,11 @@
       </c>
       <c r="F88" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A88)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G88" s="8">
         <f t="shared" si="10"/>
-        <v>784</v>
+        <v>1207</v>
       </c>
       <c r="H88">
         <f>COUNTIF(CSL_Sonuclari!C:H,A88)</f>
@@ -64344,7 +64512,7 @@
       </c>
       <c r="P88">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F88,"")</f>
-        <v>784</v>
+        <v>1207</v>
       </c>
       <c r="Q88">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D88,"")</f>
@@ -64355,7 +64523,7 @@
       </c>
       <c r="S88">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R88)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
@@ -64440,19 +64608,19 @@
       </c>
       <c r="B90">
         <f>COUNTIF(CSL_Sonuclari!C:J,A90)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C90" s="5">
         <f t="shared" si="8"/>
-        <v>4156.2230769230764</v>
+        <v>3689.5701923076922</v>
       </c>
       <c r="D90">
         <f>COUNTIF(CSL_Sonuclari!J:J,A90)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" s="5">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>423</v>
       </c>
       <c r="F90" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A90)</f>
@@ -64498,9 +64666,9 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F90,"")</f>
         <v>1683</v>
       </c>
-      <c r="Q90" t="str">
+      <c r="Q90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D90,"")</f>
-        <v/>
+        <v>423</v>
       </c>
       <c r="R90" s="2">
         <v>89</v>
@@ -66650,15 +66818,15 @@
       </c>
       <c r="B3">
         <f>COUNTIF(SL_Sonuclari!C:H,A3)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" s="5">
         <f t="shared" si="0"/>
-        <v>107</v>
+        <v>109.91891891891892</v>
       </c>
       <c r="D3">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A3,SL_Sonuclari!A:A),"")</f>
-        <v>207</v>
+        <v>212.83783783783784</v>
       </c>
       <c r="E3" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A3,SL_Sonuclari!A:A),"")</f>
@@ -66848,11 +67016,11 @@
       </c>
       <c r="B9">
         <f>COUNTIF(SL_Sonuclari!C:H,A9)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>216.02196969696971</v>
+        <v>219.1605113636364</v>
       </c>
       <c r="D9">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A9,SL_Sonuclari!A:A),"")</f>
@@ -66860,7 +67028,7 @@
       </c>
       <c r="E9">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A9,SL_Sonuclari!A:A),"")</f>
-        <v>222.13333333333333</v>
+        <v>234.6875</v>
       </c>
       <c r="F9">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A9,SL_Sonuclari!A:A),"")</f>
@@ -66980,15 +67148,15 @@
       </c>
       <c r="B13">
         <f>COUNTIF(SL_Sonuclari!C:H,A13)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="0"/>
-        <v>150.99350649350649</v>
+        <v>153.02562111801242</v>
       </c>
       <c r="D13">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A13,SL_Sonuclari!A:A),"")</f>
-        <v>235.04545454545453</v>
+        <v>243.17391304347825</v>
       </c>
       <c r="E13">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A13,SL_Sonuclari!A:A),"")</f>
@@ -67112,11 +67280,11 @@
       </c>
       <c r="B17">
         <f>COUNTIF(SL_Sonuclari!C:H,A17)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="0"/>
-        <v>208.75333333333333</v>
+        <v>213.24666666666667</v>
       </c>
       <c r="D17">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A17,SL_Sonuclari!A:A),"")</f>
@@ -67128,7 +67296,7 @@
       </c>
       <c r="F17">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A17,SL_Sonuclari!A:A),"")</f>
-        <v>197.33333333333334</v>
+        <v>219.8</v>
       </c>
       <c r="G17">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A17,SL_Sonuclari!A:A),"")</f>
@@ -67211,11 +67379,11 @@
       </c>
       <c r="B20">
         <f>COUNTIF(SL_Sonuclari!C:H,A20)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
-        <v>209.86053921568629</v>
+        <v>218.51331699346406</v>
       </c>
       <c r="D20">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A20,SL_Sonuclari!A:A),"")</f>
@@ -67231,7 +67399,7 @@
       </c>
       <c r="G20">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A20,SL_Sonuclari!A:A),"")</f>
-        <v>111.5</v>
+        <v>146.11111111111111</v>
       </c>
       <c r="H20" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A20,SL_Sonuclari!A:A),"")</f>
@@ -67475,11 +67643,11 @@
       </c>
       <c r="B28">
         <f>COUNTIF(SL_Sonuclari!C:H,A28)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28" s="5">
         <f t="shared" si="0"/>
-        <v>204.38392857142856</v>
+        <v>209.07142857142856</v>
       </c>
       <c r="D28">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A28,SL_Sonuclari!A:A),"")</f>
@@ -67487,7 +67655,7 @@
       </c>
       <c r="E28">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A28,SL_Sonuclari!A:A),"")</f>
-        <v>182.9375</v>
+        <v>197</v>
       </c>
       <c r="F28">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A28,SL_Sonuclari!A:A),"")</f>
@@ -67640,11 +67808,11 @@
       </c>
       <c r="B33">
         <f>COUNTIF(SL_Sonuclari!C:H,A33)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C33" s="5">
         <f t="shared" si="0"/>
-        <v>181.24978632478633</v>
+        <v>185.55198412698411</v>
       </c>
       <c r="D33" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A33,SL_Sonuclari!A:A),"")</f>
@@ -67660,7 +67828,7 @@
       </c>
       <c r="G33">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A33,SL_Sonuclari!A:A),"")</f>
-        <v>181.07692307692307</v>
+        <v>198.28571428571428</v>
       </c>
       <c r="H33">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A33,SL_Sonuclari!A:A),"")</f>
@@ -67805,11 +67973,11 @@
       </c>
       <c r="B38">
         <f>COUNTIF(SL_Sonuclari!C:H,A38)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C38" s="5">
         <f t="shared" si="1"/>
-        <v>173.16111111111113</v>
+        <v>223.12888888888892</v>
       </c>
       <c r="D38">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A38,SL_Sonuclari!A:A),"")</f>
@@ -67827,9 +67995,9 @@
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A38,SL_Sonuclari!A:A),"")</f>
         <v>136</v>
       </c>
-      <c r="H38" t="str">
+      <c r="H38">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A38,SL_Sonuclari!A:A),"")</f>
-        <v/>
+        <v>423</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -68135,11 +68303,11 @@
       </c>
       <c r="B48">
         <f>COUNTIF(SL_Sonuclari!C:H,A48)</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C48" s="5">
         <f t="shared" si="1"/>
-        <v>229.45054945054946</v>
+        <v>241.86721611721612</v>
       </c>
       <c r="D48">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A48,SL_Sonuclari!A:A),"")</f>
@@ -68151,7 +68319,7 @@
       </c>
       <c r="F48">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A48,SL_Sonuclari!A:A),"")</f>
-        <v>236.75</v>
+        <v>274</v>
       </c>
       <c r="G48" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A48,SL_Sonuclari!A:A),"")</f>
@@ -68168,11 +68336,11 @@
       </c>
       <c r="B49">
         <f>COUNTIF(SL_Sonuclari!C:H,A49)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C49" s="5">
         <f t="shared" si="1"/>
-        <v>194.51085164835166</v>
+        <v>205.68085164835165</v>
       </c>
       <c r="D49">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A49,SL_Sonuclari!A:A),"")</f>
@@ -68192,7 +68360,7 @@
       </c>
       <c r="H49">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A49,SL_Sonuclari!A:A),"")</f>
-        <v>142.75</v>
+        <v>198.6</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -68366,7 +68534,7 @@
       </c>
       <c r="B55">
         <f>COUNTIF(SL_Sonuclari!C:H,A55)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C55" s="5">
         <f t="shared" si="1"/>
@@ -68502,7 +68670,7 @@
       </c>
       <c r="B59">
         <f>COUNTIF(SL_Sonuclari!C:H,A59)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C59" s="5">
         <f t="shared" si="1"/>

--- a/SLIStatistik.xlsx
+++ b/SLIStatistik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\ReadExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E72569-C4E5-4234-A54D-200FC4FEC37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B39FD4-8EDF-43A8-A380-01D5DA7A15CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
   </bookViews>
@@ -612,13 +612,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21120D27-1448-4179-993C-6B3BE739480A}">
-  <dimension ref="A1:J425"/>
+  <dimension ref="A1:J427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B392" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B399" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A425" sqref="A425"/>
+      <selection pane="bottomRight" activeCell="A428" sqref="A428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13637,6 +13637,70 @@
         <v>18</v>
       </c>
     </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A426" s="2">
+        <v>424</v>
+      </c>
+      <c r="B426" s="1">
+        <v>45040</v>
+      </c>
+      <c r="C426" s="2">
+        <v>12</v>
+      </c>
+      <c r="D426" s="2">
+        <v>15</v>
+      </c>
+      <c r="E426" s="2">
+        <v>45</v>
+      </c>
+      <c r="F426" s="2">
+        <v>62</v>
+      </c>
+      <c r="G426" s="2">
+        <v>74</v>
+      </c>
+      <c r="H426" s="2">
+        <v>84</v>
+      </c>
+      <c r="I426" s="2">
+        <v>76</v>
+      </c>
+      <c r="J426" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A427" s="2">
+        <v>425</v>
+      </c>
+      <c r="B427" s="1">
+        <v>45042</v>
+      </c>
+      <c r="C427" s="2">
+        <v>8</v>
+      </c>
+      <c r="D427" s="2">
+        <v>25</v>
+      </c>
+      <c r="E427" s="2">
+        <v>53</v>
+      </c>
+      <c r="F427" s="2">
+        <v>62</v>
+      </c>
+      <c r="G427" s="2">
+        <v>71</v>
+      </c>
+      <c r="H427" s="2">
+        <v>82</v>
+      </c>
+      <c r="I427" s="2">
+        <v>28</v>
+      </c>
+      <c r="J427" s="2">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J311">
     <sortCondition ref="B2:B311"/>
@@ -13648,10 +13712,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8BCBFC-83B0-4863-9D9A-FF955DDDA58C}">
-  <dimension ref="A1:H425"/>
+  <dimension ref="A1:H426"/>
   <sheetViews>
     <sheetView topLeftCell="A392" workbookViewId="0">
-      <selection activeCell="C425" sqref="C425"/>
+      <selection activeCell="B427" sqref="B427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24709,6 +24773,32 @@
         <v>31</v>
       </c>
     </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>424</v>
+      </c>
+      <c r="B426" s="1">
+        <v>45041</v>
+      </c>
+      <c r="C426">
+        <v>1</v>
+      </c>
+      <c r="D426">
+        <v>5</v>
+      </c>
+      <c r="E426">
+        <v>19</v>
+      </c>
+      <c r="F426">
+        <v>34</v>
+      </c>
+      <c r="G426">
+        <v>43</v>
+      </c>
+      <c r="H426">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H311">
     <sortCondition ref="B2:B311"/>
@@ -24719,10 +24809,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4513EEF-0F11-4AC5-A4C7-CB00A18EA83B}">
-  <dimension ref="A1:H1273"/>
+  <dimension ref="A1:H1274"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1251" workbookViewId="0">
-      <selection activeCell="A1274" sqref="A1274"/>
+      <selection activeCell="A1275" sqref="A1275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57825,6 +57915,32 @@
         <v>28</v>
       </c>
       <c r="H1273">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1274">
+        <v>1663</v>
+      </c>
+      <c r="B1274" s="1">
+        <v>45042</v>
+      </c>
+      <c r="C1274">
+        <v>11</v>
+      </c>
+      <c r="D1274">
+        <v>13</v>
+      </c>
+      <c r="E1274">
+        <v>23</v>
+      </c>
+      <c r="F1274">
+        <v>24</v>
+      </c>
+      <c r="G1274">
+        <v>33</v>
+      </c>
+      <c r="H1274">
         <v>12</v>
       </c>
     </row>
@@ -58376,11 +58492,11 @@
       </c>
       <c r="B8">
         <f>COUNTIF(CSL_Sonuclari!C:J,A8)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" si="0"/>
-        <v>2956.3523809523808</v>
+        <v>3041.152380952381</v>
       </c>
       <c r="D8">
         <f>COUNTIF(CSL_Sonuclari!J:J,A8)</f>
@@ -58392,11 +58508,11 @@
       </c>
       <c r="F8" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A8)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="2"/>
-        <v>847</v>
+        <v>1271</v>
       </c>
       <c r="H8">
         <f>COUNTIF(CSL_Sonuclari!C:H,A8)</f>
@@ -58432,7 +58548,7 @@
       </c>
       <c r="P8">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F8,"")</f>
-        <v>847</v>
+        <v>1271</v>
       </c>
       <c r="Q8">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D8,"")</f>
@@ -58452,19 +58568,19 @@
       </c>
       <c r="B9">
         <f>COUNTIF(CSL_Sonuclari!C:J,A9)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>4225.3035714285716</v>
+        <v>4285.875</v>
       </c>
       <c r="D9">
         <f>COUNTIF(CSL_Sonuclari!J:J,A9)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="1"/>
-        <v>1331</v>
+        <v>1755</v>
       </c>
       <c r="F9" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A9)</f>
@@ -58512,14 +58628,14 @@
       </c>
       <c r="Q9">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D9,"")</f>
-        <v>1331</v>
+        <v>1755</v>
       </c>
       <c r="R9" s="2">
         <v>8</v>
       </c>
       <c r="S9">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R9)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -58823,7 +58939,7 @@
       </c>
       <c r="S13">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R13)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -58984,11 +59100,11 @@
       </c>
       <c r="B16">
         <f>COUNTIF(CSL_Sonuclari!C:J,A16)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
-        <v>3076.9833333333336</v>
+        <v>3254.1666666666665</v>
       </c>
       <c r="D16">
         <f>COUNTIF(CSL_Sonuclari!J:J,A16)</f>
@@ -59008,11 +59124,11 @@
       </c>
       <c r="H16">
         <f>COUNTIF(CSL_Sonuclari!C:H,A16)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I16" s="5">
         <f t="shared" si="3"/>
-        <v>4331.4750000000004</v>
+        <v>4597.25</v>
       </c>
       <c r="J16" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H16,"")</f>
@@ -59024,19 +59140,19 @@
       </c>
       <c r="L16">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H16,"")</f>
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="M16">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H16,"")</f>
-        <v>5778</v>
+        <v>5992</v>
       </c>
       <c r="N16">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H16,"")</f>
-        <v>6439.5</v>
+        <v>6678</v>
       </c>
       <c r="O16">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H16,"")</f>
-        <v>4973.3999999999996</v>
+        <v>5579</v>
       </c>
       <c r="P16">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F16,"")</f>
@@ -59051,7 +59167,7 @@
       </c>
       <c r="S16">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R16)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -59811,7 +59927,7 @@
       </c>
       <c r="S26">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R26)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -60039,7 +60155,7 @@
       </c>
       <c r="S29">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R29)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -60656,11 +60772,11 @@
       </c>
       <c r="B38">
         <f>COUNTIF(CSL_Sonuclari!C:J,A38)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C38" s="5">
         <f t="shared" si="4"/>
-        <v>5395.8030303030309</v>
+        <v>5466.636363636364</v>
       </c>
       <c r="D38">
         <f>COUNTIF(CSL_Sonuclari!J:J,A38)</f>
@@ -60672,11 +60788,11 @@
       </c>
       <c r="F38" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A38)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G38" s="8">
         <f t="shared" si="6"/>
-        <v>987</v>
+        <v>1412</v>
       </c>
       <c r="H38">
         <f>COUNTIF(CSL_Sonuclari!C:H,A38)</f>
@@ -60712,7 +60828,7 @@
       </c>
       <c r="P38">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F38,"")</f>
-        <v>987</v>
+        <v>1412</v>
       </c>
       <c r="Q38">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D38,"")</f>
@@ -61331,7 +61447,7 @@
       </c>
       <c r="S46">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R46)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
@@ -61568,11 +61684,11 @@
       </c>
       <c r="B50">
         <f>COUNTIF(CSL_Sonuclari!C:J,A50)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C50" s="5">
         <f t="shared" si="4"/>
-        <v>3581.1666666666665</v>
+        <v>3780.8555555555558</v>
       </c>
       <c r="D50">
         <f>COUNTIF(CSL_Sonuclari!J:J,A50)</f>
@@ -61592,11 +61708,11 @@
       </c>
       <c r="H50">
         <f>COUNTIF(CSL_Sonuclari!C:H,A50)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I50" s="5">
         <f t="shared" si="7"/>
-        <v>4607.25</v>
+        <v>4906.7833333333338</v>
       </c>
       <c r="J50" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H50,"")</f>
@@ -61608,19 +61724,19 @@
       </c>
       <c r="L50">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H50,"")</f>
-        <v>1110</v>
+        <v>1147</v>
       </c>
       <c r="M50">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H50,"")</f>
-        <v>6270</v>
+        <v>6479</v>
       </c>
       <c r="N50">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H50,"")</f>
-        <v>4245</v>
+        <v>4970.3333333333339</v>
       </c>
       <c r="O50">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H50,"")</f>
-        <v>6804</v>
+        <v>7030.8</v>
       </c>
       <c r="P50">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F50,"")</f>
@@ -61872,11 +61988,11 @@
       </c>
       <c r="B54">
         <f>COUNTIF(CSL_Sonuclari!C:J,A54)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C54" s="5">
         <f t="shared" si="4"/>
-        <v>3699.863636363636</v>
+        <v>4165.6538461538466</v>
       </c>
       <c r="D54">
         <f>COUNTIF(CSL_Sonuclari!J:J,A54)</f>
@@ -61896,11 +62012,11 @@
       </c>
       <c r="H54">
         <f>COUNTIF(CSL_Sonuclari!C:H,A54)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I54" s="5">
         <f t="shared" si="7"/>
-        <v>4974.545454545454</v>
+        <v>5673.2307692307695</v>
       </c>
       <c r="J54" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H54,"")</f>
@@ -61908,19 +62024,19 @@
       </c>
       <c r="K54">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H54,"")</f>
-        <v>2310</v>
+        <v>2464</v>
       </c>
       <c r="L54">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H54,"")</f>
-        <v>7330</v>
+        <v>7818.666666666667</v>
       </c>
       <c r="M54">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H54,"")</f>
-        <v>3788.181818181818</v>
+        <v>5508.9230769230771</v>
       </c>
       <c r="N54">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H54,"")</f>
-        <v>6470</v>
+        <v>6901.333333333333</v>
       </c>
       <c r="O54" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H54,"")</f>
@@ -61939,7 +62055,7 @@
       </c>
       <c r="S54">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R54)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
@@ -62100,11 +62216,11 @@
       </c>
       <c r="B57">
         <f>COUNTIF(CSL_Sonuclari!C:J,A57)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C57" s="5">
         <f t="shared" si="4"/>
-        <v>5084.6285714285714</v>
+        <v>5426.1050793650802</v>
       </c>
       <c r="D57">
         <f>COUNTIF(CSL_Sonuclari!J:J,A57)</f>
@@ -62124,11 +62240,11 @@
       </c>
       <c r="H57">
         <f>COUNTIF(CSL_Sonuclari!C:H,A57)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I57" s="5">
         <f t="shared" si="7"/>
-        <v>6153.2857142857147</v>
+        <v>6580.13134920635</v>
       </c>
       <c r="J57" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H57,"")</f>
@@ -62136,19 +62252,19 @@
       </c>
       <c r="K57">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H57,"")</f>
-        <v>7506</v>
+        <v>7756.2</v>
       </c>
       <c r="L57">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H57,"")</f>
-        <v>4136.666666666667</v>
+        <v>5161.5</v>
       </c>
       <c r="M57">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H57,"")</f>
-        <v>6803.333333333333</v>
+        <v>7030.1111111111113</v>
       </c>
       <c r="N57">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H57,"")</f>
-        <v>6167.1428571428578</v>
+        <v>6372.7142857142862</v>
       </c>
       <c r="O57" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H57,"")</f>
@@ -62623,7 +62739,7 @@
       </c>
       <c r="S63">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R63)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
@@ -62708,11 +62824,11 @@
       </c>
       <c r="B65">
         <f>COUNTIF(CSL_Sonuclari!C:J,A65)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C65" s="5">
         <f t="shared" si="4"/>
-        <v>4243.96</v>
+        <v>4434</v>
       </c>
       <c r="D65">
         <f>COUNTIF(CSL_Sonuclari!J:J,A65)</f>
@@ -62732,11 +62848,11 @@
       </c>
       <c r="H65">
         <f>COUNTIF(CSL_Sonuclari!C:H,A65)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I65" s="5">
         <f t="shared" si="7"/>
-        <v>6342.5999999999995</v>
+        <v>6659.333333333333</v>
       </c>
       <c r="J65" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H65,"")</f>
@@ -62752,15 +62868,15 @@
       </c>
       <c r="M65">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H65,"")</f>
-        <v>8343</v>
+        <v>8652</v>
       </c>
       <c r="N65">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H65,"")</f>
-        <v>4207.5</v>
+        <v>4363.3333333333339</v>
       </c>
       <c r="O65">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H65,"")</f>
-        <v>6477.3</v>
+        <v>6962.6666666666661</v>
       </c>
       <c r="P65">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F65,"")</f>
@@ -62784,11 +62900,11 @@
       </c>
       <c r="B66">
         <f>COUNTIF(CSL_Sonuclari!C:J,A66)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C66" s="5">
         <f t="shared" ref="C66:C91" si="8">AVERAGE(J66:Q66)</f>
-        <v>5267.1104761904762</v>
+        <v>5493.9800000000005</v>
       </c>
       <c r="D66">
         <f>COUNTIF(CSL_Sonuclari!J:J,A66)</f>
@@ -62808,23 +62924,23 @@
       </c>
       <c r="H66">
         <f>COUNTIF(CSL_Sonuclari!C:H,A66)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I66" s="5">
         <f t="shared" ref="I66:I91" si="11">AVERAGE(J66:O66)</f>
-        <v>8370.1841269841261</v>
+        <v>8748.3000000000011</v>
       </c>
       <c r="J66">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H66,"")</f>
-        <v>6140.9523809523807</v>
+        <v>6682.5</v>
       </c>
       <c r="K66">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H66,"")</f>
-        <v>6137.6</v>
+        <v>6329.4000000000005</v>
       </c>
       <c r="L66">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H66,"")</f>
-        <v>12832</v>
+        <v>13233</v>
       </c>
       <c r="M66" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H66,"")</f>
@@ -62936,19 +63052,19 @@
       </c>
       <c r="B68">
         <f>COUNTIF(CSL_Sonuclari!C:J,A68)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C68" s="5">
         <f t="shared" si="8"/>
-        <v>6882.1904761904752</v>
+        <v>7215.2857142857147</v>
       </c>
       <c r="D68">
         <f>COUNTIF(CSL_Sonuclari!J:J,A68)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E68" s="5">
         <f t="shared" si="9"/>
-        <v>468</v>
+        <v>893</v>
       </c>
       <c r="F68" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A68)</f>
@@ -62960,31 +63076,31 @@
       </c>
       <c r="H68">
         <f>COUNTIF(CSL_Sonuclari!C:H,A68)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I68" s="5">
         <f t="shared" si="11"/>
-        <v>9251.6666666666661</v>
+        <v>9633</v>
       </c>
       <c r="J68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H68,"")</f>
-        <v>8664.4444444444434</v>
+        <v>8912</v>
       </c>
       <c r="K68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H68,"")</f>
-        <v>7481.25</v>
+        <v>8280</v>
       </c>
       <c r="L68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H68,"")</f>
-        <v>9173.8888888888887</v>
+        <v>9436</v>
       </c>
       <c r="M68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H68,"")</f>
-        <v>12083.75</v>
+        <v>12429</v>
       </c>
       <c r="N68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H68,"")</f>
-        <v>8855</v>
+        <v>9108</v>
       </c>
       <c r="O68" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H68,"")</f>
@@ -62996,7 +63112,7 @@
       </c>
       <c r="Q68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D68,"")</f>
-        <v>468</v>
+        <v>893</v>
       </c>
       <c r="R68" s="2">
         <v>67</v>
@@ -63307,7 +63423,7 @@
       </c>
       <c r="S72">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R72)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
@@ -63392,11 +63508,11 @@
       </c>
       <c r="B74">
         <f>COUNTIF(CSL_Sonuclari!C:J,A74)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C74" s="5">
         <f t="shared" si="8"/>
-        <v>5368.7421271538924</v>
+        <v>5626.713235294118</v>
       </c>
       <c r="D74">
         <f>COUNTIF(CSL_Sonuclari!J:J,A74)</f>
@@ -63416,27 +63532,27 @@
       </c>
       <c r="H74">
         <f>COUNTIF(CSL_Sonuclari!C:H,A74)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I74" s="5">
         <f t="shared" si="11"/>
-        <v>7592.6131907308381</v>
+        <v>7979.5698529411766</v>
       </c>
       <c r="J74">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H74,"")</f>
-        <v>6600.727272727273</v>
+        <v>7405.75</v>
       </c>
       <c r="K74">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H74,"")</f>
-        <v>6735.0588235294117</v>
+        <v>6945.5294117647054</v>
       </c>
       <c r="L74">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H74,"")</f>
-        <v>5642.666666666667</v>
+        <v>5819</v>
       </c>
       <c r="M74">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H74,"")</f>
-        <v>11392</v>
+        <v>11748</v>
       </c>
       <c r="N74" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H74,"")</f>
@@ -63468,11 +63584,11 @@
       </c>
       <c r="B75">
         <f>COUNTIF(CSL_Sonuclari!C:J,A75)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C75" s="5">
         <f t="shared" si="8"/>
-        <v>3889.5541666666663</v>
+        <v>4272.8374999999996</v>
       </c>
       <c r="D75">
         <f>COUNTIF(CSL_Sonuclari!J:J,A75)</f>
@@ -63492,35 +63608,35 @@
       </c>
       <c r="H75">
         <f>COUNTIF(CSL_Sonuclari!C:H,A75)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I75" s="5">
         <f t="shared" si="11"/>
-        <v>4892.4055555555551</v>
+        <v>5403.45</v>
       </c>
       <c r="J75">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H75,"")</f>
-        <v>5278</v>
+        <v>5481</v>
       </c>
       <c r="K75">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H75,"")</f>
-        <v>5284.5</v>
+        <v>5487.75</v>
       </c>
       <c r="L75">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H75,"")</f>
-        <v>3588</v>
+        <v>5663.25</v>
       </c>
       <c r="M75">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H75,"")</f>
-        <v>5215.5999999999995</v>
+        <v>5416.2</v>
       </c>
       <c r="N75">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H75,"")</f>
-        <v>6634.333333333333</v>
+        <v>6889.5</v>
       </c>
       <c r="O75">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H75,"")</f>
-        <v>3354</v>
+        <v>3483</v>
       </c>
       <c r="P75">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F75,"")</f>
@@ -63535,7 +63651,7 @@
       </c>
       <c r="S75">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R75)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
@@ -63687,7 +63803,7 @@
       </c>
       <c r="S77">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R77)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
@@ -63924,11 +64040,11 @@
       </c>
       <c r="B81">
         <f>COUNTIF(CSL_Sonuclari!C:J,A81)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C81" s="5">
         <f t="shared" si="8"/>
-        <v>3446.6170634920632</v>
+        <v>3683.5833333333335</v>
       </c>
       <c r="D81">
         <f>COUNTIF(CSL_Sonuclari!J:J,A81)</f>
@@ -63948,27 +64064,27 @@
       </c>
       <c r="H81">
         <f>COUNTIF(CSL_Sonuclari!C:H,A81)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I81" s="5">
         <f t="shared" si="11"/>
-        <v>4606.4255952380945</v>
+        <v>4961.875</v>
       </c>
       <c r="J81">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H81,"")</f>
-        <v>5667.083333333333</v>
+        <v>5862.5</v>
       </c>
       <c r="K81">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H81,"")</f>
-        <v>6214.2857142857138</v>
+        <v>7215</v>
       </c>
       <c r="L81">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H81,"")</f>
-        <v>5239.333333333333</v>
+        <v>5420</v>
       </c>
       <c r="M81">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H81,"")</f>
-        <v>1305</v>
+        <v>1350</v>
       </c>
       <c r="N81" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H81,"")</f>
@@ -64143,7 +64259,7 @@
       </c>
       <c r="S83">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R83)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
@@ -64295,7 +64411,7 @@
       </c>
       <c r="S85">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R85)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
@@ -64532,11 +64648,11 @@
       </c>
       <c r="B89">
         <f>COUNTIF(CSL_Sonuclari!C:J,A89)</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C89" s="5">
         <f t="shared" si="8"/>
-        <v>6059.0684807256239</v>
+        <v>6285.1893424036289</v>
       </c>
       <c r="D89">
         <f>COUNTIF(CSL_Sonuclari!J:J,A89)</f>
@@ -64556,11 +64672,11 @@
       </c>
       <c r="H89">
         <f>COUNTIF(CSL_Sonuclari!C:H,A89)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I89" s="5">
         <f t="shared" si="11"/>
-        <v>8097.2958730158734</v>
+        <v>8413.8650793650795</v>
       </c>
       <c r="J89" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H89,"")</f>
@@ -64568,23 +64684,23 @@
       </c>
       <c r="K89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H89,"")</f>
-        <v>2343.5</v>
+        <v>2398</v>
       </c>
       <c r="L89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H89,"")</f>
-        <v>8944</v>
+        <v>9152</v>
       </c>
       <c r="M89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H89,"")</f>
-        <v>11046.222222222223</v>
+        <v>11303.111111111113</v>
       </c>
       <c r="N89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H89,"")</f>
-        <v>8247.4</v>
+        <v>9080.5</v>
       </c>
       <c r="O89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H89,"")</f>
-        <v>9905.3571428571431</v>
+        <v>10135.714285714286</v>
       </c>
       <c r="P89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F89,"")</f>
@@ -66818,15 +66934,15 @@
       </c>
       <c r="B3">
         <f>COUNTIF(SL_Sonuclari!C:H,A3)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="5">
         <f t="shared" si="0"/>
-        <v>109.91891891891892</v>
+        <v>112.69736842105263</v>
       </c>
       <c r="D3">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A3,SL_Sonuclari!A:A),"")</f>
-        <v>212.83783783783784</v>
+        <v>218.39473684210526</v>
       </c>
       <c r="E3" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A3,SL_Sonuclari!A:A),"")</f>
@@ -66917,11 +67033,11 @@
       </c>
       <c r="B6">
         <f>COUNTIF(SL_Sonuclari!C:H,A6)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" s="5">
         <f t="shared" si="0"/>
-        <v>136.59659090909091</v>
+        <v>140.72916666666666</v>
       </c>
       <c r="D6">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A6,SL_Sonuclari!A:A),"")</f>
@@ -66929,7 +67045,7 @@
       </c>
       <c r="E6">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A6,SL_Sonuclari!A:A),"")</f>
-        <v>225.63636363636363</v>
+        <v>242.16666666666666</v>
       </c>
       <c r="F6">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A6,SL_Sonuclari!A:A),"")</f>
@@ -67511,11 +67627,11 @@
       </c>
       <c r="B24">
         <f>COUNTIF(SL_Sonuclari!C:H,A24)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" s="5">
         <f t="shared" si="0"/>
-        <v>193.01960784313724</v>
+        <v>197.29738562091504</v>
       </c>
       <c r="D24" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A24,SL_Sonuclari!A:A),"")</f>
@@ -67535,7 +67651,7 @@
       </c>
       <c r="H24">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A24,SL_Sonuclari!A:A),"")</f>
-        <v>231.5</v>
+        <v>244.33333333333334</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -67610,7 +67726,7 @@
       </c>
       <c r="B27">
         <f>COUNTIF(SL_Sonuclari!C:H,A27)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" s="5">
         <f t="shared" si="0"/>
@@ -68006,11 +68122,11 @@
       </c>
       <c r="B39">
         <f>COUNTIF(SL_Sonuclari!C:H,A39)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C39" s="5">
         <f t="shared" si="1"/>
-        <v>225.93415071770335</v>
+        <v>229.20877192982454</v>
       </c>
       <c r="D39">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A39,SL_Sonuclari!A:A),"")</f>
@@ -68022,7 +68138,7 @@
       </c>
       <c r="F39">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A39,SL_Sonuclari!A:A),"")</f>
-        <v>266.81818181818181</v>
+        <v>279.91666666666669</v>
       </c>
       <c r="G39">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A39,SL_Sonuclari!A:A),"")</f>
@@ -68501,11 +68617,11 @@
       </c>
       <c r="B54">
         <f>COUNTIF(SL_Sonuclari!C:H,A54)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C54" s="5">
         <f t="shared" si="1"/>
-        <v>229.46666666666664</v>
+        <v>233.36190476190473</v>
       </c>
       <c r="D54">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A54,SL_Sonuclari!A:A),"")</f>
@@ -68521,7 +68637,7 @@
       </c>
       <c r="G54">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A54,SL_Sonuclari!A:A),"")</f>
-        <v>287.66666666666669</v>
+        <v>307.14285714285717</v>
       </c>
       <c r="H54">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A54,SL_Sonuclari!A:A),"")</f>

--- a/SLIStatistik.xlsx
+++ b/SLIStatistik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\ReadExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B39FD4-8EDF-43A8-A380-01D5DA7A15CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5DC837-4646-4C33-A80F-05D3B523A7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
   </bookViews>
@@ -612,13 +612,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21120D27-1448-4179-993C-6B3BE739480A}">
-  <dimension ref="A1:J427"/>
+  <dimension ref="A1:J431"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B399" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A428" sqref="A428"/>
+      <selection pane="bottomRight" activeCell="A432" sqref="A432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13701,6 +13701,134 @@
         <v>25</v>
       </c>
     </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A428" s="2">
+        <v>426</v>
+      </c>
+      <c r="B428" s="1">
+        <v>45045</v>
+      </c>
+      <c r="C428" s="2">
+        <v>8</v>
+      </c>
+      <c r="D428" s="2">
+        <v>11</v>
+      </c>
+      <c r="E428" s="2">
+        <v>41</v>
+      </c>
+      <c r="F428" s="2">
+        <v>58</v>
+      </c>
+      <c r="G428" s="2">
+        <v>84</v>
+      </c>
+      <c r="H428" s="2">
+        <v>87</v>
+      </c>
+      <c r="I428" s="2">
+        <v>63</v>
+      </c>
+      <c r="J428" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A429" s="2">
+        <v>427</v>
+      </c>
+      <c r="B429" s="1">
+        <v>45047</v>
+      </c>
+      <c r="C429" s="2">
+        <v>34</v>
+      </c>
+      <c r="D429" s="2">
+        <v>39</v>
+      </c>
+      <c r="E429" s="2">
+        <v>43</v>
+      </c>
+      <c r="F429" s="2">
+        <v>49</v>
+      </c>
+      <c r="G429" s="2">
+        <v>56</v>
+      </c>
+      <c r="H429" s="2">
+        <v>57</v>
+      </c>
+      <c r="I429" s="2">
+        <v>52</v>
+      </c>
+      <c r="J429" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A430" s="2">
+        <v>428</v>
+      </c>
+      <c r="B430" s="1">
+        <v>45049</v>
+      </c>
+      <c r="C430" s="2">
+        <v>7</v>
+      </c>
+      <c r="D430" s="2">
+        <v>18</v>
+      </c>
+      <c r="E430" s="2">
+        <v>45</v>
+      </c>
+      <c r="F430" s="2">
+        <v>47</v>
+      </c>
+      <c r="G430" s="2">
+        <v>61</v>
+      </c>
+      <c r="H430" s="2">
+        <v>88</v>
+      </c>
+      <c r="I430" s="2">
+        <v>60</v>
+      </c>
+      <c r="J430" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A431" s="2">
+        <v>429</v>
+      </c>
+      <c r="B431" s="1">
+        <v>45052</v>
+      </c>
+      <c r="C431" s="2">
+        <v>21</v>
+      </c>
+      <c r="D431" s="2">
+        <v>29</v>
+      </c>
+      <c r="E431" s="2">
+        <v>66</v>
+      </c>
+      <c r="F431" s="2">
+        <v>67</v>
+      </c>
+      <c r="G431" s="2">
+        <v>82</v>
+      </c>
+      <c r="H431" s="2">
+        <v>87</v>
+      </c>
+      <c r="I431" s="2">
+        <v>55</v>
+      </c>
+      <c r="J431" s="2">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J311">
     <sortCondition ref="B2:B311"/>
@@ -13712,10 +13840,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8BCBFC-83B0-4863-9D9A-FF955DDDA58C}">
-  <dimension ref="A1:H426"/>
+  <dimension ref="A1:H431"/>
   <sheetViews>
-    <sheetView topLeftCell="A392" workbookViewId="0">
-      <selection activeCell="B427" sqref="B427"/>
+    <sheetView topLeftCell="A398" workbookViewId="0">
+      <selection activeCell="I431" sqref="I431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24799,6 +24927,136 @@
         <v>56</v>
       </c>
     </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>425</v>
+      </c>
+      <c r="B427" s="1">
+        <v>45043</v>
+      </c>
+      <c r="C427">
+        <v>11</v>
+      </c>
+      <c r="D427">
+        <v>15</v>
+      </c>
+      <c r="E427">
+        <v>17</v>
+      </c>
+      <c r="F427">
+        <v>32</v>
+      </c>
+      <c r="G427">
+        <v>33</v>
+      </c>
+      <c r="H427">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>426</v>
+      </c>
+      <c r="B428" s="1">
+        <v>45046</v>
+      </c>
+      <c r="C428">
+        <v>1</v>
+      </c>
+      <c r="D428">
+        <v>8</v>
+      </c>
+      <c r="E428">
+        <v>37</v>
+      </c>
+      <c r="F428">
+        <v>38</v>
+      </c>
+      <c r="G428">
+        <v>41</v>
+      </c>
+      <c r="H428">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>427</v>
+      </c>
+      <c r="B429" s="1">
+        <v>45048</v>
+      </c>
+      <c r="C429">
+        <v>29</v>
+      </c>
+      <c r="D429">
+        <v>34</v>
+      </c>
+      <c r="E429">
+        <v>41</v>
+      </c>
+      <c r="F429">
+        <v>52</v>
+      </c>
+      <c r="G429">
+        <v>53</v>
+      </c>
+      <c r="H429">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>428</v>
+      </c>
+      <c r="B430" s="1">
+        <v>45050</v>
+      </c>
+      <c r="C430">
+        <v>9</v>
+      </c>
+      <c r="D430">
+        <v>30</v>
+      </c>
+      <c r="E430">
+        <v>46</v>
+      </c>
+      <c r="F430">
+        <v>47</v>
+      </c>
+      <c r="G430">
+        <v>51</v>
+      </c>
+      <c r="H430">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>429</v>
+      </c>
+      <c r="B431" s="1">
+        <v>45053</v>
+      </c>
+      <c r="C431">
+        <v>11</v>
+      </c>
+      <c r="D431">
+        <v>14</v>
+      </c>
+      <c r="E431">
+        <v>21</v>
+      </c>
+      <c r="F431">
+        <v>28</v>
+      </c>
+      <c r="G431">
+        <v>54</v>
+      </c>
+      <c r="H431">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H311">
     <sortCondition ref="B2:B311"/>
@@ -24809,10 +25067,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4513EEF-0F11-4AC5-A4C7-CB00A18EA83B}">
-  <dimension ref="A1:H1274"/>
+  <dimension ref="A1:H1277"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1251" workbookViewId="0">
-      <selection activeCell="A1275" sqref="A1275"/>
+      <selection activeCell="A1278" sqref="A1278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57942,6 +58200,84 @@
       </c>
       <c r="H1274">
         <v>12</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1275">
+        <v>1664</v>
+      </c>
+      <c r="B1275" s="1">
+        <v>45046</v>
+      </c>
+      <c r="C1275">
+        <v>7</v>
+      </c>
+      <c r="D1275">
+        <v>11</v>
+      </c>
+      <c r="E1275">
+        <v>13</v>
+      </c>
+      <c r="F1275">
+        <v>14</v>
+      </c>
+      <c r="G1275">
+        <v>24</v>
+      </c>
+      <c r="H1275">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1276">
+        <v>1665</v>
+      </c>
+      <c r="B1276" s="1">
+        <v>45049</v>
+      </c>
+      <c r="C1276">
+        <v>11</v>
+      </c>
+      <c r="D1276">
+        <v>18</v>
+      </c>
+      <c r="E1276">
+        <v>25</v>
+      </c>
+      <c r="F1276">
+        <v>26</v>
+      </c>
+      <c r="G1276">
+        <v>29</v>
+      </c>
+      <c r="H1276">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1277">
+        <v>1666</v>
+      </c>
+      <c r="B1277" s="1">
+        <v>45053</v>
+      </c>
+      <c r="C1277">
+        <v>10</v>
+      </c>
+      <c r="D1277">
+        <v>20</v>
+      </c>
+      <c r="E1277">
+        <v>26</v>
+      </c>
+      <c r="F1277">
+        <v>27</v>
+      </c>
+      <c r="G1277">
+        <v>34</v>
+      </c>
+      <c r="H1277">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -58492,19 +58828,19 @@
       </c>
       <c r="B8">
         <f>COUNTIF(CSL_Sonuclari!C:J,A8)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" si="0"/>
-        <v>3041.152380952381</v>
+        <v>3126.3523809523808</v>
       </c>
       <c r="D8">
         <f>COUNTIF(CSL_Sonuclari!J:J,A8)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="1"/>
-        <v>1400</v>
+        <v>1826</v>
       </c>
       <c r="F8" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A8)</f>
@@ -58552,14 +58888,14 @@
       </c>
       <c r="Q8">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D8,"")</f>
-        <v>1400</v>
+        <v>1826</v>
       </c>
       <c r="R8" s="2">
         <v>7</v>
       </c>
       <c r="S8">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R8)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -58635,7 +58971,7 @@
       </c>
       <c r="S9">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R9)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -58644,11 +58980,11 @@
       </c>
       <c r="B10">
         <f>COUNTIF(CSL_Sonuclari!C:J,A10)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" si="0"/>
-        <v>4277.1714285714288</v>
+        <v>4614.9285714285716</v>
       </c>
       <c r="D10">
         <f>COUNTIF(CSL_Sonuclari!J:J,A10)</f>
@@ -58668,31 +59004,31 @@
       </c>
       <c r="H10">
         <f>COUNTIF(CSL_Sonuclari!C:H,A10)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I10" s="5">
         <f t="shared" si="3"/>
-        <v>5788.64</v>
+        <v>6261.5</v>
       </c>
       <c r="J10">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H10,"")</f>
-        <v>3576</v>
+        <v>4883.3333333333339</v>
       </c>
       <c r="K10">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H10,"")</f>
-        <v>5228</v>
+        <v>5445.8333333333339</v>
       </c>
       <c r="L10">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H10,"")</f>
-        <v>7819.2000000000007</v>
+        <v>8145</v>
       </c>
       <c r="M10">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H10,"")</f>
-        <v>5660</v>
+        <v>5895.8333333333339</v>
       </c>
       <c r="N10">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H10,"")</f>
-        <v>6660</v>
+        <v>6937.5</v>
       </c>
       <c r="O10" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H10,"")</f>
@@ -58863,7 +59199,7 @@
       </c>
       <c r="S12">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R12)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -59100,11 +59436,11 @@
       </c>
       <c r="B16">
         <f>COUNTIF(CSL_Sonuclari!C:J,A16)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
-        <v>3254.1666666666665</v>
+        <v>3465.9305555555561</v>
       </c>
       <c r="D16">
         <f>COUNTIF(CSL_Sonuclari!J:J,A16)</f>
@@ -59124,11 +59460,11 @@
       </c>
       <c r="H16">
         <f>COUNTIF(CSL_Sonuclari!C:H,A16)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I16" s="5">
         <f t="shared" si="3"/>
-        <v>4597.25</v>
+        <v>4914.8958333333339</v>
       </c>
       <c r="J16" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H16,"")</f>
@@ -59140,19 +59476,19 @@
       </c>
       <c r="L16">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H16,"")</f>
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M16">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H16,"")</f>
-        <v>5992</v>
+        <v>6206</v>
       </c>
       <c r="N16">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H16,"")</f>
-        <v>6678</v>
+        <v>7530.3333333333339</v>
       </c>
       <c r="O16">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H16,"")</f>
-        <v>5579</v>
+        <v>5778.25</v>
       </c>
       <c r="P16">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F16,"")</f>
@@ -59395,7 +59731,7 @@
       </c>
       <c r="S19">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R19)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -59404,19 +59740,19 @@
       </c>
       <c r="B20">
         <f>COUNTIF(CSL_Sonuclari!C:J,A20)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
-        <v>3571.3250000000003</v>
+        <v>3642.8250000000003</v>
       </c>
       <c r="D20">
         <f>COUNTIF(CSL_Sonuclari!J:J,A20)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="1"/>
-        <v>851</v>
+        <v>1280</v>
       </c>
       <c r="F20" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A20)</f>
@@ -59464,7 +59800,7 @@
       </c>
       <c r="Q20">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D20,"")</f>
-        <v>851</v>
+        <v>1280</v>
       </c>
       <c r="R20" s="2">
         <v>19</v>
@@ -59556,11 +59892,11 @@
       </c>
       <c r="B22">
         <f>COUNTIF(CSL_Sonuclari!C:J,A22)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
-        <v>4856.916666666667</v>
+        <v>5176.6416666666673</v>
       </c>
       <c r="D22">
         <f>COUNTIF(CSL_Sonuclari!J:J,A22)</f>
@@ -59580,11 +59916,11 @@
       </c>
       <c r="H22">
         <f>COUNTIF(CSL_Sonuclari!C:H,A22)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I22" s="5">
         <f t="shared" si="3"/>
-        <v>7110.375</v>
+        <v>7589.9625000000005</v>
       </c>
       <c r="J22" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H22,"")</f>
@@ -59596,19 +59932,19 @@
       </c>
       <c r="L22">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H22,"")</f>
-        <v>8175</v>
+        <v>9417.8000000000011</v>
       </c>
       <c r="M22">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H22,"")</f>
-        <v>7239</v>
+        <v>7480.3</v>
       </c>
       <c r="N22">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H22,"")</f>
-        <v>6600</v>
+        <v>6820</v>
       </c>
       <c r="O22">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H22,"")</f>
-        <v>6427.5</v>
+        <v>6641.75</v>
       </c>
       <c r="P22">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F22,"")</f>
@@ -59623,7 +59959,7 @@
       </c>
       <c r="S22">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R22)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -59632,11 +59968,11 @@
       </c>
       <c r="B23">
         <f>COUNTIF(CSL_Sonuclari!C:J,A23)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
-        <v>4544.0555555555557</v>
+        <v>4815.6157407407409</v>
       </c>
       <c r="D23">
         <f>COUNTIF(CSL_Sonuclari!J:J,A23)</f>
@@ -59656,11 +59992,11 @@
       </c>
       <c r="H23">
         <f>COUNTIF(CSL_Sonuclari!C:H,A23)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I23" s="5">
         <f t="shared" si="3"/>
-        <v>6403.833333333333</v>
+        <v>6811.1736111111113</v>
       </c>
       <c r="J23" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H23,"")</f>
@@ -59672,19 +60008,19 @@
       </c>
       <c r="L23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H23,"")</f>
-        <v>6643</v>
+        <v>6880.25</v>
       </c>
       <c r="M23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H23,"")</f>
-        <v>5719</v>
+        <v>6637.7777777777774</v>
       </c>
       <c r="N23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H23,"")</f>
-        <v>5100.6666666666661</v>
+        <v>5282.833333333333</v>
       </c>
       <c r="O23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H23,"")</f>
-        <v>8152.666666666667</v>
+        <v>8443.8333333333339</v>
       </c>
       <c r="P23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F23,"")</f>
@@ -59784,11 +60120,11 @@
       </c>
       <c r="B25">
         <f>COUNTIF(CSL_Sonuclari!C:J,A25)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25" s="5">
         <f t="shared" si="0"/>
-        <v>6080.0119047619046</v>
+        <v>6358.3311688311687</v>
       </c>
       <c r="D25">
         <f>COUNTIF(CSL_Sonuclari!J:J,A25)</f>
@@ -59808,23 +60144,23 @@
       </c>
       <c r="H25">
         <f>COUNTIF(CSL_Sonuclari!C:H,A25)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I25" s="5">
         <f t="shared" si="3"/>
-        <v>7872.3492063492058</v>
+        <v>8243.4415584415583</v>
       </c>
       <c r="J25">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H25,"")</f>
-        <v>6055.4761904761899</v>
+        <v>6563.181818181818</v>
       </c>
       <c r="K25">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H25,"")</f>
-        <v>7440.5714285714284</v>
+        <v>7697.1428571428569</v>
       </c>
       <c r="L25">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H25,"")</f>
-        <v>10121</v>
+        <v>10470</v>
       </c>
       <c r="M25" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H25,"")</f>
@@ -60088,11 +60424,11 @@
       </c>
       <c r="B29">
         <f>COUNTIF(CSL_Sonuclari!C:J,A29)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C29" s="5">
         <f t="shared" si="0"/>
-        <v>3950.8095238095239</v>
+        <v>4153.3626373626375</v>
       </c>
       <c r="D29">
         <f>COUNTIF(CSL_Sonuclari!J:J,A29)</f>
@@ -60112,31 +60448,31 @@
       </c>
       <c r="H29">
         <f>COUNTIF(CSL_Sonuclari!C:H,A29)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I29" s="5">
         <f t="shared" si="3"/>
-        <v>5169.7333333333336</v>
+        <v>5453.3076923076924</v>
       </c>
       <c r="J29">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H29,"")</f>
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="K29">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H29,"")</f>
-        <v>7482</v>
+        <v>7740</v>
       </c>
       <c r="L29">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H29,"")</f>
-        <v>5737.166666666667</v>
+        <v>6461.5384615384619</v>
       </c>
       <c r="M29">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H29,"")</f>
-        <v>7583.5</v>
+        <v>7845</v>
       </c>
       <c r="N29">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H29,"")</f>
-        <v>4553</v>
+        <v>4710</v>
       </c>
       <c r="O29" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H29,"")</f>
@@ -60164,11 +60500,11 @@
       </c>
       <c r="B30">
         <f>COUNTIF(CSL_Sonuclari!C:J,A30)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C30" s="5">
         <f t="shared" si="0"/>
-        <v>4968.9797979797986</v>
+        <v>5199.666666666667</v>
       </c>
       <c r="D30">
         <f>COUNTIF(CSL_Sonuclari!J:J,A30)</f>
@@ -60188,27 +60524,27 @@
       </c>
       <c r="H30">
         <f>COUNTIF(CSL_Sonuclari!C:H,A30)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I30" s="5">
         <f t="shared" si="3"/>
-        <v>6887.7196969696979</v>
+        <v>7233.75</v>
       </c>
       <c r="J30">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H30,"")</f>
-        <v>4495</v>
+        <v>4650</v>
       </c>
       <c r="K30">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H30,"")</f>
-        <v>7405.545454545455</v>
+        <v>8094.9999999999991</v>
       </c>
       <c r="L30">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H30,"")</f>
-        <v>8269.8333333333339</v>
+        <v>8555</v>
       </c>
       <c r="M30">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H30,"")</f>
-        <v>7380.5</v>
+        <v>7635</v>
       </c>
       <c r="N30" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H30,"")</f>
@@ -60231,7 +60567,7 @@
       </c>
       <c r="S30">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R30)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -60544,11 +60880,11 @@
       </c>
       <c r="B35">
         <f>COUNTIF(CSL_Sonuclari!C:J,A35)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35" s="5">
         <f t="shared" si="4"/>
-        <v>4360.6958333333341</v>
+        <v>4431.6958333333341</v>
       </c>
       <c r="D35">
         <f>COUNTIF(CSL_Sonuclari!J:J,A35)</f>
@@ -60560,11 +60896,11 @@
       </c>
       <c r="F35" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A35)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G35" s="8">
         <f t="shared" si="6"/>
-        <v>485</v>
+        <v>911</v>
       </c>
       <c r="H35">
         <f>COUNTIF(CSL_Sonuclari!C:H,A35)</f>
@@ -60600,7 +60936,7 @@
       </c>
       <c r="P35">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F35,"")</f>
-        <v>485</v>
+        <v>911</v>
       </c>
       <c r="Q35">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D35,"")</f>
@@ -60611,7 +60947,7 @@
       </c>
       <c r="S35">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R35)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -60848,11 +61184,11 @@
       </c>
       <c r="B39">
         <f>COUNTIF(CSL_Sonuclari!C:J,A39)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C39" s="5">
         <f t="shared" si="4"/>
-        <v>4296.5190476190473</v>
+        <v>4357.6619047619042</v>
       </c>
       <c r="D39">
         <f>COUNTIF(CSL_Sonuclari!J:J,A39)</f>
@@ -60864,11 +61200,11 @@
       </c>
       <c r="F39" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A39)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G39" s="8">
         <f t="shared" si="6"/>
-        <v>966</v>
+        <v>1394</v>
       </c>
       <c r="H39">
         <f>COUNTIF(CSL_Sonuclari!C:H,A39)</f>
@@ -60904,7 +61240,7 @@
       </c>
       <c r="P39">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F39,"")</f>
-        <v>966</v>
+        <v>1394</v>
       </c>
       <c r="Q39">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D39,"")</f>
@@ -60991,7 +61327,7 @@
       </c>
       <c r="S40">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R40)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
@@ -61076,11 +61412,11 @@
       </c>
       <c r="B42">
         <f>COUNTIF(CSL_Sonuclari!C:J,A42)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C42" s="5">
         <f t="shared" si="4"/>
-        <v>4264</v>
+        <v>4492.3964646464647</v>
       </c>
       <c r="D42">
         <f>COUNTIF(CSL_Sonuclari!J:J,A42)</f>
@@ -61100,23 +61436,23 @@
       </c>
       <c r="H42">
         <f>COUNTIF(CSL_Sonuclari!C:H,A42)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I42" s="5">
         <f t="shared" si="7"/>
-        <v>5923.75</v>
+        <v>6266.344696969697</v>
       </c>
       <c r="J42">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H42,"")</f>
-        <v>6690</v>
+        <v>7493.545454545454</v>
       </c>
       <c r="K42">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H42,"")</f>
-        <v>4900</v>
+        <v>5063.3333333333339</v>
       </c>
       <c r="L42">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H42,"")</f>
-        <v>6840</v>
+        <v>7068</v>
       </c>
       <c r="M42" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H42,"")</f>
@@ -61124,7 +61460,7 @@
       </c>
       <c r="N42">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H42,"")</f>
-        <v>5265</v>
+        <v>5440.5</v>
       </c>
       <c r="O42" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H42,"")</f>
@@ -61143,7 +61479,7 @@
       </c>
       <c r="S42">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R42)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
@@ -61295,7 +61631,7 @@
       </c>
       <c r="S44">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R44)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
@@ -61304,11 +61640,11 @@
       </c>
       <c r="B45">
         <f>COUNTIF(CSL_Sonuclari!C:J,A45)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45" s="5">
         <f t="shared" si="4"/>
-        <v>4208.8214285714294</v>
+        <v>5120.0428571428574</v>
       </c>
       <c r="D45">
         <f>COUNTIF(CSL_Sonuclari!J:J,A45)</f>
@@ -61328,11 +61664,11 @@
       </c>
       <c r="H45">
         <f>COUNTIF(CSL_Sonuclari!C:H,A45)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I45" s="5">
         <f t="shared" si="7"/>
-        <v>5437.7500000000009</v>
+        <v>6713.4600000000009</v>
       </c>
       <c r="J45" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H45,"")</f>
@@ -61340,23 +61676,23 @@
       </c>
       <c r="K45">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H45,"")</f>
-        <v>10050</v>
+        <v>10452</v>
       </c>
       <c r="L45">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H45,"")</f>
-        <v>3895.0000000000005</v>
+        <v>4050.8</v>
       </c>
       <c r="M45">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H45,"")</f>
-        <v>5927.0833333333339</v>
+        <v>6164.166666666667</v>
       </c>
       <c r="N45">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H45,"")</f>
-        <v>6816.666666666667</v>
+        <v>7089.3333333333339</v>
       </c>
       <c r="O45">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H45,"")</f>
-        <v>500</v>
+        <v>5811</v>
       </c>
       <c r="P45">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F45,"")</f>
@@ -61447,7 +61783,7 @@
       </c>
       <c r="S46">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R46)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
@@ -61532,11 +61868,11 @@
       </c>
       <c r="B48">
         <f>COUNTIF(CSL_Sonuclari!C:J,A48)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C48" s="5">
         <f t="shared" si="4"/>
-        <v>5214.2000000000007</v>
+        <v>5267.8250000000007</v>
       </c>
       <c r="D48">
         <f>COUNTIF(CSL_Sonuclari!J:J,A48)</f>
@@ -61548,11 +61884,11 @@
       </c>
       <c r="F48" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A48)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G48" s="8">
         <f t="shared" si="6"/>
-        <v>1092</v>
+        <v>1521</v>
       </c>
       <c r="H48">
         <f>COUNTIF(CSL_Sonuclari!C:H,A48)</f>
@@ -61588,7 +61924,7 @@
       </c>
       <c r="P48">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F48,"")</f>
-        <v>1092</v>
+        <v>1521</v>
       </c>
       <c r="Q48">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D48,"")</f>
@@ -61599,7 +61935,7 @@
       </c>
       <c r="S48">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R48)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
@@ -61608,11 +61944,11 @@
       </c>
       <c r="B49">
         <f>COUNTIF(CSL_Sonuclari!C:J,A49)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C49" s="5">
         <f t="shared" si="4"/>
-        <v>4227.5417439703151</v>
+        <v>4443.3116883116882</v>
       </c>
       <c r="D49">
         <f>COUNTIF(CSL_Sonuclari!J:J,A49)</f>
@@ -61632,15 +61968,15 @@
       </c>
       <c r="H49">
         <f>COUNTIF(CSL_Sonuclari!C:H,A49)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I49" s="5">
         <f t="shared" si="7"/>
-        <v>5647.9584415584413</v>
+        <v>5950.0363636363636</v>
       </c>
       <c r="J49">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H49,"")</f>
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="K49" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H49,"")</f>
@@ -61648,19 +61984,19 @@
       </c>
       <c r="L49">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H49,"")</f>
-        <v>6231</v>
+        <v>6432</v>
       </c>
       <c r="M49">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H49,"")</f>
-        <v>8653.4285714285725</v>
+        <v>9532</v>
       </c>
       <c r="N49">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H49,"")</f>
-        <v>6476.181818181818</v>
+        <v>6685.090909090909</v>
       </c>
       <c r="O49">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H49,"")</f>
-        <v>6724.181818181818</v>
+        <v>6941.090909090909</v>
       </c>
       <c r="P49">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F49,"")</f>
@@ -61751,7 +62087,7 @@
       </c>
       <c r="S50">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R50)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
@@ -61836,11 +62172,11 @@
       </c>
       <c r="B52">
         <f>COUNTIF(CSL_Sonuclari!C:J,A52)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52" s="5">
         <f t="shared" si="4"/>
-        <v>3594.3047619047625</v>
+        <v>3891.9714285714285</v>
       </c>
       <c r="D52">
         <f>COUNTIF(CSL_Sonuclari!J:J,A52)</f>
@@ -61860,31 +62196,31 @@
       </c>
       <c r="H52">
         <f>COUNTIF(CSL_Sonuclari!C:H,A52)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I52" s="5">
         <f t="shared" si="7"/>
-        <v>4666.8266666666677</v>
+        <v>5083.5599999999995</v>
       </c>
       <c r="J52">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H52,"")</f>
-        <v>5642</v>
+        <v>5859</v>
       </c>
       <c r="K52">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H52,"")</f>
-        <v>4248.4000000000005</v>
+        <v>5598</v>
       </c>
       <c r="L52">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H52,"")</f>
-        <v>4924.4000000000005</v>
+        <v>5113.8</v>
       </c>
       <c r="M52">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H52,"")</f>
-        <v>8389.3333333333339</v>
+        <v>8712</v>
       </c>
       <c r="N52">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H52,"")</f>
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="O52" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H52,"")</f>
@@ -61979,7 +62315,7 @@
       </c>
       <c r="S53">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R53)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
@@ -62207,7 +62543,7 @@
       </c>
       <c r="S56">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R56)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
@@ -62216,11 +62552,11 @@
       </c>
       <c r="B57">
         <f>COUNTIF(CSL_Sonuclari!C:J,A57)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C57" s="5">
         <f t="shared" si="4"/>
-        <v>5426.1050793650802</v>
+        <v>5748.0603751803756</v>
       </c>
       <c r="D57">
         <f>COUNTIF(CSL_Sonuclari!J:J,A57)</f>
@@ -62240,11 +62576,11 @@
       </c>
       <c r="H57">
         <f>COUNTIF(CSL_Sonuclari!C:H,A57)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I57" s="5">
         <f t="shared" si="7"/>
-        <v>6580.13134920635</v>
+        <v>6982.5754689754694</v>
       </c>
       <c r="J57" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H57,"")</f>
@@ -62252,19 +62588,19 @@
       </c>
       <c r="K57">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H57,"")</f>
-        <v>7756.2</v>
+        <v>8006.4</v>
       </c>
       <c r="L57">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H57,"")</f>
-        <v>5161.5</v>
+        <v>6088.727272727273</v>
       </c>
       <c r="M57">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H57,"")</f>
-        <v>7030.1111111111113</v>
+        <v>7256.8888888888887</v>
       </c>
       <c r="N57">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H57,"")</f>
-        <v>6372.7142857142862</v>
+        <v>6578.2857142857147</v>
       </c>
       <c r="O57" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H57,"")</f>
@@ -62283,7 +62619,7 @@
       </c>
       <c r="S57">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R57)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
@@ -62359,7 +62695,7 @@
       </c>
       <c r="S58">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R58)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
@@ -62435,7 +62771,7 @@
       </c>
       <c r="S59">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R59)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
@@ -62520,11 +62856,11 @@
       </c>
       <c r="B61">
         <f>COUNTIF(CSL_Sonuclari!C:J,A61)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C61" s="5">
         <f t="shared" si="4"/>
-        <v>3975.431818181818</v>
+        <v>4181.3794642857138</v>
       </c>
       <c r="D61">
         <f>COUNTIF(CSL_Sonuclari!J:J,A61)</f>
@@ -62544,35 +62880,35 @@
       </c>
       <c r="H61">
         <f>COUNTIF(CSL_Sonuclari!C:H,A61)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I61" s="5">
         <f t="shared" si="7"/>
-        <v>4969.742424242424</v>
+        <v>5244.3392857142853</v>
       </c>
       <c r="J61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H61,"")</f>
-        <v>6496</v>
+        <v>6728</v>
       </c>
       <c r="K61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H61,"")</f>
-        <v>4781</v>
+        <v>4951.75</v>
       </c>
       <c r="L61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H61,"")</f>
-        <v>6672</v>
+        <v>6910.2857142857138</v>
       </c>
       <c r="M61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H61,"")</f>
-        <v>5233.454545454545</v>
+        <v>6003</v>
       </c>
       <c r="N61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H61,"")</f>
-        <v>6608</v>
+        <v>6844</v>
       </c>
       <c r="O61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H61,"")</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F61,"")</f>
@@ -62587,7 +62923,7 @@
       </c>
       <c r="S61">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R61)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
@@ -62596,11 +62932,11 @@
       </c>
       <c r="B62">
         <f>COUNTIF(CSL_Sonuclari!C:J,A62)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C62" s="5">
         <f t="shared" si="4"/>
-        <v>4160.8785714285714</v>
+        <v>4221.8785714285714</v>
       </c>
       <c r="D62">
         <f>COUNTIF(CSL_Sonuclari!J:J,A62)</f>
@@ -62612,11 +62948,11 @@
       </c>
       <c r="F62" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A62)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G62" s="8">
         <f t="shared" si="6"/>
-        <v>596</v>
+        <v>1023</v>
       </c>
       <c r="H62">
         <f>COUNTIF(CSL_Sonuclari!C:H,A62)</f>
@@ -62652,7 +62988,7 @@
       </c>
       <c r="P62">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F62,"")</f>
-        <v>596</v>
+        <v>1023</v>
       </c>
       <c r="Q62">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D62,"")</f>
@@ -62663,7 +62999,7 @@
       </c>
       <c r="S62">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R62)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
@@ -62815,7 +63151,7 @@
       </c>
       <c r="S64">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R64)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
@@ -62824,11 +63160,11 @@
       </c>
       <c r="B65">
         <f>COUNTIF(CSL_Sonuclari!C:J,A65)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C65" s="5">
         <f t="shared" si="4"/>
-        <v>4434</v>
+        <v>4800.5523809523811</v>
       </c>
       <c r="D65">
         <f>COUNTIF(CSL_Sonuclari!J:J,A65)</f>
@@ -62848,11 +63184,11 @@
       </c>
       <c r="H65">
         <f>COUNTIF(CSL_Sonuclari!C:H,A65)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I65" s="5">
         <f t="shared" si="7"/>
-        <v>6659.333333333333</v>
+        <v>7270.2539682539682</v>
       </c>
       <c r="J65" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H65,"")</f>
@@ -62868,15 +63204,15 @@
       </c>
       <c r="M65">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H65,"")</f>
-        <v>8652</v>
+        <v>8961</v>
       </c>
       <c r="N65">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H65,"")</f>
-        <v>4363.3333333333339</v>
+        <v>5638.4285714285706</v>
       </c>
       <c r="O65">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H65,"")</f>
-        <v>6962.6666666666661</v>
+        <v>7211.333333333333</v>
       </c>
       <c r="P65">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F65,"")</f>
@@ -62900,11 +63236,11 @@
       </c>
       <c r="B66">
         <f>COUNTIF(CSL_Sonuclari!C:J,A66)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C66" s="5">
         <f t="shared" ref="C66:C91" si="8">AVERAGE(J66:Q66)</f>
-        <v>5493.9800000000005</v>
+        <v>5719.1182608695653</v>
       </c>
       <c r="D66">
         <f>COUNTIF(CSL_Sonuclari!J:J,A66)</f>
@@ -62924,23 +63260,23 @@
       </c>
       <c r="H66">
         <f>COUNTIF(CSL_Sonuclari!C:H,A66)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I66" s="5">
         <f t="shared" ref="I66:I91" si="11">AVERAGE(J66:O66)</f>
-        <v>8748.3000000000011</v>
+        <v>9123.5304347826095</v>
       </c>
       <c r="J66">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H66,"")</f>
-        <v>6682.5</v>
+        <v>7215.391304347826</v>
       </c>
       <c r="K66">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H66,"")</f>
-        <v>6329.4000000000005</v>
+        <v>6521.2000000000007</v>
       </c>
       <c r="L66">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H66,"")</f>
-        <v>13233</v>
+        <v>13634</v>
       </c>
       <c r="M66" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H66,"")</f>
@@ -63043,7 +63379,7 @@
       </c>
       <c r="S67">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R67)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
@@ -63119,7 +63455,7 @@
       </c>
       <c r="S68">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R68)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
@@ -63204,11 +63540,11 @@
       </c>
       <c r="B70">
         <f>COUNTIF(CSL_Sonuclari!C:J,A70)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C70" s="5">
         <f t="shared" si="8"/>
-        <v>4016.4831168831174</v>
+        <v>4330.3008658008666</v>
       </c>
       <c r="D70">
         <f>COUNTIF(CSL_Sonuclari!J:J,A70)</f>
@@ -63228,11 +63564,11 @@
       </c>
       <c r="H70">
         <f>COUNTIF(CSL_Sonuclari!C:H,A70)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I70" s="5">
         <f t="shared" si="11"/>
-        <v>5200.2763636363643</v>
+        <v>5639.6212121212129</v>
       </c>
       <c r="J70" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H70,"")</f>
@@ -63240,23 +63576,23 @@
       </c>
       <c r="K70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H70,"")</f>
-        <v>5316</v>
+        <v>5537.5</v>
       </c>
       <c r="L70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H70,"")</f>
-        <v>5138.181818181818</v>
+        <v>5352.272727272727</v>
       </c>
       <c r="M70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H70,"")</f>
-        <v>3835.2000000000003</v>
+        <v>5108.3333333333339</v>
       </c>
       <c r="N70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H70,"")</f>
-        <v>5988</v>
+        <v>6237.5</v>
       </c>
       <c r="O70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H70,"")</f>
-        <v>5724</v>
+        <v>5962.5</v>
       </c>
       <c r="P70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F70,"")</f>
@@ -63280,19 +63616,19 @@
       </c>
       <c r="B71">
         <f>COUNTIF(CSL_Sonuclari!C:J,A71)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C71" s="5">
         <f t="shared" si="8"/>
-        <v>4365.2029478458053</v>
+        <v>4086.5773809523807</v>
       </c>
       <c r="D71">
         <f>COUNTIF(CSL_Sonuclari!J:J,A71)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" s="5">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>427</v>
       </c>
       <c r="F71" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A71)</f>
@@ -63304,43 +63640,43 @@
       </c>
       <c r="H71">
         <f>COUNTIF(CSL_Sonuclari!C:H,A71)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I71" s="5">
         <f t="shared" si="11"/>
-        <v>4922.9034391534396</v>
+        <v>5207.769841269841</v>
       </c>
       <c r="J71">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H71,"")</f>
-        <v>2088</v>
+        <v>2160</v>
       </c>
       <c r="K71">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H71,"")</f>
-        <v>4499.1428571428569</v>
+        <v>4654.2857142857138</v>
       </c>
       <c r="L71">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H71,"")</f>
-        <v>5706.5555555555557</v>
+        <v>6594</v>
       </c>
       <c r="M71">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H71,"")</f>
-        <v>6354.2222222222226</v>
+        <v>6573.333333333333</v>
       </c>
       <c r="N71">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H71,"")</f>
-        <v>1203.5</v>
+        <v>1245</v>
       </c>
       <c r="O71">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H71,"")</f>
-        <v>9686</v>
+        <v>10020</v>
       </c>
       <c r="P71">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F71,"")</f>
         <v>1019</v>
       </c>
-      <c r="Q71" t="str">
+      <c r="Q71">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D71,"")</f>
-        <v/>
+        <v>427</v>
       </c>
       <c r="R71" s="2">
         <v>70</v>
@@ -63812,11 +64148,11 @@
       </c>
       <c r="B78">
         <f>COUNTIF(CSL_Sonuclari!C:J,A78)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C78" s="5">
         <f t="shared" si="8"/>
-        <v>4881.1738095238097</v>
+        <v>5092.1515406162462</v>
       </c>
       <c r="D78">
         <f>COUNTIF(CSL_Sonuclari!J:J,A78)</f>
@@ -63836,23 +64172,23 @@
       </c>
       <c r="H78">
         <f>COUNTIF(CSL_Sonuclari!C:H,A78)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I78" s="5">
         <f t="shared" si="11"/>
-        <v>6792.0107142857141</v>
+        <v>7108.4773109243697</v>
       </c>
       <c r="J78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H78,"")</f>
-        <v>9257.1428571428587</v>
+        <v>9514.2857142857156</v>
       </c>
       <c r="K78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H78,"")</f>
-        <v>6880.5</v>
+        <v>7582.8235294117649</v>
       </c>
       <c r="L78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H78,"")</f>
-        <v>10526.4</v>
+        <v>10818.8</v>
       </c>
       <c r="M78" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H78,"")</f>
@@ -63864,7 +64200,7 @@
       </c>
       <c r="O78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H78,"")</f>
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="P78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F78,"")</f>
@@ -63888,11 +64224,11 @@
       </c>
       <c r="B79">
         <f>COUNTIF(CSL_Sonuclari!C:J,A79)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C79" s="5">
         <f t="shared" si="8"/>
-        <v>5263.0467687074834</v>
+        <v>5549.4761904761899</v>
       </c>
       <c r="D79">
         <f>COUNTIF(CSL_Sonuclari!J:J,A79)</f>
@@ -63912,11 +64248,11 @@
       </c>
       <c r="H79">
         <f>COUNTIF(CSL_Sonuclari!C:H,A79)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I79" s="5">
         <f t="shared" si="11"/>
-        <v>7035.265476190476</v>
+        <v>7436.2666666666655</v>
       </c>
       <c r="J79" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H79,"")</f>
@@ -63924,23 +64260,23 @@
       </c>
       <c r="K79">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H79,"")</f>
-        <v>12028</v>
+        <v>12416</v>
       </c>
       <c r="L79">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H79,"")</f>
-        <v>5289.375</v>
+        <v>5460</v>
       </c>
       <c r="M79">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H79,"")</f>
-        <v>6468.6666666666661</v>
+        <v>6677.333333333333</v>
       </c>
       <c r="N79">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H79,"")</f>
-        <v>6523.2857142857138</v>
+        <v>7604</v>
       </c>
       <c r="O79">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H79,"")</f>
-        <v>4867</v>
+        <v>5024</v>
       </c>
       <c r="P79">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F79,"")</f>
@@ -63964,11 +64300,11 @@
       </c>
       <c r="B80">
         <f>COUNTIF(CSL_Sonuclari!C:J,A80)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C80" s="5">
         <f t="shared" si="8"/>
-        <v>4956.9702380952385</v>
+        <v>5185.313492063492</v>
       </c>
       <c r="D80">
         <f>COUNTIF(CSL_Sonuclari!J:J,A80)</f>
@@ -63988,11 +64324,11 @@
       </c>
       <c r="H80">
         <f>COUNTIF(CSL_Sonuclari!C:H,A80)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I80" s="5">
         <f t="shared" si="11"/>
-        <v>6494.9583333333339</v>
+        <v>6814.6388888888887</v>
       </c>
       <c r="J80" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H80,"")</f>
@@ -64000,23 +64336,23 @@
       </c>
       <c r="K80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H80,"")</f>
-        <v>8393</v>
+        <v>8647.3333333333339</v>
       </c>
       <c r="L80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H80,"")</f>
-        <v>6340.125</v>
+        <v>6532.25</v>
       </c>
       <c r="M80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H80,"")</f>
-        <v>7637.666666666667</v>
+        <v>7869.1111111111113</v>
       </c>
       <c r="N80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H80,"")</f>
-        <v>6936</v>
+        <v>7760.5</v>
       </c>
       <c r="O80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H80,"")</f>
-        <v>3168</v>
+        <v>3264</v>
       </c>
       <c r="P80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F80,"")</f>
@@ -64259,7 +64595,7 @@
       </c>
       <c r="S83">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R83)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
@@ -64268,11 +64604,11 @@
       </c>
       <c r="B84">
         <f>COUNTIF(CSL_Sonuclari!C:J,A84)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C84" s="5">
         <f t="shared" si="8"/>
-        <v>4319</v>
+        <v>4489.3451612903227</v>
       </c>
       <c r="D84">
         <f>COUNTIF(CSL_Sonuclari!J:J,A84)</f>
@@ -64292,15 +64628,15 @@
       </c>
       <c r="H84">
         <f>COUNTIF(CSL_Sonuclari!C:H,A84)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I84" s="5">
         <f t="shared" si="11"/>
-        <v>5292</v>
+        <v>5519.12688172043</v>
       </c>
       <c r="J84">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H84,"")</f>
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="K84" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H84,"")</f>
@@ -64316,11 +64652,11 @@
       </c>
       <c r="N84">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H84,"")</f>
-        <v>7214.4000000000005</v>
+        <v>7414.8</v>
       </c>
       <c r="O84">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H84,"")</f>
-        <v>8157.5999999999995</v>
+        <v>8624.5806451612898</v>
       </c>
       <c r="P84">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F84,"")</f>
@@ -64344,11 +64680,11 @@
       </c>
       <c r="B85">
         <f>COUNTIF(CSL_Sonuclari!C:J,A85)</f>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C85" s="5">
         <f t="shared" si="8"/>
-        <v>5093.5154320987649</v>
+        <v>5459.9454022988502</v>
       </c>
       <c r="D85">
         <f>COUNTIF(CSL_Sonuclari!J:J,A85)</f>
@@ -64368,11 +64704,11 @@
       </c>
       <c r="H85">
         <f>COUNTIF(CSL_Sonuclari!C:H,A85)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I85" s="5">
         <f t="shared" si="11"/>
-        <v>6935.2731481481478</v>
+        <v>7484.9181034482754</v>
       </c>
       <c r="J85" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H85,"")</f>
@@ -64380,7 +64716,7 @@
       </c>
       <c r="K85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H85,"")</f>
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="L85" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H85,"")</f>
@@ -64388,15 +64724,15 @@
       </c>
       <c r="M85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H85,"")</f>
-        <v>11494.666666666668</v>
+        <v>12116</v>
       </c>
       <c r="N85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H85,"")</f>
-        <v>9860.5</v>
+        <v>10393.5</v>
       </c>
       <c r="O85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H85,"")</f>
-        <v>6200.9259259259252</v>
+        <v>7235.1724137931033</v>
       </c>
       <c r="P85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F85,"")</f>
@@ -64411,7 +64747,7 @@
       </c>
       <c r="S85">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R85)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
@@ -64420,19 +64756,19 @@
       </c>
       <c r="B86">
         <f>COUNTIF(CSL_Sonuclari!C:J,A86)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C86" s="5">
         <f t="shared" si="8"/>
-        <v>4968.6941176470591</v>
+        <v>5054.2941176470586</v>
       </c>
       <c r="D86">
         <f>COUNTIF(CSL_Sonuclari!J:J,A86)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E86" s="5">
         <f t="shared" si="9"/>
-        <v>1467</v>
+        <v>1895</v>
       </c>
       <c r="F86" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A86)</f>
@@ -64480,7 +64816,7 @@
       </c>
       <c r="Q86">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D86,"")</f>
-        <v>1467</v>
+        <v>1895</v>
       </c>
       <c r="R86" s="2">
         <v>85</v>
@@ -64639,7 +64975,7 @@
       </c>
       <c r="S88">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R88)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
@@ -64715,7 +65051,7 @@
       </c>
       <c r="S89">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R89)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
@@ -64724,11 +65060,11 @@
       </c>
       <c r="B90">
         <f>COUNTIF(CSL_Sonuclari!C:J,A90)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C90" s="5">
         <f t="shared" si="8"/>
-        <v>3689.5701923076922</v>
+        <v>3854.3147435897436</v>
       </c>
       <c r="D90">
         <f>COUNTIF(CSL_Sonuclari!J:J,A90)</f>
@@ -64748,35 +65084,35 @@
       </c>
       <c r="H90">
         <f>COUNTIF(CSL_Sonuclari!C:H,A90)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I90" s="5">
         <f t="shared" si="11"/>
-        <v>4568.4269230769232</v>
+        <v>4788.0863247863244</v>
       </c>
       <c r="J90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H90,"")</f>
-        <v>4485.461538461539</v>
+        <v>4621.3846153846162</v>
       </c>
       <c r="K90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H90,"")</f>
-        <v>8448</v>
+        <v>9191.3333333333321</v>
       </c>
       <c r="L90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H90,"")</f>
-        <v>7002.5999999999995</v>
+        <v>7214.7999999999993</v>
       </c>
       <c r="M90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H90,"")</f>
-        <v>6847.5</v>
+        <v>7055</v>
       </c>
       <c r="N90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H90,"")</f>
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="O90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H90,"")</f>
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="P90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F90,"")</f>
@@ -66901,7 +67237,7 @@
       </c>
       <c r="B2">
         <f>COUNTIF(SL_Sonuclari!C:H,A2)</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" s="5">
         <f t="shared" ref="C2:C33" si="0">AVERAGE(D2:H2)</f>
@@ -66934,15 +67270,15 @@
       </c>
       <c r="B3">
         <f>COUNTIF(SL_Sonuclari!C:H,A3)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="5">
         <f t="shared" si="0"/>
-        <v>112.69736842105263</v>
+        <v>115.35897435897436</v>
       </c>
       <c r="D3">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A3,SL_Sonuclari!A:A),"")</f>
-        <v>218.39473684210526</v>
+        <v>223.71794871794873</v>
       </c>
       <c r="E3" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A3,SL_Sonuclari!A:A),"")</f>
@@ -67132,11 +67468,11 @@
       </c>
       <c r="B9">
         <f>COUNTIF(SL_Sonuclari!C:H,A9)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>219.1605113636364</v>
+        <v>221.97393048128342</v>
       </c>
       <c r="D9">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A9,SL_Sonuclari!A:A),"")</f>
@@ -67144,7 +67480,7 @@
       </c>
       <c r="E9">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A9,SL_Sonuclari!A:A),"")</f>
-        <v>234.6875</v>
+        <v>245.94117647058823</v>
       </c>
       <c r="F9">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A9,SL_Sonuclari!A:A),"")</f>
@@ -67297,11 +67633,11 @@
       </c>
       <c r="B14">
         <f>COUNTIF(SL_Sonuclari!C:H,A14)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="0"/>
-        <v>167.79775910364145</v>
+        <v>170.40952380952382</v>
       </c>
       <c r="D14">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A14,SL_Sonuclari!A:A),"")</f>
@@ -67309,7 +67645,7 @@
       </c>
       <c r="E14">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A14,SL_Sonuclari!A:A),"")</f>
-        <v>193.94117647058823</v>
+        <v>207</v>
       </c>
       <c r="F14">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A14,SL_Sonuclari!A:A),"")</f>
@@ -67396,11 +67732,11 @@
       </c>
       <c r="B17">
         <f>COUNTIF(SL_Sonuclari!C:H,A17)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="0"/>
-        <v>213.24666666666667</v>
+        <v>215.9975</v>
       </c>
       <c r="D17">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A17,SL_Sonuclari!A:A),"")</f>
@@ -67408,7 +67744,7 @@
       </c>
       <c r="E17">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A17,SL_Sonuclari!A:A),"")</f>
-        <v>204.93333333333334</v>
+        <v>218.6875</v>
       </c>
       <c r="F17">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A17,SL_Sonuclari!A:A),"")</f>
@@ -67429,11 +67765,11 @@
       </c>
       <c r="B18">
         <f>COUNTIF(SL_Sonuclari!C:H,A18)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="0"/>
-        <v>145.82034632034632</v>
+        <v>154.06439393939394</v>
       </c>
       <c r="D18" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A18,SL_Sonuclari!A:A),"")</f>
@@ -67449,7 +67785,7 @@
       </c>
       <c r="G18">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A18,SL_Sonuclari!A:A),"")</f>
-        <v>230.14285714285714</v>
+        <v>254.875</v>
       </c>
       <c r="H18">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A18,SL_Sonuclari!A:A),"")</f>
@@ -67462,11 +67798,11 @@
       </c>
       <c r="B19">
         <f>COUNTIF(SL_Sonuclari!C:H,A19)</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
-        <v>186.86666666666667</v>
+        <v>197.15238095238098</v>
       </c>
       <c r="D19" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A19,SL_Sonuclari!A:A),"")</f>
@@ -67486,7 +67822,7 @@
       </c>
       <c r="H19">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A19,SL_Sonuclari!A:A),"")</f>
-        <v>211</v>
+        <v>241.85714285714286</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -67495,11 +67831,11 @@
       </c>
       <c r="B20">
         <f>COUNTIF(SL_Sonuclari!C:H,A20)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
-        <v>218.51331699346406</v>
+        <v>220.90138888888887</v>
       </c>
       <c r="D20">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A20,SL_Sonuclari!A:A),"")</f>
@@ -67511,7 +67847,7 @@
       </c>
       <c r="F20">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A20,SL_Sonuclari!A:A),"")</f>
-        <v>257.05882352941177</v>
+        <v>266.61111111111109</v>
       </c>
       <c r="G20">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A20,SL_Sonuclari!A:A),"")</f>
@@ -67561,7 +67897,7 @@
       </c>
       <c r="B22">
         <f>COUNTIF(SL_Sonuclari!C:H,A22)</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
@@ -67594,11 +67930,11 @@
       </c>
       <c r="B23">
         <f>COUNTIF(SL_Sonuclari!C:H,A23)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
-        <v>202.69285714285712</v>
+        <v>209.67946428571429</v>
       </c>
       <c r="D23" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A23,SL_Sonuclari!A:A),"")</f>
@@ -67614,7 +67950,7 @@
       </c>
       <c r="G23">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A23,SL_Sonuclari!A:A),"")</f>
-        <v>201.42857142857142</v>
+        <v>229.375</v>
       </c>
       <c r="H23">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A23,SL_Sonuclari!A:A),"")</f>
@@ -67660,11 +67996,11 @@
       </c>
       <c r="B25">
         <f>COUNTIF(SL_Sonuclari!C:H,A25)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C25" s="5">
         <f t="shared" si="0"/>
-        <v>180.41666666666666</v>
+        <v>194.67361111111109</v>
       </c>
       <c r="D25" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A25,SL_Sonuclari!A:A),"")</f>
@@ -67676,7 +68012,7 @@
       </c>
       <c r="F25">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A25,SL_Sonuclari!A:A),"")</f>
-        <v>144.125</v>
+        <v>175.55555555555554</v>
       </c>
       <c r="G25">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A25,SL_Sonuclari!A:A),"")</f>
@@ -67684,7 +68020,7 @@
       </c>
       <c r="H25">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A25,SL_Sonuclari!A:A),"")</f>
-        <v>195.625</v>
+        <v>221.22222222222223</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -67759,15 +68095,15 @@
       </c>
       <c r="B28">
         <f>COUNTIF(SL_Sonuclari!C:H,A28)</f>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C28" s="5">
         <f t="shared" si="0"/>
-        <v>209.07142857142856</v>
+        <v>215.15700483091788</v>
       </c>
       <c r="D28">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A28,SL_Sonuclari!A:A),"")</f>
-        <v>217.04761904761904</v>
+        <v>235.30434782608697</v>
       </c>
       <c r="E28">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A28,SL_Sonuclari!A:A),"")</f>
@@ -67825,11 +68161,11 @@
       </c>
       <c r="B30">
         <f>COUNTIF(SL_Sonuclari!C:H,A30)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C30" s="5">
         <f t="shared" si="0"/>
-        <v>190.76666666666665</v>
+        <v>197.44880952380953</v>
       </c>
       <c r="D30">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A30,SL_Sonuclari!A:A),"")</f>
@@ -67837,7 +68173,7 @@
       </c>
       <c r="E30">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A30,SL_Sonuclari!A:A),"")</f>
-        <v>160.71428571428572</v>
+        <v>194.125</v>
       </c>
       <c r="F30">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A30,SL_Sonuclari!A:A),"")</f>
@@ -67924,11 +68260,11 @@
       </c>
       <c r="B33">
         <f>COUNTIF(SL_Sonuclari!C:H,A33)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C33" s="5">
         <f t="shared" si="0"/>
-        <v>185.55198412698411</v>
+        <v>189.39722222222221</v>
       </c>
       <c r="D33" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A33,SL_Sonuclari!A:A),"")</f>
@@ -67944,7 +68280,7 @@
       </c>
       <c r="G33">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A33,SL_Sonuclari!A:A),"")</f>
-        <v>198.28571428571428</v>
+        <v>213.66666666666666</v>
       </c>
       <c r="H33">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A33,SL_Sonuclari!A:A),"")</f>
@@ -67990,11 +68326,11 @@
       </c>
       <c r="B35">
         <f>COUNTIF(SL_Sonuclari!C:H,A35)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C35" s="5">
         <f t="shared" si="1"/>
-        <v>214.68333333333331</v>
+        <v>220.48333333333329</v>
       </c>
       <c r="D35">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A35,SL_Sonuclari!A:A),"")</f>
@@ -68014,7 +68350,7 @@
       </c>
       <c r="H35">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A35,SL_Sonuclari!A:A),"")</f>
-        <v>309</v>
+        <v>338</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -68023,11 +68359,11 @@
       </c>
       <c r="B36">
         <f>COUNTIF(SL_Sonuclari!C:H,A36)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36" s="5">
         <f t="shared" si="1"/>
-        <v>196.63492063492063</v>
+        <v>254.47619047619048</v>
       </c>
       <c r="D36" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A36,SL_Sonuclari!A:A),"")</f>
@@ -68037,9 +68373,9 @@
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A36,SL_Sonuclari!A:A),"")</f>
         <v>165</v>
       </c>
-      <c r="F36" t="str">
+      <c r="F36">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A36,SL_Sonuclari!A:A),"")</f>
-        <v/>
+        <v>428</v>
       </c>
       <c r="G36">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A36,SL_Sonuclari!A:A),"")</f>
@@ -68188,11 +68524,11 @@
       </c>
       <c r="B41">
         <f>COUNTIF(SL_Sonuclari!C:H,A41)</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C41" s="5">
         <f t="shared" si="1"/>
-        <v>198.83850931677017</v>
+        <v>203.14565217391305</v>
       </c>
       <c r="D41" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A41,SL_Sonuclari!A:A),"")</f>
@@ -68204,7 +68540,7 @@
       </c>
       <c r="F41">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A41,SL_Sonuclari!A:A),"")</f>
-        <v>167.57142857142858</v>
+        <v>184.8</v>
       </c>
       <c r="G41">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A41,SL_Sonuclari!A:A),"")</f>
@@ -68320,11 +68656,11 @@
       </c>
       <c r="B45">
         <f>COUNTIF(SL_Sonuclari!C:H,A45)</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C45" s="5">
         <f t="shared" si="1"/>
-        <v>229.00514705882352</v>
+        <v>232.22083333333336</v>
       </c>
       <c r="D45" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A45,SL_Sonuclari!A:A),"")</f>
@@ -68340,7 +68676,7 @@
       </c>
       <c r="G45">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A45,SL_Sonuclari!A:A),"")</f>
-        <v>194.47058823529412</v>
+        <v>207.33333333333334</v>
       </c>
       <c r="H45">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A45,SL_Sonuclari!A:A),"")</f>
@@ -68419,15 +68755,15 @@
       </c>
       <c r="B48">
         <f>COUNTIF(SL_Sonuclari!C:H,A48)</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C48" s="5">
         <f t="shared" si="1"/>
-        <v>241.86721611721612</v>
+        <v>244.20999115826703</v>
       </c>
       <c r="D48">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A48,SL_Sonuclari!A:A),"")</f>
-        <v>224.17857142857142</v>
+        <v>231.20689655172413</v>
       </c>
       <c r="E48">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A48,SL_Sonuclari!A:A),"")</f>
@@ -68452,15 +68788,15 @@
       </c>
       <c r="B49">
         <f>COUNTIF(SL_Sonuclari!C:H,A49)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C49" s="5">
         <f t="shared" si="1"/>
-        <v>205.68085164835165</v>
+        <v>220.08085164835165</v>
       </c>
       <c r="D49">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A49,SL_Sonuclari!A:A),"")</f>
-        <v>283</v>
+        <v>355</v>
       </c>
       <c r="E49">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A49,SL_Sonuclari!A:A),"")</f>
@@ -68584,11 +68920,11 @@
       </c>
       <c r="B53">
         <f>COUNTIF(SL_Sonuclari!C:H,A53)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C53" s="5">
         <f t="shared" si="1"/>
-        <v>240.04166666666666</v>
+        <v>244.52380952380955</v>
       </c>
       <c r="D53">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A53,SL_Sonuclari!A:A),"")</f>
@@ -68600,7 +68936,7 @@
       </c>
       <c r="F53">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A53,SL_Sonuclari!A:A),"")</f>
-        <v>281.57142857142856</v>
+        <v>299.5</v>
       </c>
       <c r="G53">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A53,SL_Sonuclari!A:A),"")</f>
@@ -68617,11 +68953,11 @@
       </c>
       <c r="B54">
         <f>COUNTIF(SL_Sonuclari!C:H,A54)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C54" s="5">
         <f t="shared" si="1"/>
-        <v>233.36190476190473</v>
+        <v>243.67857142857142</v>
       </c>
       <c r="D54">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A54,SL_Sonuclari!A:A),"")</f>
@@ -68629,7 +68965,7 @@
       </c>
       <c r="E54">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A54,SL_Sonuclari!A:A),"")</f>
-        <v>220.66666666666666</v>
+        <v>272.25</v>
       </c>
       <c r="F54">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A54,SL_Sonuclari!A:A),"")</f>
@@ -68716,11 +69052,11 @@
       </c>
       <c r="B57">
         <f>COUNTIF(SL_Sonuclari!C:H,A57)</f>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C57" s="5">
         <f t="shared" si="1"/>
-        <v>216.70833333333331</v>
+        <v>242.75</v>
       </c>
       <c r="D57" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A57,SL_Sonuclari!A:A),"")</f>
@@ -68736,7 +69072,7 @@
       </c>
       <c r="G57">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A57,SL_Sonuclari!A:A),"")</f>
-        <v>218.66666666666666</v>
+        <v>270.75</v>
       </c>
       <c r="H57">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A57,SL_Sonuclari!A:A),"")</f>
@@ -68744,7 +69080,7 @@
       </c>
       <c r="I57">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!H:H,A57,SL_Sonuclari!A:A),"")</f>
-        <v>185.29411764705881</v>
+        <v>198.61111111111111</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -68753,11 +69089,11 @@
       </c>
       <c r="B58">
         <f>COUNTIF(SL_Sonuclari!C:H,A58)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C58" s="5">
         <f t="shared" si="1"/>
-        <v>236.79605263157896</v>
+        <v>242.625</v>
       </c>
       <c r="D58" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A58,SL_Sonuclari!A:A),"")</f>
@@ -68777,7 +69113,7 @@
       </c>
       <c r="H58">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A58,SL_Sonuclari!A:A),"")</f>
-        <v>195.84210526315789</v>
+        <v>207.5</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -68819,11 +69155,11 @@
       </c>
       <c r="B60">
         <f>COUNTIF(SL_Sonuclari!C:H,A60)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60" s="5">
         <f t="shared" si="1"/>
-        <v>234.5393939393939</v>
+        <v>241.18333333333331</v>
       </c>
       <c r="D60" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A60,SL_Sonuclari!A:A),"")</f>
@@ -68843,7 +69179,7 @@
       </c>
       <c r="H60">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A60,SL_Sonuclari!A:A),"")</f>
-        <v>188.81818181818181</v>
+        <v>208.75</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">

--- a/SLIStatistik.xlsx
+++ b/SLIStatistik.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\ReadExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5DC837-4646-4C33-A80F-05D3B523A7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE76BB0-03BE-4D06-9B2E-A97D1B7A7CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
   </bookViews>
   <sheets>
     <sheet name="CSL_Sonuclari" sheetId="2" r:id="rId1"/>
@@ -30,6 +30,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -612,13 +623,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21120D27-1448-4179-993C-6B3BE739480A}">
-  <dimension ref="A1:J431"/>
+  <dimension ref="A1:J432"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B399" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B402" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A432" sqref="A432"/>
+      <selection pane="bottomRight" activeCell="A433" sqref="A433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13827,6 +13838,38 @@
       </c>
       <c r="J431" s="2">
         <v>65</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A432" s="2">
+        <v>430</v>
+      </c>
+      <c r="B432" s="1">
+        <v>45054</v>
+      </c>
+      <c r="C432" s="2">
+        <v>9</v>
+      </c>
+      <c r="D432" s="2">
+        <v>15</v>
+      </c>
+      <c r="E432" s="2">
+        <v>46</v>
+      </c>
+      <c r="F432" s="2">
+        <v>47</v>
+      </c>
+      <c r="G432" s="2">
+        <v>57</v>
+      </c>
+      <c r="H432" s="2">
+        <v>67</v>
+      </c>
+      <c r="I432" s="2">
+        <v>86</v>
+      </c>
+      <c r="J432" s="2">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -25069,7 +25112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4513EEF-0F11-4AC5-A4C7-CB00A18EA83B}">
   <dimension ref="A1:H1277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1251" workbookViewId="0">
+    <sheetView topLeftCell="A1251" workbookViewId="0">
       <selection activeCell="A1278" sqref="A1278"/>
     </sheetView>
   </sheetViews>
@@ -59047,7 +59090,7 @@
       </c>
       <c r="S10">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R10)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -59503,7 +59546,7 @@
       </c>
       <c r="S16">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R16)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -60272,19 +60315,19 @@
       </c>
       <c r="B27">
         <f>COUNTIF(CSL_Sonuclari!C:J,A27)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27" s="5">
         <f t="shared" si="0"/>
-        <v>5025.1242424242428</v>
+        <v>5096.7909090909097</v>
       </c>
       <c r="D27">
         <f>COUNTIF(CSL_Sonuclari!J:J,A27)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" si="1"/>
-        <v>1443</v>
+        <v>1873</v>
       </c>
       <c r="F27" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A27)</f>
@@ -60332,7 +60375,7 @@
       </c>
       <c r="Q27">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D27,"")</f>
-        <v>1443</v>
+        <v>1873</v>
       </c>
       <c r="R27" s="2">
         <v>26</v>
@@ -60956,11 +60999,11 @@
       </c>
       <c r="B36">
         <f>COUNTIF(CSL_Sonuclari!C:J,A36)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C36" s="5">
         <f t="shared" si="4"/>
-        <v>4278.3428571428576</v>
+        <v>4464.1454545454544</v>
       </c>
       <c r="D36">
         <f>COUNTIF(CSL_Sonuclari!J:J,A36)</f>
@@ -60980,23 +61023,23 @@
       </c>
       <c r="H36">
         <f>COUNTIF(CSL_Sonuclari!C:H,A36)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I36" s="5">
         <f t="shared" si="7"/>
-        <v>6260.5714285714284</v>
+        <v>6570.242424242424</v>
       </c>
       <c r="J36">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H36,"")</f>
-        <v>6658.7142857142853</v>
+        <v>7138.727272727273</v>
       </c>
       <c r="K36">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H36,"")</f>
-        <v>6156</v>
+        <v>6384</v>
       </c>
       <c r="L36">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H36,"")</f>
-        <v>5967</v>
+        <v>6188</v>
       </c>
       <c r="M36" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H36,"")</f>
@@ -61640,11 +61683,11 @@
       </c>
       <c r="B45">
         <f>COUNTIF(CSL_Sonuclari!C:J,A45)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C45" s="5">
         <f t="shared" si="4"/>
-        <v>5120.0428571428574</v>
+        <v>5391.1724489795915</v>
       </c>
       <c r="D45">
         <f>COUNTIF(CSL_Sonuclari!J:J,A45)</f>
@@ -61664,11 +61707,11 @@
       </c>
       <c r="H45">
         <f>COUNTIF(CSL_Sonuclari!C:H,A45)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I45" s="5">
         <f t="shared" si="7"/>
-        <v>6713.4600000000009</v>
+        <v>7093.0414285714287</v>
       </c>
       <c r="J45" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H45,"")</f>
@@ -61676,23 +61719,23 @@
       </c>
       <c r="K45">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H45,"")</f>
-        <v>10452</v>
+        <v>10854</v>
       </c>
       <c r="L45">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H45,"")</f>
-        <v>4050.8</v>
+        <v>4206.6000000000004</v>
       </c>
       <c r="M45">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H45,"")</f>
-        <v>6164.166666666667</v>
+        <v>6401.25</v>
       </c>
       <c r="N45">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H45,"")</f>
-        <v>7089.3333333333339</v>
+        <v>7968.8571428571431</v>
       </c>
       <c r="O45">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H45,"")</f>
-        <v>5811</v>
+        <v>6034.5</v>
       </c>
       <c r="P45">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F45,"")</f>
@@ -61859,7 +61902,7 @@
       </c>
       <c r="S47">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R47)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -61935,7 +61978,7 @@
       </c>
       <c r="S48">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R48)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
@@ -61944,11 +61987,11 @@
       </c>
       <c r="B49">
         <f>COUNTIF(CSL_Sonuclari!C:J,A49)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C49" s="5">
         <f t="shared" si="4"/>
-        <v>4443.3116883116882</v>
+        <v>4659.8392857142853</v>
       </c>
       <c r="D49">
         <f>COUNTIF(CSL_Sonuclari!J:J,A49)</f>
@@ -61968,15 +62011,15 @@
       </c>
       <c r="H49">
         <f>COUNTIF(CSL_Sonuclari!C:H,A49)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I49" s="5">
         <f t="shared" si="7"/>
-        <v>5950.0363636363636</v>
+        <v>6253.1750000000002</v>
       </c>
       <c r="J49">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H49,"")</f>
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="K49" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H49,"")</f>
@@ -61984,19 +62027,19 @@
       </c>
       <c r="L49">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H49,"")</f>
-        <v>6432</v>
+        <v>6633</v>
       </c>
       <c r="M49">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H49,"")</f>
-        <v>9532</v>
+        <v>9829.875</v>
       </c>
       <c r="N49">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H49,"")</f>
-        <v>6685.090909090909</v>
+        <v>6894</v>
       </c>
       <c r="O49">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H49,"")</f>
-        <v>6941.090909090909</v>
+        <v>7744</v>
       </c>
       <c r="P49">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F49,"")</f>
@@ -62695,7 +62738,7 @@
       </c>
       <c r="S58">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R58)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
@@ -62856,11 +62899,11 @@
       </c>
       <c r="B61">
         <f>COUNTIF(CSL_Sonuclari!C:J,A61)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C61" s="5">
         <f t="shared" si="4"/>
-        <v>4181.3794642857138</v>
+        <v>4381.3358516483513</v>
       </c>
       <c r="D61">
         <f>COUNTIF(CSL_Sonuclari!J:J,A61)</f>
@@ -62880,35 +62923,35 @@
       </c>
       <c r="H61">
         <f>COUNTIF(CSL_Sonuclari!C:H,A61)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I61" s="5">
         <f t="shared" si="7"/>
-        <v>5244.3392857142853</v>
+        <v>5510.947802197802</v>
       </c>
       <c r="J61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H61,"")</f>
-        <v>6728</v>
+        <v>6960</v>
       </c>
       <c r="K61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H61,"")</f>
-        <v>4951.75</v>
+        <v>5122.5</v>
       </c>
       <c r="L61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H61,"")</f>
-        <v>6910.2857142857138</v>
+        <v>7148.5714285714284</v>
       </c>
       <c r="M61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H61,"")</f>
-        <v>6003</v>
+        <v>6724.6153846153848</v>
       </c>
       <c r="N61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H61,"")</f>
-        <v>6844</v>
+        <v>7080</v>
       </c>
       <c r="O61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H61,"")</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F61,"")</f>
@@ -63455,7 +63498,7 @@
       </c>
       <c r="S68">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R68)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
@@ -63996,11 +64039,11 @@
       </c>
       <c r="B76">
         <f>COUNTIF(CSL_Sonuclari!C:J,A76)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C76" s="5">
         <f t="shared" si="8"/>
-        <v>6605.5297619047624</v>
+        <v>6912.2857142857138</v>
       </c>
       <c r="D76">
         <f>COUNTIF(CSL_Sonuclari!J:J,A76)</f>
@@ -64020,35 +64063,35 @@
       </c>
       <c r="H76">
         <f>COUNTIF(CSL_Sonuclari!C:H,A76)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I76" s="5">
         <f t="shared" si="11"/>
-        <v>8375.5396825396838</v>
+        <v>8784.5476190476184</v>
       </c>
       <c r="J76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H76,"")</f>
-        <v>9900</v>
+        <v>10200</v>
       </c>
       <c r="K76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H76,"")</f>
-        <v>5119.7142857142853</v>
+        <v>5274.8571428571431</v>
       </c>
       <c r="L76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H76,"")</f>
-        <v>5151.666666666667</v>
+        <v>6239</v>
       </c>
       <c r="M76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H76,"")</f>
-        <v>9763.2857142857138</v>
+        <v>10059.142857142857</v>
       </c>
       <c r="N76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H76,"")</f>
-        <v>8999.5714285714294</v>
+        <v>9272.2857142857138</v>
       </c>
       <c r="O76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H76,"")</f>
-        <v>11319</v>
+        <v>11662</v>
       </c>
       <c r="P76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F76,"")</f>
@@ -64376,11 +64419,11 @@
       </c>
       <c r="B81">
         <f>COUNTIF(CSL_Sonuclari!C:J,A81)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C81" s="5">
         <f t="shared" si="8"/>
-        <v>3683.5833333333335</v>
+        <v>3902.6342592592591</v>
       </c>
       <c r="D81">
         <f>COUNTIF(CSL_Sonuclari!J:J,A81)</f>
@@ -64400,27 +64443,27 @@
       </c>
       <c r="H81">
         <f>COUNTIF(CSL_Sonuclari!C:H,A81)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I81" s="5">
         <f t="shared" si="11"/>
-        <v>4961.875</v>
+        <v>5290.4513888888887</v>
       </c>
       <c r="J81">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H81,"")</f>
-        <v>5862.5</v>
+        <v>6057.9166666666661</v>
       </c>
       <c r="K81">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H81,"")</f>
-        <v>7215</v>
+        <v>8108.2222222222217</v>
       </c>
       <c r="L81">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H81,"")</f>
-        <v>5420</v>
+        <v>5600.6666666666661</v>
       </c>
       <c r="M81">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H81,"")</f>
-        <v>1350</v>
+        <v>1395</v>
       </c>
       <c r="N81" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H81,"")</f>
@@ -64452,11 +64495,11 @@
       </c>
       <c r="B82">
         <f>COUNTIF(CSL_Sonuclari!C:J,A82)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C82" s="5">
         <f t="shared" si="8"/>
-        <v>4656.7628205128203</v>
+        <v>4764.2628205128203</v>
       </c>
       <c r="D82">
         <f>COUNTIF(CSL_Sonuclari!J:J,A82)</f>
@@ -64468,11 +64511,11 @@
       </c>
       <c r="F82" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A82)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G82" s="8">
         <f t="shared" si="10"/>
-        <v>1355</v>
+        <v>1785</v>
       </c>
       <c r="H82">
         <f>COUNTIF(CSL_Sonuclari!C:H,A82)</f>
@@ -64508,7 +64551,7 @@
       </c>
       <c r="P82">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F82,"")</f>
-        <v>1355</v>
+        <v>1785</v>
       </c>
       <c r="Q82">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D82,"")</f>
@@ -64899,7 +64942,7 @@
       </c>
       <c r="S87">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R87)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">

--- a/SLIStatistik.xlsx
+++ b/SLIStatistik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\ReadExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE76BB0-03BE-4D06-9B2E-A97D1B7A7CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CDDC6A-A8FD-4A22-A5FE-55557185D9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
   </bookViews>
   <sheets>
     <sheet name="CSL_Sonuclari" sheetId="2" r:id="rId1"/>
@@ -30,17 +30,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -625,7 +614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21120D27-1448-4179-993C-6B3BE739480A}">
   <dimension ref="A1:J432"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B402" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -13883,10 +13872,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8BCBFC-83B0-4863-9D9A-FF955DDDA58C}">
-  <dimension ref="A1:H431"/>
+  <dimension ref="A1:H432"/>
   <sheetViews>
-    <sheetView topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="I431" sqref="I431"/>
+    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
+      <selection activeCell="A433" sqref="A433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25098,6 +25087,32 @@
       </c>
       <c r="H431">
         <v>58</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>430</v>
+      </c>
+      <c r="B432" s="1">
+        <v>45055</v>
+      </c>
+      <c r="C432">
+        <v>2</v>
+      </c>
+      <c r="D432">
+        <v>14</v>
+      </c>
+      <c r="E432">
+        <v>28</v>
+      </c>
+      <c r="F432">
+        <v>34</v>
+      </c>
+      <c r="G432">
+        <v>58</v>
+      </c>
+      <c r="H432">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -67280,11 +67295,11 @@
       </c>
       <c r="B2">
         <f>COUNTIF(SL_Sonuclari!C:H,A2)</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="5">
         <f t="shared" ref="C2:C33" si="0">AVERAGE(D2:H2)</f>
-        <v>102.57142857142857</v>
+        <v>116.875</v>
       </c>
       <c r="D2" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A2,SL_Sonuclari!A:A),"")</f>
@@ -67304,7 +67319,7 @@
       </c>
       <c r="H2">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A2,SL_Sonuclari!A:A),"")</f>
-        <v>201.14285714285714</v>
+        <v>229.75</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -67379,15 +67394,15 @@
       </c>
       <c r="B5">
         <f>COUNTIF(SL_Sonuclari!C:H,A5)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5">
         <f t="shared" si="0"/>
-        <v>126.60294117647059</v>
+        <v>129.22857142857143</v>
       </c>
       <c r="D5">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A5,SL_Sonuclari!A:A),"")</f>
-        <v>246.20588235294119</v>
+        <v>251.45714285714286</v>
       </c>
       <c r="E5" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A5,SL_Sonuclari!A:A),"")</f>
@@ -67676,11 +67691,11 @@
       </c>
       <c r="B14">
         <f>COUNTIF(SL_Sonuclari!C:H,A14)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="0"/>
-        <v>170.40952380952382</v>
+        <v>172.75689223057645</v>
       </c>
       <c r="D14">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A14,SL_Sonuclari!A:A),"")</f>
@@ -67688,7 +67703,7 @@
       </c>
       <c r="E14">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A14,SL_Sonuclari!A:A),"")</f>
-        <v>207</v>
+        <v>218.73684210526315</v>
       </c>
       <c r="F14">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A14,SL_Sonuclari!A:A),"")</f>
@@ -68303,11 +68318,11 @@
       </c>
       <c r="B33">
         <f>COUNTIF(SL_Sonuclari!C:H,A33)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C33" s="5">
         <f t="shared" si="0"/>
-        <v>189.39722222222221</v>
+        <v>193.09201388888889</v>
       </c>
       <c r="D33" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A33,SL_Sonuclari!A:A),"")</f>
@@ -68319,7 +68334,7 @@
       </c>
       <c r="F33">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A33,SL_Sonuclari!A:A),"")</f>
-        <v>193.53333333333333</v>
+        <v>208.3125</v>
       </c>
       <c r="G33">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A33,SL_Sonuclari!A:A),"")</f>
@@ -68996,11 +69011,11 @@
       </c>
       <c r="B54">
         <f>COUNTIF(SL_Sonuclari!C:H,A54)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C54" s="5">
         <f t="shared" si="1"/>
-        <v>243.67857142857142</v>
+        <v>246.75</v>
       </c>
       <c r="D54">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A54,SL_Sonuclari!A:A),"")</f>
@@ -69016,7 +69031,7 @@
       </c>
       <c r="G54">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A54,SL_Sonuclari!A:A),"")</f>
-        <v>307.14285714285717</v>
+        <v>322.5</v>
       </c>
       <c r="H54">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A54,SL_Sonuclari!A:A),"")</f>
@@ -69231,7 +69246,7 @@
       </c>
       <c r="B61">
         <f>COUNTIF(SL_Sonuclari!C:H,A61)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C61" s="5" t="e">
         <f t="shared" si="1"/>

--- a/SLIStatistik.xlsx
+++ b/SLIStatistik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\ReadExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CDDC6A-A8FD-4A22-A5FE-55557185D9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2615CF3A-CC10-40C9-83F1-E9E2185FB64E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
   </bookViews>
   <sheets>
     <sheet name="CSL_Sonuclari" sheetId="2" r:id="rId1"/>
@@ -612,13 +612,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21120D27-1448-4179-993C-6B3BE739480A}">
-  <dimension ref="A1:J432"/>
+  <dimension ref="A1:J433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B402" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A433" sqref="A433"/>
+      <selection pane="bottomRight" activeCell="A434" sqref="A434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13859,6 +13859,38 @@
       </c>
       <c r="J432" s="2">
         <v>14</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A433" s="2">
+        <v>431</v>
+      </c>
+      <c r="B433" s="1">
+        <v>45056</v>
+      </c>
+      <c r="C433" s="2">
+        <v>17</v>
+      </c>
+      <c r="D433" s="2">
+        <v>30</v>
+      </c>
+      <c r="E433" s="2">
+        <v>35</v>
+      </c>
+      <c r="F433" s="2">
+        <v>62</v>
+      </c>
+      <c r="G433" s="2">
+        <v>89</v>
+      </c>
+      <c r="H433" s="2">
+        <v>90</v>
+      </c>
+      <c r="I433" s="2">
+        <v>28</v>
+      </c>
+      <c r="J433" s="2">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -13874,7 +13906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8BCBFC-83B0-4863-9D9A-FF955DDDA58C}">
   <dimension ref="A1:H432"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
+    <sheetView topLeftCell="A398" workbookViewId="0">
       <selection activeCell="A433" sqref="A433"/>
     </sheetView>
   </sheetViews>
@@ -25125,10 +25157,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4513EEF-0F11-4AC5-A4C7-CB00A18EA83B}">
-  <dimension ref="A1:H1277"/>
+  <dimension ref="A1:H1278"/>
   <sheetViews>
-    <sheetView topLeftCell="A1251" workbookViewId="0">
-      <selection activeCell="A1278" sqref="A1278"/>
+    <sheetView tabSelected="1" topLeftCell="A1251" workbookViewId="0">
+      <selection activeCell="A1279" sqref="A1279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58336,6 +58368,32 @@
       </c>
       <c r="H1277">
         <v>2</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1278">
+        <v>1667</v>
+      </c>
+      <c r="B1278" s="1">
+        <v>45056</v>
+      </c>
+      <c r="C1278">
+        <v>6</v>
+      </c>
+      <c r="D1278">
+        <v>7</v>
+      </c>
+      <c r="E1278">
+        <v>13</v>
+      </c>
+      <c r="F1278">
+        <v>27</v>
+      </c>
+      <c r="G1278">
+        <v>30</v>
+      </c>
+      <c r="H1278">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -58430,11 +58488,11 @@
       </c>
       <c r="B2">
         <f>COUNTIF(CSL_Sonuclari!C:J,A2)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="5">
         <f t="shared" ref="C2:C33" si="0">AVERAGE(J2:Q2)</f>
-        <v>2883.9523809523807</v>
+        <v>3120.8904761904764</v>
       </c>
       <c r="D2">
         <f>COUNTIF(CSL_Sonuclari!J:J,A2)</f>
@@ -58454,31 +58512,31 @@
       </c>
       <c r="H2">
         <f>COUNTIF(CSL_Sonuclari!C:H,A2)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" s="5">
         <f t="shared" ref="I2:I33" si="3">AVERAGE(J2:O2)</f>
-        <v>3877.1333333333328</v>
+        <v>4208.8466666666664</v>
       </c>
       <c r="J2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H2,"")</f>
-        <v>3050.6666666666665</v>
+        <v>3189.333333333333</v>
       </c>
       <c r="K2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H2,"")</f>
-        <v>5764</v>
+        <v>6803.4000000000005</v>
       </c>
       <c r="L2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H2,"")</f>
-        <v>5159</v>
+        <v>5393.5</v>
       </c>
       <c r="M2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H2,"")</f>
-        <v>4422</v>
+        <v>4623</v>
       </c>
       <c r="N2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H2,"")</f>
-        <v>990</v>
+        <v>1035</v>
       </c>
       <c r="O2" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H2,"")</f>
@@ -59266,11 +59324,11 @@
       </c>
       <c r="B13">
         <f>COUNTIF(CSL_Sonuclari!C:J,A13)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="0"/>
-        <v>3062</v>
+        <v>3305.7685185185182</v>
       </c>
       <c r="D13">
         <f>COUNTIF(CSL_Sonuclari!J:J,A13)</f>
@@ -59290,27 +59348,27 @@
       </c>
       <c r="H13">
         <f>COUNTIF(CSL_Sonuclari!C:H,A13)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" si="3"/>
-        <v>3964.5</v>
+        <v>4330.1527777777774</v>
       </c>
       <c r="J13">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H13,"")</f>
-        <v>2799</v>
+        <v>3536.1111111111113</v>
       </c>
       <c r="K13">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H13,"")</f>
-        <v>5229</v>
+        <v>5519.5</v>
       </c>
       <c r="L13">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H13,"")</f>
-        <v>1548</v>
+        <v>1634</v>
       </c>
       <c r="M13">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H13,"")</f>
-        <v>6282</v>
+        <v>6631</v>
       </c>
       <c r="N13" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H13,"")</f>
@@ -59713,7 +59771,7 @@
       </c>
       <c r="S18">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R18)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -59874,11 +59932,11 @@
       </c>
       <c r="B21">
         <f>COUNTIF(CSL_Sonuclari!C:J,A21)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="0"/>
-        <v>3981.7460317460318</v>
+        <v>4236.3809523809523</v>
       </c>
       <c r="D21">
         <f>COUNTIF(CSL_Sonuclari!J:J,A21)</f>
@@ -59898,31 +59956,31 @@
       </c>
       <c r="H21">
         <f>COUNTIF(CSL_Sonuclari!C:H,A21)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I21" s="5">
         <f t="shared" si="3"/>
-        <v>5347.2444444444445</v>
+        <v>5703.7333333333336</v>
       </c>
       <c r="J21">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H21,"")</f>
-        <v>7279.5</v>
+        <v>7596</v>
       </c>
       <c r="K21">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H21,"")</f>
-        <v>3713.2222222222226</v>
+        <v>3874.666666666667</v>
       </c>
       <c r="L21">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H21,"")</f>
-        <v>5753.833333333333</v>
+        <v>6624</v>
       </c>
       <c r="M21">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H21,"")</f>
-        <v>4469.666666666667</v>
+        <v>4664</v>
       </c>
       <c r="N21">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H21,"")</f>
-        <v>5520</v>
+        <v>5760</v>
       </c>
       <c r="O21" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H21,"")</f>
@@ -60178,19 +60236,19 @@
       </c>
       <c r="B25">
         <f>COUNTIF(CSL_Sonuclari!C:J,A25)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25" s="5">
         <f t="shared" si="0"/>
-        <v>6358.3311688311687</v>
+        <v>5172.8649350649348</v>
       </c>
       <c r="D25">
         <f>COUNTIF(CSL_Sonuclari!J:J,A25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>431</v>
       </c>
       <c r="F25" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A25)</f>
@@ -60236,9 +60294,9 @@
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F25,"")</f>
         <v>703</v>
       </c>
-      <c r="Q25" t="str">
+      <c r="Q25">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D25,"")</f>
-        <v/>
+        <v>431</v>
       </c>
       <c r="R25" s="2">
         <v>24</v>
@@ -60549,7 +60607,7 @@
       </c>
       <c r="S29">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R29)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -60701,7 +60759,7 @@
       </c>
       <c r="S31">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R31)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -61081,7 +61139,7 @@
       </c>
       <c r="S36">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R36)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -61166,11 +61224,11 @@
       </c>
       <c r="B38">
         <f>COUNTIF(CSL_Sonuclari!C:J,A38)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C38" s="5">
         <f t="shared" si="4"/>
-        <v>5466.636363636364</v>
+        <v>5538.469696969697</v>
       </c>
       <c r="D38">
         <f>COUNTIF(CSL_Sonuclari!J:J,A38)</f>
@@ -61182,11 +61240,11 @@
       </c>
       <c r="F38" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A38)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G38" s="8">
         <f t="shared" si="6"/>
-        <v>1412</v>
+        <v>1843</v>
       </c>
       <c r="H38">
         <f>COUNTIF(CSL_Sonuclari!C:H,A38)</f>
@@ -61222,7 +61280,7 @@
       </c>
       <c r="P38">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F38,"")</f>
-        <v>1412</v>
+        <v>1843</v>
       </c>
       <c r="Q38">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D38,"")</f>
@@ -62382,11 +62440,11 @@
       </c>
       <c r="B54">
         <f>COUNTIF(CSL_Sonuclari!C:J,A54)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C54" s="5">
         <f t="shared" si="4"/>
-        <v>4165.6538461538466</v>
+        <v>4385.5357142857147</v>
       </c>
       <c r="D54">
         <f>COUNTIF(CSL_Sonuclari!J:J,A54)</f>
@@ -62406,11 +62464,11 @@
       </c>
       <c r="H54">
         <f>COUNTIF(CSL_Sonuclari!C:H,A54)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I54" s="5">
         <f t="shared" si="7"/>
-        <v>5673.2307692307695</v>
+        <v>6003.0535714285716</v>
       </c>
       <c r="J54" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H54,"")</f>
@@ -62418,19 +62476,19 @@
       </c>
       <c r="K54">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H54,"")</f>
-        <v>2464</v>
+        <v>2541</v>
       </c>
       <c r="L54">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H54,"")</f>
-        <v>7818.666666666667</v>
+        <v>8063</v>
       </c>
       <c r="M54">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H54,"")</f>
-        <v>5508.9230769230771</v>
+        <v>6291.2142857142853</v>
       </c>
       <c r="N54">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H54,"")</f>
-        <v>6901.333333333333</v>
+        <v>7117</v>
       </c>
       <c r="O54" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H54,"")</f>
@@ -63133,7 +63191,7 @@
       </c>
       <c r="S63">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R63)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
@@ -64130,11 +64188,11 @@
       </c>
       <c r="B77">
         <f>COUNTIF(CSL_Sonuclari!C:J,A77)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C77" s="5">
         <f t="shared" si="8"/>
-        <v>1682.7666666666664</v>
+        <v>1780.9120000000003</v>
       </c>
       <c r="D77">
         <f>COUNTIF(CSL_Sonuclari!J:J,A77)</f>
@@ -64154,15 +64212,15 @@
       </c>
       <c r="H77">
         <f>COUNTIF(CSL_Sonuclari!C:H,A77)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I77" s="5">
         <f t="shared" si="11"/>
-        <v>2061.9444444444443</v>
+        <v>2225.52</v>
       </c>
       <c r="J77">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H77,"")</f>
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="K77" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H77,"")</f>
@@ -64170,7 +64228,7 @@
       </c>
       <c r="L77">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H77,"")</f>
-        <v>598</v>
+        <v>621</v>
       </c>
       <c r="M77" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H77,"")</f>
@@ -64182,7 +64240,7 @@
       </c>
       <c r="O77">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H77,"")</f>
-        <v>5119.833333333333</v>
+        <v>5569.56</v>
       </c>
       <c r="P77">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F77,"")</f>
@@ -64586,11 +64644,11 @@
       </c>
       <c r="B83">
         <f>COUNTIF(CSL_Sonuclari!C:J,A83)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C83" s="5">
         <f t="shared" si="8"/>
-        <v>2904.7323232323233</v>
+        <v>3500.2626262626268</v>
       </c>
       <c r="D83">
         <f>COUNTIF(CSL_Sonuclari!J:J,A83)</f>
@@ -64610,11 +64668,11 @@
       </c>
       <c r="H83">
         <f>COUNTIF(CSL_Sonuclari!C:H,A83)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I83" s="5">
         <f t="shared" si="11"/>
-        <v>3994.598484848485</v>
+        <v>4887.8939393939399</v>
       </c>
       <c r="J83" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H83,"")</f>
@@ -64626,19 +64684,19 @@
       </c>
       <c r="L83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H83,"")</f>
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="M83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H83,"")</f>
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="N83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H83,"")</f>
-        <v>6771</v>
+        <v>10095.333333333334</v>
       </c>
       <c r="O83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H83,"")</f>
-        <v>8467.3939393939399</v>
+        <v>8696.242424242424</v>
       </c>
       <c r="P83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F83,"")</f>
@@ -65185,7 +65243,7 @@
       </c>
       <c r="S90">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R90)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
@@ -65261,7 +65319,7 @@
       </c>
       <c r="S91">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R91)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">

--- a/SLIStatistik.xlsx
+++ b/SLIStatistik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\ReadExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2615CF3A-CC10-40C9-83F1-E9E2185FB64E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AAE5A6-44AD-41CC-82E2-8CCC844781D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
   </bookViews>
   <sheets>
     <sheet name="CSL_Sonuclari" sheetId="2" r:id="rId1"/>
@@ -13904,10 +13904,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8BCBFC-83B0-4863-9D9A-FF955DDDA58C}">
-  <dimension ref="A1:H432"/>
+  <dimension ref="A1:H433"/>
   <sheetViews>
-    <sheetView topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="A433" sqref="A433"/>
+    <sheetView tabSelected="1" topLeftCell="A401" workbookViewId="0">
+      <selection activeCell="I433" sqref="I433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25145,6 +25145,32 @@
       </c>
       <c r="H432">
         <v>60</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>431</v>
+      </c>
+      <c r="B433" s="1">
+        <v>45057</v>
+      </c>
+      <c r="C433">
+        <v>4</v>
+      </c>
+      <c r="D433">
+        <v>9</v>
+      </c>
+      <c r="E433">
+        <v>29</v>
+      </c>
+      <c r="F433">
+        <v>43</v>
+      </c>
+      <c r="G433">
+        <v>47</v>
+      </c>
+      <c r="H433">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -25159,7 +25185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4513EEF-0F11-4AC5-A4C7-CB00A18EA83B}">
   <dimension ref="A1:H1278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1251" workbookViewId="0">
+    <sheetView topLeftCell="A1251" workbookViewId="0">
       <selection activeCell="A1279" sqref="A1279"/>
     </sheetView>
   </sheetViews>
@@ -67716,15 +67742,15 @@
       </c>
       <c r="B13">
         <f>COUNTIF(SL_Sonuclari!C:H,A13)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="0"/>
-        <v>153.02562111801242</v>
+        <v>154.98214285714286</v>
       </c>
       <c r="D13">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A13,SL_Sonuclari!A:A),"")</f>
-        <v>243.17391304347825</v>
+        <v>251</v>
       </c>
       <c r="E13">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A13,SL_Sonuclari!A:A),"")</f>
@@ -67881,11 +67907,11 @@
       </c>
       <c r="B18">
         <f>COUNTIF(SL_Sonuclari!C:H,A18)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="0"/>
-        <v>154.06439393939394</v>
+        <v>157.5090579710145</v>
       </c>
       <c r="D18" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A18,SL_Sonuclari!A:A),"")</f>
@@ -67905,7 +67931,7 @@
       </c>
       <c r="H18">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A18,SL_Sonuclari!A:A),"")</f>
-        <v>193.31818181818181</v>
+        <v>203.65217391304347</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -67914,7 +67940,7 @@
       </c>
       <c r="B19">
         <f>COUNTIF(SL_Sonuclari!C:H,A19)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
@@ -68079,11 +68105,11 @@
       </c>
       <c r="B24">
         <f>COUNTIF(SL_Sonuclari!C:H,A24)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" s="5">
         <f t="shared" si="0"/>
-        <v>197.29738562091504</v>
+        <v>200.83333333333334</v>
       </c>
       <c r="D24" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A24,SL_Sonuclari!A:A),"")</f>
@@ -68099,7 +68125,7 @@
       </c>
       <c r="G24">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A24,SL_Sonuclari!A:A),"")</f>
-        <v>240.05882352941177</v>
+        <v>250.66666666666666</v>
       </c>
       <c r="H24">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A24,SL_Sonuclari!A:A),"")</f>
@@ -68871,11 +68897,11 @@
       </c>
       <c r="B48">
         <f>COUNTIF(SL_Sonuclari!C:H,A48)</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C48" s="5">
         <f t="shared" si="1"/>
-        <v>244.20999115826703</v>
+        <v>246.7232865048957</v>
       </c>
       <c r="D48">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A48,SL_Sonuclari!A:A),"")</f>
@@ -68883,7 +68909,7 @@
       </c>
       <c r="E48">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A48,SL_Sonuclari!A:A),"")</f>
-        <v>227.42307692307693</v>
+        <v>234.96296296296296</v>
       </c>
       <c r="F48">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A48,SL_Sonuclari!A:A),"")</f>
@@ -68904,11 +68930,11 @@
       </c>
       <c r="B49">
         <f>COUNTIF(SL_Sonuclari!C:H,A49)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C49" s="5">
         <f t="shared" si="1"/>
-        <v>220.08085164835165</v>
+        <v>223.01821428571429</v>
       </c>
       <c r="D49">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A49,SL_Sonuclari!A:A),"")</f>
@@ -68920,7 +68946,7 @@
       </c>
       <c r="F49">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A49,SL_Sonuclari!A:A),"")</f>
-        <v>225.38461538461539</v>
+        <v>240.07142857142858</v>
       </c>
       <c r="G49">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A49,SL_Sonuclari!A:A),"")</f>

--- a/SLIStatistik.xlsx
+++ b/SLIStatistik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\ReadExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AAE5A6-44AD-41CC-82E2-8CCC844781D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5F78CE-F998-449D-9B93-A8B6B3404D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
   </bookViews>
   <sheets>
     <sheet name="CSL_Sonuclari" sheetId="2" r:id="rId1"/>
@@ -612,13 +612,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21120D27-1448-4179-993C-6B3BE739480A}">
-  <dimension ref="A1:J433"/>
+  <dimension ref="A1:J435"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B402" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B408" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A434" sqref="A434"/>
+      <selection pane="bottomRight" activeCell="A436" sqref="A436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13893,6 +13893,70 @@
         <v>7</v>
       </c>
     </row>
+    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A434" s="2">
+        <v>432</v>
+      </c>
+      <c r="B434" s="1">
+        <v>45059</v>
+      </c>
+      <c r="C434" s="2">
+        <v>25</v>
+      </c>
+      <c r="D434" s="2">
+        <v>49</v>
+      </c>
+      <c r="E434" s="2">
+        <v>66</v>
+      </c>
+      <c r="F434" s="2">
+        <v>80</v>
+      </c>
+      <c r="G434" s="2">
+        <v>81</v>
+      </c>
+      <c r="H434" s="2">
+        <v>88</v>
+      </c>
+      <c r="I434" s="2">
+        <v>55</v>
+      </c>
+      <c r="J434" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A435" s="2">
+        <v>433</v>
+      </c>
+      <c r="B435" s="1">
+        <v>45061</v>
+      </c>
+      <c r="C435" s="2">
+        <v>10</v>
+      </c>
+      <c r="D435" s="2">
+        <v>13</v>
+      </c>
+      <c r="E435" s="2">
+        <v>20</v>
+      </c>
+      <c r="F435" s="2">
+        <v>31</v>
+      </c>
+      <c r="G435" s="2">
+        <v>69</v>
+      </c>
+      <c r="H435" s="2">
+        <v>87</v>
+      </c>
+      <c r="I435" s="2">
+        <v>56</v>
+      </c>
+      <c r="J435" s="2">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J311">
     <sortCondition ref="B2:B311"/>
@@ -13904,10 +13968,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8BCBFC-83B0-4863-9D9A-FF955DDDA58C}">
-  <dimension ref="A1:H433"/>
+  <dimension ref="A1:H434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A401" workbookViewId="0">
-      <selection activeCell="I433" sqref="I433"/>
+    <sheetView topLeftCell="A401" workbookViewId="0">
+      <selection activeCell="A435" sqref="A435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25173,6 +25237,32 @@
         <v>53</v>
       </c>
     </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>432</v>
+      </c>
+      <c r="B434" s="1">
+        <v>45060</v>
+      </c>
+      <c r="C434">
+        <v>4</v>
+      </c>
+      <c r="D434">
+        <v>7</v>
+      </c>
+      <c r="E434">
+        <v>15</v>
+      </c>
+      <c r="F434">
+        <v>39</v>
+      </c>
+      <c r="G434">
+        <v>56</v>
+      </c>
+      <c r="H434">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H311">
     <sortCondition ref="B2:B311"/>
@@ -25183,10 +25273,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4513EEF-0F11-4AC5-A4C7-CB00A18EA83B}">
-  <dimension ref="A1:H1278"/>
+  <dimension ref="A1:H1279"/>
   <sheetViews>
     <sheetView topLeftCell="A1251" workbookViewId="0">
-      <selection activeCell="A1279" sqref="A1279"/>
+      <selection activeCell="A1280" sqref="A1280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58420,6 +58510,32 @@
       </c>
       <c r="H1278">
         <v>12</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1279">
+        <v>1668</v>
+      </c>
+      <c r="B1279" s="1">
+        <v>45060</v>
+      </c>
+      <c r="C1279">
+        <v>9</v>
+      </c>
+      <c r="D1279">
+        <v>12</v>
+      </c>
+      <c r="E1279">
+        <v>17</v>
+      </c>
+      <c r="F1279">
+        <v>23</v>
+      </c>
+      <c r="G1279">
+        <v>33</v>
+      </c>
+      <c r="H1279">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -58818,11 +58934,11 @@
       </c>
       <c r="B6">
         <f>COUNTIF(CSL_Sonuclari!C:J,A6)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="5">
         <f t="shared" si="0"/>
-        <v>3149.96</v>
+        <v>3381.272727272727</v>
       </c>
       <c r="D6">
         <f>COUNTIF(CSL_Sonuclari!J:J,A6)</f>
@@ -58842,23 +58958,23 @@
       </c>
       <c r="H6">
         <f>COUNTIF(CSL_Sonuclari!C:H,A6)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I6" s="5">
         <f t="shared" si="3"/>
-        <v>3509.2</v>
+        <v>3798.340909090909</v>
       </c>
       <c r="J6">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H6,"")</f>
-        <v>4036.8</v>
+        <v>4568.3636363636369</v>
       </c>
       <c r="K6">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H6,"")</f>
-        <v>4224</v>
+        <v>4488</v>
       </c>
       <c r="L6">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H6,"")</f>
-        <v>5696</v>
+        <v>6052</v>
       </c>
       <c r="M6" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H6,"")</f>
@@ -58870,7 +58986,7 @@
       </c>
       <c r="O6">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H6,"")</f>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P6">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F6,"")</f>
@@ -59198,11 +59314,11 @@
       </c>
       <c r="B11">
         <f>COUNTIF(CSL_Sonuclari!C:J,A11)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="0"/>
-        <v>3263.1071428571427</v>
+        <v>3475.7341269841272</v>
       </c>
       <c r="D11">
         <f>COUNTIF(CSL_Sonuclari!J:J,A11)</f>
@@ -59222,31 +59338,31 @@
       </c>
       <c r="H11">
         <f>COUNTIF(CSL_Sonuclari!C:H,A11)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" si="3"/>
-        <v>4453.75</v>
+        <v>4751.4277777777779</v>
       </c>
       <c r="J11">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H11,"")</f>
-        <v>5725</v>
+        <v>5954</v>
       </c>
       <c r="K11">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H11,"")</f>
-        <v>7109.375</v>
+        <v>7393.75</v>
       </c>
       <c r="L11">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H11,"")</f>
-        <v>3456.25</v>
+        <v>3594.5</v>
       </c>
       <c r="M11">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H11,"")</f>
-        <v>5653.125</v>
+        <v>6476.8888888888887</v>
       </c>
       <c r="N11">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H11,"")</f>
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="O11" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H11,"")</f>
@@ -59265,7 +59381,7 @@
       </c>
       <c r="S11">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R11)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -59493,7 +59609,7 @@
       </c>
       <c r="S14">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R14)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -60025,7 +60141,7 @@
       </c>
       <c r="S21">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R21)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -60034,11 +60150,11 @@
       </c>
       <c r="B22">
         <f>COUNTIF(CSL_Sonuclari!C:J,A22)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
-        <v>5176.6416666666673</v>
+        <v>5453.8222222222221</v>
       </c>
       <c r="D22">
         <f>COUNTIF(CSL_Sonuclari!J:J,A22)</f>
@@ -60058,11 +60174,11 @@
       </c>
       <c r="H22">
         <f>COUNTIF(CSL_Sonuclari!C:H,A22)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I22" s="5">
         <f t="shared" si="3"/>
-        <v>7589.9625000000005</v>
+        <v>8005.7333333333336</v>
       </c>
       <c r="J22" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H22,"")</f>
@@ -60074,19 +60190,19 @@
       </c>
       <c r="L22">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H22,"")</f>
-        <v>9417.8000000000011</v>
+        <v>10405.333333333334</v>
       </c>
       <c r="M22">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H22,"")</f>
-        <v>7480.3</v>
+        <v>7721.6</v>
       </c>
       <c r="N22">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H22,"")</f>
-        <v>6820</v>
+        <v>7040</v>
       </c>
       <c r="O22">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H22,"")</f>
-        <v>6641.75</v>
+        <v>6856</v>
       </c>
       <c r="P22">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F22,"")</f>
@@ -60186,11 +60302,11 @@
       </c>
       <c r="B24">
         <f>COUNTIF(CSL_Sonuclari!C:J,A24)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24" s="5">
         <f t="shared" si="0"/>
-        <v>5341.9149659863951</v>
+        <v>5633.5765306122457</v>
       </c>
       <c r="D24">
         <f>COUNTIF(CSL_Sonuclari!J:J,A24)</f>
@@ -60210,11 +60326,11 @@
       </c>
       <c r="H24">
         <f>COUNTIF(CSL_Sonuclari!C:H,A24)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I24" s="5">
         <f t="shared" si="3"/>
-        <v>7059.6809523809525</v>
+        <v>7468.0071428571437</v>
       </c>
       <c r="J24" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H24,"")</f>
@@ -60222,23 +60338,23 @@
       </c>
       <c r="K24">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H24,"")</f>
-        <v>7826</v>
+        <v>8127</v>
       </c>
       <c r="L24">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H24,"")</f>
-        <v>7800</v>
+        <v>8100</v>
       </c>
       <c r="M24">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H24,"")</f>
-        <v>7299.5</v>
+        <v>7580.25</v>
       </c>
       <c r="N24">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H24,"")</f>
-        <v>6621.333333333333</v>
+        <v>7560</v>
       </c>
       <c r="O24">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H24,"")</f>
-        <v>5751.5714285714284</v>
+        <v>5972.7857142857147</v>
       </c>
       <c r="P24">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F24,"")</f>
@@ -60405,7 +60521,7 @@
       </c>
       <c r="S26">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R26)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -60861,7 +60977,7 @@
       </c>
       <c r="S32">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R32)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
@@ -61934,11 +62050,11 @@
       </c>
       <c r="B47">
         <f>COUNTIF(CSL_Sonuclari!C:J,A47)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C47" s="5">
         <f t="shared" si="4"/>
-        <v>3900.7599999999998</v>
+        <v>4572.6000000000004</v>
       </c>
       <c r="D47">
         <f>COUNTIF(CSL_Sonuclari!J:J,A47)</f>
@@ -61958,11 +62074,11 @@
       </c>
       <c r="H47">
         <f>COUNTIF(CSL_Sonuclari!C:H,A47)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I47" s="5">
         <f t="shared" si="7"/>
-        <v>5985.5999999999995</v>
+        <v>7105.333333333333</v>
       </c>
       <c r="J47" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H47,"")</f>
@@ -61978,15 +62094,15 @@
       </c>
       <c r="M47">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H47,"")</f>
-        <v>4582</v>
+        <v>7480</v>
       </c>
       <c r="N47">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H47,"")</f>
-        <v>7221</v>
+        <v>7470</v>
       </c>
       <c r="O47">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H47,"")</f>
-        <v>6153.7999999999993</v>
+        <v>6366</v>
       </c>
       <c r="P47">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F47,"")</f>
@@ -62010,11 +62126,11 @@
       </c>
       <c r="B48">
         <f>COUNTIF(CSL_Sonuclari!C:J,A48)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C48" s="5">
         <f t="shared" si="4"/>
-        <v>5267.8250000000007</v>
+        <v>5321.8250000000007</v>
       </c>
       <c r="D48">
         <f>COUNTIF(CSL_Sonuclari!J:J,A48)</f>
@@ -62026,11 +62142,11 @@
       </c>
       <c r="F48" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A48)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G48" s="8">
         <f t="shared" si="6"/>
-        <v>1521</v>
+        <v>1953</v>
       </c>
       <c r="H48">
         <f>COUNTIF(CSL_Sonuclari!C:H,A48)</f>
@@ -62066,7 +62182,7 @@
       </c>
       <c r="P48">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F48,"")</f>
-        <v>1521</v>
+        <v>1953</v>
       </c>
       <c r="Q48">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D48,"")</f>
@@ -62229,7 +62345,7 @@
       </c>
       <c r="S50">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R50)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
@@ -62238,19 +62354,19 @@
       </c>
       <c r="B51">
         <f>COUNTIF(CSL_Sonuclari!C:J,A51)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C51" s="5">
         <f t="shared" si="4"/>
-        <v>3804.5039682539682</v>
+        <v>3876.6706349206347</v>
       </c>
       <c r="D51">
         <f>COUNTIF(CSL_Sonuclari!J:J,A51)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E51" s="5">
         <f t="shared" si="5"/>
-        <v>550</v>
+        <v>983</v>
       </c>
       <c r="F51" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A51)</f>
@@ -62298,7 +62414,7 @@
       </c>
       <c r="Q51">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D51,"")</f>
-        <v>550</v>
+        <v>983</v>
       </c>
       <c r="R51" s="2">
         <v>50</v>
@@ -62542,11 +62658,11 @@
       </c>
       <c r="B55">
         <f>COUNTIF(CSL_Sonuclari!C:J,A55)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C55" s="5">
         <f t="shared" si="4"/>
-        <v>3849.4761904761908</v>
+        <v>4235.3928571428569</v>
       </c>
       <c r="D55">
         <f>COUNTIF(CSL_Sonuclari!J:J,A55)</f>
@@ -62566,31 +62682,31 @@
       </c>
       <c r="H55">
         <f>COUNTIF(CSL_Sonuclari!C:H,A55)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I55" s="5">
         <f t="shared" si="7"/>
-        <v>5063.666666666667</v>
+        <v>5603.95</v>
       </c>
       <c r="J55">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H55,"")</f>
-        <v>5813.5</v>
+        <v>6077.75</v>
       </c>
       <c r="K55">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H55,"")</f>
-        <v>3668.5</v>
+        <v>3835.25</v>
       </c>
       <c r="L55">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H55,"")</f>
-        <v>3593.3333333333335</v>
+        <v>5307.25</v>
       </c>
       <c r="M55">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H55,"")</f>
-        <v>8327</v>
+        <v>8705.5</v>
       </c>
       <c r="N55">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H55,"")</f>
-        <v>3916</v>
+        <v>4094</v>
       </c>
       <c r="O55" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H55,"")</f>
@@ -62685,7 +62801,7 @@
       </c>
       <c r="S56">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R56)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
@@ -62761,7 +62877,7 @@
       </c>
       <c r="S57">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R57)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
@@ -63454,11 +63570,11 @@
       </c>
       <c r="B67">
         <f>COUNTIF(CSL_Sonuclari!C:J,A67)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C67" s="5">
         <f t="shared" si="8"/>
-        <v>5406.6423076923083</v>
+        <v>5648.1873015873016</v>
       </c>
       <c r="D67">
         <f>COUNTIF(CSL_Sonuclari!J:J,A67)</f>
@@ -63478,11 +63594,11 @@
       </c>
       <c r="H67">
         <f>COUNTIF(CSL_Sonuclari!C:H,A67)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I67" s="5">
         <f t="shared" si="11"/>
-        <v>7654.9634615384621</v>
+        <v>8017.2809523809528</v>
       </c>
       <c r="J67" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H67,"")</f>
@@ -63490,7 +63606,7 @@
       </c>
       <c r="K67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H67,"")</f>
-        <v>8118</v>
+        <v>8364</v>
       </c>
       <c r="L67" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H67,"")</f>
@@ -63498,15 +63614,15 @@
       </c>
       <c r="M67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H67,"")</f>
-        <v>6002.7</v>
+        <v>6184.6</v>
       </c>
       <c r="N67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H67,"")</f>
-        <v>7204.1538461538466</v>
+        <v>7943.8571428571431</v>
       </c>
       <c r="O67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H67,"")</f>
-        <v>9295</v>
+        <v>9576.6666666666679</v>
       </c>
       <c r="P67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F67,"")</f>
@@ -63521,7 +63637,7 @@
       </c>
       <c r="S67">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R67)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
@@ -63530,11 +63646,11 @@
       </c>
       <c r="B68">
         <f>COUNTIF(CSL_Sonuclari!C:J,A68)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C68" s="5">
         <f t="shared" si="8"/>
-        <v>7215.2857142857147</v>
+        <v>7503.9087301587297</v>
       </c>
       <c r="D68">
         <f>COUNTIF(CSL_Sonuclari!J:J,A68)</f>
@@ -63554,31 +63670,31 @@
       </c>
       <c r="H68">
         <f>COUNTIF(CSL_Sonuclari!C:H,A68)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I68" s="5">
         <f t="shared" si="11"/>
-        <v>9633</v>
+        <v>10037.072222222221</v>
       </c>
       <c r="J68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H68,"")</f>
-        <v>8912</v>
+        <v>9842</v>
       </c>
       <c r="K68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H68,"")</f>
-        <v>8280</v>
+        <v>8510</v>
       </c>
       <c r="L68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H68,"")</f>
-        <v>9436</v>
+        <v>9698.1111111111095</v>
       </c>
       <c r="M68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H68,"")</f>
-        <v>12429</v>
+        <v>12774.25</v>
       </c>
       <c r="N68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H68,"")</f>
-        <v>9108</v>
+        <v>9361</v>
       </c>
       <c r="O68" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H68,"")</f>
@@ -63682,11 +63798,11 @@
       </c>
       <c r="B70">
         <f>COUNTIF(CSL_Sonuclari!C:J,A70)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C70" s="5">
         <f t="shared" si="8"/>
-        <v>4330.3008658008666</v>
+        <v>4752.0519480519479</v>
       </c>
       <c r="D70">
         <f>COUNTIF(CSL_Sonuclari!J:J,A70)</f>
@@ -63706,11 +63822,11 @@
       </c>
       <c r="H70">
         <f>COUNTIF(CSL_Sonuclari!C:H,A70)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I70" s="5">
         <f t="shared" si="11"/>
-        <v>5639.6212121212129</v>
+        <v>6230.0727272727272</v>
       </c>
       <c r="J70" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H70,"")</f>
@@ -63718,23 +63834,23 @@
       </c>
       <c r="K70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H70,"")</f>
-        <v>5537.5</v>
+        <v>7583.3333333333339</v>
       </c>
       <c r="L70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H70,"")</f>
-        <v>5352.272727272727</v>
+        <v>5566.363636363636</v>
       </c>
       <c r="M70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H70,"")</f>
-        <v>5108.3333333333339</v>
+        <v>5312.666666666667</v>
       </c>
       <c r="N70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H70,"")</f>
-        <v>6237.5</v>
+        <v>6487</v>
       </c>
       <c r="O70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H70,"")</f>
-        <v>5962.5</v>
+        <v>6201</v>
       </c>
       <c r="P70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F70,"")</f>
@@ -63749,7 +63865,7 @@
       </c>
       <c r="S70">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R70)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
@@ -64214,19 +64330,19 @@
       </c>
       <c r="B77">
         <f>COUNTIF(CSL_Sonuclari!C:J,A77)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C77" s="5">
         <f t="shared" si="8"/>
-        <v>1780.9120000000003</v>
+        <v>1867.3120000000004</v>
       </c>
       <c r="D77">
         <f>COUNTIF(CSL_Sonuclari!J:J,A77)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E77" s="5">
         <f t="shared" si="9"/>
-        <v>304</v>
+        <v>736</v>
       </c>
       <c r="F77" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A77)</f>
@@ -64274,7 +64390,7 @@
       </c>
       <c r="Q77">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D77,"")</f>
-        <v>304</v>
+        <v>736</v>
       </c>
       <c r="R77" s="2">
         <v>76</v>
@@ -64442,11 +64558,11 @@
       </c>
       <c r="B80">
         <f>COUNTIF(CSL_Sonuclari!C:J,A80)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C80" s="5">
         <f t="shared" si="8"/>
-        <v>5185.313492063492</v>
+        <v>5247.1706349206352</v>
       </c>
       <c r="D80">
         <f>COUNTIF(CSL_Sonuclari!J:J,A80)</f>
@@ -64458,11 +64574,11 @@
       </c>
       <c r="F80" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A80)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G80" s="8">
         <f t="shared" si="10"/>
-        <v>909</v>
+        <v>1342</v>
       </c>
       <c r="H80">
         <f>COUNTIF(CSL_Sonuclari!C:H,A80)</f>
@@ -64498,7 +64614,7 @@
       </c>
       <c r="P80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F80,"")</f>
-        <v>909</v>
+        <v>1342</v>
       </c>
       <c r="Q80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D80,"")</f>
@@ -64585,7 +64701,7 @@
       </c>
       <c r="S81">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R81)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
@@ -64661,7 +64777,7 @@
       </c>
       <c r="S82">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R82)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
@@ -64746,11 +64862,11 @@
       </c>
       <c r="B84">
         <f>COUNTIF(CSL_Sonuclari!C:J,A84)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C84" s="5">
         <f t="shared" si="8"/>
-        <v>4489.3451612903227</v>
+        <v>4660.2687500000002</v>
       </c>
       <c r="D84">
         <f>COUNTIF(CSL_Sonuclari!J:J,A84)</f>
@@ -64770,15 +64886,15 @@
       </c>
       <c r="H84">
         <f>COUNTIF(CSL_Sonuclari!C:H,A84)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I84" s="5">
         <f t="shared" si="11"/>
-        <v>5519.12688172043</v>
+        <v>5747.0250000000005</v>
       </c>
       <c r="J84">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H84,"")</f>
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="K84" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H84,"")</f>
@@ -64794,11 +64910,11 @@
       </c>
       <c r="N84">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H84,"")</f>
-        <v>7414.8</v>
+        <v>7615.2</v>
       </c>
       <c r="O84">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H84,"")</f>
-        <v>8624.5806451612898</v>
+        <v>9093.875</v>
       </c>
       <c r="P84">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F84,"")</f>
@@ -64822,11 +64938,11 @@
       </c>
       <c r="B85">
         <f>COUNTIF(CSL_Sonuclari!C:J,A85)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C85" s="5">
         <f t="shared" si="8"/>
-        <v>5459.9454022988502</v>
+        <v>5642.8888888888896</v>
       </c>
       <c r="D85">
         <f>COUNTIF(CSL_Sonuclari!J:J,A85)</f>
@@ -64846,11 +64962,11 @@
       </c>
       <c r="H85">
         <f>COUNTIF(CSL_Sonuclari!C:H,A85)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I85" s="5">
         <f t="shared" si="11"/>
-        <v>7484.9181034482754</v>
+        <v>7759.3333333333339</v>
       </c>
       <c r="J85" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H85,"")</f>
@@ -64858,7 +64974,7 @@
       </c>
       <c r="K85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H85,"")</f>
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="L85" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H85,"")</f>
@@ -64866,15 +64982,15 @@
       </c>
       <c r="M85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H85,"")</f>
-        <v>12116</v>
+        <v>12426.666666666668</v>
       </c>
       <c r="N85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H85,"")</f>
-        <v>10393.5</v>
+        <v>10660</v>
       </c>
       <c r="O85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H85,"")</f>
-        <v>7235.1724137931033</v>
+        <v>7750.666666666667</v>
       </c>
       <c r="P85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F85,"")</f>
@@ -64898,11 +65014,11 @@
       </c>
       <c r="B86">
         <f>COUNTIF(CSL_Sonuclari!C:J,A86)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C86" s="5">
         <f t="shared" si="8"/>
-        <v>5054.2941176470586</v>
+        <v>5275.2682352941174</v>
       </c>
       <c r="D86">
         <f>COUNTIF(CSL_Sonuclari!J:J,A86)</f>
@@ -64922,23 +65038,23 @@
       </c>
       <c r="H86">
         <f>COUNTIF(CSL_Sonuclari!C:H,A86)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I86" s="5">
         <f t="shared" si="11"/>
-        <v>7332.1568627450979</v>
+        <v>7700.4470588235299</v>
       </c>
       <c r="J86">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H86,"")</f>
-        <v>7261.4705882352937</v>
+        <v>7468.9411764705883</v>
       </c>
       <c r="K86">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H86,"")</f>
-        <v>8207.5</v>
+        <v>8918.4</v>
       </c>
       <c r="L86">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H86,"")</f>
-        <v>6527.5</v>
+        <v>6714</v>
       </c>
       <c r="M86" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H86,"")</f>
@@ -65117,7 +65233,7 @@
       </c>
       <c r="S88">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R88)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
@@ -65193,7 +65309,7 @@
       </c>
       <c r="S89">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R89)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
@@ -67742,15 +67858,15 @@
       </c>
       <c r="B13">
         <f>COUNTIF(SL_Sonuclari!C:H,A13)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="0"/>
-        <v>154.98214285714286</v>
+        <v>156.79214285714286</v>
       </c>
       <c r="D13">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A13,SL_Sonuclari!A:A),"")</f>
-        <v>251</v>
+        <v>258.24</v>
       </c>
       <c r="E13">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A13,SL_Sonuclari!A:A),"")</f>
@@ -67874,11 +67990,11 @@
       </c>
       <c r="B17">
         <f>COUNTIF(SL_Sonuclari!C:H,A17)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="0"/>
-        <v>215.9975</v>
+        <v>219.85568181818181</v>
       </c>
       <c r="D17">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A17,SL_Sonuclari!A:A),"")</f>
@@ -67890,7 +68006,7 @@
       </c>
       <c r="F17">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A17,SL_Sonuclari!A:A),"")</f>
-        <v>219.8</v>
+        <v>239.09090909090909</v>
       </c>
       <c r="G17">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A17,SL_Sonuclari!A:A),"")</f>
@@ -68204,11 +68320,11 @@
       </c>
       <c r="B27">
         <f>COUNTIF(SL_Sonuclari!C:H,A27)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" s="5">
         <f t="shared" si="0"/>
-        <v>172.05</v>
+        <v>180.13636363636363</v>
       </c>
       <c r="D27" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A27,SL_Sonuclari!A:A),"")</f>
@@ -68228,7 +68344,7 @@
       </c>
       <c r="H27">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A27,SL_Sonuclari!A:A),"")</f>
-        <v>254.1</v>
+        <v>270.27272727272725</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -68270,11 +68386,11 @@
       </c>
       <c r="B29">
         <f>COUNTIF(SL_Sonuclari!C:H,A29)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29" s="5">
         <f t="shared" si="0"/>
-        <v>188.78125</v>
+        <v>191.84191176470588</v>
       </c>
       <c r="D29" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A29,SL_Sonuclari!A:A),"")</f>
@@ -68290,7 +68406,7 @@
       </c>
       <c r="G29">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A29,SL_Sonuclari!A:A),"")</f>
-        <v>223.875</v>
+        <v>236.11764705882354</v>
       </c>
       <c r="H29">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A29,SL_Sonuclari!A:A),"")</f>
@@ -68534,11 +68650,11 @@
       </c>
       <c r="B37">
         <f>COUNTIF(SL_Sonuclari!C:H,A37)</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37" s="5">
         <f t="shared" si="1"/>
-        <v>186.69157706093188</v>
+        <v>191.60685483870967</v>
       </c>
       <c r="D37">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A37,SL_Sonuclari!A:A),"")</f>
@@ -68546,7 +68662,7 @@
       </c>
       <c r="E37">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A37,SL_Sonuclari!A:A),"")</f>
-        <v>196.06666666666666</v>
+        <v>210.8125</v>
       </c>
       <c r="F37">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A37,SL_Sonuclari!A:A),"")</f>
@@ -69330,7 +69446,7 @@
       </c>
       <c r="B61">
         <f>COUNTIF(SL_Sonuclari!C:H,A61)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C61" s="5" t="e">
         <f t="shared" si="1"/>

--- a/SLIStatistik.xlsx
+++ b/SLIStatistik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\ReadExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5F78CE-F998-449D-9B93-A8B6B3404D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95940AB0-7200-483B-86EF-67656DE6F236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
   </bookViews>
   <sheets>
     <sheet name="CSL_Sonuclari" sheetId="2" r:id="rId1"/>
@@ -612,13 +612,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21120D27-1448-4179-993C-6B3BE739480A}">
-  <dimension ref="A1:J435"/>
+  <dimension ref="A1:J437"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B408" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B417" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A436" sqref="A436"/>
+      <selection pane="bottomRight" activeCell="A438" sqref="A438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13957,6 +13957,70 @@
         <v>6</v>
       </c>
     </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A436" s="2">
+        <v>434</v>
+      </c>
+      <c r="B436" s="1">
+        <v>45063</v>
+      </c>
+      <c r="C436" s="2">
+        <v>14</v>
+      </c>
+      <c r="D436" s="2">
+        <v>29</v>
+      </c>
+      <c r="E436" s="2">
+        <v>40</v>
+      </c>
+      <c r="F436" s="2">
+        <v>46</v>
+      </c>
+      <c r="G436" s="2">
+        <v>79</v>
+      </c>
+      <c r="H436" s="2">
+        <v>89</v>
+      </c>
+      <c r="I436" s="2">
+        <v>19</v>
+      </c>
+      <c r="J436" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A437" s="2">
+        <v>435</v>
+      </c>
+      <c r="B437" s="1">
+        <v>45066</v>
+      </c>
+      <c r="C437" s="2">
+        <v>3</v>
+      </c>
+      <c r="D437" s="2">
+        <v>14</v>
+      </c>
+      <c r="E437" s="2">
+        <v>18</v>
+      </c>
+      <c r="F437" s="2">
+        <v>51</v>
+      </c>
+      <c r="G437" s="2">
+        <v>62</v>
+      </c>
+      <c r="H437" s="2">
+        <v>68</v>
+      </c>
+      <c r="I437" s="2">
+        <v>31</v>
+      </c>
+      <c r="J437" s="2">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J311">
     <sortCondition ref="B2:B311"/>
@@ -13968,10 +14032,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8BCBFC-83B0-4863-9D9A-FF955DDDA58C}">
-  <dimension ref="A1:H434"/>
+  <dimension ref="A1:H437"/>
   <sheetViews>
-    <sheetView topLeftCell="A401" workbookViewId="0">
-      <selection activeCell="A435" sqref="A435"/>
+    <sheetView topLeftCell="A403" workbookViewId="0">
+      <selection activeCell="A438" sqref="A438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25263,6 +25327,84 @@
         <v>60</v>
       </c>
     </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>433</v>
+      </c>
+      <c r="B435" s="1">
+        <v>45062</v>
+      </c>
+      <c r="C435">
+        <v>16</v>
+      </c>
+      <c r="D435">
+        <v>22</v>
+      </c>
+      <c r="E435">
+        <v>32</v>
+      </c>
+      <c r="F435">
+        <v>34</v>
+      </c>
+      <c r="G435">
+        <v>47</v>
+      </c>
+      <c r="H435">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>434</v>
+      </c>
+      <c r="B436" s="1">
+        <v>45064</v>
+      </c>
+      <c r="C436">
+        <v>7</v>
+      </c>
+      <c r="D436">
+        <v>17</v>
+      </c>
+      <c r="E436">
+        <v>20</v>
+      </c>
+      <c r="F436">
+        <v>30</v>
+      </c>
+      <c r="G436">
+        <v>35</v>
+      </c>
+      <c r="H436">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>435</v>
+      </c>
+      <c r="B437" s="1">
+        <v>45067</v>
+      </c>
+      <c r="C437">
+        <v>10</v>
+      </c>
+      <c r="D437">
+        <v>29</v>
+      </c>
+      <c r="E437">
+        <v>45</v>
+      </c>
+      <c r="F437">
+        <v>49</v>
+      </c>
+      <c r="G437">
+        <v>56</v>
+      </c>
+      <c r="H437">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H311">
     <sortCondition ref="B2:B311"/>
@@ -25273,10 +25415,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4513EEF-0F11-4AC5-A4C7-CB00A18EA83B}">
-  <dimension ref="A1:H1279"/>
+  <dimension ref="A1:H1281"/>
   <sheetViews>
-    <sheetView topLeftCell="A1251" workbookViewId="0">
-      <selection activeCell="A1280" sqref="A1280"/>
+    <sheetView tabSelected="1" topLeftCell="A1251" workbookViewId="0">
+      <selection activeCell="C1282" sqref="C1282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58536,6 +58678,58 @@
       </c>
       <c r="H1279">
         <v>13</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1280">
+        <v>1669</v>
+      </c>
+      <c r="B1280" s="1">
+        <v>45063</v>
+      </c>
+      <c r="C1280">
+        <v>14</v>
+      </c>
+      <c r="D1280">
+        <v>21</v>
+      </c>
+      <c r="E1280">
+        <v>22</v>
+      </c>
+      <c r="F1280">
+        <v>25</v>
+      </c>
+      <c r="G1280">
+        <v>29</v>
+      </c>
+      <c r="H1280">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1281">
+        <v>1670</v>
+      </c>
+      <c r="B1281" s="1">
+        <v>45067</v>
+      </c>
+      <c r="C1281">
+        <v>5</v>
+      </c>
+      <c r="D1281">
+        <v>13</v>
+      </c>
+      <c r="E1281">
+        <v>17</v>
+      </c>
+      <c r="F1281">
+        <v>18</v>
+      </c>
+      <c r="G1281">
+        <v>20</v>
+      </c>
+      <c r="H1281">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -58706,11 +58900,11 @@
       </c>
       <c r="B3">
         <f>COUNTIF(CSL_Sonuclari!C:J,A3)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="5">
         <f t="shared" si="0"/>
-        <v>3956.458333333333</v>
+        <v>4228.5</v>
       </c>
       <c r="D3">
         <f>COUNTIF(CSL_Sonuclari!J:J,A3)</f>
@@ -58730,35 +58924,35 @@
       </c>
       <c r="H3">
         <f>COUNTIF(CSL_Sonuclari!C:H,A3)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" s="5">
         <f t="shared" si="3"/>
-        <v>4970.6111111111104</v>
+        <v>5333.333333333333</v>
       </c>
       <c r="J3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H3,"")</f>
-        <v>7049</v>
+        <v>7420</v>
       </c>
       <c r="K3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H3,"")</f>
-        <v>2394</v>
+        <v>2520</v>
       </c>
       <c r="L3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H3,"")</f>
-        <v>6194</v>
+        <v>6520</v>
       </c>
       <c r="M3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H3,"")</f>
-        <v>3078</v>
+        <v>3846.666666666667</v>
       </c>
       <c r="N3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H3,"")</f>
-        <v>4553.6666666666661</v>
+        <v>4793.333333333333</v>
       </c>
       <c r="O3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H3,"")</f>
-        <v>6555</v>
+        <v>6900</v>
       </c>
       <c r="P3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F3,"")</f>
@@ -58849,7 +59043,7 @@
       </c>
       <c r="S4">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R4)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -59314,11 +59508,11 @@
       </c>
       <c r="B11">
         <f>COUNTIF(CSL_Sonuclari!C:J,A11)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="0"/>
-        <v>3475.7341269841272</v>
+        <v>3537.8769841269846</v>
       </c>
       <c r="D11">
         <f>COUNTIF(CSL_Sonuclari!J:J,A11)</f>
@@ -59330,11 +59524,11 @@
       </c>
       <c r="F11" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A11)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="8">
         <f t="shared" si="2"/>
-        <v>329</v>
+        <v>764</v>
       </c>
       <c r="H11">
         <f>COUNTIF(CSL_Sonuclari!C:H,A11)</f>
@@ -59370,7 +59564,7 @@
       </c>
       <c r="P11">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F11,"")</f>
-        <v>329</v>
+        <v>764</v>
       </c>
       <c r="Q11">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D11,"")</f>
@@ -59685,7 +59879,7 @@
       </c>
       <c r="S15">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R15)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -59989,7 +60183,7 @@
       </c>
       <c r="S19">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R19)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -60065,7 +60259,7 @@
       </c>
       <c r="S20">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R20)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -60150,19 +60344,19 @@
       </c>
       <c r="B22">
         <f>COUNTIF(CSL_Sonuclari!C:J,A22)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
-        <v>5453.8222222222221</v>
+        <v>5526.155555555556</v>
       </c>
       <c r="D22">
         <f>COUNTIF(CSL_Sonuclari!J:J,A22)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" si="1"/>
-        <v>612</v>
+        <v>1046</v>
       </c>
       <c r="F22" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A22)</f>
@@ -60210,7 +60404,7 @@
       </c>
       <c r="Q22">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D22,"")</f>
-        <v>612</v>
+        <v>1046</v>
       </c>
       <c r="R22" s="2">
         <v>21</v>
@@ -60454,11 +60648,11 @@
       </c>
       <c r="B26">
         <f>COUNTIF(CSL_Sonuclari!C:J,A26)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26" s="5">
         <f t="shared" si="0"/>
-        <v>4434</v>
+        <v>4728.9023809523815</v>
       </c>
       <c r="D26">
         <f>COUNTIF(CSL_Sonuclari!J:J,A26)</f>
@@ -60478,11 +60672,11 @@
       </c>
       <c r="H26">
         <f>COUNTIF(CSL_Sonuclari!C:H,A26)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I26" s="5">
         <f t="shared" si="3"/>
-        <v>6285.75</v>
+        <v>6728.1035714285717</v>
       </c>
       <c r="J26" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H26,"")</f>
@@ -60494,19 +60688,19 @@
       </c>
       <c r="L26">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H26,"")</f>
-        <v>3528</v>
+        <v>3654</v>
       </c>
       <c r="M26">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H26,"")</f>
-        <v>6020</v>
+        <v>6235</v>
       </c>
       <c r="N26">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H26,"")</f>
-        <v>7622</v>
+        <v>7894.2142857142862</v>
       </c>
       <c r="O26">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H26,"")</f>
-        <v>7973</v>
+        <v>9129.2000000000007</v>
       </c>
       <c r="P26">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F26,"")</f>
@@ -60530,11 +60724,11 @@
       </c>
       <c r="B27">
         <f>COUNTIF(CSL_Sonuclari!C:J,A27)</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C27" s="5">
         <f t="shared" si="0"/>
-        <v>5096.7909090909097</v>
+        <v>5604.333333333333</v>
       </c>
       <c r="D27">
         <f>COUNTIF(CSL_Sonuclari!J:J,A27)</f>
@@ -60554,27 +60748,27 @@
       </c>
       <c r="H27">
         <f>COUNTIF(CSL_Sonuclari!C:H,A27)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I27" s="5">
         <f t="shared" si="3"/>
-        <v>6835.4363636363641</v>
+        <v>7596.75</v>
       </c>
       <c r="J27">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H27,"")</f>
-        <v>6032.727272727273</v>
+        <v>7010</v>
       </c>
       <c r="K27">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H27,"")</f>
-        <v>6065.818181818182</v>
+        <v>7045</v>
       </c>
       <c r="L27">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H27,"")</f>
-        <v>6507.2</v>
+        <v>6972</v>
       </c>
       <c r="M27">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H27,"")</f>
-        <v>8736</v>
+        <v>9360</v>
       </c>
       <c r="N27" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H27,"")</f>
@@ -60758,11 +60952,11 @@
       </c>
       <c r="B30">
         <f>COUNTIF(CSL_Sonuclari!C:J,A30)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C30" s="5">
         <f t="shared" si="0"/>
-        <v>5199.666666666667</v>
+        <v>5425.6623931623935</v>
       </c>
       <c r="D30">
         <f>COUNTIF(CSL_Sonuclari!J:J,A30)</f>
@@ -60782,27 +60976,27 @@
       </c>
       <c r="H30">
         <f>COUNTIF(CSL_Sonuclari!C:H,A30)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I30" s="5">
         <f t="shared" si="3"/>
-        <v>7233.75</v>
+        <v>7572.7435897435898</v>
       </c>
       <c r="J30">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H30,"")</f>
-        <v>4650</v>
+        <v>4805</v>
       </c>
       <c r="K30">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H30,"")</f>
-        <v>8094.9999999999991</v>
+        <v>8756.3076923076915</v>
       </c>
       <c r="L30">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H30,"")</f>
-        <v>8555</v>
+        <v>8840.1666666666679</v>
       </c>
       <c r="M30">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H30,"")</f>
-        <v>7635</v>
+        <v>7889.5</v>
       </c>
       <c r="N30" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H30,"")</f>
@@ -60825,7 +61019,7 @@
       </c>
       <c r="S30">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R30)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -60977,7 +61171,7 @@
       </c>
       <c r="S32">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R32)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
@@ -60986,11 +61180,11 @@
       </c>
       <c r="B33">
         <f>COUNTIF(CSL_Sonuclari!C:J,A33)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C33" s="5">
         <f t="shared" si="0"/>
-        <v>4411.9000000000005</v>
+        <v>4671.3234126984125</v>
       </c>
       <c r="D33">
         <f>COUNTIF(CSL_Sonuclari!J:J,A33)</f>
@@ -61010,19 +61204,19 @@
       </c>
       <c r="H33">
         <f>COUNTIF(CSL_Sonuclari!C:H,A33)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I33" s="5">
         <f t="shared" si="3"/>
-        <v>6079.85</v>
+        <v>6468.9851190476184</v>
       </c>
       <c r="J33">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H33,"")</f>
-        <v>5205.2</v>
+        <v>5735.0952380952376</v>
       </c>
       <c r="K33">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H33,"")</f>
-        <v>6954.5</v>
+        <v>7202.875</v>
       </c>
       <c r="L33" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H33,"")</f>
@@ -61661,7 +61855,7 @@
       </c>
       <c r="S41">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R41)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
@@ -62117,7 +62311,7 @@
       </c>
       <c r="S47">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R47)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -62497,7 +62691,7 @@
       </c>
       <c r="S52">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R52)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
@@ -62506,11 +62700,11 @@
       </c>
       <c r="B53">
         <f>COUNTIF(CSL_Sonuclari!C:J,A53)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C53" s="5">
         <f t="shared" si="4"/>
-        <v>2490.2883116883118</v>
+        <v>2552.2883116883118</v>
       </c>
       <c r="D53">
         <f>COUNTIF(CSL_Sonuclari!J:J,A53)</f>
@@ -62522,11 +62716,11 @@
       </c>
       <c r="F53" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A53)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G53" s="8">
         <f t="shared" si="6"/>
-        <v>800</v>
+        <v>1234</v>
       </c>
       <c r="H53">
         <f>COUNTIF(CSL_Sonuclari!C:H,A53)</f>
@@ -62562,7 +62756,7 @@
       </c>
       <c r="P53">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F53,"")</f>
-        <v>800</v>
+        <v>1234</v>
       </c>
       <c r="Q53">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D53,"")</f>
@@ -62582,11 +62776,11 @@
       </c>
       <c r="B54">
         <f>COUNTIF(CSL_Sonuclari!C:J,A54)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C54" s="5">
         <f t="shared" si="4"/>
-        <v>4385.5357142857147</v>
+        <v>4602.4163614163617</v>
       </c>
       <c r="D54">
         <f>COUNTIF(CSL_Sonuclari!J:J,A54)</f>
@@ -62606,11 +62800,11 @@
       </c>
       <c r="H54">
         <f>COUNTIF(CSL_Sonuclari!C:H,A54)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I54" s="5">
         <f t="shared" si="7"/>
-        <v>6003.0535714285716</v>
+        <v>6328.3745421245421</v>
       </c>
       <c r="J54" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H54,"")</f>
@@ -62618,19 +62812,19 @@
       </c>
       <c r="K54">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H54,"")</f>
-        <v>2541</v>
+        <v>2618</v>
       </c>
       <c r="L54">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H54,"")</f>
-        <v>8063</v>
+        <v>8307.3333333333339</v>
       </c>
       <c r="M54">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H54,"")</f>
-        <v>6291.2142857142853</v>
+        <v>6481.8571428571431</v>
       </c>
       <c r="N54">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H54,"")</f>
-        <v>7117</v>
+        <v>7906.3076923076924</v>
       </c>
       <c r="O54" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H54,"")</f>
@@ -62734,11 +62928,11 @@
       </c>
       <c r="B56">
         <f>COUNTIF(CSL_Sonuclari!C:J,A56)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C56" s="5">
         <f t="shared" si="4"/>
-        <v>4757.0079365079364</v>
+        <v>4991.5714285714284</v>
       </c>
       <c r="D56">
         <f>COUNTIF(CSL_Sonuclari!J:J,A56)</f>
@@ -62758,31 +62952,31 @@
       </c>
       <c r="H56">
         <f>COUNTIF(CSL_Sonuclari!C:H,A56)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I56" s="5">
         <f t="shared" si="7"/>
-        <v>6158.6111111111113</v>
+        <v>6487</v>
       </c>
       <c r="J56">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H56,"")</f>
-        <v>5975</v>
+        <v>6214</v>
       </c>
       <c r="K56">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H56,"")</f>
-        <v>5250</v>
+        <v>5460</v>
       </c>
       <c r="L56">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H56,"")</f>
-        <v>6905.5555555555557</v>
+        <v>7592</v>
       </c>
       <c r="M56">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H56,"")</f>
-        <v>6012.5</v>
+        <v>6253</v>
       </c>
       <c r="N56">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H56,"")</f>
-        <v>6650</v>
+        <v>6916</v>
       </c>
       <c r="O56" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H56,"")</f>
@@ -62886,11 +63080,11 @@
       </c>
       <c r="B58">
         <f>COUNTIF(CSL_Sonuclari!C:J,A58)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58" s="5">
         <f t="shared" si="4"/>
-        <v>4219.1527472527468</v>
+        <v>4429.7428571428572</v>
       </c>
       <c r="D58">
         <f>COUNTIF(CSL_Sonuclari!J:J,A58)</f>
@@ -62910,11 +63104,11 @@
       </c>
       <c r="H58">
         <f>COUNTIF(CSL_Sonuclari!C:H,A58)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I58" s="5">
         <f t="shared" si="7"/>
-        <v>5549.413846153846</v>
+        <v>5844.24</v>
       </c>
       <c r="J58" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H58,"")</f>
@@ -62922,23 +63116,23 @@
       </c>
       <c r="K58">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H58,"")</f>
-        <v>8100</v>
+        <v>8400</v>
       </c>
       <c r="L58">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H58,"")</f>
-        <v>5332.5</v>
+        <v>5530</v>
       </c>
       <c r="M58">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H58,"")</f>
-        <v>3024</v>
+        <v>3136</v>
       </c>
       <c r="N58">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H58,"")</f>
-        <v>5690.7692307692305</v>
+        <v>6348</v>
       </c>
       <c r="O58">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H58,"")</f>
-        <v>5599.8</v>
+        <v>5807.2</v>
       </c>
       <c r="P58">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F58,"")</f>
@@ -63333,7 +63527,7 @@
       </c>
       <c r="S63">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R63)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
@@ -63418,19 +63612,19 @@
       </c>
       <c r="B65">
         <f>COUNTIF(CSL_Sonuclari!C:J,A65)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C65" s="5">
         <f t="shared" si="4"/>
-        <v>4800.5523809523811</v>
+        <v>4887.5523809523811</v>
       </c>
       <c r="D65">
         <f>COUNTIF(CSL_Sonuclari!J:J,A65)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E65" s="5">
         <f t="shared" si="5"/>
-        <v>1012</v>
+        <v>1447</v>
       </c>
       <c r="F65" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A65)</f>
@@ -63478,7 +63672,7 @@
       </c>
       <c r="Q65">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D65,"")</f>
-        <v>1012</v>
+        <v>1447</v>
       </c>
       <c r="R65" s="2">
         <v>64</v>
@@ -63789,7 +63983,7 @@
       </c>
       <c r="S69">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R69)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
@@ -64254,11 +64448,11 @@
       </c>
       <c r="B76">
         <f>COUNTIF(CSL_Sonuclari!C:J,A76)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C76" s="5">
         <f t="shared" si="8"/>
-        <v>6912.2857142857138</v>
+        <v>7181.609375</v>
       </c>
       <c r="D76">
         <f>COUNTIF(CSL_Sonuclari!J:J,A76)</f>
@@ -64278,35 +64472,35 @@
       </c>
       <c r="H76">
         <f>COUNTIF(CSL_Sonuclari!C:H,A76)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I76" s="5">
         <f t="shared" si="11"/>
-        <v>8784.5476190476184</v>
+        <v>9143.6458333333339</v>
       </c>
       <c r="J76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H76,"")</f>
-        <v>10200</v>
+        <v>10500</v>
       </c>
       <c r="K76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H76,"")</f>
-        <v>5274.8571428571431</v>
+        <v>5430</v>
       </c>
       <c r="L76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H76,"")</f>
-        <v>6239</v>
+        <v>6422.5</v>
       </c>
       <c r="M76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H76,"")</f>
-        <v>10059.142857142857</v>
+        <v>10959.375</v>
       </c>
       <c r="N76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H76,"")</f>
-        <v>9272.2857142857138</v>
+        <v>9545</v>
       </c>
       <c r="O76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H76,"")</f>
-        <v>11662</v>
+        <v>12005</v>
       </c>
       <c r="P76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F76,"")</f>
@@ -64625,7 +64819,7 @@
       </c>
       <c r="S80">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R80)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
@@ -64786,11 +64980,11 @@
       </c>
       <c r="B83">
         <f>COUNTIF(CSL_Sonuclari!C:J,A83)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C83" s="5">
         <f t="shared" si="8"/>
-        <v>3500.2626262626268</v>
+        <v>3625.2352941176468</v>
       </c>
       <c r="D83">
         <f>COUNTIF(CSL_Sonuclari!J:J,A83)</f>
@@ -64810,11 +65004,11 @@
       </c>
       <c r="H83">
         <f>COUNTIF(CSL_Sonuclari!C:H,A83)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I83" s="5">
         <f t="shared" si="11"/>
-        <v>4887.8939393939399</v>
+        <v>5075.3529411764703</v>
       </c>
       <c r="J83" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H83,"")</f>
@@ -64826,19 +65020,19 @@
       </c>
       <c r="L83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H83,"")</f>
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="M83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H83,"")</f>
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="N83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H83,"")</f>
-        <v>10095.333333333334</v>
+        <v>10361</v>
       </c>
       <c r="O83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H83,"")</f>
-        <v>8696.242424242424</v>
+        <v>9160.4117647058829</v>
       </c>
       <c r="P83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F83,"")</f>
@@ -65318,11 +65512,11 @@
       </c>
       <c r="B90">
         <f>COUNTIF(CSL_Sonuclari!C:J,A90)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C90" s="5">
         <f t="shared" si="8"/>
-        <v>3854.3147435897436</v>
+        <v>4122.3926282051289</v>
       </c>
       <c r="D90">
         <f>COUNTIF(CSL_Sonuclari!J:J,A90)</f>
@@ -65342,35 +65536,35 @@
       </c>
       <c r="H90">
         <f>COUNTIF(CSL_Sonuclari!C:H,A90)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I90" s="5">
         <f t="shared" si="11"/>
-        <v>4788.0863247863244</v>
+        <v>5145.5235042735048</v>
       </c>
       <c r="J90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H90,"")</f>
-        <v>4621.3846153846162</v>
+        <v>4757.3076923076924</v>
       </c>
       <c r="K90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H90,"")</f>
-        <v>9191.3333333333321</v>
+        <v>9461.6666666666661</v>
       </c>
       <c r="L90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H90,"")</f>
-        <v>7214.7999999999993</v>
+        <v>8726.6666666666679</v>
       </c>
       <c r="M90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H90,"")</f>
-        <v>7055</v>
+        <v>7262.5</v>
       </c>
       <c r="N90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H90,"")</f>
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="O90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H90,"")</f>
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="P90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F90,"")</f>
@@ -65385,7 +65579,7 @@
       </c>
       <c r="S90">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R90)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
@@ -67693,7 +67887,7 @@
       </c>
       <c r="B8">
         <f>COUNTIF(SL_Sonuclari!C:H,A8)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" si="0"/>
@@ -67792,15 +67986,15 @@
       </c>
       <c r="B11">
         <f>COUNTIF(SL_Sonuclari!C:H,A11)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="0"/>
-        <v>151.80357142857142</v>
+        <v>157.31071428571425</v>
       </c>
       <c r="D11">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A11,SL_Sonuclari!A:A),"")</f>
-        <v>104.57142857142857</v>
+        <v>126.6</v>
       </c>
       <c r="E11">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A11,SL_Sonuclari!A:A),"")</f>
@@ -67957,11 +68151,11 @@
       </c>
       <c r="B16">
         <f>COUNTIF(SL_Sonuclari!C:H,A16)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
-        <v>197.7915873015873</v>
+        <v>200.59451127819548</v>
       </c>
       <c r="D16">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A16,SL_Sonuclari!A:A),"")</f>
@@ -67973,7 +68167,7 @@
       </c>
       <c r="F16">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A16,SL_Sonuclari!A:A),"")</f>
-        <v>167.72222222222223</v>
+        <v>181.73684210526315</v>
       </c>
       <c r="G16">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A16,SL_Sonuclari!A:A),"")</f>
@@ -68023,11 +68217,11 @@
       </c>
       <c r="B18">
         <f>COUNTIF(SL_Sonuclari!C:H,A18)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="0"/>
-        <v>157.5090579710145</v>
+        <v>160.69444444444446</v>
       </c>
       <c r="D18" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A18,SL_Sonuclari!A:A),"")</f>
@@ -68047,7 +68241,7 @@
       </c>
       <c r="H18">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A18,SL_Sonuclari!A:A),"")</f>
-        <v>203.65217391304347</v>
+        <v>213.20833333333334</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -68155,7 +68349,7 @@
       </c>
       <c r="B22">
         <f>COUNTIF(SL_Sonuclari!C:H,A22)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
@@ -68188,11 +68382,11 @@
       </c>
       <c r="B23">
         <f>COUNTIF(SL_Sonuclari!C:H,A23)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
-        <v>209.67946428571429</v>
+        <v>214.42037337662339</v>
       </c>
       <c r="D23" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A23,SL_Sonuclari!A:A),"")</f>
@@ -68204,7 +68398,7 @@
       </c>
       <c r="F23">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A23,SL_Sonuclari!A:A),"")</f>
-        <v>224.4</v>
+        <v>243.36363636363637</v>
       </c>
       <c r="G23">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A23,SL_Sonuclari!A:A),"")</f>
@@ -68320,11 +68514,11 @@
       </c>
       <c r="B27">
         <f>COUNTIF(SL_Sonuclari!C:H,A27)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27" s="5">
         <f t="shared" si="0"/>
-        <v>180.13636363636363</v>
+        <v>187</v>
       </c>
       <c r="D27" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A27,SL_Sonuclari!A:A),"")</f>
@@ -68344,7 +68538,7 @@
       </c>
       <c r="H27">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A27,SL_Sonuclari!A:A),"")</f>
-        <v>270.27272727272725</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -68386,7 +68580,7 @@
       </c>
       <c r="B29">
         <f>COUNTIF(SL_Sonuclari!C:H,A29)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C29" s="5">
         <f t="shared" si="0"/>
@@ -68419,11 +68613,11 @@
       </c>
       <c r="B30">
         <f>COUNTIF(SL_Sonuclari!C:H,A30)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30" s="5">
         <f t="shared" si="0"/>
-        <v>197.44880952380953</v>
+        <v>199.15833333333336</v>
       </c>
       <c r="D30">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A30,SL_Sonuclari!A:A),"")</f>
@@ -68439,7 +68633,7 @@
       </c>
       <c r="G30">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A30,SL_Sonuclari!A:A),"")</f>
-        <v>305.78571428571428</v>
+        <v>314.33333333333331</v>
       </c>
       <c r="H30">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A30,SL_Sonuclari!A:A),"")</f>
@@ -68485,11 +68679,11 @@
       </c>
       <c r="B32">
         <f>COUNTIF(SL_Sonuclari!C:H,A32)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C32" s="5">
         <f t="shared" si="0"/>
-        <v>225.02884615384616</v>
+        <v>295.01923076923077</v>
       </c>
       <c r="D32" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A32,SL_Sonuclari!A:A),"")</f>
@@ -68499,9 +68693,9 @@
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A32,SL_Sonuclari!A:A),"")</f>
         <v/>
       </c>
-      <c r="F32" t="str">
+      <c r="F32">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A32,SL_Sonuclari!A:A),"")</f>
-        <v/>
+        <v>435</v>
       </c>
       <c r="G32">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A32,SL_Sonuclari!A:A),"")</f>
@@ -68551,11 +68745,11 @@
       </c>
       <c r="B34">
         <f>COUNTIF(SL_Sonuclari!C:H,A34)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C34" s="5">
         <f t="shared" ref="C34:C61" si="1">AVERAGE(D34:H34)</f>
-        <v>277.10606060606057</v>
+        <v>285.08754208754209</v>
       </c>
       <c r="D34" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A34,SL_Sonuclari!A:A),"")</f>
@@ -68571,7 +68765,7 @@
       </c>
       <c r="G34">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A34,SL_Sonuclari!A:A),"")</f>
-        <v>219.5</v>
+        <v>243.44444444444446</v>
       </c>
       <c r="H34">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A34,SL_Sonuclari!A:A),"")</f>
@@ -68650,15 +68844,15 @@
       </c>
       <c r="B37">
         <f>COUNTIF(SL_Sonuclari!C:H,A37)</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37" s="5">
         <f t="shared" si="1"/>
-        <v>191.60685483870967</v>
+        <v>193.67708333333334</v>
       </c>
       <c r="D37">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A37,SL_Sonuclari!A:A),"")</f>
-        <v>235.25806451612902</v>
+        <v>241.46875</v>
       </c>
       <c r="E37">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A37,SL_Sonuclari!A:A),"")</f>
@@ -68683,11 +68877,11 @@
       </c>
       <c r="B38">
         <f>COUNTIF(SL_Sonuclari!C:H,A38)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C38" s="5">
         <f t="shared" si="1"/>
-        <v>223.12888888888892</v>
+        <v>226.23055555555555</v>
       </c>
       <c r="D38">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A38,SL_Sonuclari!A:A),"")</f>
@@ -68695,7 +68889,7 @@
       </c>
       <c r="E38">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A38,SL_Sonuclari!A:A),"")</f>
-        <v>184.86666666666667</v>
+        <v>200.375</v>
       </c>
       <c r="F38">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A38,SL_Sonuclari!A:A),"")</f>
@@ -68749,11 +68943,11 @@
       </c>
       <c r="B40">
         <f>COUNTIF(SL_Sonuclari!C:H,A40)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C40" s="5">
         <f t="shared" si="1"/>
-        <v>220.98839009287926</v>
+        <v>226.34950120399037</v>
       </c>
       <c r="D40" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A40,SL_Sonuclari!A:A),"")</f>
@@ -68773,7 +68967,7 @@
       </c>
       <c r="H40">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A40,SL_Sonuclari!A:A),"")</f>
-        <v>241</v>
+        <v>262.44444444444446</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -69046,11 +69240,11 @@
       </c>
       <c r="B49">
         <f>COUNTIF(SL_Sonuclari!C:H,A49)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C49" s="5">
         <f t="shared" si="1"/>
-        <v>223.01821428571429</v>
+        <v>231.37178571428572</v>
       </c>
       <c r="D49">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A49,SL_Sonuclari!A:A),"")</f>
@@ -69058,7 +69252,7 @@
       </c>
       <c r="E49">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A49,SL_Sonuclari!A:A),"")</f>
-        <v>100.85714285714286</v>
+        <v>142.625</v>
       </c>
       <c r="F49">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A49,SL_Sonuclari!A:A),"")</f>
@@ -69178,11 +69372,11 @@
       </c>
       <c r="B53">
         <f>COUNTIF(SL_Sonuclari!C:H,A53)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C53" s="5">
         <f t="shared" si="1"/>
-        <v>244.52380952380955</v>
+        <v>247.10494987468672</v>
       </c>
       <c r="D53">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A53,SL_Sonuclari!A:A),"")</f>
@@ -69190,7 +69384,7 @@
       </c>
       <c r="E53">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A53,SL_Sonuclari!A:A),"")</f>
-        <v>237.83333333333334</v>
+        <v>248.15789473684211</v>
       </c>
       <c r="F53">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A53,SL_Sonuclari!A:A),"")</f>
@@ -69211,11 +69405,11 @@
       </c>
       <c r="B54">
         <f>COUNTIF(SL_Sonuclari!C:H,A54)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C54" s="5">
         <f t="shared" si="1"/>
-        <v>246.75</v>
+        <v>249.20555555555552</v>
       </c>
       <c r="D54">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A54,SL_Sonuclari!A:A),"")</f>
@@ -69231,7 +69425,7 @@
       </c>
       <c r="G54">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A54,SL_Sonuclari!A:A),"")</f>
-        <v>322.5</v>
+        <v>334.77777777777777</v>
       </c>
       <c r="H54">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A54,SL_Sonuclari!A:A),"")</f>
@@ -69277,15 +69471,15 @@
       </c>
       <c r="B56">
         <f>COUNTIF(SL_Sonuclari!C:H,A56)</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C56" s="5">
         <f t="shared" si="1"/>
-        <v>243.63733974358973</v>
+        <v>249.18961247086247</v>
       </c>
       <c r="D56">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A56,SL_Sonuclari!A:A),"")</f>
-        <v>188.7</v>
+        <v>210.90909090909091</v>
       </c>
       <c r="E56">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A56,SL_Sonuclari!A:A),"")</f>

--- a/SLIStatistik.xlsx
+++ b/SLIStatistik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\ReadExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95940AB0-7200-483B-86EF-67656DE6F236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95437727-D05E-41B6-98D4-3C6F67EB6025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
   </bookViews>
   <sheets>
     <sheet name="CSL_Sonuclari" sheetId="2" r:id="rId1"/>
@@ -612,13 +612,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21120D27-1448-4179-993C-6B3BE739480A}">
-  <dimension ref="A1:J437"/>
+  <dimension ref="A1:J438"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B417" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A438" sqref="A438"/>
+      <selection pane="bottomRight" activeCell="A439" sqref="A439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14019,6 +14019,38 @@
       </c>
       <c r="J437" s="2">
         <v>84</v>
+      </c>
+    </row>
+    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A438" s="2">
+        <v>436</v>
+      </c>
+      <c r="B438" s="1">
+        <v>45068</v>
+      </c>
+      <c r="C438" s="2">
+        <v>18</v>
+      </c>
+      <c r="D438" s="2">
+        <v>36</v>
+      </c>
+      <c r="E438" s="2">
+        <v>45</v>
+      </c>
+      <c r="F438" s="2">
+        <v>48</v>
+      </c>
+      <c r="G438" s="2">
+        <v>49</v>
+      </c>
+      <c r="H438" s="2">
+        <v>69</v>
+      </c>
+      <c r="I438" s="2">
+        <v>58</v>
+      </c>
+      <c r="J438" s="2">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -25417,7 +25449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4513EEF-0F11-4AC5-A4C7-CB00A18EA83B}">
   <dimension ref="A1:H1281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1251" workbookViewId="0">
+    <sheetView topLeftCell="A1251" workbookViewId="0">
       <selection activeCell="C1282" sqref="C1282"/>
     </sheetView>
   </sheetViews>
@@ -59812,11 +59844,11 @@
       </c>
       <c r="B15">
         <f>COUNTIF(CSL_Sonuclari!C:J,A15)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="0"/>
-        <v>3828.8571428571427</v>
+        <v>4041.238095238095</v>
       </c>
       <c r="D15">
         <f>COUNTIF(CSL_Sonuclari!J:J,A15)</f>
@@ -59836,31 +59868,31 @@
       </c>
       <c r="H15">
         <f>COUNTIF(CSL_Sonuclari!C:H,A15)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I15" s="5">
         <f t="shared" si="3"/>
-        <v>5129</v>
+        <v>5426.333333333333</v>
       </c>
       <c r="J15">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H15,"")</f>
-        <v>4469.666666666667</v>
+        <v>4664</v>
       </c>
       <c r="K15">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H15,"")</f>
-        <v>6822.375</v>
+        <v>7490.6666666666661</v>
       </c>
       <c r="L15">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H15,"")</f>
-        <v>5206.625</v>
+        <v>5433</v>
       </c>
       <c r="M15">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H15,"")</f>
-        <v>5558.333333333333</v>
+        <v>5800</v>
       </c>
       <c r="N15">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H15,"")</f>
-        <v>3588</v>
+        <v>3744</v>
       </c>
       <c r="O15" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H15,"")</f>
@@ -60183,7 +60215,7 @@
       </c>
       <c r="S19">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R19)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -60420,11 +60452,11 @@
       </c>
       <c r="B23">
         <f>COUNTIF(CSL_Sonuclari!C:J,A23)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
-        <v>4815.6157407407409</v>
+        <v>4888.2824074074078</v>
       </c>
       <c r="D23">
         <f>COUNTIF(CSL_Sonuclari!J:J,A23)</f>
@@ -60436,11 +60468,11 @@
       </c>
       <c r="F23" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A23)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G23" s="8">
         <f t="shared" si="2"/>
-        <v>1240</v>
+        <v>1676</v>
       </c>
       <c r="H23">
         <f>COUNTIF(CSL_Sonuclari!C:H,A23)</f>
@@ -60476,7 +60508,7 @@
       </c>
       <c r="P23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F23,"")</f>
-        <v>1240</v>
+        <v>1676</v>
       </c>
       <c r="Q23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D23,"")</f>
@@ -60648,19 +60680,19 @@
       </c>
       <c r="B26">
         <f>COUNTIF(CSL_Sonuclari!C:J,A26)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26" s="5">
         <f t="shared" si="0"/>
-        <v>4728.9023809523815</v>
+        <v>4801.5690476190475</v>
       </c>
       <c r="D26">
         <f>COUNTIF(CSL_Sonuclari!J:J,A26)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" si="1"/>
-        <v>659</v>
+        <v>1095</v>
       </c>
       <c r="F26" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A26)</f>
@@ -60708,7 +60740,7 @@
       </c>
       <c r="Q26">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D26,"")</f>
-        <v>659</v>
+        <v>1095</v>
       </c>
       <c r="R26" s="2">
         <v>25</v>
@@ -61484,11 +61516,11 @@
       </c>
       <c r="B37">
         <f>COUNTIF(CSL_Sonuclari!C:J,A37)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C37" s="5">
         <f t="shared" si="4"/>
-        <v>4746.6499999999996</v>
+        <v>5077.4940476190477</v>
       </c>
       <c r="D37">
         <f>COUNTIF(CSL_Sonuclari!J:J,A37)</f>
@@ -61508,35 +61540,35 @@
       </c>
       <c r="H37">
         <f>COUNTIF(CSL_Sonuclari!C:H,A37)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I37" s="5">
         <f t="shared" si="7"/>
-        <v>6129.8666666666659</v>
+        <v>6570.9920634920636</v>
       </c>
       <c r="J37">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H37,"")</f>
-        <v>9648</v>
+        <v>10050</v>
       </c>
       <c r="K37">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H37,"")</f>
-        <v>3016</v>
+        <v>3141.666666666667</v>
       </c>
       <c r="L37">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H37,"")</f>
-        <v>5323.2000000000007</v>
+        <v>5545</v>
       </c>
       <c r="M37">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H37,"")</f>
-        <v>2976</v>
+        <v>4214.2857142857147</v>
       </c>
       <c r="N37">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H37,"")</f>
-        <v>6720</v>
+        <v>7000</v>
       </c>
       <c r="O37">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H37,"")</f>
-        <v>9096</v>
+        <v>9475</v>
       </c>
       <c r="P37">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F37,"")</f>
@@ -61551,7 +61583,7 @@
       </c>
       <c r="S37">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R37)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -62235,7 +62267,7 @@
       </c>
       <c r="S46">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R46)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
@@ -62463,7 +62495,7 @@
       </c>
       <c r="S49">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R49)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
@@ -62539,7 +62571,7 @@
       </c>
       <c r="S50">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R50)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
@@ -63004,11 +63036,11 @@
       </c>
       <c r="B57">
         <f>COUNTIF(CSL_Sonuclari!C:J,A57)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C57" s="5">
         <f t="shared" si="4"/>
-        <v>5748.0603751803756</v>
+        <v>6057.7747619047614</v>
       </c>
       <c r="D57">
         <f>COUNTIF(CSL_Sonuclari!J:J,A57)</f>
@@ -63028,11 +63060,11 @@
       </c>
       <c r="H57">
         <f>COUNTIF(CSL_Sonuclari!C:H,A57)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I57" s="5">
         <f t="shared" si="7"/>
-        <v>6982.5754689754694</v>
+        <v>7369.7184523809519</v>
       </c>
       <c r="J57" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H57,"")</f>
@@ -63040,19 +63072,19 @@
       </c>
       <c r="K57">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H57,"")</f>
-        <v>8006.4</v>
+        <v>8256.6</v>
       </c>
       <c r="L57">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H57,"")</f>
-        <v>6088.727272727273</v>
+        <v>6954.75</v>
       </c>
       <c r="M57">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H57,"")</f>
-        <v>7256.8888888888887</v>
+        <v>7483.6666666666661</v>
       </c>
       <c r="N57">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H57,"")</f>
-        <v>6578.2857142857147</v>
+        <v>6783.8571428571431</v>
       </c>
       <c r="O57" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H57,"")</f>
@@ -63223,7 +63255,7 @@
       </c>
       <c r="S59">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R59)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
@@ -63764,11 +63796,11 @@
       </c>
       <c r="B67">
         <f>COUNTIF(CSL_Sonuclari!C:J,A67)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C67" s="5">
         <f t="shared" si="8"/>
-        <v>5648.1873015873016</v>
+        <v>5895.416666666667</v>
       </c>
       <c r="D67">
         <f>COUNTIF(CSL_Sonuclari!J:J,A67)</f>
@@ -63788,11 +63820,11 @@
       </c>
       <c r="H67">
         <f>COUNTIF(CSL_Sonuclari!C:H,A67)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I67" s="5">
         <f t="shared" si="11"/>
-        <v>8017.2809523809528</v>
+        <v>8388.125</v>
       </c>
       <c r="J67" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H67,"")</f>
@@ -63800,7 +63832,7 @@
       </c>
       <c r="K67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H67,"")</f>
-        <v>8364</v>
+        <v>8610</v>
       </c>
       <c r="L67" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H67,"")</f>
@@ -63808,15 +63840,15 @@
       </c>
       <c r="M67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H67,"")</f>
-        <v>6184.6</v>
+        <v>6366.5</v>
       </c>
       <c r="N67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H67,"")</f>
-        <v>7943.8571428571431</v>
+        <v>8177.5</v>
       </c>
       <c r="O67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H67,"")</f>
-        <v>9576.6666666666679</v>
+        <v>10398.5</v>
       </c>
       <c r="P67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F67,"")</f>
@@ -63992,11 +64024,11 @@
       </c>
       <c r="B70">
         <f>COUNTIF(CSL_Sonuclari!C:J,A70)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C70" s="5">
         <f t="shared" si="8"/>
-        <v>4752.0519480519479</v>
+        <v>5067.079220779221</v>
       </c>
       <c r="D70">
         <f>COUNTIF(CSL_Sonuclari!J:J,A70)</f>
@@ -64016,11 +64048,11 @@
       </c>
       <c r="H70">
         <f>COUNTIF(CSL_Sonuclari!C:H,A70)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I70" s="5">
         <f t="shared" si="11"/>
-        <v>6230.0727272727272</v>
+        <v>6671.1109090909104</v>
       </c>
       <c r="J70" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H70,"")</f>
@@ -64028,23 +64060,23 @@
       </c>
       <c r="K70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H70,"")</f>
-        <v>7583.3333333333339</v>
+        <v>7875.0000000000009</v>
       </c>
       <c r="L70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H70,"")</f>
-        <v>5566.363636363636</v>
+        <v>5780.454545454546</v>
       </c>
       <c r="M70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H70,"")</f>
-        <v>5312.666666666667</v>
+        <v>5517</v>
       </c>
       <c r="N70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H70,"")</f>
-        <v>6487</v>
+        <v>7743.6</v>
       </c>
       <c r="O70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H70,"")</f>
-        <v>6201</v>
+        <v>6439.5</v>
       </c>
       <c r="P70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F70,"")</f>
@@ -64059,7 +64091,7 @@
       </c>
       <c r="S70">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R70)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
@@ -65512,11 +65544,11 @@
       </c>
       <c r="B90">
         <f>COUNTIF(CSL_Sonuclari!C:J,A90)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C90" s="5">
         <f t="shared" si="8"/>
-        <v>4122.3926282051289</v>
+        <v>4329.1071428571431</v>
       </c>
       <c r="D90">
         <f>COUNTIF(CSL_Sonuclari!J:J,A90)</f>
@@ -65536,35 +65568,35 @@
       </c>
       <c r="H90">
         <f>COUNTIF(CSL_Sonuclari!C:H,A90)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I90" s="5">
         <f t="shared" si="11"/>
-        <v>5145.5235042735048</v>
+        <v>5421.1428571428578</v>
       </c>
       <c r="J90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H90,"")</f>
-        <v>4757.3076923076924</v>
+        <v>5664.8571428571431</v>
       </c>
       <c r="K90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H90,"")</f>
-        <v>9461.6666666666661</v>
+        <v>9732</v>
       </c>
       <c r="L90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H90,"")</f>
-        <v>8726.6666666666679</v>
+        <v>8976</v>
       </c>
       <c r="M90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H90,"")</f>
-        <v>7262.5</v>
+        <v>7470</v>
       </c>
       <c r="N90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H90,"")</f>
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="O90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H90,"")</f>
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="P90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F90,"")</f>

--- a/SLIStatistik.xlsx
+++ b/SLIStatistik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\ReadExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95437727-D05E-41B6-98D4-3C6F67EB6025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05345F1-3D56-41A6-879D-D22CDA392BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
   </bookViews>
@@ -612,13 +612,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21120D27-1448-4179-993C-6B3BE739480A}">
-  <dimension ref="A1:J438"/>
+  <dimension ref="A1:J441"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B417" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A439" sqref="A439"/>
+      <selection pane="bottomRight" activeCell="A442" sqref="A442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14053,6 +14053,102 @@
         <v>68</v>
       </c>
     </row>
+    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A439" s="2">
+        <v>437</v>
+      </c>
+      <c r="B439" s="1">
+        <v>45070</v>
+      </c>
+      <c r="C439" s="2">
+        <v>11</v>
+      </c>
+      <c r="D439" s="2">
+        <v>37</v>
+      </c>
+      <c r="E439" s="2">
+        <v>38</v>
+      </c>
+      <c r="F439" s="2">
+        <v>40</v>
+      </c>
+      <c r="G439" s="2">
+        <v>49</v>
+      </c>
+      <c r="H439" s="2">
+        <v>78</v>
+      </c>
+      <c r="I439" s="2">
+        <v>59</v>
+      </c>
+      <c r="J439" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A440" s="2">
+        <v>438</v>
+      </c>
+      <c r="B440" s="1">
+        <v>45073</v>
+      </c>
+      <c r="C440" s="2">
+        <v>20</v>
+      </c>
+      <c r="D440" s="2">
+        <v>22</v>
+      </c>
+      <c r="E440" s="2">
+        <v>32</v>
+      </c>
+      <c r="F440" s="2">
+        <v>46</v>
+      </c>
+      <c r="G440" s="2">
+        <v>56</v>
+      </c>
+      <c r="H440" s="2">
+        <v>75</v>
+      </c>
+      <c r="I440" s="2">
+        <v>66</v>
+      </c>
+      <c r="J440" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A441" s="2">
+        <v>439</v>
+      </c>
+      <c r="B441" s="1">
+        <v>45075</v>
+      </c>
+      <c r="C441" s="2">
+        <v>8</v>
+      </c>
+      <c r="D441" s="2">
+        <v>15</v>
+      </c>
+      <c r="E441" s="2">
+        <v>47</v>
+      </c>
+      <c r="F441" s="2">
+        <v>63</v>
+      </c>
+      <c r="G441" s="2">
+        <v>69</v>
+      </c>
+      <c r="H441" s="2">
+        <v>86</v>
+      </c>
+      <c r="I441" s="2">
+        <v>18</v>
+      </c>
+      <c r="J441" s="2">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J311">
     <sortCondition ref="B2:B311"/>
@@ -14064,10 +14160,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8BCBFC-83B0-4863-9D9A-FF955DDDA58C}">
-  <dimension ref="A1:H437"/>
+  <dimension ref="A1:H440"/>
   <sheetViews>
-    <sheetView topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="A438" sqref="A438"/>
+    <sheetView topLeftCell="A406" workbookViewId="0">
+      <selection activeCell="A441" sqref="A441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25437,6 +25533,84 @@
         <v>57</v>
       </c>
     </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>436</v>
+      </c>
+      <c r="B438" s="1">
+        <v>45069</v>
+      </c>
+      <c r="C438">
+        <v>1</v>
+      </c>
+      <c r="D438">
+        <v>19</v>
+      </c>
+      <c r="E438">
+        <v>21</v>
+      </c>
+      <c r="F438">
+        <v>37</v>
+      </c>
+      <c r="G438">
+        <v>41</v>
+      </c>
+      <c r="H438">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>437</v>
+      </c>
+      <c r="B439" s="1">
+        <v>45071</v>
+      </c>
+      <c r="C439">
+        <v>1</v>
+      </c>
+      <c r="D439">
+        <v>17</v>
+      </c>
+      <c r="E439">
+        <v>38</v>
+      </c>
+      <c r="F439">
+        <v>41</v>
+      </c>
+      <c r="G439">
+        <v>52</v>
+      </c>
+      <c r="H439">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>438</v>
+      </c>
+      <c r="B440" s="1">
+        <v>45074</v>
+      </c>
+      <c r="C440">
+        <v>9</v>
+      </c>
+      <c r="D440">
+        <v>24</v>
+      </c>
+      <c r="E440">
+        <v>28</v>
+      </c>
+      <c r="F440">
+        <v>38</v>
+      </c>
+      <c r="G440">
+        <v>41</v>
+      </c>
+      <c r="H440">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H311">
     <sortCondition ref="B2:B311"/>
@@ -25447,10 +25621,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4513EEF-0F11-4AC5-A4C7-CB00A18EA83B}">
-  <dimension ref="A1:H1281"/>
+  <dimension ref="A1:H1283"/>
   <sheetViews>
     <sheetView topLeftCell="A1251" workbookViewId="0">
-      <selection activeCell="C1282" sqref="C1282"/>
+      <selection activeCell="A1284" sqref="A1284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58762,6 +58936,58 @@
       </c>
       <c r="H1281">
         <v>7</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1282">
+        <v>1671</v>
+      </c>
+      <c r="B1282" s="1">
+        <v>45070</v>
+      </c>
+      <c r="C1282">
+        <v>5</v>
+      </c>
+      <c r="D1282">
+        <v>10</v>
+      </c>
+      <c r="E1282">
+        <v>24</v>
+      </c>
+      <c r="F1282">
+        <v>25</v>
+      </c>
+      <c r="G1282">
+        <v>29</v>
+      </c>
+      <c r="H1282">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1283">
+        <v>1672</v>
+      </c>
+      <c r="B1283" s="1">
+        <v>45074</v>
+      </c>
+      <c r="C1283">
+        <v>8</v>
+      </c>
+      <c r="D1283">
+        <v>17</v>
+      </c>
+      <c r="E1283">
+        <v>23</v>
+      </c>
+      <c r="F1283">
+        <v>29</v>
+      </c>
+      <c r="G1283">
+        <v>31</v>
+      </c>
+      <c r="H1283">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -59455,7 +59681,7 @@
       </c>
       <c r="S9">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R9)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -59683,7 +59909,7 @@
       </c>
       <c r="S12">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R12)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -59768,11 +59994,11 @@
       </c>
       <c r="B14">
         <f>COUNTIF(CSL_Sonuclari!C:J,A14)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="0"/>
-        <v>5695.8316326530612</v>
+        <v>5973.197802197802</v>
       </c>
       <c r="D14">
         <f>COUNTIF(CSL_Sonuclari!J:J,A14)</f>
@@ -59792,31 +60018,31 @@
       </c>
       <c r="H14">
         <f>COUNTIF(CSL_Sonuclari!C:H,A14)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" si="3"/>
-        <v>7746.3642857142859</v>
+        <v>8134.6769230769232</v>
       </c>
       <c r="J14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H14,"")</f>
-        <v>10570.5</v>
+        <v>10962</v>
       </c>
       <c r="K14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H14,"")</f>
-        <v>7085.5714285714294</v>
+        <v>7348</v>
       </c>
       <c r="L14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H14,"")</f>
-        <v>5442.75</v>
+        <v>6151.3846153846152</v>
       </c>
       <c r="M14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H14,"")</f>
-        <v>6169.5</v>
+        <v>6398</v>
       </c>
       <c r="N14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H14,"")</f>
-        <v>9463.5</v>
+        <v>9814</v>
       </c>
       <c r="O14" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H14,"")</f>
@@ -59987,7 +60213,7 @@
       </c>
       <c r="S16">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R16)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -60072,11 +60298,11 @@
       </c>
       <c r="B18">
         <f>COUNTIF(CSL_Sonuclari!C:J,A18)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="0"/>
-        <v>3088.3485714285716</v>
+        <v>3318.3714285714291</v>
       </c>
       <c r="D18">
         <f>COUNTIF(CSL_Sonuclari!J:J,A18)</f>
@@ -60096,11 +60322,11 @@
       </c>
       <c r="H18">
         <f>COUNTIF(CSL_Sonuclari!C:H,A18)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I18" s="5">
         <f t="shared" si="3"/>
-        <v>4680.9142857142861</v>
+        <v>5064.2857142857147</v>
       </c>
       <c r="J18" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H18,"")</f>
@@ -60116,15 +60342,15 @@
       </c>
       <c r="M18">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H18,"")</f>
-        <v>5756.5714285714284</v>
+        <v>5996.4285714285716</v>
       </c>
       <c r="N18">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H18,"")</f>
-        <v>3740.5714285714284</v>
+        <v>3896.4285714285716</v>
       </c>
       <c r="O18">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H18,"")</f>
-        <v>4545.6000000000004</v>
+        <v>5300</v>
       </c>
       <c r="P18">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F18,"")</f>
@@ -60215,7 +60441,7 @@
       </c>
       <c r="S19">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R19)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -60367,7 +60593,7 @@
       </c>
       <c r="S21">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R21)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -60376,11 +60602,11 @@
       </c>
       <c r="B22">
         <f>COUNTIF(CSL_Sonuclari!C:J,A22)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
-        <v>5526.155555555556</v>
+        <v>5599.155555555556</v>
       </c>
       <c r="D22">
         <f>COUNTIF(CSL_Sonuclari!J:J,A22)</f>
@@ -60392,11 +60618,11 @@
       </c>
       <c r="F22" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A22)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" s="8">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>526</v>
       </c>
       <c r="H22">
         <f>COUNTIF(CSL_Sonuclari!C:H,A22)</f>
@@ -60432,7 +60658,7 @@
       </c>
       <c r="P22">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F22,"")</f>
-        <v>88</v>
+        <v>526</v>
       </c>
       <c r="Q22">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D22,"")</f>
@@ -60519,7 +60745,7 @@
       </c>
       <c r="S23">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R23)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -61060,11 +61286,11 @@
       </c>
       <c r="B31">
         <f>COUNTIF(CSL_Sonuclari!C:J,A31)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31" s="5">
         <f t="shared" si="0"/>
-        <v>4814.4835164835167</v>
+        <v>5031.0094191522758</v>
       </c>
       <c r="D31">
         <f>COUNTIF(CSL_Sonuclari!J:J,A31)</f>
@@ -61084,15 +61310,15 @@
       </c>
       <c r="H31">
         <f>COUNTIF(CSL_Sonuclari!C:H,A31)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I31" s="5">
         <f t="shared" si="3"/>
-        <v>6556.6769230769232</v>
+        <v>6859.8131868131868</v>
       </c>
       <c r="J31">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H31,"")</f>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K31" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H31,"")</f>
@@ -61100,19 +61326,19 @@
       </c>
       <c r="L31">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H31,"")</f>
-        <v>11774</v>
+        <v>12180</v>
       </c>
       <c r="M31">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H31,"")</f>
-        <v>7685</v>
+        <v>7950</v>
       </c>
       <c r="N31">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H31,"")</f>
-        <v>5777.6923076923076</v>
+        <v>5976.9230769230771</v>
       </c>
       <c r="O31">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H31,"")</f>
-        <v>7459.6923076923076</v>
+        <v>8102.1428571428569</v>
       </c>
       <c r="P31">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F31,"")</f>
@@ -61136,27 +61362,27 @@
       </c>
       <c r="B32">
         <f>COUNTIF(CSL_Sonuclari!C:J,A32)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C32" s="5">
         <f t="shared" si="0"/>
-        <v>3713.0527210884352</v>
+        <v>3838.1955782312921</v>
       </c>
       <c r="D32">
         <f>COUNTIF(CSL_Sonuclari!J:J,A32)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E32" s="5">
         <f t="shared" si="1"/>
-        <v>1070</v>
+        <v>1509</v>
       </c>
       <c r="F32" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A32)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G32" s="8">
         <f t="shared" si="2"/>
-        <v>380</v>
+        <v>817</v>
       </c>
       <c r="H32">
         <f>COUNTIF(CSL_Sonuclari!C:H,A32)</f>
@@ -61192,11 +61418,11 @@
       </c>
       <c r="P32">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F32,"")</f>
-        <v>380</v>
+        <v>817</v>
       </c>
       <c r="Q32">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D32,"")</f>
-        <v>1070</v>
+        <v>1509</v>
       </c>
       <c r="R32" s="2">
         <v>31</v>
@@ -61279,7 +61505,7 @@
       </c>
       <c r="S33">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R33)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
@@ -61364,11 +61590,11 @@
       </c>
       <c r="B35">
         <f>COUNTIF(CSL_Sonuclari!C:J,A35)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C35" s="5">
         <f t="shared" si="4"/>
-        <v>4431.6958333333341</v>
+        <v>4782.7746031746037</v>
       </c>
       <c r="D35">
         <f>COUNTIF(CSL_Sonuclari!J:J,A35)</f>
@@ -61388,11 +61614,11 @@
       </c>
       <c r="H35">
         <f>COUNTIF(CSL_Sonuclari!C:H,A35)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I35" s="5">
         <f t="shared" si="7"/>
-        <v>6257.5437500000007</v>
+        <v>6784.1619047619051</v>
       </c>
       <c r="J35" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H35,"")</f>
@@ -61404,19 +61630,19 @@
       </c>
       <c r="L35">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H35,"")</f>
-        <v>9768.875</v>
+        <v>10084</v>
       </c>
       <c r="M35">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H35,"")</f>
-        <v>4799.8333333333339</v>
+        <v>6253.7142857142853</v>
       </c>
       <c r="N35">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H35,"")</f>
-        <v>7175.4666666666672</v>
+        <v>7406.9333333333334</v>
       </c>
       <c r="O35">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H35,"")</f>
-        <v>3286</v>
+        <v>3392</v>
       </c>
       <c r="P35">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F35,"")</f>
@@ -61659,7 +61885,7 @@
       </c>
       <c r="S38">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R38)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
@@ -61735,7 +61961,7 @@
       </c>
       <c r="S39">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R39)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -61887,7 +62113,7 @@
       </c>
       <c r="S41">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R41)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
@@ -61972,11 +62198,11 @@
       </c>
       <c r="B43">
         <f>COUNTIF(CSL_Sonuclari!C:J,A43)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C43" s="5">
         <f t="shared" si="4"/>
-        <v>4142.7071428571426</v>
+        <v>4444.1142857142859</v>
       </c>
       <c r="D43">
         <f>COUNTIF(CSL_Sonuclari!J:J,A43)</f>
@@ -61996,31 +62222,31 @@
       </c>
       <c r="H43">
         <f>COUNTIF(CSL_Sonuclari!C:H,A43)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I43" s="5">
         <f t="shared" si="7"/>
-        <v>5458.59</v>
+        <v>5880.5599999999995</v>
       </c>
       <c r="J43">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H43,"")</f>
-        <v>6660</v>
+        <v>6906.6666666666661</v>
       </c>
       <c r="K43">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H43,"")</f>
-        <v>6500.25</v>
+        <v>7840</v>
       </c>
       <c r="L43">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H43,"")</f>
-        <v>4815</v>
+        <v>4993.3333333333339</v>
       </c>
       <c r="M43">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H43,"")</f>
-        <v>6590.7</v>
+        <v>6834.8</v>
       </c>
       <c r="N43">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H43,"")</f>
-        <v>2727</v>
+        <v>2828</v>
       </c>
       <c r="O43" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H43,"")</f>
@@ -62048,19 +62274,19 @@
       </c>
       <c r="B44">
         <f>COUNTIF(CSL_Sonuclari!C:J,A44)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C44" s="5">
         <f t="shared" si="4"/>
-        <v>5402.3609523809519</v>
+        <v>5489.9609523809522</v>
       </c>
       <c r="D44">
         <f>COUNTIF(CSL_Sonuclari!J:J,A44)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E44" s="5">
         <f t="shared" si="5"/>
-        <v>646</v>
+        <v>1084</v>
       </c>
       <c r="F44" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A44)</f>
@@ -62108,7 +62334,7 @@
       </c>
       <c r="Q44">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D44,"")</f>
-        <v>646</v>
+        <v>1084</v>
       </c>
       <c r="R44" s="2">
         <v>43</v>
@@ -62343,7 +62569,7 @@
       </c>
       <c r="S47">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R47)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -62419,7 +62645,7 @@
       </c>
       <c r="S48">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R48)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
@@ -62571,7 +62797,7 @@
       </c>
       <c r="S50">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R50)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
@@ -62884,11 +63110,11 @@
       </c>
       <c r="B55">
         <f>COUNTIF(CSL_Sonuclari!C:J,A55)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C55" s="5">
         <f t="shared" si="4"/>
-        <v>4235.3928571428569</v>
+        <v>4528.5714285714284</v>
       </c>
       <c r="D55">
         <f>COUNTIF(CSL_Sonuclari!J:J,A55)</f>
@@ -62908,31 +63134,31 @@
       </c>
       <c r="H55">
         <f>COUNTIF(CSL_Sonuclari!C:H,A55)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I55" s="5">
         <f t="shared" si="7"/>
-        <v>5603.95</v>
+        <v>6014.4</v>
       </c>
       <c r="J55">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H55,"")</f>
-        <v>6077.75</v>
+        <v>7176</v>
       </c>
       <c r="K55">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H55,"")</f>
-        <v>3835.25</v>
+        <v>4002</v>
       </c>
       <c r="L55">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H55,"")</f>
-        <v>5307.25</v>
+        <v>5538</v>
       </c>
       <c r="M55">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H55,"")</f>
-        <v>8705.5</v>
+        <v>9084</v>
       </c>
       <c r="N55">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H55,"")</f>
-        <v>4094</v>
+        <v>4272</v>
       </c>
       <c r="O55" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H55,"")</f>
@@ -62960,11 +63186,11 @@
       </c>
       <c r="B56">
         <f>COUNTIF(CSL_Sonuclari!C:J,A56)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C56" s="5">
         <f t="shared" si="4"/>
-        <v>4991.5714285714284</v>
+        <v>5278.0612244897957</v>
       </c>
       <c r="D56">
         <f>COUNTIF(CSL_Sonuclari!J:J,A56)</f>
@@ -62984,31 +63210,31 @@
       </c>
       <c r="H56">
         <f>COUNTIF(CSL_Sonuclari!C:H,A56)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I56" s="5">
         <f t="shared" si="7"/>
-        <v>6487</v>
+        <v>6888.0857142857149</v>
       </c>
       <c r="J56">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H56,"")</f>
-        <v>6214</v>
+        <v>6453</v>
       </c>
       <c r="K56">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H56,"")</f>
-        <v>5460</v>
+        <v>5670</v>
       </c>
       <c r="L56">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H56,"")</f>
-        <v>7592</v>
+        <v>7884</v>
       </c>
       <c r="M56">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H56,"")</f>
-        <v>6253</v>
+        <v>7251.4285714285706</v>
       </c>
       <c r="N56">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H56,"")</f>
-        <v>6916</v>
+        <v>7182</v>
       </c>
       <c r="O56" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H56,"")</f>
@@ -63103,7 +63329,7 @@
       </c>
       <c r="S57">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R57)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
@@ -63331,7 +63557,7 @@
       </c>
       <c r="S60">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R60)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
@@ -63340,11 +63566,11 @@
       </c>
       <c r="B61">
         <f>COUNTIF(CSL_Sonuclari!C:J,A61)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C61" s="5">
         <f t="shared" si="4"/>
-        <v>4381.3358516483513</v>
+        <v>4616.3305288461543</v>
       </c>
       <c r="D61">
         <f>COUNTIF(CSL_Sonuclari!J:J,A61)</f>
@@ -63364,35 +63590,35 @@
       </c>
       <c r="H61">
         <f>COUNTIF(CSL_Sonuclari!C:H,A61)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I61" s="5">
         <f t="shared" si="7"/>
-        <v>5510.947802197802</v>
+        <v>5824.274038461539</v>
       </c>
       <c r="J61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H61,"")</f>
-        <v>6960</v>
+        <v>7192</v>
       </c>
       <c r="K61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H61,"")</f>
-        <v>5122.5</v>
+        <v>5293.25</v>
       </c>
       <c r="L61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H61,"")</f>
-        <v>7148.5714285714284</v>
+        <v>8164.625</v>
       </c>
       <c r="M61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H61,"")</f>
-        <v>6724.6153846153848</v>
+        <v>6948.7692307692314</v>
       </c>
       <c r="N61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H61,"")</f>
-        <v>7080</v>
+        <v>7316</v>
       </c>
       <c r="O61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H61,"")</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F61,"")</f>
@@ -63568,11 +63794,11 @@
       </c>
       <c r="B64">
         <f>COUNTIF(CSL_Sonuclari!C:J,A64)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C64" s="5">
         <f t="shared" si="4"/>
-        <v>4037.5185185185187</v>
+        <v>4223.771929824562</v>
       </c>
       <c r="D64">
         <f>COUNTIF(CSL_Sonuclari!J:J,A64)</f>
@@ -63592,27 +63818,27 @@
       </c>
       <c r="H64">
         <f>COUNTIF(CSL_Sonuclari!C:H,A64)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I64" s="5">
         <f t="shared" si="7"/>
-        <v>5881.7777777777783</v>
+        <v>6161.1578947368425</v>
       </c>
       <c r="J64">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H64,"")</f>
-        <v>6064</v>
+        <v>6253.5</v>
       </c>
       <c r="K64">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H64,"")</f>
-        <v>6972.4444444444443</v>
+        <v>7572.6315789473692</v>
       </c>
       <c r="L64">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H64,"")</f>
-        <v>4698.666666666667</v>
+        <v>4845.5</v>
       </c>
       <c r="M64">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H64,"")</f>
-        <v>5792</v>
+        <v>5973</v>
       </c>
       <c r="N64" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H64,"")</f>
@@ -63635,7 +63861,7 @@
       </c>
       <c r="S64">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R64)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
@@ -63720,11 +63946,11 @@
       </c>
       <c r="B66">
         <f>COUNTIF(CSL_Sonuclari!C:J,A66)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C66" s="5">
         <f t="shared" ref="C66:C91" si="8">AVERAGE(J66:Q66)</f>
-        <v>5719.1182608695653</v>
+        <v>5946.2666666666664</v>
       </c>
       <c r="D66">
         <f>COUNTIF(CSL_Sonuclari!J:J,A66)</f>
@@ -63744,23 +63970,23 @@
       </c>
       <c r="H66">
         <f>COUNTIF(CSL_Sonuclari!C:H,A66)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I66" s="5">
         <f t="shared" ref="I66:I91" si="11">AVERAGE(J66:O66)</f>
-        <v>9123.5304347826095</v>
+        <v>9502.1111111111113</v>
       </c>
       <c r="J66">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H66,"")</f>
-        <v>7215.391304347826</v>
+        <v>7758.333333333333</v>
       </c>
       <c r="K66">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H66,"")</f>
-        <v>6521.2000000000007</v>
+        <v>6713</v>
       </c>
       <c r="L66">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H66,"")</f>
-        <v>13634</v>
+        <v>14035</v>
       </c>
       <c r="M66" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H66,"")</f>
@@ -63796,19 +64022,19 @@
       </c>
       <c r="B67">
         <f>COUNTIF(CSL_Sonuclari!C:J,A67)</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C67" s="5">
         <f t="shared" si="8"/>
-        <v>5895.416666666667</v>
+        <v>6210.166666666667</v>
       </c>
       <c r="D67">
         <f>COUNTIF(CSL_Sonuclari!J:J,A67)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E67" s="5">
         <f t="shared" si="9"/>
-        <v>1610</v>
+        <v>2047</v>
       </c>
       <c r="F67" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A67)</f>
@@ -63820,11 +64046,11 @@
       </c>
       <c r="H67">
         <f>COUNTIF(CSL_Sonuclari!C:H,A67)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I67" s="5">
         <f t="shared" si="11"/>
-        <v>8388.125</v>
+        <v>8751</v>
       </c>
       <c r="J67" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H67,"")</f>
@@ -63832,7 +64058,7 @@
       </c>
       <c r="K67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H67,"")</f>
-        <v>8610</v>
+        <v>8856</v>
       </c>
       <c r="L67" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H67,"")</f>
@@ -63840,15 +64066,15 @@
       </c>
       <c r="M67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H67,"")</f>
-        <v>6366.5</v>
+        <v>6548.4000000000005</v>
       </c>
       <c r="N67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H67,"")</f>
-        <v>8177.5</v>
+        <v>8904</v>
       </c>
       <c r="O67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H67,"")</f>
-        <v>10398.5</v>
+        <v>10695.6</v>
       </c>
       <c r="P67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F67,"")</f>
@@ -63856,14 +64082,14 @@
       </c>
       <c r="Q67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D67,"")</f>
-        <v>1610</v>
+        <v>2047</v>
       </c>
       <c r="R67" s="2">
         <v>66</v>
       </c>
       <c r="S67">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R67)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
@@ -64024,11 +64250,11 @@
       </c>
       <c r="B70">
         <f>COUNTIF(CSL_Sonuclari!C:J,A70)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C70" s="5">
         <f t="shared" si="8"/>
-        <v>5067.079220779221</v>
+        <v>5343.6969696969691</v>
       </c>
       <c r="D70">
         <f>COUNTIF(CSL_Sonuclari!J:J,A70)</f>
@@ -64048,11 +64274,11 @@
       </c>
       <c r="H70">
         <f>COUNTIF(CSL_Sonuclari!C:H,A70)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I70" s="5">
         <f t="shared" si="11"/>
-        <v>6671.1109090909104</v>
+        <v>7058.3757575757572</v>
       </c>
       <c r="J70" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H70,"")</f>
@@ -64060,23 +64286,23 @@
       </c>
       <c r="K70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H70,"")</f>
-        <v>7875.0000000000009</v>
+        <v>8166.666666666667</v>
       </c>
       <c r="L70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H70,"")</f>
-        <v>5780.454545454546</v>
+        <v>5994.545454545455</v>
       </c>
       <c r="M70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H70,"")</f>
-        <v>5517</v>
+        <v>5721.3333333333339</v>
       </c>
       <c r="N70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H70,"")</f>
-        <v>7743.6</v>
+        <v>8731.3333333333321</v>
       </c>
       <c r="O70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H70,"")</f>
-        <v>6439.5</v>
+        <v>6678</v>
       </c>
       <c r="P70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F70,"")</f>
@@ -64091,7 +64317,7 @@
       </c>
       <c r="S70">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R70)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
@@ -64480,11 +64706,11 @@
       </c>
       <c r="B76">
         <f>COUNTIF(CSL_Sonuclari!C:J,A76)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C76" s="5">
         <f t="shared" si="8"/>
-        <v>7181.609375</v>
+        <v>7439.9821428571431</v>
       </c>
       <c r="D76">
         <f>COUNTIF(CSL_Sonuclari!J:J,A76)</f>
@@ -64504,35 +64730,35 @@
       </c>
       <c r="H76">
         <f>COUNTIF(CSL_Sonuclari!C:H,A76)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I76" s="5">
         <f t="shared" si="11"/>
-        <v>9143.6458333333339</v>
+        <v>9488.1428571428569</v>
       </c>
       <c r="J76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H76,"")</f>
-        <v>10500</v>
+        <v>10800</v>
       </c>
       <c r="K76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H76,"")</f>
-        <v>5430</v>
+        <v>5585.1428571428569</v>
       </c>
       <c r="L76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H76,"")</f>
-        <v>6422.5</v>
+        <v>6606</v>
       </c>
       <c r="M76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H76,"")</f>
-        <v>10959.375</v>
+        <v>11772</v>
       </c>
       <c r="N76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H76,"")</f>
-        <v>9545</v>
+        <v>9817.7142857142862</v>
       </c>
       <c r="O76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H76,"")</f>
-        <v>12005</v>
+        <v>12348</v>
       </c>
       <c r="P76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F76,"")</f>
@@ -64547,7 +64773,7 @@
       </c>
       <c r="S76">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R76)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
@@ -64632,11 +64858,11 @@
       </c>
       <c r="B78">
         <f>COUNTIF(CSL_Sonuclari!C:J,A78)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C78" s="5">
         <f t="shared" si="8"/>
-        <v>5092.1515406162462</v>
+        <v>5296.1718954248363</v>
       </c>
       <c r="D78">
         <f>COUNTIF(CSL_Sonuclari!J:J,A78)</f>
@@ -64656,23 +64882,23 @@
       </c>
       <c r="H78">
         <f>COUNTIF(CSL_Sonuclari!C:H,A78)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I78" s="5">
         <f t="shared" si="11"/>
-        <v>7108.4773109243697</v>
+        <v>7414.5078431372549</v>
       </c>
       <c r="J78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H78,"")</f>
-        <v>9514.2857142857156</v>
+        <v>10227.066666666666</v>
       </c>
       <c r="K78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H78,"")</f>
-        <v>7582.8235294117649</v>
+        <v>7787.7647058823532</v>
       </c>
       <c r="L78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H78,"")</f>
-        <v>10818.8</v>
+        <v>11111.199999999999</v>
       </c>
       <c r="M78" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H78,"")</f>
@@ -64684,7 +64910,7 @@
       </c>
       <c r="O78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H78,"")</f>
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="P78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F78,"")</f>
@@ -64775,7 +65001,7 @@
       </c>
       <c r="S79">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R79)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
@@ -64784,11 +65010,11 @@
       </c>
       <c r="B80">
         <f>COUNTIF(CSL_Sonuclari!C:J,A80)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C80" s="5">
         <f t="shared" si="8"/>
-        <v>5247.1706349206352</v>
+        <v>5471.0083943833952</v>
       </c>
       <c r="D80">
         <f>COUNTIF(CSL_Sonuclari!J:J,A80)</f>
@@ -64808,11 +65034,11 @@
       </c>
       <c r="H80">
         <f>COUNTIF(CSL_Sonuclari!C:H,A80)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I80" s="5">
         <f t="shared" si="11"/>
-        <v>6814.6388888888887</v>
+        <v>7128.0117521367529</v>
       </c>
       <c r="J80" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H80,"")</f>
@@ -64820,23 +65046,23 @@
       </c>
       <c r="K80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H80,"")</f>
-        <v>8647.3333333333339</v>
+        <v>8901.6666666666679</v>
       </c>
       <c r="L80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H80,"")</f>
-        <v>6532.25</v>
+        <v>6724.375</v>
       </c>
       <c r="M80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H80,"")</f>
-        <v>7869.1111111111113</v>
+        <v>8100.5555555555557</v>
       </c>
       <c r="N80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H80,"")</f>
-        <v>7760.5</v>
+        <v>8553.461538461539</v>
       </c>
       <c r="O80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H80,"")</f>
-        <v>3264</v>
+        <v>3360</v>
       </c>
       <c r="P80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F80,"")</f>
@@ -64860,11 +65086,11 @@
       </c>
       <c r="B81">
         <f>COUNTIF(CSL_Sonuclari!C:J,A81)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C81" s="5">
         <f t="shared" si="8"/>
-        <v>3902.6342592592591</v>
+        <v>4111.0444444444447</v>
       </c>
       <c r="D81">
         <f>COUNTIF(CSL_Sonuclari!J:J,A81)</f>
@@ -64884,27 +65110,27 @@
       </c>
       <c r="H81">
         <f>COUNTIF(CSL_Sonuclari!C:H,A81)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I81" s="5">
         <f t="shared" si="11"/>
-        <v>5290.4513888888887</v>
+        <v>5603.0666666666666</v>
       </c>
       <c r="J81">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H81,"")</f>
-        <v>6057.9166666666661</v>
+        <v>6253.333333333333</v>
       </c>
       <c r="K81">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H81,"")</f>
-        <v>8108.2222222222217</v>
+        <v>8937.6</v>
       </c>
       <c r="L81">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H81,"")</f>
-        <v>5600.6666666666661</v>
+        <v>5781.333333333333</v>
       </c>
       <c r="M81">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H81,"")</f>
-        <v>1395</v>
+        <v>1440</v>
       </c>
       <c r="N81" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H81,"")</f>
@@ -64936,11 +65162,11 @@
       </c>
       <c r="B82">
         <f>COUNTIF(CSL_Sonuclari!C:J,A82)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C82" s="5">
         <f t="shared" si="8"/>
-        <v>4764.2628205128203</v>
+        <v>4955.3472222222226</v>
       </c>
       <c r="D82">
         <f>COUNTIF(CSL_Sonuclari!J:J,A82)</f>
@@ -64960,11 +65186,11 @@
       </c>
       <c r="H82">
         <f>COUNTIF(CSL_Sonuclari!C:H,A82)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I82" s="5">
         <f t="shared" si="11"/>
-        <v>8313.0256410256407</v>
+        <v>8695.1944444444453</v>
       </c>
       <c r="J82" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H82,"")</f>
@@ -64984,11 +65210,11 @@
       </c>
       <c r="N82">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H82,"")</f>
-        <v>8986.6666666666661</v>
+        <v>9267.5</v>
       </c>
       <c r="O82">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H82,"")</f>
-        <v>7639.3846153846152</v>
+        <v>8122.8888888888887</v>
       </c>
       <c r="P82">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F82,"")</f>
@@ -65316,11 +65542,11 @@
       </c>
       <c r="B87">
         <f>COUNTIF(CSL_Sonuclari!C:J,A87)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C87" s="5">
         <f t="shared" si="8"/>
-        <v>5032.443181818182</v>
+        <v>5278.6937500000004</v>
       </c>
       <c r="D87">
         <f>COUNTIF(CSL_Sonuclari!J:J,A87)</f>
@@ -65340,35 +65566,35 @@
       </c>
       <c r="H87">
         <f>COUNTIF(CSL_Sonuclari!C:H,A87)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I87" s="5">
         <f t="shared" si="11"/>
-        <v>6321.4242424242429</v>
+        <v>6649.7583333333341</v>
       </c>
       <c r="J87">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H87,"")</f>
-        <v>8640</v>
+        <v>8928</v>
       </c>
       <c r="K87">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H87,"")</f>
-        <v>5390</v>
+        <v>5569.6666666666661</v>
       </c>
       <c r="L87">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H87,"")</f>
-        <v>4944.545454545454</v>
+        <v>5815.0833333333339</v>
       </c>
       <c r="M87">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H87,"")</f>
-        <v>6564</v>
+        <v>6782.8</v>
       </c>
       <c r="N87">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H87,"")</f>
-        <v>7170</v>
+        <v>7409</v>
       </c>
       <c r="O87">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H87,"")</f>
-        <v>5220</v>
+        <v>5394</v>
       </c>
       <c r="P87">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F87,"")</f>
@@ -65383,7 +65609,7 @@
       </c>
       <c r="S87">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R87)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
@@ -65544,11 +65770,11 @@
       </c>
       <c r="B90">
         <f>COUNTIF(CSL_Sonuclari!C:J,A90)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C90" s="5">
         <f t="shared" si="8"/>
-        <v>4329.1071428571431</v>
+        <v>4383.9821428571431</v>
       </c>
       <c r="D90">
         <f>COUNTIF(CSL_Sonuclari!J:J,A90)</f>
@@ -65560,11 +65786,11 @@
       </c>
       <c r="F90" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A90)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G90" s="8">
         <f t="shared" si="10"/>
-        <v>1683</v>
+        <v>2122</v>
       </c>
       <c r="H90">
         <f>COUNTIF(CSL_Sonuclari!C:H,A90)</f>
@@ -65600,7 +65826,7 @@
       </c>
       <c r="P90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F90,"")</f>
-        <v>1683</v>
+        <v>2122</v>
       </c>
       <c r="Q90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D90,"")</f>
@@ -67754,15 +67980,15 @@
       </c>
       <c r="B3">
         <f>COUNTIF(SL_Sonuclari!C:H,A3)</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C3" s="5">
         <f t="shared" si="0"/>
-        <v>115.35897435897436</v>
+        <v>120.54878048780488</v>
       </c>
       <c r="D3">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A3,SL_Sonuclari!A:A),"")</f>
-        <v>223.71794871794873</v>
+        <v>234.09756097560975</v>
       </c>
       <c r="E3" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A3,SL_Sonuclari!A:A),"")</f>
@@ -68150,11 +68376,11 @@
       </c>
       <c r="B15">
         <f>COUNTIF(SL_Sonuclari!C:H,A15)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="0"/>
-        <v>188.21269841269844</v>
+        <v>190.93833943833945</v>
       </c>
       <c r="D15">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A15,SL_Sonuclari!A:A),"")</f>
@@ -68162,7 +68388,7 @@
       </c>
       <c r="E15">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A15,SL_Sonuclari!A:A),"")</f>
-        <v>260.83333333333331</v>
+        <v>274.46153846153845</v>
       </c>
       <c r="F15">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A15,SL_Sonuclari!A:A),"")</f>
@@ -68315,11 +68541,11 @@
       </c>
       <c r="B20">
         <f>COUNTIF(SL_Sonuclari!C:H,A20)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
-        <v>220.90138888888887</v>
+        <v>223.13019005847951</v>
       </c>
       <c r="D20">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A20,SL_Sonuclari!A:A),"")</f>
@@ -68331,7 +68557,7 @@
       </c>
       <c r="F20">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A20,SL_Sonuclari!A:A),"")</f>
-        <v>266.61111111111109</v>
+        <v>275.5263157894737</v>
       </c>
       <c r="G20">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A20,SL_Sonuclari!A:A),"")</f>
@@ -68381,7 +68607,7 @@
       </c>
       <c r="B22">
         <f>COUNTIF(SL_Sonuclari!C:H,A22)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
@@ -68480,11 +68706,11 @@
       </c>
       <c r="B25">
         <f>COUNTIF(SL_Sonuclari!C:H,A25)</f>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C25" s="5">
         <f t="shared" si="0"/>
-        <v>194.67361111111109</v>
+        <v>209.71406371406368</v>
       </c>
       <c r="D25" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A25,SL_Sonuclari!A:A),"")</f>
@@ -68500,11 +68726,11 @@
       </c>
       <c r="G25">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A25,SL_Sonuclari!A:A),"")</f>
-        <v>164.91666666666666</v>
+        <v>185.84615384615384</v>
       </c>
       <c r="H25">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A25,SL_Sonuclari!A:A),"")</f>
-        <v>221.22222222222223</v>
+        <v>260.45454545454544</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -68744,11 +68970,11 @@
       </c>
       <c r="B33">
         <f>COUNTIF(SL_Sonuclari!C:H,A33)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C33" s="5">
         <f t="shared" si="0"/>
-        <v>193.09201388888889</v>
+        <v>196.46977124183007</v>
       </c>
       <c r="D33" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A33,SL_Sonuclari!A:A),"")</f>
@@ -68760,7 +68986,7 @@
       </c>
       <c r="F33">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A33,SL_Sonuclari!A:A),"")</f>
-        <v>208.3125</v>
+        <v>221.8235294117647</v>
       </c>
       <c r="G33">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A33,SL_Sonuclari!A:A),"")</f>
@@ -68942,11 +69168,11 @@
       </c>
       <c r="B39">
         <f>COUNTIF(SL_Sonuclari!C:H,A39)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C39" s="5">
         <f t="shared" si="1"/>
-        <v>229.20877192982454</v>
+        <v>231.67916666666667</v>
       </c>
       <c r="D39">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A39,SL_Sonuclari!A:A),"")</f>
@@ -68954,7 +69180,7 @@
       </c>
       <c r="E39">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A39,SL_Sonuclari!A:A),"")</f>
-        <v>238.36842105263159</v>
+        <v>248.25</v>
       </c>
       <c r="F39">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A39,SL_Sonuclari!A:A),"")</f>
@@ -69008,11 +69234,11 @@
       </c>
       <c r="B41">
         <f>COUNTIF(SL_Sonuclari!C:H,A41)</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C41" s="5">
         <f t="shared" si="1"/>
-        <v>203.14565217391305</v>
+        <v>205.21041666666667</v>
       </c>
       <c r="D41" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A41,SL_Sonuclari!A:A),"")</f>
@@ -69028,7 +69254,7 @@
       </c>
       <c r="G41">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A41,SL_Sonuclari!A:A),"")</f>
-        <v>237.78260869565219</v>
+        <v>246.04166666666666</v>
       </c>
       <c r="H41">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A41,SL_Sonuclari!A:A),"")</f>
@@ -69140,11 +69366,11 @@
       </c>
       <c r="B45">
         <f>COUNTIF(SL_Sonuclari!C:H,A45)</f>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C45" s="5">
         <f t="shared" si="1"/>
-        <v>232.22083333333336</v>
+        <v>241.16273923444976</v>
       </c>
       <c r="D45" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A45,SL_Sonuclari!A:A),"")</f>
@@ -69156,11 +69382,11 @@
       </c>
       <c r="F45">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A45,SL_Sonuclari!A:A),"")</f>
-        <v>177.1</v>
+        <v>200.72727272727272</v>
       </c>
       <c r="G45">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A45,SL_Sonuclari!A:A),"")</f>
-        <v>207.33333333333334</v>
+        <v>219.47368421052633</v>
       </c>
       <c r="H45">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A45,SL_Sonuclari!A:A),"")</f>
@@ -69239,15 +69465,15 @@
       </c>
       <c r="B48">
         <f>COUNTIF(SL_Sonuclari!C:H,A48)</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C48" s="5">
         <f t="shared" si="1"/>
-        <v>246.7232865048957</v>
+        <v>249.02098765432098</v>
       </c>
       <c r="D48">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A48,SL_Sonuclari!A:A),"")</f>
-        <v>231.20689655172413</v>
+        <v>238.1</v>
       </c>
       <c r="E48">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A48,SL_Sonuclari!A:A),"")</f>
@@ -69404,11 +69630,11 @@
       </c>
       <c r="B53">
         <f>COUNTIF(SL_Sonuclari!C:H,A53)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C53" s="5">
         <f t="shared" si="1"/>
-        <v>247.10494987468672</v>
+        <v>249.46547619047621</v>
       </c>
       <c r="D53">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A53,SL_Sonuclari!A:A),"")</f>
@@ -69416,7 +69642,7 @@
       </c>
       <c r="E53">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A53,SL_Sonuclari!A:A),"")</f>
-        <v>248.15789473684211</v>
+        <v>257.60000000000002</v>
       </c>
       <c r="F53">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A53,SL_Sonuclari!A:A),"")</f>
@@ -69536,11 +69762,11 @@
       </c>
       <c r="B57">
         <f>COUNTIF(SL_Sonuclari!C:H,A57)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C57" s="5">
         <f t="shared" si="1"/>
-        <v>242.75</v>
+        <v>248.04166666666669</v>
       </c>
       <c r="D57" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A57,SL_Sonuclari!A:A),"")</f>
@@ -69560,7 +69786,7 @@
       </c>
       <c r="H57">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A57,SL_Sonuclari!A:A),"")</f>
-        <v>214.75</v>
+        <v>225.33333333333334</v>
       </c>
       <c r="I57">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!H:H,A57,SL_Sonuclari!A:A),"")</f>
@@ -69639,7 +69865,7 @@
       </c>
       <c r="B60">
         <f>COUNTIF(SL_Sonuclari!C:H,A60)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C60" s="5">
         <f t="shared" si="1"/>

--- a/SLIStatistik.xlsx
+++ b/SLIStatistik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\ReadExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05345F1-3D56-41A6-879D-D22CDA392BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C52CFC8-DCC7-42EC-AF07-175014211DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
   </bookViews>
   <sheets>
     <sheet name="CSL_Sonuclari" sheetId="2" r:id="rId1"/>
@@ -614,7 +614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21120D27-1448-4179-993C-6B3BE739480A}">
   <dimension ref="A1:J441"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B417" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -14160,10 +14160,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8BCBFC-83B0-4863-9D9A-FF955DDDA58C}">
-  <dimension ref="A1:H440"/>
+  <dimension ref="A1:H441"/>
   <sheetViews>
-    <sheetView topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="A441" sqref="A441"/>
+    <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
+      <selection activeCell="A442" sqref="A442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25609,6 +25609,32 @@
       </c>
       <c r="H440">
         <v>51</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>439</v>
+      </c>
+      <c r="B441" s="1">
+        <v>45076</v>
+      </c>
+      <c r="C441">
+        <v>2</v>
+      </c>
+      <c r="D441">
+        <v>6</v>
+      </c>
+      <c r="E441">
+        <v>7</v>
+      </c>
+      <c r="F441">
+        <v>10</v>
+      </c>
+      <c r="G441">
+        <v>31</v>
+      </c>
+      <c r="H441">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -68046,15 +68072,15 @@
       </c>
       <c r="B5">
         <f>COUNTIF(SL_Sonuclari!C:H,A5)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="5">
         <f t="shared" si="0"/>
-        <v>129.22857142857143</v>
+        <v>131.83333333333334</v>
       </c>
       <c r="D5">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A5,SL_Sonuclari!A:A),"")</f>
-        <v>251.45714285714286</v>
+        <v>256.66666666666669</v>
       </c>
       <c r="E5" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A5,SL_Sonuclari!A:A),"")</f>
@@ -68244,11 +68270,11 @@
       </c>
       <c r="B11">
         <f>COUNTIF(SL_Sonuclari!C:H,A11)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="0"/>
-        <v>157.31071428571425</v>
+        <v>192.5190476190476</v>
       </c>
       <c r="D11">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A11,SL_Sonuclari!A:A),"")</f>
@@ -68264,7 +68290,7 @@
       </c>
       <c r="G11">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A11,SL_Sonuclari!A:A),"")</f>
-        <v>16.5</v>
+        <v>157.33333333333334</v>
       </c>
       <c r="H11" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A11,SL_Sonuclari!A:A),"")</f>
@@ -68277,11 +68303,11 @@
       </c>
       <c r="B12">
         <f>COUNTIF(SL_Sonuclari!C:H,A12)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="0"/>
-        <v>165.66847826086956</v>
+        <v>168.32919254658384</v>
       </c>
       <c r="D12">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A12,SL_Sonuclari!A:A),"")</f>
@@ -68289,7 +68315,7 @@
       </c>
       <c r="E12">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A12,SL_Sonuclari!A:A),"")</f>
-        <v>290</v>
+        <v>300.64285714285717</v>
       </c>
       <c r="F12">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A12,SL_Sonuclari!A:A),"")</f>
@@ -68475,7 +68501,7 @@
       </c>
       <c r="B18">
         <f>COUNTIF(SL_Sonuclari!C:H,A18)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="0"/>
@@ -69102,11 +69128,11 @@
       </c>
       <c r="B37">
         <f>COUNTIF(SL_Sonuclari!C:H,A37)</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C37" s="5">
         <f t="shared" si="1"/>
-        <v>193.67708333333334</v>
+        <v>214.36041666666665</v>
       </c>
       <c r="D37">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A37,SL_Sonuclari!A:A),"")</f>
@@ -69118,7 +69144,7 @@
       </c>
       <c r="F37">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A37,SL_Sonuclari!A:A),"")</f>
-        <v>128.75</v>
+        <v>190.8</v>
       </c>
       <c r="G37" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A37,SL_Sonuclari!A:A),"")</f>
@@ -69696,11 +69722,11 @@
       </c>
       <c r="B55">
         <f>COUNTIF(SL_Sonuclari!C:H,A55)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C55" s="5">
         <f t="shared" si="1"/>
-        <v>225.5809523809524</v>
+        <v>230.64761904761903</v>
       </c>
       <c r="D55">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A55,SL_Sonuclari!A:A),"")</f>
@@ -69720,7 +69746,7 @@
       </c>
       <c r="H55">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A55,SL_Sonuclari!A:A),"")</f>
-        <v>287</v>
+        <v>312.33333333333331</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">

--- a/SLIStatistik.xlsx
+++ b/SLIStatistik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\ReadExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C52CFC8-DCC7-42EC-AF07-175014211DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2BD6D1-ACD0-47C7-8902-062C7424D8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
   </bookViews>
   <sheets>
     <sheet name="CSL_Sonuclari" sheetId="2" r:id="rId1"/>
@@ -612,13 +612,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21120D27-1448-4179-993C-6B3BE739480A}">
-  <dimension ref="A1:J441"/>
+  <dimension ref="A1:J442"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B417" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B429" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A442" sqref="A442"/>
+      <selection pane="bottomRight" activeCell="A443" sqref="A443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14147,6 +14147,38 @@
       </c>
       <c r="J441" s="2">
         <v>59</v>
+      </c>
+    </row>
+    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A442" s="2">
+        <v>440</v>
+      </c>
+      <c r="B442" s="1">
+        <v>45077</v>
+      </c>
+      <c r="C442" s="2">
+        <v>1</v>
+      </c>
+      <c r="D442" s="2">
+        <v>7</v>
+      </c>
+      <c r="E442" s="2">
+        <v>10</v>
+      </c>
+      <c r="F442" s="2">
+        <v>30</v>
+      </c>
+      <c r="G442" s="2">
+        <v>49</v>
+      </c>
+      <c r="H442" s="2">
+        <v>66</v>
+      </c>
+      <c r="I442" s="2">
+        <v>46</v>
+      </c>
+      <c r="J442" s="2">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -14162,7 +14194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8BCBFC-83B0-4863-9D9A-FF955DDDA58C}">
   <dimension ref="A1:H441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
+    <sheetView topLeftCell="A407" workbookViewId="0">
       <selection activeCell="A442" sqref="A442"/>
     </sheetView>
   </sheetViews>
@@ -25647,10 +25679,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4513EEF-0F11-4AC5-A4C7-CB00A18EA83B}">
-  <dimension ref="A1:H1283"/>
+  <dimension ref="A1:H1284"/>
   <sheetViews>
-    <sheetView topLeftCell="A1251" workbookViewId="0">
-      <selection activeCell="A1284" sqref="A1284"/>
+    <sheetView tabSelected="1" topLeftCell="A1251" workbookViewId="0">
+      <selection activeCell="A1285" sqref="A1285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59014,6 +59046,32 @@
       </c>
       <c r="H1283">
         <v>2</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1284">
+        <v>1673</v>
+      </c>
+      <c r="B1284" s="1">
+        <v>45077</v>
+      </c>
+      <c r="C1284">
+        <v>3</v>
+      </c>
+      <c r="D1284">
+        <v>14</v>
+      </c>
+      <c r="E1284">
+        <v>28</v>
+      </c>
+      <c r="F1284">
+        <v>31</v>
+      </c>
+      <c r="G1284">
+        <v>32</v>
+      </c>
+      <c r="H1284">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -59108,11 +59166,11 @@
       </c>
       <c r="B2">
         <f>COUNTIF(CSL_Sonuclari!C:J,A2)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="5">
         <f t="shared" ref="C2:C33" si="0">AVERAGE(J2:Q2)</f>
-        <v>3120.8904761904764</v>
+        <v>3415.4857142857145</v>
       </c>
       <c r="D2">
         <f>COUNTIF(CSL_Sonuclari!J:J,A2)</f>
@@ -59132,31 +59190,31 @@
       </c>
       <c r="H2">
         <f>COUNTIF(CSL_Sonuclari!C:H,A2)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" s="5">
         <f t="shared" ref="I2:I33" si="3">AVERAGE(J2:O2)</f>
-        <v>4208.8466666666664</v>
+        <v>4621.2800000000007</v>
       </c>
       <c r="J2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H2,"")</f>
-        <v>3189.333333333333</v>
+        <v>3328</v>
       </c>
       <c r="K2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H2,"")</f>
-        <v>6803.4000000000005</v>
+        <v>7099.2000000000007</v>
       </c>
       <c r="L2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H2,"")</f>
-        <v>5393.5</v>
+        <v>5628</v>
       </c>
       <c r="M2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H2,"")</f>
-        <v>4623</v>
+        <v>5971.2000000000007</v>
       </c>
       <c r="N2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H2,"")</f>
-        <v>1035</v>
+        <v>1080</v>
       </c>
       <c r="O2" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H2,"")</f>
@@ -59175,7 +59233,7 @@
       </c>
       <c r="S2">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R2)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -59412,11 +59470,11 @@
       </c>
       <c r="B6">
         <f>COUNTIF(CSL_Sonuclari!C:J,A6)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5">
         <f t="shared" si="0"/>
-        <v>3381.272727272727</v>
+        <v>3711.2181818181825</v>
       </c>
       <c r="D6">
         <f>COUNTIF(CSL_Sonuclari!J:J,A6)</f>
@@ -59436,23 +59494,23 @@
       </c>
       <c r="H6">
         <f>COUNTIF(CSL_Sonuclari!C:H,A6)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I6" s="5">
         <f t="shared" si="3"/>
-        <v>3798.340909090909</v>
+        <v>4210.7727272727279</v>
       </c>
       <c r="J6">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H6,"")</f>
-        <v>4568.3636363636369</v>
+        <v>4837.0909090909099</v>
       </c>
       <c r="K6">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H6,"")</f>
-        <v>4488</v>
+        <v>4752</v>
       </c>
       <c r="L6">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H6,"")</f>
-        <v>6052</v>
+        <v>7164</v>
       </c>
       <c r="M6" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H6,"")</f>
@@ -59464,7 +59522,7 @@
       </c>
       <c r="O6">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H6,"")</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P6">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F6,"")</f>
@@ -59631,7 +59689,7 @@
       </c>
       <c r="S8">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R8)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -59859,7 +59917,7 @@
       </c>
       <c r="S11">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R11)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -60628,11 +60686,11 @@
       </c>
       <c r="B22">
         <f>COUNTIF(CSL_Sonuclari!C:J,A22)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
-        <v>5599.155555555556</v>
+        <v>6014.2666666666664</v>
       </c>
       <c r="D22">
         <f>COUNTIF(CSL_Sonuclari!J:J,A22)</f>
@@ -60652,11 +60710,11 @@
       </c>
       <c r="H22">
         <f>COUNTIF(CSL_Sonuclari!C:H,A22)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I22" s="5">
         <f t="shared" si="3"/>
-        <v>8005.7333333333336</v>
+        <v>8628.4</v>
       </c>
       <c r="J22" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H22,"")</f>
@@ -60668,19 +60726,19 @@
       </c>
       <c r="L22">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H22,"")</f>
-        <v>10405.333333333334</v>
+        <v>10730.5</v>
       </c>
       <c r="M22">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H22,"")</f>
-        <v>7721.6</v>
+        <v>7962.9000000000005</v>
       </c>
       <c r="N22">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H22,"")</f>
-        <v>7040</v>
+        <v>7260</v>
       </c>
       <c r="O22">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H22,"")</f>
-        <v>6856</v>
+        <v>8560.1999999999989</v>
       </c>
       <c r="P22">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F22,"")</f>
@@ -60856,11 +60914,11 @@
       </c>
       <c r="B25">
         <f>COUNTIF(CSL_Sonuclari!C:J,A25)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" s="5">
         <f t="shared" si="0"/>
-        <v>5172.8649350649348</v>
+        <v>5479.8909090909092</v>
       </c>
       <c r="D25">
         <f>COUNTIF(CSL_Sonuclari!J:J,A25)</f>
@@ -60880,23 +60938,23 @@
       </c>
       <c r="H25">
         <f>COUNTIF(CSL_Sonuclari!C:H,A25)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I25" s="5">
         <f t="shared" si="3"/>
-        <v>8243.4415584415583</v>
+        <v>8755.1515151515141</v>
       </c>
       <c r="J25">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H25,"")</f>
-        <v>6563.181818181818</v>
+        <v>6781.954545454546</v>
       </c>
       <c r="K25">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H25,"")</f>
-        <v>7697.1428571428569</v>
+        <v>8664.5</v>
       </c>
       <c r="L25">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H25,"")</f>
-        <v>10470</v>
+        <v>10819</v>
       </c>
       <c r="M25" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H25,"")</f>
@@ -61379,7 +61437,7 @@
       </c>
       <c r="S31">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R31)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -62595,7 +62653,7 @@
       </c>
       <c r="S47">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R47)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -62823,7 +62881,7 @@
       </c>
       <c r="S50">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R50)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
@@ -63440,11 +63498,11 @@
       </c>
       <c r="B59">
         <f>COUNTIF(CSL_Sonuclari!C:J,A59)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C59" s="5">
         <f t="shared" si="4"/>
-        <v>2014.4772727272727</v>
+        <v>2130.5588235294117</v>
       </c>
       <c r="D59">
         <f>COUNTIF(CSL_Sonuclari!J:J,A59)</f>
@@ -63464,15 +63522,15 @@
       </c>
       <c r="H59">
         <f>COUNTIF(CSL_Sonuclari!C:H,A59)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I59" s="5">
         <f t="shared" si="7"/>
-        <v>3534.4545454545455</v>
+        <v>3766.6176470588239</v>
       </c>
       <c r="J59">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H59,"")</f>
-        <v>6490.909090909091</v>
+        <v>6938.2352941176478</v>
       </c>
       <c r="K59" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H59,"")</f>
@@ -63480,7 +63538,7 @@
       </c>
       <c r="L59">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H59,"")</f>
-        <v>578</v>
+        <v>595</v>
       </c>
       <c r="M59" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H59,"")</f>
@@ -64115,7 +64173,7 @@
       </c>
       <c r="S67">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R67)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
@@ -64276,11 +64334,11 @@
       </c>
       <c r="B70">
         <f>COUNTIF(CSL_Sonuclari!C:J,A70)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C70" s="5">
         <f t="shared" si="8"/>
-        <v>5343.6969696969691</v>
+        <v>5599.6113172541745</v>
       </c>
       <c r="D70">
         <f>COUNTIF(CSL_Sonuclari!J:J,A70)</f>
@@ -64300,11 +64358,11 @@
       </c>
       <c r="H70">
         <f>COUNTIF(CSL_Sonuclari!C:H,A70)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I70" s="5">
         <f t="shared" si="11"/>
-        <v>7058.3757575757572</v>
+        <v>7416.6558441558445</v>
       </c>
       <c r="J70" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H70,"")</f>
@@ -64312,23 +64370,23 @@
       </c>
       <c r="K70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H70,"")</f>
-        <v>8166.666666666667</v>
+        <v>8458.3333333333339</v>
       </c>
       <c r="L70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H70,"")</f>
-        <v>5994.545454545455</v>
+        <v>6208.636363636364</v>
       </c>
       <c r="M70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H70,"")</f>
-        <v>5721.3333333333339</v>
+        <v>5925.666666666667</v>
       </c>
       <c r="N70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H70,"")</f>
-        <v>8731.3333333333321</v>
+        <v>9574.1428571428587</v>
       </c>
       <c r="O70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H70,"")</f>
-        <v>6678</v>
+        <v>6916.5</v>
       </c>
       <c r="P70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F70,"")</f>
@@ -64352,19 +64410,19 @@
       </c>
       <c r="B71">
         <f>COUNTIF(CSL_Sonuclari!C:J,A71)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C71" s="5">
         <f t="shared" si="8"/>
-        <v>4086.5773809523807</v>
+        <v>4141.5773809523807</v>
       </c>
       <c r="D71">
         <f>COUNTIF(CSL_Sonuclari!J:J,A71)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E71" s="5">
         <f t="shared" si="9"/>
-        <v>427</v>
+        <v>867</v>
       </c>
       <c r="F71" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A71)</f>
@@ -64412,7 +64470,7 @@
       </c>
       <c r="Q71">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D71,"")</f>
-        <v>427</v>
+        <v>867</v>
       </c>
       <c r="R71" s="2">
         <v>70</v>
@@ -64732,11 +64790,11 @@
       </c>
       <c r="B76">
         <f>COUNTIF(CSL_Sonuclari!C:J,A76)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C76" s="5">
         <f t="shared" si="8"/>
-        <v>7439.9821428571431</v>
+        <v>7494.9821428571431</v>
       </c>
       <c r="D76">
         <f>COUNTIF(CSL_Sonuclari!J:J,A76)</f>
@@ -64748,11 +64806,11 @@
       </c>
       <c r="F76" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A76)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G76" s="8">
         <f t="shared" si="10"/>
-        <v>1961.0000000000002</v>
+        <v>2401</v>
       </c>
       <c r="H76">
         <f>COUNTIF(CSL_Sonuclari!C:H,A76)</f>
@@ -64788,7 +64846,7 @@
       </c>
       <c r="P76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F76,"")</f>
-        <v>1961.0000000000002</v>
+        <v>2401</v>
       </c>
       <c r="Q76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D76,"")</f>

--- a/SLIStatistik.xlsx
+++ b/SLIStatistik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\ReadExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2BD6D1-ACD0-47C7-8902-062C7424D8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AD835E-C2B9-45C8-8016-84694527D9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
   </bookViews>
   <sheets>
     <sheet name="CSL_Sonuclari" sheetId="2" r:id="rId1"/>
@@ -612,13 +612,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21120D27-1448-4179-993C-6B3BE739480A}">
-  <dimension ref="A1:J442"/>
+  <dimension ref="A1:J444"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B429" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B426" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A443" sqref="A443"/>
+      <selection pane="bottomRight" activeCell="C445" sqref="C445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14181,6 +14181,70 @@
         <v>43</v>
       </c>
     </row>
+    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A443" s="2">
+        <v>441</v>
+      </c>
+      <c r="B443" s="1">
+        <v>45080</v>
+      </c>
+      <c r="C443" s="2">
+        <v>24</v>
+      </c>
+      <c r="D443" s="2">
+        <v>26</v>
+      </c>
+      <c r="E443" s="2">
+        <v>43</v>
+      </c>
+      <c r="F443" s="2">
+        <v>54</v>
+      </c>
+      <c r="G443" s="2">
+        <v>62</v>
+      </c>
+      <c r="H443" s="2">
+        <v>85</v>
+      </c>
+      <c r="I443" s="2">
+        <v>8</v>
+      </c>
+      <c r="J443" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A444" s="2">
+        <v>442</v>
+      </c>
+      <c r="B444" s="1">
+        <v>45082</v>
+      </c>
+      <c r="C444" s="2">
+        <v>15</v>
+      </c>
+      <c r="D444" s="2">
+        <v>56</v>
+      </c>
+      <c r="E444" s="2">
+        <v>67</v>
+      </c>
+      <c r="F444" s="2">
+        <v>69</v>
+      </c>
+      <c r="G444" s="2">
+        <v>88</v>
+      </c>
+      <c r="H444" s="2">
+        <v>89</v>
+      </c>
+      <c r="I444" s="2">
+        <v>1</v>
+      </c>
+      <c r="J444" s="2">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J311">
     <sortCondition ref="B2:B311"/>
@@ -14192,10 +14256,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8BCBFC-83B0-4863-9D9A-FF955DDDA58C}">
-  <dimension ref="A1:H441"/>
+  <dimension ref="A1:H443"/>
   <sheetViews>
-    <sheetView topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="A442" sqref="A442"/>
+    <sheetView topLeftCell="A410" workbookViewId="0">
+      <selection activeCell="A444" sqref="A444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25669,6 +25733,58 @@
         <v>47</v>
       </c>
     </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>440</v>
+      </c>
+      <c r="B442" s="1">
+        <v>45078</v>
+      </c>
+      <c r="C442">
+        <v>5</v>
+      </c>
+      <c r="D442">
+        <v>7</v>
+      </c>
+      <c r="E442">
+        <v>17</v>
+      </c>
+      <c r="F442">
+        <v>18</v>
+      </c>
+      <c r="G442">
+        <v>19</v>
+      </c>
+      <c r="H442">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>441</v>
+      </c>
+      <c r="B443" s="1">
+        <v>45081</v>
+      </c>
+      <c r="C443">
+        <v>24</v>
+      </c>
+      <c r="D443">
+        <v>27</v>
+      </c>
+      <c r="E443">
+        <v>40</v>
+      </c>
+      <c r="F443">
+        <v>41</v>
+      </c>
+      <c r="G443">
+        <v>44</v>
+      </c>
+      <c r="H443">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H311">
     <sortCondition ref="B2:B311"/>
@@ -25679,10 +25795,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4513EEF-0F11-4AC5-A4C7-CB00A18EA83B}">
-  <dimension ref="A1:H1284"/>
+  <dimension ref="A1:H1285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1251" workbookViewId="0">
-      <selection activeCell="A1285" sqref="A1285"/>
+    <sheetView topLeftCell="A1251" workbookViewId="0">
+      <selection activeCell="A1286" sqref="A1286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59072,6 +59188,32 @@
       </c>
       <c r="H1284">
         <v>11</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1285">
+        <v>1674</v>
+      </c>
+      <c r="B1285" s="1">
+        <v>45081</v>
+      </c>
+      <c r="C1285">
+        <v>4</v>
+      </c>
+      <c r="D1285">
+        <v>6</v>
+      </c>
+      <c r="E1285">
+        <v>7</v>
+      </c>
+      <c r="F1285">
+        <v>12</v>
+      </c>
+      <c r="G1285">
+        <v>29</v>
+      </c>
+      <c r="H1285">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -59233,7 +59375,7 @@
       </c>
       <c r="S2">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R2)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -59765,7 +59907,7 @@
       </c>
       <c r="S9">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R9)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -59926,19 +60068,19 @@
       </c>
       <c r="B12">
         <f>COUNTIF(CSL_Sonuclari!C:J,A12)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="0"/>
-        <v>1769.5510204081634</v>
+        <v>2029.1964285714287</v>
       </c>
       <c r="D12">
         <f>COUNTIF(CSL_Sonuclari!J:J,A12)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="1"/>
-        <v>239</v>
+        <v>681</v>
       </c>
       <c r="F12" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A12)</f>
@@ -59950,11 +60092,11 @@
       </c>
       <c r="H12">
         <f>COUNTIF(CSL_Sonuclari!C:H,A12)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I12" s="5">
         <f t="shared" si="3"/>
-        <v>2174.1714285714288</v>
+        <v>2449.2750000000001</v>
       </c>
       <c r="J12" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H12,"")</f>
@@ -59962,23 +60104,23 @@
       </c>
       <c r="K12">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H12,"")</f>
-        <v>3088</v>
+        <v>3281</v>
       </c>
       <c r="L12">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H12,"")</f>
-        <v>4560</v>
+        <v>4845</v>
       </c>
       <c r="M12">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H12,"")</f>
-        <v>1814.8571428571429</v>
+        <v>2624.375</v>
       </c>
       <c r="N12">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H12,"")</f>
-        <v>1120</v>
+        <v>1190</v>
       </c>
       <c r="O12">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H12,"")</f>
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="P12">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F12,"")</f>
@@ -59986,7 +60128,7 @@
       </c>
       <c r="Q12">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D12,"")</f>
-        <v>239</v>
+        <v>681</v>
       </c>
       <c r="R12" s="2">
         <v>11</v>
@@ -60297,7 +60439,7 @@
       </c>
       <c r="S16">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R16)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -60458,11 +60600,11 @@
       </c>
       <c r="B19">
         <f>COUNTIF(CSL_Sonuclari!C:J,A19)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
-        <v>2707.0789915966388</v>
+        <v>2862.3206349206348</v>
       </c>
       <c r="D19">
         <f>COUNTIF(CSL_Sonuclari!J:J,A19)</f>
@@ -60482,11 +60624,11 @@
       </c>
       <c r="H19">
         <f>COUNTIF(CSL_Sonuclari!C:H,A19)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I19" s="5">
         <f t="shared" si="3"/>
-        <v>3920.798319327731</v>
+        <v>4179.534391534391</v>
       </c>
       <c r="J19" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H19,"")</f>
@@ -60502,15 +60644,15 @@
       </c>
       <c r="M19">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H19,"")</f>
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="N19">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H19,"")</f>
-        <v>5728.5714285714284</v>
+        <v>5957.7142857142853</v>
       </c>
       <c r="O19">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H19,"")</f>
-        <v>5733.8235294117649</v>
+        <v>6268.8888888888887</v>
       </c>
       <c r="P19">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F19,"")</f>
@@ -60981,7 +61123,7 @@
       </c>
       <c r="S25">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R25)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -61133,7 +61275,7 @@
       </c>
       <c r="S27">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R27)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -62054,11 +62196,11 @@
       </c>
       <c r="B40">
         <f>COUNTIF(CSL_Sonuclari!C:J,A40)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C40" s="5">
         <f t="shared" si="4"/>
-        <v>5337.3392857142853</v>
+        <v>5650.9523809523816</v>
       </c>
       <c r="D40">
         <f>COUNTIF(CSL_Sonuclari!J:J,A40)</f>
@@ -62078,31 +62220,31 @@
       </c>
       <c r="H40">
         <f>COUNTIF(CSL_Sonuclari!C:H,A40)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I40" s="5">
         <f t="shared" si="7"/>
-        <v>6951.875</v>
+        <v>7390.9333333333343</v>
       </c>
       <c r="J40">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H40,"")</f>
-        <v>7000</v>
+        <v>7280</v>
       </c>
       <c r="K40">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H40,"")</f>
-        <v>4059.375</v>
+        <v>5026.666666666667</v>
       </c>
       <c r="L40">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H40,"")</f>
-        <v>6450</v>
+        <v>6708</v>
       </c>
       <c r="M40">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H40,"")</f>
-        <v>7025</v>
+        <v>7306</v>
       </c>
       <c r="N40">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H40,"")</f>
-        <v>10225</v>
+        <v>10634</v>
       </c>
       <c r="O40" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H40,"")</f>
@@ -62425,7 +62567,7 @@
       </c>
       <c r="S44">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R44)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
@@ -62738,11 +62880,11 @@
       </c>
       <c r="B49">
         <f>COUNTIF(CSL_Sonuclari!C:J,A49)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C49" s="5">
         <f t="shared" si="4"/>
-        <v>4659.8392857142853</v>
+        <v>5380.4751082251087</v>
       </c>
       <c r="D49">
         <f>COUNTIF(CSL_Sonuclari!J:J,A49)</f>
@@ -62762,15 +62904,15 @@
       </c>
       <c r="H49">
         <f>COUNTIF(CSL_Sonuclari!C:H,A49)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I49" s="5">
         <f t="shared" si="7"/>
-        <v>6253.1750000000002</v>
+        <v>7262.0651515151521</v>
       </c>
       <c r="J49">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H49,"")</f>
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K49" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H49,"")</f>
@@ -62778,19 +62920,19 @@
       </c>
       <c r="L49">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H49,"")</f>
-        <v>6633</v>
+        <v>10931</v>
       </c>
       <c r="M49">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H49,"")</f>
-        <v>9829.875</v>
+        <v>10127.75</v>
       </c>
       <c r="N49">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H49,"")</f>
-        <v>6894</v>
+        <v>7102.909090909091</v>
       </c>
       <c r="O49">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H49,"")</f>
-        <v>7744</v>
+        <v>7978.6666666666661</v>
       </c>
       <c r="P49">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F49,"")</f>
@@ -63118,11 +63260,11 @@
       </c>
       <c r="B54">
         <f>COUNTIF(CSL_Sonuclari!C:J,A54)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C54" s="5">
         <f t="shared" si="4"/>
-        <v>4602.4163614163617</v>
+        <v>4813.3611111111113</v>
       </c>
       <c r="D54">
         <f>COUNTIF(CSL_Sonuclari!J:J,A54)</f>
@@ -63142,11 +63284,11 @@
       </c>
       <c r="H54">
         <f>COUNTIF(CSL_Sonuclari!C:H,A54)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I54" s="5">
         <f t="shared" si="7"/>
-        <v>6328.3745421245421</v>
+        <v>6644.791666666667</v>
       </c>
       <c r="J54" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H54,"")</f>
@@ -63154,19 +63296,19 @@
       </c>
       <c r="K54">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H54,"")</f>
-        <v>2618</v>
+        <v>2695</v>
       </c>
       <c r="L54">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H54,"")</f>
-        <v>8307.3333333333339</v>
+        <v>8551.6666666666679</v>
       </c>
       <c r="M54">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H54,"")</f>
-        <v>6481.8571428571431</v>
+        <v>6672.5</v>
       </c>
       <c r="N54">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H54,"")</f>
-        <v>7906.3076923076924</v>
+        <v>8660</v>
       </c>
       <c r="O54" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H54,"")</f>
@@ -63261,7 +63403,7 @@
       </c>
       <c r="S55">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R55)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
@@ -63413,7 +63555,7 @@
       </c>
       <c r="S57">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R57)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
@@ -63498,11 +63640,11 @@
       </c>
       <c r="B59">
         <f>COUNTIF(CSL_Sonuclari!C:J,A59)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C59" s="5">
         <f t="shared" si="4"/>
-        <v>2130.5588235294117</v>
+        <v>2241.0588235294117</v>
       </c>
       <c r="D59">
         <f>COUNTIF(CSL_Sonuclari!J:J,A59)</f>
@@ -63514,11 +63656,11 @@
       </c>
       <c r="F59" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A59)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G59" s="8">
         <f t="shared" si="6"/>
-        <v>638</v>
+        <v>1080</v>
       </c>
       <c r="H59">
         <f>COUNTIF(CSL_Sonuclari!C:H,A59)</f>
@@ -63554,7 +63696,7 @@
       </c>
       <c r="P59">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F59,"")</f>
-        <v>638</v>
+        <v>1080</v>
       </c>
       <c r="Q59">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D59,"")</f>
@@ -63574,11 +63716,11 @@
       </c>
       <c r="B60">
         <f>COUNTIF(CSL_Sonuclari!C:J,A60)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C60" s="5">
         <f t="shared" si="4"/>
-        <v>4617.7777777777774</v>
+        <v>5069.916666666667</v>
       </c>
       <c r="D60">
         <f>COUNTIF(CSL_Sonuclari!J:J,A60)</f>
@@ -63598,27 +63740,27 @@
       </c>
       <c r="H60">
         <f>COUNTIF(CSL_Sonuclari!C:H,A60)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I60" s="5">
         <f t="shared" si="7"/>
-        <v>6216.6666666666661</v>
+        <v>6894.875</v>
       </c>
       <c r="J60">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H60,"")</f>
-        <v>4416.6666666666661</v>
+        <v>6311.5</v>
       </c>
       <c r="K60">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H60,"")</f>
-        <v>5975</v>
+        <v>6214</v>
       </c>
       <c r="L60">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H60,"")</f>
-        <v>4450</v>
+        <v>4628</v>
       </c>
       <c r="M60">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H60,"")</f>
-        <v>10025</v>
+        <v>10426</v>
       </c>
       <c r="N60" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H60,"")</f>
@@ -63869,7 +64011,7 @@
       </c>
       <c r="S63">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R63)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
@@ -64030,11 +64172,11 @@
       </c>
       <c r="B66">
         <f>COUNTIF(CSL_Sonuclari!C:J,A66)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C66" s="5">
         <f t="shared" ref="C66:C91" si="8">AVERAGE(J66:Q66)</f>
-        <v>5946.2666666666664</v>
+        <v>6034.4666666666662</v>
       </c>
       <c r="D66">
         <f>COUNTIF(CSL_Sonuclari!J:J,A66)</f>
@@ -64046,11 +64188,11 @@
       </c>
       <c r="F66" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A66)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G66" s="8">
         <f t="shared" ref="G66:G91" si="10">IF(P66&lt;&gt;"",P66,0)</f>
-        <v>409</v>
+        <v>850</v>
       </c>
       <c r="H66">
         <f>COUNTIF(CSL_Sonuclari!C:H,A66)</f>
@@ -64086,7 +64228,7 @@
       </c>
       <c r="P66">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F66,"")</f>
-        <v>409</v>
+        <v>850</v>
       </c>
       <c r="Q66">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D66,"")</f>
@@ -64106,11 +64248,11 @@
       </c>
       <c r="B67">
         <f>COUNTIF(CSL_Sonuclari!C:J,A67)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C67" s="5">
         <f t="shared" si="8"/>
-        <v>6210.166666666667</v>
+        <v>6518.0358585858585</v>
       </c>
       <c r="D67">
         <f>COUNTIF(CSL_Sonuclari!J:J,A67)</f>
@@ -64130,11 +64272,11 @@
       </c>
       <c r="H67">
         <f>COUNTIF(CSL_Sonuclari!C:H,A67)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I67" s="5">
         <f t="shared" si="11"/>
-        <v>8751</v>
+        <v>9212.8037878787873</v>
       </c>
       <c r="J67" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H67,"")</f>
@@ -64142,7 +64284,7 @@
       </c>
       <c r="K67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H67,"")</f>
-        <v>8856</v>
+        <v>9102</v>
       </c>
       <c r="L67" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H67,"")</f>
@@ -64150,15 +64292,15 @@
       </c>
       <c r="M67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H67,"")</f>
-        <v>6548.4000000000005</v>
+        <v>7605.181818181818</v>
       </c>
       <c r="N67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H67,"")</f>
-        <v>8904</v>
+        <v>9151.3333333333339</v>
       </c>
       <c r="O67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H67,"")</f>
-        <v>10695.6</v>
+        <v>10992.7</v>
       </c>
       <c r="P67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F67,"")</f>
@@ -64249,7 +64391,7 @@
       </c>
       <c r="S68">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R68)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
@@ -64401,7 +64543,7 @@
       </c>
       <c r="S70">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R70)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
@@ -64410,19 +64552,19 @@
       </c>
       <c r="B71">
         <f>COUNTIF(CSL_Sonuclari!C:J,A71)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C71" s="5">
         <f t="shared" si="8"/>
-        <v>4141.5773809523807</v>
+        <v>4404.8193542568542</v>
       </c>
       <c r="D71">
         <f>COUNTIF(CSL_Sonuclari!J:J,A71)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E71" s="5">
         <f t="shared" si="9"/>
-        <v>867</v>
+        <v>1308</v>
       </c>
       <c r="F71" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A71)</f>
@@ -64434,35 +64576,35 @@
       </c>
       <c r="H71">
         <f>COUNTIF(CSL_Sonuclari!C:H,A71)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I71" s="5">
         <f t="shared" si="11"/>
-        <v>5207.769841269841</v>
+        <v>5485.2591390091393</v>
       </c>
       <c r="J71">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H71,"")</f>
-        <v>2160</v>
+        <v>2232</v>
       </c>
       <c r="K71">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H71,"")</f>
-        <v>4654.2857142857138</v>
+        <v>4809.4285714285716</v>
       </c>
       <c r="L71">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H71,"")</f>
-        <v>6594</v>
+        <v>7437.181818181818</v>
       </c>
       <c r="M71">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H71,"")</f>
-        <v>6573.333333333333</v>
+        <v>6792.4444444444443</v>
       </c>
       <c r="N71">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H71,"")</f>
-        <v>1245</v>
+        <v>1286.5</v>
       </c>
       <c r="O71">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H71,"")</f>
-        <v>10020</v>
+        <v>10354</v>
       </c>
       <c r="P71">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F71,"")</f>
@@ -64470,7 +64612,7 @@
       </c>
       <c r="Q71">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D71,"")</f>
-        <v>867</v>
+        <v>1308</v>
       </c>
       <c r="R71" s="2">
         <v>70</v>
@@ -65094,11 +65236,11 @@
       </c>
       <c r="B80">
         <f>COUNTIF(CSL_Sonuclari!C:J,A80)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C80" s="5">
         <f t="shared" si="8"/>
-        <v>5471.0083943833952</v>
+        <v>5857.763736263737</v>
       </c>
       <c r="D80">
         <f>COUNTIF(CSL_Sonuclari!J:J,A80)</f>
@@ -65118,11 +65260,11 @@
       </c>
       <c r="H80">
         <f>COUNTIF(CSL_Sonuclari!C:H,A80)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I80" s="5">
         <f t="shared" si="11"/>
-        <v>7128.0117521367529</v>
+        <v>7669.4692307692312</v>
       </c>
       <c r="J80" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H80,"")</f>
@@ -65130,23 +65272,23 @@
       </c>
       <c r="K80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H80,"")</f>
-        <v>8901.6666666666679</v>
+        <v>10845</v>
       </c>
       <c r="L80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H80,"")</f>
-        <v>6724.375</v>
+        <v>6916.5</v>
       </c>
       <c r="M80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H80,"")</f>
-        <v>8100.5555555555557</v>
+        <v>8332</v>
       </c>
       <c r="N80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H80,"")</f>
-        <v>8553.461538461539</v>
+        <v>8797.8461538461543</v>
       </c>
       <c r="O80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H80,"")</f>
-        <v>3360</v>
+        <v>3456</v>
       </c>
       <c r="P80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F80,"")</f>
@@ -65170,11 +65312,11 @@
       </c>
       <c r="B81">
         <f>COUNTIF(CSL_Sonuclari!C:J,A81)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C81" s="5">
         <f t="shared" si="8"/>
-        <v>4111.0444444444447</v>
+        <v>4332.0987179487174</v>
       </c>
       <c r="D81">
         <f>COUNTIF(CSL_Sonuclari!J:J,A81)</f>
@@ -65194,27 +65336,27 @@
       </c>
       <c r="H81">
         <f>COUNTIF(CSL_Sonuclari!C:H,A81)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I81" s="5">
         <f t="shared" si="11"/>
-        <v>5603.0666666666666</v>
+        <v>5934.6480769230766</v>
       </c>
       <c r="J81">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H81,"")</f>
-        <v>6253.333333333333</v>
+        <v>7074.6923076923076</v>
       </c>
       <c r="K81">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H81,"")</f>
-        <v>8937.6</v>
+        <v>9216.9</v>
       </c>
       <c r="L81">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H81,"")</f>
-        <v>5781.333333333333</v>
+        <v>5962</v>
       </c>
       <c r="M81">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H81,"")</f>
-        <v>1440</v>
+        <v>1485</v>
       </c>
       <c r="N81" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H81,"")</f>
@@ -65322,11 +65464,11 @@
       </c>
       <c r="B83">
         <f>COUNTIF(CSL_Sonuclari!C:J,A83)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C83" s="5">
         <f t="shared" si="8"/>
-        <v>3625.2352941176468</v>
+        <v>3751.4444444444448</v>
       </c>
       <c r="D83">
         <f>COUNTIF(CSL_Sonuclari!J:J,A83)</f>
@@ -65346,11 +65488,11 @@
       </c>
       <c r="H83">
         <f>COUNTIF(CSL_Sonuclari!C:H,A83)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I83" s="5">
         <f t="shared" si="11"/>
-        <v>5075.3529411764703</v>
+        <v>5264.666666666667</v>
       </c>
       <c r="J83" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H83,"")</f>
@@ -65362,19 +65504,19 @@
       </c>
       <c r="L83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H83,"")</f>
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="M83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H83,"")</f>
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="N83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H83,"")</f>
-        <v>10361</v>
+        <v>10626.666666666668</v>
       </c>
       <c r="O83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H83,"")</f>
-        <v>9160.4117647058829</v>
+        <v>9632</v>
       </c>
       <c r="P83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F83,"")</f>
@@ -65398,11 +65540,11 @@
       </c>
       <c r="B84">
         <f>COUNTIF(CSL_Sonuclari!C:J,A84)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C84" s="5">
         <f t="shared" si="8"/>
-        <v>4660.2687500000002</v>
+        <v>5166.296875</v>
       </c>
       <c r="D84">
         <f>COUNTIF(CSL_Sonuclari!J:J,A84)</f>
@@ -65422,15 +65564,15 @@
       </c>
       <c r="H84">
         <f>COUNTIF(CSL_Sonuclari!C:H,A84)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I84" s="5">
         <f t="shared" si="11"/>
-        <v>5747.0250000000005</v>
+        <v>6421.729166666667</v>
       </c>
       <c r="J84">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H84,"")</f>
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="K84" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H84,"")</f>
@@ -65446,11 +65588,11 @@
       </c>
       <c r="N84">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H84,"")</f>
-        <v>7615.2</v>
+        <v>9386</v>
       </c>
       <c r="O84">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H84,"")</f>
-        <v>9093.875</v>
+        <v>9333.1875</v>
       </c>
       <c r="P84">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F84,"")</f>
@@ -65617,7 +65759,7 @@
       </c>
       <c r="S86">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R86)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
@@ -65845,7 +65987,7 @@
       </c>
       <c r="S89">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R89)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
@@ -65921,7 +66063,7 @@
       </c>
       <c r="S90">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R90)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
@@ -68163,15 +68305,15 @@
       </c>
       <c r="B6">
         <f>COUNTIF(SL_Sonuclari!C:H,A6)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="5">
         <f t="shared" si="0"/>
-        <v>140.72916666666666</v>
+        <v>142.67803030303031</v>
       </c>
       <c r="D6">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A6,SL_Sonuclari!A:A),"")</f>
-        <v>182.75</v>
+        <v>190.54545454545453</v>
       </c>
       <c r="E6">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A6,SL_Sonuclari!A:A),"")</f>
@@ -68295,11 +68437,11 @@
       </c>
       <c r="B10">
         <f>COUNTIF(SL_Sonuclari!C:H,A10)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" si="0"/>
-        <v>197.2392857142857</v>
+        <v>203.64610389610391</v>
       </c>
       <c r="D10" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A10,SL_Sonuclari!A:A),"")</f>
@@ -68307,7 +68449,7 @@
       </c>
       <c r="E10">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A10,SL_Sonuclari!A:A),"")</f>
-        <v>159.1</v>
+        <v>184.72727272727272</v>
       </c>
       <c r="F10">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A10,SL_Sonuclari!A:A),"")</f>
@@ -68460,15 +68602,15 @@
       </c>
       <c r="B15">
         <f>COUNTIF(SL_Sonuclari!C:H,A15)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="0"/>
-        <v>190.93833943833945</v>
+        <v>205.97167277167273</v>
       </c>
       <c r="D15">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A15,SL_Sonuclari!A:A),"")</f>
-        <v>215.5</v>
+        <v>290.66666666666669</v>
       </c>
       <c r="E15">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A15,SL_Sonuclari!A:A),"")</f>
@@ -68790,11 +68932,11 @@
       </c>
       <c r="B25">
         <f>COUNTIF(SL_Sonuclari!C:H,A25)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" s="5">
         <f t="shared" si="0"/>
-        <v>209.71406371406368</v>
+        <v>214.2703823953824</v>
       </c>
       <c r="D25" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A25,SL_Sonuclari!A:A),"")</f>
@@ -68810,7 +68952,7 @@
       </c>
       <c r="G25">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A25,SL_Sonuclari!A:A),"")</f>
-        <v>185.84615384615384</v>
+        <v>204.07142857142858</v>
       </c>
       <c r="H25">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A25,SL_Sonuclari!A:A),"")</f>
@@ -68823,11 +68965,11 @@
       </c>
       <c r="B26">
         <f>COUNTIF(SL_Sonuclari!C:H,A26)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26" s="5">
         <f t="shared" si="0"/>
-        <v>180.17777777777775</v>
+        <v>184.50959595959597</v>
       </c>
       <c r="D26" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A26,SL_Sonuclari!A:A),"")</f>
@@ -68839,7 +68981,7 @@
       </c>
       <c r="F26">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A26,SL_Sonuclari!A:A),"")</f>
-        <v>250.4</v>
+        <v>267.72727272727275</v>
       </c>
       <c r="G26">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A26,SL_Sonuclari!A:A),"")</f>
@@ -68856,7 +68998,7 @@
       </c>
       <c r="B27">
         <f>COUNTIF(SL_Sonuclari!C:H,A27)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27" s="5">
         <f t="shared" si="0"/>
@@ -69021,7 +69163,7 @@
       </c>
       <c r="B32">
         <f>COUNTIF(SL_Sonuclari!C:H,A32)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32" s="5">
         <f t="shared" si="0"/>
@@ -69186,11 +69328,11 @@
       </c>
       <c r="B37">
         <f>COUNTIF(SL_Sonuclari!C:H,A37)</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C37" s="5">
         <f t="shared" si="1"/>
-        <v>214.36041666666665</v>
+        <v>218.85428921568624</v>
       </c>
       <c r="D37">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A37,SL_Sonuclari!A:A),"")</f>
@@ -69198,7 +69340,7 @@
       </c>
       <c r="E37">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A37,SL_Sonuclari!A:A),"")</f>
-        <v>210.8125</v>
+        <v>224.29411764705881</v>
       </c>
       <c r="F37">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A37,SL_Sonuclari!A:A),"")</f>
@@ -69252,11 +69394,11 @@
       </c>
       <c r="B39">
         <f>COUNTIF(SL_Sonuclari!C:H,A39)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C39" s="5">
         <f t="shared" si="1"/>
-        <v>231.67916666666667</v>
+        <v>273.34333333333336</v>
       </c>
       <c r="D39">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A39,SL_Sonuclari!A:A),"")</f>
@@ -69274,9 +69416,9 @@
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A39,SL_Sonuclari!A:A),"")</f>
         <v>239.8</v>
       </c>
-      <c r="H39" t="str">
+      <c r="H39">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A39,SL_Sonuclari!A:A),"")</f>
-        <v/>
+        <v>440</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -69516,11 +69658,11 @@
       </c>
       <c r="B47">
         <f>COUNTIF(SL_Sonuclari!C:H,A47)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C47" s="5">
         <f t="shared" si="1"/>
-        <v>227.90043859649126</v>
+        <v>238.19210526315791</v>
       </c>
       <c r="D47">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A47,SL_Sonuclari!A:A),"")</f>
@@ -69536,7 +69678,7 @@
       </c>
       <c r="G47">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A47,SL_Sonuclari!A:A),"")</f>
-        <v>275.33333333333331</v>
+        <v>316.5</v>
       </c>
       <c r="H47" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A47,SL_Sonuclari!A:A),"")</f>
@@ -69681,11 +69823,11 @@
       </c>
       <c r="B52">
         <f>COUNTIF(SL_Sonuclari!C:H,A52)</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C52" s="5">
         <f t="shared" si="1"/>
-        <v>215.48848684210526</v>
+        <v>219.1888544891641</v>
       </c>
       <c r="D52" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A52,SL_Sonuclari!A:A),"")</f>
@@ -69705,7 +69847,7 @@
       </c>
       <c r="H52">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A52,SL_Sonuclari!A:A),"")</f>
-        <v>189.375</v>
+        <v>204.1764705882353</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -69714,11 +69856,11 @@
       </c>
       <c r="B53">
         <f>COUNTIF(SL_Sonuclari!C:H,A53)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C53" s="5">
         <f t="shared" si="1"/>
-        <v>249.46547619047621</v>
+        <v>253.36825396825398</v>
       </c>
       <c r="D53">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A53,SL_Sonuclari!A:A),"")</f>
@@ -69730,7 +69872,7 @@
       </c>
       <c r="F53">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A53,SL_Sonuclari!A:A),"")</f>
-        <v>299.5</v>
+        <v>315.11111111111109</v>
       </c>
       <c r="G53">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A53,SL_Sonuclari!A:A),"")</f>

--- a/SLIStatistik.xlsx
+++ b/SLIStatistik.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\ReadExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AD835E-C2B9-45C8-8016-84694527D9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEB27E3-443B-4575-B4FD-55D048537E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
   </bookViews>
   <sheets>
     <sheet name="CSL_Sonuclari" sheetId="2" r:id="rId1"/>
@@ -612,13 +612,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21120D27-1448-4179-993C-6B3BE739480A}">
-  <dimension ref="A1:J444"/>
+  <dimension ref="A1:J445"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B426" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C445" sqref="C445"/>
+      <selection pane="bottomRight" activeCell="A446" sqref="A446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14245,6 +14245,38 @@
         <v>54</v>
       </c>
     </row>
+    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A445" s="2">
+        <v>443</v>
+      </c>
+      <c r="B445" s="1">
+        <v>45084</v>
+      </c>
+      <c r="C445" s="2">
+        <v>1</v>
+      </c>
+      <c r="D445" s="2">
+        <v>12</v>
+      </c>
+      <c r="E445" s="2">
+        <v>41</v>
+      </c>
+      <c r="F445" s="2">
+        <v>49</v>
+      </c>
+      <c r="G445" s="2">
+        <v>55</v>
+      </c>
+      <c r="H445" s="2">
+        <v>71</v>
+      </c>
+      <c r="I445" s="2">
+        <v>8</v>
+      </c>
+      <c r="J445" s="2">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J311">
     <sortCondition ref="B2:B311"/>
@@ -14256,10 +14288,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8BCBFC-83B0-4863-9D9A-FF955DDDA58C}">
-  <dimension ref="A1:H443"/>
+  <dimension ref="A1:H444"/>
   <sheetViews>
     <sheetView topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="A444" sqref="A444"/>
+      <selection activeCell="A445" sqref="A445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25785,6 +25817,32 @@
         <v>45</v>
       </c>
     </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>442</v>
+      </c>
+      <c r="B444" s="1">
+        <v>45083</v>
+      </c>
+      <c r="C444">
+        <v>18</v>
+      </c>
+      <c r="D444">
+        <v>19</v>
+      </c>
+      <c r="E444">
+        <v>25</v>
+      </c>
+      <c r="F444">
+        <v>33</v>
+      </c>
+      <c r="G444">
+        <v>42</v>
+      </c>
+      <c r="H444">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H311">
     <sortCondition ref="B2:B311"/>
@@ -25795,10 +25853,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4513EEF-0F11-4AC5-A4C7-CB00A18EA83B}">
-  <dimension ref="A1:H1285"/>
+  <dimension ref="A1:H1286"/>
   <sheetViews>
-    <sheetView topLeftCell="A1251" workbookViewId="0">
-      <selection activeCell="A1286" sqref="A1286"/>
+    <sheetView tabSelected="1" topLeftCell="A1252" workbookViewId="0">
+      <selection activeCell="A1287" sqref="A1287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59214,6 +59272,32 @@
       </c>
       <c r="H1285">
         <v>8</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1286">
+        <v>1675</v>
+      </c>
+      <c r="B1286" s="1">
+        <v>45084</v>
+      </c>
+      <c r="C1286">
+        <v>5</v>
+      </c>
+      <c r="D1286">
+        <v>7</v>
+      </c>
+      <c r="E1286">
+        <v>14</v>
+      </c>
+      <c r="F1286">
+        <v>15</v>
+      </c>
+      <c r="G1286">
+        <v>25</v>
+      </c>
+      <c r="H1286">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -59375,7 +59459,7 @@
       </c>
       <c r="S2">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R2)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -59907,7 +59991,7 @@
       </c>
       <c r="S9">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R9)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -59916,19 +60000,19 @@
       </c>
       <c r="B10">
         <f>COUNTIF(CSL_Sonuclari!C:J,A10)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" si="0"/>
-        <v>4614.9285714285716</v>
+        <v>4678.2142857142853</v>
       </c>
       <c r="D10">
         <f>COUNTIF(CSL_Sonuclari!J:J,A10)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" si="1"/>
-        <v>680</v>
+        <v>1123</v>
       </c>
       <c r="F10" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A10)</f>
@@ -59976,7 +60060,7 @@
       </c>
       <c r="Q10">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D10,"")</f>
-        <v>680</v>
+        <v>1123</v>
       </c>
       <c r="R10" s="2">
         <v>9</v>
@@ -60211,7 +60295,7 @@
       </c>
       <c r="S13">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R13)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -61360,11 +61444,11 @@
       </c>
       <c r="B29">
         <f>COUNTIF(CSL_Sonuclari!C:J,A29)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C29" s="5">
         <f t="shared" si="0"/>
-        <v>4153.3626373626375</v>
+        <v>4355.2040816326535</v>
       </c>
       <c r="D29">
         <f>COUNTIF(CSL_Sonuclari!J:J,A29)</f>
@@ -61384,31 +61468,31 @@
       </c>
       <c r="H29">
         <f>COUNTIF(CSL_Sonuclari!C:H,A29)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I29" s="5">
         <f t="shared" si="3"/>
-        <v>5453.3076923076924</v>
+        <v>5735.8857142857141</v>
       </c>
       <c r="J29">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H29,"")</f>
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="K29">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H29,"")</f>
-        <v>7740</v>
+        <v>7998</v>
       </c>
       <c r="L29">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H29,"")</f>
-        <v>6461.5384615384619</v>
+        <v>7180.9285714285716</v>
       </c>
       <c r="M29">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H29,"")</f>
-        <v>7845</v>
+        <v>8106.5</v>
       </c>
       <c r="N29">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H29,"")</f>
-        <v>4710</v>
+        <v>4867</v>
       </c>
       <c r="O29" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H29,"")</f>
@@ -62415,7 +62499,7 @@
       </c>
       <c r="S42">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R42)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
@@ -62804,11 +62888,11 @@
       </c>
       <c r="B48">
         <f>COUNTIF(CSL_Sonuclari!C:J,A48)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C48" s="5">
         <f t="shared" si="4"/>
-        <v>5321.8250000000007</v>
+        <v>5595.4812499999998</v>
       </c>
       <c r="D48">
         <f>COUNTIF(CSL_Sonuclari!J:J,A48)</f>
@@ -62828,35 +62912,35 @@
       </c>
       <c r="H48">
         <f>COUNTIF(CSL_Sonuclari!C:H,A48)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I48" s="5">
         <f t="shared" si="7"/>
-        <v>6670.7666666666673</v>
+        <v>7035.6416666666664</v>
       </c>
       <c r="J48">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H48,"")</f>
-        <v>9268</v>
+        <v>9599</v>
       </c>
       <c r="K48">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H48,"")</f>
-        <v>8078</v>
+        <v>8366.5</v>
       </c>
       <c r="L48">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H48,"")</f>
-        <v>4575.2</v>
+        <v>4738.6000000000004</v>
       </c>
       <c r="M48">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H48,"")</f>
-        <v>5887</v>
+        <v>6097.25</v>
       </c>
       <c r="N48">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H48,"")</f>
-        <v>4334.4000000000005</v>
+        <v>5249</v>
       </c>
       <c r="O48">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H48,"")</f>
-        <v>7882</v>
+        <v>8163.5</v>
       </c>
       <c r="P48">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F48,"")</f>
@@ -63023,7 +63107,7 @@
       </c>
       <c r="S50">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R50)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
@@ -63479,7 +63563,7 @@
       </c>
       <c r="S56">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R56)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
@@ -63640,11 +63724,11 @@
       </c>
       <c r="B59">
         <f>COUNTIF(CSL_Sonuclari!C:J,A59)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C59" s="5">
         <f t="shared" si="4"/>
-        <v>2241.0588235294117</v>
+        <v>2357.8071428571429</v>
       </c>
       <c r="D59">
         <f>COUNTIF(CSL_Sonuclari!J:J,A59)</f>
@@ -63664,15 +63748,15 @@
       </c>
       <c r="H59">
         <f>COUNTIF(CSL_Sonuclari!C:H,A59)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I59" s="5">
         <f t="shared" si="7"/>
-        <v>3766.6176470588239</v>
+        <v>4000.1142857142859</v>
       </c>
       <c r="J59">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H59,"")</f>
-        <v>6938.2352941176478</v>
+        <v>7388.2285714285717</v>
       </c>
       <c r="K59" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H59,"")</f>
@@ -63680,7 +63764,7 @@
       </c>
       <c r="L59">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H59,"")</f>
-        <v>595</v>
+        <v>612</v>
       </c>
       <c r="M59" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H59,"")</f>
@@ -64172,11 +64256,11 @@
       </c>
       <c r="B66">
         <f>COUNTIF(CSL_Sonuclari!C:J,A66)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C66" s="5">
         <f t="shared" ref="C66:C91" si="8">AVERAGE(J66:Q66)</f>
-        <v>6034.4666666666662</v>
+        <v>6123.0666666666666</v>
       </c>
       <c r="D66">
         <f>COUNTIF(CSL_Sonuclari!J:J,A66)</f>
@@ -64188,11 +64272,11 @@
       </c>
       <c r="F66" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A66)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G66" s="8">
         <f t="shared" ref="G66:G91" si="10">IF(P66&lt;&gt;"",P66,0)</f>
-        <v>850</v>
+        <v>1293</v>
       </c>
       <c r="H66">
         <f>COUNTIF(CSL_Sonuclari!C:H,A66)</f>
@@ -64228,7 +64312,7 @@
       </c>
       <c r="P66">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F66,"")</f>
-        <v>850</v>
+        <v>1293</v>
       </c>
       <c r="Q66">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D66,"")</f>
@@ -64476,11 +64560,11 @@
       </c>
       <c r="B70">
         <f>COUNTIF(CSL_Sonuclari!C:J,A70)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C70" s="5">
         <f t="shared" si="8"/>
-        <v>5599.6113172541745</v>
+        <v>5928.410018552875</v>
       </c>
       <c r="D70">
         <f>COUNTIF(CSL_Sonuclari!J:J,A70)</f>
@@ -64500,11 +64584,11 @@
       </c>
       <c r="H70">
         <f>COUNTIF(CSL_Sonuclari!C:H,A70)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I70" s="5">
         <f t="shared" si="11"/>
-        <v>7416.6558441558445</v>
+        <v>7876.9740259740256</v>
       </c>
       <c r="J70" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H70,"")</f>
@@ -64512,23 +64596,23 @@
       </c>
       <c r="K70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H70,"")</f>
-        <v>8458.3333333333339</v>
+        <v>8750</v>
       </c>
       <c r="L70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H70,"")</f>
-        <v>6208.636363636364</v>
+        <v>6422.727272727273</v>
       </c>
       <c r="M70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H70,"")</f>
-        <v>5925.666666666667</v>
+        <v>7152.8571428571422</v>
       </c>
       <c r="N70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H70,"")</f>
-        <v>9574.1428571428587</v>
+        <v>9904.2857142857156</v>
       </c>
       <c r="O70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H70,"")</f>
-        <v>6916.5</v>
+        <v>7155</v>
       </c>
       <c r="P70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F70,"")</f>
@@ -64695,7 +64779,7 @@
       </c>
       <c r="S72">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R72)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
@@ -64780,11 +64864,11 @@
       </c>
       <c r="B74">
         <f>COUNTIF(CSL_Sonuclari!C:J,A74)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C74" s="5">
         <f t="shared" si="8"/>
-        <v>5626.713235294118</v>
+        <v>5861.1203703703695</v>
       </c>
       <c r="D74">
         <f>COUNTIF(CSL_Sonuclari!J:J,A74)</f>
@@ -64804,27 +64888,27 @@
       </c>
       <c r="H74">
         <f>COUNTIF(CSL_Sonuclari!C:H,A74)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I74" s="5">
         <f t="shared" si="11"/>
-        <v>7979.5698529411766</v>
+        <v>8331.1805555555547</v>
       </c>
       <c r="J74">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H74,"")</f>
-        <v>7405.75</v>
+        <v>7630.1666666666661</v>
       </c>
       <c r="K74">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H74,"")</f>
-        <v>6945.5294117647054</v>
+        <v>7595.2222222222217</v>
       </c>
       <c r="L74">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H74,"")</f>
-        <v>5819</v>
+        <v>5995.3333333333339</v>
       </c>
       <c r="M74">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H74,"")</f>
-        <v>11748</v>
+        <v>12104</v>
       </c>
       <c r="N74" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H74,"")</f>
@@ -65920,11 +66004,11 @@
       </c>
       <c r="B89">
         <f>COUNTIF(CSL_Sonuclari!C:J,A89)</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C89" s="5">
         <f t="shared" si="8"/>
-        <v>6285.1893424036289</v>
+        <v>6512.9107142857147</v>
       </c>
       <c r="D89">
         <f>COUNTIF(CSL_Sonuclari!J:J,A89)</f>
@@ -65944,11 +66028,11 @@
       </c>
       <c r="H89">
         <f>COUNTIF(CSL_Sonuclari!C:H,A89)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I89" s="5">
         <f t="shared" si="11"/>
-        <v>8413.8650793650795</v>
+        <v>8732.6749999999993</v>
       </c>
       <c r="J89" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H89,"")</f>
@@ -65956,23 +66040,23 @@
       </c>
       <c r="K89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H89,"")</f>
-        <v>2398</v>
+        <v>2452.5</v>
       </c>
       <c r="L89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H89,"")</f>
-        <v>9152</v>
+        <v>9360</v>
       </c>
       <c r="M89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H89,"")</f>
-        <v>11303.111111111113</v>
+        <v>11560.000000000002</v>
       </c>
       <c r="N89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H89,"")</f>
-        <v>9080.5</v>
+        <v>9286.875</v>
       </c>
       <c r="O89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H89,"")</f>
-        <v>10135.714285714286</v>
+        <v>11004</v>
       </c>
       <c r="P89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F89,"")</f>
@@ -69262,11 +69346,11 @@
       </c>
       <c r="B35">
         <f>COUNTIF(SL_Sonuclari!C:H,A35)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35" s="5">
         <f t="shared" si="1"/>
-        <v>220.48333333333329</v>
+        <v>223.64358974358976</v>
       </c>
       <c r="D35">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A35,SL_Sonuclari!A:A),"")</f>
@@ -69282,7 +69366,7 @@
       </c>
       <c r="G35">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A35,SL_Sonuclari!A:A),"")</f>
-        <v>236.58333333333334</v>
+        <v>252.38461538461539</v>
       </c>
       <c r="H35">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A35,SL_Sonuclari!A:A),"")</f>
@@ -69394,11 +69478,11 @@
       </c>
       <c r="B39">
         <f>COUNTIF(SL_Sonuclari!C:H,A39)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C39" s="5">
         <f t="shared" si="1"/>
-        <v>273.34333333333336</v>
+        <v>275.18857142857144</v>
       </c>
       <c r="D39">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A39,SL_Sonuclari!A:A),"")</f>
@@ -69406,7 +69490,7 @@
       </c>
       <c r="E39">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A39,SL_Sonuclari!A:A),"")</f>
-        <v>248.25</v>
+        <v>257.47619047619048</v>
       </c>
       <c r="F39">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A39,SL_Sonuclari!A:A),"")</f>
@@ -69526,11 +69610,11 @@
       </c>
       <c r="B43">
         <f>COUNTIF(SL_Sonuclari!C:H,A43)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C43" s="5">
         <f t="shared" si="1"/>
-        <v>201.36574074074073</v>
+        <v>205.8735380116959</v>
       </c>
       <c r="D43" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A43,SL_Sonuclari!A:A),"")</f>
@@ -69550,7 +69634,7 @@
       </c>
       <c r="H43">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A43,SL_Sonuclari!A:A),"")</f>
-        <v>185.05555555555554</v>
+        <v>198.57894736842104</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -69658,15 +69742,15 @@
       </c>
       <c r="B47">
         <f>COUNTIF(SL_Sonuclari!C:H,A47)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C47" s="5">
         <f t="shared" si="1"/>
-        <v>238.19210526315791</v>
+        <v>248.40877192982455</v>
       </c>
       <c r="D47">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A47,SL_Sonuclari!A:A),"")</f>
-        <v>196.8</v>
+        <v>237.66666666666666</v>
       </c>
       <c r="E47">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A47,SL_Sonuclari!A:A),"")</f>
@@ -69757,11 +69841,11 @@
       </c>
       <c r="B50">
         <f>COUNTIF(SL_Sonuclari!C:H,A50)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C50" s="5">
         <f t="shared" si="1"/>
-        <v>226.13904761904763</v>
+        <v>228.31619047619046</v>
       </c>
       <c r="D50">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A50,SL_Sonuclari!A:A),"")</f>
@@ -69773,7 +69857,7 @@
       </c>
       <c r="F50">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A50,SL_Sonuclari!A:A),"")</f>
-        <v>278.71428571428572</v>
+        <v>289.60000000000002</v>
       </c>
       <c r="G50">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A50,SL_Sonuclari!A:A),"")</f>
@@ -70025,7 +70109,7 @@
       </c>
       <c r="B58">
         <f>COUNTIF(SL_Sonuclari!C:H,A58)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C58" s="5">
         <f t="shared" si="1"/>

--- a/SLIStatistik.xlsx
+++ b/SLIStatistik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\ReadExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEB27E3-443B-4575-B4FD-55D048537E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D167BE49-1465-42D1-9A18-CEEFDB93065F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
   </bookViews>
@@ -612,13 +612,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21120D27-1448-4179-993C-6B3BE739480A}">
-  <dimension ref="A1:J445"/>
+  <dimension ref="A1:J446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B426" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A446" sqref="A446"/>
+      <selection pane="bottomRight" activeCell="A447" sqref="A447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14277,6 +14277,38 @@
         <v>34</v>
       </c>
     </row>
+    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A446" s="2">
+        <v>444</v>
+      </c>
+      <c r="B446" s="1">
+        <v>45087</v>
+      </c>
+      <c r="C446" s="2">
+        <v>2</v>
+      </c>
+      <c r="D446" s="2">
+        <v>37</v>
+      </c>
+      <c r="E446" s="2">
+        <v>39</v>
+      </c>
+      <c r="F446" s="2">
+        <v>45</v>
+      </c>
+      <c r="G446" s="2">
+        <v>50</v>
+      </c>
+      <c r="H446" s="2">
+        <v>52</v>
+      </c>
+      <c r="I446" s="2">
+        <v>34</v>
+      </c>
+      <c r="J446" s="2">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J311">
     <sortCondition ref="B2:B311"/>
@@ -14288,10 +14320,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8BCBFC-83B0-4863-9D9A-FF955DDDA58C}">
-  <dimension ref="A1:H444"/>
+  <dimension ref="A1:H446"/>
   <sheetViews>
-    <sheetView topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="A445" sqref="A445"/>
+    <sheetView topLeftCell="A414" workbookViewId="0">
+      <selection activeCell="C447" sqref="C447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25843,6 +25875,58 @@
         <v>54</v>
       </c>
     </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>443</v>
+      </c>
+      <c r="B445" s="1">
+        <v>45085</v>
+      </c>
+      <c r="C445">
+        <v>5</v>
+      </c>
+      <c r="D445">
+        <v>6</v>
+      </c>
+      <c r="E445">
+        <v>20</v>
+      </c>
+      <c r="F445">
+        <v>43</v>
+      </c>
+      <c r="G445">
+        <v>53</v>
+      </c>
+      <c r="H445">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>444</v>
+      </c>
+      <c r="B446" s="1">
+        <v>45088</v>
+      </c>
+      <c r="C446">
+        <v>8</v>
+      </c>
+      <c r="D446">
+        <v>16</v>
+      </c>
+      <c r="E446">
+        <v>19</v>
+      </c>
+      <c r="F446">
+        <v>36</v>
+      </c>
+      <c r="G446">
+        <v>51</v>
+      </c>
+      <c r="H446">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H311">
     <sortCondition ref="B2:B311"/>
@@ -25853,10 +25937,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4513EEF-0F11-4AC5-A4C7-CB00A18EA83B}">
-  <dimension ref="A1:H1286"/>
+  <dimension ref="A1:H1287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1252" workbookViewId="0">
-      <selection activeCell="A1287" sqref="A1287"/>
+    <sheetView tabSelected="1" topLeftCell="A1255" workbookViewId="0">
+      <selection activeCell="A1288" sqref="A1288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59298,6 +59382,32 @@
       </c>
       <c r="H1286">
         <v>4</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1287">
+        <v>1676</v>
+      </c>
+      <c r="B1287" s="1">
+        <v>45088</v>
+      </c>
+      <c r="C1287">
+        <v>12</v>
+      </c>
+      <c r="D1287">
+        <v>13</v>
+      </c>
+      <c r="E1287">
+        <v>14</v>
+      </c>
+      <c r="F1287">
+        <v>17</v>
+      </c>
+      <c r="G1287">
+        <v>25</v>
+      </c>
+      <c r="H1287">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -59535,7 +59645,7 @@
       </c>
       <c r="S3">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R3)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -59544,11 +59654,11 @@
       </c>
       <c r="B4">
         <f>COUNTIF(CSL_Sonuclari!C:J,A4)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="5">
         <f t="shared" si="0"/>
-        <v>4396.556818181818</v>
+        <v>4614.315217391304</v>
       </c>
       <c r="D4">
         <f>COUNTIF(CSL_Sonuclari!J:J,A4)</f>
@@ -59568,19 +59678,19 @@
       </c>
       <c r="H4">
         <f>COUNTIF(CSL_Sonuclari!C:H,A4)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I4" s="5">
         <f t="shared" si="3"/>
-        <v>7523.613636363636</v>
+        <v>7959.130434782609</v>
       </c>
       <c r="J4">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H4,"")</f>
-        <v>5433.227272727273</v>
+        <v>5886.2608695652179</v>
       </c>
       <c r="K4">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H4,"")</f>
-        <v>9614</v>
+        <v>10032</v>
       </c>
       <c r="L4" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H4,"")</f>
@@ -59924,11 +60034,11 @@
       </c>
       <c r="B9">
         <f>COUNTIF(CSL_Sonuclari!C:J,A9)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>4285.875</v>
+        <v>4578.0214285714292</v>
       </c>
       <c r="D9">
         <f>COUNTIF(CSL_Sonuclari!J:J,A9)</f>
@@ -59948,11 +60058,11 @@
       </c>
       <c r="H9">
         <f>COUNTIF(CSL_Sonuclari!C:H,A9)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" si="3"/>
-        <v>5475.2250000000004</v>
+        <v>5884.2300000000005</v>
       </c>
       <c r="J9" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H9,"")</f>
@@ -59960,23 +60070,23 @@
       </c>
       <c r="K9">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H9,"")</f>
-        <v>5449.5</v>
+        <v>5709</v>
       </c>
       <c r="L9">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H9,"")</f>
-        <v>3425.625</v>
+        <v>3588.75</v>
       </c>
       <c r="M9">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H9,"")</f>
-        <v>4441.5</v>
+        <v>4653</v>
       </c>
       <c r="N9">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H9,"")</f>
-        <v>5785.5</v>
+        <v>6802.4</v>
       </c>
       <c r="O9">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H9,"")</f>
-        <v>8274</v>
+        <v>8668</v>
       </c>
       <c r="P9">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F9,"")</f>
@@ -60000,11 +60110,11 @@
       </c>
       <c r="B10">
         <f>COUNTIF(CSL_Sonuclari!C:J,A10)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" si="0"/>
-        <v>4678.2142857142853</v>
+        <v>4741.6428571428569</v>
       </c>
       <c r="D10">
         <f>COUNTIF(CSL_Sonuclari!J:J,A10)</f>
@@ -60016,11 +60126,11 @@
       </c>
       <c r="F10" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A10)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" s="8">
         <f t="shared" si="2"/>
-        <v>317</v>
+        <v>761</v>
       </c>
       <c r="H10">
         <f>COUNTIF(CSL_Sonuclari!C:H,A10)</f>
@@ -60056,7 +60166,7 @@
       </c>
       <c r="P10">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F10,"")</f>
-        <v>317</v>
+        <v>761</v>
       </c>
       <c r="Q10">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D10,"")</f>
@@ -60228,19 +60338,19 @@
       </c>
       <c r="B13">
         <f>COUNTIF(CSL_Sonuclari!C:J,A13)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="0"/>
-        <v>3305.7685185185182</v>
+        <v>3379.7685185185182</v>
       </c>
       <c r="D13">
         <f>COUNTIF(CSL_Sonuclari!J:J,A13)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="1"/>
-        <v>812</v>
+        <v>1256</v>
       </c>
       <c r="F13" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A13)</f>
@@ -60288,7 +60398,7 @@
       </c>
       <c r="Q13">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D13,"")</f>
-        <v>812</v>
+        <v>1256</v>
       </c>
       <c r="R13" s="2">
         <v>12</v>
@@ -61967,7 +62077,7 @@
       </c>
       <c r="S35">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R35)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -62195,7 +62305,7 @@
       </c>
       <c r="S38">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R38)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
@@ -62347,7 +62457,7 @@
       </c>
       <c r="S40">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R40)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
@@ -62508,11 +62618,11 @@
       </c>
       <c r="B43">
         <f>COUNTIF(CSL_Sonuclari!C:J,A43)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C43" s="5">
         <f t="shared" si="4"/>
-        <v>4444.1142857142859</v>
+        <v>4707.3666666666668</v>
       </c>
       <c r="D43">
         <f>COUNTIF(CSL_Sonuclari!J:J,A43)</f>
@@ -62532,31 +62642,31 @@
       </c>
       <c r="H43">
         <f>COUNTIF(CSL_Sonuclari!C:H,A43)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I43" s="5">
         <f t="shared" si="7"/>
-        <v>5880.5599999999995</v>
+        <v>6249.1133333333328</v>
       </c>
       <c r="J43">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H43,"")</f>
-        <v>6906.6666666666661</v>
+        <v>7153.333333333333</v>
       </c>
       <c r="K43">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H43,"")</f>
-        <v>7840</v>
+        <v>8912.6666666666661</v>
       </c>
       <c r="L43">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H43,"")</f>
-        <v>4993.3333333333339</v>
+        <v>5171.666666666667</v>
       </c>
       <c r="M43">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H43,"")</f>
-        <v>6834.8</v>
+        <v>7078.9</v>
       </c>
       <c r="N43">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H43,"")</f>
-        <v>2828</v>
+        <v>2929</v>
       </c>
       <c r="O43" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H43,"")</f>
@@ -62803,7 +62913,7 @@
       </c>
       <c r="S46">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R46)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
@@ -63183,7 +63293,7 @@
       </c>
       <c r="S51">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R51)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
@@ -63192,11 +63302,11 @@
       </c>
       <c r="B52">
         <f>COUNTIF(CSL_Sonuclari!C:J,A52)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C52" s="5">
         <f t="shared" si="4"/>
-        <v>3891.9714285714285</v>
+        <v>4090.1071428571436</v>
       </c>
       <c r="D52">
         <f>COUNTIF(CSL_Sonuclari!J:J,A52)</f>
@@ -63216,31 +63326,31 @@
       </c>
       <c r="H52">
         <f>COUNTIF(CSL_Sonuclari!C:H,A52)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I52" s="5">
         <f t="shared" si="7"/>
-        <v>5083.5599999999995</v>
+        <v>5360.9500000000007</v>
       </c>
       <c r="J52">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H52,"")</f>
-        <v>5859</v>
+        <v>6076</v>
       </c>
       <c r="K52">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H52,"")</f>
-        <v>5598</v>
+        <v>5805.3333333333339</v>
       </c>
       <c r="L52">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H52,"")</f>
-        <v>5113.8</v>
+        <v>5748.75</v>
       </c>
       <c r="M52">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H52,"")</f>
-        <v>8712</v>
+        <v>9034.6666666666679</v>
       </c>
       <c r="N52">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H52,"")</f>
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="O52" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H52,"")</f>
@@ -63335,7 +63445,7 @@
       </c>
       <c r="S53">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R53)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
@@ -63572,11 +63682,11 @@
       </c>
       <c r="B57">
         <f>COUNTIF(CSL_Sonuclari!C:J,A57)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C57" s="5">
         <f t="shared" si="4"/>
-        <v>6057.7747619047614</v>
+        <v>6384.1457142857143</v>
       </c>
       <c r="D57">
         <f>COUNTIF(CSL_Sonuclari!J:J,A57)</f>
@@ -63596,11 +63706,11 @@
       </c>
       <c r="H57">
         <f>COUNTIF(CSL_Sonuclari!C:H,A57)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I57" s="5">
         <f t="shared" si="7"/>
-        <v>7369.7184523809519</v>
+        <v>7777.6821428571429</v>
       </c>
       <c r="J57" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H57,"")</f>
@@ -63608,19 +63718,19 @@
       </c>
       <c r="K57">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H57,"")</f>
-        <v>8256.6</v>
+        <v>8506.7999999999993</v>
       </c>
       <c r="L57">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H57,"")</f>
-        <v>6954.75</v>
+        <v>7165.5</v>
       </c>
       <c r="M57">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H57,"")</f>
-        <v>7483.6666666666661</v>
+        <v>8449</v>
       </c>
       <c r="N57">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H57,"")</f>
-        <v>6783.8571428571431</v>
+        <v>6989.4285714285716</v>
       </c>
       <c r="O57" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H57,"")</f>
@@ -63952,11 +64062,11 @@
       </c>
       <c r="B62">
         <f>COUNTIF(CSL_Sonuclari!C:J,A62)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C62" s="5">
         <f t="shared" si="4"/>
-        <v>4221.8785714285714</v>
+        <v>5218.3857142857141</v>
       </c>
       <c r="D62">
         <f>COUNTIF(CSL_Sonuclari!J:J,A62)</f>
@@ -63976,11 +64086,11 @@
       </c>
       <c r="H62">
         <f>COUNTIF(CSL_Sonuclari!C:H,A62)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I62" s="5">
         <f t="shared" si="7"/>
-        <v>5422.2300000000005</v>
+        <v>6817.3399999999992</v>
       </c>
       <c r="J62" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H62,"")</f>
@@ -63988,23 +64098,23 @@
       </c>
       <c r="K62">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H62,"")</f>
-        <v>4636.5</v>
+        <v>4777</v>
       </c>
       <c r="L62">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H62,"")</f>
-        <v>7590</v>
+        <v>7820</v>
       </c>
       <c r="M62">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H62,"")</f>
-        <v>5537.4000000000005</v>
+        <v>5705.2000000000007</v>
       </c>
       <c r="N62">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H62,"")</f>
-        <v>6641.25</v>
+        <v>6842.5</v>
       </c>
       <c r="O62">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H62,"")</f>
-        <v>2706</v>
+        <v>8942</v>
       </c>
       <c r="P62">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F62,"")</f>
@@ -68389,15 +68499,15 @@
       </c>
       <c r="B6">
         <f>COUNTIF(SL_Sonuclari!C:H,A6)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" s="5">
         <f t="shared" si="0"/>
-        <v>142.67803030303031</v>
+        <v>144.53431372549019</v>
       </c>
       <c r="D6">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A6,SL_Sonuclari!A:A),"")</f>
-        <v>190.54545454545453</v>
+        <v>197.97058823529412</v>
       </c>
       <c r="E6">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A6,SL_Sonuclari!A:A),"")</f>
@@ -68488,15 +68598,15 @@
       </c>
       <c r="B9">
         <f>COUNTIF(SL_Sonuclari!C:H,A9)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>221.97393048128342</v>
+        <v>224.19181585677751</v>
       </c>
       <c r="D9">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A9,SL_Sonuclari!A:A),"")</f>
-        <v>239.95454545454547</v>
+        <v>248.82608695652175</v>
       </c>
       <c r="E9">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A9,SL_Sonuclari!A:A),"")</f>
@@ -68587,11 +68697,11 @@
       </c>
       <c r="B12">
         <f>COUNTIF(SL_Sonuclari!C:H,A12)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="0"/>
-        <v>168.32919254658384</v>
+        <v>170.70181159420289</v>
       </c>
       <c r="D12">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A12,SL_Sonuclari!A:A),"")</f>
@@ -68599,7 +68709,7 @@
       </c>
       <c r="E12">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A12,SL_Sonuclari!A:A),"")</f>
-        <v>300.64285714285717</v>
+        <v>310.13333333333333</v>
       </c>
       <c r="F12">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A12,SL_Sonuclari!A:A),"")</f>
@@ -68719,11 +68829,11 @@
       </c>
       <c r="B16">
         <f>COUNTIF(SL_Sonuclari!C:H,A16)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
-        <v>200.59451127819548</v>
+        <v>203.20714285714286</v>
       </c>
       <c r="D16">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A16,SL_Sonuclari!A:A),"")</f>
@@ -68735,7 +68845,7 @@
       </c>
       <c r="F16">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A16,SL_Sonuclari!A:A),"")</f>
-        <v>181.73684210526315</v>
+        <v>194.8</v>
       </c>
       <c r="G16">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A16,SL_Sonuclari!A:A),"")</f>
@@ -68818,11 +68928,11 @@
       </c>
       <c r="B19">
         <f>COUNTIF(SL_Sonuclari!C:H,A19)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
-        <v>197.15238095238098</v>
+        <v>205.53333333333333</v>
       </c>
       <c r="D19" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A19,SL_Sonuclari!A:A),"")</f>
@@ -68842,7 +68952,7 @@
       </c>
       <c r="H19">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A19,SL_Sonuclari!A:A),"")</f>
-        <v>241.85714285714286</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -68917,7 +69027,7 @@
       </c>
       <c r="B22">
         <f>COUNTIF(SL_Sonuclari!C:H,A22)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
@@ -68983,11 +69093,11 @@
       </c>
       <c r="B24">
         <f>COUNTIF(SL_Sonuclari!C:H,A24)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" s="5">
         <f t="shared" si="0"/>
-        <v>200.83333333333334</v>
+        <v>204.20760233918131</v>
       </c>
       <c r="D24" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A24,SL_Sonuclari!A:A),"")</f>
@@ -69003,7 +69113,7 @@
       </c>
       <c r="G24">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A24,SL_Sonuclari!A:A),"")</f>
-        <v>250.66666666666666</v>
+        <v>260.78947368421052</v>
       </c>
       <c r="H24">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A24,SL_Sonuclari!A:A),"")</f>
@@ -69082,7 +69192,7 @@
       </c>
       <c r="B27">
         <f>COUNTIF(SL_Sonuclari!C:H,A27)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" s="5">
         <f t="shared" si="0"/>
@@ -69478,11 +69588,11 @@
       </c>
       <c r="B39">
         <f>COUNTIF(SL_Sonuclari!C:H,A39)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C39" s="5">
         <f t="shared" si="1"/>
-        <v>275.18857142857144</v>
+        <v>277.7129304029304</v>
       </c>
       <c r="D39">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A39,SL_Sonuclari!A:A),"")</f>
@@ -69494,7 +69604,7 @@
       </c>
       <c r="F39">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A39,SL_Sonuclari!A:A),"")</f>
-        <v>279.91666666666669</v>
+        <v>292.53846153846155</v>
       </c>
       <c r="G39">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A39,SL_Sonuclari!A:A),"")</f>
@@ -69874,11 +69984,11 @@
       </c>
       <c r="B51">
         <f>COUNTIF(SL_Sonuclari!C:H,A51)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C51" s="5">
         <f t="shared" si="1"/>
-        <v>197.1602272727273</v>
+        <v>201.50710227272728</v>
       </c>
       <c r="D51" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A51,SL_Sonuclari!A:A),"")</f>
@@ -69894,7 +70004,7 @@
       </c>
       <c r="G51">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A51,SL_Sonuclari!A:A),"")</f>
-        <v>165.8</v>
+        <v>183.1875</v>
       </c>
       <c r="H51">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A51,SL_Sonuclari!A:A),"")</f>
@@ -70039,11 +70149,11 @@
       </c>
       <c r="B56">
         <f>COUNTIF(SL_Sonuclari!C:H,A56)</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C56" s="5">
         <f t="shared" si="1"/>
-        <v>249.18961247086247</v>
+        <v>251.84419580419581</v>
       </c>
       <c r="D56">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A56,SL_Sonuclari!A:A),"")</f>
@@ -70051,7 +70161,7 @@
       </c>
       <c r="E56">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A56,SL_Sonuclari!A:A),"")</f>
-        <v>178.54166666666666</v>
+        <v>189.16</v>
       </c>
       <c r="F56">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A56,SL_Sonuclari!A:A),"")</f>
@@ -70175,11 +70285,11 @@
       </c>
       <c r="B60">
         <f>COUNTIF(SL_Sonuclari!C:H,A60)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C60" s="5">
         <f t="shared" si="1"/>
-        <v>241.18333333333331</v>
+        <v>247.21538461538458</v>
       </c>
       <c r="D60" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A60,SL_Sonuclari!A:A),"")</f>
@@ -70199,7 +70309,7 @@
       </c>
       <c r="H60">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A60,SL_Sonuclari!A:A),"")</f>
-        <v>208.75</v>
+        <v>226.84615384615384</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">

--- a/SLIStatistik.xlsx
+++ b/SLIStatistik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\ReadExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D167BE49-1465-42D1-9A18-CEEFDB93065F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6117421-7F91-44B5-9193-CD970478CB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
   </bookViews>
   <sheets>
     <sheet name="CSL_Sonuclari" sheetId="2" r:id="rId1"/>
@@ -612,13 +612,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21120D27-1448-4179-993C-6B3BE739480A}">
-  <dimension ref="A1:J446"/>
+  <dimension ref="A1:J447"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B426" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A447" sqref="A447"/>
+      <selection pane="bottomRight" activeCell="A448" sqref="A448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14309,6 +14309,38 @@
         <v>17</v>
       </c>
     </row>
+    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A447" s="2">
+        <v>445</v>
+      </c>
+      <c r="B447" s="1">
+        <v>45089</v>
+      </c>
+      <c r="C447" s="2">
+        <v>1</v>
+      </c>
+      <c r="D447" s="2">
+        <v>12</v>
+      </c>
+      <c r="E447" s="2">
+        <v>46</v>
+      </c>
+      <c r="F447" s="2">
+        <v>58</v>
+      </c>
+      <c r="G447" s="2">
+        <v>80</v>
+      </c>
+      <c r="H447" s="2">
+        <v>86</v>
+      </c>
+      <c r="I447" s="2">
+        <v>30</v>
+      </c>
+      <c r="J447" s="2">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J311">
     <sortCondition ref="B2:B311"/>
@@ -14320,10 +14352,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8BCBFC-83B0-4863-9D9A-FF955DDDA58C}">
-  <dimension ref="A1:H446"/>
+  <dimension ref="A1:H447"/>
   <sheetViews>
-    <sheetView topLeftCell="A414" workbookViewId="0">
-      <selection activeCell="C447" sqref="C447"/>
+    <sheetView tabSelected="1" topLeftCell="A414" workbookViewId="0">
+      <selection activeCell="I447" sqref="I447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25925,6 +25957,32 @@
       </c>
       <c r="H446">
         <v>57</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>445</v>
+      </c>
+      <c r="B447" s="1">
+        <v>45090</v>
+      </c>
+      <c r="C447">
+        <v>20</v>
+      </c>
+      <c r="D447">
+        <v>29</v>
+      </c>
+      <c r="E447">
+        <v>33</v>
+      </c>
+      <c r="F447">
+        <v>42</v>
+      </c>
+      <c r="G447">
+        <v>44</v>
+      </c>
+      <c r="H447">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -25939,7 +25997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4513EEF-0F11-4AC5-A4C7-CB00A18EA83B}">
   <dimension ref="A1:H1287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1255" workbookViewId="0">
+    <sheetView topLeftCell="A1255" workbookViewId="0">
       <selection activeCell="A1288" sqref="A1288"/>
     </sheetView>
   </sheetViews>
@@ -59502,11 +59560,11 @@
       </c>
       <c r="B2">
         <f>COUNTIF(CSL_Sonuclari!C:J,A2)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="5">
         <f t="shared" ref="C2:C33" si="0">AVERAGE(J2:Q2)</f>
-        <v>3415.4857142857145</v>
+        <v>3479.0571428571429</v>
       </c>
       <c r="D2">
         <f>COUNTIF(CSL_Sonuclari!J:J,A2)</f>
@@ -59518,11 +59576,11 @@
       </c>
       <c r="F2" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" s="8">
         <f t="shared" ref="G2:G33" si="2">IF(P2&lt;&gt;"",P2,0)</f>
-        <v>120</v>
+        <v>565</v>
       </c>
       <c r="H2">
         <f>COUNTIF(CSL_Sonuclari!C:H,A2)</f>
@@ -59558,7 +59616,7 @@
       </c>
       <c r="P2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F2,"")</f>
-        <v>120</v>
+        <v>565</v>
       </c>
       <c r="Q2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D2,"")</f>
@@ -59569,7 +59627,7 @@
       </c>
       <c r="S2">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R2)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -60034,19 +60092,19 @@
       </c>
       <c r="B9">
         <f>COUNTIF(CSL_Sonuclari!C:J,A9)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>4578.0214285714292</v>
+        <v>4641.5928571428576</v>
       </c>
       <c r="D9">
         <f>COUNTIF(CSL_Sonuclari!J:J,A9)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="1"/>
-        <v>1755</v>
+        <v>2200</v>
       </c>
       <c r="F9" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A9)</f>
@@ -60094,7 +60152,7 @@
       </c>
       <c r="Q9">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D9,"")</f>
-        <v>1755</v>
+        <v>2200</v>
       </c>
       <c r="R9" s="2">
         <v>8</v>
@@ -60405,7 +60463,7 @@
       </c>
       <c r="S13">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R13)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -61098,11 +61156,11 @@
       </c>
       <c r="B23">
         <f>COUNTIF(CSL_Sonuclari!C:J,A23)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
-        <v>4888.2824074074078</v>
+        <v>5152.916666666667</v>
       </c>
       <c r="D23">
         <f>COUNTIF(CSL_Sonuclari!J:J,A23)</f>
@@ -61122,11 +61180,11 @@
       </c>
       <c r="H23">
         <f>COUNTIF(CSL_Sonuclari!C:H,A23)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I23" s="5">
         <f t="shared" si="3"/>
-        <v>6811.1736111111113</v>
+        <v>7208.125</v>
       </c>
       <c r="J23" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H23,"")</f>
@@ -61138,19 +61196,19 @@
       </c>
       <c r="L23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H23,"")</f>
-        <v>6880.25</v>
+        <v>7117.5</v>
       </c>
       <c r="M23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H23,"")</f>
-        <v>6637.7777777777774</v>
+        <v>7515</v>
       </c>
       <c r="N23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H23,"")</f>
-        <v>5282.833333333333</v>
+        <v>5465</v>
       </c>
       <c r="O23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H23,"")</f>
-        <v>8443.8333333333339</v>
+        <v>8735</v>
       </c>
       <c r="P23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F23,"")</f>
@@ -61773,7 +61831,7 @@
       </c>
       <c r="S31">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R31)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -62922,11 +62980,11 @@
       </c>
       <c r="B47">
         <f>COUNTIF(CSL_Sonuclari!C:J,A47)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C47" s="5">
         <f t="shared" si="4"/>
-        <v>4572.6000000000004</v>
+        <v>4808.1835897435903</v>
       </c>
       <c r="D47">
         <f>COUNTIF(CSL_Sonuclari!J:J,A47)</f>
@@ -62946,11 +63004,11 @@
       </c>
       <c r="H47">
         <f>COUNTIF(CSL_Sonuclari!C:H,A47)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I47" s="5">
         <f t="shared" si="7"/>
-        <v>7105.333333333333</v>
+        <v>7497.97264957265</v>
       </c>
       <c r="J47" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H47,"")</f>
@@ -62966,15 +63024,15 @@
       </c>
       <c r="M47">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H47,"")</f>
-        <v>7480</v>
+        <v>7729.3333333333339</v>
       </c>
       <c r="N47">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H47,"")</f>
-        <v>7470</v>
+        <v>8186.3846153846162</v>
       </c>
       <c r="O47">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H47,"")</f>
-        <v>6366</v>
+        <v>6578.2</v>
       </c>
       <c r="P47">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F47,"")</f>
@@ -62989,7 +63047,7 @@
       </c>
       <c r="S47">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R47)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -63834,11 +63892,11 @@
       </c>
       <c r="B59">
         <f>COUNTIF(CSL_Sonuclari!C:J,A59)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C59" s="5">
         <f t="shared" si="4"/>
-        <v>2357.8071428571429</v>
+        <v>2474.9722222222222</v>
       </c>
       <c r="D59">
         <f>COUNTIF(CSL_Sonuclari!J:J,A59)</f>
@@ -63858,15 +63916,15 @@
       </c>
       <c r="H59">
         <f>COUNTIF(CSL_Sonuclari!C:H,A59)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I59" s="5">
         <f t="shared" si="7"/>
-        <v>4000.1142857142859</v>
+        <v>4234.4444444444443</v>
       </c>
       <c r="J59">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H59,"")</f>
-        <v>7388.2285714285717</v>
+        <v>7839.8888888888887</v>
       </c>
       <c r="K59" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H59,"")</f>
@@ -63874,7 +63932,7 @@
       </c>
       <c r="L59">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H59,"")</f>
-        <v>612</v>
+        <v>629</v>
       </c>
       <c r="M59" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H59,"")</f>
@@ -63901,7 +63959,7 @@
       </c>
       <c r="S59">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R59)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
@@ -64974,11 +65032,11 @@
       </c>
       <c r="B74">
         <f>COUNTIF(CSL_Sonuclari!C:J,A74)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C74" s="5">
         <f t="shared" si="8"/>
-        <v>5861.1203703703695</v>
+        <v>6092.5153508771937</v>
       </c>
       <c r="D74">
         <f>COUNTIF(CSL_Sonuclari!J:J,A74)</f>
@@ -64998,27 +65056,27 @@
       </c>
       <c r="H74">
         <f>COUNTIF(CSL_Sonuclari!C:H,A74)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I74" s="5">
         <f t="shared" si="11"/>
-        <v>8331.1805555555547</v>
+        <v>8678.27302631579</v>
       </c>
       <c r="J74">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H74,"")</f>
-        <v>7630.1666666666661</v>
+        <v>7854.583333333333</v>
       </c>
       <c r="K74">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H74,"")</f>
-        <v>7595.2222222222217</v>
+        <v>8226.8421052631584</v>
       </c>
       <c r="L74">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H74,"")</f>
-        <v>5995.3333333333339</v>
+        <v>6171.666666666667</v>
       </c>
       <c r="M74">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H74,"")</f>
-        <v>12104</v>
+        <v>12460</v>
       </c>
       <c r="N74" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H74,"")</f>
@@ -65126,11 +65184,11 @@
       </c>
       <c r="B76">
         <f>COUNTIF(CSL_Sonuclari!C:J,A76)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C76" s="5">
         <f t="shared" si="8"/>
-        <v>7494.9821428571431</v>
+        <v>7802.6006493506493</v>
       </c>
       <c r="D76">
         <f>COUNTIF(CSL_Sonuclari!J:J,A76)</f>
@@ -65150,35 +65208,35 @@
       </c>
       <c r="H76">
         <f>COUNTIF(CSL_Sonuclari!C:H,A76)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I76" s="5">
         <f t="shared" si="11"/>
-        <v>9488.1428571428569</v>
+        <v>9898.3008658008657</v>
       </c>
       <c r="J76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H76,"")</f>
-        <v>10800</v>
+        <v>11100</v>
       </c>
       <c r="K76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H76,"")</f>
-        <v>5585.1428571428569</v>
+        <v>5740.2857142857138</v>
       </c>
       <c r="L76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H76,"")</f>
-        <v>6606</v>
+        <v>7669.090909090909</v>
       </c>
       <c r="M76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H76,"")</f>
-        <v>11772</v>
+        <v>12099</v>
       </c>
       <c r="N76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H76,"")</f>
-        <v>9817.7142857142862</v>
+        <v>10090.428571428572</v>
       </c>
       <c r="O76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H76,"")</f>
-        <v>12348</v>
+        <v>12691</v>
       </c>
       <c r="P76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F76,"")</f>
@@ -65573,7 +65631,7 @@
       </c>
       <c r="S81">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R81)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
@@ -65582,11 +65640,11 @@
       </c>
       <c r="B82">
         <f>COUNTIF(CSL_Sonuclari!C:J,A82)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C82" s="5">
         <f t="shared" si="8"/>
-        <v>4955.3472222222226</v>
+        <v>5147.458333333333</v>
       </c>
       <c r="D82">
         <f>COUNTIF(CSL_Sonuclari!J:J,A82)</f>
@@ -65606,11 +65664,11 @@
       </c>
       <c r="H82">
         <f>COUNTIF(CSL_Sonuclari!C:H,A82)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I82" s="5">
         <f t="shared" si="11"/>
-        <v>8695.1944444444453</v>
+        <v>9079.4166666666661</v>
       </c>
       <c r="J82" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H82,"")</f>
@@ -65630,11 +65688,11 @@
       </c>
       <c r="N82">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H82,"")</f>
-        <v>9267.5</v>
+        <v>9548.3333333333321</v>
       </c>
       <c r="O82">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H82,"")</f>
-        <v>8122.8888888888887</v>
+        <v>8610.5</v>
       </c>
       <c r="P82">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F82,"")</f>
@@ -66029,7 +66087,7 @@
       </c>
       <c r="S87">
         <f>COUNTIF(CSL_Sonuclari!C:I,$R87)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
@@ -68829,15 +68887,15 @@
       </c>
       <c r="B16">
         <f>COUNTIF(SL_Sonuclari!C:H,A16)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
-        <v>203.20714285714286</v>
+        <v>208.27936507936505</v>
       </c>
       <c r="D16">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A16,SL_Sonuclari!A:A),"")</f>
-        <v>216.75</v>
+        <v>242.11111111111111</v>
       </c>
       <c r="E16">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A16,SL_Sonuclari!A:A),"")</f>
@@ -69423,7 +69481,7 @@
       </c>
       <c r="B34">
         <f>COUNTIF(SL_Sonuclari!C:H,A34)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34" s="5">
         <f t="shared" ref="C34:C61" si="1">AVERAGE(D34:H34)</f>
@@ -69456,11 +69514,11 @@
       </c>
       <c r="B35">
         <f>COUNTIF(SL_Sonuclari!C:H,A35)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C35" s="5">
         <f t="shared" si="1"/>
-        <v>223.64358974358976</v>
+        <v>227.38717948717948</v>
       </c>
       <c r="D35">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A35,SL_Sonuclari!A:A),"")</f>
@@ -69472,7 +69530,7 @@
       </c>
       <c r="F35">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A35,SL_Sonuclari!A:A),"")</f>
-        <v>201.66666666666666</v>
+        <v>220.38461538461539</v>
       </c>
       <c r="G35">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A35,SL_Sonuclari!A:A),"")</f>
@@ -69720,11 +69778,11 @@
       </c>
       <c r="B43">
         <f>COUNTIF(SL_Sonuclari!C:H,A43)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C43" s="5">
         <f t="shared" si="1"/>
-        <v>205.8735380116959</v>
+        <v>212.92054655870447</v>
       </c>
       <c r="D43" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A43,SL_Sonuclari!A:A),"")</f>
@@ -69740,7 +69798,7 @@
       </c>
       <c r="G43">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A43,SL_Sonuclari!A:A),"")</f>
-        <v>170.16666666666666</v>
+        <v>191.30769230769232</v>
       </c>
       <c r="H43">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A43,SL_Sonuclari!A:A),"")</f>
@@ -69918,11 +69976,11 @@
       </c>
       <c r="B49">
         <f>COUNTIF(SL_Sonuclari!C:H,A49)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C49" s="5">
         <f t="shared" si="1"/>
-        <v>231.37178571428572</v>
+        <v>238.09123015873016</v>
       </c>
       <c r="D49">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A49,SL_Sonuclari!A:A),"")</f>
@@ -69930,7 +69988,7 @@
       </c>
       <c r="E49">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A49,SL_Sonuclari!A:A),"")</f>
-        <v>142.625</v>
+        <v>176.22222222222223</v>
       </c>
       <c r="F49">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A49,SL_Sonuclari!A:A),"")</f>
@@ -70017,11 +70075,11 @@
       </c>
       <c r="B52">
         <f>COUNTIF(SL_Sonuclari!C:H,A52)</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C52" s="5">
         <f t="shared" si="1"/>
-        <v>219.1888544891641</v>
+        <v>222.53362573099415</v>
       </c>
       <c r="D52" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A52,SL_Sonuclari!A:A),"")</f>
@@ -70041,7 +70099,7 @@
       </c>
       <c r="H52">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A52,SL_Sonuclari!A:A),"")</f>
-        <v>204.1764705882353</v>
+        <v>217.55555555555554</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">

--- a/SLIStatistik.xlsx
+++ b/SLIStatistik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\ReadExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6117421-7F91-44B5-9193-CD970478CB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952E46E3-A807-493D-B6CA-B80280A8423E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{697C76FD-EB56-46C2-A652-C8360C5E5855}"/>
   </bookViews>
   <sheets>
     <sheet name="CSL_Sonuclari" sheetId="2" r:id="rId1"/>
@@ -615,10 +615,10 @@
   <dimension ref="A1:J447"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B426" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B415" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A448" sqref="A448"/>
+      <selection pane="bottomRight" activeCell="E448" sqref="E448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9990,7 +9990,7 @@
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A312">
+      <c r="A312" s="2">
         <v>311</v>
       </c>
       <c r="B312" s="1">
@@ -11655,7 +11655,7 @@
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B364" s="1">
         <v>44895</v>
@@ -11687,7 +11687,7 @@
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B365" s="1">
         <v>44898</v>
@@ -11719,7 +11719,7 @@
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B366" s="1">
         <v>44900</v>
@@ -11751,7 +11751,7 @@
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B367" s="1">
         <v>44902</v>
@@ -11783,7 +11783,7 @@
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B368" s="1">
         <v>44905</v>
@@ -11815,7 +11815,7 @@
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B369" s="1">
         <v>44907</v>
@@ -11847,7 +11847,7 @@
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B370" s="1">
         <v>44909</v>
@@ -11879,7 +11879,7 @@
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B371" s="1">
         <v>44912</v>
@@ -11911,7 +11911,7 @@
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B372" s="1">
         <v>44914</v>
@@ -11943,7 +11943,7 @@
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B373" s="1">
         <v>44916</v>
@@ -11975,7 +11975,7 @@
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B374" s="1">
         <v>44919</v>
@@ -12007,7 +12007,7 @@
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B375" s="1">
         <v>44921</v>
@@ -12039,7 +12039,7 @@
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B376" s="1">
         <v>44923</v>
@@ -12071,7 +12071,7 @@
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B377" s="1">
         <v>44925</v>
@@ -12103,7 +12103,7 @@
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B378" s="1">
         <v>44928</v>
@@ -12135,7 +12135,7 @@
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B379" s="1">
         <v>44930</v>
@@ -12167,7 +12167,7 @@
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B380" s="1">
         <v>44933</v>
@@ -12199,7 +12199,7 @@
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B381" s="1">
         <v>44935</v>
@@ -12231,7 +12231,7 @@
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B382" s="1">
         <v>44937</v>
@@ -12263,7 +12263,7 @@
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B383" s="1">
         <v>44940</v>
@@ -12295,7 +12295,7 @@
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B384" s="1">
         <v>44942</v>
@@ -12327,7 +12327,7 @@
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B385" s="1">
         <v>44944</v>
@@ -12359,7 +12359,7 @@
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B386" s="1">
         <v>44947</v>
@@ -12391,7 +12391,7 @@
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B387" s="1">
         <v>44949</v>
@@ -12423,7 +12423,7 @@
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B388" s="1">
         <v>44951</v>
@@ -12455,7 +12455,7 @@
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B389" s="1">
         <v>44954</v>
@@ -12487,7 +12487,7 @@
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B390" s="1">
         <v>44956</v>
@@ -12519,7 +12519,7 @@
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B391" s="1">
         <v>44958</v>
@@ -12551,7 +12551,7 @@
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B392" s="1">
         <v>44961</v>
@@ -12583,7 +12583,7 @@
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B393" s="1">
         <v>44963</v>
@@ -12615,7 +12615,7 @@
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B394" s="1">
         <v>44965</v>
@@ -12647,7 +12647,7 @@
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B395" s="1">
         <v>44968</v>
@@ -12679,7 +12679,7 @@
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B396" s="1">
         <v>44970</v>
@@ -12711,7 +12711,7 @@
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B397" s="1">
         <v>44972</v>
@@ -12743,7 +12743,7 @@
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B398" s="1">
         <v>44975</v>
@@ -12775,7 +12775,7 @@
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B399" s="1">
         <v>44977</v>
@@ -12807,7 +12807,7 @@
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B400" s="1">
         <v>44979</v>
@@ -12839,7 +12839,7 @@
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B401" s="1">
         <v>44982</v>
@@ -12871,7 +12871,7 @@
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B402" s="1">
         <v>44984</v>
@@ -12903,7 +12903,7 @@
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A403" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B403" s="1">
         <v>44986</v>
@@ -12935,7 +12935,7 @@
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A404" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B404" s="1">
         <v>44989</v>
@@ -12967,7 +12967,7 @@
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A405" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B405" s="1">
         <v>44991</v>
@@ -12999,7 +12999,7 @@
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B406" s="1">
         <v>44993</v>
@@ -13031,7 +13031,7 @@
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A407" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B407" s="1">
         <v>44996</v>
@@ -13063,7 +13063,7 @@
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B408" s="1">
         <v>44998</v>
@@ -13095,7 +13095,7 @@
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A409" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B409" s="1">
         <v>45000</v>
@@ -13127,7 +13127,7 @@
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A410" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B410" s="1">
         <v>45003</v>
@@ -13159,7 +13159,7 @@
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B411" s="1">
         <v>45005</v>
@@ -13191,7 +13191,7 @@
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A412" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B412" s="1">
         <v>45007</v>
@@ -13223,7 +13223,7 @@
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B413" s="1">
         <v>45010</v>
@@ -13255,7 +13255,7 @@
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B414" s="1">
         <v>45012</v>
@@ -13287,7 +13287,7 @@
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B415" s="1">
         <v>45014</v>
@@ -13319,7 +13319,7 @@
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B416" s="1">
         <v>45017</v>
@@ -13351,7 +13351,7 @@
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A417" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B417" s="1">
         <v>45019</v>
@@ -13383,7 +13383,7 @@
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A418" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B418" s="1">
         <v>45021</v>
@@ -13415,7 +13415,7 @@
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A419" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B419" s="1">
         <v>45024</v>
@@ -13447,7 +13447,7 @@
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A420" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B420" s="1">
         <v>45026</v>
@@ -13479,7 +13479,7 @@
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A421" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B421" s="1">
         <v>45028</v>
@@ -13511,7 +13511,7 @@
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A422" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B422" s="1">
         <v>45031</v>
@@ -13543,7 +13543,7 @@
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A423" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B423" s="1">
         <v>45033</v>
@@ -13575,7 +13575,7 @@
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A424" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B424" s="1">
         <v>45035</v>
@@ -13607,7 +13607,7 @@
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A425" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B425" s="1">
         <v>45038</v>
@@ -13639,7 +13639,7 @@
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A426" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B426" s="1">
         <v>45040</v>
@@ -13671,7 +13671,7 @@
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A427" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B427" s="1">
         <v>45042</v>
@@ -13703,7 +13703,7 @@
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A428" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B428" s="1">
         <v>45045</v>
@@ -13735,7 +13735,7 @@
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A429" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B429" s="1">
         <v>45047</v>
@@ -13767,7 +13767,7 @@
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A430" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B430" s="1">
         <v>45049</v>
@@ -13799,7 +13799,7 @@
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A431" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B431" s="1">
         <v>45052</v>
@@ -13831,7 +13831,7 @@
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A432" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B432" s="1">
         <v>45054</v>
@@ -13863,7 +13863,7 @@
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A433" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B433" s="1">
         <v>45056</v>
@@ -13895,7 +13895,7 @@
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A434" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B434" s="1">
         <v>45059</v>
@@ -13927,7 +13927,7 @@
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A435" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B435" s="1">
         <v>45061</v>
@@ -13959,7 +13959,7 @@
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A436" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B436" s="1">
         <v>45063</v>
@@ -13991,7 +13991,7 @@
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A437" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B437" s="1">
         <v>45066</v>
@@ -14023,7 +14023,7 @@
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A438" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B438" s="1">
         <v>45068</v>
@@ -14055,7 +14055,7 @@
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A439" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B439" s="1">
         <v>45070</v>
@@ -14087,7 +14087,7 @@
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A440" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B440" s="1">
         <v>45073</v>
@@ -14119,7 +14119,7 @@
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A441" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B441" s="1">
         <v>45075</v>
@@ -14151,7 +14151,7 @@
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A442" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B442" s="1">
         <v>45077</v>
@@ -14183,7 +14183,7 @@
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A443" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B443" s="1">
         <v>45080</v>
@@ -14215,7 +14215,7 @@
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A444" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B444" s="1">
         <v>45082</v>
@@ -14247,7 +14247,7 @@
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A445" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B445" s="1">
         <v>45084</v>
@@ -14279,7 +14279,7 @@
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A446" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B446" s="1">
         <v>45087</v>
@@ -14311,7 +14311,7 @@
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A447" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B447" s="1">
         <v>45089</v>
@@ -14355,7 +14355,7 @@
   <dimension ref="A1:H447"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A414" workbookViewId="0">
-      <selection activeCell="I447" sqref="I447"/>
+      <selection activeCell="B448" sqref="B448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24167,7 +24167,7 @@
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B378" s="1">
         <v>44929</v>
@@ -24193,7 +24193,7 @@
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B379" s="1">
         <v>44931</v>
@@ -24219,7 +24219,7 @@
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B380" s="1">
         <v>44934</v>
@@ -24245,7 +24245,7 @@
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B381" s="1">
         <v>44936</v>
@@ -24271,7 +24271,7 @@
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B382" s="1">
         <v>44938</v>
@@ -24297,7 +24297,7 @@
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B383" s="1">
         <v>44941</v>
@@ -24323,7 +24323,7 @@
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B384" s="1">
         <v>44943</v>
@@ -24349,7 +24349,7 @@
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B385" s="1">
         <v>44945</v>
@@ -24375,7 +24375,7 @@
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B386" s="1">
         <v>44948</v>
@@ -24401,7 +24401,7 @@
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B387" s="1">
         <v>44950</v>
@@ -24427,7 +24427,7 @@
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B388" s="1">
         <v>44952</v>
@@ -24453,7 +24453,7 @@
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B389" s="1">
         <v>44955</v>
@@ -24479,7 +24479,7 @@
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B390" s="1">
         <v>44957</v>
@@ -24505,7 +24505,7 @@
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B391" s="1">
         <v>44959</v>
@@ -24531,7 +24531,7 @@
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B392" s="1">
         <v>44962</v>
@@ -24557,7 +24557,7 @@
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B393" s="1">
         <v>44964</v>
@@ -24583,7 +24583,7 @@
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B394" s="1">
         <v>44966</v>
@@ -24609,7 +24609,7 @@
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B395" s="1">
         <v>44969</v>
@@ -24635,7 +24635,7 @@
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B396" s="1">
         <v>44971</v>
@@ -24661,7 +24661,7 @@
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B397" s="1">
         <v>44973</v>
@@ -24687,7 +24687,7 @@
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B398" s="1">
         <v>44976</v>
@@ -24713,7 +24713,7 @@
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B399" s="1">
         <v>44978</v>
@@ -24739,7 +24739,7 @@
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B400" s="1">
         <v>44980</v>
@@ -24765,7 +24765,7 @@
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B401" s="1">
         <v>44983</v>
@@ -24791,7 +24791,7 @@
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B402" s="1">
         <v>44985</v>
@@ -24817,7 +24817,7 @@
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B403" s="1">
         <v>44987</v>
@@ -24843,7 +24843,7 @@
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B404" s="1">
         <v>44990</v>
@@ -24869,7 +24869,7 @@
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B405" s="1">
         <v>44992</v>
@@ -24895,7 +24895,7 @@
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B406" s="1">
         <v>44994</v>
@@ -24921,7 +24921,7 @@
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B407" s="1">
         <v>44997</v>
@@ -24947,7 +24947,7 @@
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B408" s="1">
         <v>44999</v>
@@ -24973,7 +24973,7 @@
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B409" s="1">
         <v>45001</v>
@@ -24999,7 +24999,7 @@
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B410" s="1">
         <v>45004</v>
@@ -25025,7 +25025,7 @@
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B411" s="1">
         <v>45006</v>
@@ -25051,7 +25051,7 @@
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B412" s="1">
         <v>45008</v>
@@ -25077,7 +25077,7 @@
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B413" s="1">
         <v>45011</v>
@@ -25103,7 +25103,7 @@
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B414" s="1">
         <v>45013</v>
@@ -25129,7 +25129,7 @@
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B415" s="1">
         <v>45015</v>
@@ -25155,7 +25155,7 @@
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B416" s="1">
         <v>45018</v>
@@ -25181,7 +25181,7 @@
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B417" s="1">
         <v>45020</v>
@@ -25207,7 +25207,7 @@
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B418" s="1">
         <v>45022</v>
@@ -25233,7 +25233,7 @@
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B419" s="1">
         <v>45025</v>
@@ -25259,7 +25259,7 @@
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B420" s="1">
         <v>45027</v>
@@ -25285,7 +25285,7 @@
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B421" s="1">
         <v>45029</v>
@@ -25311,7 +25311,7 @@
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B422" s="1">
         <v>45032</v>
@@ -25337,7 +25337,7 @@
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B423" s="1">
         <v>45034</v>
@@ -25363,7 +25363,7 @@
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B424" s="1">
         <v>45036</v>
@@ -25389,7 +25389,7 @@
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B425" s="1">
         <v>45039</v>
@@ -25415,7 +25415,7 @@
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B426" s="1">
         <v>45041</v>
@@ -25441,7 +25441,7 @@
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B427" s="1">
         <v>45043</v>
@@ -25467,7 +25467,7 @@
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B428" s="1">
         <v>45046</v>
@@ -25493,7 +25493,7 @@
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B429" s="1">
         <v>45048</v>
@@ -25519,7 +25519,7 @@
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B430" s="1">
         <v>45050</v>
@@ -25545,7 +25545,7 @@
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B431" s="1">
         <v>45053</v>
@@ -25571,7 +25571,7 @@
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B432" s="1">
         <v>45055</v>
@@ -25597,7 +25597,7 @@
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B433" s="1">
         <v>45057</v>
@@ -25623,7 +25623,7 @@
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B434" s="1">
         <v>45060</v>
@@ -25649,7 +25649,7 @@
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B435" s="1">
         <v>45062</v>
@@ -25675,7 +25675,7 @@
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B436" s="1">
         <v>45064</v>
@@ -25701,7 +25701,7 @@
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B437" s="1">
         <v>45067</v>
@@ -25727,7 +25727,7 @@
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B438" s="1">
         <v>45069</v>
@@ -25753,7 +25753,7 @@
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B439" s="1">
         <v>45071</v>
@@ -25779,7 +25779,7 @@
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B440" s="1">
         <v>45074</v>
@@ -25805,7 +25805,7 @@
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B441" s="1">
         <v>45076</v>
@@ -25831,7 +25831,7 @@
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B442" s="1">
         <v>45078</v>
@@ -25857,7 +25857,7 @@
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B443" s="1">
         <v>45081</v>
@@ -25883,7 +25883,7 @@
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B444" s="1">
         <v>45083</v>
@@ -25909,7 +25909,7 @@
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B445" s="1">
         <v>45085</v>
@@ -25935,7 +25935,7 @@
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B446" s="1">
         <v>45088</v>
@@ -25961,7 +25961,7 @@
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B447" s="1">
         <v>45090</v>
@@ -59564,7 +59564,7 @@
       </c>
       <c r="C2" s="5">
         <f t="shared" ref="C2:C33" si="0">AVERAGE(J2:Q2)</f>
-        <v>3479.0571428571429</v>
+        <v>3483.7999999999997</v>
       </c>
       <c r="D2">
         <f>COUNTIF(CSL_Sonuclari!J:J,A2)</f>
@@ -59572,7 +59572,7 @@
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:E33" si="1">IF(Q2&lt;&gt;"",Q2,0)</f>
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F2" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A2)</f>
@@ -59580,7 +59580,7 @@
       </c>
       <c r="G2" s="8">
         <f t="shared" ref="G2:G33" si="2">IF(P2&lt;&gt;"",P2,0)</f>
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H2">
         <f>COUNTIF(CSL_Sonuclari!C:H,A2)</f>
@@ -59588,7 +59588,7 @@
       </c>
       <c r="I2" s="5">
         <f t="shared" ref="I2:I33" si="3">AVERAGE(J2:O2)</f>
-        <v>4621.2800000000007</v>
+        <v>4627.5199999999995</v>
       </c>
       <c r="J2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H2,"")</f>
@@ -59596,15 +59596,15 @@
       </c>
       <c r="K2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H2,"")</f>
-        <v>7099.2000000000007</v>
+        <v>7113.5999999999995</v>
       </c>
       <c r="L2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H2,"")</f>
-        <v>5628</v>
+        <v>5635.2000000000007</v>
       </c>
       <c r="M2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H2,"")</f>
-        <v>5971.2000000000007</v>
+        <v>5980.7999999999993</v>
       </c>
       <c r="N2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H2,"")</f>
@@ -59616,11 +59616,11 @@
       </c>
       <c r="P2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F2,"")</f>
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="Q2">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D2,"")</f>
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="R2" s="2">
         <v>1</v>
@@ -59640,7 +59640,7 @@
       </c>
       <c r="C3" s="5">
         <f t="shared" si="0"/>
-        <v>4228.5</v>
+        <v>4235.4027777777783</v>
       </c>
       <c r="D3">
         <f>COUNTIF(CSL_Sonuclari!J:J,A3)</f>
@@ -59656,7 +59656,7 @@
       </c>
       <c r="G3" s="8">
         <f t="shared" si="2"/>
-        <v>1511</v>
+        <v>1514</v>
       </c>
       <c r="H3">
         <f>COUNTIF(CSL_Sonuclari!C:H,A3)</f>
@@ -59664,11 +59664,11 @@
       </c>
       <c r="I3" s="5">
         <f t="shared" si="3"/>
-        <v>5333.333333333333</v>
+        <v>5342.0370370370374</v>
       </c>
       <c r="J3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H3,"")</f>
-        <v>7420</v>
+        <v>7440</v>
       </c>
       <c r="K3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H3,"")</f>
@@ -59676,23 +59676,23 @@
       </c>
       <c r="L3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H3,"")</f>
-        <v>6520</v>
+        <v>6533.3333333333339</v>
       </c>
       <c r="M3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H3,"")</f>
-        <v>3846.666666666667</v>
+        <v>3848.8888888888891</v>
       </c>
       <c r="N3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H3,"")</f>
-        <v>4793.333333333333</v>
+        <v>4800</v>
       </c>
       <c r="O3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H3,"")</f>
-        <v>6900</v>
+        <v>6910</v>
       </c>
       <c r="P3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F3,"")</f>
-        <v>1511</v>
+        <v>1514</v>
       </c>
       <c r="Q3">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D3,"")</f>
@@ -59716,7 +59716,7 @@
       </c>
       <c r="C4" s="5">
         <f t="shared" si="0"/>
-        <v>4614.315217391304</v>
+        <v>4621.858695652174</v>
       </c>
       <c r="D4">
         <f>COUNTIF(CSL_Sonuclari!J:J,A4)</f>
@@ -59724,7 +59724,7 @@
       </c>
       <c r="E4" s="5">
         <f t="shared" si="1"/>
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="F4" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A4)</f>
@@ -59732,7 +59732,7 @@
       </c>
       <c r="G4" s="8">
         <f t="shared" si="2"/>
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H4">
         <f>COUNTIF(CSL_Sonuclari!C:H,A4)</f>
@@ -59740,15 +59740,15 @@
       </c>
       <c r="I4" s="5">
         <f t="shared" si="3"/>
-        <v>7959.130434782609</v>
+        <v>7973.217391304348</v>
       </c>
       <c r="J4">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H4,"")</f>
-        <v>5886.2608695652179</v>
+        <v>5890.434782608696</v>
       </c>
       <c r="K4">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H4,"")</f>
-        <v>10032</v>
+        <v>10056</v>
       </c>
       <c r="L4" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H4,"")</f>
@@ -59768,11 +59768,11 @@
       </c>
       <c r="P4">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F4,"")</f>
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="Q4">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D4,"")</f>
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="R4" s="2">
         <v>3</v>
@@ -59792,7 +59792,7 @@
       </c>
       <c r="C5" s="5">
         <f t="shared" si="0"/>
-        <v>3406.1666666666665</v>
+        <v>3408.9666666666667</v>
       </c>
       <c r="D5">
         <f>COUNTIF(CSL_Sonuclari!J:J,A5)</f>
@@ -59800,7 +59800,7 @@
       </c>
       <c r="E5" s="5">
         <f t="shared" si="1"/>
-        <v>1863</v>
+        <v>1867</v>
       </c>
       <c r="F5" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A5)</f>
@@ -59816,7 +59816,7 @@
       </c>
       <c r="I5" s="5">
         <f t="shared" si="3"/>
-        <v>4342.5</v>
+        <v>4345.7</v>
       </c>
       <c r="J5" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H5,"")</f>
@@ -59832,15 +59832,15 @@
       </c>
       <c r="M5">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H5,"")</f>
-        <v>3938</v>
+        <v>3942.3999999999996</v>
       </c>
       <c r="N5">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H5,"")</f>
-        <v>4720</v>
+        <v>4724</v>
       </c>
       <c r="O5">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H5,"")</f>
-        <v>3300</v>
+        <v>3304.3999999999996</v>
       </c>
       <c r="P5">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F5,"")</f>
@@ -59848,7 +59848,7 @@
       </c>
       <c r="Q5">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D5,"")</f>
-        <v>1863</v>
+        <v>1867</v>
       </c>
       <c r="R5" s="2">
         <v>4</v>
@@ -59868,7 +59868,7 @@
       </c>
       <c r="C6" s="5">
         <f t="shared" si="0"/>
-        <v>3711.2181818181825</v>
+        <v>3714.2</v>
       </c>
       <c r="D6">
         <f>COUNTIF(CSL_Sonuclari!J:J,A6)</f>
@@ -59884,7 +59884,7 @@
       </c>
       <c r="G6" s="8">
         <f t="shared" si="2"/>
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="H6">
         <f>COUNTIF(CSL_Sonuclari!C:H,A6)</f>
@@ -59892,11 +59892,11 @@
       </c>
       <c r="I6" s="5">
         <f t="shared" si="3"/>
-        <v>4210.7727272727279</v>
+        <v>4214.25</v>
       </c>
       <c r="J6">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H6,"")</f>
-        <v>4837.0909090909099</v>
+        <v>4842</v>
       </c>
       <c r="K6">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H6,"")</f>
@@ -59904,7 +59904,7 @@
       </c>
       <c r="L6">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H6,"")</f>
-        <v>7164</v>
+        <v>7173</v>
       </c>
       <c r="M6" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H6,"")</f>
@@ -59920,7 +59920,7 @@
       </c>
       <c r="P6">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F6,"")</f>
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="Q6" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D6,"")</f>
@@ -59944,7 +59944,7 @@
       </c>
       <c r="C7" s="5">
         <f t="shared" si="0"/>
-        <v>3111.8445378151259</v>
+        <v>3113.5406162464988</v>
       </c>
       <c r="D7">
         <f>COUNTIF(CSL_Sonuclari!J:J,A7)</f>
@@ -59952,7 +59952,7 @@
       </c>
       <c r="E7" s="5">
         <f t="shared" si="1"/>
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="F7" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A7)</f>
@@ -59968,11 +59968,11 @@
       </c>
       <c r="I7" s="5">
         <f t="shared" si="3"/>
-        <v>4211.0168067226887</v>
+        <v>4213.3109243697481</v>
       </c>
       <c r="J7">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H7,"")</f>
-        <v>6830.3529411764703</v>
+        <v>6839.5294117647063</v>
       </c>
       <c r="K7">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H7,"")</f>
@@ -60000,7 +60000,7 @@
       </c>
       <c r="Q7">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D7,"")</f>
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="R7" s="2">
         <v>6</v>
@@ -60020,7 +60020,7 @@
       </c>
       <c r="C8" s="5">
         <f t="shared" si="0"/>
-        <v>3126.3523809523808</v>
+        <v>3128.4412698412698</v>
       </c>
       <c r="D8">
         <f>COUNTIF(CSL_Sonuclari!J:J,A8)</f>
@@ -60028,7 +60028,7 @@
       </c>
       <c r="E8" s="5">
         <f t="shared" si="1"/>
-        <v>1826</v>
+        <v>1830</v>
       </c>
       <c r="F8" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A8)</f>
@@ -60036,7 +60036,7 @@
       </c>
       <c r="G8" s="8">
         <f t="shared" si="2"/>
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="H8">
         <f>COUNTIF(CSL_Sonuclari!C:H,A8)</f>
@@ -60044,7 +60044,7 @@
       </c>
       <c r="I8" s="5">
         <f t="shared" si="3"/>
-        <v>4178.2539682539682</v>
+        <v>4179.7354497354499</v>
       </c>
       <c r="J8" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H8,"")</f>
@@ -60068,15 +60068,15 @@
       </c>
       <c r="O8">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H8,"")</f>
-        <v>4553.333333333333</v>
+        <v>4557.7777777777774</v>
       </c>
       <c r="P8">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F8,"")</f>
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="Q8">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D8,"")</f>
-        <v>1826</v>
+        <v>1830</v>
       </c>
       <c r="R8" s="2">
         <v>7</v>
@@ -60096,7 +60096,7 @@
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>4641.5928571428576</v>
+        <v>4647.611904761905</v>
       </c>
       <c r="D9">
         <f>COUNTIF(CSL_Sonuclari!J:J,A9)</f>
@@ -60104,7 +60104,7 @@
       </c>
       <c r="E9" s="5">
         <f t="shared" si="1"/>
-        <v>2200</v>
+        <v>2203</v>
       </c>
       <c r="F9" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A9)</f>
@@ -60112,7 +60112,7 @@
       </c>
       <c r="G9" s="8">
         <f t="shared" si="2"/>
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H9">
         <f>COUNTIF(CSL_Sonuclari!C:H,A9)</f>
@@ -60120,7 +60120,7 @@
       </c>
       <c r="I9" s="5">
         <f t="shared" si="3"/>
-        <v>5884.2300000000005</v>
+        <v>5891.8566666666666</v>
       </c>
       <c r="J9" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H9,"")</f>
@@ -60136,23 +60136,23 @@
       </c>
       <c r="M9">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H9,"")</f>
-        <v>4653</v>
+        <v>4660.3333333333339</v>
       </c>
       <c r="N9">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H9,"")</f>
-        <v>6802.4</v>
+        <v>6811.2000000000007</v>
       </c>
       <c r="O9">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H9,"")</f>
-        <v>8668</v>
+        <v>8690</v>
       </c>
       <c r="P9">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F9,"")</f>
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="Q9">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D9,"")</f>
-        <v>2200</v>
+        <v>2203</v>
       </c>
       <c r="R9" s="2">
         <v>8</v>
@@ -60172,7 +60172,7 @@
       </c>
       <c r="C10" s="5">
         <f t="shared" si="0"/>
-        <v>4741.6428571428569</v>
+        <v>4745.2857142857147</v>
       </c>
       <c r="D10">
         <f>COUNTIF(CSL_Sonuclari!J:J,A10)</f>
@@ -60180,7 +60180,7 @@
       </c>
       <c r="E10" s="5">
         <f t="shared" si="1"/>
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="F10" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A10)</f>
@@ -60188,7 +60188,7 @@
       </c>
       <c r="G10" s="8">
         <f t="shared" si="2"/>
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H10">
         <f>COUNTIF(CSL_Sonuclari!C:H,A10)</f>
@@ -60196,23 +60196,23 @@
       </c>
       <c r="I10" s="5">
         <f t="shared" si="3"/>
-        <v>6261.5</v>
+        <v>6266</v>
       </c>
       <c r="J10">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H10,"")</f>
-        <v>4883.3333333333339</v>
+        <v>4887.5</v>
       </c>
       <c r="K10">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H10,"")</f>
-        <v>5445.8333333333339</v>
+        <v>5450</v>
       </c>
       <c r="L10">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H10,"")</f>
-        <v>8145</v>
+        <v>8155</v>
       </c>
       <c r="M10">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H10,"")</f>
-        <v>5895.8333333333339</v>
+        <v>5900</v>
       </c>
       <c r="N10">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H10,"")</f>
@@ -60224,11 +60224,11 @@
       </c>
       <c r="P10">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F10,"")</f>
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="Q10">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D10,"")</f>
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="R10" s="2">
         <v>9</v>
@@ -60248,7 +60248,7 @@
       </c>
       <c r="C11" s="5">
         <f t="shared" si="0"/>
-        <v>3537.8769841269846</v>
+        <v>3539.7738095238096</v>
       </c>
       <c r="D11">
         <f>COUNTIF(CSL_Sonuclari!J:J,A11)</f>
@@ -60264,7 +60264,7 @@
       </c>
       <c r="G11" s="8">
         <f t="shared" si="2"/>
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H11">
         <f>COUNTIF(CSL_Sonuclari!C:H,A11)</f>
@@ -60272,7 +60272,7 @@
       </c>
       <c r="I11" s="5">
         <f t="shared" si="3"/>
-        <v>4751.4277777777779</v>
+        <v>4753.8833333333332</v>
       </c>
       <c r="J11">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H11,"")</f>
@@ -60280,7 +60280,7 @@
       </c>
       <c r="K11">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H11,"")</f>
-        <v>7393.75</v>
+        <v>7400.25</v>
       </c>
       <c r="L11">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H11,"")</f>
@@ -60288,7 +60288,7 @@
       </c>
       <c r="M11">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H11,"")</f>
-        <v>6476.8888888888887</v>
+        <v>6482.666666666667</v>
       </c>
       <c r="N11">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H11,"")</f>
@@ -60300,7 +60300,7 @@
       </c>
       <c r="P11">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F11,"")</f>
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="Q11">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D11,"")</f>
@@ -60324,7 +60324,7 @@
       </c>
       <c r="C12" s="5">
         <f t="shared" si="0"/>
-        <v>2029.1964285714287</v>
+        <v>2031</v>
       </c>
       <c r="D12">
         <f>COUNTIF(CSL_Sonuclari!J:J,A12)</f>
@@ -60332,7 +60332,7 @@
       </c>
       <c r="E12" s="5">
         <f t="shared" si="1"/>
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F12" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A12)</f>
@@ -60340,7 +60340,7 @@
       </c>
       <c r="G12" s="8">
         <f t="shared" si="2"/>
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="H12">
         <f>COUNTIF(CSL_Sonuclari!C:H,A12)</f>
@@ -60348,7 +60348,7 @@
       </c>
       <c r="I12" s="5">
         <f t="shared" si="3"/>
-        <v>2449.2750000000001</v>
+        <v>2451.4</v>
       </c>
       <c r="J12" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H12,"")</f>
@@ -60356,7 +60356,7 @@
       </c>
       <c r="K12">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H12,"")</f>
-        <v>3281</v>
+        <v>3289.5</v>
       </c>
       <c r="L12">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H12,"")</f>
@@ -60364,7 +60364,7 @@
       </c>
       <c r="M12">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H12,"")</f>
-        <v>2624.375</v>
+        <v>2626.5</v>
       </c>
       <c r="N12">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H12,"")</f>
@@ -60376,11 +60376,11 @@
       </c>
       <c r="P12">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F12,"")</f>
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="Q12">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D12,"")</f>
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="R12" s="2">
         <v>11</v>
@@ -60400,7 +60400,7 @@
       </c>
       <c r="C13" s="5">
         <f t="shared" si="0"/>
-        <v>3379.7685185185182</v>
+        <v>3381.6759259259256</v>
       </c>
       <c r="D13">
         <f>COUNTIF(CSL_Sonuclari!J:J,A13)</f>
@@ -60408,7 +60408,7 @@
       </c>
       <c r="E13" s="5">
         <f t="shared" si="1"/>
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="F13" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A13)</f>
@@ -60416,7 +60416,7 @@
       </c>
       <c r="G13" s="8">
         <f t="shared" si="2"/>
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="H13">
         <f>COUNTIF(CSL_Sonuclari!C:H,A13)</f>
@@ -60424,15 +60424,15 @@
       </c>
       <c r="I13" s="5">
         <f t="shared" si="3"/>
-        <v>4330.1527777777774</v>
+        <v>4332.2638888888887</v>
       </c>
       <c r="J13">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H13,"")</f>
-        <v>3536.1111111111113</v>
+        <v>3538.2222222222222</v>
       </c>
       <c r="K13">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H13,"")</f>
-        <v>5519.5</v>
+        <v>5525.833333333333</v>
       </c>
       <c r="L13">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H13,"")</f>
@@ -60452,11 +60452,11 @@
       </c>
       <c r="P13">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F13,"")</f>
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="Q13">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D13,"")</f>
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="R13" s="2">
         <v>12</v>
@@ -60476,7 +60476,7 @@
       </c>
       <c r="C14" s="5">
         <f t="shared" si="0"/>
-        <v>5973.197802197802</v>
+        <v>5982.9780219780223</v>
       </c>
       <c r="D14">
         <f>COUNTIF(CSL_Sonuclari!J:J,A14)</f>
@@ -60492,7 +60492,7 @@
       </c>
       <c r="G14" s="8">
         <f t="shared" si="2"/>
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="H14">
         <f>COUNTIF(CSL_Sonuclari!C:H,A14)</f>
@@ -60500,27 +60500,27 @@
       </c>
       <c r="I14" s="5">
         <f t="shared" si="3"/>
-        <v>8134.6769230769232</v>
+        <v>8147.9692307692312</v>
       </c>
       <c r="J14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H14,"")</f>
-        <v>10962</v>
+        <v>10990</v>
       </c>
       <c r="K14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H14,"")</f>
-        <v>7348</v>
+        <v>7352</v>
       </c>
       <c r="L14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H14,"")</f>
-        <v>6151.3846153846152</v>
+        <v>6157.8461538461543</v>
       </c>
       <c r="M14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H14,"")</f>
-        <v>6398</v>
+        <v>6412</v>
       </c>
       <c r="N14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H14,"")</f>
-        <v>9814</v>
+        <v>9828</v>
       </c>
       <c r="O14" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H14,"")</f>
@@ -60528,7 +60528,7 @@
       </c>
       <c r="P14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F14,"")</f>
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="Q14">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D14,"")</f>
@@ -60552,7 +60552,7 @@
       </c>
       <c r="C15" s="5">
         <f t="shared" si="0"/>
-        <v>4041.238095238095</v>
+        <v>4042.4285714285716</v>
       </c>
       <c r="D15">
         <f>COUNTIF(CSL_Sonuclari!J:J,A15)</f>
@@ -60576,7 +60576,7 @@
       </c>
       <c r="I15" s="5">
         <f t="shared" si="3"/>
-        <v>5426.333333333333</v>
+        <v>5428</v>
       </c>
       <c r="J15">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H15,"")</f>
@@ -60584,11 +60584,11 @@
       </c>
       <c r="K15">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H15,"")</f>
-        <v>7490.6666666666661</v>
+        <v>7496</v>
       </c>
       <c r="L15">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H15,"")</f>
-        <v>5433</v>
+        <v>5436</v>
       </c>
       <c r="M15">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H15,"")</f>
@@ -60628,7 +60628,7 @@
       </c>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
-        <v>3465.9305555555561</v>
+        <v>3469.1516203703704</v>
       </c>
       <c r="D16">
         <f>COUNTIF(CSL_Sonuclari!J:J,A16)</f>
@@ -60636,7 +60636,7 @@
       </c>
       <c r="E16" s="5">
         <f t="shared" si="1"/>
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="F16" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A16)</f>
@@ -60652,7 +60652,7 @@
       </c>
       <c r="I16" s="5">
         <f t="shared" si="3"/>
-        <v>4914.8958333333339</v>
+        <v>4919.4774305555557</v>
       </c>
       <c r="J16" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H16,"")</f>
@@ -60672,11 +60672,11 @@
       </c>
       <c r="N16">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H16,"")</f>
-        <v>7530.3333333333339</v>
+        <v>7543.2222222222217</v>
       </c>
       <c r="O16">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H16,"")</f>
-        <v>5778.25</v>
+        <v>5783.6875</v>
       </c>
       <c r="P16">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F16,"")</f>
@@ -60684,7 +60684,7 @@
       </c>
       <c r="Q16">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D16,"")</f>
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="R16" s="2">
         <v>15</v>
@@ -60704,7 +60704,7 @@
       </c>
       <c r="C17" s="5">
         <f t="shared" si="0"/>
-        <v>3520.5444444444443</v>
+        <v>3523.1388888888891</v>
       </c>
       <c r="D17">
         <f>COUNTIF(CSL_Sonuclari!J:J,A17)</f>
@@ -60720,7 +60720,7 @@
       </c>
       <c r="G17" s="8">
         <f t="shared" si="2"/>
-        <v>1833</v>
+        <v>1835</v>
       </c>
       <c r="H17">
         <f>COUNTIF(CSL_Sonuclari!C:H,A17)</f>
@@ -60728,19 +60728,19 @@
       </c>
       <c r="I17" s="5">
         <f t="shared" si="3"/>
-        <v>4771.0666666666666</v>
+        <v>4774.4583333333339</v>
       </c>
       <c r="J17">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H17,"")</f>
-        <v>4334</v>
+        <v>4335.8333333333339</v>
       </c>
       <c r="K17">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H17,"")</f>
-        <v>5275.6</v>
+        <v>5280</v>
       </c>
       <c r="L17">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H17,"")</f>
-        <v>5800.666666666667</v>
+        <v>5808</v>
       </c>
       <c r="M17">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H17,"")</f>
@@ -60756,7 +60756,7 @@
       </c>
       <c r="P17">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F17,"")</f>
-        <v>1833</v>
+        <v>1835</v>
       </c>
       <c r="Q17">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D17,"")</f>
@@ -60780,7 +60780,7 @@
       </c>
       <c r="C18" s="5">
         <f t="shared" si="0"/>
-        <v>3318.3714285714291</v>
+        <v>3320.6545454545458</v>
       </c>
       <c r="D18">
         <f>COUNTIF(CSL_Sonuclari!J:J,A18)</f>
@@ -60796,7 +60796,7 @@
       </c>
       <c r="G18" s="8">
         <f t="shared" si="2"/>
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="H18">
         <f>COUNTIF(CSL_Sonuclari!C:H,A18)</f>
@@ -60804,7 +60804,7 @@
       </c>
       <c r="I18" s="5">
         <f t="shared" si="3"/>
-        <v>5064.2857142857147</v>
+        <v>5067.4242424242429</v>
       </c>
       <c r="J18" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H18,"")</f>
@@ -60820,7 +60820,7 @@
       </c>
       <c r="M18">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H18,"")</f>
-        <v>5996.4285714285716</v>
+        <v>6003.5714285714284</v>
       </c>
       <c r="N18">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H18,"")</f>
@@ -60828,11 +60828,11 @@
       </c>
       <c r="O18">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H18,"")</f>
-        <v>5300</v>
+        <v>5302.272727272727</v>
       </c>
       <c r="P18">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F18,"")</f>
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="Q18">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D18,"")</f>
@@ -60856,7 +60856,7 @@
       </c>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
-        <v>2862.3206349206348</v>
+        <v>2864.9968253968254</v>
       </c>
       <c r="D19">
         <f>COUNTIF(CSL_Sonuclari!J:J,A19)</f>
@@ -60864,7 +60864,7 @@
       </c>
       <c r="E19" s="5">
         <f t="shared" si="1"/>
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F19" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A19)</f>
@@ -60880,7 +60880,7 @@
       </c>
       <c r="I19" s="5">
         <f t="shared" si="3"/>
-        <v>4179.534391534391</v>
+        <v>4183.661375661376</v>
       </c>
       <c r="J19" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H19,"")</f>
@@ -60900,11 +60900,11 @@
       </c>
       <c r="N19">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H19,"")</f>
-        <v>5957.7142857142853</v>
+        <v>5961.4285714285716</v>
       </c>
       <c r="O19">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H19,"")</f>
-        <v>6268.8888888888887</v>
+        <v>6277.5555555555557</v>
       </c>
       <c r="P19">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F19,"")</f>
@@ -60912,7 +60912,7 @@
       </c>
       <c r="Q19">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D19,"")</f>
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="R19" s="2">
         <v>18</v>
@@ -60932,7 +60932,7 @@
       </c>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
-        <v>3642.8250000000003</v>
+        <v>3645.9333333333329</v>
       </c>
       <c r="D20">
         <f>COUNTIF(CSL_Sonuclari!J:J,A20)</f>
@@ -60940,7 +60940,7 @@
       </c>
       <c r="E20" s="5">
         <f t="shared" si="1"/>
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="F20" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A20)</f>
@@ -60956,7 +60956,7 @@
       </c>
       <c r="I20" s="5">
         <f t="shared" si="3"/>
-        <v>4915.2375000000002</v>
+        <v>4919.3999999999996</v>
       </c>
       <c r="J20" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H20,"")</f>
@@ -60972,15 +60972,15 @@
       </c>
       <c r="M20">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H20,"")</f>
-        <v>5274</v>
+        <v>5278.5</v>
       </c>
       <c r="N20">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H20,"")</f>
-        <v>6752.7</v>
+        <v>6758.1</v>
       </c>
       <c r="O20">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H20,"")</f>
-        <v>7121.25</v>
+        <v>7128</v>
       </c>
       <c r="P20">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F20,"")</f>
@@ -60988,7 +60988,7 @@
       </c>
       <c r="Q20">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D20,"")</f>
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="R20" s="2">
         <v>19</v>
@@ -61008,7 +61008,7 @@
       </c>
       <c r="C21" s="5">
         <f t="shared" si="0"/>
-        <v>4236.3809523809523</v>
+        <v>4240.5986394557822</v>
       </c>
       <c r="D21">
         <f>COUNTIF(CSL_Sonuclari!J:J,A21)</f>
@@ -61032,19 +61032,19 @@
       </c>
       <c r="I21" s="5">
         <f t="shared" si="3"/>
-        <v>5703.7333333333336</v>
+        <v>5709.638095238095</v>
       </c>
       <c r="J21">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H21,"")</f>
-        <v>7596</v>
+        <v>7608</v>
       </c>
       <c r="K21">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H21,"")</f>
-        <v>3874.666666666667</v>
+        <v>3877.333333333333</v>
       </c>
       <c r="L21">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H21,"")</f>
-        <v>6624</v>
+        <v>6630.8571428571431</v>
       </c>
       <c r="M21">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H21,"")</f>
@@ -61052,7 +61052,7 @@
       </c>
       <c r="N21">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H21,"")</f>
-        <v>5760</v>
+        <v>5768</v>
       </c>
       <c r="O21" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H21,"")</f>
@@ -61084,7 +61084,7 @@
       </c>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
-        <v>6014.2666666666664</v>
+        <v>6020.7249999999995</v>
       </c>
       <c r="D22">
         <f>COUNTIF(CSL_Sonuclari!J:J,A22)</f>
@@ -61092,7 +61092,7 @@
       </c>
       <c r="E22" s="5">
         <f t="shared" si="1"/>
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="F22" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A22)</f>
@@ -61100,7 +61100,7 @@
       </c>
       <c r="G22" s="8">
         <f t="shared" si="2"/>
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H22">
         <f>COUNTIF(CSL_Sonuclari!C:H,A22)</f>
@@ -61108,7 +61108,7 @@
       </c>
       <c r="I22" s="5">
         <f t="shared" si="3"/>
-        <v>8628.4</v>
+        <v>8637.3374999999996</v>
       </c>
       <c r="J22" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H22,"")</f>
@@ -61120,27 +61120,27 @@
       </c>
       <c r="L22">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H22,"")</f>
-        <v>10730.5</v>
+        <v>10747</v>
       </c>
       <c r="M22">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H22,"")</f>
-        <v>7962.9000000000005</v>
+        <v>7966.2</v>
       </c>
       <c r="N22">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H22,"")</f>
-        <v>7260</v>
+        <v>7262.75</v>
       </c>
       <c r="O22">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H22,"")</f>
-        <v>8560.1999999999989</v>
+        <v>8573.4</v>
       </c>
       <c r="P22">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F22,"")</f>
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="Q22">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D22,"")</f>
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="R22" s="2">
         <v>21</v>
@@ -61160,7 +61160,7 @@
       </c>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
-        <v>5152.916666666667</v>
+        <v>5158.541666666667</v>
       </c>
       <c r="D23">
         <f>COUNTIF(CSL_Sonuclari!J:J,A23)</f>
@@ -61168,7 +61168,7 @@
       </c>
       <c r="E23" s="5">
         <f t="shared" si="1"/>
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F23" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A23)</f>
@@ -61176,7 +61176,7 @@
       </c>
       <c r="G23" s="8">
         <f t="shared" si="2"/>
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="H23">
         <f>COUNTIF(CSL_Sonuclari!C:H,A23)</f>
@@ -61184,7 +61184,7 @@
       </c>
       <c r="I23" s="5">
         <f t="shared" si="3"/>
-        <v>7208.125</v>
+        <v>7215.8125</v>
       </c>
       <c r="J23" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H23,"")</f>
@@ -61196,27 +61196,27 @@
       </c>
       <c r="L23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H23,"")</f>
-        <v>7117.5</v>
+        <v>7121.25</v>
       </c>
       <c r="M23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H23,"")</f>
-        <v>7515</v>
+        <v>7527</v>
       </c>
       <c r="N23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H23,"")</f>
-        <v>5465</v>
+        <v>5470</v>
       </c>
       <c r="O23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H23,"")</f>
-        <v>8735</v>
+        <v>8745</v>
       </c>
       <c r="P23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F23,"")</f>
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="Q23">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D23,"")</f>
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="R23" s="2">
         <v>22</v>
@@ -61236,7 +61236,7 @@
       </c>
       <c r="C24" s="5">
         <f t="shared" si="0"/>
-        <v>5633.5765306122457</v>
+        <v>5637.4438775510207</v>
       </c>
       <c r="D24">
         <f>COUNTIF(CSL_Sonuclari!J:J,A24)</f>
@@ -61252,7 +61252,7 @@
       </c>
       <c r="G24" s="8">
         <f t="shared" si="2"/>
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="H24">
         <f>COUNTIF(CSL_Sonuclari!C:H,A24)</f>
@@ -61260,7 +61260,7 @@
       </c>
       <c r="I24" s="5">
         <f t="shared" si="3"/>
-        <v>7468.0071428571437</v>
+        <v>7473.0214285714292</v>
       </c>
       <c r="J24" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H24,"")</f>
@@ -61276,19 +61276,19 @@
       </c>
       <c r="M24">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H24,"")</f>
-        <v>7580.25</v>
+        <v>7593.75</v>
       </c>
       <c r="N24">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H24,"")</f>
-        <v>7560</v>
+        <v>7567.7142857142853</v>
       </c>
       <c r="O24">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H24,"")</f>
-        <v>5972.7857142857147</v>
+        <v>5976.6428571428569</v>
       </c>
       <c r="P24">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F24,"")</f>
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="Q24">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D24,"")</f>
@@ -61312,7 +61312,7 @@
       </c>
       <c r="C25" s="5">
         <f t="shared" si="0"/>
-        <v>5479.8909090909092</v>
+        <v>5484.8</v>
       </c>
       <c r="D25">
         <f>COUNTIF(CSL_Sonuclari!J:J,A25)</f>
@@ -61320,7 +61320,7 @@
       </c>
       <c r="E25" s="5">
         <f t="shared" si="1"/>
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F25" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A25)</f>
@@ -61328,7 +61328,7 @@
       </c>
       <c r="G25" s="8">
         <f t="shared" si="2"/>
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H25">
         <f>COUNTIF(CSL_Sonuclari!C:H,A25)</f>
@@ -61336,15 +61336,15 @@
       </c>
       <c r="I25" s="5">
         <f t="shared" si="3"/>
-        <v>8755.1515151515141</v>
+        <v>8762.6666666666661</v>
       </c>
       <c r="J25">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H25,"")</f>
-        <v>6781.954545454546</v>
+        <v>6789</v>
       </c>
       <c r="K25">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H25,"")</f>
-        <v>8664.5</v>
+        <v>8680</v>
       </c>
       <c r="L25">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H25,"")</f>
@@ -61364,11 +61364,11 @@
       </c>
       <c r="P25">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F25,"")</f>
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="Q25">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D25,"")</f>
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="R25" s="2">
         <v>24</v>
@@ -61388,7 +61388,7 @@
       </c>
       <c r="C26" s="5">
         <f t="shared" si="0"/>
-        <v>4801.5690476190475</v>
+        <v>4805.6541666666662</v>
       </c>
       <c r="D26">
         <f>COUNTIF(CSL_Sonuclari!J:J,A26)</f>
@@ -61396,7 +61396,7 @@
       </c>
       <c r="E26" s="5">
         <f t="shared" si="1"/>
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="F26" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A26)</f>
@@ -61412,7 +61412,7 @@
       </c>
       <c r="I26" s="5">
         <f t="shared" si="3"/>
-        <v>6728.1035714285717</v>
+        <v>6733.9812499999998</v>
       </c>
       <c r="J26" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H26,"")</f>
@@ -61428,15 +61428,15 @@
       </c>
       <c r="M26">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H26,"")</f>
-        <v>6235</v>
+        <v>6238.625</v>
       </c>
       <c r="N26">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H26,"")</f>
-        <v>7894.2142857142862</v>
+        <v>7902.5</v>
       </c>
       <c r="O26">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H26,"")</f>
-        <v>9129.2000000000007</v>
+        <v>9140.7999999999993</v>
       </c>
       <c r="P26">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F26,"")</f>
@@ -61444,7 +61444,7 @@
       </c>
       <c r="Q26">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D26,"")</f>
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="R26" s="2">
         <v>25</v>
@@ -61464,7 +61464,7 @@
       </c>
       <c r="C27" s="5">
         <f t="shared" si="0"/>
-        <v>5604.333333333333</v>
+        <v>5608.25</v>
       </c>
       <c r="D27">
         <f>COUNTIF(CSL_Sonuclari!J:J,A27)</f>
@@ -61472,7 +61472,7 @@
       </c>
       <c r="E27" s="5">
         <f t="shared" si="1"/>
-        <v>1873</v>
+        <v>1877</v>
       </c>
       <c r="F27" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A27)</f>
@@ -61480,7 +61480,7 @@
       </c>
       <c r="G27" s="8">
         <f t="shared" si="2"/>
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="H27">
         <f>COUNTIF(CSL_Sonuclari!C:H,A27)</f>
@@ -61488,19 +61488,19 @@
       </c>
       <c r="I27" s="5">
         <f t="shared" si="3"/>
-        <v>7596.75</v>
+        <v>7601.375</v>
       </c>
       <c r="J27">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H27,"")</f>
-        <v>7010</v>
+        <v>7012.5</v>
       </c>
       <c r="K27">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H27,"")</f>
-        <v>7045</v>
+        <v>7055</v>
       </c>
       <c r="L27">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H27,"")</f>
-        <v>6972</v>
+        <v>6978</v>
       </c>
       <c r="M27">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H27,"")</f>
@@ -61516,11 +61516,11 @@
       </c>
       <c r="P27">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F27,"")</f>
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="Q27">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D27,"")</f>
-        <v>1873</v>
+        <v>1877</v>
       </c>
       <c r="R27" s="2">
         <v>26</v>
@@ -61540,7 +61540,7 @@
       </c>
       <c r="C28" s="5">
         <f t="shared" si="0"/>
-        <v>3955.3982683982686</v>
+        <v>3957.8787878787884</v>
       </c>
       <c r="D28">
         <f>COUNTIF(CSL_Sonuclari!J:J,A28)</f>
@@ -61556,7 +61556,7 @@
       </c>
       <c r="G28" s="8">
         <f t="shared" si="2"/>
-        <v>1778</v>
+        <v>1780</v>
       </c>
       <c r="H28">
         <f>COUNTIF(CSL_Sonuclari!C:H,A28)</f>
@@ -61564,7 +61564,7 @@
       </c>
       <c r="I28" s="5">
         <f t="shared" si="3"/>
-        <v>4318.2979797979797</v>
+        <v>4320.8585858585866</v>
       </c>
       <c r="J28">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H28,"")</f>
@@ -61572,7 +61572,7 @@
       </c>
       <c r="K28">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H28,"")</f>
-        <v>5235.454545454546</v>
+        <v>5237.818181818182</v>
       </c>
       <c r="L28">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H28,"")</f>
@@ -61580,7 +61580,7 @@
       </c>
       <c r="M28">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H28,"")</f>
-        <v>7856.3333333333339</v>
+        <v>7869.3333333333339</v>
       </c>
       <c r="N28">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H28,"")</f>
@@ -61592,7 +61592,7 @@
       </c>
       <c r="P28">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F28,"")</f>
-        <v>1778</v>
+        <v>1780</v>
       </c>
       <c r="Q28" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D28,"")</f>
@@ -61616,7 +61616,7 @@
       </c>
       <c r="C29" s="5">
         <f t="shared" si="0"/>
-        <v>4355.2040816326535</v>
+        <v>4359.3010204081629</v>
       </c>
       <c r="D29">
         <f>COUNTIF(CSL_Sonuclari!J:J,A29)</f>
@@ -61632,7 +61632,7 @@
       </c>
       <c r="G29" s="8">
         <f t="shared" si="2"/>
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H29">
         <f>COUNTIF(CSL_Sonuclari!C:H,A29)</f>
@@ -61640,7 +61640,7 @@
       </c>
       <c r="I29" s="5">
         <f t="shared" si="3"/>
-        <v>5735.8857142857141</v>
+        <v>5741.4214285714279</v>
       </c>
       <c r="J29">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H29,"")</f>
@@ -61648,15 +61648,15 @@
       </c>
       <c r="K29">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H29,"")</f>
-        <v>7998</v>
+        <v>8013.5</v>
       </c>
       <c r="L29">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H29,"")</f>
-        <v>7180.9285714285716</v>
+        <v>7185.3571428571422</v>
       </c>
       <c r="M29">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H29,"")</f>
-        <v>8106.5</v>
+        <v>8114.25</v>
       </c>
       <c r="N29">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H29,"")</f>
@@ -61668,7 +61668,7 @@
       </c>
       <c r="P29">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F29,"")</f>
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="Q29">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D29,"")</f>
@@ -61692,7 +61692,7 @@
       </c>
       <c r="C30" s="5">
         <f t="shared" si="0"/>
-        <v>5425.6623931623935</v>
+        <v>5430.5662393162393</v>
       </c>
       <c r="D30">
         <f>COUNTIF(CSL_Sonuclari!J:J,A30)</f>
@@ -61708,7 +61708,7 @@
       </c>
       <c r="G30" s="8">
         <f t="shared" si="2"/>
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="H30">
         <f>COUNTIF(CSL_Sonuclari!C:H,A30)</f>
@@ -61716,7 +61716,7 @@
       </c>
       <c r="I30" s="5">
         <f t="shared" si="3"/>
-        <v>7572.7435897435898</v>
+        <v>7579.5993589743593</v>
       </c>
       <c r="J30">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H30,"")</f>
@@ -61724,11 +61724,11 @@
       </c>
       <c r="K30">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H30,"")</f>
-        <v>8756.3076923076915</v>
+        <v>8768.2307692307695</v>
       </c>
       <c r="L30">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H30,"")</f>
-        <v>8840.1666666666679</v>
+        <v>8855.6666666666679</v>
       </c>
       <c r="M30">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H30,"")</f>
@@ -61744,7 +61744,7 @@
       </c>
       <c r="P30">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F30,"")</f>
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="Q30">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D30,"")</f>
@@ -61768,7 +61768,7 @@
       </c>
       <c r="C31" s="5">
         <f t="shared" si="0"/>
-        <v>5031.0094191522758</v>
+        <v>5036.2135007849292</v>
       </c>
       <c r="D31">
         <f>COUNTIF(CSL_Sonuclari!J:J,A31)</f>
@@ -61792,7 +61792,7 @@
       </c>
       <c r="I31" s="5">
         <f t="shared" si="3"/>
-        <v>6859.8131868131868</v>
+        <v>6867.0989010989015</v>
       </c>
       <c r="J31">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H31,"")</f>
@@ -61804,7 +61804,7 @@
       </c>
       <c r="L31">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H31,"")</f>
-        <v>12180</v>
+        <v>12210</v>
       </c>
       <c r="M31">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H31,"")</f>
@@ -61816,7 +61816,7 @@
       </c>
       <c r="O31">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H31,"")</f>
-        <v>8102.1428571428569</v>
+        <v>8108.5714285714284</v>
       </c>
       <c r="P31">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F31,"")</f>
@@ -61844,7 +61844,7 @@
       </c>
       <c r="C32" s="5">
         <f t="shared" si="0"/>
-        <v>3838.1955782312921</v>
+        <v>3840.2261904761904</v>
       </c>
       <c r="D32">
         <f>COUNTIF(CSL_Sonuclari!J:J,A32)</f>
@@ -61852,7 +61852,7 @@
       </c>
       <c r="E32" s="5">
         <f t="shared" si="1"/>
-        <v>1509</v>
+        <v>1512</v>
       </c>
       <c r="F32" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A32)</f>
@@ -61860,7 +61860,7 @@
       </c>
       <c r="G32" s="8">
         <f t="shared" si="2"/>
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H32">
         <f>COUNTIF(CSL_Sonuclari!C:H,A32)</f>
@@ -61868,7 +61868,7 @@
       </c>
       <c r="I32" s="5">
         <f t="shared" si="3"/>
-        <v>4908.2738095238092</v>
+        <v>4910.3166666666666</v>
       </c>
       <c r="J32" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H32,"")</f>
@@ -61880,7 +61880,7 @@
       </c>
       <c r="L32">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H32,"")</f>
-        <v>4897.75</v>
+        <v>4904.25</v>
       </c>
       <c r="M32">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H32,"")</f>
@@ -61888,7 +61888,7 @@
       </c>
       <c r="N32">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H32,"")</f>
-        <v>3762.5714285714289</v>
+        <v>3766.2857142857142</v>
       </c>
       <c r="O32">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H32,"")</f>
@@ -61896,11 +61896,11 @@
       </c>
       <c r="P32">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F32,"")</f>
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="Q32">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D32,"")</f>
-        <v>1509</v>
+        <v>1512</v>
       </c>
       <c r="R32" s="2">
         <v>31</v>
@@ -61920,7 +61920,7 @@
       </c>
       <c r="C33" s="5">
         <f t="shared" si="0"/>
-        <v>4671.3234126984125</v>
+        <v>4672.9107142857147</v>
       </c>
       <c r="D33">
         <f>COUNTIF(CSL_Sonuclari!J:J,A33)</f>
@@ -61928,7 +61928,7 @@
       </c>
       <c r="E33" s="5">
         <f t="shared" si="1"/>
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="F33" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A33)</f>
@@ -61944,11 +61944,11 @@
       </c>
       <c r="I33" s="5">
         <f t="shared" si="3"/>
-        <v>6468.9851190476184</v>
+        <v>6470.3660714285716</v>
       </c>
       <c r="J33">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H33,"")</f>
-        <v>5735.0952380952376</v>
+        <v>5737.8571428571431</v>
       </c>
       <c r="K33">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H33,"")</f>
@@ -61976,7 +61976,7 @@
       </c>
       <c r="Q33">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D33,"")</f>
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="R33" s="2">
         <v>32</v>
@@ -61996,7 +61996,7 @@
       </c>
       <c r="C34" s="5">
         <f t="shared" ref="C34:C65" si="4">AVERAGE(J34:Q34)</f>
-        <v>3244.0071428571428</v>
+        <v>3245.0785714285712</v>
       </c>
       <c r="D34">
         <f>COUNTIF(CSL_Sonuclari!J:J,A34)</f>
@@ -62012,7 +62012,7 @@
       </c>
       <c r="G34" s="8">
         <f t="shared" ref="G34:G65" si="6">IF(P34&lt;&gt;"",P34,0)</f>
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H34">
         <f>COUNTIF(CSL_Sonuclari!C:H,A34)</f>
@@ -62020,7 +62020,7 @@
       </c>
       <c r="I34" s="5">
         <f t="shared" ref="I34:I65" si="7">AVERAGE(J34:O34)</f>
-        <v>4284.41</v>
+        <v>4285.71</v>
       </c>
       <c r="J34">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H34,"")</f>
@@ -62028,11 +62028,11 @@
       </c>
       <c r="K34">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H34,"")</f>
-        <v>3737.5</v>
+        <v>3740.75</v>
       </c>
       <c r="L34">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H34,"")</f>
-        <v>6886.75</v>
+        <v>6890</v>
       </c>
       <c r="M34">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H34,"")</f>
@@ -62048,7 +62048,7 @@
       </c>
       <c r="P34">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F34,"")</f>
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="Q34">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D34,"")</f>
@@ -62072,7 +62072,7 @@
       </c>
       <c r="C35" s="5">
         <f t="shared" si="4"/>
-        <v>4782.7746031746037</v>
+        <v>4788.0095238095237</v>
       </c>
       <c r="D35">
         <f>COUNTIF(CSL_Sonuclari!J:J,A35)</f>
@@ -62080,7 +62080,7 @@
       </c>
       <c r="E35" s="5">
         <f t="shared" si="5"/>
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F35" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A35)</f>
@@ -62088,7 +62088,7 @@
       </c>
       <c r="G35" s="8">
         <f t="shared" si="6"/>
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="H35">
         <f>COUNTIF(CSL_Sonuclari!C:H,A35)</f>
@@ -62096,7 +62096,7 @@
       </c>
       <c r="I35" s="5">
         <f t="shared" si="7"/>
-        <v>6784.1619047619051</v>
+        <v>6791.5142857142855</v>
       </c>
       <c r="J35" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H35,"")</f>
@@ -62108,15 +62108,15 @@
       </c>
       <c r="L35">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H35,"")</f>
-        <v>10084</v>
+        <v>10100</v>
       </c>
       <c r="M35">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H35,"")</f>
-        <v>6253.7142857142853</v>
+        <v>6262.8571428571431</v>
       </c>
       <c r="N35">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H35,"")</f>
-        <v>7406.9333333333334</v>
+        <v>7411.2</v>
       </c>
       <c r="O35">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H35,"")</f>
@@ -62124,11 +62124,11 @@
       </c>
       <c r="P35">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F35,"")</f>
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="Q35">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D35,"")</f>
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="R35" s="2">
         <v>34</v>
@@ -62148,7 +62148,7 @@
       </c>
       <c r="C36" s="5">
         <f t="shared" si="4"/>
-        <v>4464.1454545454544</v>
+        <v>4468.5090909090914</v>
       </c>
       <c r="D36">
         <f>COUNTIF(CSL_Sonuclari!J:J,A36)</f>
@@ -62156,7 +62156,7 @@
       </c>
       <c r="E36" s="5">
         <f t="shared" si="5"/>
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="F36" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A36)</f>
@@ -62164,7 +62164,7 @@
       </c>
       <c r="G36" s="8">
         <f t="shared" si="6"/>
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="H36">
         <f>COUNTIF(CSL_Sonuclari!C:H,A36)</f>
@@ -62172,11 +62172,11 @@
       </c>
       <c r="I36" s="5">
         <f t="shared" si="7"/>
-        <v>6570.242424242424</v>
+        <v>6576.1818181818189</v>
       </c>
       <c r="J36">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H36,"")</f>
-        <v>7138.727272727273</v>
+        <v>7142.545454545455</v>
       </c>
       <c r="K36">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H36,"")</f>
@@ -62184,7 +62184,7 @@
       </c>
       <c r="L36">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H36,"")</f>
-        <v>6188</v>
+        <v>6202</v>
       </c>
       <c r="M36" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H36,"")</f>
@@ -62200,11 +62200,11 @@
       </c>
       <c r="P36">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F36,"")</f>
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="Q36">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D36,"")</f>
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="R36" s="2">
         <v>35</v>
@@ -62224,7 +62224,7 @@
       </c>
       <c r="C37" s="5">
         <f t="shared" si="4"/>
-        <v>5077.4940476190477</v>
+        <v>5085.8571428571431</v>
       </c>
       <c r="D37">
         <f>COUNTIF(CSL_Sonuclari!J:J,A37)</f>
@@ -62248,11 +62248,11 @@
       </c>
       <c r="I37" s="5">
         <f t="shared" si="7"/>
-        <v>6570.9920634920636</v>
+        <v>6582.1428571428578</v>
       </c>
       <c r="J37">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H37,"")</f>
-        <v>10050</v>
+        <v>10075</v>
       </c>
       <c r="K37">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H37,"")</f>
@@ -62260,19 +62260,19 @@
       </c>
       <c r="L37">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H37,"")</f>
-        <v>5545</v>
+        <v>5550</v>
       </c>
       <c r="M37">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H37,"")</f>
-        <v>4214.2857142857147</v>
+        <v>4217.8571428571431</v>
       </c>
       <c r="N37">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H37,"")</f>
-        <v>7000</v>
+        <v>7008.333333333333</v>
       </c>
       <c r="O37">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H37,"")</f>
-        <v>9475</v>
+        <v>9500</v>
       </c>
       <c r="P37">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F37,"")</f>
@@ -62300,7 +62300,7 @@
       </c>
       <c r="C38" s="5">
         <f t="shared" si="4"/>
-        <v>5538.469696969697</v>
+        <v>5541.636363636364</v>
       </c>
       <c r="D38">
         <f>COUNTIF(CSL_Sonuclari!J:J,A38)</f>
@@ -62316,7 +62316,7 @@
       </c>
       <c r="G38" s="8">
         <f t="shared" si="6"/>
-        <v>1843</v>
+        <v>1845</v>
       </c>
       <c r="H38">
         <f>COUNTIF(CSL_Sonuclari!C:H,A38)</f>
@@ -62324,15 +62324,15 @@
       </c>
       <c r="I38" s="5">
         <f t="shared" si="7"/>
-        <v>7702.704545454546</v>
+        <v>7706.954545454546</v>
       </c>
       <c r="J38">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H38,"")</f>
-        <v>7775.0000000000009</v>
+        <v>7779.9999999999991</v>
       </c>
       <c r="K38">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H38,"")</f>
-        <v>9474</v>
+        <v>9486</v>
       </c>
       <c r="L38">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H38,"")</f>
@@ -62352,7 +62352,7 @@
       </c>
       <c r="P38">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F38,"")</f>
-        <v>1843</v>
+        <v>1845</v>
       </c>
       <c r="Q38">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D38,"")</f>
@@ -62376,7 +62376,7 @@
       </c>
       <c r="C39" s="5">
         <f t="shared" si="4"/>
-        <v>4357.6619047619042</v>
+        <v>4359.7928571428574</v>
       </c>
       <c r="D39">
         <f>COUNTIF(CSL_Sonuclari!J:J,A39)</f>
@@ -62384,7 +62384,7 @@
       </c>
       <c r="E39" s="5">
         <f t="shared" si="5"/>
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F39" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A39)</f>
@@ -62392,7 +62392,7 @@
       </c>
       <c r="G39" s="8">
         <f t="shared" si="6"/>
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="H39">
         <f>COUNTIF(CSL_Sonuclari!C:H,A39)</f>
@@ -62400,7 +62400,7 @@
       </c>
       <c r="I39" s="5">
         <f t="shared" si="7"/>
-        <v>5683.1266666666661</v>
+        <v>5685.71</v>
       </c>
       <c r="J39" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H39,"")</f>
@@ -62416,7 +62416,7 @@
       </c>
       <c r="M39">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H39,"")</f>
-        <v>7667.3333333333339</v>
+        <v>7680.25</v>
       </c>
       <c r="N39">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H39,"")</f>
@@ -62428,11 +62428,11 @@
       </c>
       <c r="P39">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F39,"")</f>
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="Q39">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D39,"")</f>
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="R39" s="2">
         <v>38</v>
@@ -62452,7 +62452,7 @@
       </c>
       <c r="C40" s="5">
         <f t="shared" si="4"/>
-        <v>5650.9523809523816</v>
+        <v>5657.2222222222217</v>
       </c>
       <c r="D40">
         <f>COUNTIF(CSL_Sonuclari!J:J,A40)</f>
@@ -62460,7 +62460,7 @@
       </c>
       <c r="E40" s="5">
         <f t="shared" si="5"/>
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="F40" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A40)</f>
@@ -62468,7 +62468,7 @@
       </c>
       <c r="G40" s="8">
         <f t="shared" si="6"/>
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="H40">
         <f>COUNTIF(CSL_Sonuclari!C:H,A40)</f>
@@ -62476,19 +62476,19 @@
       </c>
       <c r="I40" s="5">
         <f t="shared" si="7"/>
-        <v>7390.9333333333343</v>
+        <v>7399.3111111111111</v>
       </c>
       <c r="J40">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H40,"")</f>
-        <v>7280</v>
+        <v>7284.3333333333339</v>
       </c>
       <c r="K40">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H40,"")</f>
-        <v>5026.666666666667</v>
+        <v>5032.4444444444443</v>
       </c>
       <c r="L40">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H40,"")</f>
-        <v>6708</v>
+        <v>6713.7777777777783</v>
       </c>
       <c r="M40">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H40,"")</f>
@@ -62496,7 +62496,7 @@
       </c>
       <c r="N40">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H40,"")</f>
-        <v>10634</v>
+        <v>10660</v>
       </c>
       <c r="O40" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H40,"")</f>
@@ -62504,11 +62504,11 @@
       </c>
       <c r="P40">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F40,"")</f>
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="Q40">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D40,"")</f>
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="R40" s="2">
         <v>39</v>
@@ -62528,7 +62528,7 @@
       </c>
       <c r="C41" s="5">
         <f t="shared" si="4"/>
-        <v>5239.1857142857143</v>
+        <v>5242.2761904761901</v>
       </c>
       <c r="D41">
         <f>COUNTIF(CSL_Sonuclari!J:J,A41)</f>
@@ -62536,7 +62536,7 @@
       </c>
       <c r="E41" s="5">
         <f t="shared" si="5"/>
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F41" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A41)</f>
@@ -62544,7 +62544,7 @@
       </c>
       <c r="G41" s="8">
         <f t="shared" si="6"/>
-        <v>1832</v>
+        <v>1834</v>
       </c>
       <c r="H41">
         <f>COUNTIF(CSL_Sonuclari!C:H,A41)</f>
@@ -62552,7 +62552,7 @@
       </c>
       <c r="I41" s="5">
         <f t="shared" si="7"/>
-        <v>7305.0285714285719</v>
+        <v>7308.9142857142851</v>
       </c>
       <c r="J41" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H41,"")</f>
@@ -62568,23 +62568,23 @@
       </c>
       <c r="M41">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H41,"")</f>
-        <v>7897.6</v>
+        <v>7900.8</v>
       </c>
       <c r="N41">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H41,"")</f>
-        <v>6652.8</v>
+        <v>6656</v>
       </c>
       <c r="O41">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H41,"")</f>
-        <v>9421.7142857142862</v>
+        <v>9430.8571428571431</v>
       </c>
       <c r="P41">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F41,"")</f>
-        <v>1832</v>
+        <v>1834</v>
       </c>
       <c r="Q41">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D41,"")</f>
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="R41" s="2">
         <v>40</v>
@@ -62604,7 +62604,7 @@
       </c>
       <c r="C42" s="5">
         <f t="shared" si="4"/>
-        <v>4492.3964646464647</v>
+        <v>4496.1641414141413</v>
       </c>
       <c r="D42">
         <f>COUNTIF(CSL_Sonuclari!J:J,A42)</f>
@@ -62612,7 +62612,7 @@
       </c>
       <c r="E42" s="5">
         <f t="shared" si="5"/>
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="F42" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A42)</f>
@@ -62628,19 +62628,19 @@
       </c>
       <c r="I42" s="5">
         <f t="shared" si="7"/>
-        <v>6266.344696969697</v>
+        <v>6271.746212121212</v>
       </c>
       <c r="J42">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H42,"")</f>
-        <v>7493.545454545454</v>
+        <v>7504.818181818182</v>
       </c>
       <c r="K42">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H42,"")</f>
-        <v>5063.3333333333339</v>
+        <v>5066.7777777777783</v>
       </c>
       <c r="L42">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H42,"")</f>
-        <v>7068</v>
+        <v>7074.8888888888887</v>
       </c>
       <c r="M42" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H42,"")</f>
@@ -62660,7 +62660,7 @@
       </c>
       <c r="Q42">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D42,"")</f>
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="R42" s="2">
         <v>41</v>
@@ -62680,7 +62680,7 @@
       </c>
       <c r="C43" s="5">
         <f t="shared" si="4"/>
-        <v>4707.3666666666668</v>
+        <v>4710.7269841269836</v>
       </c>
       <c r="D43">
         <f>COUNTIF(CSL_Sonuclari!J:J,A43)</f>
@@ -62704,7 +62704,7 @@
       </c>
       <c r="I43" s="5">
         <f t="shared" si="7"/>
-        <v>6249.1133333333328</v>
+        <v>6253.8177777777782</v>
       </c>
       <c r="J43">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H43,"")</f>
@@ -62712,15 +62712,15 @@
       </c>
       <c r="K43">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H43,"")</f>
-        <v>8912.6666666666661</v>
+        <v>8927.1666666666661</v>
       </c>
       <c r="L43">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H43,"")</f>
-        <v>5171.666666666667</v>
+        <v>5174.8888888888896</v>
       </c>
       <c r="M43">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H43,"")</f>
-        <v>7078.9</v>
+        <v>7084.7000000000007</v>
       </c>
       <c r="N43">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H43,"")</f>
@@ -62756,7 +62756,7 @@
       </c>
       <c r="C44" s="5">
         <f t="shared" si="4"/>
-        <v>5489.9609523809522</v>
+        <v>5495.8590476190484</v>
       </c>
       <c r="D44">
         <f>COUNTIF(CSL_Sonuclari!J:J,A44)</f>
@@ -62764,7 +62764,7 @@
       </c>
       <c r="E44" s="5">
         <f t="shared" si="5"/>
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="F44" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A44)</f>
@@ -62780,7 +62780,7 @@
       </c>
       <c r="I44" s="5">
         <f t="shared" si="7"/>
-        <v>8391.6015873015876</v>
+        <v>8401.0984126984131</v>
       </c>
       <c r="J44" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H44,"")</f>
@@ -62796,15 +62796,15 @@
       </c>
       <c r="M44">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H44,"")</f>
-        <v>10881</v>
+        <v>10896.5</v>
       </c>
       <c r="N44">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H44,"")</f>
-        <v>8257.0714285714275</v>
+        <v>8265.9285714285725</v>
       </c>
       <c r="O44">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H44,"")</f>
-        <v>6036.7333333333327</v>
+        <v>6040.8666666666668</v>
       </c>
       <c r="P44">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F44,"")</f>
@@ -62812,7 +62812,7 @@
       </c>
       <c r="Q44">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D44,"")</f>
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="R44" s="2">
         <v>43</v>
@@ -62832,7 +62832,7 @@
       </c>
       <c r="C45" s="5">
         <f t="shared" si="4"/>
-        <v>5391.1724489795915</v>
+        <v>5399.218367346939</v>
       </c>
       <c r="D45">
         <f>COUNTIF(CSL_Sonuclari!J:J,A45)</f>
@@ -62848,7 +62848,7 @@
       </c>
       <c r="G45" s="8">
         <f t="shared" si="6"/>
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="H45">
         <f>COUNTIF(CSL_Sonuclari!C:H,A45)</f>
@@ -62856,7 +62856,7 @@
       </c>
       <c r="I45" s="5">
         <f t="shared" si="7"/>
-        <v>7093.0414285714287</v>
+        <v>7103.9057142857146</v>
       </c>
       <c r="J45" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H45,"")</f>
@@ -62864,7 +62864,7 @@
       </c>
       <c r="K45">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H45,"")</f>
-        <v>10854</v>
+        <v>10881</v>
       </c>
       <c r="L45">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H45,"")</f>
@@ -62872,19 +62872,19 @@
       </c>
       <c r="M45">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H45,"")</f>
-        <v>6401.25</v>
+        <v>6403.5</v>
       </c>
       <c r="N45">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H45,"")</f>
-        <v>7968.8571428571431</v>
+        <v>7980.4285714285706</v>
       </c>
       <c r="O45">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H45,"")</f>
-        <v>6034.5</v>
+        <v>6048</v>
       </c>
       <c r="P45">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F45,"")</f>
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="Q45">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D45,"")</f>
@@ -62908,7 +62908,7 @@
       </c>
       <c r="C46" s="5">
         <f t="shared" si="4"/>
-        <v>3838.8888888888891</v>
+        <v>3841.4914529914531</v>
       </c>
       <c r="D46">
         <f>COUNTIF(CSL_Sonuclari!J:J,A46)</f>
@@ -62916,7 +62916,7 @@
       </c>
       <c r="E46" s="5">
         <f t="shared" si="5"/>
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F46" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A46)</f>
@@ -62924,7 +62924,7 @@
       </c>
       <c r="G46" s="8">
         <f t="shared" si="6"/>
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="H46">
         <f>COUNTIF(CSL_Sonuclari!C:H,A46)</f>
@@ -62932,7 +62932,7 @@
       </c>
       <c r="I46" s="5">
         <f t="shared" si="7"/>
-        <v>5294.8333333333339</v>
+        <v>5297.9871794871797</v>
       </c>
       <c r="J46" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H46,"")</f>
@@ -62940,11 +62940,11 @@
       </c>
       <c r="K46">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H46,"")</f>
-        <v>5308</v>
+        <v>5312</v>
       </c>
       <c r="L46">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H46,"")</f>
-        <v>6748</v>
+        <v>6756.6153846153848</v>
       </c>
       <c r="M46">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H46,"")</f>
@@ -62960,11 +62960,11 @@
       </c>
       <c r="P46">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F46,"")</f>
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="Q46">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D46,"")</f>
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="R46" s="2">
         <v>45</v>
@@ -62984,7 +62984,7 @@
       </c>
       <c r="C47" s="5">
         <f t="shared" si="4"/>
-        <v>4808.1835897435903</v>
+        <v>4813.6615384615379</v>
       </c>
       <c r="D47">
         <f>COUNTIF(CSL_Sonuclari!J:J,A47)</f>
@@ -62992,7 +62992,7 @@
       </c>
       <c r="E47" s="5">
         <f t="shared" si="5"/>
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="F47" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A47)</f>
@@ -63008,7 +63008,7 @@
       </c>
       <c r="I47" s="5">
         <f t="shared" si="7"/>
-        <v>7497.97264957265</v>
+        <v>7506.7692307692305</v>
       </c>
       <c r="J47" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H47,"")</f>
@@ -63024,15 +63024,15 @@
       </c>
       <c r="M47">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H47,"")</f>
-        <v>7729.3333333333339</v>
+        <v>7739.6666666666661</v>
       </c>
       <c r="N47">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H47,"")</f>
-        <v>8186.3846153846162</v>
+        <v>8198.3076923076915</v>
       </c>
       <c r="O47">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H47,"")</f>
-        <v>6578.2</v>
+        <v>6582.3333333333339</v>
       </c>
       <c r="P47">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F47,"")</f>
@@ -63040,7 +63040,7 @@
       </c>
       <c r="Q47">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D47,"")</f>
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="R47" s="2">
         <v>46</v>
@@ -63060,7 +63060,7 @@
       </c>
       <c r="C48" s="5">
         <f t="shared" si="4"/>
-        <v>5595.4812499999998</v>
+        <v>5598.9059659090908</v>
       </c>
       <c r="D48">
         <f>COUNTIF(CSL_Sonuclari!J:J,A48)</f>
@@ -63068,7 +63068,7 @@
       </c>
       <c r="E48" s="5">
         <f t="shared" si="5"/>
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F48" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A48)</f>
@@ -63076,7 +63076,7 @@
       </c>
       <c r="G48" s="8">
         <f t="shared" si="6"/>
-        <v>1953</v>
+        <v>1956</v>
       </c>
       <c r="H48">
         <f>COUNTIF(CSL_Sonuclari!C:H,A48)</f>
@@ -63084,7 +63084,7 @@
       </c>
       <c r="I48" s="5">
         <f t="shared" si="7"/>
-        <v>7035.6416666666664</v>
+        <v>7039.5412878787874</v>
       </c>
       <c r="J48">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H48,"")</f>
@@ -63100,23 +63100,23 @@
       </c>
       <c r="M48">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H48,"")</f>
-        <v>6097.25</v>
+        <v>6100.875</v>
       </c>
       <c r="N48">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H48,"")</f>
-        <v>5249</v>
+        <v>5254.272727272727</v>
       </c>
       <c r="O48">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H48,"")</f>
-        <v>8163.5</v>
+        <v>8178</v>
       </c>
       <c r="P48">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F48,"")</f>
-        <v>1953</v>
+        <v>1956</v>
       </c>
       <c r="Q48">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D48,"")</f>
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="R48" s="2">
         <v>47</v>
@@ -63136,7 +63136,7 @@
       </c>
       <c r="C49" s="5">
         <f t="shared" si="4"/>
-        <v>5380.4751082251087</v>
+        <v>5385.1071428571431</v>
       </c>
       <c r="D49">
         <f>COUNTIF(CSL_Sonuclari!J:J,A49)</f>
@@ -63144,7 +63144,7 @@
       </c>
       <c r="E49" s="5">
         <f t="shared" si="5"/>
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F49" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A49)</f>
@@ -63160,7 +63160,7 @@
       </c>
       <c r="I49" s="5">
         <f t="shared" si="7"/>
-        <v>7262.0651515151521</v>
+        <v>7268.35</v>
       </c>
       <c r="J49">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H49,"")</f>
@@ -63172,19 +63172,19 @@
       </c>
       <c r="L49">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H49,"")</f>
-        <v>10931</v>
+        <v>10948</v>
       </c>
       <c r="M49">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H49,"")</f>
-        <v>10127.75</v>
+        <v>10136.25</v>
       </c>
       <c r="N49">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H49,"")</f>
-        <v>7102.909090909091</v>
+        <v>7106</v>
       </c>
       <c r="O49">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H49,"")</f>
-        <v>7978.6666666666661</v>
+        <v>7981.5</v>
       </c>
       <c r="P49">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F49,"")</f>
@@ -63192,7 +63192,7 @@
       </c>
       <c r="Q49">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D49,"")</f>
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="R49" s="2">
         <v>48</v>
@@ -63212,7 +63212,7 @@
       </c>
       <c r="C50" s="5">
         <f t="shared" si="4"/>
-        <v>3780.8555555555558</v>
+        <v>3784.2944444444443</v>
       </c>
       <c r="D50">
         <f>COUNTIF(CSL_Sonuclari!J:J,A50)</f>
@@ -63228,7 +63228,7 @@
       </c>
       <c r="G50" s="8">
         <f t="shared" si="6"/>
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="H50">
         <f>COUNTIF(CSL_Sonuclari!C:H,A50)</f>
@@ -63236,7 +63236,7 @@
       </c>
       <c r="I50" s="5">
         <f t="shared" si="7"/>
-        <v>4906.7833333333338</v>
+        <v>4911.6916666666666</v>
       </c>
       <c r="J50" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H50,"")</f>
@@ -63252,19 +63252,19 @@
       </c>
       <c r="M50">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H50,"")</f>
-        <v>6479</v>
+        <v>6488.3</v>
       </c>
       <c r="N50">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H50,"")</f>
-        <v>4970.3333333333339</v>
+        <v>4974.4666666666672</v>
       </c>
       <c r="O50">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H50,"")</f>
-        <v>7030.8</v>
+        <v>7037</v>
       </c>
       <c r="P50">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F50,"")</f>
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="Q50">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D50,"")</f>
@@ -63288,7 +63288,7 @@
       </c>
       <c r="C51" s="5">
         <f t="shared" si="4"/>
-        <v>3876.6706349206347</v>
+        <v>3880.9404761904757</v>
       </c>
       <c r="D51">
         <f>COUNTIF(CSL_Sonuclari!J:J,A51)</f>
@@ -63296,7 +63296,7 @@
       </c>
       <c r="E51" s="5">
         <f t="shared" si="5"/>
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="F51" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A51)</f>
@@ -63304,7 +63304,7 @@
       </c>
       <c r="G51" s="8">
         <f t="shared" si="6"/>
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="H51">
         <f>COUNTIF(CSL_Sonuclari!C:H,A51)</f>
@@ -63312,15 +63312,15 @@
       </c>
       <c r="I51" s="5">
         <f t="shared" si="7"/>
-        <v>5289.0059523809523</v>
+        <v>5294.9107142857138</v>
       </c>
       <c r="J51">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H51,"")</f>
-        <v>7212.6666666666661</v>
+        <v>7218.5714285714284</v>
       </c>
       <c r="K51">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H51,"")</f>
-        <v>8657.8571428571431</v>
+        <v>8675.5714285714275</v>
       </c>
       <c r="L51">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H51,"")</f>
@@ -63340,11 +63340,11 @@
       </c>
       <c r="P51">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F51,"")</f>
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="Q51">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D51,"")</f>
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="R51" s="2">
         <v>50</v>
@@ -63364,7 +63364,7 @@
       </c>
       <c r="C52" s="5">
         <f t="shared" si="4"/>
-        <v>4090.1071428571436</v>
+        <v>4095.1071428571427</v>
       </c>
       <c r="D52">
         <f>COUNTIF(CSL_Sonuclari!J:J,A52)</f>
@@ -63388,23 +63388,23 @@
       </c>
       <c r="I52" s="5">
         <f t="shared" si="7"/>
-        <v>5360.9500000000007</v>
+        <v>5367.95</v>
       </c>
       <c r="J52">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H52,"")</f>
-        <v>6076</v>
+        <v>6090</v>
       </c>
       <c r="K52">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H52,"")</f>
-        <v>5805.3333333333339</v>
+        <v>5810</v>
       </c>
       <c r="L52">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H52,"")</f>
-        <v>5748.75</v>
+        <v>5755.75</v>
       </c>
       <c r="M52">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H52,"")</f>
-        <v>9034.6666666666679</v>
+        <v>9044</v>
       </c>
       <c r="N52">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H52,"")</f>
@@ -63440,7 +63440,7 @@
       </c>
       <c r="C53" s="5">
         <f t="shared" si="4"/>
-        <v>2552.2883116883118</v>
+        <v>2552.4311688311686</v>
       </c>
       <c r="D53">
         <f>COUNTIF(CSL_Sonuclari!J:J,A53)</f>
@@ -63456,7 +63456,7 @@
       </c>
       <c r="G53" s="8">
         <f t="shared" si="6"/>
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="H53">
         <f>COUNTIF(CSL_Sonuclari!C:H,A53)</f>
@@ -63492,7 +63492,7 @@
       </c>
       <c r="P53">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F53,"")</f>
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="Q53">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D53,"")</f>
@@ -63516,7 +63516,7 @@
       </c>
       <c r="C54" s="5">
         <f t="shared" si="4"/>
-        <v>4813.3611111111113</v>
+        <v>4818.8888888888887</v>
       </c>
       <c r="D54">
         <f>COUNTIF(CSL_Sonuclari!J:J,A54)</f>
@@ -63524,7 +63524,7 @@
       </c>
       <c r="E54" s="5">
         <f t="shared" si="5"/>
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="F54" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A54)</f>
@@ -63532,7 +63532,7 @@
       </c>
       <c r="G54" s="8">
         <f t="shared" si="6"/>
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H54">
         <f>COUNTIF(CSL_Sonuclari!C:H,A54)</f>
@@ -63540,7 +63540,7 @@
       </c>
       <c r="I54" s="5">
         <f t="shared" si="7"/>
-        <v>6644.791666666667</v>
+        <v>6652.083333333333</v>
       </c>
       <c r="J54" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H54,"")</f>
@@ -63552,15 +63552,15 @@
       </c>
       <c r="L54">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H54,"")</f>
-        <v>8551.6666666666679</v>
+        <v>8563.3333333333321</v>
       </c>
       <c r="M54">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H54,"")</f>
-        <v>6672.5</v>
+        <v>6680</v>
       </c>
       <c r="N54">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H54,"")</f>
-        <v>8660</v>
+        <v>8670</v>
       </c>
       <c r="O54" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H54,"")</f>
@@ -63568,11 +63568,11 @@
       </c>
       <c r="P54">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F54,"")</f>
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="Q54">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D54,"")</f>
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="R54" s="2">
         <v>53</v>
@@ -63592,7 +63592,7 @@
       </c>
       <c r="C55" s="5">
         <f t="shared" si="4"/>
-        <v>4528.5714285714284</v>
+        <v>4532.8</v>
       </c>
       <c r="D55">
         <f>COUNTIF(CSL_Sonuclari!J:J,A55)</f>
@@ -63616,23 +63616,23 @@
       </c>
       <c r="I55" s="5">
         <f t="shared" si="7"/>
-        <v>6014.4</v>
+        <v>6020.32</v>
       </c>
       <c r="J55">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H55,"")</f>
-        <v>7176</v>
+        <v>7185.5999999999995</v>
       </c>
       <c r="K55">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H55,"")</f>
-        <v>4002</v>
+        <v>4004</v>
       </c>
       <c r="L55">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H55,"")</f>
-        <v>5538</v>
+        <v>5544</v>
       </c>
       <c r="M55">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H55,"")</f>
-        <v>9084</v>
+        <v>9096</v>
       </c>
       <c r="N55">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H55,"")</f>
@@ -63668,7 +63668,7 @@
       </c>
       <c r="C56" s="5">
         <f t="shared" si="4"/>
-        <v>5278.0612244897957</v>
+        <v>5281.6979591836734</v>
       </c>
       <c r="D56">
         <f>COUNTIF(CSL_Sonuclari!J:J,A56)</f>
@@ -63692,7 +63692,7 @@
       </c>
       <c r="I56" s="5">
         <f t="shared" si="7"/>
-        <v>6888.0857142857149</v>
+        <v>6893.1771428571428</v>
       </c>
       <c r="J56">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H56,"")</f>
@@ -63704,15 +63704,15 @@
       </c>
       <c r="L56">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H56,"")</f>
-        <v>7884</v>
+        <v>7892.1</v>
       </c>
       <c r="M56">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H56,"")</f>
-        <v>7251.4285714285706</v>
+        <v>7255.2857142857147</v>
       </c>
       <c r="N56">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H56,"")</f>
-        <v>7182</v>
+        <v>7195.5</v>
       </c>
       <c r="O56" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H56,"")</f>
@@ -63744,7 +63744,7 @@
       </c>
       <c r="C57" s="5">
         <f t="shared" si="4"/>
-        <v>6384.1457142857143</v>
+        <v>6390.3038095238098</v>
       </c>
       <c r="D57">
         <f>COUNTIF(CSL_Sonuclari!J:J,A57)</f>
@@ -63760,7 +63760,7 @@
       </c>
       <c r="G57" s="8">
         <f t="shared" si="6"/>
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H57">
         <f>COUNTIF(CSL_Sonuclari!C:H,A57)</f>
@@ -63768,7 +63768,7 @@
       </c>
       <c r="I57" s="5">
         <f t="shared" si="7"/>
-        <v>7777.6821428571429</v>
+        <v>7785.1297619047618</v>
       </c>
       <c r="J57" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H57,"")</f>
@@ -63776,19 +63776,19 @@
       </c>
       <c r="K57">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H57,"")</f>
-        <v>8506.7999999999993</v>
+        <v>8513.6</v>
       </c>
       <c r="L57">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H57,"")</f>
-        <v>7165.5</v>
+        <v>7176.8333333333339</v>
       </c>
       <c r="M57">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H57,"")</f>
-        <v>8449</v>
+        <v>8455.7999999999993</v>
       </c>
       <c r="N57">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H57,"")</f>
-        <v>6989.4285714285716</v>
+        <v>6994.2857142857147</v>
       </c>
       <c r="O57" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H57,"")</f>
@@ -63796,7 +63796,7 @@
       </c>
       <c r="P57">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F57,"")</f>
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="Q57" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D57,"")</f>
@@ -63820,7 +63820,7 @@
       </c>
       <c r="C58" s="5">
         <f t="shared" si="4"/>
-        <v>4429.7428571428572</v>
+        <v>4432.7142857142853</v>
       </c>
       <c r="D58">
         <f>COUNTIF(CSL_Sonuclari!J:J,A58)</f>
@@ -63828,7 +63828,7 @@
       </c>
       <c r="E58" s="5">
         <f t="shared" si="5"/>
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F58" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A58)</f>
@@ -63836,7 +63836,7 @@
       </c>
       <c r="G58" s="8">
         <f t="shared" si="6"/>
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="H58">
         <f>COUNTIF(CSL_Sonuclari!C:H,A58)</f>
@@ -63844,7 +63844,7 @@
       </c>
       <c r="I58" s="5">
         <f t="shared" si="7"/>
-        <v>5844.24</v>
+        <v>5848</v>
       </c>
       <c r="J58" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H58,"")</f>
@@ -63856,7 +63856,7 @@
       </c>
       <c r="L58">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H58,"")</f>
-        <v>5530</v>
+        <v>5544</v>
       </c>
       <c r="M58">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H58,"")</f>
@@ -63864,19 +63864,19 @@
       </c>
       <c r="N58">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H58,"")</f>
-        <v>6348</v>
+        <v>6350</v>
       </c>
       <c r="O58">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H58,"")</f>
-        <v>5807.2</v>
+        <v>5810</v>
       </c>
       <c r="P58">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F58,"")</f>
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="Q58">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D58,"")</f>
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="R58" s="2">
         <v>57</v>
@@ -63896,7 +63896,7 @@
       </c>
       <c r="C59" s="5">
         <f t="shared" si="4"/>
-        <v>2474.9722222222222</v>
+        <v>2477.2708333333335</v>
       </c>
       <c r="D59">
         <f>COUNTIF(CSL_Sonuclari!J:J,A59)</f>
@@ -63912,7 +63912,7 @@
       </c>
       <c r="G59" s="8">
         <f t="shared" si="6"/>
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="H59">
         <f>COUNTIF(CSL_Sonuclari!C:H,A59)</f>
@@ -63920,11 +63920,11 @@
       </c>
       <c r="I59" s="5">
         <f t="shared" si="7"/>
-        <v>4234.4444444444443</v>
+        <v>4238.041666666667</v>
       </c>
       <c r="J59">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H59,"")</f>
-        <v>7839.8888888888887</v>
+        <v>7847.0833333333339</v>
       </c>
       <c r="K59" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H59,"")</f>
@@ -63948,7 +63948,7 @@
       </c>
       <c r="P59">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F59,"")</f>
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="Q59">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D59,"")</f>
@@ -63972,7 +63972,7 @@
       </c>
       <c r="C60" s="5">
         <f t="shared" si="4"/>
-        <v>5069.916666666667</v>
+        <v>5076.166666666667</v>
       </c>
       <c r="D60">
         <f>COUNTIF(CSL_Sonuclari!J:J,A60)</f>
@@ -63980,7 +63980,7 @@
       </c>
       <c r="E60" s="5">
         <f t="shared" si="5"/>
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="F60" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A60)</f>
@@ -63988,7 +63988,7 @@
       </c>
       <c r="G60" s="8">
         <f t="shared" si="6"/>
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="H60">
         <f>COUNTIF(CSL_Sonuclari!C:H,A60)</f>
@@ -63996,15 +63996,15 @@
       </c>
       <c r="I60" s="5">
         <f t="shared" si="7"/>
-        <v>6894.875</v>
+        <v>6903.5</v>
       </c>
       <c r="J60">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H60,"")</f>
-        <v>6311.5</v>
+        <v>6318</v>
       </c>
       <c r="K60">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H60,"")</f>
-        <v>6214</v>
+        <v>6216</v>
       </c>
       <c r="L60">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H60,"")</f>
@@ -64012,7 +64012,7 @@
       </c>
       <c r="M60">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H60,"")</f>
-        <v>10426</v>
+        <v>10452</v>
       </c>
       <c r="N60" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H60,"")</f>
@@ -64024,11 +64024,11 @@
       </c>
       <c r="P60">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F60,"")</f>
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="Q60">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D60,"")</f>
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="R60" s="2">
         <v>59</v>
@@ -64048,7 +64048,7 @@
       </c>
       <c r="C61" s="5">
         <f t="shared" si="4"/>
-        <v>4616.3305288461543</v>
+        <v>4619.4851762820517</v>
       </c>
       <c r="D61">
         <f>COUNTIF(CSL_Sonuclari!J:J,A61)</f>
@@ -64072,7 +64072,7 @@
       </c>
       <c r="I61" s="5">
         <f t="shared" si="7"/>
-        <v>5824.274038461539</v>
+        <v>5828.4802350427353</v>
       </c>
       <c r="J61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H61,"")</f>
@@ -64084,15 +64084,15 @@
       </c>
       <c r="L61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H61,"")</f>
-        <v>8164.625</v>
+        <v>8172.375</v>
       </c>
       <c r="M61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H61,"")</f>
-        <v>6948.7692307692314</v>
+        <v>6955.9230769230771</v>
       </c>
       <c r="N61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H61,"")</f>
-        <v>7316</v>
+        <v>7326.3333333333339</v>
       </c>
       <c r="O61">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H61,"")</f>
@@ -64124,7 +64124,7 @@
       </c>
       <c r="C62" s="5">
         <f t="shared" si="4"/>
-        <v>5218.3857142857141</v>
+        <v>5223.798639455782</v>
       </c>
       <c r="D62">
         <f>COUNTIF(CSL_Sonuclari!J:J,A62)</f>
@@ -64132,7 +64132,7 @@
       </c>
       <c r="E62" s="5">
         <f t="shared" si="5"/>
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="F62" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A62)</f>
@@ -64140,7 +64140,7 @@
       </c>
       <c r="G62" s="8">
         <f t="shared" si="6"/>
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="H62">
         <f>COUNTIF(CSL_Sonuclari!C:H,A62)</f>
@@ -64148,7 +64148,7 @@
       </c>
       <c r="I62" s="5">
         <f t="shared" si="7"/>
-        <v>6817.3399999999992</v>
+        <v>6824.3180952380953</v>
       </c>
       <c r="J62" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H62,"")</f>
@@ -64160,27 +64160,27 @@
       </c>
       <c r="L62">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H62,"")</f>
-        <v>7820</v>
+        <v>7824.8571428571431</v>
       </c>
       <c r="M62">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H62,"")</f>
-        <v>5705.2000000000007</v>
+        <v>5709.7333333333336</v>
       </c>
       <c r="N62">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H62,"")</f>
-        <v>6842.5</v>
+        <v>6851</v>
       </c>
       <c r="O62">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H62,"")</f>
-        <v>8942</v>
+        <v>8959</v>
       </c>
       <c r="P62">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F62,"")</f>
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="Q62">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D62,"")</f>
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="R62" s="2">
         <v>61</v>
@@ -64200,7 +64200,7 @@
       </c>
       <c r="C63" s="5">
         <f t="shared" si="4"/>
-        <v>4353.7773892773894</v>
+        <v>4356.4953379953386</v>
       </c>
       <c r="D63">
         <f>COUNTIF(CSL_Sonuclari!J:J,A63)</f>
@@ -64208,7 +64208,7 @@
       </c>
       <c r="E63" s="5">
         <f t="shared" si="5"/>
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F63" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A63)</f>
@@ -64216,7 +64216,7 @@
       </c>
       <c r="G63" s="8">
         <f t="shared" si="6"/>
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="H63">
         <f>COUNTIF(CSL_Sonuclari!C:H,A63)</f>
@@ -64224,7 +64224,7 @@
       </c>
       <c r="I63" s="5">
         <f t="shared" si="7"/>
-        <v>6112.4160839160841</v>
+        <v>6115.9930069930078</v>
       </c>
       <c r="J63" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H63,"")</f>
@@ -64240,7 +64240,7 @@
       </c>
       <c r="M63">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H63,"")</f>
-        <v>5874</v>
+        <v>5886</v>
       </c>
       <c r="N63">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H63,"")</f>
@@ -64248,15 +64248,15 @@
       </c>
       <c r="O63">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H63,"")</f>
-        <v>6523.8461538461534</v>
+        <v>6526.1538461538466</v>
       </c>
       <c r="P63">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F63,"")</f>
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="Q63">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D63,"")</f>
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="R63" s="2">
         <v>62</v>
@@ -64276,7 +64276,7 @@
       </c>
       <c r="C64" s="5">
         <f t="shared" si="4"/>
-        <v>4223.771929824562</v>
+        <v>4224.9298245614036</v>
       </c>
       <c r="D64">
         <f>COUNTIF(CSL_Sonuclari!J:J,A64)</f>
@@ -64300,7 +64300,7 @@
       </c>
       <c r="I64" s="5">
         <f t="shared" si="7"/>
-        <v>6161.1578947368425</v>
+        <v>6162.894736842105</v>
       </c>
       <c r="J64">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H64,"")</f>
@@ -64308,7 +64308,7 @@
       </c>
       <c r="K64">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H64,"")</f>
-        <v>7572.6315789473692</v>
+        <v>7579.5789473684208</v>
       </c>
       <c r="L64">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H64,"")</f>
@@ -64352,7 +64352,7 @@
       </c>
       <c r="C65" s="5">
         <f t="shared" si="4"/>
-        <v>4887.5523809523811</v>
+        <v>4890.2380952380954</v>
       </c>
       <c r="D65">
         <f>COUNTIF(CSL_Sonuclari!J:J,A65)</f>
@@ -64360,7 +64360,7 @@
       </c>
       <c r="E65" s="5">
         <f t="shared" si="5"/>
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="F65" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A65)</f>
@@ -64376,7 +64376,7 @@
       </c>
       <c r="I65" s="5">
         <f t="shared" si="7"/>
-        <v>7270.2539682539682</v>
+        <v>7274.396825396826</v>
       </c>
       <c r="J65" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H65,"")</f>
@@ -64396,11 +64396,11 @@
       </c>
       <c r="N65">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H65,"")</f>
-        <v>5638.4285714285706</v>
+        <v>5642.5714285714294</v>
       </c>
       <c r="O65">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H65,"")</f>
-        <v>7211.333333333333</v>
+        <v>7219.6190476190477</v>
       </c>
       <c r="P65">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F65,"")</f>
@@ -64408,7 +64408,7 @@
       </c>
       <c r="Q65">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D65,"")</f>
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="R65" s="2">
         <v>64</v>
@@ -64428,7 +64428,7 @@
       </c>
       <c r="C66" s="5">
         <f t="shared" ref="C66:C91" si="8">AVERAGE(J66:Q66)</f>
-        <v>6123.0666666666666</v>
+        <v>6133.0249999999996</v>
       </c>
       <c r="D66">
         <f>COUNTIF(CSL_Sonuclari!J:J,A66)</f>
@@ -64436,7 +64436,7 @@
       </c>
       <c r="E66" s="5">
         <f t="shared" ref="E66:E91" si="9">IF(Q66&lt;&gt;"",Q66,0)</f>
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="F66" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A66)</f>
@@ -64444,7 +64444,7 @@
       </c>
       <c r="G66" s="8">
         <f t="shared" ref="G66:G91" si="10">IF(P66&lt;&gt;"",P66,0)</f>
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="H66">
         <f>COUNTIF(CSL_Sonuclari!C:H,A66)</f>
@@ -64452,19 +64452,19 @@
       </c>
       <c r="I66" s="5">
         <f t="shared" ref="I66:I91" si="11">AVERAGE(J66:O66)</f>
-        <v>9502.1111111111113</v>
+        <v>9517.375</v>
       </c>
       <c r="J66">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H66,"")</f>
-        <v>7758.333333333333</v>
+        <v>7765.625</v>
       </c>
       <c r="K66">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H66,"")</f>
-        <v>6713</v>
+        <v>6716.5</v>
       </c>
       <c r="L66">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H66,"")</f>
-        <v>14035</v>
+        <v>14070</v>
       </c>
       <c r="M66" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H66,"")</f>
@@ -64480,11 +64480,11 @@
       </c>
       <c r="P66">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F66,"")</f>
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="Q66">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D66,"")</f>
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="R66" s="2">
         <v>65</v>
@@ -64504,7 +64504,7 @@
       </c>
       <c r="C67" s="5">
         <f t="shared" si="8"/>
-        <v>6518.0358585858585</v>
+        <v>6522.590909090909</v>
       </c>
       <c r="D67">
         <f>COUNTIF(CSL_Sonuclari!J:J,A67)</f>
@@ -64512,7 +64512,7 @@
       </c>
       <c r="E67" s="5">
         <f t="shared" si="9"/>
-        <v>2047</v>
+        <v>2050</v>
       </c>
       <c r="F67" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A67)</f>
@@ -64528,7 +64528,7 @@
       </c>
       <c r="I67" s="5">
         <f t="shared" si="11"/>
-        <v>9212.8037878787873</v>
+        <v>9218.886363636364</v>
       </c>
       <c r="J67" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H67,"")</f>
@@ -64544,15 +64544,15 @@
       </c>
       <c r="M67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H67,"")</f>
-        <v>7605.181818181818</v>
+        <v>7608.545454545454</v>
       </c>
       <c r="N67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H67,"")</f>
-        <v>9151.3333333333339</v>
+        <v>9161.1999999999989</v>
       </c>
       <c r="O67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H67,"")</f>
-        <v>10992.7</v>
+        <v>11003.8</v>
       </c>
       <c r="P67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F67,"")</f>
@@ -64560,7 +64560,7 @@
       </c>
       <c r="Q67">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D67,"")</f>
-        <v>2047</v>
+        <v>2050</v>
       </c>
       <c r="R67" s="2">
         <v>66</v>
@@ -64580,7 +64580,7 @@
       </c>
       <c r="C68" s="5">
         <f t="shared" si="8"/>
-        <v>7503.9087301587297</v>
+        <v>7511.1449328449335</v>
       </c>
       <c r="D68">
         <f>COUNTIF(CSL_Sonuclari!J:J,A68)</f>
@@ -64588,7 +64588,7 @@
       </c>
       <c r="E68" s="5">
         <f t="shared" si="9"/>
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="F68" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A68)</f>
@@ -64596,7 +64596,7 @@
       </c>
       <c r="G68" s="8">
         <f t="shared" si="10"/>
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="H68">
         <f>COUNTIF(CSL_Sonuclari!C:H,A68)</f>
@@ -64604,23 +64604,23 @@
       </c>
       <c r="I68" s="5">
         <f t="shared" si="11"/>
-        <v>10037.072222222221</v>
+        <v>10046.802905982908</v>
       </c>
       <c r="J68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H68,"")</f>
-        <v>9842</v>
+        <v>9853.1</v>
       </c>
       <c r="K68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H68,"")</f>
-        <v>8510</v>
+        <v>8515.6923076923085</v>
       </c>
       <c r="L68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H68,"")</f>
-        <v>9698.1111111111095</v>
+        <v>9702.2222222222226</v>
       </c>
       <c r="M68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H68,"")</f>
-        <v>12774.25</v>
+        <v>12802</v>
       </c>
       <c r="N68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H68,"")</f>
@@ -64632,11 +64632,11 @@
       </c>
       <c r="P68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F68,"")</f>
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="Q68">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D68,"")</f>
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="R68" s="2">
         <v>67</v>
@@ -64656,7 +64656,7 @@
       </c>
       <c r="C69" s="5">
         <f t="shared" si="8"/>
-        <v>3632.3982142857149</v>
+        <v>3634.0107142857141</v>
       </c>
       <c r="D69">
         <f>COUNTIF(CSL_Sonuclari!J:J,A69)</f>
@@ -64664,7 +64664,7 @@
       </c>
       <c r="E69" s="5">
         <f t="shared" si="9"/>
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="F69" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A69)</f>
@@ -64680,7 +64680,7 @@
       </c>
       <c r="I69" s="5">
         <f t="shared" si="11"/>
-        <v>4666.8642857142868</v>
+        <v>4668.8476190476185</v>
       </c>
       <c r="J69">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H69,"")</f>
@@ -64688,7 +64688,7 @@
       </c>
       <c r="K69">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H69,"")</f>
-        <v>5851.4</v>
+        <v>5854.7999999999993</v>
       </c>
       <c r="L69">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H69,"")</f>
@@ -64696,7 +64696,7 @@
       </c>
       <c r="M69">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H69,"")</f>
-        <v>7392.1666666666661</v>
+        <v>7400.6666666666661</v>
       </c>
       <c r="N69">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H69,"")</f>
@@ -64712,7 +64712,7 @@
       </c>
       <c r="Q69">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D69,"")</f>
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="R69" s="2">
         <v>68</v>
@@ -64732,7 +64732,7 @@
       </c>
       <c r="C70" s="5">
         <f t="shared" si="8"/>
-        <v>5928.410018552875</v>
+        <v>5934.8608534322821</v>
       </c>
       <c r="D70">
         <f>COUNTIF(CSL_Sonuclari!J:J,A70)</f>
@@ -64748,7 +64748,7 @@
       </c>
       <c r="G70" s="8">
         <f t="shared" si="10"/>
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="H70">
         <f>COUNTIF(CSL_Sonuclari!C:H,A70)</f>
@@ -64756,7 +64756,7 @@
       </c>
       <c r="I70" s="5">
         <f t="shared" si="11"/>
-        <v>7876.9740259740256</v>
+        <v>7885.8051948051943</v>
       </c>
       <c r="J70" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H70,"")</f>
@@ -64764,19 +64764,19 @@
       </c>
       <c r="K70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H70,"")</f>
-        <v>8750</v>
+        <v>8770</v>
       </c>
       <c r="L70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H70,"")</f>
-        <v>6422.727272727273</v>
+        <v>6425.454545454546</v>
       </c>
       <c r="M70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H70,"")</f>
-        <v>7152.8571428571422</v>
+        <v>7161.4285714285716</v>
       </c>
       <c r="N70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H70,"")</f>
-        <v>9904.2857142857156</v>
+        <v>9917.1428571428569</v>
       </c>
       <c r="O70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H70,"")</f>
@@ -64784,7 +64784,7 @@
       </c>
       <c r="P70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F70,"")</f>
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="Q70">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D70,"")</f>
@@ -64808,7 +64808,7 @@
       </c>
       <c r="C71" s="5">
         <f t="shared" si="8"/>
-        <v>4404.8193542568542</v>
+        <v>4406.4544552669549</v>
       </c>
       <c r="D71">
         <f>COUNTIF(CSL_Sonuclari!J:J,A71)</f>
@@ -64816,7 +64816,7 @@
       </c>
       <c r="E71" s="5">
         <f t="shared" si="9"/>
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="F71" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A71)</f>
@@ -64824,7 +64824,7 @@
       </c>
       <c r="G71" s="8">
         <f t="shared" si="10"/>
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="H71">
         <f>COUNTIF(CSL_Sonuclari!C:H,A71)</f>
@@ -64832,7 +64832,7 @@
       </c>
       <c r="I71" s="5">
         <f t="shared" si="11"/>
-        <v>5485.2591390091393</v>
+        <v>5486.7726070226063</v>
       </c>
       <c r="J71">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H71,"")</f>
@@ -64844,11 +64844,11 @@
       </c>
       <c r="L71">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H71,"")</f>
-        <v>7437.181818181818</v>
+        <v>7442.818181818182</v>
       </c>
       <c r="M71">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H71,"")</f>
-        <v>6792.4444444444443</v>
+        <v>6795.8888888888887</v>
       </c>
       <c r="N71">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H71,"")</f>
@@ -64860,11 +64860,11 @@
       </c>
       <c r="P71">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F71,"")</f>
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="Q71">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D71,"")</f>
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="R71" s="2">
         <v>70</v>
@@ -64884,7 +64884,7 @@
       </c>
       <c r="C72" s="5">
         <f t="shared" si="8"/>
-        <v>4181.2673469387755</v>
+        <v>4183.7</v>
       </c>
       <c r="D72">
         <f>COUNTIF(CSL_Sonuclari!J:J,A72)</f>
@@ -64892,7 +64892,7 @@
       </c>
       <c r="E72" s="5">
         <f t="shared" si="9"/>
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F72" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A72)</f>
@@ -64908,7 +64908,7 @@
       </c>
       <c r="I72" s="5">
         <f t="shared" si="11"/>
-        <v>5654.9742857142855</v>
+        <v>5658.18</v>
       </c>
       <c r="J72">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H72,"")</f>
@@ -64928,11 +64928,11 @@
       </c>
       <c r="N72">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H72,"")</f>
-        <v>7415.5714285714284</v>
+        <v>7425</v>
       </c>
       <c r="O72">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H72,"")</f>
-        <v>6520.8</v>
+        <v>6527.4000000000005</v>
       </c>
       <c r="P72">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F72,"")</f>
@@ -64940,7 +64940,7 @@
       </c>
       <c r="Q72">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D72,"")</f>
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="R72" s="2">
         <v>71</v>
@@ -64960,7 +64960,7 @@
       </c>
       <c r="C73" s="5">
         <f t="shared" si="8"/>
-        <v>2746.7916666666665</v>
+        <v>2747.125</v>
       </c>
       <c r="D73">
         <f>COUNTIF(CSL_Sonuclari!J:J,A73)</f>
@@ -64968,7 +64968,7 @@
       </c>
       <c r="E73" s="5">
         <f t="shared" si="9"/>
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="F73" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A73)</f>
@@ -65016,7 +65016,7 @@
       </c>
       <c r="Q73">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D73,"")</f>
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="R73" s="2">
         <v>72</v>
@@ -65036,7 +65036,7 @@
       </c>
       <c r="C74" s="5">
         <f t="shared" si="8"/>
-        <v>6092.5153508771937</v>
+        <v>6095.2280701754389</v>
       </c>
       <c r="D74">
         <f>COUNTIF(CSL_Sonuclari!J:J,A74)</f>
@@ -65052,7 +65052,7 @@
       </c>
       <c r="G74" s="8">
         <f t="shared" si="10"/>
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="H74">
         <f>COUNTIF(CSL_Sonuclari!C:H,A74)</f>
@@ -65060,15 +65060,15 @@
       </c>
       <c r="I74" s="5">
         <f t="shared" si="11"/>
-        <v>8678.27302631579</v>
+        <v>8681.8421052631584</v>
       </c>
       <c r="J74">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H74,"")</f>
-        <v>7854.583333333333</v>
+        <v>7863.333333333333</v>
       </c>
       <c r="K74">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H74,"")</f>
-        <v>8226.8421052631584</v>
+        <v>8232.3684210526317</v>
       </c>
       <c r="L74">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H74,"")</f>
@@ -65088,7 +65088,7 @@
       </c>
       <c r="P74">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F74,"")</f>
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="Q74">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D74,"")</f>
@@ -65112,7 +65112,7 @@
       </c>
       <c r="C75" s="5">
         <f t="shared" si="8"/>
-        <v>4272.8374999999996</v>
+        <v>4274.2687500000002</v>
       </c>
       <c r="D75">
         <f>COUNTIF(CSL_Sonuclari!J:J,A75)</f>
@@ -65120,7 +65120,7 @@
       </c>
       <c r="E75" s="5">
         <f t="shared" si="9"/>
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="F75" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A75)</f>
@@ -65136,7 +65136,7 @@
       </c>
       <c r="I75" s="5">
         <f t="shared" si="11"/>
-        <v>5403.45</v>
+        <v>5405.0250000000005</v>
       </c>
       <c r="J75">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H75,"")</f>
@@ -65148,11 +65148,11 @@
       </c>
       <c r="L75">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H75,"")</f>
-        <v>5663.25</v>
+        <v>5670</v>
       </c>
       <c r="M75">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H75,"")</f>
-        <v>5416.2</v>
+        <v>5418.9</v>
       </c>
       <c r="N75">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H75,"")</f>
@@ -65168,7 +65168,7 @@
       </c>
       <c r="Q75">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D75,"")</f>
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="R75" s="2">
         <v>74</v>
@@ -65188,7 +65188,7 @@
       </c>
       <c r="C76" s="5">
         <f t="shared" si="8"/>
-        <v>7802.6006493506493</v>
+        <v>7806.5328282828277</v>
       </c>
       <c r="D76">
         <f>COUNTIF(CSL_Sonuclari!J:J,A76)</f>
@@ -65204,7 +65204,7 @@
       </c>
       <c r="G76" s="8">
         <f t="shared" si="10"/>
-        <v>2401</v>
+        <v>2404</v>
       </c>
       <c r="H76">
         <f>COUNTIF(CSL_Sonuclari!C:H,A76)</f>
@@ -65212,7 +65212,7 @@
       </c>
       <c r="I76" s="5">
         <f t="shared" si="11"/>
-        <v>9898.3008658008657</v>
+        <v>9903.0437710437709</v>
       </c>
       <c r="J76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H76,"")</f>
@@ -65224,15 +65224,15 @@
       </c>
       <c r="L76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H76,"")</f>
-        <v>7669.090909090909</v>
+        <v>7675.818181818182</v>
       </c>
       <c r="M76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H76,"")</f>
-        <v>12099</v>
+        <v>12115.444444444445</v>
       </c>
       <c r="N76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H76,"")</f>
-        <v>10090.428571428572</v>
+        <v>10095.714285714284</v>
       </c>
       <c r="O76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H76,"")</f>
@@ -65240,7 +65240,7 @@
       </c>
       <c r="P76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F76,"")</f>
-        <v>2401</v>
+        <v>2404</v>
       </c>
       <c r="Q76">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D76,"")</f>
@@ -65264,7 +65264,7 @@
       </c>
       <c r="C77" s="5">
         <f t="shared" si="8"/>
-        <v>1867.3120000000004</v>
+        <v>1867.9440000000002</v>
       </c>
       <c r="D77">
         <f>COUNTIF(CSL_Sonuclari!J:J,A77)</f>
@@ -65272,7 +65272,7 @@
       </c>
       <c r="E77" s="5">
         <f t="shared" si="9"/>
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="F77" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A77)</f>
@@ -65288,7 +65288,7 @@
       </c>
       <c r="I77" s="5">
         <f t="shared" si="11"/>
-        <v>2225.52</v>
+        <v>2226.2400000000002</v>
       </c>
       <c r="J77">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H77,"")</f>
@@ -65312,7 +65312,7 @@
       </c>
       <c r="O77">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H77,"")</f>
-        <v>5569.56</v>
+        <v>5571.72</v>
       </c>
       <c r="P77">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F77,"")</f>
@@ -65320,7 +65320,7 @@
       </c>
       <c r="Q77">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D77,"")</f>
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="R77" s="2">
         <v>76</v>
@@ -65340,7 +65340,7 @@
       </c>
       <c r="C78" s="5">
         <f t="shared" si="8"/>
-        <v>5296.1718954248363</v>
+        <v>5303.0620915032678</v>
       </c>
       <c r="D78">
         <f>COUNTIF(CSL_Sonuclari!J:J,A78)</f>
@@ -65356,7 +65356,7 @@
       </c>
       <c r="G78" s="8">
         <f t="shared" si="10"/>
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="H78">
         <f>COUNTIF(CSL_Sonuclari!C:H,A78)</f>
@@ -65364,19 +65364,19 @@
       </c>
       <c r="I78" s="5">
         <f t="shared" si="11"/>
-        <v>7414.5078431372549</v>
+        <v>7424.3431372549021</v>
       </c>
       <c r="J78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H78,"")</f>
-        <v>10227.066666666666</v>
+        <v>10242.266666666668</v>
       </c>
       <c r="K78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H78,"")</f>
-        <v>7787.7647058823532</v>
+        <v>7796.7058823529414</v>
       </c>
       <c r="L78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H78,"")</f>
-        <v>11111.199999999999</v>
+        <v>11126.4</v>
       </c>
       <c r="M78" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H78,"")</f>
@@ -65392,7 +65392,7 @@
       </c>
       <c r="P78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F78,"")</f>
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="Q78">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D78,"")</f>
@@ -65416,7 +65416,7 @@
       </c>
       <c r="C79" s="5">
         <f t="shared" si="8"/>
-        <v>5549.4761904761899</v>
+        <v>5556.2857142857147</v>
       </c>
       <c r="D79">
         <f>COUNTIF(CSL_Sonuclari!J:J,A79)</f>
@@ -65424,7 +65424,7 @@
       </c>
       <c r="E79" s="5">
         <f t="shared" si="9"/>
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="F79" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A79)</f>
@@ -65440,7 +65440,7 @@
       </c>
       <c r="I79" s="5">
         <f t="shared" si="11"/>
-        <v>7436.2666666666655</v>
+        <v>7445.6</v>
       </c>
       <c r="J79" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H79,"")</f>
@@ -65448,7 +65448,7 @@
       </c>
       <c r="K79">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H79,"")</f>
-        <v>12416</v>
+        <v>12448</v>
       </c>
       <c r="L79">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H79,"")</f>
@@ -65456,11 +65456,11 @@
       </c>
       <c r="M79">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H79,"")</f>
-        <v>6677.333333333333</v>
+        <v>6680</v>
       </c>
       <c r="N79">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H79,"")</f>
-        <v>7604</v>
+        <v>7616</v>
       </c>
       <c r="O79">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H79,"")</f>
@@ -65472,7 +65472,7 @@
       </c>
       <c r="Q79">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D79,"")</f>
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="R79" s="2">
         <v>78</v>
@@ -65492,7 +65492,7 @@
       </c>
       <c r="C80" s="5">
         <f t="shared" si="8"/>
-        <v>5857.763736263737</v>
+        <v>5861.4175824175827</v>
       </c>
       <c r="D80">
         <f>COUNTIF(CSL_Sonuclari!J:J,A80)</f>
@@ -65508,7 +65508,7 @@
       </c>
       <c r="G80" s="8">
         <f t="shared" si="10"/>
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="H80">
         <f>COUNTIF(CSL_Sonuclari!C:H,A80)</f>
@@ -65516,7 +65516,7 @@
       </c>
       <c r="I80" s="5">
         <f t="shared" si="11"/>
-        <v>7669.4692307692312</v>
+        <v>7674.3846153846152</v>
       </c>
       <c r="J80" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H80,"")</f>
@@ -65524,11 +65524,11 @@
       </c>
       <c r="K80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H80,"")</f>
-        <v>10845</v>
+        <v>10854</v>
       </c>
       <c r="L80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H80,"")</f>
-        <v>6916.5</v>
+        <v>6921</v>
       </c>
       <c r="M80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H80,"")</f>
@@ -65536,7 +65536,7 @@
       </c>
       <c r="N80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H80,"")</f>
-        <v>8797.8461538461543</v>
+        <v>8808.9230769230762</v>
       </c>
       <c r="O80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H80,"")</f>
@@ -65544,7 +65544,7 @@
       </c>
       <c r="P80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F80,"")</f>
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="Q80">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D80,"")</f>
@@ -65568,7 +65568,7 @@
       </c>
       <c r="C81" s="5">
         <f t="shared" si="8"/>
-        <v>4332.0987179487174</v>
+        <v>4335.1162393162385</v>
       </c>
       <c r="D81">
         <f>COUNTIF(CSL_Sonuclari!J:J,A81)</f>
@@ -65576,7 +65576,7 @@
       </c>
       <c r="E81" s="5">
         <f t="shared" si="9"/>
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F81" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A81)</f>
@@ -65584,7 +65584,7 @@
       </c>
       <c r="G81" s="8">
         <f t="shared" si="10"/>
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="H81">
         <f>COUNTIF(CSL_Sonuclari!C:H,A81)</f>
@@ -65592,19 +65592,19 @@
       </c>
       <c r="I81" s="5">
         <f t="shared" si="11"/>
-        <v>5934.6480769230766</v>
+        <v>5938.6743589743583</v>
       </c>
       <c r="J81">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H81,"")</f>
-        <v>7074.6923076923076</v>
+        <v>7077.2307692307686</v>
       </c>
       <c r="K81">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H81,"")</f>
-        <v>9216.9</v>
+        <v>9226.8000000000011</v>
       </c>
       <c r="L81">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H81,"")</f>
-        <v>5962</v>
+        <v>5965.6666666666661</v>
       </c>
       <c r="M81">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H81,"")</f>
@@ -65620,11 +65620,11 @@
       </c>
       <c r="P81">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F81,"")</f>
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="Q81">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D81,"")</f>
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="R81" s="2">
         <v>80</v>
@@ -65644,7 +65644,7 @@
       </c>
       <c r="C82" s="5">
         <f t="shared" si="8"/>
-        <v>5147.458333333333</v>
+        <v>5150.9464285714284</v>
       </c>
       <c r="D82">
         <f>COUNTIF(CSL_Sonuclari!J:J,A82)</f>
@@ -65660,7 +65660,7 @@
       </c>
       <c r="G82" s="8">
         <f t="shared" si="10"/>
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="H82">
         <f>COUNTIF(CSL_Sonuclari!C:H,A82)</f>
@@ -65668,7 +65668,7 @@
       </c>
       <c r="I82" s="5">
         <f t="shared" si="11"/>
-        <v>9079.4166666666661</v>
+        <v>9085.8928571428569</v>
       </c>
       <c r="J82" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H82,"")</f>
@@ -65688,15 +65688,15 @@
       </c>
       <c r="N82">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H82,"")</f>
-        <v>9548.3333333333321</v>
+        <v>9554</v>
       </c>
       <c r="O82">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H82,"")</f>
-        <v>8610.5</v>
+        <v>8617.7857142857138</v>
       </c>
       <c r="P82">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F82,"")</f>
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="Q82">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D82,"")</f>
@@ -65720,7 +65720,7 @@
       </c>
       <c r="C83" s="5">
         <f t="shared" si="8"/>
-        <v>3751.4444444444448</v>
+        <v>3755.3809523809523</v>
       </c>
       <c r="D83">
         <f>COUNTIF(CSL_Sonuclari!J:J,A83)</f>
@@ -65744,7 +65744,7 @@
       </c>
       <c r="I83" s="5">
         <f t="shared" si="11"/>
-        <v>5264.666666666667</v>
+        <v>5270.5714285714284</v>
       </c>
       <c r="J83" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H83,"")</f>
@@ -65764,11 +65764,11 @@
       </c>
       <c r="N83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H83,"")</f>
-        <v>10626.666666666668</v>
+        <v>10640</v>
       </c>
       <c r="O83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H83,"")</f>
-        <v>9632</v>
+        <v>9642.2857142857138</v>
       </c>
       <c r="P83">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F83,"")</f>
@@ -65796,7 +65796,7 @@
       </c>
       <c r="C84" s="5">
         <f t="shared" si="8"/>
-        <v>5166.296875</v>
+        <v>5171.375</v>
       </c>
       <c r="D84">
         <f>COUNTIF(CSL_Sonuclari!J:J,A84)</f>
@@ -65820,7 +65820,7 @@
       </c>
       <c r="I84" s="5">
         <f t="shared" si="11"/>
-        <v>6421.729166666667</v>
+        <v>6428.5</v>
       </c>
       <c r="J84">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H84,"")</f>
@@ -65840,11 +65840,11 @@
       </c>
       <c r="N84">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H84,"")</f>
-        <v>9386</v>
+        <v>9399</v>
       </c>
       <c r="O84">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H84,"")</f>
-        <v>9333.1875</v>
+        <v>9340.5</v>
       </c>
       <c r="P84">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F84,"")</f>
@@ -65872,7 +65872,7 @@
       </c>
       <c r="C85" s="5">
         <f t="shared" si="8"/>
-        <v>5642.8888888888896</v>
+        <v>5649.333333333333</v>
       </c>
       <c r="D85">
         <f>COUNTIF(CSL_Sonuclari!J:J,A85)</f>
@@ -65880,7 +65880,7 @@
       </c>
       <c r="E85" s="5">
         <f t="shared" si="9"/>
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="F85" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A85)</f>
@@ -65888,7 +65888,7 @@
       </c>
       <c r="G85" s="8">
         <f t="shared" si="10"/>
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="H85">
         <f>COUNTIF(CSL_Sonuclari!C:H,A85)</f>
@@ -65896,7 +65896,7 @@
       </c>
       <c r="I85" s="5">
         <f t="shared" si="11"/>
-        <v>7759.3333333333339</v>
+        <v>7768</v>
       </c>
       <c r="J85" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H85,"")</f>
@@ -65912,23 +65912,23 @@
       </c>
       <c r="M85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H85,"")</f>
-        <v>12426.666666666668</v>
+        <v>12440</v>
       </c>
       <c r="N85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H85,"")</f>
-        <v>10660</v>
+        <v>10673.333333333332</v>
       </c>
       <c r="O85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H85,"")</f>
-        <v>7750.666666666667</v>
+        <v>7758.666666666667</v>
       </c>
       <c r="P85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F85,"")</f>
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="Q85">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D85,"")</f>
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="R85" s="2">
         <v>84</v>
@@ -65948,7 +65948,7 @@
       </c>
       <c r="C86" s="5">
         <f t="shared" si="8"/>
-        <v>5275.2682352941174</v>
+        <v>5278.6117647058827</v>
       </c>
       <c r="D86">
         <f>COUNTIF(CSL_Sonuclari!J:J,A86)</f>
@@ -65956,7 +65956,7 @@
       </c>
       <c r="E86" s="5">
         <f t="shared" si="9"/>
-        <v>1895</v>
+        <v>1898</v>
       </c>
       <c r="F86" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A86)</f>
@@ -65964,7 +65964,7 @@
       </c>
       <c r="G86" s="8">
         <f t="shared" si="10"/>
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="H86">
         <f>COUNTIF(CSL_Sonuclari!C:H,A86)</f>
@@ -65972,15 +65972,15 @@
       </c>
       <c r="I86" s="5">
         <f t="shared" si="11"/>
-        <v>7700.4470588235299</v>
+        <v>7704.3529411764712</v>
       </c>
       <c r="J86">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H86,"")</f>
-        <v>7468.9411764705883</v>
+        <v>7471.0588235294117</v>
       </c>
       <c r="K86">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H86,"")</f>
-        <v>8918.4</v>
+        <v>8928</v>
       </c>
       <c r="L86">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H86,"")</f>
@@ -66000,11 +66000,11 @@
       </c>
       <c r="P86">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F86,"")</f>
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="Q86">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D86,"")</f>
-        <v>1895</v>
+        <v>1898</v>
       </c>
       <c r="R86" s="2">
         <v>85</v>
@@ -66024,7 +66024,7 @@
       </c>
       <c r="C87" s="5">
         <f t="shared" si="8"/>
-        <v>5278.6937500000004</v>
+        <v>5282.6076388888887</v>
       </c>
       <c r="D87">
         <f>COUNTIF(CSL_Sonuclari!J:J,A87)</f>
@@ -66032,7 +66032,7 @@
       </c>
       <c r="E87" s="5">
         <f t="shared" si="9"/>
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="F87" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A87)</f>
@@ -66048,23 +66048,23 @@
       </c>
       <c r="I87" s="5">
         <f t="shared" si="11"/>
-        <v>6649.7583333333341</v>
+        <v>6654.8101851851852</v>
       </c>
       <c r="J87">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H87,"")</f>
-        <v>8928</v>
+        <v>8943.5</v>
       </c>
       <c r="K87">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H87,"")</f>
-        <v>5569.6666666666661</v>
+        <v>5573.1111111111113</v>
       </c>
       <c r="L87">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H87,"")</f>
-        <v>5815.0833333333339</v>
+        <v>5820.25</v>
       </c>
       <c r="M87">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H87,"")</f>
-        <v>6782.8</v>
+        <v>6789</v>
       </c>
       <c r="N87">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H87,"")</f>
@@ -66080,7 +66080,7 @@
       </c>
       <c r="Q87">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D87,"")</f>
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="R87" s="2">
         <v>86</v>
@@ -66100,7 +66100,7 @@
       </c>
       <c r="C88" s="5">
         <f t="shared" si="8"/>
-        <v>3193.4444444444443</v>
+        <v>3195.7185185185185</v>
       </c>
       <c r="D88">
         <f>COUNTIF(CSL_Sonuclari!J:J,A88)</f>
@@ -66116,7 +66116,7 @@
       </c>
       <c r="G88" s="8">
         <f t="shared" si="10"/>
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="H88">
         <f>COUNTIF(CSL_Sonuclari!C:H,A88)</f>
@@ -66124,11 +66124,11 @@
       </c>
       <c r="I88" s="5">
         <f t="shared" si="11"/>
-        <v>4460.7407407407409</v>
+        <v>4464.1975308641977</v>
       </c>
       <c r="J88">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H88,"")</f>
-        <v>8112.2222222222217</v>
+        <v>8122.5925925925931</v>
       </c>
       <c r="K88">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H88,"")</f>
@@ -66152,7 +66152,7 @@
       </c>
       <c r="P88">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F88,"")</f>
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="Q88">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D88,"")</f>
@@ -66176,7 +66176,7 @@
       </c>
       <c r="C89" s="5">
         <f t="shared" si="8"/>
-        <v>6512.9107142857147</v>
+        <v>6518.1160714285716</v>
       </c>
       <c r="D89">
         <f>COUNTIF(CSL_Sonuclari!J:J,A89)</f>
@@ -66184,7 +66184,7 @@
       </c>
       <c r="E89" s="5">
         <f t="shared" si="9"/>
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="F89" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A89)</f>
@@ -66192,7 +66192,7 @@
       </c>
       <c r="G89" s="8">
         <f t="shared" si="10"/>
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H89">
         <f>COUNTIF(CSL_Sonuclari!C:H,A89)</f>
@@ -66200,7 +66200,7 @@
       </c>
       <c r="I89" s="5">
         <f t="shared" si="11"/>
-        <v>8732.6749999999993</v>
+        <v>8739.5625</v>
       </c>
       <c r="J89" t="str">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H89,"")</f>
@@ -66212,27 +66212,27 @@
       </c>
       <c r="L89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H89,"")</f>
-        <v>9360</v>
+        <v>9375</v>
       </c>
       <c r="M89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H89,"")</f>
-        <v>11560.000000000002</v>
+        <v>11565</v>
       </c>
       <c r="N89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!G:G,A:A,CSL_Sonuclari!A:A)*H89,"")</f>
-        <v>9286.875</v>
+        <v>9295.3125</v>
       </c>
       <c r="O89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!H:H,A:A,CSL_Sonuclari!A:A)*H89,"")</f>
-        <v>11004</v>
+        <v>11010</v>
       </c>
       <c r="P89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F89,"")</f>
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="Q89">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D89,"")</f>
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="R89" s="2">
         <v>88</v>
@@ -66252,7 +66252,7 @@
       </c>
       <c r="C90" s="5">
         <f t="shared" si="8"/>
-        <v>4383.9821428571431</v>
+        <v>4387.1785714285716</v>
       </c>
       <c r="D90">
         <f>COUNTIF(CSL_Sonuclari!J:J,A90)</f>
@@ -66260,7 +66260,7 @@
       </c>
       <c r="E90" s="5">
         <f t="shared" si="9"/>
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F90" s="6">
         <f>COUNTIF(CSL_Sonuclari!I:I,A90)</f>
@@ -66268,7 +66268,7 @@
       </c>
       <c r="G90" s="8">
         <f t="shared" si="10"/>
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="H90">
         <f>COUNTIF(CSL_Sonuclari!C:H,A90)</f>
@@ -66276,19 +66276,19 @@
       </c>
       <c r="I90" s="5">
         <f t="shared" si="11"/>
-        <v>5421.1428571428578</v>
+        <v>5425.0714285714284</v>
       </c>
       <c r="J90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H90,"")</f>
-        <v>5664.8571428571431</v>
+        <v>5667.4285714285706</v>
       </c>
       <c r="K90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H90,"")</f>
-        <v>9732</v>
+        <v>9741</v>
       </c>
       <c r="L90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H90,"")</f>
-        <v>8976</v>
+        <v>8988</v>
       </c>
       <c r="M90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H90,"")</f>
@@ -66304,11 +66304,11 @@
       </c>
       <c r="P90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!I:I,A:A,CSL_Sonuclari!A:A)*F90,"")</f>
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="Q90">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!J:J,A:A,CSL_Sonuclari!A:A)*D90,"")</f>
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="R90" s="2">
         <v>89</v>
@@ -66328,7 +66328,7 @@
       </c>
       <c r="C91" s="5">
         <f t="shared" si="8"/>
-        <v>6333.1893939393931</v>
+        <v>6336.962121212121</v>
       </c>
       <c r="D91">
         <f>COUNTIF(CSL_Sonuclari!J:J,A91)</f>
@@ -66352,19 +66352,19 @@
       </c>
       <c r="I91" s="5">
         <f t="shared" si="11"/>
-        <v>9005.2840909090901</v>
+        <v>9010.943181818182</v>
       </c>
       <c r="J91">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!C:C,A:A,CSL_Sonuclari!A:A) * H91,"")</f>
-        <v>8706</v>
+        <v>8712</v>
       </c>
       <c r="K91">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!D:D,A:A,CSL_Sonuclari!A:A) * H91,"")</f>
-        <v>7551</v>
+        <v>7557</v>
       </c>
       <c r="L91">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!E:E,A:A,CSL_Sonuclari!A:A) *H91,"")</f>
-        <v>10423.636363636362</v>
+        <v>10434.272727272728</v>
       </c>
       <c r="M91">
         <f>IFERROR(AVERAGEIF(CSL_Sonuclari!F:F,A:A,CSL_Sonuclari!A:A)*H91,"")</f>
@@ -68429,7 +68429,7 @@
       </c>
       <c r="C2" s="5">
         <f t="shared" ref="C2:C33" si="0">AVERAGE(D2:H2)</f>
-        <v>116.875</v>
+        <v>116.9375</v>
       </c>
       <c r="D2" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A2,SL_Sonuclari!A:A),"")</f>
@@ -68449,7 +68449,7 @@
       </c>
       <c r="H2">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A2,SL_Sonuclari!A:A),"")</f>
-        <v>229.75</v>
+        <v>229.875</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -68462,11 +68462,11 @@
       </c>
       <c r="C3" s="5">
         <f t="shared" si="0"/>
-        <v>120.54878048780488</v>
+        <v>120.6829268292683</v>
       </c>
       <c r="D3">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A3,SL_Sonuclari!A:A),"")</f>
-        <v>234.09756097560975</v>
+        <v>234.36585365853659</v>
       </c>
       <c r="E3" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A3,SL_Sonuclari!A:A),"")</f>
@@ -68495,7 +68495,7 @@
       </c>
       <c r="C4" s="5">
         <f t="shared" si="0"/>
-        <v>118.93392857142857</v>
+        <v>119.00535714285714</v>
       </c>
       <c r="D4">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A4,SL_Sonuclari!A:A),"")</f>
@@ -68511,7 +68511,7 @@
       </c>
       <c r="G4">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A4,SL_Sonuclari!A:A),"")</f>
-        <v>260.28571428571428</v>
+        <v>260.57142857142856</v>
       </c>
       <c r="H4">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A4,SL_Sonuclari!A:A),"")</f>
@@ -68528,11 +68528,11 @@
       </c>
       <c r="C5" s="5">
         <f t="shared" si="0"/>
-        <v>131.83333333333334</v>
+        <v>131.97222222222223</v>
       </c>
       <c r="D5">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A5,SL_Sonuclari!A:A),"")</f>
-        <v>256.66666666666669</v>
+        <v>256.94444444444446</v>
       </c>
       <c r="E5" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A5,SL_Sonuclari!A:A),"")</f>
@@ -68561,15 +68561,15 @@
       </c>
       <c r="C6" s="5">
         <f t="shared" si="0"/>
-        <v>144.53431372549019</v>
+        <v>144.61887254901961</v>
       </c>
       <c r="D6">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A6,SL_Sonuclari!A:A),"")</f>
-        <v>197.97058823529412</v>
+        <v>198.05882352941177</v>
       </c>
       <c r="E6">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A6,SL_Sonuclari!A:A),"")</f>
-        <v>242.16666666666666</v>
+        <v>242.41666666666666</v>
       </c>
       <c r="F6">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A6,SL_Sonuclari!A:A),"")</f>
@@ -68594,11 +68594,11 @@
       </c>
       <c r="C7" s="5">
         <f t="shared" si="0"/>
-        <v>172.10216346153845</v>
+        <v>172.16466346153845</v>
       </c>
       <c r="D7">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A7,SL_Sonuclari!A:A),"")</f>
-        <v>210.8125</v>
+        <v>210.9375</v>
       </c>
       <c r="E7">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A7,SL_Sonuclari!A:A),"")</f>
@@ -68606,7 +68606,7 @@
       </c>
       <c r="F7">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A7,SL_Sonuclari!A:A),"")</f>
-        <v>255.75</v>
+        <v>255.875</v>
       </c>
       <c r="G7">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A7,SL_Sonuclari!A:A),"")</f>
@@ -68627,7 +68627,7 @@
       </c>
       <c r="C8" s="5">
         <f t="shared" si="0"/>
-        <v>150.91749999999999</v>
+        <v>150.9375</v>
       </c>
       <c r="D8">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A8,SL_Sonuclari!A:A),"")</f>
@@ -68647,7 +68647,7 @@
       </c>
       <c r="H8">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A8,SL_Sonuclari!A:A),"")</f>
-        <v>188.92</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -68660,19 +68660,19 @@
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>224.19181585677751</v>
+        <v>224.47868712702473</v>
       </c>
       <c r="D9">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A9,SL_Sonuclari!A:A),"")</f>
-        <v>248.82608695652175</v>
+        <v>249.13043478260869</v>
       </c>
       <c r="E9">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A9,SL_Sonuclari!A:A),"")</f>
-        <v>245.94117647058823</v>
+        <v>246.11764705882354</v>
       </c>
       <c r="F9">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A9,SL_Sonuclari!A:A),"")</f>
-        <v>276.66666666666669</v>
+        <v>277.33333333333331</v>
       </c>
       <c r="G9">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A9,SL_Sonuclari!A:A),"")</f>
@@ -68693,7 +68693,7 @@
       </c>
       <c r="C10" s="5">
         <f t="shared" si="0"/>
-        <v>203.64610389610391</v>
+        <v>203.72727272727275</v>
       </c>
       <c r="D10" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A10,SL_Sonuclari!A:A),"")</f>
@@ -68701,15 +68701,15 @@
       </c>
       <c r="E10">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A10,SL_Sonuclari!A:A),"")</f>
-        <v>184.72727272727272</v>
+        <v>184.90909090909091</v>
       </c>
       <c r="F10">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A10,SL_Sonuclari!A:A),"")</f>
-        <v>229.64285714285714</v>
+        <v>229.71428571428572</v>
       </c>
       <c r="G10">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A10,SL_Sonuclari!A:A),"")</f>
-        <v>205.71428571428572</v>
+        <v>205.78571428571428</v>
       </c>
       <c r="H10">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A10,SL_Sonuclari!A:A),"")</f>
@@ -68726,23 +68726,23 @@
       </c>
       <c r="C11" s="5">
         <f t="shared" si="0"/>
-        <v>192.5190476190476</v>
+        <v>192.68253968253967</v>
       </c>
       <c r="D11">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A11,SL_Sonuclari!A:A),"")</f>
-        <v>126.6</v>
+        <v>126.66666666666667</v>
       </c>
       <c r="E11">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A11,SL_Sonuclari!A:A),"")</f>
-        <v>202.8095238095238</v>
+        <v>202.95238095238096</v>
       </c>
       <c r="F11">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A11,SL_Sonuclari!A:A),"")</f>
-        <v>283.33333333333331</v>
+        <v>283.44444444444446</v>
       </c>
       <c r="G11">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A11,SL_Sonuclari!A:A),"")</f>
-        <v>157.33333333333334</v>
+        <v>157.66666666666666</v>
       </c>
       <c r="H11" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A11,SL_Sonuclari!A:A),"")</f>
@@ -68759,15 +68759,15 @@
       </c>
       <c r="C12" s="5">
         <f t="shared" si="0"/>
-        <v>170.70181159420289</v>
+        <v>170.85108695652175</v>
       </c>
       <c r="D12">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A12,SL_Sonuclari!A:A),"")</f>
-        <v>216.17391304347825</v>
+        <v>216.30434782608697</v>
       </c>
       <c r="E12">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A12,SL_Sonuclari!A:A),"")</f>
-        <v>310.13333333333333</v>
+        <v>310.60000000000002</v>
       </c>
       <c r="F12">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A12,SL_Sonuclari!A:A),"")</f>
@@ -68792,15 +68792,15 @@
       </c>
       <c r="C13" s="5">
         <f t="shared" si="0"/>
-        <v>156.79214285714286</v>
+        <v>156.87785714285715</v>
       </c>
       <c r="D13">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A13,SL_Sonuclari!A:A),"")</f>
-        <v>258.24</v>
+        <v>258.44</v>
       </c>
       <c r="E13">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A13,SL_Sonuclari!A:A),"")</f>
-        <v>180.42857142857142</v>
+        <v>180.57142857142858</v>
       </c>
       <c r="F13">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A13,SL_Sonuclari!A:A),"")</f>
@@ -68825,7 +68825,7 @@
       </c>
       <c r="C14" s="5">
         <f t="shared" si="0"/>
-        <v>172.75689223057645</v>
+        <v>172.82794486215539</v>
       </c>
       <c r="D14">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A14,SL_Sonuclari!A:A),"")</f>
@@ -68833,7 +68833,7 @@
       </c>
       <c r="E14">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A14,SL_Sonuclari!A:A),"")</f>
-        <v>218.73684210526315</v>
+        <v>218.84210526315789</v>
       </c>
       <c r="F14">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A14,SL_Sonuclari!A:A),"")</f>
@@ -68841,7 +68841,7 @@
       </c>
       <c r="G14">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A14,SL_Sonuclari!A:A),"")</f>
-        <v>261</v>
+        <v>261.25</v>
       </c>
       <c r="H14">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A14,SL_Sonuclari!A:A),"")</f>
@@ -68858,15 +68858,15 @@
       </c>
       <c r="C15" s="5">
         <f t="shared" si="0"/>
-        <v>205.97167277167273</v>
+        <v>206.17020757020754</v>
       </c>
       <c r="D15">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A15,SL_Sonuclari!A:A),"")</f>
-        <v>290.66666666666669</v>
+        <v>291</v>
       </c>
       <c r="E15">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A15,SL_Sonuclari!A:A),"")</f>
-        <v>274.46153846153845</v>
+        <v>274.69230769230768</v>
       </c>
       <c r="F15">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A15,SL_Sonuclari!A:A),"")</f>
@@ -68874,7 +68874,7 @@
       </c>
       <c r="G15">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A15,SL_Sonuclari!A:A),"")</f>
-        <v>210.28571428571428</v>
+        <v>210.71428571428572</v>
       </c>
       <c r="H15">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A15,SL_Sonuclari!A:A),"")</f>
@@ -68891,11 +68891,11 @@
       </c>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
-        <v>208.27936507936505</v>
+        <v>208.40460317460321</v>
       </c>
       <c r="D16">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A16,SL_Sonuclari!A:A),"")</f>
-        <v>242.11111111111111</v>
+        <v>242.44444444444446</v>
       </c>
       <c r="E16">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A16,SL_Sonuclari!A:A),"")</f>
@@ -68903,11 +68903,11 @@
       </c>
       <c r="F16">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A16,SL_Sonuclari!A:A),"")</f>
-        <v>194.8</v>
+        <v>194.95</v>
       </c>
       <c r="G16">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A16,SL_Sonuclari!A:A),"")</f>
-        <v>262.28571428571428</v>
+        <v>262.42857142857144</v>
       </c>
       <c r="H16">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A16,SL_Sonuclari!A:A),"")</f>
@@ -68924,19 +68924,19 @@
       </c>
       <c r="C17" s="5">
         <f t="shared" si="0"/>
-        <v>219.85568181818181</v>
+        <v>219.9587121212121</v>
       </c>
       <c r="D17">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A17,SL_Sonuclari!A:A),"")</f>
-        <v>224.5</v>
+        <v>224.58333333333334</v>
       </c>
       <c r="E17">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A17,SL_Sonuclari!A:A),"")</f>
-        <v>218.6875</v>
+        <v>218.9375</v>
       </c>
       <c r="F17">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A17,SL_Sonuclari!A:A),"")</f>
-        <v>239.09090909090909</v>
+        <v>239.27272727272728</v>
       </c>
       <c r="G17">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A17,SL_Sonuclari!A:A),"")</f>
@@ -68957,7 +68957,7 @@
       </c>
       <c r="C18" s="5">
         <f t="shared" si="0"/>
-        <v>160.69444444444446</v>
+        <v>160.7777777777778</v>
       </c>
       <c r="D18" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A18,SL_Sonuclari!A:A),"")</f>
@@ -68973,11 +68973,11 @@
       </c>
       <c r="G18">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A18,SL_Sonuclari!A:A),"")</f>
-        <v>254.875</v>
+        <v>255</v>
       </c>
       <c r="H18">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A18,SL_Sonuclari!A:A),"")</f>
-        <v>213.20833333333334</v>
+        <v>213.33333333333334</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -68990,7 +68990,7 @@
       </c>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
-        <v>205.53333333333333</v>
+        <v>205.76666666666665</v>
       </c>
       <c r="D19" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A19,SL_Sonuclari!A:A),"")</f>
@@ -69006,11 +69006,11 @@
       </c>
       <c r="G19">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A19,SL_Sonuclari!A:A),"")</f>
-        <v>155.6</v>
+        <v>155.80000000000001</v>
       </c>
       <c r="H19">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A19,SL_Sonuclari!A:A),"")</f>
-        <v>267</v>
+        <v>267.5</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -69023,23 +69023,23 @@
       </c>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
-        <v>223.13019005847951</v>
+        <v>223.31673976608187</v>
       </c>
       <c r="D20">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A20,SL_Sonuclari!A:A),"")</f>
-        <v>202.3</v>
+        <v>202.4</v>
       </c>
       <c r="E20">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A20,SL_Sonuclari!A:A),"")</f>
-        <v>268.58333333333331</v>
+        <v>268.75</v>
       </c>
       <c r="F20">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A20,SL_Sonuclari!A:A),"")</f>
-        <v>275.5263157894737</v>
+        <v>275.89473684210526</v>
       </c>
       <c r="G20">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A20,SL_Sonuclari!A:A),"")</f>
-        <v>146.11111111111111</v>
+        <v>146.22222222222223</v>
       </c>
       <c r="H20" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A20,SL_Sonuclari!A:A),"")</f>
@@ -69056,19 +69056,19 @@
       </c>
       <c r="C21" s="5">
         <f t="shared" si="0"/>
-        <v>214.05275974025975</v>
+        <v>214.13392857142856</v>
       </c>
       <c r="D21">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A21,SL_Sonuclari!A:A),"")</f>
-        <v>217</v>
+        <v>217.09090909090909</v>
       </c>
       <c r="E21">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A21,SL_Sonuclari!A:A),"")</f>
-        <v>248.81818181818181</v>
+        <v>248.90909090909091</v>
       </c>
       <c r="F21">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A21,SL_Sonuclari!A:A),"")</f>
-        <v>198.14285714285714</v>
+        <v>198.28571428571428</v>
       </c>
       <c r="G21">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A21,SL_Sonuclari!A:A),"")</f>
@@ -69089,7 +69089,7 @@
       </c>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
-        <v>239.77272727272725</v>
+        <v>239.90909090909091</v>
       </c>
       <c r="D22" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A22,SL_Sonuclari!A:A),"")</f>
@@ -69109,7 +69109,7 @@
       </c>
       <c r="H22">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A22,SL_Sonuclari!A:A),"")</f>
-        <v>239.54545454545453</v>
+        <v>239.81818181818181</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -69122,7 +69122,7 @@
       </c>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
-        <v>214.42037337662339</v>
+        <v>214.56980519480518</v>
       </c>
       <c r="D23" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A23,SL_Sonuclari!A:A),"")</f>
@@ -69134,15 +69134,15 @@
       </c>
       <c r="F23">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A23,SL_Sonuclari!A:A),"")</f>
-        <v>243.36363636363637</v>
+        <v>243.63636363636363</v>
       </c>
       <c r="G23">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A23,SL_Sonuclari!A:A),"")</f>
-        <v>229.375</v>
+        <v>229.5</v>
       </c>
       <c r="H23">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A23,SL_Sonuclari!A:A),"")</f>
-        <v>228.8</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -69155,7 +69155,7 @@
       </c>
       <c r="C24" s="5">
         <f t="shared" si="0"/>
-        <v>204.20760233918131</v>
+        <v>204.37953216374271</v>
       </c>
       <c r="D24" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A24,SL_Sonuclari!A:A),"")</f>
@@ -69171,11 +69171,11 @@
       </c>
       <c r="G24">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A24,SL_Sonuclari!A:A),"")</f>
-        <v>260.78947368421052</v>
+        <v>261.10526315789474</v>
       </c>
       <c r="H24">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A24,SL_Sonuclari!A:A),"")</f>
-        <v>244.33333333333334</v>
+        <v>244.53333333333333</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -69188,7 +69188,7 @@
       </c>
       <c r="C25" s="5">
         <f t="shared" si="0"/>
-        <v>214.2703823953824</v>
+        <v>214.45256132756134</v>
       </c>
       <c r="D25" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A25,SL_Sonuclari!A:A),"")</f>
@@ -69200,15 +69200,15 @@
       </c>
       <c r="F25">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A25,SL_Sonuclari!A:A),"")</f>
-        <v>175.55555555555554</v>
+        <v>175.77777777777777</v>
       </c>
       <c r="G25">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A25,SL_Sonuclari!A:A),"")</f>
-        <v>204.07142857142858</v>
+        <v>204.21428571428572</v>
       </c>
       <c r="H25">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A25,SL_Sonuclari!A:A),"")</f>
-        <v>260.45454545454544</v>
+        <v>260.81818181818181</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -69221,7 +69221,7 @@
       </c>
       <c r="C26" s="5">
         <f t="shared" si="0"/>
-        <v>184.50959595959597</v>
+        <v>184.64217171717172</v>
       </c>
       <c r="D26" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A26,SL_Sonuclari!A:A),"")</f>
@@ -69233,7 +69233,7 @@
       </c>
       <c r="F26">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A26,SL_Sonuclari!A:A),"")</f>
-        <v>267.72727272727275</v>
+        <v>268.09090909090907</v>
       </c>
       <c r="G26">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A26,SL_Sonuclari!A:A),"")</f>
@@ -69241,7 +69241,7 @@
       </c>
       <c r="H26">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A26,SL_Sonuclari!A:A),"")</f>
-        <v>239.77777777777777</v>
+        <v>239.94444444444446</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -69254,7 +69254,7 @@
       </c>
       <c r="C27" s="5">
         <f t="shared" si="0"/>
-        <v>187</v>
+        <v>187.20833333333334</v>
       </c>
       <c r="D27" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A27,SL_Sonuclari!A:A),"")</f>
@@ -69274,7 +69274,7 @@
       </c>
       <c r="H27">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A27,SL_Sonuclari!A:A),"")</f>
-        <v>284</v>
+        <v>284.41666666666669</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -69287,15 +69287,15 @@
       </c>
       <c r="C28" s="5">
         <f t="shared" si="0"/>
-        <v>215.15700483091788</v>
+        <v>215.25419153168514</v>
       </c>
       <c r="D28">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A28,SL_Sonuclari!A:A),"")</f>
-        <v>235.30434782608697</v>
+        <v>235.47826086956522</v>
       </c>
       <c r="E28">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A28,SL_Sonuclari!A:A),"")</f>
-        <v>197</v>
+        <v>197.11764705882354</v>
       </c>
       <c r="F28">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A28,SL_Sonuclari!A:A),"")</f>
@@ -69320,7 +69320,7 @@
       </c>
       <c r="C29" s="5">
         <f t="shared" si="0"/>
-        <v>191.84191176470588</v>
+        <v>191.8860294117647</v>
       </c>
       <c r="D29" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A29,SL_Sonuclari!A:A),"")</f>
@@ -69336,7 +69336,7 @@
       </c>
       <c r="G29">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A29,SL_Sonuclari!A:A),"")</f>
-        <v>236.11764705882354</v>
+        <v>236.29411764705881</v>
       </c>
       <c r="H29">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A29,SL_Sonuclari!A:A),"")</f>
@@ -69353,7 +69353,7 @@
       </c>
       <c r="C30" s="5">
         <f t="shared" si="0"/>
-        <v>199.15833333333336</v>
+        <v>199.32166666666666</v>
       </c>
       <c r="D30">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A30,SL_Sonuclari!A:A),"")</f>
@@ -69361,15 +69361,15 @@
       </c>
       <c r="E30">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A30,SL_Sonuclari!A:A),"")</f>
-        <v>194.125</v>
+        <v>194.375</v>
       </c>
       <c r="F30">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A30,SL_Sonuclari!A:A),"")</f>
-        <v>215.33333333333334</v>
+        <v>215.5</v>
       </c>
       <c r="G30">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A30,SL_Sonuclari!A:A),"")</f>
-        <v>314.33333333333331</v>
+        <v>314.73333333333335</v>
       </c>
       <c r="H30">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A30,SL_Sonuclari!A:A),"")</f>
@@ -69386,7 +69386,7 @@
       </c>
       <c r="C31" s="5">
         <f t="shared" si="0"/>
-        <v>185.08343434343436</v>
+        <v>185.1379797979798</v>
       </c>
       <c r="D31">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A31,SL_Sonuclari!A:A),"")</f>
@@ -69394,11 +69394,11 @@
       </c>
       <c r="E31">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A31,SL_Sonuclari!A:A),"")</f>
-        <v>175.72727272727272</v>
+        <v>175.90909090909091</v>
       </c>
       <c r="F31">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A31,SL_Sonuclari!A:A),"")</f>
-        <v>231.54545454545453</v>
+        <v>231.63636363636363</v>
       </c>
       <c r="G31">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A31,SL_Sonuclari!A:A),"")</f>
@@ -69419,7 +69419,7 @@
       </c>
       <c r="C32" s="5">
         <f t="shared" si="0"/>
-        <v>295.01923076923077</v>
+        <v>295.44230769230768</v>
       </c>
       <c r="D32" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A32,SL_Sonuclari!A:A),"")</f>
@@ -69431,7 +69431,7 @@
       </c>
       <c r="F32">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A32,SL_Sonuclari!A:A),"")</f>
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G32">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A32,SL_Sonuclari!A:A),"")</f>
@@ -69439,7 +69439,7 @@
       </c>
       <c r="H32">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A32,SL_Sonuclari!A:A),"")</f>
-        <v>262.80769230769232</v>
+        <v>263.07692307692309</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -69452,7 +69452,7 @@
       </c>
       <c r="C33" s="5">
         <f t="shared" si="0"/>
-        <v>196.46977124183007</v>
+        <v>196.60277777777776</v>
       </c>
       <c r="D33" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A33,SL_Sonuclari!A:A),"")</f>
@@ -69460,15 +69460,15 @@
       </c>
       <c r="E33">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A33,SL_Sonuclari!A:A),"")</f>
-        <v>256.88888888888891</v>
+        <v>257.11111111111109</v>
       </c>
       <c r="F33">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A33,SL_Sonuclari!A:A),"")</f>
-        <v>221.8235294117647</v>
+        <v>222</v>
       </c>
       <c r="G33">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A33,SL_Sonuclari!A:A),"")</f>
-        <v>213.66666666666666</v>
+        <v>213.8</v>
       </c>
       <c r="H33">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A33,SL_Sonuclari!A:A),"")</f>
@@ -69485,7 +69485,7 @@
       </c>
       <c r="C34" s="5">
         <f t="shared" ref="C34:C61" si="1">AVERAGE(D34:H34)</f>
-        <v>285.08754208754209</v>
+        <v>285.48821548821547</v>
       </c>
       <c r="D34" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A34,SL_Sonuclari!A:A),"")</f>
@@ -69497,15 +69497,15 @@
       </c>
       <c r="F34">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A34,SL_Sonuclari!A:A),"")</f>
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G34">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A34,SL_Sonuclari!A:A),"")</f>
-        <v>243.44444444444446</v>
+        <v>243.55555555555554</v>
       </c>
       <c r="H34">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A34,SL_Sonuclari!A:A),"")</f>
-        <v>219.81818181818181</v>
+        <v>219.90909090909091</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -69518,7 +69518,7 @@
       </c>
       <c r="C35" s="5">
         <f t="shared" si="1"/>
-        <v>227.38717948717948</v>
+        <v>227.54487179487177</v>
       </c>
       <c r="D35">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A35,SL_Sonuclari!A:A),"")</f>
@@ -69530,15 +69530,15 @@
       </c>
       <c r="F35">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A35,SL_Sonuclari!A:A),"")</f>
-        <v>220.38461538461539</v>
+        <v>220.61538461538461</v>
       </c>
       <c r="G35">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A35,SL_Sonuclari!A:A),"")</f>
-        <v>252.38461538461539</v>
+        <v>252.69230769230768</v>
       </c>
       <c r="H35">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A35,SL_Sonuclari!A:A),"")</f>
-        <v>338</v>
+        <v>338.25</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -69551,7 +69551,7 @@
       </c>
       <c r="C36" s="5">
         <f t="shared" si="1"/>
-        <v>254.47619047619048</v>
+        <v>254.81190476190477</v>
       </c>
       <c r="D36" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A36,SL_Sonuclari!A:A),"")</f>
@@ -69563,15 +69563,15 @@
       </c>
       <c r="F36">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A36,SL_Sonuclari!A:A),"")</f>
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G36">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A36,SL_Sonuclari!A:A),"")</f>
-        <v>187.57142857142858</v>
+        <v>187.71428571428572</v>
       </c>
       <c r="H36">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A36,SL_Sonuclari!A:A),"")</f>
-        <v>237.33333333333334</v>
+        <v>237.53333333333333</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -69584,19 +69584,19 @@
       </c>
       <c r="C37" s="5">
         <f t="shared" si="1"/>
-        <v>218.85428921568624</v>
+        <v>219.03186274509804</v>
       </c>
       <c r="D37">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A37,SL_Sonuclari!A:A),"")</f>
-        <v>241.46875</v>
+        <v>241.625</v>
       </c>
       <c r="E37">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A37,SL_Sonuclari!A:A),"")</f>
-        <v>224.29411764705881</v>
+        <v>224.47058823529412</v>
       </c>
       <c r="F37">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A37,SL_Sonuclari!A:A),"")</f>
-        <v>190.8</v>
+        <v>191</v>
       </c>
       <c r="G37" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A37,SL_Sonuclari!A:A),"")</f>
@@ -69617,7 +69617,7 @@
       </c>
       <c r="C38" s="5">
         <f t="shared" si="1"/>
-        <v>226.23055555555555</v>
+        <v>226.45416666666671</v>
       </c>
       <c r="D38">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A38,SL_Sonuclari!A:A),"")</f>
@@ -69625,11 +69625,11 @@
       </c>
       <c r="E38">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A38,SL_Sonuclari!A:A),"")</f>
-        <v>200.375</v>
+        <v>200.4375</v>
       </c>
       <c r="F38">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A38,SL_Sonuclari!A:A),"")</f>
-        <v>196.44444444444446</v>
+        <v>196.5</v>
       </c>
       <c r="G38">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A38,SL_Sonuclari!A:A),"")</f>
@@ -69637,7 +69637,7 @@
       </c>
       <c r="H38">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A38,SL_Sonuclari!A:A),"")</f>
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -69650,7 +69650,7 @@
       </c>
       <c r="C39" s="5">
         <f t="shared" si="1"/>
-        <v>277.7129304029304</v>
+        <v>278.05256410256413</v>
       </c>
       <c r="D39">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A39,SL_Sonuclari!A:A),"")</f>
@@ -69658,19 +69658,19 @@
       </c>
       <c r="E39">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A39,SL_Sonuclari!A:A),"")</f>
-        <v>257.47619047619048</v>
+        <v>257.66666666666669</v>
       </c>
       <c r="F39">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A39,SL_Sonuclari!A:A),"")</f>
-        <v>292.53846153846155</v>
+        <v>292.84615384615387</v>
       </c>
       <c r="G39">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A39,SL_Sonuclari!A:A),"")</f>
-        <v>239.8</v>
+        <v>240</v>
       </c>
       <c r="H39">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A39,SL_Sonuclari!A:A),"")</f>
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -69683,7 +69683,7 @@
       </c>
       <c r="C40" s="5">
         <f t="shared" si="1"/>
-        <v>226.34950120399037</v>
+        <v>226.48701410388719</v>
       </c>
       <c r="D40" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A40,SL_Sonuclari!A:A),"")</f>
@@ -69695,15 +69695,15 @@
       </c>
       <c r="F40">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A40,SL_Sonuclari!A:A),"")</f>
-        <v>209.05882352941177</v>
+        <v>209.11764705882354</v>
       </c>
       <c r="G40">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A40,SL_Sonuclari!A:A),"")</f>
-        <v>216.89473684210526</v>
+        <v>217.05263157894737</v>
       </c>
       <c r="H40">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A40,SL_Sonuclari!A:A),"")</f>
-        <v>262.44444444444446</v>
+        <v>262.77777777777777</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -69716,7 +69716,7 @@
       </c>
       <c r="C41" s="5">
         <f t="shared" si="1"/>
-        <v>205.21041666666667</v>
+        <v>205.3</v>
       </c>
       <c r="D41" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A41,SL_Sonuclari!A:A),"")</f>
@@ -69728,15 +69728,15 @@
       </c>
       <c r="F41">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A41,SL_Sonuclari!A:A),"")</f>
-        <v>184.8</v>
+        <v>184.86666666666667</v>
       </c>
       <c r="G41">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A41,SL_Sonuclari!A:A),"")</f>
-        <v>246.04166666666666</v>
+        <v>246.25</v>
       </c>
       <c r="H41">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A41,SL_Sonuclari!A:A),"")</f>
-        <v>159.25</v>
+        <v>159.33333333333334</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -69782,7 +69782,7 @@
       </c>
       <c r="C43" s="5">
         <f t="shared" si="1"/>
-        <v>212.92054655870447</v>
+        <v>213.00539811066128</v>
       </c>
       <c r="D43" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A43,SL_Sonuclari!A:A),"")</f>
@@ -69794,15 +69794,15 @@
       </c>
       <c r="F43">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A43,SL_Sonuclari!A:A),"")</f>
-        <v>248.875</v>
+        <v>249</v>
       </c>
       <c r="G43">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A43,SL_Sonuclari!A:A),"")</f>
-        <v>191.30769230769232</v>
+        <v>191.38461538461539</v>
       </c>
       <c r="H43">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A43,SL_Sonuclari!A:A),"")</f>
-        <v>198.57894736842104</v>
+        <v>198.63157894736841</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -69815,11 +69815,11 @@
       </c>
       <c r="C44" s="5">
         <f t="shared" si="1"/>
-        <v>222.13488372093025</v>
+        <v>222.18139534883721</v>
       </c>
       <c r="D44">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A44,SL_Sonuclari!A:A),"")</f>
-        <v>232.06976744186048</v>
+        <v>232.16279069767441</v>
       </c>
       <c r="E44">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A44,SL_Sonuclari!A:A),"")</f>
@@ -69848,7 +69848,7 @@
       </c>
       <c r="C45" s="5">
         <f t="shared" si="1"/>
-        <v>241.16273923444976</v>
+        <v>241.41016746411483</v>
       </c>
       <c r="D45" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A45,SL_Sonuclari!A:A),"")</f>
@@ -69856,19 +69856,19 @@
       </c>
       <c r="E45">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A45,SL_Sonuclari!A:A),"")</f>
-        <v>328.5</v>
+        <v>329</v>
       </c>
       <c r="F45">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A45,SL_Sonuclari!A:A),"")</f>
-        <v>200.72727272727272</v>
+        <v>200.90909090909091</v>
       </c>
       <c r="G45">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A45,SL_Sonuclari!A:A),"")</f>
-        <v>219.47368421052633</v>
+        <v>219.63157894736841</v>
       </c>
       <c r="H45">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A45,SL_Sonuclari!A:A),"")</f>
-        <v>215.95</v>
+        <v>216.1</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -69881,7 +69881,7 @@
       </c>
       <c r="C46" s="5">
         <f t="shared" si="1"/>
-        <v>213.82702020202024</v>
+        <v>213.87979797979796</v>
       </c>
       <c r="D46">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A46,SL_Sonuclari!A:A),"")</f>
@@ -69893,11 +69893,11 @@
       </c>
       <c r="F46">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A46,SL_Sonuclari!A:A),"")</f>
-        <v>227.125</v>
+        <v>227.16666666666666</v>
       </c>
       <c r="G46">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A46,SL_Sonuclari!A:A),"")</f>
-        <v>216.88888888888889</v>
+        <v>217.11111111111111</v>
       </c>
       <c r="H46">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A46,SL_Sonuclari!A:A),"")</f>
@@ -69914,23 +69914,23 @@
       </c>
       <c r="C47" s="5">
         <f t="shared" si="1"/>
-        <v>248.40877192982455</v>
+        <v>248.60592105263157</v>
       </c>
       <c r="D47">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A47,SL_Sonuclari!A:A),"")</f>
-        <v>237.66666666666666</v>
+        <v>238</v>
       </c>
       <c r="E47">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A47,SL_Sonuclari!A:A),"")</f>
-        <v>237.36842105263159</v>
+        <v>237.47368421052633</v>
       </c>
       <c r="F47">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A47,SL_Sonuclari!A:A),"")</f>
-        <v>202.1</v>
+        <v>202.2</v>
       </c>
       <c r="G47">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A47,SL_Sonuclari!A:A),"")</f>
-        <v>316.5</v>
+        <v>316.75</v>
       </c>
       <c r="H47" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A47,SL_Sonuclari!A:A),"")</f>
@@ -69947,19 +69947,19 @@
       </c>
       <c r="C48" s="5">
         <f t="shared" si="1"/>
-        <v>249.02098765432098</v>
+        <v>249.24938271604938</v>
       </c>
       <c r="D48">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A48,SL_Sonuclari!A:A),"")</f>
-        <v>238.1</v>
+        <v>238.2</v>
       </c>
       <c r="E48">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A48,SL_Sonuclari!A:A),"")</f>
-        <v>234.96296296296296</v>
+        <v>235.14814814814815</v>
       </c>
       <c r="F48">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A48,SL_Sonuclari!A:A),"")</f>
-        <v>274</v>
+        <v>274.39999999999998</v>
       </c>
       <c r="G48" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A48,SL_Sonuclari!A:A),"")</f>
@@ -69980,27 +69980,27 @@
       </c>
       <c r="C49" s="5">
         <f t="shared" si="1"/>
-        <v>238.09123015873016</v>
+        <v>238.33103174603175</v>
       </c>
       <c r="D49">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A49,SL_Sonuclari!A:A),"")</f>
-        <v>355</v>
+        <v>355.5</v>
       </c>
       <c r="E49">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A49,SL_Sonuclari!A:A),"")</f>
-        <v>176.22222222222223</v>
+        <v>176.44444444444446</v>
       </c>
       <c r="F49">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A49,SL_Sonuclari!A:A),"")</f>
-        <v>240.07142857142858</v>
+        <v>240.28571428571428</v>
       </c>
       <c r="G49">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A49,SL_Sonuclari!A:A),"")</f>
-        <v>220.5625</v>
+        <v>220.625</v>
       </c>
       <c r="H49">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A49,SL_Sonuclari!A:A),"")</f>
-        <v>198.6</v>
+        <v>198.8</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -70013,7 +70013,7 @@
       </c>
       <c r="C50" s="5">
         <f t="shared" si="1"/>
-        <v>228.31619047619046</v>
+        <v>228.4345238095238</v>
       </c>
       <c r="D50">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A50,SL_Sonuclari!A:A),"")</f>
@@ -70021,15 +70021,15 @@
       </c>
       <c r="E50">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A50,SL_Sonuclari!A:A),"")</f>
-        <v>237.26666666666668</v>
+        <v>237.46666666666667</v>
       </c>
       <c r="F50">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A50,SL_Sonuclari!A:A),"")</f>
-        <v>289.60000000000002</v>
+        <v>289.86666666666667</v>
       </c>
       <c r="G50">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A50,SL_Sonuclari!A:A),"")</f>
-        <v>214</v>
+        <v>214.125</v>
       </c>
       <c r="H50">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A50,SL_Sonuclari!A:A),"")</f>
@@ -70046,7 +70046,7 @@
       </c>
       <c r="C51" s="5">
         <f t="shared" si="1"/>
-        <v>201.50710227272728</v>
+        <v>201.5819128787879</v>
       </c>
       <c r="D51" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A51,SL_Sonuclari!A:A),"")</f>
@@ -70058,15 +70058,15 @@
       </c>
       <c r="F51">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A51,SL_Sonuclari!A:A),"")</f>
-        <v>178.09090909090909</v>
+        <v>178.18181818181819</v>
       </c>
       <c r="G51">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A51,SL_Sonuclari!A:A),"")</f>
-        <v>183.1875</v>
+        <v>183.3125</v>
       </c>
       <c r="H51">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A51,SL_Sonuclari!A:A),"")</f>
-        <v>196.25</v>
+        <v>196.33333333333334</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -70079,7 +70079,7 @@
       </c>
       <c r="C52" s="5">
         <f t="shared" si="1"/>
-        <v>222.53362573099415</v>
+        <v>222.6279239766082</v>
       </c>
       <c r="D52" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A52,SL_Sonuclari!A:A),"")</f>
@@ -70095,11 +70095,11 @@
       </c>
       <c r="G52">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A52,SL_Sonuclari!A:A),"")</f>
-        <v>250.57894736842104</v>
+        <v>250.78947368421052</v>
       </c>
       <c r="H52">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A52,SL_Sonuclari!A:A),"")</f>
-        <v>217.55555555555554</v>
+        <v>217.72222222222223</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -70112,7 +70112,7 @@
       </c>
       <c r="C53" s="5">
         <f t="shared" si="1"/>
-        <v>253.36825396825398</v>
+        <v>253.52936507936508</v>
       </c>
       <c r="D53">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A53,SL_Sonuclari!A:A),"")</f>
@@ -70120,11 +70120,11 @@
       </c>
       <c r="E53">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A53,SL_Sonuclari!A:A),"")</f>
-        <v>257.60000000000002</v>
+        <v>257.8</v>
       </c>
       <c r="F53">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A53,SL_Sonuclari!A:A),"")</f>
-        <v>315.11111111111109</v>
+        <v>315.55555555555554</v>
       </c>
       <c r="G53">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A53,SL_Sonuclari!A:A),"")</f>
@@ -70145,7 +70145,7 @@
       </c>
       <c r="C54" s="5">
         <f t="shared" si="1"/>
-        <v>249.20555555555552</v>
+        <v>249.45</v>
       </c>
       <c r="D54">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A54,SL_Sonuclari!A:A),"")</f>
@@ -70153,19 +70153,19 @@
       </c>
       <c r="E54">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A54,SL_Sonuclari!A:A),"")</f>
-        <v>272.25</v>
+        <v>272.75</v>
       </c>
       <c r="F54">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A54,SL_Sonuclari!A:A),"")</f>
-        <v>221.66666666666666</v>
+        <v>221.83333333333334</v>
       </c>
       <c r="G54">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A54,SL_Sonuclari!A:A),"")</f>
-        <v>334.77777777777777</v>
+        <v>335.22222222222223</v>
       </c>
       <c r="H54">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A54,SL_Sonuclari!A:A),"")</f>
-        <v>278.33333333333331</v>
+        <v>278.44444444444446</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -70178,7 +70178,7 @@
       </c>
       <c r="C55" s="5">
         <f t="shared" si="1"/>
-        <v>230.64761904761903</v>
+        <v>230.78333333333336</v>
       </c>
       <c r="D55">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A55,SL_Sonuclari!A:A),"")</f>
@@ -70186,7 +70186,7 @@
       </c>
       <c r="E55">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A55,SL_Sonuclari!A:A),"")</f>
-        <v>254.5</v>
+        <v>254.75</v>
       </c>
       <c r="F55">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A55,SL_Sonuclari!A:A),"")</f>
@@ -70194,11 +70194,11 @@
       </c>
       <c r="G55">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A55,SL_Sonuclari!A:A),"")</f>
-        <v>222.9047619047619</v>
+        <v>223</v>
       </c>
       <c r="H55">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A55,SL_Sonuclari!A:A),"")</f>
-        <v>312.33333333333331</v>
+        <v>312.66666666666669</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -70211,19 +70211,19 @@
       </c>
       <c r="C56" s="5">
         <f t="shared" si="1"/>
-        <v>251.84419580419581</v>
+        <v>251.97734265734266</v>
       </c>
       <c r="D56">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A56,SL_Sonuclari!A:A),"")</f>
-        <v>210.90909090909091</v>
+        <v>211.09090909090909</v>
       </c>
       <c r="E56">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!D:D,A56,SL_Sonuclari!A:A),"")</f>
-        <v>189.16</v>
+        <v>189.28</v>
       </c>
       <c r="F56">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!E:E,A56,SL_Sonuclari!A:A),"")</f>
-        <v>300.30769230769232</v>
+        <v>300.53846153846155</v>
       </c>
       <c r="G56">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A56,SL_Sonuclari!A:A),"")</f>
@@ -70244,7 +70244,7 @@
       </c>
       <c r="C57" s="5">
         <f t="shared" si="1"/>
-        <v>248.04166666666669</v>
+        <v>248.23809523809524</v>
       </c>
       <c r="D57" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A57,SL_Sonuclari!A:A),"")</f>
@@ -70260,15 +70260,15 @@
       </c>
       <c r="G57">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A57,SL_Sonuclari!A:A),"")</f>
-        <v>270.75</v>
+        <v>271</v>
       </c>
       <c r="H57">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A57,SL_Sonuclari!A:A),"")</f>
-        <v>225.33333333333334</v>
+        <v>225.47619047619048</v>
       </c>
       <c r="I57">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!H:H,A57,SL_Sonuclari!A:A),"")</f>
-        <v>198.61111111111111</v>
+        <v>198.77777777777777</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -70281,7 +70281,7 @@
       </c>
       <c r="C58" s="5">
         <f t="shared" si="1"/>
-        <v>242.625</v>
+        <v>242.67500000000001</v>
       </c>
       <c r="D58" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A58,SL_Sonuclari!A:A),"")</f>
@@ -70301,7 +70301,7 @@
       </c>
       <c r="H58">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A58,SL_Sonuclari!A:A),"")</f>
-        <v>207.5</v>
+        <v>207.6</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -70314,7 +70314,7 @@
       </c>
       <c r="C59" s="5">
         <f t="shared" si="1"/>
-        <v>230.6</v>
+        <v>230.65</v>
       </c>
       <c r="D59" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A59,SL_Sonuclari!A:A),"")</f>
@@ -70334,7 +70334,7 @@
       </c>
       <c r="H59">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A59,SL_Sonuclari!A:A),"")</f>
-        <v>247.2</v>
+        <v>247.3</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -70347,7 +70347,7 @@
       </c>
       <c r="C60" s="5">
         <f t="shared" si="1"/>
-        <v>247.21538461538458</v>
+        <v>247.35897435897436</v>
       </c>
       <c r="D60" t="str">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!C:C,A60,SL_Sonuclari!A:A),"")</f>
@@ -70363,11 +70363,11 @@
       </c>
       <c r="G60">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!F:F,A60,SL_Sonuclari!A:A),"")</f>
-        <v>239.8</v>
+        <v>240</v>
       </c>
       <c r="H60">
         <f>IFERROR(AVERAGEIF(SL_Sonuclari!G:G,A60,SL_Sonuclari!A:A),"")</f>
-        <v>226.84615384615384</v>
+        <v>227.07692307692307</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
